--- a/RunControl.xlsx
+++ b/RunControl.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9710E06F-D1BE-484A-A018-7D2E674DABDD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F98E48BB-D4B0-4D02-B893-DF6F6E0041A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="paramlist" sheetId="1" r:id="rId1"/>
@@ -846,11 +846,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BO36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="6" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomRight" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -861,14 +861,14 @@
     <col min="4" max="4" width="11.7109375" customWidth="1"/>
     <col min="5" max="5" width="11.140625" customWidth="1"/>
     <col min="6" max="6" width="14.28515625" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" customWidth="1"/>
-    <col min="8" max="8" width="19.42578125" customWidth="1"/>
-    <col min="9" max="11" width="22" customWidth="1"/>
-    <col min="12" max="17" width="14.85546875" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" customWidth="1"/>
+    <col min="8" max="13" width="12.85546875" customWidth="1"/>
+    <col min="14" max="17" width="17.140625" customWidth="1"/>
     <col min="18" max="18" width="18" customWidth="1"/>
     <col min="19" max="19" width="16.5703125" customWidth="1"/>
     <col min="20" max="22" width="13" customWidth="1"/>
-    <col min="23" max="27" width="16.5703125" customWidth="1"/>
+    <col min="23" max="26" width="16.5703125" customWidth="1"/>
+    <col min="27" max="27" width="28.85546875" customWidth="1"/>
     <col min="28" max="31" width="14.28515625" customWidth="1"/>
     <col min="32" max="32" width="23.42578125" customWidth="1"/>
     <col min="33" max="35" width="14.28515625" customWidth="1"/>
@@ -1178,7 +1178,7 @@
         <v>33</v>
       </c>
       <c r="B3" s="12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" s="12">
         <v>1</v>
@@ -1359,7 +1359,7 @@
         <v>133</v>
       </c>
       <c r="B5" s="12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="12">
         <v>1</v>
@@ -1539,7 +1539,7 @@
         <v>136</v>
       </c>
       <c r="B6" s="12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" s="12">
         <v>1</v>
@@ -1719,7 +1719,7 @@
         <v>121</v>
       </c>
       <c r="B7" s="12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" s="12">
         <v>1</v>
@@ -1899,7 +1899,7 @@
         <v>122</v>
       </c>
       <c r="B8" s="12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" s="12">
         <v>1</v>
@@ -2080,7 +2080,7 @@
         <v>61</v>
       </c>
       <c r="B10" s="12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" s="12">
         <v>1</v>
@@ -2260,7 +2260,7 @@
         <v>62</v>
       </c>
       <c r="B11" s="12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" s="12">
         <v>1</v>
@@ -2440,7 +2440,7 @@
         <v>137</v>
       </c>
       <c r="B12" s="12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" s="12">
         <v>1</v>
@@ -5089,8 +5089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC498317-3D78-4815-AFC0-F5D6A2FF4B8F}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5123,7 +5123,7 @@
         <v>50</v>
       </c>
       <c r="B2">
-        <v>2000</v>
+        <v>10</v>
       </c>
       <c r="C2">
         <v>6</v>
@@ -5151,7 +5151,7 @@
   <dimension ref="A2:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/RunControl.xlsx
+++ b/RunControl.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F98E48BB-D4B0-4D02-B893-DF6F6E0041A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C556A100-FCB7-4622-BF06-66FA87532A77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="paramlist" sheetId="1" r:id="rId1"/>
@@ -846,11 +846,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BO36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="6" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A10" sqref="A10"/>
+      <selection pane="bottomRight" activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -862,7 +862,8 @@
     <col min="5" max="5" width="11.140625" customWidth="1"/>
     <col min="6" max="6" width="14.28515625" customWidth="1"/>
     <col min="7" max="7" width="12.28515625" customWidth="1"/>
-    <col min="8" max="13" width="12.85546875" customWidth="1"/>
+    <col min="8" max="8" width="22.28515625" customWidth="1"/>
+    <col min="9" max="13" width="12.85546875" customWidth="1"/>
     <col min="14" max="17" width="17.140625" customWidth="1"/>
     <col min="18" max="18" width="18" customWidth="1"/>
     <col min="19" max="19" width="16.5703125" customWidth="1"/>
@@ -5089,8 +5090,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC498317-3D78-4815-AFC0-F5D6A2FF4B8F}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5123,7 +5124,7 @@
         <v>50</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="C2">
         <v>6</v>

--- a/RunControl.xlsx
+++ b/RunControl.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C556A100-FCB7-4622-BF06-66FA87532A77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F45A375-C4DF-4B0A-AB6D-A6134485FDDE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -844,21 +844,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BO36"/>
+  <dimension ref="A1:BO43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="6" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M18" sqref="M18"/>
+      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.140625" customWidth="1"/>
     <col min="2" max="2" width="10.140625" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="3" max="4" width="11.7109375" customWidth="1"/>
     <col min="5" max="5" width="11.140625" customWidth="1"/>
     <col min="6" max="6" width="14.28515625" customWidth="1"/>
     <col min="7" max="7" width="12.28515625" customWidth="1"/>
@@ -1251,7 +1250,7 @@
         <v>1</v>
       </c>
       <c r="AE3" s="12">
-        <f t="shared" ref="AE3:AE28" si="0">0.15/20</f>
+        <f t="shared" ref="AE3:AE35" si="0">0.15/20</f>
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="AF3" s="12">
@@ -2619,984 +2618,28 @@
     <row r="13" spans="1:67" s="12" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="1:67" s="12" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:67" s="12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:67" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="B16" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="D16" s="12">
-        <v>1</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="G16" s="12">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="R16" s="12">
-        <v>0.02</v>
-      </c>
-      <c r="S16" s="12">
-        <v>0</v>
-      </c>
-      <c r="T16" s="12">
-        <v>0.02</v>
-      </c>
-      <c r="U16" s="12">
-        <v>0</v>
-      </c>
-      <c r="V16" s="12">
-        <v>0.9</v>
-      </c>
-      <c r="W16" s="12">
-        <v>0.02</v>
-      </c>
-      <c r="X16" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y16" s="12">
-        <v>0.9</v>
-      </c>
-      <c r="Z16" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="AA16" s="12">
-        <v>1E-3</v>
-      </c>
-      <c r="AB16" s="12">
-        <v>0.02</v>
-      </c>
-      <c r="AC16" s="12">
-        <v>0</v>
-      </c>
-      <c r="AD16" s="12">
-        <v>1</v>
-      </c>
-      <c r="AE16" s="12">
-        <f t="shared" si="0"/>
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="AF16" s="12">
-        <v>1E-3</v>
-      </c>
-      <c r="AG16" s="12">
-        <v>0.02</v>
-      </c>
-      <c r="AH16" s="12">
-        <v>0</v>
-      </c>
-      <c r="AI16" s="12">
-        <v>1</v>
-      </c>
-      <c r="AJ16" s="12">
-        <v>1</v>
-      </c>
-      <c r="AN16" s="12">
-        <v>0.06</v>
-      </c>
-      <c r="AY16" s="12">
-        <v>15</v>
-      </c>
-      <c r="AZ16" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="BA16" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="BB16" s="12">
-        <v>0.02</v>
-      </c>
-      <c r="BC16" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="BD16" s="12">
-        <v>5</v>
-      </c>
-      <c r="BE16" s="12">
-        <v>8.2199999999999995E-2</v>
-      </c>
-      <c r="BF16" s="12">
-        <v>0.12</v>
-      </c>
-      <c r="BG16" s="12">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="BH16" s="12">
-        <v>0.02</v>
-      </c>
-      <c r="BI16" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="BJ16" s="12">
-        <v>0.02</v>
-      </c>
-      <c r="BK16" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="BL16" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="BM16" s="12">
-        <v>1</v>
-      </c>
-      <c r="BN16" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="BO16" s="12" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:67" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="B17" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="D17" s="12">
-        <v>1</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="G17" s="12">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="R17" s="12">
-        <v>0.02</v>
-      </c>
-      <c r="S17" s="12">
-        <v>0</v>
-      </c>
-      <c r="T17" s="12">
-        <v>0.02</v>
-      </c>
-      <c r="U17" s="12">
-        <v>0</v>
-      </c>
-      <c r="V17" s="12">
-        <v>0.9</v>
-      </c>
-      <c r="W17" s="12">
-        <v>0.02</v>
-      </c>
-      <c r="X17" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y17" s="12">
-        <v>0.9</v>
-      </c>
-      <c r="Z17" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="AA17" s="12">
-        <v>1E-3</v>
-      </c>
-      <c r="AB17" s="12">
-        <v>0.02</v>
-      </c>
-      <c r="AC17" s="12">
-        <v>0</v>
-      </c>
-      <c r="AD17" s="12">
-        <v>1</v>
-      </c>
-      <c r="AE17" s="12">
-        <f t="shared" si="0"/>
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="AF17" s="12">
-        <v>1E-3</v>
-      </c>
-      <c r="AG17" s="12">
-        <v>0.02</v>
-      </c>
-      <c r="AH17" s="12">
-        <v>0</v>
-      </c>
-      <c r="AI17" s="12">
-        <v>1</v>
-      </c>
-      <c r="AJ17" s="12">
-        <v>1</v>
-      </c>
-      <c r="AN17" s="12">
-        <v>0.06</v>
-      </c>
-      <c r="AY17" s="12">
-        <v>15</v>
-      </c>
-      <c r="AZ17" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="BA17" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="BB17" s="12">
-        <v>0.02</v>
-      </c>
-      <c r="BC17" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="BD17" s="12">
-        <v>5</v>
-      </c>
-      <c r="BE17" s="12">
-        <v>8.2199999999999995E-2</v>
-      </c>
-      <c r="BF17" s="12">
-        <v>0.12</v>
-      </c>
-      <c r="BG17" s="12">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="BH17" s="12">
-        <v>0.02</v>
-      </c>
-      <c r="BI17" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="BJ17" s="12">
-        <v>0.02</v>
-      </c>
-      <c r="BK17" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="BL17" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="BM17" s="12">
-        <v>1</v>
-      </c>
-      <c r="BN17" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="BO17" s="12" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:67" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="B18" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="D18" s="12">
-        <v>1</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="F18" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="G18" s="12">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="R18" s="12">
-        <v>0.02</v>
-      </c>
-      <c r="S18" s="12">
-        <v>0</v>
-      </c>
-      <c r="T18" s="12">
-        <v>0.02</v>
-      </c>
-      <c r="U18" s="12">
-        <v>0</v>
-      </c>
-      <c r="V18" s="12">
-        <v>0.9</v>
-      </c>
-      <c r="W18" s="12">
-        <v>0.02</v>
-      </c>
-      <c r="X18" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="12">
-        <v>0.9</v>
-      </c>
-      <c r="Z18" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="AA18" s="12">
-        <v>1E-3</v>
-      </c>
-      <c r="AB18" s="12">
-        <v>0.02</v>
-      </c>
-      <c r="AC18" s="12">
-        <v>0</v>
-      </c>
-      <c r="AD18" s="12">
-        <v>1</v>
-      </c>
-      <c r="AE18" s="12">
-        <f t="shared" si="0"/>
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="AF18" s="12">
-        <v>1E-3</v>
-      </c>
-      <c r="AG18" s="12">
-        <v>0.02</v>
-      </c>
-      <c r="AH18" s="12">
-        <v>0</v>
-      </c>
-      <c r="AI18" s="12">
-        <v>1</v>
-      </c>
-      <c r="AJ18" s="12">
-        <v>1</v>
-      </c>
-      <c r="AN18" s="12">
-        <v>0.06</v>
-      </c>
-      <c r="AY18" s="12">
-        <v>15</v>
-      </c>
-      <c r="AZ18" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="BA18" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="BB18" s="12">
-        <v>0.02</v>
-      </c>
-      <c r="BC18" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="BD18" s="12">
-        <v>5</v>
-      </c>
-      <c r="BE18" s="12">
-        <v>8.2199999999999995E-2</v>
-      </c>
-      <c r="BF18" s="12">
-        <v>0.12</v>
-      </c>
-      <c r="BG18" s="12">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="BH18" s="12">
-        <v>0.02</v>
-      </c>
-      <c r="BI18" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="BJ18" s="12">
-        <v>0.02</v>
-      </c>
-      <c r="BK18" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="BL18" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="BM18" s="12">
-        <v>1</v>
-      </c>
-      <c r="BN18" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="BO18" s="12" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:67" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="B19" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="D19" s="12">
-        <v>1</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="G19" s="12">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="R19" s="12">
-        <v>0.02</v>
-      </c>
-      <c r="S19" s="12">
-        <v>0</v>
-      </c>
-      <c r="T19" s="12">
-        <v>0.02</v>
-      </c>
-      <c r="U19" s="12">
-        <v>0</v>
-      </c>
-      <c r="V19" s="12">
-        <v>0.9</v>
-      </c>
-      <c r="W19" s="12">
-        <v>0.02</v>
-      </c>
-      <c r="X19" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y19" s="12">
-        <v>0.9</v>
-      </c>
-      <c r="Z19" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="AA19" s="12">
-        <v>1E-3</v>
-      </c>
-      <c r="AB19" s="12">
-        <v>0.02</v>
-      </c>
-      <c r="AC19" s="12">
-        <v>0</v>
-      </c>
-      <c r="AD19" s="12">
-        <v>1</v>
-      </c>
-      <c r="AE19" s="12">
-        <f t="shared" si="0"/>
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="AF19" s="12">
-        <v>1E-3</v>
-      </c>
-      <c r="AG19" s="12">
-        <v>0.02</v>
-      </c>
-      <c r="AH19" s="12">
-        <v>0</v>
-      </c>
-      <c r="AI19" s="12">
-        <v>1</v>
-      </c>
-      <c r="AJ19" s="12">
-        <v>1</v>
-      </c>
-      <c r="AN19" s="12">
-        <v>0.06</v>
-      </c>
-      <c r="AY19" s="12">
-        <v>15</v>
-      </c>
-      <c r="AZ19" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="BA19" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="BB19" s="12">
-        <v>0.02</v>
-      </c>
-      <c r="BC19" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="BD19" s="12">
-        <v>5</v>
-      </c>
-      <c r="BE19" s="12">
-        <v>8.2199999999999995E-2</v>
-      </c>
-      <c r="BF19" s="12">
-        <v>0.12</v>
-      </c>
-      <c r="BG19" s="12">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="BH19" s="12">
-        <v>0.02</v>
-      </c>
-      <c r="BI19" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="BJ19" s="12">
-        <v>0.02</v>
-      </c>
-      <c r="BK19" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="BL19" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="BM19" s="12">
-        <v>1</v>
-      </c>
-      <c r="BN19" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="BO19" s="12" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:67" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="B20" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="D20" s="12">
-        <v>1</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="F20" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="G20" s="12">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="R20" s="12">
-        <v>0.02</v>
-      </c>
-      <c r="S20" s="12">
-        <v>0</v>
-      </c>
-      <c r="T20" s="12">
-        <v>0.02</v>
-      </c>
-      <c r="U20" s="12">
-        <v>0</v>
-      </c>
-      <c r="V20" s="12">
-        <v>0.9</v>
-      </c>
-      <c r="W20" s="12">
-        <v>0.02</v>
-      </c>
-      <c r="X20" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="12">
-        <v>0.9</v>
-      </c>
-      <c r="Z20" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="AA20" s="12">
-        <v>1E-3</v>
-      </c>
-      <c r="AB20" s="12">
-        <v>0.02</v>
-      </c>
-      <c r="AC20" s="12">
-        <v>0</v>
-      </c>
-      <c r="AD20" s="12">
-        <v>1</v>
-      </c>
-      <c r="AE20" s="12">
-        <f t="shared" si="0"/>
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="AF20" s="12">
-        <v>1E-3</v>
-      </c>
-      <c r="AG20" s="12">
-        <v>0.02</v>
-      </c>
-      <c r="AH20" s="12">
-        <v>0</v>
-      </c>
-      <c r="AI20" s="12">
-        <v>1</v>
-      </c>
-      <c r="AJ20" s="12">
-        <v>1</v>
-      </c>
-      <c r="AK20" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="AL20" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="AN20" s="12">
-        <v>0.06</v>
-      </c>
-      <c r="AY20" s="12">
-        <v>15</v>
-      </c>
-      <c r="AZ20" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="BA20" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="BB20" s="12">
-        <v>0.02</v>
-      </c>
-      <c r="BC20" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="BD20" s="12">
-        <v>5</v>
-      </c>
-      <c r="BE20" s="12">
-        <v>8.2199999999999995E-2</v>
-      </c>
-      <c r="BF20" s="12">
-        <v>0.12</v>
-      </c>
-      <c r="BG20" s="12">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="BH20" s="12">
-        <v>0.02</v>
-      </c>
-      <c r="BI20" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="BJ20" s="12">
-        <v>0.02</v>
-      </c>
-      <c r="BK20" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="BL20" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="BM20" s="12">
-        <v>1</v>
-      </c>
-      <c r="BN20" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="BO20" s="12" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:67" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="B21" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="D21" s="12">
-        <v>1</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="F21" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="G21" s="12">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="R21" s="12">
-        <v>0.02</v>
-      </c>
-      <c r="S21" s="12">
-        <v>0</v>
-      </c>
-      <c r="T21" s="12">
-        <v>0.02</v>
-      </c>
-      <c r="U21" s="12">
-        <v>0</v>
-      </c>
-      <c r="V21" s="12">
-        <v>0.9</v>
-      </c>
-      <c r="W21" s="12">
-        <v>0.02</v>
-      </c>
-      <c r="X21" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y21" s="12">
-        <v>0.9</v>
-      </c>
-      <c r="Z21" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="AA21" s="12">
-        <v>1E-3</v>
-      </c>
-      <c r="AB21" s="12">
-        <v>0.02</v>
-      </c>
-      <c r="AC21" s="12">
-        <v>0</v>
-      </c>
-      <c r="AD21" s="12">
-        <v>1</v>
-      </c>
-      <c r="AE21" s="12">
-        <f t="shared" si="0"/>
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="AF21" s="12">
-        <v>1E-3</v>
-      </c>
-      <c r="AG21" s="12">
-        <v>0.02</v>
-      </c>
-      <c r="AH21" s="12">
-        <v>0</v>
-      </c>
-      <c r="AI21" s="12">
-        <v>1</v>
-      </c>
-      <c r="AJ21" s="12">
-        <v>2</v>
-      </c>
-      <c r="AK21" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="AL21" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="AN21" s="12">
-        <v>0.06</v>
-      </c>
-      <c r="AY21" s="12">
-        <v>15</v>
-      </c>
-      <c r="AZ21" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="BA21" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="BB21" s="12">
-        <v>0.02</v>
-      </c>
-      <c r="BC21" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="BD21" s="12">
-        <v>5</v>
-      </c>
-      <c r="BE21" s="12">
-        <v>8.2199999999999995E-2</v>
-      </c>
-      <c r="BF21" s="12">
-        <v>0.12</v>
-      </c>
-      <c r="BG21" s="12">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="BH21" s="12">
-        <v>0.02</v>
-      </c>
-      <c r="BI21" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="BJ21" s="12">
-        <v>0.02</v>
-      </c>
-      <c r="BK21" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="BL21" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="BM21" s="12">
-        <v>1</v>
-      </c>
-      <c r="BN21" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="BO21" s="12" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:67" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="B22" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="D22" s="12">
-        <v>1</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="F22" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="G22" s="12">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="R22" s="12">
-        <v>0.02</v>
-      </c>
-      <c r="S22" s="12">
-        <v>0</v>
-      </c>
-      <c r="T22" s="12">
-        <v>0.02</v>
-      </c>
-      <c r="U22" s="12">
-        <v>0</v>
-      </c>
-      <c r="V22" s="12">
-        <v>0.9</v>
-      </c>
-      <c r="W22" s="12">
-        <v>0.02</v>
-      </c>
-      <c r="X22" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y22" s="12">
-        <v>0.9</v>
-      </c>
-      <c r="Z22" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="AA22" s="12">
-        <v>1E-3</v>
-      </c>
-      <c r="AB22" s="12">
-        <v>0.02</v>
-      </c>
-      <c r="AC22" s="12">
-        <v>0</v>
-      </c>
-      <c r="AD22" s="12">
-        <v>1</v>
-      </c>
-      <c r="AE22" s="12">
-        <f t="shared" si="0"/>
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="AF22" s="12">
-        <v>1E-3</v>
-      </c>
-      <c r="AG22" s="12">
-        <v>0.02</v>
-      </c>
-      <c r="AH22" s="12">
-        <v>0</v>
-      </c>
-      <c r="AI22" s="12">
-        <v>1</v>
-      </c>
-      <c r="AJ22" s="12">
-        <v>1</v>
-      </c>
-      <c r="AK22" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="AL22" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="AN22" s="12">
-        <v>0.06</v>
-      </c>
-      <c r="AY22" s="12">
-        <v>15</v>
-      </c>
-      <c r="AZ22" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="BA22" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="BB22" s="12">
-        <v>0.02</v>
-      </c>
-      <c r="BC22" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="BD22" s="12">
-        <v>5</v>
-      </c>
-      <c r="BE22" s="12">
-        <v>8.2199999999999995E-2</v>
-      </c>
-      <c r="BF22" s="12">
-        <v>0.12</v>
-      </c>
-      <c r="BG22" s="12">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="BH22" s="12">
-        <v>0.02</v>
-      </c>
-      <c r="BI22" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="BJ22" s="12">
-        <v>0.02</v>
-      </c>
-      <c r="BK22" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="BL22" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="BM22" s="12">
-        <v>1</v>
-      </c>
-      <c r="BN22" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="BO22" s="12" t="b">
-        <v>1</v>
-      </c>
-    </row>
+    <row r="16" spans="1:67" s="12" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="1:67" s="12" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="1:67" s="12" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:67" s="12" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:67" s="12" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:67" s="12" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:67" s="12" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="1:67" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>90</v>
+        <v>61</v>
       </c>
       <c r="B23" s="12" t="b">
         <v>0</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D23" s="12">
         <v>1</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F23" s="12" t="s">
         <v>83</v>
@@ -3660,13 +2703,7 @@
         <v>1</v>
       </c>
       <c r="AJ23" s="12">
-        <v>2</v>
-      </c>
-      <c r="AK23" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="AL23" s="12">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AN23" s="12">
         <v>0.06</v>
@@ -3723,28 +2760,159 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="BJ24" s="12"/>
-      <c r="BK24" s="12"/>
+    <row r="24" spans="1:67" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B24" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D24" s="12">
+        <v>1</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="G24" s="12">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="R24" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="S24" s="12">
+        <v>0</v>
+      </c>
+      <c r="T24" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="U24" s="12">
+        <v>0</v>
+      </c>
+      <c r="V24" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="W24" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="X24" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="Z24" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="AA24" s="12">
+        <v>1E-3</v>
+      </c>
+      <c r="AB24" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="AC24" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="12">
+        <v>1</v>
+      </c>
+      <c r="AE24" s="12">
+        <f t="shared" si="0"/>
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="AF24" s="12">
+        <v>1E-3</v>
+      </c>
+      <c r="AG24" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="AH24" s="12">
+        <v>0</v>
+      </c>
+      <c r="AI24" s="12">
+        <v>1</v>
+      </c>
+      <c r="AJ24" s="12">
+        <v>1</v>
+      </c>
+      <c r="AN24" s="12">
+        <v>0.06</v>
+      </c>
+      <c r="AY24" s="12">
+        <v>15</v>
+      </c>
+      <c r="AZ24" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="BA24" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="BB24" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="BC24" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="BD24" s="12">
+        <v>5</v>
+      </c>
+      <c r="BE24" s="12">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="BF24" s="12">
+        <v>0.12</v>
+      </c>
+      <c r="BG24" s="12">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="BH24" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="BI24" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="BJ24" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="BK24" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="BL24" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="BM24" s="12">
+        <v>1</v>
+      </c>
+      <c r="BN24" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="BO24" s="12" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:67" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="B25" s="12" t="b">
         <v>0</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="D25" s="12">
         <v>1</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G25" s="12">
         <v>1.4999999999999999E-2</v>
@@ -3807,9 +2975,6 @@
       <c r="AJ25" s="12">
         <v>1</v>
       </c>
-      <c r="AM25" s="12">
-        <v>0.02</v>
-      </c>
       <c r="AN25" s="12">
         <v>0.06</v>
       </c>
@@ -3865,22 +3030,156 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:67" s="12" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:67" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B26" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D26" s="12">
+        <v>1</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="G26" s="12">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="R26" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="S26" s="12">
+        <v>0</v>
+      </c>
+      <c r="T26" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="U26" s="12">
+        <v>0</v>
+      </c>
+      <c r="V26" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="W26" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="X26" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="Z26" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="AA26" s="12">
+        <v>1E-3</v>
+      </c>
+      <c r="AB26" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="AC26" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD26" s="12">
+        <v>1</v>
+      </c>
+      <c r="AE26" s="12">
+        <f t="shared" si="0"/>
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="AF26" s="12">
+        <v>1E-3</v>
+      </c>
+      <c r="AG26" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="AH26" s="12">
+        <v>0</v>
+      </c>
+      <c r="AI26" s="12">
+        <v>1</v>
+      </c>
+      <c r="AJ26" s="12">
+        <v>1</v>
+      </c>
+      <c r="AN26" s="12">
+        <v>0.06</v>
+      </c>
+      <c r="AY26" s="12">
+        <v>15</v>
+      </c>
+      <c r="AZ26" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="BA26" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="BB26" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="BC26" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="BD26" s="12">
+        <v>5</v>
+      </c>
+      <c r="BE26" s="12">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="BF26" s="12">
+        <v>0.12</v>
+      </c>
+      <c r="BG26" s="12">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="BH26" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="BI26" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="BJ26" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="BK26" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="BL26" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="BM26" s="12">
+        <v>1</v>
+      </c>
+      <c r="BN26" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="BO26" s="12" t="b">
+        <v>1</v>
+      </c>
+    </row>
     <row r="27" spans="1:67" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
       <c r="B27" s="12" t="b">
         <v>0</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="D27" s="12">
         <v>1</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="F27" s="12" t="s">
         <v>83</v>
@@ -3895,7 +3194,7 @@
         <v>0</v>
       </c>
       <c r="T27" s="12">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="U27" s="12">
         <v>0</v>
@@ -3946,6 +3245,12 @@
       <c r="AJ27" s="12">
         <v>1</v>
       </c>
+      <c r="AK27" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="AL27" s="12">
+        <v>0.5</v>
+      </c>
       <c r="AN27" s="12">
         <v>0.06</v>
       </c>
@@ -3980,7 +3285,7 @@
         <v>0.02</v>
       </c>
       <c r="BI27" s="12" t="s">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="BJ27" s="12">
         <v>0.02</v>
@@ -4003,19 +3308,19 @@
     </row>
     <row r="28" spans="1:67" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="B28" s="12" t="b">
         <v>0</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D28" s="12">
         <v>1</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F28" s="12" t="s">
         <v>83</v>
@@ -4030,7 +3335,7 @@
         <v>0</v>
       </c>
       <c r="T28" s="12">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="U28" s="12">
         <v>0</v>
@@ -4079,7 +3384,13 @@
         <v>1</v>
       </c>
       <c r="AJ28" s="12">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="AK28" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="AL28" s="12">
+        <v>0.5</v>
       </c>
       <c r="AN28" s="12">
         <v>0.06</v>
@@ -4115,7 +3426,7 @@
         <v>0.02</v>
       </c>
       <c r="BI28" s="12" t="s">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="BJ28" s="12">
         <v>0.02</v>
@@ -4133,27 +3444,171 @@
         <v>1</v>
       </c>
       <c r="BO28" s="12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:67" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B29" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D29" s="12">
+        <v>1</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="G29" s="12">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="R29" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="S29" s="12">
+        <v>0</v>
+      </c>
+      <c r="T29" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="U29" s="12">
+        <v>0</v>
+      </c>
+      <c r="V29" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="W29" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="X29" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="Z29" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="AA29" s="12">
+        <v>1E-3</v>
+      </c>
+      <c r="AB29" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="AC29" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="12">
+        <v>1</v>
+      </c>
+      <c r="AE29" s="12">
+        <f t="shared" si="0"/>
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="AF29" s="12">
+        <v>1E-3</v>
+      </c>
+      <c r="AG29" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="AH29" s="12">
+        <v>0</v>
+      </c>
+      <c r="AI29" s="12">
+        <v>1</v>
+      </c>
+      <c r="AJ29" s="12">
+        <v>1</v>
+      </c>
+      <c r="AK29" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="AL29" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="AN29" s="12">
+        <v>0.06</v>
+      </c>
+      <c r="AY29" s="12">
+        <v>15</v>
+      </c>
+      <c r="AZ29" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="BA29" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="BB29" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="BC29" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="BD29" s="12">
+        <v>5</v>
+      </c>
+      <c r="BE29" s="12">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="BF29" s="12">
+        <v>0.12</v>
+      </c>
+      <c r="BG29" s="12">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="BH29" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="BI29" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="BJ29" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="BK29" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="BL29" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="BM29" s="12">
+        <v>1</v>
+      </c>
+      <c r="BN29" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="BO29" s="12" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:67" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="B30" s="12" t="b">
         <v>0</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="D30" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>55</v>
+        <v>63</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>83</v>
       </c>
       <c r="G30" s="12">
-        <v>0.02</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="R30" s="12">
         <v>0.02</v>
@@ -4195,7 +3650,7 @@
         <v>1</v>
       </c>
       <c r="AE30" s="12">
-        <f t="shared" ref="AE30:AE36" si="1">0.15/20</f>
+        <f t="shared" si="0"/>
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="AF30" s="12">
@@ -4211,7 +3666,13 @@
         <v>1</v>
       </c>
       <c r="AJ30" s="12">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="AK30" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="AL30" s="12">
+        <v>0.5</v>
       </c>
       <c r="AN30" s="12">
         <v>0.06</v>
@@ -4234,8 +3695,8 @@
       <c r="BD30" s="12">
         <v>5</v>
       </c>
-      <c r="BE30" s="13">
-        <v>6.7199999999999996E-2</v>
+      <c r="BE30" s="12">
+        <v>8.2199999999999995E-2</v>
       </c>
       <c r="BF30" s="12">
         <v>0.12</v>
@@ -4268,156 +3729,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:67" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="B31" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="C31" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="D31" s="12">
-        <v>2</v>
-      </c>
-      <c r="E31" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="G31" s="12">
-        <v>0.02</v>
-      </c>
-      <c r="R31" s="12">
-        <v>0.02</v>
-      </c>
-      <c r="S31" s="12">
-        <v>0</v>
-      </c>
-      <c r="T31" s="12">
-        <v>0.02</v>
-      </c>
-      <c r="U31" s="12">
-        <v>0</v>
-      </c>
-      <c r="V31" s="12">
-        <v>0.9</v>
-      </c>
-      <c r="W31" s="12">
-        <v>0.02</v>
-      </c>
-      <c r="X31" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y31" s="12">
-        <v>0.9</v>
-      </c>
-      <c r="Z31" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="AA31" s="12">
-        <v>1E-3</v>
-      </c>
-      <c r="AB31" s="12">
-        <v>0.02</v>
-      </c>
-      <c r="AC31" s="12">
-        <v>0</v>
-      </c>
-      <c r="AD31" s="12">
-        <v>1</v>
-      </c>
-      <c r="AE31" s="12">
-        <f t="shared" si="1"/>
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="AF31" s="12">
-        <v>1E-3</v>
-      </c>
-      <c r="AG31" s="12">
-        <v>0.02</v>
-      </c>
-      <c r="AH31" s="12">
-        <v>0</v>
-      </c>
-      <c r="AI31" s="12">
-        <v>1</v>
-      </c>
-      <c r="AJ31" s="12">
-        <v>1</v>
-      </c>
-      <c r="AN31" s="12">
-        <v>0.06</v>
-      </c>
-      <c r="AY31" s="12">
-        <v>15</v>
-      </c>
-      <c r="AZ31" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="BA31" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="BB31" s="12">
-        <v>0.02</v>
-      </c>
-      <c r="BC31" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="BD31" s="12">
-        <v>5</v>
-      </c>
-      <c r="BE31" s="13">
-        <v>6.7199999999999996E-2</v>
-      </c>
-      <c r="BF31" s="12">
-        <v>0.12</v>
-      </c>
-      <c r="BG31" s="12">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="BH31" s="12">
-        <v>0.02</v>
-      </c>
-      <c r="BI31" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="BJ31" s="12">
-        <v>0.02</v>
-      </c>
-      <c r="BK31" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="BL31" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="BM31" s="12">
-        <v>1</v>
-      </c>
-      <c r="BN31" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="BO31" s="12" t="b">
-        <v>1</v>
-      </c>
+    <row r="31" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="BJ31" s="12"/>
+      <c r="BK31" s="12"/>
     </row>
     <row r="32" spans="1:67" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="B32" s="12" t="b">
         <v>0</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D32" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>58</v>
+        <v>55</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>86</v>
       </c>
       <c r="G32" s="12">
-        <v>0.02</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="R32" s="12">
         <v>0.02</v>
@@ -4459,7 +3795,7 @@
         <v>1</v>
       </c>
       <c r="AE32" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="AF32" s="12">
@@ -4477,6 +3813,9 @@
       <c r="AJ32" s="12">
         <v>1</v>
       </c>
+      <c r="AM32" s="12">
+        <v>0.02</v>
+      </c>
       <c r="AN32" s="12">
         <v>0.06</v>
       </c>
@@ -4498,8 +3837,8 @@
       <c r="BD32" s="12">
         <v>5</v>
       </c>
-      <c r="BE32" s="13">
-        <v>6.7199999999999996E-2</v>
+      <c r="BE32" s="12">
+        <v>8.2199999999999995E-2</v>
       </c>
       <c r="BF32" s="12">
         <v>0.12</v>
@@ -4532,156 +3871,28 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:67" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="B33" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="C33" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="D33" s="12">
-        <v>2</v>
-      </c>
-      <c r="E33" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="G33" s="12">
-        <v>0.02</v>
-      </c>
-      <c r="R33" s="12">
-        <v>0.02</v>
-      </c>
-      <c r="S33" s="12">
-        <v>0</v>
-      </c>
-      <c r="T33" s="12">
-        <v>0.02</v>
-      </c>
-      <c r="U33" s="12">
-        <v>0</v>
-      </c>
-      <c r="V33" s="12">
-        <v>0.9</v>
-      </c>
-      <c r="W33" s="12">
-        <v>0.02</v>
-      </c>
-      <c r="X33" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y33" s="12">
-        <v>0.9</v>
-      </c>
-      <c r="Z33" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="AA33" s="12">
-        <v>1E-3</v>
-      </c>
-      <c r="AB33" s="12">
-        <v>0.02</v>
-      </c>
-      <c r="AC33" s="12">
-        <v>0</v>
-      </c>
-      <c r="AD33" s="12">
-        <v>1</v>
-      </c>
-      <c r="AE33" s="12">
-        <f t="shared" si="1"/>
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="AF33" s="12">
-        <v>1E-3</v>
-      </c>
-      <c r="AG33" s="12">
-        <v>0.02</v>
-      </c>
-      <c r="AH33" s="12">
-        <v>0</v>
-      </c>
-      <c r="AI33" s="12">
-        <v>1</v>
-      </c>
-      <c r="AJ33" s="12">
-        <v>1</v>
-      </c>
-      <c r="AN33" s="12">
-        <v>0.06</v>
-      </c>
-      <c r="AY33" s="12">
-        <v>15</v>
-      </c>
-      <c r="AZ33" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="BA33" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="BB33" s="12">
-        <v>0.02</v>
-      </c>
-      <c r="BC33" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="BD33" s="12">
-        <v>5</v>
-      </c>
-      <c r="BE33" s="13">
-        <v>6.7199999999999996E-2</v>
-      </c>
-      <c r="BF33" s="12">
-        <v>0.12</v>
-      </c>
-      <c r="BG33" s="12">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="BH33" s="12">
-        <v>0.02</v>
-      </c>
-      <c r="BI33" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="BJ33" s="12">
-        <v>0.02</v>
-      </c>
-      <c r="BK33" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="BL33" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="BM33" s="12">
-        <v>1</v>
-      </c>
-      <c r="BN33" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="BO33" s="12" t="b">
-        <v>1</v>
-      </c>
-    </row>
+    <row r="33" spans="1:67" s="12" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="34" spans="1:67" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="B34" s="12" t="b">
         <v>0</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="D34" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>60</v>
+        <v>97</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>83</v>
       </c>
       <c r="G34" s="12">
-        <v>0.02</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="R34" s="12">
         <v>0.02</v>
@@ -4690,7 +3901,7 @@
         <v>0</v>
       </c>
       <c r="T34" s="12">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="U34" s="12">
         <v>0</v>
@@ -4723,7 +3934,7 @@
         <v>1</v>
       </c>
       <c r="AE34" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="AF34" s="12">
@@ -4762,8 +3973,8 @@
       <c r="BD34" s="12">
         <v>5</v>
       </c>
-      <c r="BE34" s="13">
-        <v>6.7199999999999996E-2</v>
+      <c r="BE34" s="12">
+        <v>8.2199999999999995E-2</v>
       </c>
       <c r="BF34" s="12">
         <v>0.12</v>
@@ -4775,7 +3986,7 @@
         <v>0.02</v>
       </c>
       <c r="BI34" s="12" t="s">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="BJ34" s="12">
         <v>0.02</v>
@@ -4798,22 +4009,25 @@
     </row>
     <row r="35" spans="1:67" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="B35" s="12" t="b">
         <v>0</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D35" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>63</v>
+        <v>58</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>83</v>
       </c>
       <c r="G35" s="12">
-        <v>0.02</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="R35" s="12">
         <v>0.02</v>
@@ -4822,7 +4036,7 @@
         <v>0</v>
       </c>
       <c r="T35" s="12">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="U35" s="12">
         <v>0</v>
@@ -4855,214 +4069,1006 @@
         <v>1</v>
       </c>
       <c r="AE35" s="12">
+        <f t="shared" si="0"/>
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="AF35" s="12">
+        <v>1E-3</v>
+      </c>
+      <c r="AG35" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="AH35" s="12">
+        <v>0</v>
+      </c>
+      <c r="AI35" s="12">
+        <v>1</v>
+      </c>
+      <c r="AJ35" s="12">
+        <v>1</v>
+      </c>
+      <c r="AN35" s="12">
+        <v>0.06</v>
+      </c>
+      <c r="AY35" s="12">
+        <v>15</v>
+      </c>
+      <c r="AZ35" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="BA35" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="BB35" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="BC35" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="BD35" s="12">
+        <v>5</v>
+      </c>
+      <c r="BE35" s="12">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="BF35" s="12">
+        <v>0.12</v>
+      </c>
+      <c r="BG35" s="12">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="BH35" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="BI35" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="BJ35" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="BK35" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="BL35" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="BM35" s="12">
+        <v>1</v>
+      </c>
+      <c r="BN35" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="BO35" s="12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:67" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B37" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D37" s="12">
+        <v>2</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="G37" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="R37" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="S37" s="12">
+        <v>0</v>
+      </c>
+      <c r="T37" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="U37" s="12">
+        <v>0</v>
+      </c>
+      <c r="V37" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="W37" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="X37" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y37" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="Z37" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="AA37" s="12">
+        <v>1E-3</v>
+      </c>
+      <c r="AB37" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="AC37" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD37" s="12">
+        <v>1</v>
+      </c>
+      <c r="AE37" s="12">
+        <f t="shared" ref="AE37:AE43" si="1">0.15/20</f>
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="AF37" s="12">
+        <v>1E-3</v>
+      </c>
+      <c r="AG37" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="AH37" s="12">
+        <v>0</v>
+      </c>
+      <c r="AI37" s="12">
+        <v>1</v>
+      </c>
+      <c r="AJ37" s="12">
+        <v>1</v>
+      </c>
+      <c r="AN37" s="12">
+        <v>0.06</v>
+      </c>
+      <c r="AY37" s="12">
+        <v>15</v>
+      </c>
+      <c r="AZ37" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="BA37" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="BB37" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="BC37" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="BD37" s="12">
+        <v>5</v>
+      </c>
+      <c r="BE37" s="13">
+        <v>6.7199999999999996E-2</v>
+      </c>
+      <c r="BF37" s="12">
+        <v>0.12</v>
+      </c>
+      <c r="BG37" s="12">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="BH37" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="BI37" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="BJ37" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="BK37" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="BL37" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="BM37" s="12">
+        <v>1</v>
+      </c>
+      <c r="BN37" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="BO37" s="12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:67" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B38" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D38" s="12">
+        <v>2</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="G38" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="R38" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="S38" s="12">
+        <v>0</v>
+      </c>
+      <c r="T38" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="U38" s="12">
+        <v>0</v>
+      </c>
+      <c r="V38" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="W38" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="X38" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y38" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="Z38" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="AA38" s="12">
+        <v>1E-3</v>
+      </c>
+      <c r="AB38" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="AC38" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD38" s="12">
+        <v>1</v>
+      </c>
+      <c r="AE38" s="12">
         <f t="shared" si="1"/>
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="AF35" s="12">
+      <c r="AF38" s="12">
         <v>1E-3</v>
       </c>
-      <c r="AG35" s="12">
-        <v>0.02</v>
-      </c>
-      <c r="AH35" s="12">
-        <v>0</v>
-      </c>
-      <c r="AI35" s="12">
-        <v>1</v>
-      </c>
-      <c r="AJ35" s="12">
-        <v>1</v>
-      </c>
-      <c r="AN35" s="12">
+      <c r="AG38" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="AH38" s="12">
+        <v>0</v>
+      </c>
+      <c r="AI38" s="12">
+        <v>1</v>
+      </c>
+      <c r="AJ38" s="12">
+        <v>1</v>
+      </c>
+      <c r="AN38" s="12">
         <v>0.06</v>
       </c>
-      <c r="AY35" s="12">
+      <c r="AY38" s="12">
         <v>15</v>
       </c>
-      <c r="AZ35" s="12" t="s">
+      <c r="AZ38" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="BA35" s="12" t="s">
+      <c r="BA38" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="BB35" s="12">
-        <v>0.02</v>
-      </c>
-      <c r="BC35" s="12" t="s">
+      <c r="BB38" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="BC38" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="BD35" s="12">
+      <c r="BD38" s="12">
         <v>5</v>
       </c>
-      <c r="BE35" s="13">
+      <c r="BE38" s="13">
         <v>6.7199999999999996E-2</v>
       </c>
-      <c r="BF35" s="12">
+      <c r="BF38" s="12">
         <v>0.12</v>
       </c>
-      <c r="BG35" s="12">
+      <c r="BG38" s="12">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="BH35" s="12">
-        <v>0.02</v>
-      </c>
-      <c r="BI35" s="12" t="s">
+      <c r="BH38" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="BI38" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="BJ35" s="12">
-        <v>0.02</v>
-      </c>
-      <c r="BK35" s="12">
+      <c r="BJ38" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="BK38" s="12">
         <v>0.01</v>
       </c>
-      <c r="BL35" s="12" t="s">
+      <c r="BL38" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="BM35" s="12">
-        <v>1</v>
-      </c>
-      <c r="BN35" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="BO35" s="12" t="b">
+      <c r="BM38" s="12">
+        <v>1</v>
+      </c>
+      <c r="BN38" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="BO38" s="12" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:67" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="B36" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="C36" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="D36" s="12">
+    <row r="39" spans="1:67" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D39" s="12">
         <v>2</v>
       </c>
-      <c r="E36" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="G36" s="12">
-        <v>0.02</v>
-      </c>
-      <c r="R36" s="12">
-        <v>0.02</v>
-      </c>
-      <c r="S36" s="12">
-        <v>0</v>
-      </c>
-      <c r="T36" s="12">
-        <v>0.02</v>
-      </c>
-      <c r="U36" s="12">
-        <v>0</v>
-      </c>
-      <c r="V36" s="12">
+      <c r="E39" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G39" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="R39" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="S39" s="12">
+        <v>0</v>
+      </c>
+      <c r="T39" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="U39" s="12">
+        <v>0</v>
+      </c>
+      <c r="V39" s="12">
         <v>0.9</v>
       </c>
-      <c r="W36" s="12">
-        <v>0.02</v>
-      </c>
-      <c r="X36" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y36" s="12">
+      <c r="W39" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="X39" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y39" s="12">
         <v>0.9</v>
       </c>
-      <c r="Z36" s="12">
+      <c r="Z39" s="12">
         <v>0.01</v>
       </c>
-      <c r="AA36" s="12">
+      <c r="AA39" s="12">
         <v>1E-3</v>
       </c>
-      <c r="AB36" s="12">
-        <v>0.02</v>
-      </c>
-      <c r="AC36" s="12">
-        <v>0</v>
-      </c>
-      <c r="AD36" s="12">
-        <v>1</v>
-      </c>
-      <c r="AE36" s="12">
+      <c r="AB39" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="AC39" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD39" s="12">
+        <v>1</v>
+      </c>
+      <c r="AE39" s="12">
         <f t="shared" si="1"/>
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="AF36" s="12">
+      <c r="AF39" s="12">
         <v>1E-3</v>
       </c>
-      <c r="AG36" s="12">
-        <v>0.02</v>
-      </c>
-      <c r="AH36" s="12">
-        <v>0</v>
-      </c>
-      <c r="AI36" s="12">
-        <v>1</v>
-      </c>
-      <c r="AJ36" s="12">
+      <c r="AG39" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="AH39" s="12">
+        <v>0</v>
+      </c>
+      <c r="AI39" s="12">
+        <v>1</v>
+      </c>
+      <c r="AJ39" s="12">
+        <v>1</v>
+      </c>
+      <c r="AN39" s="12">
+        <v>0.06</v>
+      </c>
+      <c r="AY39" s="12">
+        <v>15</v>
+      </c>
+      <c r="AZ39" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="BA39" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="BB39" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="BC39" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="BD39" s="12">
+        <v>5</v>
+      </c>
+      <c r="BE39" s="13">
+        <v>6.7199999999999996E-2</v>
+      </c>
+      <c r="BF39" s="12">
+        <v>0.12</v>
+      </c>
+      <c r="BG39" s="12">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="BH39" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="BI39" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="BJ39" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="BK39" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="BL39" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="BM39" s="12">
+        <v>1</v>
+      </c>
+      <c r="BN39" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="BO39" s="12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:67" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B40" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D40" s="12">
         <v>2</v>
       </c>
-      <c r="AN36" s="12">
+      <c r="E40" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="G40" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="R40" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="S40" s="12">
+        <v>0</v>
+      </c>
+      <c r="T40" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="U40" s="12">
+        <v>0</v>
+      </c>
+      <c r="V40" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="W40" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="X40" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y40" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="Z40" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="AA40" s="12">
+        <v>1E-3</v>
+      </c>
+      <c r="AB40" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="AC40" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD40" s="12">
+        <v>1</v>
+      </c>
+      <c r="AE40" s="12">
+        <f t="shared" si="1"/>
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="AF40" s="12">
+        <v>1E-3</v>
+      </c>
+      <c r="AG40" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="AH40" s="12">
+        <v>0</v>
+      </c>
+      <c r="AI40" s="12">
+        <v>1</v>
+      </c>
+      <c r="AJ40" s="12">
+        <v>1</v>
+      </c>
+      <c r="AN40" s="12">
         <v>0.06</v>
       </c>
-      <c r="AY36" s="12">
+      <c r="AY40" s="12">
         <v>15</v>
       </c>
-      <c r="AZ36" s="12" t="s">
+      <c r="AZ40" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="BA36" s="12" t="s">
+      <c r="BA40" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="BB36" s="12">
-        <v>0.02</v>
-      </c>
-      <c r="BC36" s="12" t="s">
+      <c r="BB40" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="BC40" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="BD36" s="12">
+      <c r="BD40" s="12">
         <v>5</v>
       </c>
-      <c r="BE36" s="13">
+      <c r="BE40" s="13">
         <v>6.7199999999999996E-2</v>
       </c>
-      <c r="BF36" s="12">
+      <c r="BF40" s="12">
         <v>0.12</v>
       </c>
-      <c r="BG36" s="12">
+      <c r="BG40" s="12">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="BH36" s="12">
-        <v>0.02</v>
-      </c>
-      <c r="BI36" s="12" t="s">
+      <c r="BH40" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="BI40" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="BJ36" s="12">
-        <v>0.02</v>
-      </c>
-      <c r="BK36" s="12">
+      <c r="BJ40" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="BK40" s="12">
         <v>0.01</v>
       </c>
-      <c r="BL36" s="12" t="s">
+      <c r="BL40" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="BM36" s="12">
-        <v>1</v>
-      </c>
-      <c r="BN36" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="BO36" s="12" t="b">
+      <c r="BM40" s="12">
+        <v>1</v>
+      </c>
+      <c r="BN40" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="BO40" s="12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:67" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="B41" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D41" s="12">
+        <v>2</v>
+      </c>
+      <c r="E41" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="G41" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="R41" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="S41" s="12">
+        <v>0</v>
+      </c>
+      <c r="T41" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="U41" s="12">
+        <v>0</v>
+      </c>
+      <c r="V41" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="W41" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="X41" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="Z41" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="AA41" s="12">
+        <v>1E-3</v>
+      </c>
+      <c r="AB41" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="AC41" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD41" s="12">
+        <v>1</v>
+      </c>
+      <c r="AE41" s="12">
+        <f t="shared" si="1"/>
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="AF41" s="12">
+        <v>1E-3</v>
+      </c>
+      <c r="AG41" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="AH41" s="12">
+        <v>0</v>
+      </c>
+      <c r="AI41" s="12">
+        <v>1</v>
+      </c>
+      <c r="AJ41" s="12">
+        <v>1</v>
+      </c>
+      <c r="AN41" s="12">
+        <v>0.06</v>
+      </c>
+      <c r="AY41" s="12">
+        <v>15</v>
+      </c>
+      <c r="AZ41" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="BA41" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="BB41" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="BC41" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="BD41" s="12">
+        <v>5</v>
+      </c>
+      <c r="BE41" s="13">
+        <v>6.7199999999999996E-2</v>
+      </c>
+      <c r="BF41" s="12">
+        <v>0.12</v>
+      </c>
+      <c r="BG41" s="12">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="BH41" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="BI41" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="BJ41" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="BK41" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="BL41" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="BM41" s="12">
+        <v>1</v>
+      </c>
+      <c r="BN41" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="BO41" s="12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:67" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B42" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D42" s="12">
+        <v>2</v>
+      </c>
+      <c r="E42" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G42" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="R42" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="S42" s="12">
+        <v>0</v>
+      </c>
+      <c r="T42" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="U42" s="12">
+        <v>0</v>
+      </c>
+      <c r="V42" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="W42" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="X42" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="Z42" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="AA42" s="12">
+        <v>1E-3</v>
+      </c>
+      <c r="AB42" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="AC42" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD42" s="12">
+        <v>1</v>
+      </c>
+      <c r="AE42" s="12">
+        <f t="shared" si="1"/>
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="AF42" s="12">
+        <v>1E-3</v>
+      </c>
+      <c r="AG42" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="AH42" s="12">
+        <v>0</v>
+      </c>
+      <c r="AI42" s="12">
+        <v>1</v>
+      </c>
+      <c r="AJ42" s="12">
+        <v>1</v>
+      </c>
+      <c r="AN42" s="12">
+        <v>0.06</v>
+      </c>
+      <c r="AY42" s="12">
+        <v>15</v>
+      </c>
+      <c r="AZ42" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="BA42" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="BB42" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="BC42" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="BD42" s="12">
+        <v>5</v>
+      </c>
+      <c r="BE42" s="13">
+        <v>6.7199999999999996E-2</v>
+      </c>
+      <c r="BF42" s="12">
+        <v>0.12</v>
+      </c>
+      <c r="BG42" s="12">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="BH42" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="BI42" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="BJ42" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="BK42" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="BL42" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="BM42" s="12">
+        <v>1</v>
+      </c>
+      <c r="BN42" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="BO42" s="12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:67" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="B43" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D43" s="12">
+        <v>2</v>
+      </c>
+      <c r="E43" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G43" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="R43" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="S43" s="12">
+        <v>0</v>
+      </c>
+      <c r="T43" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="U43" s="12">
+        <v>0</v>
+      </c>
+      <c r="V43" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="W43" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="X43" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="Z43" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="AA43" s="12">
+        <v>1E-3</v>
+      </c>
+      <c r="AB43" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="AC43" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD43" s="12">
+        <v>1</v>
+      </c>
+      <c r="AE43" s="12">
+        <f t="shared" si="1"/>
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="AF43" s="12">
+        <v>1E-3</v>
+      </c>
+      <c r="AG43" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="AH43" s="12">
+        <v>0</v>
+      </c>
+      <c r="AI43" s="12">
+        <v>1</v>
+      </c>
+      <c r="AJ43" s="12">
+        <v>2</v>
+      </c>
+      <c r="AN43" s="12">
+        <v>0.06</v>
+      </c>
+      <c r="AY43" s="12">
+        <v>15</v>
+      </c>
+      <c r="AZ43" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="BA43" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="BB43" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="BC43" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="BD43" s="12">
+        <v>5</v>
+      </c>
+      <c r="BE43" s="13">
+        <v>6.7199999999999996E-2</v>
+      </c>
+      <c r="BF43" s="12">
+        <v>0.12</v>
+      </c>
+      <c r="BG43" s="12">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="BH43" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="BI43" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="BJ43" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="BK43" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="BL43" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="BM43" s="12">
+        <v>1</v>
+      </c>
+      <c r="BN43" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="BO43" s="12" t="b">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B30:B36 B25:B28 B3:B23" xr:uid="{05E01AB2-72EC-4550-ACB8-4E83765DE296}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B37:B43 B32:B35 B3:B30" xr:uid="{05E01AB2-72EC-4550-ACB8-4E83765DE296}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3 H5:H8 H10:H12" xr:uid="{8DBFC5CB-438A-4309-B948-24597CAE3D7F}">

--- a/RunControl.xlsx
+++ b/RunControl.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F45A375-C4DF-4B0A-AB6D-A6134485FDDE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72EC65A2-A7F5-4EA2-B3DF-AF70C3054133}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="paramlist" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="140">
   <si>
     <t>runname</t>
   </si>
@@ -447,6 +447,9 @@
   </si>
   <si>
     <t xml:space="preserve">EEC Policies </t>
+  </si>
+  <si>
+    <t>cola_SDRS</t>
   </si>
 </sst>
 </file>
@@ -846,11 +849,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BO43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="6" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomRight" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1178,7 +1181,7 @@
         <v>33</v>
       </c>
       <c r="B3" s="12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" s="12">
         <v>1</v>
@@ -2615,7 +2618,186 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:67" s="12" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:67" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="B13" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="D13" s="12">
+        <v>1</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="G13" s="12">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="I13" s="12">
+        <v>1</v>
+      </c>
+      <c r="J13" s="12">
+        <v>1</v>
+      </c>
+      <c r="K13" s="12">
+        <v>1</v>
+      </c>
+      <c r="L13" s="12">
+        <v>0.06</v>
+      </c>
+      <c r="M13" s="12">
+        <v>0.06</v>
+      </c>
+      <c r="R13" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="S13" s="12">
+        <v>0</v>
+      </c>
+      <c r="T13" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="U13" s="12">
+        <v>0</v>
+      </c>
+      <c r="V13" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="W13" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="X13" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="Z13" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="AA13" s="12">
+        <v>1E-3</v>
+      </c>
+      <c r="AB13" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="AC13" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="12">
+        <v>1</v>
+      </c>
+      <c r="AE13" s="12">
+        <f t="shared" si="0"/>
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="AF13" s="12">
+        <v>1E-3</v>
+      </c>
+      <c r="AG13" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="AH13" s="12">
+        <v>0</v>
+      </c>
+      <c r="AI13" s="12">
+        <v>1</v>
+      </c>
+      <c r="AJ13" s="12">
+        <v>1</v>
+      </c>
+      <c r="AN13" s="12">
+        <v>0.06</v>
+      </c>
+      <c r="AO13" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="AP13" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="AQ13" s="12">
+        <v>0.04</v>
+      </c>
+      <c r="AR13" s="12">
+        <v>0.08</v>
+      </c>
+      <c r="AS13" s="12">
+        <v>0.04</v>
+      </c>
+      <c r="AT13" s="12">
+        <v>0.11</v>
+      </c>
+      <c r="AU13" s="12">
+        <v>0.04</v>
+      </c>
+      <c r="AV13" s="12">
+        <v>0.08</v>
+      </c>
+      <c r="AW13" s="12">
+        <v>0.7</v>
+      </c>
+      <c r="AX13" s="12">
+        <v>1</v>
+      </c>
+      <c r="AY13" s="12">
+        <v>15</v>
+      </c>
+      <c r="AZ13" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="BA13" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="BB13" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="BC13" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="BD13" s="12">
+        <v>5</v>
+      </c>
+      <c r="BE13" s="12">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="BF13" s="12">
+        <v>0.12</v>
+      </c>
+      <c r="BG13" s="12">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="BH13" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="BI13" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="BJ13" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="BK13" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="BL13" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="BM13" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="BN13" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="BO13" s="12" t="b">
+        <v>1</v>
+      </c>
+    </row>
     <row r="14" spans="1:67" s="12" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:67" s="12" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:67" s="12" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -5071,7 +5253,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B37:B43 B32:B35 B3:B30" xr:uid="{05E01AB2-72EC-4550-ACB8-4E83765DE296}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3 H5:H8 H10:H12" xr:uid="{8DBFC5CB-438A-4309-B948-24597CAE3D7F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3 H5:H8 H10:H13" xr:uid="{8DBFC5CB-438A-4309-B948-24597CAE3D7F}">
       <formula1>"preSet, ALpct,MApct"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5084,7 +5266,7 @@
           <x14:formula1>
             <xm:f>Policies!$B$3:$B$8</xm:f>
           </x14:formula1>
-          <xm:sqref>F3 F5:F8 F10:F12</xm:sqref>
+          <xm:sqref>F3 F5:F8 F10:F13</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -5096,7 +5278,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC498317-3D78-4815-AFC0-F5D6A2FF4B8F}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>

--- a/RunControl.xlsx
+++ b/RunControl.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72EC65A2-A7F5-4EA2-B3DF-AF70C3054133}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{206C7AD4-0B6C-45FA-BE37-4453CCAFFA98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="paramlist" sheetId="1" r:id="rId1"/>
@@ -850,10 +850,10 @@
   <dimension ref="A1:BO43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="2" topLeftCell="AZ3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B17" sqref="B17"/>
+      <selection pane="bottomRight" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -863,7 +863,7 @@
     <col min="3" max="4" width="11.7109375" customWidth="1"/>
     <col min="5" max="5" width="11.140625" customWidth="1"/>
     <col min="6" max="6" width="14.28515625" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" customWidth="1"/>
     <col min="8" max="8" width="22.28515625" customWidth="1"/>
     <col min="9" max="13" width="12.85546875" customWidth="1"/>
     <col min="14" max="17" width="17.140625" customWidth="1"/>
@@ -875,8 +875,10 @@
     <col min="28" max="31" width="14.28515625" customWidth="1"/>
     <col min="32" max="32" width="23.42578125" customWidth="1"/>
     <col min="33" max="35" width="14.28515625" customWidth="1"/>
-    <col min="36" max="37" width="17.42578125" customWidth="1"/>
-    <col min="38" max="39" width="14.28515625" customWidth="1"/>
+    <col min="36" max="36" width="17.42578125" customWidth="1"/>
+    <col min="37" max="37" width="18" customWidth="1"/>
+    <col min="38" max="38" width="18.85546875" customWidth="1"/>
+    <col min="39" max="39" width="14.28515625" customWidth="1"/>
     <col min="40" max="40" width="18.5703125" style="12" customWidth="1"/>
     <col min="41" max="41" width="20.28515625" style="12" customWidth="1"/>
     <col min="42" max="42" width="21.42578125" style="12" customWidth="1"/>
@@ -2258,7 +2260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:67" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:67" s="12" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>62</v>
       </c>
@@ -2711,7 +2713,13 @@
         <v>1</v>
       </c>
       <c r="AJ13" s="12">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="AK13" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="AL13" s="12">
+        <v>0.5</v>
       </c>
       <c r="AN13" s="12">
         <v>0.06</v>

--- a/RunControl.xlsx
+++ b/RunControl.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{206C7AD4-0B6C-45FA-BE37-4453CCAFFA98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7C16E64-3A56-4338-9424-60DB41A1BA2F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="142">
   <si>
     <t>runname</t>
   </si>
@@ -450,6 +450,12 @@
   </si>
   <si>
     <t>cola_SDRS</t>
+  </si>
+  <si>
+    <t>DC_hybrid</t>
+  </si>
+  <si>
+    <t>DC_pure</t>
   </si>
 </sst>
 </file>
@@ -850,10 +856,10 @@
   <dimension ref="A1:BO43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="2" topLeftCell="AZ3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="2" topLeftCell="O3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C18" sqref="C18"/>
+      <selection pane="bottomRight" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2085,7 +2091,7 @@
         <v>61</v>
       </c>
       <c r="B10" s="12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" s="12">
         <v>1</v>
@@ -2265,7 +2271,7 @@
         <v>62</v>
       </c>
       <c r="B11" s="12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" s="12">
         <v>1</v>
@@ -2445,7 +2451,7 @@
         <v>137</v>
       </c>
       <c r="B12" s="12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" s="12">
         <v>1</v>
@@ -2808,8 +2814,191 @@
     </row>
     <row r="14" spans="1:67" s="12" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:67" s="12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:67" s="12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="1:67" s="12" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:67" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="B16" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D16" s="12">
+        <v>1</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="G16" s="12">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="I16" s="12">
+        <v>1</v>
+      </c>
+      <c r="J16" s="12">
+        <v>1</v>
+      </c>
+      <c r="K16" s="12">
+        <v>1</v>
+      </c>
+      <c r="L16" s="12">
+        <v>0.06</v>
+      </c>
+      <c r="M16" s="12">
+        <v>0.06</v>
+      </c>
+      <c r="R16" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="S16" s="12">
+        <v>0</v>
+      </c>
+      <c r="T16" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="U16" s="12">
+        <v>0</v>
+      </c>
+      <c r="V16" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="W16" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="X16" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="Z16" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="AA16" s="12">
+        <v>1E-3</v>
+      </c>
+      <c r="AB16" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="AC16" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="12">
+        <v>1</v>
+      </c>
+      <c r="AE16" s="12">
+        <f t="shared" si="0"/>
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="AF16" s="12">
+        <v>1E-3</v>
+      </c>
+      <c r="AG16" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="AH16" s="12">
+        <v>0</v>
+      </c>
+      <c r="AI16" s="12">
+        <v>1</v>
+      </c>
+      <c r="AJ16" s="12">
+        <v>1</v>
+      </c>
+      <c r="AN16" s="12">
+        <v>0.06</v>
+      </c>
+      <c r="AO16" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="AP16" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="AQ16" s="12">
+        <v>0.04</v>
+      </c>
+      <c r="AR16" s="12">
+        <v>0.08</v>
+      </c>
+      <c r="AS16" s="12">
+        <v>0.04</v>
+      </c>
+      <c r="AT16" s="12">
+        <v>0.11</v>
+      </c>
+      <c r="AU16" s="12">
+        <v>0.04</v>
+      </c>
+      <c r="AV16" s="12">
+        <v>0.08</v>
+      </c>
+      <c r="AW16" s="12">
+        <v>0.7</v>
+      </c>
+      <c r="AX16" s="12">
+        <v>1</v>
+      </c>
+      <c r="AY16" s="12">
+        <v>15</v>
+      </c>
+      <c r="AZ16" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="BA16" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="BB16" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="BC16" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="BD16" s="12">
+        <v>5</v>
+      </c>
+      <c r="BE16" s="12">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="BF16" s="12">
+        <v>0.12</v>
+      </c>
+      <c r="BG16" s="12">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="BH16" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="BI16" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="BJ16" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="BK16" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="BL16" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="BM16" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="BN16" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="BO16" s="12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:67" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>141</v>
+      </c>
+    </row>
     <row r="18" spans="1:67" s="12" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="1:67" s="12" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="1:67" s="12" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -5261,7 +5450,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B37:B43 B32:B35 B3:B30" xr:uid="{05E01AB2-72EC-4550-ACB8-4E83765DE296}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3 H5:H8 H10:H13" xr:uid="{8DBFC5CB-438A-4309-B948-24597CAE3D7F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3 H5:H8 H10:H13 H16" xr:uid="{8DBFC5CB-438A-4309-B948-24597CAE3D7F}">
       <formula1>"preSet, ALpct,MApct"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5274,7 +5463,7 @@
           <x14:formula1>
             <xm:f>Policies!$B$3:$B$8</xm:f>
           </x14:formula1>
-          <xm:sqref>F3 F5:F8 F10:F13</xm:sqref>
+          <xm:sqref>F3 F5:F8 F10:F13 F16</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/RunControl.xlsx
+++ b/RunControl.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7C16E64-3A56-4338-9424-60DB41A1BA2F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34BE64E0-C00E-479E-A124-4E15B2BBBB5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -859,7 +859,7 @@
       <pane xSplit="6" ySplit="2" topLeftCell="O3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C20" sqref="C20"/>
+      <selection pane="bottomRight" activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5476,7 +5476,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5509,7 +5509,7 @@
         <v>50</v>
       </c>
       <c r="B2">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="C2">
         <v>6</v>

--- a/RunControl.xlsx
+++ b/RunControl.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{929859ED-0EEA-40C4-8A05-1192B72C4E69}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09FC7885-79D9-4CD4-8920-FDBCF095F042}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -845,7 +845,7 @@
       <pane xSplit="6" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D21" sqref="D21"/>
+      <selection pane="bottomRight" activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/RunControl.xlsx
+++ b/RunControl.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09FC7885-79D9-4CD4-8920-FDBCF095F042}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69B0DA5A-1BA2-4863-842A-9288CD6AD899}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="142">
   <si>
     <t>runname</t>
   </si>
@@ -453,6 +453,9 @@
   </si>
   <si>
     <t>baseline</t>
+  </si>
+  <si>
+    <t>dev_baseline</t>
   </si>
 </sst>
 </file>
@@ -839,13 +842,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BJ45"/>
+  <dimension ref="A1:BJ47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="6" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M29" sqref="M29"/>
+      <selection pane="bottomRight" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1148,10 +1151,10 @@
     </row>
     <row r="3" spans="1:62" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="B3" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>140</v>
@@ -1301,13 +1304,13 @@
     <row r="4" spans="1:62" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:62" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="B5" s="10" t="b">
         <v>1</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D5" s="10">
         <v>1</v>
@@ -1316,7 +1319,7 @@
         <v>50</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>113</v>
+        <v>77</v>
       </c>
       <c r="G5" s="10">
         <v>1.4999999999999999E-2</v>
@@ -1451,161 +1454,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:62" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="B6" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="D6" s="10">
-        <v>1</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="G6" s="10">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="R6" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="S6" s="10">
-        <v>0</v>
-      </c>
-      <c r="T6" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="U6" s="10">
-        <v>0</v>
-      </c>
-      <c r="V6" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="W6" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="X6" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="Z6" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="AA6" s="10">
-        <v>1E-3</v>
-      </c>
-      <c r="AB6" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AC6" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="10">
-        <v>1</v>
-      </c>
-      <c r="AE6" s="10">
-        <v>1</v>
-      </c>
-      <c r="AI6" s="10">
-        <v>0.06</v>
-      </c>
-      <c r="AJ6" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AK6" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AL6" s="10">
-        <v>0.04</v>
-      </c>
-      <c r="AM6" s="10">
-        <v>0.08</v>
-      </c>
-      <c r="AN6" s="10">
-        <v>0.04</v>
-      </c>
-      <c r="AO6" s="10">
-        <v>0.11</v>
-      </c>
-      <c r="AP6" s="10">
-        <v>0.04</v>
-      </c>
-      <c r="AQ6" s="10">
-        <v>0.08</v>
-      </c>
-      <c r="AR6" s="10">
-        <v>0.7</v>
-      </c>
-      <c r="AS6" s="10">
-        <v>1</v>
-      </c>
-      <c r="AT6" s="10">
-        <v>15</v>
-      </c>
-      <c r="AU6" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="AV6" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="AW6" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AX6" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="AY6" s="10">
-        <v>5</v>
-      </c>
-      <c r="AZ6" s="10">
-        <v>8.2199999999999995E-2</v>
-      </c>
-      <c r="BA6" s="10">
-        <v>0.12</v>
-      </c>
-      <c r="BB6" s="10">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="BC6" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BD6" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="BE6" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BF6" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="BG6" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="BH6" s="10">
-        <v>0.75</v>
-      </c>
-      <c r="BI6" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="BJ6" s="10" t="b">
-        <v>1</v>
-      </c>
-    </row>
+    <row r="6" spans="1:62" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:62" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="B7" s="10" t="b">
         <v>1</v>
@@ -1620,7 +1472,7 @@
         <v>50</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G7" s="10">
         <v>1.4999999999999999E-2</v>
@@ -1757,7 +1609,7 @@
     </row>
     <row r="8" spans="1:62" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="B8" s="10" t="b">
         <v>1</v>
@@ -1772,7 +1624,7 @@
         <v>50</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G8" s="10">
         <v>1.4999999999999999E-2</v>
@@ -1907,25 +1759,176 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:62" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:62" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="B9" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="D9" s="10">
+        <v>1</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="G9" s="10">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="R9" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="S9" s="10">
+        <v>0</v>
+      </c>
+      <c r="T9" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="U9" s="10">
+        <v>0</v>
+      </c>
+      <c r="V9" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="W9" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="X9" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="Z9" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="AA9" s="10">
+        <v>1E-3</v>
+      </c>
+      <c r="AB9" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AC9" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="10">
+        <v>1</v>
+      </c>
+      <c r="AE9" s="10">
+        <v>1</v>
+      </c>
+      <c r="AI9" s="10">
+        <v>0.06</v>
+      </c>
+      <c r="AJ9" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AK9" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AL9" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="AM9" s="10">
+        <v>0.08</v>
+      </c>
+      <c r="AN9" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="AO9" s="10">
+        <v>0.11</v>
+      </c>
+      <c r="AP9" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="AQ9" s="10">
+        <v>0.08</v>
+      </c>
+      <c r="AR9" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="AS9" s="10">
+        <v>1</v>
+      </c>
+      <c r="AT9" s="10">
+        <v>15</v>
+      </c>
+      <c r="AU9" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="AV9" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AW9" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AX9" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="AY9" s="10">
+        <v>5</v>
+      </c>
+      <c r="AZ9" s="10">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="BA9" s="10">
+        <v>0.12</v>
+      </c>
+      <c r="BB9" s="10">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="BC9" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BD9" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="BE9" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BF9" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="BG9" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="BH9" s="10">
+        <v>0.75</v>
+      </c>
+      <c r="BI9" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="BJ9" s="10" t="b">
+        <v>1</v>
+      </c>
+    </row>
     <row r="10" spans="1:62" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>56</v>
+        <v>116</v>
       </c>
       <c r="B10" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D10" s="10">
         <v>1</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>77</v>
+        <v>116</v>
       </c>
       <c r="G10" s="10">
         <v>1.4999999999999999E-2</v>
@@ -2060,164 +2063,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:62" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="B11" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="D11" s="10">
-        <v>1</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="G11" s="10">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="R11" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="S11" s="10">
-        <v>0</v>
-      </c>
-      <c r="T11" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="U11" s="10">
-        <v>0</v>
-      </c>
-      <c r="V11" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="W11" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="X11" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="Z11" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="AA11" s="10">
-        <v>1E-3</v>
-      </c>
-      <c r="AB11" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AC11" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD11" s="10">
-        <v>1</v>
-      </c>
-      <c r="AE11" s="10">
-        <v>1</v>
-      </c>
-      <c r="AI11" s="10">
-        <v>0.06</v>
-      </c>
-      <c r="AJ11" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AK11" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AL11" s="10">
-        <v>0.04</v>
-      </c>
-      <c r="AM11" s="10">
-        <v>0.08</v>
-      </c>
-      <c r="AN11" s="10">
-        <v>0.04</v>
-      </c>
-      <c r="AO11" s="10">
-        <v>0.11</v>
-      </c>
-      <c r="AP11" s="10">
-        <v>0.04</v>
-      </c>
-      <c r="AQ11" s="10">
-        <v>0.08</v>
-      </c>
-      <c r="AR11" s="10">
-        <v>0.7</v>
-      </c>
-      <c r="AS11" s="10">
-        <v>1</v>
-      </c>
-      <c r="AT11" s="10">
-        <v>15</v>
-      </c>
-      <c r="AU11" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="AV11" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="AW11" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AX11" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="AY11" s="10">
-        <v>5</v>
-      </c>
-      <c r="AZ11" s="10">
-        <v>8.2199999999999995E-2</v>
-      </c>
-      <c r="BA11" s="10">
-        <v>0.12</v>
-      </c>
-      <c r="BB11" s="10">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="BC11" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BD11" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="BE11" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BF11" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="BG11" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="BH11" s="10">
-        <v>0.75</v>
-      </c>
-      <c r="BI11" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="BJ11" s="10" t="b">
-        <v>1</v>
-      </c>
-    </row>
+    <row r="11" spans="1:62" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:62" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>131</v>
+        <v>56</v>
       </c>
       <c r="B12" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>138</v>
@@ -2226,7 +2078,7 @@
         <v>1</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F12" s="10" t="s">
         <v>77</v>
@@ -2364,12 +2216,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:62" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:62" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>133</v>
+        <v>57</v>
       </c>
       <c r="B13" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>138</v>
@@ -2378,7 +2230,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>77</v>
@@ -2429,13 +2281,7 @@
         <v>1</v>
       </c>
       <c r="AE13" s="10">
-        <v>2</v>
-      </c>
-      <c r="AF13" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AG13" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AI13" s="10">
         <v>0.06</v>
@@ -2522,190 +2368,476 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:62" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:62" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:62" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
+    <row r="14" spans="1:62" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="B14" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="D14" s="10">
+        <v>1</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14" s="10">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="R14" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="S14" s="10">
+        <v>0</v>
+      </c>
+      <c r="T14" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="U14" s="10">
+        <v>0</v>
+      </c>
+      <c r="V14" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="W14" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="X14" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="Z14" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="AA14" s="10">
+        <v>1E-3</v>
+      </c>
+      <c r="AB14" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AC14" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="10">
+        <v>1</v>
+      </c>
+      <c r="AE14" s="10">
+        <v>1</v>
+      </c>
+      <c r="AI14" s="10">
+        <v>0.06</v>
+      </c>
+      <c r="AJ14" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AK14" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AL14" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="AM14" s="10">
+        <v>0.08</v>
+      </c>
+      <c r="AN14" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="AO14" s="10">
+        <v>0.11</v>
+      </c>
+      <c r="AP14" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="AQ14" s="10">
+        <v>0.08</v>
+      </c>
+      <c r="AR14" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="AS14" s="10">
+        <v>1</v>
+      </c>
+      <c r="AT14" s="10">
+        <v>15</v>
+      </c>
+      <c r="AU14" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="AV14" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AW14" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AX14" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="AY14" s="10">
+        <v>5</v>
+      </c>
+      <c r="AZ14" s="10">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="BA14" s="10">
+        <v>0.12</v>
+      </c>
+      <c r="BB14" s="10">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="BC14" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BD14" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="BE14" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BF14" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="BG14" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="BH14" s="10">
+        <v>0.75</v>
+      </c>
+      <c r="BI14" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="BJ14" s="10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:62" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="B15" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="D15" s="10">
+        <v>1</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="G15" s="10">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="R15" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="S15" s="10">
+        <v>0</v>
+      </c>
+      <c r="T15" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="U15" s="10">
+        <v>0</v>
+      </c>
+      <c r="V15" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="W15" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="X15" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="Z15" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="AA15" s="10">
+        <v>1E-3</v>
+      </c>
+      <c r="AB15" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AC15" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="10">
+        <v>1</v>
+      </c>
+      <c r="AE15" s="10">
+        <v>2</v>
+      </c>
+      <c r="AF15" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AG15" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AI15" s="10">
+        <v>0.06</v>
+      </c>
+      <c r="AJ15" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AK15" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AL15" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="AM15" s="10">
+        <v>0.08</v>
+      </c>
+      <c r="AN15" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="AO15" s="10">
+        <v>0.11</v>
+      </c>
+      <c r="AP15" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="AQ15" s="10">
+        <v>0.08</v>
+      </c>
+      <c r="AR15" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="AS15" s="10">
+        <v>1</v>
+      </c>
+      <c r="AT15" s="10">
+        <v>15</v>
+      </c>
+      <c r="AU15" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="AV15" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AW15" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AX15" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="AY15" s="10">
+        <v>5</v>
+      </c>
+      <c r="AZ15" s="10">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="BA15" s="10">
+        <v>0.12</v>
+      </c>
+      <c r="BB15" s="10">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="BC15" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BD15" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="BE15" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BF15" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="BG15" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="BH15" s="10">
+        <v>0.75</v>
+      </c>
+      <c r="BI15" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="BJ15" s="10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:62" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="1:62" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="1:62" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="B16" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="C16" s="10" t="s">
+      <c r="B18" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="C18" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="D16" s="10">
-        <v>1</v>
-      </c>
-      <c r="E16" s="10" t="s">
+      <c r="D18" s="10">
+        <v>1</v>
+      </c>
+      <c r="E18" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="F16" s="10" t="s">
+      <c r="F18" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="G16" s="10">
+      <c r="G18" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="R16" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="S16" s="10">
-        <v>0</v>
-      </c>
-      <c r="T16" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="U16" s="10">
-        <v>0</v>
-      </c>
-      <c r="V16" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="W16" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="X16" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y16" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="Z16" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="AA16" s="10">
+      <c r="R18" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="S18" s="10">
+        <v>0</v>
+      </c>
+      <c r="T18" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="U18" s="10">
+        <v>0</v>
+      </c>
+      <c r="V18" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="W18" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="X18" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="Z18" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="AA18" s="10">
         <v>1E-3</v>
       </c>
-      <c r="AB16" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AC16" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD16" s="10">
-        <v>1</v>
-      </c>
-      <c r="AE16" s="10">
-        <v>1</v>
-      </c>
-      <c r="AI16" s="10">
+      <c r="AB18" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AC18" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="10">
+        <v>1</v>
+      </c>
+      <c r="AE18" s="10">
+        <v>1</v>
+      </c>
+      <c r="AI18" s="10">
         <v>0.03</v>
       </c>
-      <c r="AJ16" s="10">
+      <c r="AJ18" s="10">
         <v>0.5</v>
       </c>
-      <c r="AK16" s="10">
+      <c r="AK18" s="10">
         <v>0.5</v>
       </c>
-      <c r="AL16" s="10">
+      <c r="AL18" s="10">
         <v>0.04</v>
       </c>
-      <c r="AM16" s="10">
+      <c r="AM18" s="10">
         <v>0.08</v>
       </c>
-      <c r="AN16" s="10">
+      <c r="AN18" s="10">
         <v>0.04</v>
       </c>
-      <c r="AO16" s="10">
+      <c r="AO18" s="10">
         <v>0.11</v>
       </c>
-      <c r="AP16" s="10">
+      <c r="AP18" s="10">
         <v>0.04</v>
       </c>
-      <c r="AQ16" s="10">
+      <c r="AQ18" s="10">
         <v>0.08</v>
       </c>
-      <c r="AR16" s="10">
+      <c r="AR18" s="10">
         <v>0.7</v>
       </c>
-      <c r="AS16" s="10">
-        <v>1</v>
-      </c>
-      <c r="AT16" s="10">
-        <v>15</v>
-      </c>
-      <c r="AU16" s="10" t="s">
+      <c r="AS18" s="10">
+        <v>1</v>
+      </c>
+      <c r="AT18" s="10">
+        <v>15</v>
+      </c>
+      <c r="AU18" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="AV16" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="AW16" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AX16" s="10" t="s">
+      <c r="AV18" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AW18" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AX18" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="AY16" s="10">
+      <c r="AY18" s="10">
         <v>5</v>
       </c>
-      <c r="AZ16" s="10">
+      <c r="AZ18" s="10">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="BA16" s="10">
+      <c r="BA18" s="10">
         <v>0.12</v>
       </c>
-      <c r="BB16" s="10">
+      <c r="BB18" s="10">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="BC16" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BD16" s="10" t="s">
+      <c r="BC18" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BD18" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="BE16" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BF16" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="BG16" s="10" t="s">
+      <c r="BE18" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BF18" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="BG18" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="BH16" s="10">
+      <c r="BH18" s="10">
         <v>0.75</v>
       </c>
-      <c r="BI16" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="BJ16" s="10" t="b">
+      <c r="BI18" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="BJ18" s="10" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:62" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="B17" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="H17" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="I17" s="10">
-        <v>1</v>
-      </c>
-      <c r="J17" s="10">
-        <v>1</v>
-      </c>
-      <c r="K17" s="10">
-        <v>1</v>
-      </c>
-      <c r="L17" s="10">
-        <v>0.03</v>
-      </c>
-      <c r="M17" s="10">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="18" spans="1:62" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="1:62" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
-        <v>134</v>
+        <v>136</v>
+      </c>
+      <c r="B19" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>139</v>
       </c>
       <c r="H19" s="10" t="s">
         <v>104</v>
@@ -2720,270 +2852,56 @@
         <v>1</v>
       </c>
       <c r="L19" s="10">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="M19" s="10">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="20" spans="1:62" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:62" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:62" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="I21" s="10">
+        <v>1</v>
+      </c>
+      <c r="J21" s="10">
+        <v>1</v>
+      </c>
+      <c r="K21" s="10">
+        <v>1</v>
+      </c>
+      <c r="L21" s="10">
+        <v>0.06</v>
+      </c>
+      <c r="M21" s="10">
+        <v>0.06</v>
+      </c>
+    </row>
     <row r="22" spans="1:62" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="1:62" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="24" spans="1:62" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:62" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="B25" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="D25" s="10">
-        <v>1</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="F25" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="G25" s="10">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="R25" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="S25" s="10">
-        <v>0</v>
-      </c>
-      <c r="T25" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="U25" s="10">
-        <v>0</v>
-      </c>
-      <c r="V25" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="W25" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="X25" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y25" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="Z25" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="AA25" s="10">
-        <v>1E-3</v>
-      </c>
-      <c r="AB25" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AC25" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD25" s="10">
-        <v>1</v>
-      </c>
-      <c r="AE25" s="10">
-        <v>1</v>
-      </c>
-      <c r="AI25" s="10">
-        <v>0.06</v>
-      </c>
-      <c r="AT25" s="10">
-        <v>15</v>
-      </c>
-      <c r="AU25" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="AV25" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="AW25" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AX25" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="AY25" s="10">
-        <v>5</v>
-      </c>
-      <c r="AZ25" s="10">
-        <v>8.2199999999999995E-2</v>
-      </c>
-      <c r="BA25" s="10">
-        <v>0.12</v>
-      </c>
-      <c r="BB25" s="10">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="BC25" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BD25" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="BE25" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BF25" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="BG25" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="BH25" s="10">
-        <v>1</v>
-      </c>
-      <c r="BI25" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="BJ25" s="10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:62" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="B26" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="D26" s="10">
-        <v>1</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="F26" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="G26" s="10">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="R26" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="S26" s="10">
-        <v>0</v>
-      </c>
-      <c r="T26" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="U26" s="10">
-        <v>0</v>
-      </c>
-      <c r="V26" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="W26" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="X26" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y26" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="Z26" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="AA26" s="10">
-        <v>1E-3</v>
-      </c>
-      <c r="AB26" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AC26" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD26" s="10">
-        <v>1</v>
-      </c>
-      <c r="AE26" s="10">
-        <v>1</v>
-      </c>
-      <c r="AI26" s="10">
-        <v>0.06</v>
-      </c>
-      <c r="AT26" s="10">
-        <v>15</v>
-      </c>
-      <c r="AU26" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="AV26" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="AW26" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AX26" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="AY26" s="10">
-        <v>5</v>
-      </c>
-      <c r="AZ26" s="10">
-        <v>8.2199999999999995E-2</v>
-      </c>
-      <c r="BA26" s="10">
-        <v>0.12</v>
-      </c>
-      <c r="BB26" s="10">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="BC26" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BD26" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="BE26" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BF26" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="BG26" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="BH26" s="10">
-        <v>1</v>
-      </c>
-      <c r="BI26" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="BJ26" s="10" t="b">
-        <v>1</v>
-      </c>
-    </row>
+    <row r="25" spans="1:62" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:62" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="1:62" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B27" s="10" t="b">
         <v>0</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D27" s="10">
         <v>1</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F27" s="10" t="s">
         <v>77</v>
@@ -3090,19 +3008,19 @@
     </row>
     <row r="28" spans="1:62" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B28" s="10" t="b">
         <v>0</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D28" s="10">
         <v>1</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F28" s="10" t="s">
         <v>77</v>
@@ -3209,19 +3127,19 @@
     </row>
     <row r="29" spans="1:62" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B29" s="10" t="b">
         <v>0</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D29" s="10">
         <v>1</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F29" s="10" t="s">
         <v>77</v>
@@ -3270,12 +3188,6 @@
       </c>
       <c r="AE29" s="10">
         <v>1</v>
-      </c>
-      <c r="AF29" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AG29" s="10">
-        <v>0.5</v>
       </c>
       <c r="AI29" s="10">
         <v>0.06</v>
@@ -3334,19 +3246,19 @@
     </row>
     <row r="30" spans="1:62" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B30" s="10" t="b">
         <v>0</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D30" s="10">
         <v>1</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F30" s="10" t="s">
         <v>77</v>
@@ -3394,13 +3306,7 @@
         <v>1</v>
       </c>
       <c r="AE30" s="10">
-        <v>2</v>
-      </c>
-      <c r="AF30" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AG30" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AI30" s="10">
         <v>0.06</v>
@@ -3459,7 +3365,7 @@
     </row>
     <row r="31" spans="1:62" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="B31" s="10" t="b">
         <v>0</v>
@@ -3584,7 +3490,7 @@
     </row>
     <row r="32" spans="1:62" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="B32" s="10" t="b">
         <v>0</v>
@@ -3707,28 +3613,149 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="BE33" s="10"/>
-      <c r="BF33" s="10"/>
+    <row r="33" spans="1:62" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B33" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D33" s="10">
+        <v>1</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="G33" s="10">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="R33" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="S33" s="10">
+        <v>0</v>
+      </c>
+      <c r="T33" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="U33" s="10">
+        <v>0</v>
+      </c>
+      <c r="V33" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="W33" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="X33" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="Z33" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="AA33" s="10">
+        <v>1E-3</v>
+      </c>
+      <c r="AB33" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AC33" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD33" s="10">
+        <v>1</v>
+      </c>
+      <c r="AE33" s="10">
+        <v>1</v>
+      </c>
+      <c r="AF33" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AG33" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AI33" s="10">
+        <v>0.06</v>
+      </c>
+      <c r="AT33" s="10">
+        <v>15</v>
+      </c>
+      <c r="AU33" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="AV33" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AW33" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AX33" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="AY33" s="10">
+        <v>5</v>
+      </c>
+      <c r="AZ33" s="10">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="BA33" s="10">
+        <v>0.12</v>
+      </c>
+      <c r="BB33" s="10">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="BC33" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BD33" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="BE33" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BF33" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="BG33" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="BH33" s="10">
+        <v>1</v>
+      </c>
+      <c r="BI33" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="BJ33" s="10" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="34" spans="1:62" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B34" s="10" t="b">
         <v>0</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="D34" s="10">
         <v>1</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G34" s="10">
         <v>1.4999999999999999E-2</v>
@@ -3773,10 +3800,13 @@
         <v>1</v>
       </c>
       <c r="AE34" s="10">
-        <v>1</v>
-      </c>
-      <c r="AH34" s="10">
-        <v>0.02</v>
+        <v>2</v>
+      </c>
+      <c r="AF34" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AG34" s="10">
+        <v>0.5</v>
       </c>
       <c r="AI34" s="10">
         <v>0.06</v>
@@ -3833,25 +3863,28 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:62" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="BE35" s="10"/>
+      <c r="BF35" s="10"/>
+    </row>
     <row r="36" spans="1:62" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="B36" s="10" t="b">
         <v>0</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="D36" s="10">
         <v>1</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G36" s="10">
         <v>1.4999999999999999E-2</v>
@@ -3863,7 +3896,7 @@
         <v>0</v>
       </c>
       <c r="T36" s="10">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="U36" s="10">
         <v>0</v>
@@ -3898,6 +3931,9 @@
       <c r="AE36" s="10">
         <v>1</v>
       </c>
+      <c r="AH36" s="10">
+        <v>0.02</v>
+      </c>
       <c r="AI36" s="10">
         <v>0.06</v>
       </c>
@@ -3932,7 +3968,7 @@
         <v>0.02</v>
       </c>
       <c r="BD36" s="10" t="s">
-        <v>89</v>
+        <v>50</v>
       </c>
       <c r="BE36" s="10">
         <v>0.02</v>
@@ -3953,143 +3989,147 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:62" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="B37" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="D37" s="10">
-        <v>1</v>
-      </c>
-      <c r="E37" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="F37" s="10" t="s">
+    <row r="37" spans="1:62" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="1:62" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B38" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D38" s="10">
+        <v>1</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="F38" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="G37" s="10">
+      <c r="G38" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="R37" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="S37" s="10">
-        <v>0</v>
-      </c>
-      <c r="T37" s="10">
+      <c r="R38" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="S38" s="10">
+        <v>0</v>
+      </c>
+      <c r="T38" s="10">
         <v>0.04</v>
       </c>
-      <c r="U37" s="10">
-        <v>0</v>
-      </c>
-      <c r="V37" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="W37" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="X37" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y37" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="Z37" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="AA37" s="10">
+      <c r="U38" s="10">
+        <v>0</v>
+      </c>
+      <c r="V38" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="W38" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="X38" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y38" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="Z38" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="AA38" s="10">
         <v>1E-3</v>
       </c>
-      <c r="AB37" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AC37" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD37" s="10">
-        <v>1</v>
-      </c>
-      <c r="AE37" s="10">
-        <v>1</v>
-      </c>
-      <c r="AI37" s="10">
+      <c r="AB38" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AC38" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD38" s="10">
+        <v>1</v>
+      </c>
+      <c r="AE38" s="10">
+        <v>1</v>
+      </c>
+      <c r="AI38" s="10">
         <v>0.06</v>
       </c>
-      <c r="AT37" s="10">
-        <v>15</v>
-      </c>
-      <c r="AU37" s="10" t="s">
+      <c r="AT38" s="10">
+        <v>15</v>
+      </c>
+      <c r="AU38" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="AV37" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="AW37" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AX37" s="10" t="s">
+      <c r="AV38" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AW38" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AX38" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="AY37" s="10">
+      <c r="AY38" s="10">
         <v>5</v>
       </c>
-      <c r="AZ37" s="10">
+      <c r="AZ38" s="10">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="BA37" s="10">
+      <c r="BA38" s="10">
         <v>0.12</v>
       </c>
-      <c r="BB37" s="10">
+      <c r="BB38" s="10">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="BC37" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BD37" s="10" t="s">
+      <c r="BC38" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BD38" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="BE37" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BF37" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="BG37" s="10" t="s">
+      <c r="BE38" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BF38" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="BG38" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="BH37" s="10">
-        <v>1</v>
-      </c>
-      <c r="BI37" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="BJ37" s="10" t="b">
+      <c r="BH38" s="10">
+        <v>1</v>
+      </c>
+      <c r="BI38" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="BJ38" s="10" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:62" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="B39" s="10" t="b">
         <v>0</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D39" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>50</v>
+        <v>53</v>
+      </c>
+      <c r="F39" s="10" t="s">
+        <v>77</v>
       </c>
       <c r="G39" s="10">
-        <v>0.02</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="R39" s="10">
         <v>0.02</v>
@@ -4098,7 +4138,7 @@
         <v>0</v>
       </c>
       <c r="T39" s="10">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="U39" s="10">
         <v>0</v>
@@ -4154,8 +4194,8 @@
       <c r="AY39" s="10">
         <v>5</v>
       </c>
-      <c r="AZ39" s="11">
-        <v>6.7199999999999996E-2</v>
+      <c r="AZ39" s="10">
+        <v>8.2199999999999995E-2</v>
       </c>
       <c r="BA39" s="10">
         <v>0.12</v>
@@ -4167,7 +4207,7 @@
         <v>0.02</v>
       </c>
       <c r="BD39" s="10" t="s">
-        <v>50</v>
+        <v>89</v>
       </c>
       <c r="BE39" s="10">
         <v>0.02</v>
@@ -4185,140 +4225,24 @@
         <v>1</v>
       </c>
       <c r="BJ39" s="10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:62" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="B40" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="D40" s="10">
-        <v>2</v>
-      </c>
-      <c r="E40" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="G40" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="R40" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="S40" s="10">
-        <v>0</v>
-      </c>
-      <c r="T40" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="U40" s="10">
-        <v>0</v>
-      </c>
-      <c r="V40" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="W40" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="X40" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y40" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="Z40" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="AA40" s="10">
-        <v>1E-3</v>
-      </c>
-      <c r="AB40" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AC40" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD40" s="10">
-        <v>1</v>
-      </c>
-      <c r="AE40" s="10">
-        <v>1</v>
-      </c>
-      <c r="AI40" s="10">
-        <v>0.06</v>
-      </c>
-      <c r="AT40" s="10">
-        <v>15</v>
-      </c>
-      <c r="AU40" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="AV40" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="AW40" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AX40" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="AY40" s="10">
-        <v>5</v>
-      </c>
-      <c r="AZ40" s="11">
-        <v>6.7199999999999996E-2</v>
-      </c>
-      <c r="BA40" s="10">
-        <v>0.12</v>
-      </c>
-      <c r="BB40" s="10">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="BC40" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BD40" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="BE40" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BF40" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="BG40" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="BH40" s="10">
-        <v>1</v>
-      </c>
-      <c r="BI40" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="BJ40" s="10" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:62" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B41" s="10" t="b">
         <v>0</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D41" s="10">
         <v>2</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G41" s="10">
         <v>0.02</v>
@@ -4422,19 +4346,19 @@
     </row>
     <row r="42" spans="1:62" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B42" s="10" t="b">
         <v>0</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D42" s="10">
         <v>2</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G42" s="10">
         <v>0.02</v>
@@ -4538,19 +4462,19 @@
     </row>
     <row r="43" spans="1:62" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B43" s="10" t="b">
         <v>0</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D43" s="10">
         <v>2</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G43" s="10">
         <v>0.02</v>
@@ -4654,19 +4578,19 @@
     </row>
     <row r="44" spans="1:62" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B44" s="10" t="b">
         <v>0</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D44" s="10">
         <v>2</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G44" s="10">
         <v>0.02</v>
@@ -4770,19 +4694,19 @@
     </row>
     <row r="45" spans="1:62" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B45" s="10" t="b">
         <v>0</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D45" s="10">
         <v>2</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G45" s="10">
         <v>0.02</v>
@@ -4827,7 +4751,7 @@
         <v>1</v>
       </c>
       <c r="AE45" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI45" s="10">
         <v>0.06</v>
@@ -4881,15 +4805,247 @@
         <v>1</v>
       </c>
       <c r="BJ45" s="10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:62" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B46" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D46" s="10">
+        <v>2</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G46" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="R46" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="S46" s="10">
+        <v>0</v>
+      </c>
+      <c r="T46" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="U46" s="10">
+        <v>0</v>
+      </c>
+      <c r="V46" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="W46" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="X46" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y46" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="Z46" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="AA46" s="10">
+        <v>1E-3</v>
+      </c>
+      <c r="AB46" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AC46" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD46" s="10">
+        <v>1</v>
+      </c>
+      <c r="AE46" s="10">
+        <v>1</v>
+      </c>
+      <c r="AI46" s="10">
+        <v>0.06</v>
+      </c>
+      <c r="AT46" s="10">
+        <v>15</v>
+      </c>
+      <c r="AU46" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="AV46" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AW46" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AX46" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="AY46" s="10">
+        <v>5</v>
+      </c>
+      <c r="AZ46" s="11">
+        <v>6.7199999999999996E-2</v>
+      </c>
+      <c r="BA46" s="10">
+        <v>0.12</v>
+      </c>
+      <c r="BB46" s="10">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="BC46" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BD46" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="BE46" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BF46" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="BG46" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="BH46" s="10">
+        <v>1</v>
+      </c>
+      <c r="BI46" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="BJ46" s="10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:62" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B47" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D47" s="10">
+        <v>2</v>
+      </c>
+      <c r="E47" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G47" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="R47" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="S47" s="10">
+        <v>0</v>
+      </c>
+      <c r="T47" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="U47" s="10">
+        <v>0</v>
+      </c>
+      <c r="V47" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="W47" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="X47" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="Z47" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="AA47" s="10">
+        <v>1E-3</v>
+      </c>
+      <c r="AB47" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AC47" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD47" s="10">
+        <v>1</v>
+      </c>
+      <c r="AE47" s="10">
+        <v>2</v>
+      </c>
+      <c r="AI47" s="10">
+        <v>0.06</v>
+      </c>
+      <c r="AT47" s="10">
+        <v>15</v>
+      </c>
+      <c r="AU47" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="AV47" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AW47" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AX47" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="AY47" s="10">
+        <v>5</v>
+      </c>
+      <c r="AZ47" s="11">
+        <v>6.7199999999999996E-2</v>
+      </c>
+      <c r="BA47" s="10">
+        <v>0.12</v>
+      </c>
+      <c r="BB47" s="10">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="BC47" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BD47" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="BE47" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BF47" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="BG47" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="BH47" s="10">
+        <v>1</v>
+      </c>
+      <c r="BI47" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="BJ47" s="10" t="b">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B39:B45 B34:B37 B3:B32" xr:uid="{05E01AB2-72EC-4550-ACB8-4E83765DE296}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B41:B47 B36:B39 B3:B34" xr:uid="{05E01AB2-72EC-4550-ACB8-4E83765DE296}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3 H5:H8 H10:H13 H17:H19" xr:uid="{8DBFC5CB-438A-4309-B948-24597CAE3D7F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H5 H7:H10 H12:H15 H19:H21" xr:uid="{8DBFC5CB-438A-4309-B948-24597CAE3D7F}">
       <formula1>"preSet, ALpct,MApct"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4902,7 +5058,7 @@
           <x14:formula1>
             <xm:f>Policies!$B$3:$B$8</xm:f>
           </x14:formula1>
-          <xm:sqref>F3 F5:F8 F10:F13 F16:F18</xm:sqref>
+          <xm:sqref>F3:F5 F7:F10 F12:F15 F18:F20</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4915,7 +5071,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4945,10 +5101,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="B2">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="C2">
         <v>6</v>

--- a/RunControl.xlsx
+++ b/RunControl.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69B0DA5A-1BA2-4863-842A-9288CD6AD899}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2EAE392-AB77-4ABA-AF04-FDB9AC1D7922}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -848,7 +848,7 @@
       <pane xSplit="6" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D23" sqref="D23"/>
+      <selection pane="bottomRight" activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1307,7 +1307,7 @@
         <v>140</v>
       </c>
       <c r="B5" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>140</v>
@@ -1460,7 +1460,7 @@
         <v>127</v>
       </c>
       <c r="B7" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>137</v>
@@ -1612,7 +1612,7 @@
         <v>130</v>
       </c>
       <c r="B8" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>137</v>
@@ -1764,7 +1764,7 @@
         <v>115</v>
       </c>
       <c r="B9" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>137</v>
@@ -1916,7 +1916,7 @@
         <v>116</v>
       </c>
       <c r="B10" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>137</v>
@@ -2069,7 +2069,7 @@
         <v>56</v>
       </c>
       <c r="B12" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>138</v>
@@ -2221,7 +2221,7 @@
         <v>57</v>
       </c>
       <c r="B13" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>138</v>
@@ -2373,7 +2373,7 @@
         <v>131</v>
       </c>
       <c r="B14" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>138</v>
@@ -2525,7 +2525,7 @@
         <v>133</v>
       </c>
       <c r="B15" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>138</v>
@@ -5071,7 +5071,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5104,7 +5104,7 @@
         <v>91</v>
       </c>
       <c r="B2">
-        <v>2000</v>
+        <v>500</v>
       </c>
       <c r="C2">
         <v>6</v>

--- a/RunControl.xlsx
+++ b/RunControl.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2EAE392-AB77-4ABA-AF04-FDB9AC1D7922}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F95F2D3-FB04-4096-A4FE-8F578A46AF4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="paramlist" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="146">
   <si>
     <t>runname</t>
   </si>
@@ -456,6 +456,18 @@
   </si>
   <si>
     <t>dev_baseline</t>
+  </si>
+  <si>
+    <t>EECfloor_sharedADC</t>
+  </si>
+  <si>
+    <t>EEC_sharedADCfloor</t>
+  </si>
+  <si>
+    <t>sharedADCfloor</t>
+  </si>
+  <si>
+    <t>Shared ADCfloor</t>
   </si>
 </sst>
 </file>
@@ -842,13 +854,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BJ47"/>
+  <dimension ref="A1:BK48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="6" ySplit="2" topLeftCell="AG3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E21" sqref="E21"/>
+      <selection pane="bottomRight" activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -857,7 +869,7 @@
     <col min="2" max="2" width="10.140625" customWidth="1"/>
     <col min="3" max="4" width="11.7109375" customWidth="1"/>
     <col min="5" max="5" width="11.140625" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" customWidth="1"/>
     <col min="7" max="7" width="16.5703125" customWidth="1"/>
     <col min="8" max="8" width="11.7109375" customWidth="1"/>
     <col min="9" max="13" width="12.85546875" customWidth="1"/>
@@ -870,24 +882,24 @@
     <col min="28" max="30" width="14.28515625" customWidth="1"/>
     <col min="31" max="31" width="17.42578125" customWidth="1"/>
     <col min="32" max="32" width="18" customWidth="1"/>
-    <col min="33" max="33" width="18.85546875" customWidth="1"/>
+    <col min="33" max="33" width="14.5703125" customWidth="1"/>
     <col min="34" max="34" width="14.28515625" customWidth="1"/>
     <col min="35" max="35" width="18.5703125" style="10" customWidth="1"/>
-    <col min="36" max="36" width="20.28515625" style="10" customWidth="1"/>
-    <col min="37" max="37" width="21.42578125" style="10" customWidth="1"/>
-    <col min="38" max="38" width="23.7109375" style="10" customWidth="1"/>
-    <col min="39" max="39" width="24" style="10" customWidth="1"/>
-    <col min="40" max="43" width="21.42578125" style="10" customWidth="1"/>
-    <col min="44" max="45" width="17.7109375" style="10" customWidth="1"/>
-    <col min="46" max="46" width="7.7109375" customWidth="1"/>
-    <col min="47" max="47" width="13.7109375" customWidth="1"/>
-    <col min="48" max="49" width="7.7109375" customWidth="1"/>
-    <col min="54" max="58" width="14.28515625" customWidth="1"/>
-    <col min="59" max="59" width="16" customWidth="1"/>
-    <col min="60" max="60" width="11.7109375" customWidth="1"/>
+    <col min="36" max="37" width="20.28515625" style="10" customWidth="1"/>
+    <col min="38" max="38" width="21.42578125" style="10" customWidth="1"/>
+    <col min="39" max="39" width="23.7109375" style="10" customWidth="1"/>
+    <col min="40" max="40" width="24" style="10" customWidth="1"/>
+    <col min="41" max="44" width="21.42578125" style="10" customWidth="1"/>
+    <col min="45" max="46" width="17.7109375" style="10" customWidth="1"/>
+    <col min="47" max="47" width="7.7109375" customWidth="1"/>
+    <col min="48" max="48" width="13.7109375" customWidth="1"/>
+    <col min="49" max="50" width="7.7109375" customWidth="1"/>
+    <col min="55" max="59" width="14.28515625" customWidth="1"/>
+    <col min="60" max="60" width="16" customWidth="1"/>
+    <col min="61" max="61" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:63" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F1" s="17"/>
       <c r="G1" s="6"/>
       <c r="H1" s="12" t="s">
@@ -942,26 +954,27 @@
       <c r="AQ1" s="6"/>
       <c r="AR1" s="6"/>
       <c r="AS1" s="6"/>
-      <c r="AT1" s="5" t="s">
+      <c r="AT1" s="6"/>
+      <c r="AU1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="AX1" s="5" t="s">
+      <c r="AY1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="BB1" s="5" t="s">
+      <c r="BC1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="BC1" s="5" t="s">
+      <c r="BD1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="BG1" s="5" t="s">
+      <c r="BH1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="BI1" s="5" t="s">
+      <c r="BJ1" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1071,85 +1084,88 @@
         <v>119</v>
       </c>
       <c r="AK2" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AL2" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="AL2" s="1" t="s">
+      <c r="AM2" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="AM2" s="1" t="s">
+      <c r="AN2" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="AN2" s="1" t="s">
+      <c r="AO2" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="AO2" s="1" t="s">
+      <c r="AP2" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="AP2" s="1" t="s">
+      <c r="AQ2" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="AQ2" s="1" t="s">
+      <c r="AR2" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="AR2" s="1" t="s">
+      <c r="AS2" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="AS2" s="1" t="s">
+      <c r="AT2" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="AT2" t="s">
+      <c r="AU2" t="s">
         <v>10</v>
       </c>
-      <c r="AU2" t="s">
+      <c r="AV2" t="s">
         <v>11</v>
       </c>
-      <c r="AV2" t="s">
+      <c r="AW2" t="s">
         <v>12</v>
       </c>
-      <c r="AW2" t="s">
+      <c r="AX2" t="s">
         <v>13</v>
       </c>
-      <c r="AX2" t="s">
+      <c r="AY2" t="s">
         <v>17</v>
       </c>
-      <c r="AY2" t="s">
+      <c r="AZ2" t="s">
         <v>18</v>
       </c>
-      <c r="AZ2" t="s">
+      <c r="BA2" t="s">
         <v>31</v>
       </c>
-      <c r="BA2" t="s">
+      <c r="BB2" t="s">
         <v>32</v>
       </c>
-      <c r="BB2" t="s">
+      <c r="BC2" t="s">
         <v>28</v>
       </c>
-      <c r="BC2" t="s">
+      <c r="BD2" t="s">
         <v>30</v>
       </c>
-      <c r="BD2" t="s">
+      <c r="BE2" t="s">
         <v>88</v>
       </c>
-      <c r="BE2" t="s">
+      <c r="BF2" t="s">
         <v>85</v>
       </c>
-      <c r="BF2" t="s">
+      <c r="BG2" t="s">
         <v>86</v>
       </c>
-      <c r="BG2" t="s">
+      <c r="BH2" t="s">
         <v>21</v>
       </c>
-      <c r="BH2" t="s">
+      <c r="BI2" t="s">
         <v>22</v>
       </c>
-      <c r="BI2" t="s">
+      <c r="BJ2" t="s">
         <v>25</v>
       </c>
-      <c r="BJ2" t="s">
+      <c r="BK2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:62" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>141</v>
       </c>
@@ -1223,91 +1239,94 @@
         <v>0.5</v>
       </c>
       <c r="AK3" s="10">
+        <v>0</v>
+      </c>
+      <c r="AL3" s="10">
         <v>0.5</v>
       </c>
-      <c r="AL3" s="10">
+      <c r="AM3" s="10">
         <v>0.04</v>
       </c>
-      <c r="AM3" s="10">
+      <c r="AN3" s="10">
         <v>0.08</v>
       </c>
-      <c r="AN3" s="10">
+      <c r="AO3" s="10">
         <v>0.04</v>
       </c>
-      <c r="AO3" s="10">
+      <c r="AP3" s="10">
         <v>0.11</v>
       </c>
-      <c r="AP3" s="10">
+      <c r="AQ3" s="10">
         <v>0.04</v>
       </c>
-      <c r="AQ3" s="10">
+      <c r="AR3" s="10">
         <v>0.08</v>
       </c>
-      <c r="AR3" s="10">
+      <c r="AS3" s="10">
         <v>0.7</v>
       </c>
-      <c r="AS3" s="10">
-        <v>1</v>
-      </c>
       <c r="AT3" s="10">
-        <v>15</v>
-      </c>
-      <c r="AU3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU3" s="10">
+        <v>15</v>
+      </c>
+      <c r="AV3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="AV3" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="AW3" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AX3" s="10" t="s">
+      <c r="AW3" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AX3" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AY3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="AY3" s="10">
+      <c r="AZ3" s="10">
         <v>5</v>
       </c>
-      <c r="AZ3" s="10">
+      <c r="BA3" s="10">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="BA3" s="10">
+      <c r="BB3" s="10">
         <v>0.12</v>
       </c>
-      <c r="BB3" s="10">
+      <c r="BC3" s="10">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="BC3" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BD3" s="10" t="s">
+      <c r="BD3" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BE3" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="BE3" s="10">
-        <v>0.02</v>
-      </c>
       <c r="BF3" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="BG3" s="10" t="s">
+        <v>0.02</v>
+      </c>
+      <c r="BG3" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="BH3" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="BH3" s="10">
+      <c r="BI3" s="10">
         <v>0.75</v>
       </c>
-      <c r="BI3" s="10" t="b">
-        <v>1</v>
-      </c>
       <c r="BJ3" s="10" t="b">
         <v>1</v>
       </c>
+      <c r="BK3" s="10" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:62" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:62" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>140</v>
       </c>
       <c r="B5" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>140</v>
@@ -1376,91 +1395,94 @@
         <v>0.5</v>
       </c>
       <c r="AK5" s="10">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="10">
         <v>0.5</v>
       </c>
-      <c r="AL5" s="10">
+      <c r="AM5" s="10">
         <v>0.04</v>
       </c>
-      <c r="AM5" s="10">
+      <c r="AN5" s="10">
         <v>0.08</v>
       </c>
-      <c r="AN5" s="10">
+      <c r="AO5" s="10">
         <v>0.04</v>
       </c>
-      <c r="AO5" s="10">
+      <c r="AP5" s="10">
         <v>0.11</v>
       </c>
-      <c r="AP5" s="10">
+      <c r="AQ5" s="10">
         <v>0.04</v>
       </c>
-      <c r="AQ5" s="10">
+      <c r="AR5" s="10">
         <v>0.08</v>
       </c>
-      <c r="AR5" s="10">
+      <c r="AS5" s="10">
         <v>0.7</v>
       </c>
-      <c r="AS5" s="10">
-        <v>1</v>
-      </c>
       <c r="AT5" s="10">
-        <v>15</v>
-      </c>
-      <c r="AU5" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU5" s="10">
+        <v>15</v>
+      </c>
+      <c r="AV5" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="AV5" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="AW5" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AX5" s="10" t="s">
+      <c r="AW5" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AX5" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AY5" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="AY5" s="10">
+      <c r="AZ5" s="10">
         <v>5</v>
       </c>
-      <c r="AZ5" s="10">
+      <c r="BA5" s="10">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="BA5" s="10">
+      <c r="BB5" s="10">
         <v>0.12</v>
       </c>
-      <c r="BB5" s="10">
+      <c r="BC5" s="10">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="BC5" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BD5" s="10" t="s">
+      <c r="BD5" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BE5" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="BE5" s="10">
-        <v>0.02</v>
-      </c>
       <c r="BF5" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="BG5" s="10" t="s">
+        <v>0.02</v>
+      </c>
+      <c r="BG5" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="BH5" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="BH5" s="10">
+      <c r="BI5" s="10">
         <v>0.75</v>
       </c>
-      <c r="BI5" s="10" t="b">
-        <v>1</v>
-      </c>
       <c r="BJ5" s="10" t="b">
         <v>1</v>
       </c>
+      <c r="BK5" s="10" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:62" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:62" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>127</v>
       </c>
       <c r="B7" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>137</v>
@@ -1529,90 +1551,93 @@
         <v>0.5</v>
       </c>
       <c r="AK7" s="10">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="10">
         <v>0.5</v>
       </c>
-      <c r="AL7" s="10">
+      <c r="AM7" s="10">
         <v>0.04</v>
       </c>
-      <c r="AM7" s="10">
+      <c r="AN7" s="10">
         <v>0.08</v>
       </c>
-      <c r="AN7" s="10">
+      <c r="AO7" s="10">
         <v>0.04</v>
       </c>
-      <c r="AO7" s="10">
+      <c r="AP7" s="10">
         <v>0.11</v>
       </c>
-      <c r="AP7" s="10">
+      <c r="AQ7" s="10">
         <v>0.04</v>
       </c>
-      <c r="AQ7" s="10">
+      <c r="AR7" s="10">
         <v>0.08</v>
       </c>
-      <c r="AR7" s="10">
+      <c r="AS7" s="10">
         <v>0.7</v>
       </c>
-      <c r="AS7" s="10">
-        <v>1</v>
-      </c>
       <c r="AT7" s="10">
-        <v>15</v>
-      </c>
-      <c r="AU7" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU7" s="10">
+        <v>15</v>
+      </c>
+      <c r="AV7" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="AV7" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="AW7" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AX7" s="10" t="s">
+      <c r="AW7" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AX7" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AY7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="AY7" s="10">
+      <c r="AZ7" s="10">
         <v>5</v>
       </c>
-      <c r="AZ7" s="10">
+      <c r="BA7" s="10">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="BA7" s="10">
+      <c r="BB7" s="10">
         <v>0.12</v>
       </c>
-      <c r="BB7" s="10">
+      <c r="BC7" s="10">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="BC7" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BD7" s="10" t="s">
+      <c r="BD7" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BE7" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="BE7" s="10">
-        <v>0.02</v>
-      </c>
       <c r="BF7" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="BG7" s="10" t="s">
+        <v>0.02</v>
+      </c>
+      <c r="BG7" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="BH7" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="BH7" s="10">
+      <c r="BI7" s="10">
         <v>0.75</v>
       </c>
-      <c r="BI7" s="10" t="b">
-        <v>1</v>
-      </c>
       <c r="BJ7" s="10" t="b">
         <v>1</v>
       </c>
+      <c r="BK7" s="10" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="8" spans="1:62" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="B8" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>137</v>
@@ -1624,7 +1649,7 @@
         <v>50</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>114</v>
+        <v>144</v>
       </c>
       <c r="G8" s="10">
         <v>1.4999999999999999E-2</v>
@@ -1681,90 +1706,93 @@
         <v>0.5</v>
       </c>
       <c r="AK8" s="10">
+        <v>0.06</v>
+      </c>
+      <c r="AL8" s="10">
         <v>0.5</v>
       </c>
-      <c r="AL8" s="10">
+      <c r="AM8" s="10">
         <v>0.04</v>
       </c>
-      <c r="AM8" s="10">
+      <c r="AN8" s="10">
         <v>0.08</v>
       </c>
-      <c r="AN8" s="10">
+      <c r="AO8" s="10">
         <v>0.04</v>
       </c>
-      <c r="AO8" s="10">
+      <c r="AP8" s="10">
         <v>0.11</v>
       </c>
-      <c r="AP8" s="10">
+      <c r="AQ8" s="10">
         <v>0.04</v>
       </c>
-      <c r="AQ8" s="10">
+      <c r="AR8" s="10">
         <v>0.08</v>
       </c>
-      <c r="AR8" s="10">
+      <c r="AS8" s="10">
         <v>0.7</v>
       </c>
-      <c r="AS8" s="10">
-        <v>1</v>
-      </c>
       <c r="AT8" s="10">
-        <v>15</v>
-      </c>
-      <c r="AU8" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU8" s="10">
+        <v>15</v>
+      </c>
+      <c r="AV8" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="AV8" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="AW8" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AX8" s="10" t="s">
+      <c r="AW8" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AX8" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AY8" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="AY8" s="10">
+      <c r="AZ8" s="10">
         <v>5</v>
       </c>
-      <c r="AZ8" s="10">
+      <c r="BA8" s="10">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="BA8" s="10">
+      <c r="BB8" s="10">
         <v>0.12</v>
       </c>
-      <c r="BB8" s="10">
+      <c r="BC8" s="10">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="BC8" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BD8" s="10" t="s">
+      <c r="BD8" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BE8" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="BE8" s="10">
-        <v>0.02</v>
-      </c>
       <c r="BF8" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="BG8" s="10" t="s">
+        <v>0.02</v>
+      </c>
+      <c r="BG8" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="BH8" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="BH8" s="10">
+      <c r="BI8" s="10">
         <v>0.75</v>
       </c>
-      <c r="BI8" s="10" t="b">
-        <v>1</v>
-      </c>
       <c r="BJ8" s="10" t="b">
         <v>1</v>
       </c>
+      <c r="BK8" s="10" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="9" spans="1:62" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="B9" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>137</v>
@@ -1776,7 +1804,7 @@
         <v>50</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G9" s="10">
         <v>1.4999999999999999E-2</v>
@@ -1833,90 +1861,93 @@
         <v>0.5</v>
       </c>
       <c r="AK9" s="10">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="10">
         <v>0.5</v>
       </c>
-      <c r="AL9" s="10">
+      <c r="AM9" s="10">
         <v>0.04</v>
       </c>
-      <c r="AM9" s="10">
+      <c r="AN9" s="10">
         <v>0.08</v>
       </c>
-      <c r="AN9" s="10">
+      <c r="AO9" s="10">
         <v>0.04</v>
       </c>
-      <c r="AO9" s="10">
+      <c r="AP9" s="10">
         <v>0.11</v>
       </c>
-      <c r="AP9" s="10">
+      <c r="AQ9" s="10">
         <v>0.04</v>
       </c>
-      <c r="AQ9" s="10">
+      <c r="AR9" s="10">
         <v>0.08</v>
       </c>
-      <c r="AR9" s="10">
+      <c r="AS9" s="10">
         <v>0.7</v>
       </c>
-      <c r="AS9" s="10">
-        <v>1</v>
-      </c>
       <c r="AT9" s="10">
-        <v>15</v>
-      </c>
-      <c r="AU9" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU9" s="10">
+        <v>15</v>
+      </c>
+      <c r="AV9" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="AV9" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="AW9" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AX9" s="10" t="s">
+      <c r="AW9" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AX9" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AY9" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="AY9" s="10">
+      <c r="AZ9" s="10">
         <v>5</v>
       </c>
-      <c r="AZ9" s="10">
+      <c r="BA9" s="10">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="BA9" s="10">
+      <c r="BB9" s="10">
         <v>0.12</v>
       </c>
-      <c r="BB9" s="10">
+      <c r="BC9" s="10">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="BC9" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BD9" s="10" t="s">
+      <c r="BD9" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BE9" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="BE9" s="10">
-        <v>0.02</v>
-      </c>
       <c r="BF9" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="BG9" s="10" t="s">
+        <v>0.02</v>
+      </c>
+      <c r="BG9" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="BH9" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="BH9" s="10">
+      <c r="BI9" s="10">
         <v>0.75</v>
       </c>
-      <c r="BI9" s="10" t="b">
-        <v>1</v>
-      </c>
       <c r="BJ9" s="10" t="b">
         <v>1</v>
       </c>
+      <c r="BK9" s="10" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="10" spans="1:62" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B10" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>137</v>
@@ -1928,7 +1959,7 @@
         <v>50</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G10" s="10">
         <v>1.4999999999999999E-2</v>
@@ -1985,243 +2016,249 @@
         <v>0.5</v>
       </c>
       <c r="AK10" s="10">
+        <v>0</v>
+      </c>
+      <c r="AL10" s="10">
         <v>0.5</v>
       </c>
-      <c r="AL10" s="10">
+      <c r="AM10" s="10">
         <v>0.04</v>
       </c>
-      <c r="AM10" s="10">
+      <c r="AN10" s="10">
         <v>0.08</v>
       </c>
-      <c r="AN10" s="10">
+      <c r="AO10" s="10">
         <v>0.04</v>
       </c>
-      <c r="AO10" s="10">
+      <c r="AP10" s="10">
         <v>0.11</v>
       </c>
-      <c r="AP10" s="10">
+      <c r="AQ10" s="10">
         <v>0.04</v>
       </c>
-      <c r="AQ10" s="10">
+      <c r="AR10" s="10">
         <v>0.08</v>
       </c>
-      <c r="AR10" s="10">
+      <c r="AS10" s="10">
         <v>0.7</v>
       </c>
-      <c r="AS10" s="10">
-        <v>1</v>
-      </c>
       <c r="AT10" s="10">
-        <v>15</v>
-      </c>
-      <c r="AU10" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU10" s="10">
+        <v>15</v>
+      </c>
+      <c r="AV10" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="AV10" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="AW10" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AX10" s="10" t="s">
+      <c r="AW10" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AX10" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AY10" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="AY10" s="10">
+      <c r="AZ10" s="10">
         <v>5</v>
       </c>
-      <c r="AZ10" s="10">
+      <c r="BA10" s="10">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="BA10" s="10">
+      <c r="BB10" s="10">
         <v>0.12</v>
       </c>
-      <c r="BB10" s="10">
+      <c r="BC10" s="10">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="BC10" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BD10" s="10" t="s">
+      <c r="BD10" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BE10" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="BE10" s="10">
-        <v>0.02</v>
-      </c>
       <c r="BF10" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="BG10" s="10" t="s">
+        <v>0.02</v>
+      </c>
+      <c r="BG10" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="BH10" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="BH10" s="10">
+      <c r="BI10" s="10">
         <v>0.75</v>
       </c>
-      <c r="BI10" s="10" t="b">
-        <v>1</v>
-      </c>
       <c r="BJ10" s="10" t="b">
         <v>1</v>
       </c>
+      <c r="BK10" s="10" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="11" spans="1:62" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:62" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
+    <row r="11" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="B11" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="D11" s="10">
+        <v>1</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="G11" s="10">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="R11" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="S11" s="10">
+        <v>0</v>
+      </c>
+      <c r="T11" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="U11" s="10">
+        <v>0</v>
+      </c>
+      <c r="V11" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="W11" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="X11" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="Z11" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="AA11" s="10">
+        <v>1E-3</v>
+      </c>
+      <c r="AB11" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AC11" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="10">
+        <v>1</v>
+      </c>
+      <c r="AE11" s="10">
+        <v>1</v>
+      </c>
+      <c r="AI11" s="10">
+        <v>0.06</v>
+      </c>
+      <c r="AJ11" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AK11" s="10">
+        <v>0</v>
+      </c>
+      <c r="AL11" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AM11" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="AN11" s="10">
+        <v>0.08</v>
+      </c>
+      <c r="AO11" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="AP11" s="10">
+        <v>0.11</v>
+      </c>
+      <c r="AQ11" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="AR11" s="10">
+        <v>0.08</v>
+      </c>
+      <c r="AS11" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="AT11" s="10">
+        <v>1</v>
+      </c>
+      <c r="AU11" s="10">
+        <v>15</v>
+      </c>
+      <c r="AV11" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="AW11" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AX11" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AY11" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="AZ11" s="10">
+        <v>5</v>
+      </c>
+      <c r="BA11" s="10">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="BB11" s="10">
+        <v>0.12</v>
+      </c>
+      <c r="BC11" s="10">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="BD11" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BE11" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="BF11" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BG11" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="BH11" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="BI11" s="10">
+        <v>0.75</v>
+      </c>
+      <c r="BJ11" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="BK11" s="10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="B12" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="D12" s="10">
-        <v>1</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="G12" s="10">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="H12" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="R12" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="S12" s="10">
-        <v>0</v>
-      </c>
-      <c r="T12" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="U12" s="10">
-        <v>0</v>
-      </c>
-      <c r="V12" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="W12" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="X12" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="Z12" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="AA12" s="10">
-        <v>1E-3</v>
-      </c>
-      <c r="AB12" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AC12" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD12" s="10">
-        <v>1</v>
-      </c>
-      <c r="AE12" s="10">
-        <v>1</v>
-      </c>
-      <c r="AI12" s="10">
-        <v>0.06</v>
-      </c>
-      <c r="AJ12" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AK12" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AL12" s="10">
-        <v>0.04</v>
-      </c>
-      <c r="AM12" s="10">
-        <v>0.08</v>
-      </c>
-      <c r="AN12" s="10">
-        <v>0.04</v>
-      </c>
-      <c r="AO12" s="10">
-        <v>0.11</v>
-      </c>
-      <c r="AP12" s="10">
-        <v>0.04</v>
-      </c>
-      <c r="AQ12" s="10">
-        <v>0.08</v>
-      </c>
-      <c r="AR12" s="10">
-        <v>0.7</v>
-      </c>
-      <c r="AS12" s="10">
-        <v>1</v>
-      </c>
-      <c r="AT12" s="10">
-        <v>15</v>
-      </c>
-      <c r="AU12" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="AV12" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="AW12" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AX12" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="AY12" s="10">
-        <v>5</v>
-      </c>
-      <c r="AZ12" s="10">
-        <v>8.2199999999999995E-2</v>
-      </c>
-      <c r="BA12" s="10">
-        <v>0.12</v>
-      </c>
-      <c r="BB12" s="10">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="BC12" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BD12" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="BE12" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BF12" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="BG12" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="BH12" s="10">
-        <v>0.75</v>
-      </c>
-      <c r="BI12" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="BJ12" s="10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:62" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
-        <v>57</v>
-      </c>
       <c r="B13" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>138</v>
@@ -2230,7 +2267,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>77</v>
@@ -2290,90 +2327,93 @@
         <v>0.5</v>
       </c>
       <c r="AK13" s="10">
+        <v>0</v>
+      </c>
+      <c r="AL13" s="10">
         <v>0.5</v>
       </c>
-      <c r="AL13" s="10">
+      <c r="AM13" s="10">
         <v>0.04</v>
       </c>
-      <c r="AM13" s="10">
+      <c r="AN13" s="10">
         <v>0.08</v>
       </c>
-      <c r="AN13" s="10">
+      <c r="AO13" s="10">
         <v>0.04</v>
       </c>
-      <c r="AO13" s="10">
+      <c r="AP13" s="10">
         <v>0.11</v>
       </c>
-      <c r="AP13" s="10">
+      <c r="AQ13" s="10">
         <v>0.04</v>
       </c>
-      <c r="AQ13" s="10">
+      <c r="AR13" s="10">
         <v>0.08</v>
       </c>
-      <c r="AR13" s="10">
+      <c r="AS13" s="10">
         <v>0.7</v>
       </c>
-      <c r="AS13" s="10">
-        <v>1</v>
-      </c>
       <c r="AT13" s="10">
-        <v>15</v>
-      </c>
-      <c r="AU13" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU13" s="10">
+        <v>15</v>
+      </c>
+      <c r="AV13" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="AV13" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="AW13" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AX13" s="10" t="s">
+      <c r="AW13" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AX13" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AY13" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="AY13" s="10">
+      <c r="AZ13" s="10">
         <v>5</v>
       </c>
-      <c r="AZ13" s="10">
+      <c r="BA13" s="10">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="BA13" s="10">
+      <c r="BB13" s="10">
         <v>0.12</v>
       </c>
-      <c r="BB13" s="10">
+      <c r="BC13" s="10">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="BC13" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BD13" s="10" t="s">
+      <c r="BD13" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BE13" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="BE13" s="10">
-        <v>0.02</v>
-      </c>
       <c r="BF13" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="BG13" s="10" t="s">
+        <v>0.02</v>
+      </c>
+      <c r="BG13" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="BH13" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="BH13" s="10">
+      <c r="BI13" s="10">
         <v>0.75</v>
       </c>
-      <c r="BI13" s="10" t="b">
-        <v>1</v>
-      </c>
       <c r="BJ13" s="10" t="b">
         <v>1</v>
       </c>
+      <c r="BK13" s="10" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="14" spans="1:62" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:63" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>131</v>
+        <v>57</v>
       </c>
       <c r="B14" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>138</v>
@@ -2382,7 +2422,7 @@
         <v>1</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>77</v>
@@ -2442,90 +2482,93 @@
         <v>0.5</v>
       </c>
       <c r="AK14" s="10">
+        <v>0</v>
+      </c>
+      <c r="AL14" s="10">
         <v>0.5</v>
       </c>
-      <c r="AL14" s="10">
+      <c r="AM14" s="10">
         <v>0.04</v>
       </c>
-      <c r="AM14" s="10">
+      <c r="AN14" s="10">
         <v>0.08</v>
       </c>
-      <c r="AN14" s="10">
+      <c r="AO14" s="10">
         <v>0.04</v>
       </c>
-      <c r="AO14" s="10">
+      <c r="AP14" s="10">
         <v>0.11</v>
       </c>
-      <c r="AP14" s="10">
+      <c r="AQ14" s="10">
         <v>0.04</v>
       </c>
-      <c r="AQ14" s="10">
+      <c r="AR14" s="10">
         <v>0.08</v>
       </c>
-      <c r="AR14" s="10">
+      <c r="AS14" s="10">
         <v>0.7</v>
       </c>
-      <c r="AS14" s="10">
-        <v>1</v>
-      </c>
       <c r="AT14" s="10">
-        <v>15</v>
-      </c>
-      <c r="AU14" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU14" s="10">
+        <v>15</v>
+      </c>
+      <c r="AV14" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="AV14" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="AW14" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AX14" s="10" t="s">
+      <c r="AW14" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AX14" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AY14" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="AY14" s="10">
+      <c r="AZ14" s="10">
         <v>5</v>
       </c>
-      <c r="AZ14" s="10">
+      <c r="BA14" s="10">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="BA14" s="10">
+      <c r="BB14" s="10">
         <v>0.12</v>
       </c>
-      <c r="BB14" s="10">
+      <c r="BC14" s="10">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="BC14" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BD14" s="10" t="s">
+      <c r="BD14" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BE14" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="BE14" s="10">
-        <v>0.02</v>
-      </c>
       <c r="BF14" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="BG14" s="10" t="s">
+        <v>0.02</v>
+      </c>
+      <c r="BG14" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="BH14" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="BH14" s="10">
+      <c r="BI14" s="10">
         <v>0.75</v>
       </c>
-      <c r="BI14" s="10" t="b">
-        <v>1</v>
-      </c>
       <c r="BJ14" s="10" t="b">
         <v>1</v>
       </c>
+      <c r="BK14" s="10" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="15" spans="1:62" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B15" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>138</v>
@@ -2534,7 +2577,7 @@
         <v>1</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F15" s="10" t="s">
         <v>77</v>
@@ -2585,13 +2628,7 @@
         <v>1</v>
       </c>
       <c r="AE15" s="10">
-        <v>2</v>
-      </c>
-      <c r="AF15" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AG15" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AI15" s="10">
         <v>0.06</v>
@@ -2600,427 +2637,475 @@
         <v>0.5</v>
       </c>
       <c r="AK15" s="10">
+        <v>0</v>
+      </c>
+      <c r="AL15" s="10">
         <v>0.5</v>
       </c>
-      <c r="AL15" s="10">
+      <c r="AM15" s="10">
         <v>0.04</v>
       </c>
-      <c r="AM15" s="10">
+      <c r="AN15" s="10">
         <v>0.08</v>
       </c>
-      <c r="AN15" s="10">
+      <c r="AO15" s="10">
         <v>0.04</v>
       </c>
-      <c r="AO15" s="10">
+      <c r="AP15" s="10">
         <v>0.11</v>
       </c>
-      <c r="AP15" s="10">
+      <c r="AQ15" s="10">
         <v>0.04</v>
       </c>
-      <c r="AQ15" s="10">
+      <c r="AR15" s="10">
         <v>0.08</v>
       </c>
-      <c r="AR15" s="10">
+      <c r="AS15" s="10">
         <v>0.7</v>
       </c>
-      <c r="AS15" s="10">
-        <v>1</v>
-      </c>
       <c r="AT15" s="10">
-        <v>15</v>
-      </c>
-      <c r="AU15" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU15" s="10">
+        <v>15</v>
+      </c>
+      <c r="AV15" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="AV15" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="AW15" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AX15" s="10" t="s">
+      <c r="AW15" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AX15" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AY15" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="AY15" s="10">
+      <c r="AZ15" s="10">
         <v>5</v>
       </c>
-      <c r="AZ15" s="10">
+      <c r="BA15" s="10">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="BA15" s="10">
+      <c r="BB15" s="10">
         <v>0.12</v>
       </c>
-      <c r="BB15" s="10">
+      <c r="BC15" s="10">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="BC15" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BD15" s="10" t="s">
+      <c r="BD15" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BE15" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="BE15" s="10">
-        <v>0.02</v>
-      </c>
       <c r="BF15" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="BG15" s="10" t="s">
+        <v>0.02</v>
+      </c>
+      <c r="BG15" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="BH15" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="BH15" s="10">
+      <c r="BI15" s="10">
         <v>0.75</v>
       </c>
-      <c r="BI15" s="10" t="b">
-        <v>1</v>
-      </c>
       <c r="BJ15" s="10" t="b">
         <v>1</v>
       </c>
+      <c r="BK15" s="10" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="16" spans="1:62" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="1:62" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="1:62" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
+    <row r="16" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="B16" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="D16" s="10">
+        <v>1</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="G16" s="10">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="R16" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="S16" s="10">
+        <v>0</v>
+      </c>
+      <c r="T16" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="U16" s="10">
+        <v>0</v>
+      </c>
+      <c r="V16" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="W16" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="X16" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="Z16" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="AA16" s="10">
+        <v>1E-3</v>
+      </c>
+      <c r="AB16" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AC16" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="10">
+        <v>1</v>
+      </c>
+      <c r="AE16" s="10">
+        <v>2</v>
+      </c>
+      <c r="AF16" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AG16" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AI16" s="10">
+        <v>0.06</v>
+      </c>
+      <c r="AJ16" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AK16" s="10">
+        <v>0</v>
+      </c>
+      <c r="AL16" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AM16" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="AN16" s="10">
+        <v>0.08</v>
+      </c>
+      <c r="AO16" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="AP16" s="10">
+        <v>0.11</v>
+      </c>
+      <c r="AQ16" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="AR16" s="10">
+        <v>0.08</v>
+      </c>
+      <c r="AS16" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="AT16" s="10">
+        <v>1</v>
+      </c>
+      <c r="AU16" s="10">
+        <v>15</v>
+      </c>
+      <c r="AV16" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="AW16" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AX16" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AY16" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="AZ16" s="10">
+        <v>5</v>
+      </c>
+      <c r="BA16" s="10">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="BB16" s="10">
+        <v>0.12</v>
+      </c>
+      <c r="BC16" s="10">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="BD16" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BE16" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="BF16" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BG16" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="BH16" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="BI16" s="10">
+        <v>0.75</v>
+      </c>
+      <c r="BJ16" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="BK16" s="10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="B18" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="D18" s="10">
-        <v>1</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="G18" s="10">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="R18" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="S18" s="10">
-        <v>0</v>
-      </c>
-      <c r="T18" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="U18" s="10">
-        <v>0</v>
-      </c>
-      <c r="V18" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="W18" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="X18" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="Z18" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="AA18" s="10">
-        <v>1E-3</v>
-      </c>
-      <c r="AB18" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AC18" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD18" s="10">
-        <v>1</v>
-      </c>
-      <c r="AE18" s="10">
-        <v>1</v>
-      </c>
-      <c r="AI18" s="10">
-        <v>0.03</v>
-      </c>
-      <c r="AJ18" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AK18" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AL18" s="10">
-        <v>0.04</v>
-      </c>
-      <c r="AM18" s="10">
-        <v>0.08</v>
-      </c>
-      <c r="AN18" s="10">
-        <v>0.04</v>
-      </c>
-      <c r="AO18" s="10">
-        <v>0.11</v>
-      </c>
-      <c r="AP18" s="10">
-        <v>0.04</v>
-      </c>
-      <c r="AQ18" s="10">
-        <v>0.08</v>
-      </c>
-      <c r="AR18" s="10">
-        <v>0.7</v>
-      </c>
-      <c r="AS18" s="10">
-        <v>1</v>
-      </c>
-      <c r="AT18" s="10">
-        <v>15</v>
-      </c>
-      <c r="AU18" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="AV18" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="AW18" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AX18" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="AY18" s="10">
-        <v>5</v>
-      </c>
-      <c r="AZ18" s="10">
-        <v>8.2199999999999995E-2</v>
-      </c>
-      <c r="BA18" s="10">
-        <v>0.12</v>
-      </c>
-      <c r="BB18" s="10">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="BC18" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BD18" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="BE18" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BF18" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="BG18" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="BH18" s="10">
-        <v>0.75</v>
-      </c>
-      <c r="BI18" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="BJ18" s="10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:62" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
-        <v>136</v>
-      </c>
       <c r="B19" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="H19" s="10" t="s">
+      <c r="D19" s="10">
+        <v>1</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="G19" s="10">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="R19" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="S19" s="10">
+        <v>0</v>
+      </c>
+      <c r="T19" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="U19" s="10">
+        <v>0</v>
+      </c>
+      <c r="V19" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="W19" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="X19" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="Z19" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="AA19" s="10">
+        <v>1E-3</v>
+      </c>
+      <c r="AB19" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AC19" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD19" s="10">
+        <v>1</v>
+      </c>
+      <c r="AE19" s="10">
+        <v>1</v>
+      </c>
+      <c r="AI19" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="AJ19" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AK19" s="10">
+        <v>0</v>
+      </c>
+      <c r="AL19" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AM19" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="AN19" s="10">
+        <v>0.08</v>
+      </c>
+      <c r="AO19" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="AP19" s="10">
+        <v>0.11</v>
+      </c>
+      <c r="AQ19" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="AR19" s="10">
+        <v>0.08</v>
+      </c>
+      <c r="AS19" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="AT19" s="10">
+        <v>1</v>
+      </c>
+      <c r="AU19" s="10">
+        <v>15</v>
+      </c>
+      <c r="AV19" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="AW19" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AX19" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AY19" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="AZ19" s="10">
+        <v>5</v>
+      </c>
+      <c r="BA19" s="10">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="BB19" s="10">
+        <v>0.12</v>
+      </c>
+      <c r="BC19" s="10">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="BD19" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BE19" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="BF19" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BG19" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="BH19" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="BI19" s="10">
+        <v>0.75</v>
+      </c>
+      <c r="BJ19" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="BK19" s="10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B20" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="H20" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="I19" s="10">
-        <v>1</v>
-      </c>
-      <c r="J19" s="10">
-        <v>1</v>
-      </c>
-      <c r="K19" s="10">
-        <v>1</v>
-      </c>
-      <c r="L19" s="10">
+      <c r="I20" s="10">
+        <v>1</v>
+      </c>
+      <c r="J20" s="10">
+        <v>1</v>
+      </c>
+      <c r="K20" s="10">
+        <v>1</v>
+      </c>
+      <c r="L20" s="10">
         <v>0.03</v>
       </c>
-      <c r="M19" s="10">
+      <c r="M20" s="10">
         <v>0.03</v>
       </c>
     </row>
-    <row r="20" spans="1:62" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:62" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
+    <row r="21" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="H21" s="10" t="s">
+      <c r="H22" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="I21" s="10">
-        <v>1</v>
-      </c>
-      <c r="J21" s="10">
-        <v>1</v>
-      </c>
-      <c r="K21" s="10">
-        <v>1</v>
-      </c>
-      <c r="L21" s="10">
+      <c r="I22" s="10">
+        <v>1</v>
+      </c>
+      <c r="J22" s="10">
+        <v>1</v>
+      </c>
+      <c r="K22" s="10">
+        <v>1</v>
+      </c>
+      <c r="L22" s="10">
         <v>0.06</v>
       </c>
-      <c r="M21" s="10">
+      <c r="M22" s="10">
         <v>0.06</v>
       </c>
     </row>
-    <row r="22" spans="1:62" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:62" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:62" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:62" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:62" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:62" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="10" t="s">
+    <row r="23" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="B27" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="C27" s="10" t="s">
+      <c r="B28" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="C28" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="10">
-        <v>1</v>
-      </c>
-      <c r="E27" s="10" t="s">
+      <c r="D28" s="10">
+        <v>1</v>
+      </c>
+      <c r="E28" s="10" t="s">
         <v>52</v>
-      </c>
-      <c r="F27" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="G27" s="10">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="R27" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="S27" s="10">
-        <v>0</v>
-      </c>
-      <c r="T27" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="U27" s="10">
-        <v>0</v>
-      </c>
-      <c r="V27" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="W27" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="X27" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y27" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="Z27" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="AA27" s="10">
-        <v>1E-3</v>
-      </c>
-      <c r="AB27" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AC27" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD27" s="10">
-        <v>1</v>
-      </c>
-      <c r="AE27" s="10">
-        <v>1</v>
-      </c>
-      <c r="AI27" s="10">
-        <v>0.06</v>
-      </c>
-      <c r="AT27" s="10">
-        <v>15</v>
-      </c>
-      <c r="AU27" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="AV27" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="AW27" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AX27" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="AY27" s="10">
-        <v>5</v>
-      </c>
-      <c r="AZ27" s="10">
-        <v>8.2199999999999995E-2</v>
-      </c>
-      <c r="BA27" s="10">
-        <v>0.12</v>
-      </c>
-      <c r="BB27" s="10">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="BC27" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BD27" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="BE27" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BF27" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="BG27" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="BH27" s="10">
-        <v>1</v>
-      </c>
-      <c r="BI27" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="BJ27" s="10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:62" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="B28" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="D28" s="10">
-        <v>1</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>53</v>
       </c>
       <c r="F28" s="10" t="s">
         <v>77</v>
@@ -3073,73 +3158,73 @@
       <c r="AI28" s="10">
         <v>0.06</v>
       </c>
-      <c r="AT28" s="10">
-        <v>15</v>
-      </c>
-      <c r="AU28" s="10" t="s">
+      <c r="AU28" s="10">
+        <v>15</v>
+      </c>
+      <c r="AV28" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="AV28" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="AW28" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AX28" s="10" t="s">
+      <c r="AW28" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AX28" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AY28" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="AY28" s="10">
+      <c r="AZ28" s="10">
         <v>5</v>
       </c>
-      <c r="AZ28" s="10">
+      <c r="BA28" s="10">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="BA28" s="10">
+      <c r="BB28" s="10">
         <v>0.12</v>
       </c>
-      <c r="BB28" s="10">
+      <c r="BC28" s="10">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="BC28" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BD28" s="10" t="s">
+      <c r="BD28" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BE28" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="BE28" s="10">
-        <v>0.02</v>
-      </c>
       <c r="BF28" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="BG28" s="10" t="s">
+        <v>0.02</v>
+      </c>
+      <c r="BG28" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="BH28" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="BH28" s="10">
-        <v>1</v>
-      </c>
-      <c r="BI28" s="10" t="b">
+      <c r="BI28" s="10">
         <v>1</v>
       </c>
       <c r="BJ28" s="10" t="b">
         <v>1</v>
       </c>
+      <c r="BK28" s="10" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="29" spans="1:62" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B29" s="10" t="b">
         <v>0</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D29" s="10">
         <v>1</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F29" s="10" t="s">
         <v>77</v>
@@ -3192,73 +3277,73 @@
       <c r="AI29" s="10">
         <v>0.06</v>
       </c>
-      <c r="AT29" s="10">
-        <v>15</v>
-      </c>
-      <c r="AU29" s="10" t="s">
+      <c r="AU29" s="10">
+        <v>15</v>
+      </c>
+      <c r="AV29" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="AV29" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="AW29" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AX29" s="10" t="s">
+      <c r="AW29" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AX29" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AY29" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="AY29" s="10">
+      <c r="AZ29" s="10">
         <v>5</v>
       </c>
-      <c r="AZ29" s="10">
+      <c r="BA29" s="10">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="BA29" s="10">
+      <c r="BB29" s="10">
         <v>0.12</v>
       </c>
-      <c r="BB29" s="10">
+      <c r="BC29" s="10">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="BC29" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BD29" s="10" t="s">
+      <c r="BD29" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BE29" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="BE29" s="10">
-        <v>0.02</v>
-      </c>
       <c r="BF29" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="BG29" s="10" t="s">
+        <v>0.02</v>
+      </c>
+      <c r="BG29" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="BH29" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="BH29" s="10">
-        <v>1</v>
-      </c>
-      <c r="BI29" s="10" t="b">
+      <c r="BI29" s="10">
         <v>1</v>
       </c>
       <c r="BJ29" s="10" t="b">
         <v>1</v>
       </c>
+      <c r="BK29" s="10" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="30" spans="1:62" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B30" s="10" t="b">
         <v>0</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D30" s="10">
         <v>1</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F30" s="10" t="s">
         <v>77</v>
@@ -3311,73 +3396,73 @@
       <c r="AI30" s="10">
         <v>0.06</v>
       </c>
-      <c r="AT30" s="10">
-        <v>15</v>
-      </c>
-      <c r="AU30" s="10" t="s">
+      <c r="AU30" s="10">
+        <v>15</v>
+      </c>
+      <c r="AV30" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="AV30" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="AW30" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AX30" s="10" t="s">
+      <c r="AW30" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AX30" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AY30" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="AY30" s="10">
+      <c r="AZ30" s="10">
         <v>5</v>
       </c>
-      <c r="AZ30" s="10">
+      <c r="BA30" s="10">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="BA30" s="10">
+      <c r="BB30" s="10">
         <v>0.12</v>
       </c>
-      <c r="BB30" s="10">
+      <c r="BC30" s="10">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="BC30" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BD30" s="10" t="s">
+      <c r="BD30" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BE30" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="BE30" s="10">
-        <v>0.02</v>
-      </c>
       <c r="BF30" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="BG30" s="10" t="s">
+        <v>0.02</v>
+      </c>
+      <c r="BG30" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="BH30" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="BH30" s="10">
-        <v>1</v>
-      </c>
-      <c r="BI30" s="10" t="b">
+      <c r="BI30" s="10">
         <v>1</v>
       </c>
       <c r="BJ30" s="10" t="b">
         <v>1</v>
       </c>
+      <c r="BK30" s="10" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="31" spans="1:62" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B31" s="10" t="b">
         <v>0</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D31" s="10">
         <v>1</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F31" s="10" t="s">
         <v>77</v>
@@ -3427,76 +3512,70 @@
       <c r="AE31" s="10">
         <v>1</v>
       </c>
-      <c r="AF31" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AG31" s="10">
-        <v>0.5</v>
-      </c>
       <c r="AI31" s="10">
         <v>0.06</v>
       </c>
-      <c r="AT31" s="10">
-        <v>15</v>
-      </c>
-      <c r="AU31" s="10" t="s">
+      <c r="AU31" s="10">
+        <v>15</v>
+      </c>
+      <c r="AV31" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="AV31" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="AW31" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AX31" s="10" t="s">
+      <c r="AW31" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AX31" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AY31" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="AY31" s="10">
+      <c r="AZ31" s="10">
         <v>5</v>
       </c>
-      <c r="AZ31" s="10">
+      <c r="BA31" s="10">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="BA31" s="10">
+      <c r="BB31" s="10">
         <v>0.12</v>
       </c>
-      <c r="BB31" s="10">
+      <c r="BC31" s="10">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="BC31" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BD31" s="10" t="s">
+      <c r="BD31" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BE31" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="BE31" s="10">
-        <v>0.02</v>
-      </c>
       <c r="BF31" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="BG31" s="10" t="s">
+        <v>0.02</v>
+      </c>
+      <c r="BG31" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="BH31" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="BH31" s="10">
-        <v>1</v>
-      </c>
-      <c r="BI31" s="10" t="b">
+      <c r="BI31" s="10">
         <v>1</v>
       </c>
       <c r="BJ31" s="10" t="b">
         <v>1</v>
       </c>
+      <c r="BK31" s="10" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="32" spans="1:62" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B32" s="10" t="b">
         <v>0</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D32" s="10">
         <v>1</v>
@@ -3550,7 +3629,7 @@
         <v>1</v>
       </c>
       <c r="AE32" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF32" s="10">
         <v>0.5</v>
@@ -3561,67 +3640,67 @@
       <c r="AI32" s="10">
         <v>0.06</v>
       </c>
-      <c r="AT32" s="10">
-        <v>15</v>
-      </c>
-      <c r="AU32" s="10" t="s">
+      <c r="AU32" s="10">
+        <v>15</v>
+      </c>
+      <c r="AV32" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="AV32" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="AW32" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AX32" s="10" t="s">
+      <c r="AW32" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AX32" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AY32" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="AY32" s="10">
+      <c r="AZ32" s="10">
         <v>5</v>
       </c>
-      <c r="AZ32" s="10">
+      <c r="BA32" s="10">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="BA32" s="10">
+      <c r="BB32" s="10">
         <v>0.12</v>
       </c>
-      <c r="BB32" s="10">
+      <c r="BC32" s="10">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="BC32" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BD32" s="10" t="s">
+      <c r="BD32" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BE32" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="BE32" s="10">
-        <v>0.02</v>
-      </c>
       <c r="BF32" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="BG32" s="10" t="s">
+        <v>0.02</v>
+      </c>
+      <c r="BG32" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="BH32" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="BH32" s="10">
-        <v>1</v>
-      </c>
-      <c r="BI32" s="10" t="b">
+      <c r="BI32" s="10">
         <v>1</v>
       </c>
       <c r="BJ32" s="10" t="b">
         <v>1</v>
       </c>
+      <c r="BK32" s="10" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="33" spans="1:62" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="B33" s="10" t="b">
         <v>0</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D33" s="10">
         <v>1</v>
@@ -3675,7 +3754,7 @@
         <v>1</v>
       </c>
       <c r="AE33" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF33" s="10">
         <v>0.5</v>
@@ -3686,67 +3765,67 @@
       <c r="AI33" s="10">
         <v>0.06</v>
       </c>
-      <c r="AT33" s="10">
-        <v>15</v>
-      </c>
-      <c r="AU33" s="10" t="s">
+      <c r="AU33" s="10">
+        <v>15</v>
+      </c>
+      <c r="AV33" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="AV33" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="AW33" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AX33" s="10" t="s">
+      <c r="AW33" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AX33" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AY33" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="AY33" s="10">
+      <c r="AZ33" s="10">
         <v>5</v>
       </c>
-      <c r="AZ33" s="10">
+      <c r="BA33" s="10">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="BA33" s="10">
+      <c r="BB33" s="10">
         <v>0.12</v>
       </c>
-      <c r="BB33" s="10">
+      <c r="BC33" s="10">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="BC33" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BD33" s="10" t="s">
+      <c r="BD33" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BE33" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="BE33" s="10">
-        <v>0.02</v>
-      </c>
       <c r="BF33" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="BG33" s="10" t="s">
+        <v>0.02</v>
+      </c>
+      <c r="BG33" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="BH33" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="BH33" s="10">
-        <v>1</v>
-      </c>
-      <c r="BI33" s="10" t="b">
+      <c r="BI33" s="10">
         <v>1</v>
       </c>
       <c r="BJ33" s="10" t="b">
         <v>1</v>
       </c>
+      <c r="BK33" s="10" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="34" spans="1:62" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B34" s="10" t="b">
         <v>0</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D34" s="10">
         <v>1</v>
@@ -3800,7 +3879,7 @@
         <v>1</v>
       </c>
       <c r="AE34" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF34" s="10">
         <v>0.5</v>
@@ -3811,319 +3890,325 @@
       <c r="AI34" s="10">
         <v>0.06</v>
       </c>
-      <c r="AT34" s="10">
-        <v>15</v>
-      </c>
-      <c r="AU34" s="10" t="s">
+      <c r="AU34" s="10">
+        <v>15</v>
+      </c>
+      <c r="AV34" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="AV34" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="AW34" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AX34" s="10" t="s">
+      <c r="AW34" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AX34" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AY34" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="AY34" s="10">
+      <c r="AZ34" s="10">
         <v>5</v>
       </c>
-      <c r="AZ34" s="10">
+      <c r="BA34" s="10">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="BA34" s="10">
+      <c r="BB34" s="10">
         <v>0.12</v>
       </c>
-      <c r="BB34" s="10">
+      <c r="BC34" s="10">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="BC34" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BD34" s="10" t="s">
+      <c r="BD34" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BE34" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="BE34" s="10">
-        <v>0.02</v>
-      </c>
       <c r="BF34" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="BG34" s="10" t="s">
+        <v>0.02</v>
+      </c>
+      <c r="BG34" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="BH34" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="BH34" s="10">
-        <v>1</v>
-      </c>
-      <c r="BI34" s="10" t="b">
+      <c r="BI34" s="10">
         <v>1</v>
       </c>
       <c r="BJ34" s="10" t="b">
         <v>1</v>
       </c>
+      <c r="BK34" s="10" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="35" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="BE35" s="10"/>
-      <c r="BF35" s="10"/>
+    <row r="35" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B35" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D35" s="10">
+        <v>1</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="G35" s="10">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="R35" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="S35" s="10">
+        <v>0</v>
+      </c>
+      <c r="T35" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="U35" s="10">
+        <v>0</v>
+      </c>
+      <c r="V35" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="W35" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="X35" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="Z35" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="AA35" s="10">
+        <v>1E-3</v>
+      </c>
+      <c r="AB35" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AC35" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD35" s="10">
+        <v>1</v>
+      </c>
+      <c r="AE35" s="10">
+        <v>2</v>
+      </c>
+      <c r="AF35" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AG35" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AI35" s="10">
+        <v>0.06</v>
+      </c>
+      <c r="AU35" s="10">
+        <v>15</v>
+      </c>
+      <c r="AV35" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="AW35" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AX35" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AY35" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="AZ35" s="10">
+        <v>5</v>
+      </c>
+      <c r="BA35" s="10">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="BB35" s="10">
+        <v>0.12</v>
+      </c>
+      <c r="BC35" s="10">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="BD35" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BE35" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="BF35" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BG35" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="BH35" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="BI35" s="10">
+        <v>1</v>
+      </c>
+      <c r="BJ35" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="BK35" s="10" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="36" spans="1:62" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="10" t="s">
+    <row r="36" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="BF36" s="10"/>
+      <c r="BG36" s="10"/>
+    </row>
+    <row r="37" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="B36" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="C36" s="10" t="s">
+      <c r="B37" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="C37" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="D36" s="10">
-        <v>1</v>
-      </c>
-      <c r="E36" s="10" t="s">
+      <c r="D37" s="10">
+        <v>1</v>
+      </c>
+      <c r="E37" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="F36" s="10" t="s">
+      <c r="F37" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="G36" s="10">
+      <c r="G37" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="R36" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="S36" s="10">
-        <v>0</v>
-      </c>
-      <c r="T36" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="U36" s="10">
-        <v>0</v>
-      </c>
-      <c r="V36" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="W36" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="X36" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y36" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="Z36" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="AA36" s="10">
+      <c r="R37" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="S37" s="10">
+        <v>0</v>
+      </c>
+      <c r="T37" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="U37" s="10">
+        <v>0</v>
+      </c>
+      <c r="V37" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="W37" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="X37" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y37" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="Z37" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="AA37" s="10">
         <v>1E-3</v>
       </c>
-      <c r="AB36" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AC36" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD36" s="10">
-        <v>1</v>
-      </c>
-      <c r="AE36" s="10">
-        <v>1</v>
-      </c>
-      <c r="AH36" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AI36" s="10">
+      <c r="AB37" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AC37" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD37" s="10">
+        <v>1</v>
+      </c>
+      <c r="AE37" s="10">
+        <v>1</v>
+      </c>
+      <c r="AH37" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AI37" s="10">
         <v>0.06</v>
       </c>
-      <c r="AT36" s="10">
-        <v>15</v>
-      </c>
-      <c r="AU36" s="10" t="s">
+      <c r="AU37" s="10">
+        <v>15</v>
+      </c>
+      <c r="AV37" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="AV36" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="AW36" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AX36" s="10" t="s">
+      <c r="AW37" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AX37" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AY37" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="AY36" s="10">
+      <c r="AZ37" s="10">
         <v>5</v>
       </c>
-      <c r="AZ36" s="10">
+      <c r="BA37" s="10">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="BA36" s="10">
+      <c r="BB37" s="10">
         <v>0.12</v>
       </c>
-      <c r="BB36" s="10">
+      <c r="BC37" s="10">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="BC36" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BD36" s="10" t="s">
+      <c r="BD37" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BE37" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="BE36" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BF36" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="BG36" s="10" t="s">
+      <c r="BF37" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BG37" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="BH37" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="BH36" s="10">
-        <v>1</v>
-      </c>
-      <c r="BI36" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="BJ36" s="10" t="b">
+      <c r="BI37" s="10">
+        <v>1</v>
+      </c>
+      <c r="BJ37" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="BK37" s="10" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:62" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="38" spans="1:62" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="10" t="s">
+    <row r="38" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="B38" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="C38" s="10" t="s">
+      <c r="B39" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="C39" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="D38" s="10">
-        <v>1</v>
-      </c>
-      <c r="E38" s="10" t="s">
+      <c r="D39" s="10">
+        <v>1</v>
+      </c>
+      <c r="E39" s="10" t="s">
         <v>91</v>
-      </c>
-      <c r="F38" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="G38" s="10">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="R38" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="S38" s="10">
-        <v>0</v>
-      </c>
-      <c r="T38" s="10">
-        <v>0.04</v>
-      </c>
-      <c r="U38" s="10">
-        <v>0</v>
-      </c>
-      <c r="V38" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="W38" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="X38" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y38" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="Z38" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="AA38" s="10">
-        <v>1E-3</v>
-      </c>
-      <c r="AB38" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AC38" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD38" s="10">
-        <v>1</v>
-      </c>
-      <c r="AE38" s="10">
-        <v>1</v>
-      </c>
-      <c r="AI38" s="10">
-        <v>0.06</v>
-      </c>
-      <c r="AT38" s="10">
-        <v>15</v>
-      </c>
-      <c r="AU38" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="AV38" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="AW38" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AX38" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="AY38" s="10">
-        <v>5</v>
-      </c>
-      <c r="AZ38" s="10">
-        <v>8.2199999999999995E-2</v>
-      </c>
-      <c r="BA38" s="10">
-        <v>0.12</v>
-      </c>
-      <c r="BB38" s="10">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="BC38" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BD38" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="BE38" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BF38" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="BG38" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="BH38" s="10">
-        <v>1</v>
-      </c>
-      <c r="BI38" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="BJ38" s="10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:62" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="B39" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="D39" s="10">
-        <v>1</v>
-      </c>
-      <c r="E39" s="10" t="s">
-        <v>53</v>
       </c>
       <c r="F39" s="10" t="s">
         <v>77</v>
@@ -4176,189 +4261,192 @@
       <c r="AI39" s="10">
         <v>0.06</v>
       </c>
-      <c r="AT39" s="10">
-        <v>15</v>
-      </c>
-      <c r="AU39" s="10" t="s">
+      <c r="AU39" s="10">
+        <v>15</v>
+      </c>
+      <c r="AV39" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="AV39" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="AW39" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AX39" s="10" t="s">
+      <c r="AW39" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AX39" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AY39" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="AY39" s="10">
+      <c r="AZ39" s="10">
         <v>5</v>
       </c>
-      <c r="AZ39" s="10">
+      <c r="BA39" s="10">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="BA39" s="10">
+      <c r="BB39" s="10">
         <v>0.12</v>
       </c>
-      <c r="BB39" s="10">
+      <c r="BC39" s="10">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="BC39" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BD39" s="10" t="s">
+      <c r="BD39" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BE39" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="BE39" s="10">
-        <v>0.02</v>
-      </c>
       <c r="BF39" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="BG39" s="10" t="s">
+        <v>0.02</v>
+      </c>
+      <c r="BG39" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="BH39" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="BH39" s="10">
-        <v>1</v>
-      </c>
-      <c r="BI39" s="10" t="b">
+      <c r="BI39" s="10">
         <v>1</v>
       </c>
       <c r="BJ39" s="10" t="b">
         <v>1</v>
       </c>
+      <c r="BK39" s="10" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="41" spans="1:62" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="10" t="s">
+    <row r="40" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B40" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D40" s="10">
+        <v>1</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F40" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="G40" s="10">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="R40" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="S40" s="10">
+        <v>0</v>
+      </c>
+      <c r="T40" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="U40" s="10">
+        <v>0</v>
+      </c>
+      <c r="V40" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="W40" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="X40" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y40" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="Z40" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="AA40" s="10">
+        <v>1E-3</v>
+      </c>
+      <c r="AB40" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AC40" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD40" s="10">
+        <v>1</v>
+      </c>
+      <c r="AE40" s="10">
+        <v>1</v>
+      </c>
+      <c r="AI40" s="10">
+        <v>0.06</v>
+      </c>
+      <c r="AU40" s="10">
+        <v>15</v>
+      </c>
+      <c r="AV40" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="AW40" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AX40" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AY40" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="AZ40" s="10">
+        <v>5</v>
+      </c>
+      <c r="BA40" s="10">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="BB40" s="10">
+        <v>0.12</v>
+      </c>
+      <c r="BC40" s="10">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="BD40" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BE40" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="BF40" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BG40" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="BH40" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="BI40" s="10">
+        <v>1</v>
+      </c>
+      <c r="BJ40" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="BK40" s="10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="B41" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="C41" s="10" t="s">
+      <c r="B42" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="C42" s="10" t="s">
         <v>51</v>
-      </c>
-      <c r="D41" s="10">
-        <v>2</v>
-      </c>
-      <c r="E41" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="G41" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="R41" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="S41" s="10">
-        <v>0</v>
-      </c>
-      <c r="T41" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="U41" s="10">
-        <v>0</v>
-      </c>
-      <c r="V41" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="W41" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="X41" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y41" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="Z41" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="AA41" s="10">
-        <v>1E-3</v>
-      </c>
-      <c r="AB41" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AC41" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD41" s="10">
-        <v>1</v>
-      </c>
-      <c r="AE41" s="10">
-        <v>1</v>
-      </c>
-      <c r="AI41" s="10">
-        <v>0.06</v>
-      </c>
-      <c r="AT41" s="10">
-        <v>15</v>
-      </c>
-      <c r="AU41" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="AV41" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="AW41" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AX41" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="AY41" s="10">
-        <v>5</v>
-      </c>
-      <c r="AZ41" s="11">
-        <v>6.7199999999999996E-2</v>
-      </c>
-      <c r="BA41" s="10">
-        <v>0.12</v>
-      </c>
-      <c r="BB41" s="10">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="BC41" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BD41" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="BE41" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BF41" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="BG41" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="BH41" s="10">
-        <v>1</v>
-      </c>
-      <c r="BI41" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="BJ41" s="10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:62" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="B42" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>56</v>
       </c>
       <c r="D42" s="10">
         <v>2</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G42" s="10">
         <v>0.02</v>
@@ -4408,73 +4496,73 @@
       <c r="AI42" s="10">
         <v>0.06</v>
       </c>
-      <c r="AT42" s="10">
-        <v>15</v>
-      </c>
-      <c r="AU42" s="10" t="s">
+      <c r="AU42" s="10">
+        <v>15</v>
+      </c>
+      <c r="AV42" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="AV42" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="AW42" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AX42" s="10" t="s">
+      <c r="AW42" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AX42" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AY42" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="AY42" s="10">
+      <c r="AZ42" s="10">
         <v>5</v>
       </c>
-      <c r="AZ42" s="11">
+      <c r="BA42" s="11">
         <v>6.7199999999999996E-2</v>
       </c>
-      <c r="BA42" s="10">
+      <c r="BB42" s="10">
         <v>0.12</v>
       </c>
-      <c r="BB42" s="10">
+      <c r="BC42" s="10">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="BC42" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BD42" s="10" t="s">
+      <c r="BD42" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BE42" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="BE42" s="10">
-        <v>0.02</v>
-      </c>
       <c r="BF42" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="BG42" s="10" t="s">
+        <v>0.02</v>
+      </c>
+      <c r="BG42" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="BH42" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="BH42" s="10">
-        <v>1</v>
-      </c>
-      <c r="BI42" s="10" t="b">
+      <c r="BI42" s="10">
         <v>1</v>
       </c>
       <c r="BJ42" s="10" t="b">
         <v>1</v>
       </c>
+      <c r="BK42" s="10" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="43" spans="1:62" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B43" s="10" t="b">
         <v>0</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D43" s="10">
         <v>2</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G43" s="10">
         <v>0.02</v>
@@ -4524,73 +4612,73 @@
       <c r="AI43" s="10">
         <v>0.06</v>
       </c>
-      <c r="AT43" s="10">
-        <v>15</v>
-      </c>
-      <c r="AU43" s="10" t="s">
+      <c r="AU43" s="10">
+        <v>15</v>
+      </c>
+      <c r="AV43" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="AV43" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="AW43" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AX43" s="10" t="s">
+      <c r="AW43" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AX43" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AY43" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="AY43" s="10">
+      <c r="AZ43" s="10">
         <v>5</v>
       </c>
-      <c r="AZ43" s="11">
+      <c r="BA43" s="11">
         <v>6.7199999999999996E-2</v>
       </c>
-      <c r="BA43" s="10">
+      <c r="BB43" s="10">
         <v>0.12</v>
       </c>
-      <c r="BB43" s="10">
+      <c r="BC43" s="10">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="BC43" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BD43" s="10" t="s">
+      <c r="BD43" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BE43" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="BE43" s="10">
-        <v>0.02</v>
-      </c>
       <c r="BF43" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="BG43" s="10" t="s">
+        <v>0.02</v>
+      </c>
+      <c r="BG43" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="BH43" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="BH43" s="10">
-        <v>1</v>
-      </c>
-      <c r="BI43" s="10" t="b">
+      <c r="BI43" s="10">
         <v>1</v>
       </c>
       <c r="BJ43" s="10" t="b">
         <v>1</v>
       </c>
+      <c r="BK43" s="10" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="44" spans="1:62" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B44" s="10" t="b">
         <v>0</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D44" s="10">
         <v>2</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G44" s="10">
         <v>0.02</v>
@@ -4640,73 +4728,73 @@
       <c r="AI44" s="10">
         <v>0.06</v>
       </c>
-      <c r="AT44" s="10">
-        <v>15</v>
-      </c>
-      <c r="AU44" s="10" t="s">
+      <c r="AU44" s="10">
+        <v>15</v>
+      </c>
+      <c r="AV44" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="AV44" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="AW44" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AX44" s="10" t="s">
+      <c r="AW44" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AX44" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AY44" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="AY44" s="10">
+      <c r="AZ44" s="10">
         <v>5</v>
       </c>
-      <c r="AZ44" s="11">
+      <c r="BA44" s="11">
         <v>6.7199999999999996E-2</v>
       </c>
-      <c r="BA44" s="10">
+      <c r="BB44" s="10">
         <v>0.12</v>
       </c>
-      <c r="BB44" s="10">
+      <c r="BC44" s="10">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="BC44" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BD44" s="10" t="s">
+      <c r="BD44" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BE44" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="BE44" s="10">
-        <v>0.02</v>
-      </c>
       <c r="BF44" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="BG44" s="10" t="s">
+        <v>0.02</v>
+      </c>
+      <c r="BG44" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="BH44" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="BH44" s="10">
-        <v>1</v>
-      </c>
-      <c r="BI44" s="10" t="b">
+      <c r="BI44" s="10">
         <v>1</v>
       </c>
       <c r="BJ44" s="10" t="b">
         <v>1</v>
       </c>
+      <c r="BK44" s="10" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="45" spans="1:62" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B45" s="10" t="b">
         <v>0</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D45" s="10">
         <v>2</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G45" s="10">
         <v>0.02</v>
@@ -4756,73 +4844,73 @@
       <c r="AI45" s="10">
         <v>0.06</v>
       </c>
-      <c r="AT45" s="10">
-        <v>15</v>
-      </c>
-      <c r="AU45" s="10" t="s">
+      <c r="AU45" s="10">
+        <v>15</v>
+      </c>
+      <c r="AV45" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="AV45" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="AW45" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AX45" s="10" t="s">
+      <c r="AW45" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AX45" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AY45" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="AY45" s="10">
+      <c r="AZ45" s="10">
         <v>5</v>
       </c>
-      <c r="AZ45" s="11">
+      <c r="BA45" s="11">
         <v>6.7199999999999996E-2</v>
       </c>
-      <c r="BA45" s="10">
+      <c r="BB45" s="10">
         <v>0.12</v>
       </c>
-      <c r="BB45" s="10">
+      <c r="BC45" s="10">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="BC45" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BD45" s="10" t="s">
+      <c r="BD45" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BE45" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="BE45" s="10">
-        <v>0.02</v>
-      </c>
       <c r="BF45" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="BG45" s="10" t="s">
+        <v>0.02</v>
+      </c>
+      <c r="BG45" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="BH45" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="BH45" s="10">
-        <v>1</v>
-      </c>
-      <c r="BI45" s="10" t="b">
+      <c r="BI45" s="10">
         <v>1</v>
       </c>
       <c r="BJ45" s="10" t="b">
         <v>1</v>
       </c>
+      <c r="BK45" s="10" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="46" spans="1:62" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B46" s="10" t="b">
         <v>0</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D46" s="10">
         <v>2</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G46" s="10">
         <v>0.02</v>
@@ -4872,67 +4960,67 @@
       <c r="AI46" s="10">
         <v>0.06</v>
       </c>
-      <c r="AT46" s="10">
-        <v>15</v>
-      </c>
-      <c r="AU46" s="10" t="s">
+      <c r="AU46" s="10">
+        <v>15</v>
+      </c>
+      <c r="AV46" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="AV46" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="AW46" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AX46" s="10" t="s">
+      <c r="AW46" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AX46" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AY46" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="AY46" s="10">
+      <c r="AZ46" s="10">
         <v>5</v>
       </c>
-      <c r="AZ46" s="11">
+      <c r="BA46" s="11">
         <v>6.7199999999999996E-2</v>
       </c>
-      <c r="BA46" s="10">
+      <c r="BB46" s="10">
         <v>0.12</v>
       </c>
-      <c r="BB46" s="10">
+      <c r="BC46" s="10">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="BC46" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BD46" s="10" t="s">
+      <c r="BD46" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BE46" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="BE46" s="10">
-        <v>0.02</v>
-      </c>
       <c r="BF46" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="BG46" s="10" t="s">
+        <v>0.02</v>
+      </c>
+      <c r="BG46" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="BH46" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="BH46" s="10">
-        <v>1</v>
-      </c>
-      <c r="BI46" s="10" t="b">
+      <c r="BI46" s="10">
         <v>1</v>
       </c>
       <c r="BJ46" s="10" t="b">
         <v>1</v>
       </c>
+      <c r="BK46" s="10" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="47" spans="1:62" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B47" s="10" t="b">
         <v>0</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D47" s="10">
         <v>2</v>
@@ -4983,69 +5071,185 @@
         <v>1</v>
       </c>
       <c r="AE47" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI47" s="10">
         <v>0.06</v>
       </c>
-      <c r="AT47" s="10">
-        <v>15</v>
-      </c>
-      <c r="AU47" s="10" t="s">
+      <c r="AU47" s="10">
+        <v>15</v>
+      </c>
+      <c r="AV47" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="AV47" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="AW47" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AX47" s="10" t="s">
+      <c r="AW47" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AX47" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AY47" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="AY47" s="10">
+      <c r="AZ47" s="10">
         <v>5</v>
       </c>
-      <c r="AZ47" s="11">
+      <c r="BA47" s="11">
         <v>6.7199999999999996E-2</v>
       </c>
-      <c r="BA47" s="10">
+      <c r="BB47" s="10">
         <v>0.12</v>
       </c>
-      <c r="BB47" s="10">
+      <c r="BC47" s="10">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="BC47" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BD47" s="10" t="s">
+      <c r="BD47" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BE47" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="BE47" s="10">
-        <v>0.02</v>
-      </c>
       <c r="BF47" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="BG47" s="10" t="s">
+        <v>0.02</v>
+      </c>
+      <c r="BG47" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="BH47" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="BH47" s="10">
-        <v>1</v>
-      </c>
-      <c r="BI47" s="10" t="b">
+      <c r="BI47" s="10">
         <v>1</v>
       </c>
       <c r="BJ47" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="BK47" s="10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B48" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D48" s="10">
+        <v>2</v>
+      </c>
+      <c r="E48" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G48" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="R48" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="S48" s="10">
+        <v>0</v>
+      </c>
+      <c r="T48" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="U48" s="10">
+        <v>0</v>
+      </c>
+      <c r="V48" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="W48" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="X48" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y48" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="Z48" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="AA48" s="10">
+        <v>1E-3</v>
+      </c>
+      <c r="AB48" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AC48" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD48" s="10">
+        <v>1</v>
+      </c>
+      <c r="AE48" s="10">
+        <v>2</v>
+      </c>
+      <c r="AI48" s="10">
+        <v>0.06</v>
+      </c>
+      <c r="AU48" s="10">
+        <v>15</v>
+      </c>
+      <c r="AV48" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="AW48" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AX48" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AY48" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="AZ48" s="10">
+        <v>5</v>
+      </c>
+      <c r="BA48" s="11">
+        <v>6.7199999999999996E-2</v>
+      </c>
+      <c r="BB48" s="10">
+        <v>0.12</v>
+      </c>
+      <c r="BC48" s="10">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="BD48" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BE48" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="BF48" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BG48" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="BH48" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="BI48" s="10">
+        <v>1</v>
+      </c>
+      <c r="BJ48" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="BK48" s="10" t="b">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B41:B47 B36:B39 B3:B34" xr:uid="{05E01AB2-72EC-4550-ACB8-4E83765DE296}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B42:B48 B37:B40 B3:B35" xr:uid="{05E01AB2-72EC-4550-ACB8-4E83765DE296}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H5 H7:H10 H12:H15 H19:H21" xr:uid="{8DBFC5CB-438A-4309-B948-24597CAE3D7F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H5 H20:H22 H13:H16 H7:H11" xr:uid="{8DBFC5CB-438A-4309-B948-24597CAE3D7F}">
       <formula1>"preSet, ALpct,MApct"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5056,9 +5260,9 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E8781C77-985B-453E-9C85-3A03C690C92B}">
           <x14:formula1>
-            <xm:f>Policies!$B$3:$B$8</xm:f>
+            <xm:f>Policies!$B$3:$B$9</xm:f>
           </x14:formula1>
-          <xm:sqref>F3:F5 F7:F10 F12:F15 F18:F20</xm:sqref>
+          <xm:sqref>F3:F21</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -5070,11 +5274,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC498317-3D78-4815-AFC0-F5D6A2FF4B8F}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="14.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
@@ -5129,10 +5336,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8A32A7C-02DA-49C9-AA1C-929580F46C18}">
-  <dimension ref="A2:B8"/>
+  <dimension ref="A2:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5167,33 +5374,41 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>107</v>
+        <v>145</v>
       </c>
       <c r="B5" t="s">
-        <v>114</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>110</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>117</v>
       </c>
     </row>

--- a/RunControl.xlsx
+++ b/RunControl.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F95F2D3-FB04-4096-A4FE-8F578A46AF4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB9C0DBC-550A-4BE6-B6B2-4D2D5D8AD151}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="paramlist" sheetId="1" r:id="rId1"/>
@@ -856,11 +856,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BK48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="6" ySplit="2" topLeftCell="AG3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C26" sqref="C26"/>
+      <selection pane="bottomRight" activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1326,7 +1326,7 @@
         <v>140</v>
       </c>
       <c r="B5" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>140</v>
@@ -1482,7 +1482,7 @@
         <v>127</v>
       </c>
       <c r="B7" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>137</v>
@@ -1637,7 +1637,7 @@
         <v>143</v>
       </c>
       <c r="B8" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>137</v>
@@ -1792,7 +1792,7 @@
         <v>130</v>
       </c>
       <c r="B9" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>137</v>
@@ -1947,7 +1947,7 @@
         <v>115</v>
       </c>
       <c r="B10" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>137</v>
@@ -2102,7 +2102,7 @@
         <v>116</v>
       </c>
       <c r="B11" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>137</v>
@@ -2258,7 +2258,7 @@
         <v>56</v>
       </c>
       <c r="B13" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>138</v>
@@ -2413,7 +2413,7 @@
         <v>57</v>
       </c>
       <c r="B14" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>138</v>
@@ -2568,7 +2568,7 @@
         <v>131</v>
       </c>
       <c r="B15" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>138</v>
@@ -2886,7 +2886,7 @@
         <v>135</v>
       </c>
       <c r="B19" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>139</v>
@@ -5274,7 +5274,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC498317-3D78-4815-AFC0-F5D6A2FF4B8F}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>

--- a/RunControl.xlsx
+++ b/RunControl.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB9C0DBC-550A-4BE6-B6B2-4D2D5D8AD151}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{523A9C40-090D-40F0-9328-FBD8856FC90F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="paramlist" sheetId="1" r:id="rId1"/>
@@ -856,11 +856,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BK48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="6" ySplit="2" topLeftCell="AG3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C24" sqref="C24"/>
+      <selection pane="bottomRight" activeCell="AG25" sqref="AG25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1326,7 +1326,7 @@
         <v>140</v>
       </c>
       <c r="B5" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>140</v>
@@ -1482,7 +1482,7 @@
         <v>127</v>
       </c>
       <c r="B7" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>137</v>
@@ -1637,7 +1637,7 @@
         <v>143</v>
       </c>
       <c r="B8" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>137</v>
@@ -1792,7 +1792,7 @@
         <v>130</v>
       </c>
       <c r="B9" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>137</v>
@@ -1947,7 +1947,7 @@
         <v>115</v>
       </c>
       <c r="B10" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>137</v>
@@ -2102,7 +2102,7 @@
         <v>116</v>
       </c>
       <c r="B11" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>137</v>
@@ -2258,7 +2258,7 @@
         <v>56</v>
       </c>
       <c r="B13" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>138</v>
@@ -2413,7 +2413,7 @@
         <v>57</v>
       </c>
       <c r="B14" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>138</v>
@@ -2568,7 +2568,7 @@
         <v>131</v>
       </c>
       <c r="B15" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>138</v>
@@ -2879,14 +2879,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="10" t="b">
+        <v>1</v>
+      </c>
+    </row>
     <row r="18" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>135</v>
       </c>
       <c r="B19" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>139</v>
@@ -5274,8 +5278,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC498317-3D78-4815-AFC0-F5D6A2FF4B8F}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5314,7 +5318,7 @@
         <v>500</v>
       </c>
       <c r="C2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2">
         <v>20</v>

--- a/RunControl.xlsx
+++ b/RunControl.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{523A9C40-090D-40F0-9328-FBD8856FC90F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5324AC17-DCED-42E8-ADEA-46F4A51B9154}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -860,7 +860,7 @@
       <pane xSplit="6" ySplit="2" topLeftCell="AG3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AG25" sqref="AG25"/>
+      <selection pane="bottomRight" activeCell="AH10" sqref="AH10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1326,7 +1326,7 @@
         <v>140</v>
       </c>
       <c r="B5" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>140</v>
@@ -2258,7 +2258,7 @@
         <v>56</v>
       </c>
       <c r="B13" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>138</v>
@@ -2413,7 +2413,7 @@
         <v>57</v>
       </c>
       <c r="B14" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>138</v>
@@ -2568,7 +2568,7 @@
         <v>131</v>
       </c>
       <c r="B15" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>138</v>
@@ -2723,7 +2723,7 @@
         <v>133</v>
       </c>
       <c r="B16" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>138</v>
@@ -2879,18 +2879,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="10" t="b">
-        <v>1</v>
-      </c>
-    </row>
+    <row r="17" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>135</v>
       </c>
       <c r="B19" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>139</v>
@@ -5279,7 +5275,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5315,10 +5311,10 @@
         <v>91</v>
       </c>
       <c r="B2">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="C2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D2">
         <v>20</v>

--- a/RunControl.xlsx
+++ b/RunControl.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5324AC17-DCED-42E8-ADEA-46F4A51B9154}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D99C9D86-7500-4425-B24C-BEB7B0ADDA1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="paramlist" sheetId="1" r:id="rId1"/>
@@ -856,11 +856,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BK48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="6" ySplit="2" topLeftCell="AG3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="6" ySplit="2" topLeftCell="AD3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AH10" sqref="AH10"/>
+      <selection pane="bottomRight" activeCell="AG15" sqref="AG15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -882,7 +882,7 @@
     <col min="28" max="30" width="14.28515625" customWidth="1"/>
     <col min="31" max="31" width="17.42578125" customWidth="1"/>
     <col min="32" max="32" width="18" customWidth="1"/>
-    <col min="33" max="33" width="14.5703125" customWidth="1"/>
+    <col min="33" max="33" width="26.28515625" customWidth="1"/>
     <col min="34" max="34" width="14.28515625" customWidth="1"/>
     <col min="35" max="35" width="18.5703125" style="10" customWidth="1"/>
     <col min="36" max="37" width="20.28515625" style="10" customWidth="1"/>
@@ -1233,7 +1233,7 @@
         <v>1</v>
       </c>
       <c r="AI3" s="10">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="AJ3" s="10">
         <v>0.5</v>
@@ -1245,10 +1245,10 @@
         <v>0.5</v>
       </c>
       <c r="AM3" s="10">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="AN3" s="10">
-        <v>0.08</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AO3" s="10">
         <v>0.04</v>
@@ -1257,10 +1257,10 @@
         <v>0.11</v>
       </c>
       <c r="AQ3" s="10">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="AR3" s="10">
-        <v>0.08</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AS3" s="10">
         <v>0.7</v>
@@ -1326,7 +1326,7 @@
         <v>140</v>
       </c>
       <c r="B5" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>140</v>
@@ -1389,7 +1389,7 @@
         <v>1</v>
       </c>
       <c r="AI5" s="10">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="AJ5" s="10">
         <v>0.5</v>
@@ -1401,10 +1401,10 @@
         <v>0.5</v>
       </c>
       <c r="AM5" s="10">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="AN5" s="10">
-        <v>0.08</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AO5" s="10">
         <v>0.04</v>
@@ -1413,10 +1413,10 @@
         <v>0.11</v>
       </c>
       <c r="AQ5" s="10">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="AR5" s="10">
-        <v>0.08</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AS5" s="10">
         <v>0.7</v>
@@ -1482,7 +1482,7 @@
         <v>127</v>
       </c>
       <c r="B7" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>137</v>
@@ -1545,7 +1545,7 @@
         <v>1</v>
       </c>
       <c r="AI7" s="10">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="AJ7" s="10">
         <v>0.5</v>
@@ -1557,10 +1557,10 @@
         <v>0.5</v>
       </c>
       <c r="AM7" s="10">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="AN7" s="10">
-        <v>0.08</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AO7" s="10">
         <v>0.04</v>
@@ -1569,10 +1569,10 @@
         <v>0.11</v>
       </c>
       <c r="AQ7" s="10">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="AR7" s="10">
-        <v>0.08</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AS7" s="10">
         <v>0.7</v>
@@ -1637,7 +1637,7 @@
         <v>143</v>
       </c>
       <c r="B8" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>137</v>
@@ -1700,22 +1700,22 @@
         <v>1</v>
       </c>
       <c r="AI8" s="10">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="AJ8" s="10">
         <v>0.5</v>
       </c>
       <c r="AK8" s="10">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="AL8" s="10">
         <v>0.5</v>
       </c>
       <c r="AM8" s="10">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="AN8" s="10">
-        <v>0.08</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AO8" s="10">
         <v>0.04</v>
@@ -1724,10 +1724,10 @@
         <v>0.11</v>
       </c>
       <c r="AQ8" s="10">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="AR8" s="10">
-        <v>0.08</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AS8" s="10">
         <v>0.7</v>
@@ -1789,10 +1789,10 @@
     </row>
     <row r="9" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="B9" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>137</v>
@@ -1804,7 +1804,7 @@
         <v>50</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G9" s="10">
         <v>1.4999999999999999E-2</v>
@@ -1855,7 +1855,7 @@
         <v>1</v>
       </c>
       <c r="AI9" s="10">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="AJ9" s="10">
         <v>0.5</v>
@@ -1867,10 +1867,10 @@
         <v>0.5</v>
       </c>
       <c r="AM9" s="10">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="AN9" s="10">
-        <v>0.08</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AO9" s="10">
         <v>0.04</v>
@@ -1879,10 +1879,10 @@
         <v>0.11</v>
       </c>
       <c r="AQ9" s="10">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="AR9" s="10">
-        <v>0.08</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AS9" s="10">
         <v>0.7</v>
@@ -1944,10 +1944,10 @@
     </row>
     <row r="10" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B10" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>137</v>
@@ -1959,7 +1959,7 @@
         <v>50</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G10" s="10">
         <v>1.4999999999999999E-2</v>
@@ -2010,7 +2010,7 @@
         <v>1</v>
       </c>
       <c r="AI10" s="10">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="AJ10" s="10">
         <v>0.5</v>
@@ -2022,10 +2022,10 @@
         <v>0.5</v>
       </c>
       <c r="AM10" s="10">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="AN10" s="10">
-        <v>0.08</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AO10" s="10">
         <v>0.04</v>
@@ -2034,10 +2034,10 @@
         <v>0.11</v>
       </c>
       <c r="AQ10" s="10">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="AR10" s="10">
-        <v>0.08</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AS10" s="10">
         <v>0.7</v>
@@ -2097,165 +2097,165 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="B11" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="D11" s="10">
-        <v>1</v>
-      </c>
-      <c r="E11" s="10" t="s">
+    <row r="11" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="D12" s="10">
+        <v>1</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="G12" s="10">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="R12" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="S12" s="10">
+        <v>0</v>
+      </c>
+      <c r="T12" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="U12" s="10">
+        <v>0</v>
+      </c>
+      <c r="V12" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="W12" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="X12" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="Z12" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="AA12" s="10">
+        <v>1E-3</v>
+      </c>
+      <c r="AB12" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AC12" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="10">
+        <v>1</v>
+      </c>
+      <c r="AE12" s="10">
+        <v>1</v>
+      </c>
+      <c r="AI12" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="AJ12" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AK12" s="10">
+        <v>0</v>
+      </c>
+      <c r="AL12" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AM12" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="AN12" s="10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AO12" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="AP12" s="10">
+        <v>0.11</v>
+      </c>
+      <c r="AQ12" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="AR12" s="10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AS12" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="AT12" s="10">
+        <v>1</v>
+      </c>
+      <c r="AU12" s="10">
+        <v>15</v>
+      </c>
+      <c r="AV12" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="AW12" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AX12" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AY12" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="AZ12" s="10">
+        <v>5</v>
+      </c>
+      <c r="BA12" s="10">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="BB12" s="10">
+        <v>0.12</v>
+      </c>
+      <c r="BC12" s="10">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="BD12" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BE12" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="F11" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="G11" s="10">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="R11" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="S11" s="10">
-        <v>0</v>
-      </c>
-      <c r="T11" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="U11" s="10">
-        <v>0</v>
-      </c>
-      <c r="V11" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="W11" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="X11" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="Z11" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="AA11" s="10">
-        <v>1E-3</v>
-      </c>
-      <c r="AB11" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AC11" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD11" s="10">
-        <v>1</v>
-      </c>
-      <c r="AE11" s="10">
-        <v>1</v>
-      </c>
-      <c r="AI11" s="10">
-        <v>0.06</v>
-      </c>
-      <c r="AJ11" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AK11" s="10">
-        <v>0</v>
-      </c>
-      <c r="AL11" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AM11" s="10">
-        <v>0.04</v>
-      </c>
-      <c r="AN11" s="10">
-        <v>0.08</v>
-      </c>
-      <c r="AO11" s="10">
-        <v>0.04</v>
-      </c>
-      <c r="AP11" s="10">
-        <v>0.11</v>
-      </c>
-      <c r="AQ11" s="10">
-        <v>0.04</v>
-      </c>
-      <c r="AR11" s="10">
-        <v>0.08</v>
-      </c>
-      <c r="AS11" s="10">
-        <v>0.7</v>
-      </c>
-      <c r="AT11" s="10">
-        <v>1</v>
-      </c>
-      <c r="AU11" s="10">
-        <v>15</v>
-      </c>
-      <c r="AV11" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="AW11" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="AX11" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AY11" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="AZ11" s="10">
-        <v>5</v>
-      </c>
-      <c r="BA11" s="10">
-        <v>8.2199999999999995E-2</v>
-      </c>
-      <c r="BB11" s="10">
-        <v>0.12</v>
-      </c>
-      <c r="BC11" s="10">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="BD11" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BE11" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="BF11" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BG11" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="BH11" s="10" t="s">
+      <c r="BF12" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BG12" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="BH12" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="BI11" s="10">
+      <c r="BI12" s="10">
         <v>0.75</v>
       </c>
-      <c r="BJ11" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="BK11" s="10" t="b">
+      <c r="BJ12" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="BK12" s="10" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:63" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B13" s="10" t="b">
         <v>0</v>
@@ -2267,7 +2267,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>77</v>
@@ -2321,7 +2321,7 @@
         <v>1</v>
       </c>
       <c r="AI13" s="10">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="AJ13" s="10">
         <v>0.5</v>
@@ -2333,10 +2333,10 @@
         <v>0.5</v>
       </c>
       <c r="AM13" s="10">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="AN13" s="10">
-        <v>0.08</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AO13" s="10">
         <v>0.04</v>
@@ -2345,10 +2345,10 @@
         <v>0.11</v>
       </c>
       <c r="AQ13" s="10">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="AR13" s="10">
-        <v>0.08</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AS13" s="10">
         <v>0.7</v>
@@ -2408,9 +2408,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:63" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>57</v>
+        <v>131</v>
       </c>
       <c r="B14" s="10" t="b">
         <v>0</v>
@@ -2422,7 +2422,7 @@
         <v>1</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>77</v>
@@ -2476,7 +2476,7 @@
         <v>1</v>
       </c>
       <c r="AI14" s="10">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="AJ14" s="10">
         <v>0.5</v>
@@ -2488,10 +2488,10 @@
         <v>0.5</v>
       </c>
       <c r="AM14" s="10">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="AN14" s="10">
-        <v>0.08</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AO14" s="10">
         <v>0.04</v>
@@ -2500,10 +2500,10 @@
         <v>0.11</v>
       </c>
       <c r="AQ14" s="10">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="AR14" s="10">
-        <v>0.08</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AS14" s="10">
         <v>0.7</v>
@@ -2565,7 +2565,7 @@
     </row>
     <row r="15" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B15" s="10" t="b">
         <v>0</v>
@@ -2577,7 +2577,7 @@
         <v>1</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F15" s="10" t="s">
         <v>77</v>
@@ -2628,10 +2628,16 @@
         <v>1</v>
       </c>
       <c r="AE15" s="10">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="AF15" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AG15" s="10">
+        <v>0.5</v>
       </c>
       <c r="AI15" s="10">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="AJ15" s="10">
         <v>0.5</v>
@@ -2643,10 +2649,10 @@
         <v>0.5</v>
       </c>
       <c r="AM15" s="10">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="AN15" s="10">
-        <v>0.08</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AO15" s="10">
         <v>0.04</v>
@@ -2655,10 +2661,10 @@
         <v>0.11</v>
       </c>
       <c r="AQ15" s="10">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="AR15" s="10">
-        <v>0.08</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AS15" s="10">
         <v>0.7</v>
@@ -2718,321 +2724,160 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="B16" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="D16" s="10">
-        <v>1</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="F16" s="10" t="s">
+    <row r="16" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="B17" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="D17" s="10">
+        <v>1</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F17" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="G16" s="10">
+      <c r="G17" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="H16" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="R16" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="S16" s="10">
-        <v>0</v>
-      </c>
-      <c r="T16" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="U16" s="10">
-        <v>0</v>
-      </c>
-      <c r="V16" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="W16" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="X16" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y16" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="Z16" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="AA16" s="10">
+      <c r="R17" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="S17" s="10">
+        <v>0</v>
+      </c>
+      <c r="T17" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="U17" s="10">
+        <v>0</v>
+      </c>
+      <c r="V17" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="W17" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="X17" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="Z17" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="AA17" s="10">
         <v>1E-3</v>
       </c>
-      <c r="AB16" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AC16" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD16" s="10">
-        <v>1</v>
-      </c>
-      <c r="AE16" s="10">
-        <v>2</v>
-      </c>
-      <c r="AF16" s="10">
+      <c r="AB17" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AC17" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="10">
+        <v>1</v>
+      </c>
+      <c r="AE17" s="10">
+        <v>1</v>
+      </c>
+      <c r="AI17" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="AJ17" s="10">
         <v>0.5</v>
       </c>
-      <c r="AG16" s="10">
+      <c r="AK17" s="10">
+        <v>0</v>
+      </c>
+      <c r="AL17" s="10">
         <v>0.5</v>
       </c>
-      <c r="AI16" s="10">
-        <v>0.06</v>
-      </c>
-      <c r="AJ16" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AK16" s="10">
-        <v>0</v>
-      </c>
-      <c r="AL16" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AM16" s="10">
+      <c r="AM17" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="AN17" s="10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AO17" s="10">
         <v>0.04</v>
       </c>
-      <c r="AN16" s="10">
-        <v>0.08</v>
-      </c>
-      <c r="AO16" s="10">
-        <v>0.04</v>
-      </c>
-      <c r="AP16" s="10">
+      <c r="AP17" s="10">
         <v>0.11</v>
       </c>
-      <c r="AQ16" s="10">
-        <v>0.04</v>
-      </c>
-      <c r="AR16" s="10">
-        <v>0.08</v>
-      </c>
-      <c r="AS16" s="10">
+      <c r="AQ17" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="AR17" s="10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AS17" s="10">
         <v>0.7</v>
       </c>
-      <c r="AT16" s="10">
-        <v>1</v>
-      </c>
-      <c r="AU16" s="10">
-        <v>15</v>
-      </c>
-      <c r="AV16" s="10" t="s">
+      <c r="AT17" s="10">
+        <v>1</v>
+      </c>
+      <c r="AU17" s="10">
+        <v>15</v>
+      </c>
+      <c r="AV17" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="AW16" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="AX16" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AY16" s="10" t="s">
+      <c r="AW17" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AX17" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AY17" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="AZ16" s="10">
+      <c r="AZ17" s="10">
         <v>5</v>
       </c>
-      <c r="BA16" s="10">
+      <c r="BA17" s="10">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="BB16" s="10">
+      <c r="BB17" s="10">
         <v>0.12</v>
       </c>
-      <c r="BC16" s="10">
+      <c r="BC17" s="10">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="BD16" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BE16" s="10" t="s">
+      <c r="BD17" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BE17" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="BF16" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BG16" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="BH16" s="10" t="s">
+      <c r="BF17" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BG17" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="BH17" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="BI16" s="10">
+      <c r="BI17" s="10">
         <v>0.75</v>
       </c>
-      <c r="BJ16" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="BK16" s="10" t="b">
+      <c r="BJ17" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="BK17" s="10" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="B19" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="D19" s="10">
-        <v>1</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="F19" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="G19" s="10">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="R19" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="S19" s="10">
-        <v>0</v>
-      </c>
-      <c r="T19" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="U19" s="10">
-        <v>0</v>
-      </c>
-      <c r="V19" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="W19" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="X19" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y19" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="Z19" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="AA19" s="10">
-        <v>1E-3</v>
-      </c>
-      <c r="AB19" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AC19" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD19" s="10">
-        <v>1</v>
-      </c>
-      <c r="AE19" s="10">
-        <v>1</v>
-      </c>
-      <c r="AI19" s="10">
-        <v>0.03</v>
-      </c>
-      <c r="AJ19" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AK19" s="10">
-        <v>0</v>
-      </c>
-      <c r="AL19" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AM19" s="10">
-        <v>0.04</v>
-      </c>
-      <c r="AN19" s="10">
-        <v>0.08</v>
-      </c>
-      <c r="AO19" s="10">
-        <v>0.04</v>
-      </c>
-      <c r="AP19" s="10">
-        <v>0.11</v>
-      </c>
-      <c r="AQ19" s="10">
-        <v>0.04</v>
-      </c>
-      <c r="AR19" s="10">
-        <v>0.08</v>
-      </c>
-      <c r="AS19" s="10">
-        <v>0.7</v>
-      </c>
-      <c r="AT19" s="10">
-        <v>1</v>
-      </c>
-      <c r="AU19" s="10">
-        <v>15</v>
-      </c>
-      <c r="AV19" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="AW19" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="AX19" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AY19" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="AZ19" s="10">
-        <v>5</v>
-      </c>
-      <c r="BA19" s="10">
-        <v>8.2199999999999995E-2</v>
-      </c>
-      <c r="BB19" s="10">
-        <v>0.12</v>
-      </c>
-      <c r="BC19" s="10">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="BD19" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BE19" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="BF19" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BG19" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="BH19" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="BI19" s="10">
-        <v>0.75</v>
-      </c>
-      <c r="BJ19" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="BK19" s="10" t="b">
-        <v>1</v>
-      </c>
-    </row>
     <row r="20" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>136</v>
@@ -3062,31 +2907,185 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="21" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
+    <row r="21" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="H22" s="10" t="s">
+      <c r="H21" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="I22" s="10">
-        <v>1</v>
-      </c>
-      <c r="J22" s="10">
-        <v>1</v>
-      </c>
-      <c r="K22" s="10">
-        <v>1</v>
-      </c>
-      <c r="L22" s="10">
+      <c r="I21" s="10">
+        <v>1</v>
+      </c>
+      <c r="J21" s="10">
+        <v>1</v>
+      </c>
+      <c r="K21" s="10">
+        <v>1</v>
+      </c>
+      <c r="L21" s="10">
         <v>0.06</v>
       </c>
-      <c r="M22" s="10">
+      <c r="M21" s="10">
         <v>0.06</v>
       </c>
     </row>
-    <row r="23" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="B23" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="D23" s="10">
+        <v>1</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="G23" s="10">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H23" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="R23" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="S23" s="10">
+        <v>0</v>
+      </c>
+      <c r="T23" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="U23" s="10">
+        <v>0</v>
+      </c>
+      <c r="V23" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="W23" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="X23" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="Z23" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="AA23" s="10">
+        <v>1E-3</v>
+      </c>
+      <c r="AB23" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AC23" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="10">
+        <v>1</v>
+      </c>
+      <c r="AE23" s="10">
+        <v>1</v>
+      </c>
+      <c r="AI23" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="AJ23" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AK23" s="10">
+        <v>0</v>
+      </c>
+      <c r="AL23" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AM23" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="AN23" s="10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AO23" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="AP23" s="10">
+        <v>0.11</v>
+      </c>
+      <c r="AQ23" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="AR23" s="10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AS23" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="AT23" s="10">
+        <v>1</v>
+      </c>
+      <c r="AU23" s="10">
+        <v>15</v>
+      </c>
+      <c r="AV23" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="AW23" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AX23" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AY23" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="AZ23" s="10">
+        <v>5</v>
+      </c>
+      <c r="BA23" s="10">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="BB23" s="10">
+        <v>0.12</v>
+      </c>
+      <c r="BC23" s="10">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="BD23" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BE23" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="BF23" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BG23" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="BH23" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="BI23" s="10">
+        <v>0.75</v>
+      </c>
+      <c r="BJ23" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="BK23" s="10" t="b">
+        <v>1</v>
+      </c>
+    </row>
     <row r="24" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="25" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -5246,10 +5245,10 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B42:B48 B37:B40 B3:B35" xr:uid="{05E01AB2-72EC-4550-ACB8-4E83765DE296}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B42:B48 B37:B40 B20:B35 B3:B18" xr:uid="{05E01AB2-72EC-4550-ACB8-4E83765DE296}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H5 H20:H22 H13:H16 H7:H11" xr:uid="{8DBFC5CB-438A-4309-B948-24597CAE3D7F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H5 H12:H15 H23 H7:H10 H20:H21" xr:uid="{8DBFC5CB-438A-4309-B948-24597CAE3D7F}">
       <formula1>"preSet, ALpct,MApct"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5262,7 +5261,7 @@
           <x14:formula1>
             <xm:f>Policies!$B$3:$B$9</xm:f>
           </x14:formula1>
-          <xm:sqref>F3:F21</xm:sqref>
+          <xm:sqref>F23 F20 F3:F18</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -5274,8 +5273,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC498317-3D78-4815-AFC0-F5D6A2FF4B8F}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5314,7 +5313,7 @@
         <v>2000</v>
       </c>
       <c r="C2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2">
         <v>20</v>

--- a/RunControl.xlsx
+++ b/RunControl.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D99C9D86-7500-4425-B24C-BEB7B0ADDA1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1E313AA-71E5-495D-9B65-29C718B36091}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="18240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="paramlist" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="156">
   <si>
     <t>runname</t>
   </si>
@@ -468,6 +468,36 @@
   </si>
   <si>
     <t>Shared ADCfloor</t>
+  </si>
+  <si>
+    <t>baseline_FR100</t>
+  </si>
+  <si>
+    <t>EEC_sharedADC_FR100</t>
+  </si>
+  <si>
+    <t>EEC_sharedADCfloor_FR100</t>
+  </si>
+  <si>
+    <t>EEC_return_FR100</t>
+  </si>
+  <si>
+    <t>EEC_FR_FR100</t>
+  </si>
+  <si>
+    <t>cola_return_FR100</t>
+  </si>
+  <si>
+    <t>cola_FR_FR100</t>
+  </si>
+  <si>
+    <t>cola_FRramp_FR100</t>
+  </si>
+  <si>
+    <t>cola_SDRS_FR100</t>
+  </si>
+  <si>
+    <t>hybrid_DB_FR100</t>
   </si>
 </sst>
 </file>
@@ -854,18 +884,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BK48"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:BK54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="2" topLeftCell="AD3" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="6" ySplit="2" topLeftCell="Q3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AG15" sqref="AG15"/>
+      <selection pane="bottomRight" activeCell="S25" sqref="S25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.140625" customWidth="1"/>
+    <col min="1" max="1" width="27.7109375" customWidth="1"/>
     <col min="2" max="2" width="10.140625" customWidth="1"/>
     <col min="3" max="4" width="11.7109375" customWidth="1"/>
     <col min="5" max="5" width="11.140625" customWidth="1"/>
@@ -1476,13 +1507,167 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="B6" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="D6" s="10">
+        <v>1</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="G6" s="10">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="R6" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="S6" s="10">
+        <v>0</v>
+      </c>
+      <c r="T6" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="U6" s="10">
+        <v>0</v>
+      </c>
+      <c r="V6" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="W6" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="X6" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="Z6" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="AA6" s="10">
+        <v>1E-3</v>
+      </c>
+      <c r="AB6" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AC6" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="10">
+        <v>1</v>
+      </c>
+      <c r="AE6" s="10">
+        <v>1</v>
+      </c>
+      <c r="AI6" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="AJ6" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AK6" s="10">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AM6" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="AN6" s="10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AO6" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="AP6" s="10">
+        <v>0.11</v>
+      </c>
+      <c r="AQ6" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="AR6" s="10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AS6" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="AT6" s="10">
+        <v>1</v>
+      </c>
+      <c r="AU6" s="10">
+        <v>15</v>
+      </c>
+      <c r="AV6" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="AW6" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AX6" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AY6" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="AZ6" s="10">
+        <v>5</v>
+      </c>
+      <c r="BA6" s="10">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="BB6" s="10">
+        <v>0.12</v>
+      </c>
+      <c r="BC6" s="10">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="BD6" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BE6" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="BF6" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BG6" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="BH6" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="BI6" s="10">
+        <v>0.75</v>
+      </c>
+      <c r="BJ6" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="BK6" s="10" t="b">
+        <v>1</v>
+      </c>
+    </row>
     <row r="7" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="B7" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>137</v>
@@ -1551,7 +1736,7 @@
         <v>0.5</v>
       </c>
       <c r="AK7" s="10">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="AL7" s="10">
         <v>0.5</v>
@@ -1634,10 +1819,10 @@
     </row>
     <row r="8" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>143</v>
+        <v>115</v>
       </c>
       <c r="B8" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>137</v>
@@ -1649,7 +1834,7 @@
         <v>50</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>144</v>
+        <v>115</v>
       </c>
       <c r="G8" s="10">
         <v>1.4999999999999999E-2</v>
@@ -1706,7 +1891,7 @@
         <v>0.5</v>
       </c>
       <c r="AK8" s="10">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="AL8" s="10">
         <v>0.5</v>
@@ -1789,10 +1974,10 @@
     </row>
     <row r="9" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B9" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>137</v>
@@ -1804,7 +1989,7 @@
         <v>50</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G9" s="10">
         <v>1.4999999999999999E-2</v>
@@ -1944,22 +2129,22 @@
     </row>
     <row r="10" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="B10" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D10" s="10">
         <v>1</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>116</v>
+        <v>77</v>
       </c>
       <c r="G10" s="10">
         <v>1.4999999999999999E-2</v>
@@ -2097,13 +2282,167 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:63" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="D11" s="10">
+        <v>1</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="G11" s="10">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="R11" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="S11" s="10">
+        <v>0</v>
+      </c>
+      <c r="T11" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="U11" s="10">
+        <v>0</v>
+      </c>
+      <c r="V11" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="W11" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="X11" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="Z11" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="AA11" s="10">
+        <v>1E-3</v>
+      </c>
+      <c r="AB11" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AC11" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="10">
+        <v>1</v>
+      </c>
+      <c r="AE11" s="10">
+        <v>1</v>
+      </c>
+      <c r="AI11" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="AJ11" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AK11" s="10">
+        <v>0</v>
+      </c>
+      <c r="AL11" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AM11" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="AN11" s="10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AO11" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="AP11" s="10">
+        <v>0.11</v>
+      </c>
+      <c r="AQ11" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="AR11" s="10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AS11" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="AT11" s="10">
+        <v>1</v>
+      </c>
+      <c r="AU11" s="10">
+        <v>15</v>
+      </c>
+      <c r="AV11" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="AW11" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AX11" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AY11" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="AZ11" s="10">
+        <v>5</v>
+      </c>
+      <c r="BA11" s="10">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="BB11" s="10">
+        <v>0.12</v>
+      </c>
+      <c r="BC11" s="10">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="BD11" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BE11" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="BF11" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BG11" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="BH11" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="BI11" s="10">
+        <v>0.75</v>
+      </c>
+      <c r="BJ11" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="BK11" s="10" t="b">
+        <v>1</v>
+      </c>
+    </row>
     <row r="12" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>56</v>
+        <v>131</v>
       </c>
       <c r="B12" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>138</v>
@@ -2112,7 +2451,7 @@
         <v>1</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F12" s="10" t="s">
         <v>77</v>
@@ -2253,12 +2592,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:63" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>57</v>
+        <v>133</v>
       </c>
       <c r="B13" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>138</v>
@@ -2267,7 +2606,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>77</v>
@@ -2318,7 +2657,13 @@
         <v>1</v>
       </c>
       <c r="AE13" s="10">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="AF13" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AG13" s="10">
+        <v>0.5</v>
       </c>
       <c r="AI13" s="10">
         <v>0.05</v>
@@ -2410,19 +2755,19 @@
     </row>
     <row r="14" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B14" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D14" s="10">
         <v>1</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>77</v>
@@ -2430,9 +2775,6 @@
       <c r="G14" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="H14" s="10" t="s">
-        <v>104</v>
-      </c>
       <c r="R14" s="10">
         <v>0.02</v>
       </c>
@@ -2563,177 +2905,171 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="B15" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="D15" s="10">
-        <v>1</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="F15" s="10" t="s">
+    <row r="15" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="B16" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="D16" s="10">
+        <v>1</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="G15" s="10">
+      <c r="G16" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="H15" s="10" t="s">
+      <c r="H16" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="R15" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="S15" s="10">
-        <v>0</v>
-      </c>
-      <c r="T15" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="U15" s="10">
-        <v>0</v>
-      </c>
-      <c r="V15" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="W15" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="X15" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="Z15" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="AA15" s="10">
+      <c r="R16" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="S16" s="10">
+        <v>0</v>
+      </c>
+      <c r="T16" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="U16" s="10">
+        <v>0</v>
+      </c>
+      <c r="V16" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="W16" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="X16" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="Z16" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="AA16" s="10">
         <v>1E-3</v>
       </c>
-      <c r="AB15" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AC15" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD15" s="10">
-        <v>1</v>
-      </c>
-      <c r="AE15" s="10">
-        <v>2</v>
-      </c>
-      <c r="AF15" s="10">
+      <c r="AB16" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AC16" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="10">
+        <v>1</v>
+      </c>
+      <c r="AE16" s="10">
+        <v>1</v>
+      </c>
+      <c r="AI16" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="AJ16" s="10">
         <v>0.5</v>
       </c>
-      <c r="AG15" s="10">
+      <c r="AK16" s="10">
+        <v>0</v>
+      </c>
+      <c r="AL16" s="10">
         <v>0.5</v>
       </c>
-      <c r="AI15" s="10">
-        <v>0.05</v>
-      </c>
-      <c r="AJ15" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AK15" s="10">
-        <v>0</v>
-      </c>
-      <c r="AL15" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AM15" s="10">
+      <c r="AM16" s="10">
         <v>0.03</v>
       </c>
-      <c r="AN15" s="10">
+      <c r="AN16" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AO15" s="10">
+      <c r="AO16" s="10">
         <v>0.04</v>
       </c>
-      <c r="AP15" s="10">
+      <c r="AP16" s="10">
         <v>0.11</v>
       </c>
-      <c r="AQ15" s="10">
+      <c r="AQ16" s="10">
         <v>0.03</v>
       </c>
-      <c r="AR15" s="10">
+      <c r="AR16" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AS15" s="10">
+      <c r="AS16" s="10">
         <v>0.7</v>
       </c>
-      <c r="AT15" s="10">
-        <v>1</v>
-      </c>
-      <c r="AU15" s="10">
-        <v>15</v>
-      </c>
-      <c r="AV15" s="10" t="s">
+      <c r="AT16" s="10">
+        <v>1</v>
+      </c>
+      <c r="AU16" s="10">
+        <v>15</v>
+      </c>
+      <c r="AV16" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="AW15" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="AX15" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AY15" s="10" t="s">
+      <c r="AW16" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AX16" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AY16" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="AZ15" s="10">
+      <c r="AZ16" s="10">
         <v>5</v>
       </c>
-      <c r="BA15" s="10">
+      <c r="BA16" s="10">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="BB15" s="10">
+      <c r="BB16" s="10">
         <v>0.12</v>
       </c>
-      <c r="BC15" s="10">
+      <c r="BC16" s="10">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="BD15" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BE15" s="10" t="s">
+      <c r="BD16" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BE16" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="BF15" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BG15" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="BH15" s="10" t="s">
+      <c r="BF16" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BG16" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="BH16" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="BI15" s="10">
-        <v>0.75</v>
-      </c>
-      <c r="BJ15" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="BK15" s="10" t="b">
+      <c r="BI16" s="10">
+        <v>1</v>
+      </c>
+      <c r="BJ16" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="BK16" s="10" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="17" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="B17" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D17" s="10">
         <v>1</v>
@@ -2742,11 +3078,14 @@
         <v>50</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="G17" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
+      <c r="H17" s="10" t="s">
+        <v>104</v>
+      </c>
       <c r="R17" s="10">
         <v>0.02</v>
       </c>
@@ -2868,7 +3207,7 @@
         <v>23</v>
       </c>
       <c r="BI17" s="10">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="BJ17" s="10" t="b">
         <v>1</v>
@@ -2877,78 +3216,799 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="B18" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="D18" s="10">
+        <v>1</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="G18" s="10">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="R18" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="S18" s="10">
+        <v>0</v>
+      </c>
+      <c r="T18" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="U18" s="10">
+        <v>0</v>
+      </c>
+      <c r="V18" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="W18" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="X18" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="Z18" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="AA18" s="10">
+        <v>1E-3</v>
+      </c>
+      <c r="AB18" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AC18" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="10">
+        <v>1</v>
+      </c>
+      <c r="AE18" s="10">
+        <v>1</v>
+      </c>
+      <c r="AI18" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="AJ18" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AK18" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="AL18" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AM18" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="AN18" s="10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AO18" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="AP18" s="10">
+        <v>0.11</v>
+      </c>
+      <c r="AQ18" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="AR18" s="10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AS18" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="AT18" s="10">
+        <v>1</v>
+      </c>
+      <c r="AU18" s="10">
+        <v>15</v>
+      </c>
+      <c r="AV18" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="AW18" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AX18" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AY18" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="AZ18" s="10">
+        <v>5</v>
+      </c>
+      <c r="BA18" s="10">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="BB18" s="10">
+        <v>0.12</v>
+      </c>
+      <c r="BC18" s="10">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="BD18" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BE18" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="BF18" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BG18" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="BH18" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="BI18" s="10">
+        <v>1</v>
+      </c>
+      <c r="BJ18" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="BK18" s="10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="B19" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="D19" s="10">
+        <v>1</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="G19" s="10">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="R19" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="S19" s="10">
+        <v>0</v>
+      </c>
+      <c r="T19" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="U19" s="10">
+        <v>0</v>
+      </c>
+      <c r="V19" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="W19" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="X19" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="Z19" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="AA19" s="10">
+        <v>1E-3</v>
+      </c>
+      <c r="AB19" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AC19" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD19" s="10">
+        <v>1</v>
+      </c>
+      <c r="AE19" s="10">
+        <v>1</v>
+      </c>
+      <c r="AI19" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="AJ19" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AK19" s="10">
+        <v>0</v>
+      </c>
+      <c r="AL19" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AM19" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="AN19" s="10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AO19" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="AP19" s="10">
+        <v>0.11</v>
+      </c>
+      <c r="AQ19" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="AR19" s="10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AS19" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="AT19" s="10">
+        <v>1</v>
+      </c>
+      <c r="AU19" s="10">
+        <v>15</v>
+      </c>
+      <c r="AV19" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="AW19" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AX19" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AY19" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="AZ19" s="10">
+        <v>5</v>
+      </c>
+      <c r="BA19" s="10">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="BB19" s="10">
+        <v>0.12</v>
+      </c>
+      <c r="BC19" s="10">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="BD19" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BE19" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="BF19" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BG19" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="BH19" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="BI19" s="10">
+        <v>1</v>
+      </c>
+      <c r="BJ19" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="BK19" s="10" t="b">
+        <v>1</v>
+      </c>
+    </row>
     <row r="20" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="B20" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>139</v>
+        <v>137</v>
+      </c>
+      <c r="D20" s="10">
+        <v>1</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="G20" s="10">
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="H20" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="I20" s="10">
-        <v>1</v>
-      </c>
-      <c r="J20" s="10">
-        <v>1</v>
-      </c>
-      <c r="K20" s="10">
-        <v>1</v>
-      </c>
-      <c r="L20" s="10">
+      <c r="R20" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="S20" s="10">
+        <v>0</v>
+      </c>
+      <c r="T20" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="U20" s="10">
+        <v>0</v>
+      </c>
+      <c r="V20" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="W20" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="X20" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="Z20" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="AA20" s="10">
+        <v>1E-3</v>
+      </c>
+      <c r="AB20" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AC20" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="10">
+        <v>1</v>
+      </c>
+      <c r="AE20" s="10">
+        <v>1</v>
+      </c>
+      <c r="AI20" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="AJ20" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AK20" s="10">
+        <v>0</v>
+      </c>
+      <c r="AL20" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AM20" s="10">
         <v>0.03</v>
       </c>
-      <c r="M20" s="10">
+      <c r="AN20" s="10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AO20" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="AP20" s="10">
+        <v>0.11</v>
+      </c>
+      <c r="AQ20" s="10">
         <v>0.03</v>
+      </c>
+      <c r="AR20" s="10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AS20" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="AT20" s="10">
+        <v>1</v>
+      </c>
+      <c r="AU20" s="10">
+        <v>15</v>
+      </c>
+      <c r="AV20" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="AW20" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AX20" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AY20" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="AZ20" s="10">
+        <v>5</v>
+      </c>
+      <c r="BA20" s="10">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="BB20" s="10">
+        <v>0.12</v>
+      </c>
+      <c r="BC20" s="10">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="BD20" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BE20" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="BF20" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BG20" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="BH20" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="BI20" s="10">
+        <v>1</v>
+      </c>
+      <c r="BJ20" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="BK20" s="10" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
-        <v>134</v>
+        <v>151</v>
+      </c>
+      <c r="B21" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="D21" s="10">
+        <v>1</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="G21" s="10">
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="H21" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="I21" s="10">
-        <v>1</v>
-      </c>
-      <c r="J21" s="10">
-        <v>1</v>
-      </c>
-      <c r="K21" s="10">
-        <v>1</v>
-      </c>
-      <c r="L21" s="10">
-        <v>0.06</v>
-      </c>
-      <c r="M21" s="10">
-        <v>0.06</v>
+      <c r="R21" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="S21" s="10">
+        <v>0</v>
+      </c>
+      <c r="T21" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="U21" s="10">
+        <v>0</v>
+      </c>
+      <c r="V21" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="W21" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="X21" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="Z21" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="AA21" s="10">
+        <v>1E-3</v>
+      </c>
+      <c r="AB21" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AC21" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD21" s="10">
+        <v>1</v>
+      </c>
+      <c r="AE21" s="10">
+        <v>1</v>
+      </c>
+      <c r="AI21" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="AJ21" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AK21" s="10">
+        <v>0</v>
+      </c>
+      <c r="AL21" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AM21" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="AN21" s="10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AO21" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="AP21" s="10">
+        <v>0.11</v>
+      </c>
+      <c r="AQ21" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="AR21" s="10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AS21" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="AT21" s="10">
+        <v>1</v>
+      </c>
+      <c r="AU21" s="10">
+        <v>15</v>
+      </c>
+      <c r="AV21" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="AW21" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AX21" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AY21" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="AZ21" s="10">
+        <v>5</v>
+      </c>
+      <c r="BA21" s="10">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="BB21" s="10">
+        <v>0.12</v>
+      </c>
+      <c r="BC21" s="10">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="BD21" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BE21" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="BF21" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BG21" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="BH21" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="BI21" s="10">
+        <v>1</v>
+      </c>
+      <c r="BJ21" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="BK21" s="10" t="b">
+        <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:63" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="B22" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="D22" s="10">
+        <v>1</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="G22" s="10">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="R22" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="S22" s="10">
+        <v>0</v>
+      </c>
+      <c r="T22" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="U22" s="10">
+        <v>0</v>
+      </c>
+      <c r="V22" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="W22" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="X22" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="Z22" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="AA22" s="10">
+        <v>1E-3</v>
+      </c>
+      <c r="AB22" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AC22" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="10">
+        <v>1</v>
+      </c>
+      <c r="AE22" s="10">
+        <v>1</v>
+      </c>
+      <c r="AI22" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="AJ22" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AK22" s="10">
+        <v>0</v>
+      </c>
+      <c r="AL22" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AM22" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="AN22" s="10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AO22" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="AP22" s="10">
+        <v>0.11</v>
+      </c>
+      <c r="AQ22" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="AR22" s="10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AS22" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="AT22" s="10">
+        <v>1</v>
+      </c>
+      <c r="AU22" s="10">
+        <v>15</v>
+      </c>
+      <c r="AV22" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="AW22" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AX22" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AY22" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="AZ22" s="10">
+        <v>5</v>
+      </c>
+      <c r="BA22" s="10">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="BB22" s="10">
+        <v>0.12</v>
+      </c>
+      <c r="BC22" s="10">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="BD22" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BE22" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="BF22" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BG22" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="BH22" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="BI22" s="10">
+        <v>1</v>
+      </c>
+      <c r="BJ22" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="BK22" s="10" t="b">
+        <v>1</v>
+      </c>
+    </row>
     <row r="23" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
-        <v>130</v>
+        <v>153</v>
       </c>
       <c r="B23" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D23" s="10">
         <v>1</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>114</v>
+        <v>77</v>
       </c>
       <c r="G23" s="10">
         <v>1.4999999999999999E-2</v>
@@ -3077,7 +4137,7 @@
         <v>23</v>
       </c>
       <c r="BI23" s="10">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="BJ23" s="10" t="b">
         <v>1</v>
@@ -3086,151 +4146,396 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="B24" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="D24" s="10">
+        <v>1</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="G24" s="10">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H24" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="R24" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="S24" s="10">
+        <v>0</v>
+      </c>
+      <c r="T24" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="U24" s="10">
+        <v>0</v>
+      </c>
+      <c r="V24" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="W24" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="X24" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="Z24" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="AA24" s="10">
+        <v>1E-3</v>
+      </c>
+      <c r="AB24" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AC24" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="10">
+        <v>1</v>
+      </c>
+      <c r="AE24" s="10">
+        <v>2</v>
+      </c>
+      <c r="AF24" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AG24" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AI24" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="AJ24" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AK24" s="10">
+        <v>0</v>
+      </c>
+      <c r="AL24" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AM24" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="AN24" s="10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AO24" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="AP24" s="10">
+        <v>0.11</v>
+      </c>
+      <c r="AQ24" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="AR24" s="10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AS24" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="AT24" s="10">
+        <v>1</v>
+      </c>
+      <c r="AU24" s="10">
+        <v>15</v>
+      </c>
+      <c r="AV24" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="AW24" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AX24" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AY24" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="AZ24" s="10">
+        <v>5</v>
+      </c>
+      <c r="BA24" s="10">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="BB24" s="10">
+        <v>0.12</v>
+      </c>
+      <c r="BC24" s="10">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="BD24" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BE24" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="BF24" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BG24" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="BH24" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="BI24" s="10">
+        <v>1</v>
+      </c>
+      <c r="BJ24" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="BK24" s="10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="B25" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="D25" s="10">
+        <v>1</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="G25" s="10">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="R25" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="S25" s="10">
+        <v>0</v>
+      </c>
+      <c r="T25" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="U25" s="10">
+        <v>0</v>
+      </c>
+      <c r="V25" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="W25" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="X25" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="Z25" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="AA25" s="10">
+        <v>1E-3</v>
+      </c>
+      <c r="AB25" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AC25" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="10">
+        <v>1</v>
+      </c>
+      <c r="AE25" s="10">
+        <v>1</v>
+      </c>
+      <c r="AI25" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="AJ25" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AK25" s="10">
+        <v>0</v>
+      </c>
+      <c r="AL25" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AM25" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="AN25" s="10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AO25" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="AP25" s="10">
+        <v>0.11</v>
+      </c>
+      <c r="AQ25" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="AR25" s="10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AS25" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="AT25" s="10">
+        <v>1</v>
+      </c>
+      <c r="AU25" s="10">
+        <v>15</v>
+      </c>
+      <c r="AV25" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="AW25" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AX25" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AY25" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="AZ25" s="10">
+        <v>5</v>
+      </c>
+      <c r="BA25" s="10">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="BB25" s="10">
+        <v>0.12</v>
+      </c>
+      <c r="BC25" s="10">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="BD25" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BE25" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="BF25" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BG25" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="BH25" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="BI25" s="10">
+        <v>1</v>
+      </c>
+      <c r="BJ25" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="BK25" s="10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B27" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="H27" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="I27" s="10">
+        <v>1</v>
+      </c>
+      <c r="J27" s="10">
+        <v>1</v>
+      </c>
+      <c r="K27" s="10">
+        <v>1</v>
+      </c>
+      <c r="L27" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="M27" s="10">
+        <v>0.03</v>
+      </c>
+    </row>
     <row r="28" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="B28" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="D28" s="10">
-        <v>1</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="F28" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="G28" s="10">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="R28" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="S28" s="10">
-        <v>0</v>
-      </c>
-      <c r="T28" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="U28" s="10">
-        <v>0</v>
-      </c>
-      <c r="V28" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="W28" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="X28" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y28" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="Z28" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="AA28" s="10">
-        <v>1E-3</v>
-      </c>
-      <c r="AB28" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AC28" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD28" s="10">
-        <v>1</v>
-      </c>
-      <c r="AE28" s="10">
-        <v>1</v>
-      </c>
-      <c r="AI28" s="10">
+        <v>134</v>
+      </c>
+      <c r="H28" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="I28" s="10">
+        <v>1</v>
+      </c>
+      <c r="J28" s="10">
+        <v>1</v>
+      </c>
+      <c r="K28" s="10">
+        <v>1</v>
+      </c>
+      <c r="L28" s="10">
         <v>0.06</v>
       </c>
-      <c r="AU28" s="10">
-        <v>15</v>
-      </c>
-      <c r="AV28" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="AW28" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="AX28" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AY28" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="AZ28" s="10">
-        <v>5</v>
-      </c>
-      <c r="BA28" s="10">
-        <v>8.2199999999999995E-2</v>
-      </c>
-      <c r="BB28" s="10">
-        <v>0.12</v>
-      </c>
-      <c r="BC28" s="10">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="BD28" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BE28" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="BF28" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BG28" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="BH28" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="BI28" s="10">
-        <v>1</v>
-      </c>
-      <c r="BJ28" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="BK28" s="10" t="b">
-        <v>1</v>
+      <c r="M28" s="10">
+        <v>0.06</v>
       </c>
     </row>
     <row r="29" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
-        <v>57</v>
+        <v>130</v>
       </c>
       <c r="B29" s="10" t="b">
         <v>0</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>57</v>
+        <v>137</v>
       </c>
       <c r="D29" s="10">
         <v>1</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>77</v>
+        <v>114</v>
       </c>
       <c r="G29" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
+      <c r="H29" s="10" t="s">
+        <v>104</v>
+      </c>
       <c r="R29" s="10">
         <v>0.02</v>
       </c>
@@ -3274,7 +4579,40 @@
         <v>1</v>
       </c>
       <c r="AI29" s="10">
-        <v>0.06</v>
+        <v>0.05</v>
+      </c>
+      <c r="AJ29" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AK29" s="10">
+        <v>0</v>
+      </c>
+      <c r="AL29" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AM29" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="AN29" s="10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AO29" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="AP29" s="10">
+        <v>0.11</v>
+      </c>
+      <c r="AQ29" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="AR29" s="10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AS29" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="AT29" s="10">
+        <v>1</v>
       </c>
       <c r="AU29" s="10">
         <v>15</v>
@@ -3319,7 +4657,7 @@
         <v>23</v>
       </c>
       <c r="BI29" s="10">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="BJ29" s="10" t="b">
         <v>1</v>
@@ -3328,509 +4666,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="B30" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="D30" s="10">
-        <v>1</v>
-      </c>
-      <c r="E30" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="F30" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="G30" s="10">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="R30" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="S30" s="10">
-        <v>0</v>
-      </c>
-      <c r="T30" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="U30" s="10">
-        <v>0</v>
-      </c>
-      <c r="V30" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="W30" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="X30" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y30" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="Z30" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="AA30" s="10">
-        <v>1E-3</v>
-      </c>
-      <c r="AB30" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AC30" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD30" s="10">
-        <v>1</v>
-      </c>
-      <c r="AE30" s="10">
-        <v>1</v>
-      </c>
-      <c r="AI30" s="10">
-        <v>0.06</v>
-      </c>
-      <c r="AU30" s="10">
-        <v>15</v>
-      </c>
-      <c r="AV30" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="AW30" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="AX30" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AY30" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="AZ30" s="10">
-        <v>5</v>
-      </c>
-      <c r="BA30" s="10">
-        <v>8.2199999999999995E-2</v>
-      </c>
-      <c r="BB30" s="10">
-        <v>0.12</v>
-      </c>
-      <c r="BC30" s="10">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="BD30" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BE30" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="BF30" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BG30" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="BH30" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="BI30" s="10">
-        <v>1</v>
-      </c>
-      <c r="BJ30" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="BK30" s="10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B31" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="D31" s="10">
-        <v>1</v>
-      </c>
-      <c r="E31" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="F31" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="G31" s="10">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="R31" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="S31" s="10">
-        <v>0</v>
-      </c>
-      <c r="T31" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="U31" s="10">
-        <v>0</v>
-      </c>
-      <c r="V31" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="W31" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="X31" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y31" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="Z31" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="AA31" s="10">
-        <v>1E-3</v>
-      </c>
-      <c r="AB31" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AC31" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD31" s="10">
-        <v>1</v>
-      </c>
-      <c r="AE31" s="10">
-        <v>1</v>
-      </c>
-      <c r="AI31" s="10">
-        <v>0.06</v>
-      </c>
-      <c r="AU31" s="10">
-        <v>15</v>
-      </c>
-      <c r="AV31" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="AW31" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="AX31" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AY31" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="AZ31" s="10">
-        <v>5</v>
-      </c>
-      <c r="BA31" s="10">
-        <v>8.2199999999999995E-2</v>
-      </c>
-      <c r="BB31" s="10">
-        <v>0.12</v>
-      </c>
-      <c r="BC31" s="10">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="BD31" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BE31" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="BF31" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BG31" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="BH31" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="BI31" s="10">
-        <v>1</v>
-      </c>
-      <c r="BJ31" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="BK31" s="10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="B32" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="D32" s="10">
-        <v>1</v>
-      </c>
-      <c r="E32" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="F32" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="G32" s="10">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="R32" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="S32" s="10">
-        <v>0</v>
-      </c>
-      <c r="T32" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="U32" s="10">
-        <v>0</v>
-      </c>
-      <c r="V32" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="W32" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="X32" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y32" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="Z32" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="AA32" s="10">
-        <v>1E-3</v>
-      </c>
-      <c r="AB32" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AC32" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD32" s="10">
-        <v>1</v>
-      </c>
-      <c r="AE32" s="10">
-        <v>1</v>
-      </c>
-      <c r="AF32" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AG32" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AI32" s="10">
-        <v>0.06</v>
-      </c>
-      <c r="AU32" s="10">
-        <v>15</v>
-      </c>
-      <c r="AV32" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="AW32" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="AX32" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AY32" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="AZ32" s="10">
-        <v>5</v>
-      </c>
-      <c r="BA32" s="10">
-        <v>8.2199999999999995E-2</v>
-      </c>
-      <c r="BB32" s="10">
-        <v>0.12</v>
-      </c>
-      <c r="BC32" s="10">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="BD32" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BE32" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="BF32" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BG32" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="BH32" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="BI32" s="10">
-        <v>1</v>
-      </c>
-      <c r="BJ32" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="BK32" s="10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="B33" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="D33" s="10">
-        <v>1</v>
-      </c>
-      <c r="E33" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="F33" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="G33" s="10">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="R33" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="S33" s="10">
-        <v>0</v>
-      </c>
-      <c r="T33" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="U33" s="10">
-        <v>0</v>
-      </c>
-      <c r="V33" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="W33" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="X33" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y33" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="Z33" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="AA33" s="10">
-        <v>1E-3</v>
-      </c>
-      <c r="AB33" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AC33" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD33" s="10">
-        <v>1</v>
-      </c>
-      <c r="AE33" s="10">
-        <v>2</v>
-      </c>
-      <c r="AF33" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AG33" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AI33" s="10">
-        <v>0.06</v>
-      </c>
-      <c r="AU33" s="10">
-        <v>15</v>
-      </c>
-      <c r="AV33" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="AW33" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="AX33" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AY33" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="AZ33" s="10">
-        <v>5</v>
-      </c>
-      <c r="BA33" s="10">
-        <v>8.2199999999999995E-2</v>
-      </c>
-      <c r="BB33" s="10">
-        <v>0.12</v>
-      </c>
-      <c r="BC33" s="10">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="BD33" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BE33" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="BF33" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BG33" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="BH33" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="BI33" s="10">
-        <v>1</v>
-      </c>
-      <c r="BJ33" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="BK33" s="10" t="b">
-        <v>1</v>
-      </c>
-    </row>
+    <row r="30" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="33" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="34" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="B34" s="10" t="b">
         <v>0</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D34" s="10">
         <v>1</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F34" s="10" t="s">
         <v>77</v>
@@ -3879,12 +4733,6 @@
       </c>
       <c r="AE34" s="10">
         <v>1</v>
-      </c>
-      <c r="AF34" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AG34" s="10">
-        <v>0.5</v>
       </c>
       <c r="AI34" s="10">
         <v>0.06</v>
@@ -3943,19 +4791,19 @@
     </row>
     <row r="35" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="B35" s="10" t="b">
         <v>0</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D35" s="10">
         <v>1</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F35" s="10" t="s">
         <v>77</v>
@@ -4003,13 +4851,7 @@
         <v>1</v>
       </c>
       <c r="AE35" s="10">
-        <v>2</v>
-      </c>
-      <c r="AF35" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AG35" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AI35" s="10">
         <v>0.06</v>
@@ -4066,28 +4908,143 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="BF36" s="10"/>
-      <c r="BG36" s="10"/>
+    <row r="36" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B36" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D36" s="10">
+        <v>1</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="G36" s="10">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="R36" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="S36" s="10">
+        <v>0</v>
+      </c>
+      <c r="T36" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="U36" s="10">
+        <v>0</v>
+      </c>
+      <c r="V36" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="W36" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="X36" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y36" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="Z36" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="AA36" s="10">
+        <v>1E-3</v>
+      </c>
+      <c r="AB36" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AC36" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD36" s="10">
+        <v>1</v>
+      </c>
+      <c r="AE36" s="10">
+        <v>1</v>
+      </c>
+      <c r="AI36" s="10">
+        <v>0.06</v>
+      </c>
+      <c r="AU36" s="10">
+        <v>15</v>
+      </c>
+      <c r="AV36" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="AW36" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AX36" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AY36" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="AZ36" s="10">
+        <v>5</v>
+      </c>
+      <c r="BA36" s="10">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="BB36" s="10">
+        <v>0.12</v>
+      </c>
+      <c r="BC36" s="10">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="BD36" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BE36" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="BF36" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BG36" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="BH36" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="BI36" s="10">
+        <v>1</v>
+      </c>
+      <c r="BJ36" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="BK36" s="10" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="37" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="B37" s="10" t="b">
         <v>0</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="D37" s="10">
         <v>1</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G37" s="10">
         <v>1.4999999999999999E-2</v>
@@ -4134,9 +5091,6 @@
       <c r="AE37" s="10">
         <v>1</v>
       </c>
-      <c r="AH37" s="10">
-        <v>0.02</v>
-      </c>
       <c r="AI37" s="10">
         <v>0.06</v>
       </c>
@@ -4192,22 +5146,146 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B38" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D38" s="10">
+        <v>1</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F38" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="G38" s="10">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="R38" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="S38" s="10">
+        <v>0</v>
+      </c>
+      <c r="T38" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="U38" s="10">
+        <v>0</v>
+      </c>
+      <c r="V38" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="W38" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="X38" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y38" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="Z38" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="AA38" s="10">
+        <v>1E-3</v>
+      </c>
+      <c r="AB38" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AC38" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD38" s="10">
+        <v>1</v>
+      </c>
+      <c r="AE38" s="10">
+        <v>1</v>
+      </c>
+      <c r="AF38" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AG38" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AI38" s="10">
+        <v>0.06</v>
+      </c>
+      <c r="AU38" s="10">
+        <v>15</v>
+      </c>
+      <c r="AV38" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="AW38" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AX38" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AY38" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="AZ38" s="10">
+        <v>5</v>
+      </c>
+      <c r="BA38" s="10">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="BB38" s="10">
+        <v>0.12</v>
+      </c>
+      <c r="BC38" s="10">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="BD38" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BE38" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="BF38" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BG38" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="BH38" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="BI38" s="10">
+        <v>1</v>
+      </c>
+      <c r="BJ38" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="BK38" s="10" t="b">
+        <v>1</v>
+      </c>
+    </row>
     <row r="39" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
-        <v>90</v>
+        <v>61</v>
       </c>
       <c r="B39" s="10" t="b">
         <v>0</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="D39" s="10">
         <v>1</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>91</v>
+        <v>58</v>
       </c>
       <c r="F39" s="10" t="s">
         <v>77</v>
@@ -4222,7 +5300,7 @@
         <v>0</v>
       </c>
       <c r="T39" s="10">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="U39" s="10">
         <v>0</v>
@@ -4255,7 +5333,13 @@
         <v>1</v>
       </c>
       <c r="AE39" s="10">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="AF39" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AG39" s="10">
+        <v>0.5</v>
       </c>
       <c r="AI39" s="10">
         <v>0.06</v>
@@ -4291,7 +5375,7 @@
         <v>0.02</v>
       </c>
       <c r="BE39" s="10" t="s">
-        <v>89</v>
+        <v>50</v>
       </c>
       <c r="BF39" s="10">
         <v>0.02</v>
@@ -4314,19 +5398,19 @@
     </row>
     <row r="40" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B40" s="10" t="b">
         <v>0</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D40" s="10">
         <v>1</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F40" s="10" t="s">
         <v>77</v>
@@ -4341,7 +5425,7 @@
         <v>0</v>
       </c>
       <c r="T40" s="10">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="U40" s="10">
         <v>0</v>
@@ -4376,6 +5460,12 @@
       <c r="AE40" s="10">
         <v>1</v>
       </c>
+      <c r="AF40" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AG40" s="10">
+        <v>0.5</v>
+      </c>
       <c r="AI40" s="10">
         <v>0.06</v>
       </c>
@@ -4410,7 +5500,7 @@
         <v>0.02</v>
       </c>
       <c r="BE40" s="10" t="s">
-        <v>89</v>
+        <v>50</v>
       </c>
       <c r="BF40" s="10">
         <v>0.02</v>
@@ -4431,140 +5521,156 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="B42" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D42" s="10">
+    <row r="41" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B41" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D41" s="10">
+        <v>1</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F41" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="G41" s="10">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="R41" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="S41" s="10">
+        <v>0</v>
+      </c>
+      <c r="T41" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="U41" s="10">
+        <v>0</v>
+      </c>
+      <c r="V41" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="W41" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="X41" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="Z41" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="AA41" s="10">
+        <v>1E-3</v>
+      </c>
+      <c r="AB41" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AC41" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD41" s="10">
+        <v>1</v>
+      </c>
+      <c r="AE41" s="10">
         <v>2</v>
       </c>
-      <c r="E42" s="10" t="s">
+      <c r="AF41" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AG41" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AI41" s="10">
+        <v>0.06</v>
+      </c>
+      <c r="AU41" s="10">
+        <v>15</v>
+      </c>
+      <c r="AV41" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="AW41" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AX41" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AY41" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="AZ41" s="10">
+        <v>5</v>
+      </c>
+      <c r="BA41" s="10">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="BB41" s="10">
+        <v>0.12</v>
+      </c>
+      <c r="BC41" s="10">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="BD41" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BE41" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="G42" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="R42" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="S42" s="10">
-        <v>0</v>
-      </c>
-      <c r="T42" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="U42" s="10">
-        <v>0</v>
-      </c>
-      <c r="V42" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="W42" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="X42" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y42" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="Z42" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="AA42" s="10">
-        <v>1E-3</v>
-      </c>
-      <c r="AB42" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AC42" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD42" s="10">
-        <v>1</v>
-      </c>
-      <c r="AE42" s="10">
-        <v>1</v>
-      </c>
-      <c r="AI42" s="10">
-        <v>0.06</v>
-      </c>
-      <c r="AU42" s="10">
-        <v>15</v>
-      </c>
-      <c r="AV42" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="AW42" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="AX42" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AY42" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="AZ42" s="10">
-        <v>5</v>
-      </c>
-      <c r="BA42" s="11">
-        <v>6.7199999999999996E-2</v>
-      </c>
-      <c r="BB42" s="10">
-        <v>0.12</v>
-      </c>
-      <c r="BC42" s="10">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="BD42" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BE42" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="BF42" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BG42" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="BH42" s="10" t="s">
+      <c r="BF41" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BG41" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="BH41" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="BI42" s="10">
-        <v>1</v>
-      </c>
-      <c r="BJ42" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="BK42" s="10" t="b">
-        <v>1</v>
-      </c>
+      <c r="BI41" s="10">
+        <v>1</v>
+      </c>
+      <c r="BJ41" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="BK41" s="10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="BF42" s="10"/>
+      <c r="BG42" s="10"/>
     </row>
     <row r="43" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="B43" s="10" t="b">
         <v>0</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D43" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
+      </c>
+      <c r="F43" s="10" t="s">
+        <v>80</v>
       </c>
       <c r="G43" s="10">
-        <v>0.02</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="R43" s="10">
         <v>0.02</v>
@@ -4608,6 +5714,9 @@
       <c r="AE43" s="10">
         <v>1</v>
       </c>
+      <c r="AH43" s="10">
+        <v>0.02</v>
+      </c>
       <c r="AI43" s="10">
         <v>0.06</v>
       </c>
@@ -4629,8 +5738,8 @@
       <c r="AZ43" s="10">
         <v>5</v>
       </c>
-      <c r="BA43" s="11">
-        <v>6.7199999999999996E-2</v>
+      <c r="BA43" s="10">
+        <v>8.2199999999999995E-2</v>
       </c>
       <c r="BB43" s="10">
         <v>0.12</v>
@@ -4663,140 +5772,28 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="B44" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="C44" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="D44" s="10">
-        <v>2</v>
-      </c>
-      <c r="E44" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="G44" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="R44" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="S44" s="10">
-        <v>0</v>
-      </c>
-      <c r="T44" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="U44" s="10">
-        <v>0</v>
-      </c>
-      <c r="V44" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="W44" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="X44" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y44" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="Z44" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="AA44" s="10">
-        <v>1E-3</v>
-      </c>
-      <c r="AB44" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AC44" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD44" s="10">
-        <v>1</v>
-      </c>
-      <c r="AE44" s="10">
-        <v>1</v>
-      </c>
-      <c r="AI44" s="10">
-        <v>0.06</v>
-      </c>
-      <c r="AU44" s="10">
-        <v>15</v>
-      </c>
-      <c r="AV44" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="AW44" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="AX44" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AY44" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="AZ44" s="10">
-        <v>5</v>
-      </c>
-      <c r="BA44" s="11">
-        <v>6.7199999999999996E-2</v>
-      </c>
-      <c r="BB44" s="10">
-        <v>0.12</v>
-      </c>
-      <c r="BC44" s="10">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="BD44" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BE44" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="BF44" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BG44" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="BH44" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="BI44" s="10">
-        <v>1</v>
-      </c>
-      <c r="BJ44" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="BK44" s="10" t="b">
-        <v>1</v>
-      </c>
-    </row>
+    <row r="44" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="45" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="B45" s="10" t="b">
         <v>0</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="D45" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>54</v>
+        <v>91</v>
+      </c>
+      <c r="F45" s="10" t="s">
+        <v>77</v>
       </c>
       <c r="G45" s="10">
-        <v>0.02</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="R45" s="10">
         <v>0.02</v>
@@ -4805,7 +5802,7 @@
         <v>0</v>
       </c>
       <c r="T45" s="10">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="U45" s="10">
         <v>0</v>
@@ -4861,8 +5858,8 @@
       <c r="AZ45" s="10">
         <v>5</v>
       </c>
-      <c r="BA45" s="11">
-        <v>6.7199999999999996E-2</v>
+      <c r="BA45" s="10">
+        <v>8.2199999999999995E-2</v>
       </c>
       <c r="BB45" s="10">
         <v>0.12</v>
@@ -4874,7 +5871,7 @@
         <v>0.02</v>
       </c>
       <c r="BE45" s="10" t="s">
-        <v>50</v>
+        <v>89</v>
       </c>
       <c r="BF45" s="10">
         <v>0.02</v>
@@ -4897,22 +5894,25 @@
     </row>
     <row r="46" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="B46" s="10" t="b">
         <v>0</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D46" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
+      </c>
+      <c r="F46" s="10" t="s">
+        <v>77</v>
       </c>
       <c r="G46" s="10">
-        <v>0.02</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="R46" s="10">
         <v>0.02</v>
@@ -4921,7 +5921,7 @@
         <v>0</v>
       </c>
       <c r="T46" s="10">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="U46" s="10">
         <v>0</v>
@@ -4977,8 +5977,8 @@
       <c r="AZ46" s="10">
         <v>5</v>
       </c>
-      <c r="BA46" s="11">
-        <v>6.7199999999999996E-2</v>
+      <c r="BA46" s="10">
+        <v>8.2199999999999995E-2</v>
       </c>
       <c r="BB46" s="10">
         <v>0.12</v>
@@ -4990,7 +5990,7 @@
         <v>0.02</v>
       </c>
       <c r="BE46" s="10" t="s">
-        <v>50</v>
+        <v>89</v>
       </c>
       <c r="BF46" s="10">
         <v>0.02</v>
@@ -5008,140 +6008,24 @@
         <v>1</v>
       </c>
       <c r="BK46" s="10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="B47" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="C47" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="D47" s="10">
-        <v>2</v>
-      </c>
-      <c r="E47" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="G47" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="R47" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="S47" s="10">
-        <v>0</v>
-      </c>
-      <c r="T47" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="U47" s="10">
-        <v>0</v>
-      </c>
-      <c r="V47" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="W47" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="X47" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y47" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="Z47" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="AA47" s="10">
-        <v>1E-3</v>
-      </c>
-      <c r="AB47" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AC47" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD47" s="10">
-        <v>1</v>
-      </c>
-      <c r="AE47" s="10">
-        <v>1</v>
-      </c>
-      <c r="AI47" s="10">
-        <v>0.06</v>
-      </c>
-      <c r="AU47" s="10">
-        <v>15</v>
-      </c>
-      <c r="AV47" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="AW47" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="AX47" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AY47" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="AZ47" s="10">
-        <v>5</v>
-      </c>
-      <c r="BA47" s="11">
-        <v>6.7199999999999996E-2</v>
-      </c>
-      <c r="BB47" s="10">
-        <v>0.12</v>
-      </c>
-      <c r="BC47" s="10">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="BD47" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BE47" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="BF47" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BG47" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="BH47" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="BI47" s="10">
-        <v>1</v>
-      </c>
-      <c r="BJ47" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="BK47" s="10" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B48" s="10" t="b">
         <v>0</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="D48" s="10">
         <v>2</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="G48" s="10">
         <v>0.02</v>
@@ -5186,7 +6070,7 @@
         <v>1</v>
       </c>
       <c r="AE48" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI48" s="10">
         <v>0.06</v>
@@ -5240,15 +6124,711 @@
         <v>1</v>
       </c>
       <c r="BK48" s="10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B49" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D49" s="10">
+        <v>2</v>
+      </c>
+      <c r="E49" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G49" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="R49" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="S49" s="10">
+        <v>0</v>
+      </c>
+      <c r="T49" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="U49" s="10">
+        <v>0</v>
+      </c>
+      <c r="V49" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="W49" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="X49" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y49" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="Z49" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="AA49" s="10">
+        <v>1E-3</v>
+      </c>
+      <c r="AB49" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AC49" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD49" s="10">
+        <v>1</v>
+      </c>
+      <c r="AE49" s="10">
+        <v>1</v>
+      </c>
+      <c r="AI49" s="10">
+        <v>0.06</v>
+      </c>
+      <c r="AU49" s="10">
+        <v>15</v>
+      </c>
+      <c r="AV49" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="AW49" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AX49" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AY49" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="AZ49" s="10">
+        <v>5</v>
+      </c>
+      <c r="BA49" s="11">
+        <v>6.7199999999999996E-2</v>
+      </c>
+      <c r="BB49" s="10">
+        <v>0.12</v>
+      </c>
+      <c r="BC49" s="10">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="BD49" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BE49" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="BF49" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BG49" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="BH49" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="BI49" s="10">
+        <v>1</v>
+      </c>
+      <c r="BJ49" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="BK49" s="10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B50" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D50" s="10">
+        <v>2</v>
+      </c>
+      <c r="E50" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="G50" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="R50" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="S50" s="10">
+        <v>0</v>
+      </c>
+      <c r="T50" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="U50" s="10">
+        <v>0</v>
+      </c>
+      <c r="V50" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="W50" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="X50" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="Z50" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="AA50" s="10">
+        <v>1E-3</v>
+      </c>
+      <c r="AB50" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AC50" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD50" s="10">
+        <v>1</v>
+      </c>
+      <c r="AE50" s="10">
+        <v>1</v>
+      </c>
+      <c r="AI50" s="10">
+        <v>0.06</v>
+      </c>
+      <c r="AU50" s="10">
+        <v>15</v>
+      </c>
+      <c r="AV50" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="AW50" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AX50" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AY50" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="AZ50" s="10">
+        <v>5</v>
+      </c>
+      <c r="BA50" s="11">
+        <v>6.7199999999999996E-2</v>
+      </c>
+      <c r="BB50" s="10">
+        <v>0.12</v>
+      </c>
+      <c r="BC50" s="10">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="BD50" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BE50" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="BF50" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BG50" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="BH50" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="BI50" s="10">
+        <v>1</v>
+      </c>
+      <c r="BJ50" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="BK50" s="10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B51" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D51" s="10">
+        <v>2</v>
+      </c>
+      <c r="E51" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G51" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="R51" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="S51" s="10">
+        <v>0</v>
+      </c>
+      <c r="T51" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="U51" s="10">
+        <v>0</v>
+      </c>
+      <c r="V51" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="W51" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="X51" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="Z51" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="AA51" s="10">
+        <v>1E-3</v>
+      </c>
+      <c r="AB51" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AC51" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD51" s="10">
+        <v>1</v>
+      </c>
+      <c r="AE51" s="10">
+        <v>1</v>
+      </c>
+      <c r="AI51" s="10">
+        <v>0.06</v>
+      </c>
+      <c r="AU51" s="10">
+        <v>15</v>
+      </c>
+      <c r="AV51" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="AW51" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AX51" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AY51" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="AZ51" s="10">
+        <v>5</v>
+      </c>
+      <c r="BA51" s="11">
+        <v>6.7199999999999996E-2</v>
+      </c>
+      <c r="BB51" s="10">
+        <v>0.12</v>
+      </c>
+      <c r="BC51" s="10">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="BD51" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BE51" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="BF51" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BG51" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="BH51" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="BI51" s="10">
+        <v>1</v>
+      </c>
+      <c r="BJ51" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="BK51" s="10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B52" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D52" s="10">
+        <v>2</v>
+      </c>
+      <c r="E52" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="G52" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="R52" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="S52" s="10">
+        <v>0</v>
+      </c>
+      <c r="T52" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="U52" s="10">
+        <v>0</v>
+      </c>
+      <c r="V52" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="W52" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="X52" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y52" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="Z52" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="AA52" s="10">
+        <v>1E-3</v>
+      </c>
+      <c r="AB52" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AC52" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD52" s="10">
+        <v>1</v>
+      </c>
+      <c r="AE52" s="10">
+        <v>1</v>
+      </c>
+      <c r="AI52" s="10">
+        <v>0.06</v>
+      </c>
+      <c r="AU52" s="10">
+        <v>15</v>
+      </c>
+      <c r="AV52" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="AW52" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AX52" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AY52" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="AZ52" s="10">
+        <v>5</v>
+      </c>
+      <c r="BA52" s="11">
+        <v>6.7199999999999996E-2</v>
+      </c>
+      <c r="BB52" s="10">
+        <v>0.12</v>
+      </c>
+      <c r="BC52" s="10">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="BD52" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BE52" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="BF52" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BG52" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="BH52" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="BI52" s="10">
+        <v>1</v>
+      </c>
+      <c r="BJ52" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="BK52" s="10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B53" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D53" s="10">
+        <v>2</v>
+      </c>
+      <c r="E53" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G53" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="R53" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="S53" s="10">
+        <v>0</v>
+      </c>
+      <c r="T53" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="U53" s="10">
+        <v>0</v>
+      </c>
+      <c r="V53" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="W53" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="X53" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="Z53" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="AA53" s="10">
+        <v>1E-3</v>
+      </c>
+      <c r="AB53" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AC53" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD53" s="10">
+        <v>1</v>
+      </c>
+      <c r="AE53" s="10">
+        <v>1</v>
+      </c>
+      <c r="AI53" s="10">
+        <v>0.06</v>
+      </c>
+      <c r="AU53" s="10">
+        <v>15</v>
+      </c>
+      <c r="AV53" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="AW53" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AX53" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AY53" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="AZ53" s="10">
+        <v>5</v>
+      </c>
+      <c r="BA53" s="11">
+        <v>6.7199999999999996E-2</v>
+      </c>
+      <c r="BB53" s="10">
+        <v>0.12</v>
+      </c>
+      <c r="BC53" s="10">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="BD53" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BE53" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="BF53" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BG53" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="BH53" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="BI53" s="10">
+        <v>1</v>
+      </c>
+      <c r="BJ53" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="BK53" s="10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B54" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D54" s="10">
+        <v>2</v>
+      </c>
+      <c r="E54" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G54" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="R54" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="S54" s="10">
+        <v>0</v>
+      </c>
+      <c r="T54" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="U54" s="10">
+        <v>0</v>
+      </c>
+      <c r="V54" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="W54" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="X54" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y54" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="Z54" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="AA54" s="10">
+        <v>1E-3</v>
+      </c>
+      <c r="AB54" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AC54" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD54" s="10">
+        <v>1</v>
+      </c>
+      <c r="AE54" s="10">
+        <v>2</v>
+      </c>
+      <c r="AI54" s="10">
+        <v>0.06</v>
+      </c>
+      <c r="AU54" s="10">
+        <v>15</v>
+      </c>
+      <c r="AV54" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="AW54" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AX54" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AY54" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="AZ54" s="10">
+        <v>5</v>
+      </c>
+      <c r="BA54" s="11">
+        <v>6.7199999999999996E-2</v>
+      </c>
+      <c r="BB54" s="10">
+        <v>0.12</v>
+      </c>
+      <c r="BC54" s="10">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="BD54" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BE54" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="BF54" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BG54" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="BH54" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="BI54" s="10">
+        <v>1</v>
+      </c>
+      <c r="BJ54" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="BK54" s="10" t="b">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B42:B48 B37:B40 B20:B35 B3:B18" xr:uid="{05E01AB2-72EC-4550-ACB8-4E83765DE296}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B48:B54 B43:B46 B27:B41 B3:B25" xr:uid="{05E01AB2-72EC-4550-ACB8-4E83765DE296}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H5 H12:H15 H23 H7:H10 H20:H21" xr:uid="{8DBFC5CB-438A-4309-B948-24597CAE3D7F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H13 H27:H29 H16:H24" xr:uid="{8DBFC5CB-438A-4309-B948-24597CAE3D7F}">
       <formula1>"preSet, ALpct,MApct"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5261,7 +6841,7 @@
           <x14:formula1>
             <xm:f>Policies!$B$3:$B$9</xm:f>
           </x14:formula1>
-          <xm:sqref>F23 F20 F3:F18</xm:sqref>
+          <xm:sqref>F29 F27 F3:F25</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -5271,10 +6851,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC498317-3D78-4815-AFC0-F5D6A2FF4B8F}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5313,7 +6894,7 @@
         <v>2000</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2">
         <v>20</v>
@@ -5335,10 +6916,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8A32A7C-02DA-49C9-AA1C-929580F46C18}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A2:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/RunControl.xlsx
+++ b/RunControl.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1E313AA-71E5-495D-9B65-29C718B36091}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0720751E-E388-45D4-8FC1-9071112643D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="18240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="18240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="paramlist" sheetId="1" r:id="rId1"/>
@@ -891,7 +891,7 @@
       <pane xSplit="6" ySplit="2" topLeftCell="Q3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="S25" sqref="S25"/>
+      <selection pane="bottomRight" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6854,8 +6854,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6891,7 +6891,7 @@
         <v>91</v>
       </c>
       <c r="B2">
-        <v>2000</v>
+        <v>500</v>
       </c>
       <c r="C2">
         <v>4</v>
@@ -6919,7 +6919,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A2:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>

--- a/RunControl.xlsx
+++ b/RunControl.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0720751E-E388-45D4-8FC1-9071112643D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E041E56A-4F36-43C0-B33A-F3D2DE6BA7CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="18240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="paramlist" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="138">
   <si>
     <t>runname</t>
   </si>
@@ -185,9 +185,6 @@
     <t>constant</t>
   </si>
   <si>
-    <t>cola_constant</t>
-  </si>
-  <si>
     <t>return</t>
   </si>
   <si>
@@ -197,9 +194,6 @@
     <t>FRramp1</t>
   </si>
   <si>
-    <t>FRramp2</t>
-  </si>
-  <si>
     <t>cola_return</t>
   </si>
   <si>
@@ -209,18 +203,6 @@
     <t>SDRS</t>
   </si>
   <si>
-    <t>cola_FRramp1</t>
-  </si>
-  <si>
-    <t>cola_FRramp2</t>
-  </si>
-  <si>
-    <t>cola_SDRS2</t>
-  </si>
-  <si>
-    <t>cola_SDRS1</t>
-  </si>
-  <si>
     <t>include</t>
   </si>
   <si>
@@ -236,78 +218,30 @@
     <t>return_scn</t>
   </si>
   <si>
-    <t>cola_constant_LowR</t>
-  </si>
-  <si>
-    <t>cola_return_LowR</t>
-  </si>
-  <si>
-    <t>cola_FR_LowR</t>
-  </si>
-  <si>
-    <t>cola_FRramp1_LowR</t>
-  </si>
-  <si>
-    <t>cola_FRramp2_LowR</t>
-  </si>
-  <si>
-    <t>cola_SDRS1_LowR</t>
-  </si>
-  <si>
-    <t>cola_SDRS2_LowR</t>
-  </si>
-  <si>
-    <t>cola_constant2</t>
-  </si>
-  <si>
     <t>EEC_type</t>
   </si>
   <si>
     <t>fixed</t>
   </si>
   <si>
-    <t>EEC_sharedRisk</t>
-  </si>
-  <si>
     <t>SharedRisk_cap</t>
   </si>
   <si>
-    <t>sharedRisk</t>
-  </si>
-  <si>
     <t>EECshare_correctiveAction</t>
   </si>
   <si>
     <t>EECshare_NC</t>
   </si>
   <si>
-    <t>cola_SDRS1_EEC</t>
-  </si>
-  <si>
-    <t>cola_SDRS2_EEC</t>
-  </si>
-  <si>
     <t>infl_mean</t>
   </si>
   <si>
     <t>infl_sd</t>
   </si>
   <si>
-    <t>cola_FR_stochInfl</t>
-  </si>
-  <si>
     <t>infl_type</t>
   </si>
   <si>
-    <t>stochastic</t>
-  </si>
-  <si>
-    <t>cola_stochInfl</t>
-  </si>
-  <si>
-    <t>Infl</t>
-  </si>
-  <si>
     <t>DC component</t>
   </si>
   <si>
@@ -317,21 +251,6 @@
     <t>DC_ERCrate</t>
   </si>
   <si>
-    <t>Cash balance component</t>
-  </si>
-  <si>
-    <t>CB_EECrate</t>
-  </si>
-  <si>
-    <t>CB_ERCrate</t>
-  </si>
-  <si>
-    <t>CB_interestType</t>
-  </si>
-  <si>
-    <t>CB_guarantee</t>
-  </si>
-  <si>
     <t>DC_initBalanceType</t>
   </si>
   <si>
@@ -498,13 +417,40 @@
   </si>
   <si>
     <t>hybrid_DB_FR100</t>
+  </si>
+  <si>
+    <t>smoothYear_EEC_return</t>
+  </si>
+  <si>
+    <t>smoothYear_cola_return</t>
+  </si>
+  <si>
+    <t>EEC_returnSmooth</t>
+  </si>
+  <si>
+    <t>cola_returnSmooth</t>
+  </si>
+  <si>
+    <t>init_UAAL_type</t>
+  </si>
+  <si>
+    <t>init_UAAL_presetVal</t>
+  </si>
+  <si>
+    <t>model</t>
+  </si>
+  <si>
+    <t>EEC_returnSmooth_FR100</t>
+  </si>
+  <si>
+    <t>cola_returnSmooth_FR100</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -520,14 +466,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Lucida Console"/>
-      <family val="3"/>
-    </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -564,12 +504,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -583,7 +517,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -595,13 +529,8 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
@@ -885,13 +814,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:BK54"/>
+  <dimension ref="A1:BK38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="6" ySplit="2" topLeftCell="Q3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="6" ySplit="2" topLeftCell="AN3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B19" sqref="B19"/>
+      <selection pane="bottomRight" activeCell="AN44" sqref="AN44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -904,23 +833,27 @@
     <col min="7" max="7" width="16.5703125" customWidth="1"/>
     <col min="8" max="8" width="11.7109375" customWidth="1"/>
     <col min="9" max="13" width="12.85546875" customWidth="1"/>
-    <col min="14" max="17" width="17.140625" customWidth="1"/>
-    <col min="18" max="18" width="18" customWidth="1"/>
-    <col min="19" max="19" width="16.5703125" customWidth="1"/>
-    <col min="20" max="22" width="13" customWidth="1"/>
-    <col min="23" max="26" width="16.5703125" customWidth="1"/>
-    <col min="27" max="27" width="28.85546875" customWidth="1"/>
-    <col min="28" max="30" width="14.28515625" customWidth="1"/>
-    <col min="31" max="31" width="17.42578125" customWidth="1"/>
-    <col min="32" max="32" width="18" customWidth="1"/>
-    <col min="33" max="33" width="26.28515625" customWidth="1"/>
-    <col min="34" max="34" width="14.28515625" customWidth="1"/>
-    <col min="35" max="35" width="18.5703125" style="10" customWidth="1"/>
-    <col min="36" max="37" width="20.28515625" style="10" customWidth="1"/>
-    <col min="38" max="38" width="21.42578125" style="10" customWidth="1"/>
-    <col min="39" max="39" width="23.7109375" style="10" customWidth="1"/>
-    <col min="40" max="40" width="24" style="10" customWidth="1"/>
-    <col min="41" max="44" width="21.42578125" style="10" customWidth="1"/>
+    <col min="14" max="14" width="17.140625" customWidth="1"/>
+    <col min="15" max="15" width="19.42578125" customWidth="1"/>
+    <col min="16" max="16" width="18" customWidth="1"/>
+    <col min="17" max="17" width="16.5703125" customWidth="1"/>
+    <col min="18" max="18" width="26.28515625" customWidth="1"/>
+    <col min="19" max="21" width="13" customWidth="1"/>
+    <col min="22" max="25" width="16.5703125" customWidth="1"/>
+    <col min="26" max="26" width="28.85546875" customWidth="1"/>
+    <col min="27" max="29" width="14.28515625" customWidth="1"/>
+    <col min="30" max="30" width="17.42578125" customWidth="1"/>
+    <col min="31" max="31" width="18" customWidth="1"/>
+    <col min="32" max="32" width="26.28515625" customWidth="1"/>
+    <col min="33" max="33" width="14.28515625" customWidth="1"/>
+    <col min="34" max="34" width="18.5703125" style="10" customWidth="1"/>
+    <col min="35" max="36" width="20.28515625" style="10" customWidth="1"/>
+    <col min="37" max="37" width="21.42578125" style="10" customWidth="1"/>
+    <col min="38" max="38" width="23.7109375" style="10" customWidth="1"/>
+    <col min="39" max="39" width="24" style="10" customWidth="1"/>
+    <col min="40" max="41" width="21.42578125" style="10" customWidth="1"/>
+    <col min="42" max="42" width="24.5703125" style="10" customWidth="1"/>
+    <col min="43" max="44" width="21.42578125" style="10" customWidth="1"/>
     <col min="45" max="46" width="17.7109375" style="10" customWidth="1"/>
     <col min="47" max="47" width="7.7109375" customWidth="1"/>
     <col min="48" max="48" width="13.7109375" customWidth="1"/>
@@ -931,49 +864,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:63" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F1" s="17"/>
+      <c r="F1" s="14"/>
       <c r="G1" s="6"/>
-      <c r="H1" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="7" t="s">
+      <c r="H1" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="S1" s="7"/>
-      <c r="T1" s="8" t="s">
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="8" t="s">
         <v>37</v>
       </c>
+      <c r="T1" s="8"/>
       <c r="U1" s="8"/>
-      <c r="V1" s="8"/>
-      <c r="W1" s="9" t="s">
+      <c r="V1" s="9" t="s">
         <v>40</v>
       </c>
+      <c r="W1" s="9"/>
       <c r="X1" s="9"/>
       <c r="Y1" s="9"/>
       <c r="Z1" s="9"/>
-      <c r="AA1" s="9"/>
-      <c r="AB1" s="8" t="s">
+      <c r="AA1" s="8" t="s">
         <v>45</v>
       </c>
+      <c r="AB1" s="8"/>
       <c r="AC1" s="8"/>
       <c r="AD1" s="8"/>
       <c r="AE1" s="8"/>
       <c r="AF1" s="8"/>
-      <c r="AG1" s="8"/>
-      <c r="AH1" s="6" t="s">
-        <v>132</v>
-      </c>
+      <c r="AG1" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="AH1" s="6"/>
       <c r="AI1" s="6"/>
       <c r="AJ1" s="6"/>
       <c r="AK1" s="6"/>
@@ -1010,139 +941,139 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E2" t="s">
         <v>1</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="I2" s="13" t="s">
+      <c r="H2" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="N2" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="O2" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="X2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE2" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF2" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AL2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AM2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AN2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AO2" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AP2" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AQ2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AR2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AS2" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="AT2" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="K2" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="L2" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="M2" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="N2" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="O2" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="P2" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q2" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="W2" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="X2" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y2" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z2" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA2" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB2" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="AC2" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD2" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE2" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="AF2" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="AG2" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="AH2" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AI2" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="AJ2" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="AK2" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="AL2" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AM2" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="AN2" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="AO2" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="AP2" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="AQ2" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="AR2" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AS2" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AT2" s="1" t="s">
-        <v>129</v>
       </c>
       <c r="AU2" t="s">
         <v>10</v>
@@ -1175,13 +1106,13 @@
         <v>30</v>
       </c>
       <c r="BE2" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="BF2" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="BG2" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="BH2" t="s">
         <v>21</v>
@@ -1198,13 +1129,13 @@
     </row>
     <row r="3" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>141</v>
+        <v>114</v>
       </c>
       <c r="B3" s="10" t="b">
         <v>0</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>140</v>
+        <v>113</v>
       </c>
       <c r="D3" s="10">
         <v>1</v>
@@ -1213,78 +1144,81 @@
         <v>50</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="G3" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="R3" s="10">
-        <v>0.02</v>
+        <v>77</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="P3" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="Q3" s="10">
+        <v>0</v>
       </c>
       <c r="S3" s="10">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="T3" s="10">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="U3" s="10">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="V3" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="W3" s="10">
+        <v>0</v>
+      </c>
+      <c r="X3" s="10">
         <v>0.9</v>
       </c>
-      <c r="W3" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="X3" s="10">
-        <v>0</v>
-      </c>
       <c r="Y3" s="10">
-        <v>0.9</v>
+        <v>0.01</v>
       </c>
       <c r="Z3" s="10">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="AA3" s="10">
-        <v>1E-3</v>
+        <v>0.02</v>
       </c>
       <c r="AB3" s="10">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="AC3" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD3" s="10">
         <v>1</v>
       </c>
-      <c r="AE3" s="10">
-        <v>1</v>
+      <c r="AH3" s="10">
+        <v>0.05</v>
       </c>
       <c r="AI3" s="10">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="AJ3" s="10">
+        <v>0</v>
+      </c>
+      <c r="AK3" s="10">
         <v>0.5</v>
       </c>
-      <c r="AK3" s="10">
-        <v>0</v>
-      </c>
       <c r="AL3" s="10">
-        <v>0.5</v>
+        <v>0.03</v>
       </c>
       <c r="AM3" s="10">
-        <v>0.03</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AN3" s="10">
-        <v>7.0000000000000007E-2</v>
+        <v>0.04</v>
       </c>
       <c r="AO3" s="10">
-        <v>0.04</v>
-      </c>
-      <c r="AP3" s="10">
         <v>0.11</v>
       </c>
       <c r="AQ3" s="10">
@@ -1354,13 +1288,13 @@
     <row r="4" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>140</v>
+        <v>113</v>
       </c>
       <c r="B5" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>140</v>
+        <v>113</v>
       </c>
       <c r="D5" s="10">
         <v>1</v>
@@ -1369,78 +1303,81 @@
         <v>50</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="G5" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="R5" s="10">
-        <v>0.02</v>
+        <v>77</v>
+      </c>
+      <c r="N5" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="P5" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="Q5" s="10">
+        <v>0</v>
       </c>
       <c r="S5" s="10">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="T5" s="10">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="U5" s="10">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="V5" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="W5" s="10">
+        <v>0</v>
+      </c>
+      <c r="X5" s="10">
         <v>0.9</v>
       </c>
-      <c r="W5" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="X5" s="10">
-        <v>0</v>
-      </c>
       <c r="Y5" s="10">
-        <v>0.9</v>
+        <v>0.01</v>
       </c>
       <c r="Z5" s="10">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="AA5" s="10">
-        <v>1E-3</v>
+        <v>0.02</v>
       </c>
       <c r="AB5" s="10">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="AC5" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD5" s="10">
         <v>1</v>
       </c>
-      <c r="AE5" s="10">
-        <v>1</v>
+      <c r="AH5" s="10">
+        <v>0.05</v>
       </c>
       <c r="AI5" s="10">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="AJ5" s="10">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="10">
         <v>0.5</v>
       </c>
-      <c r="AK5" s="10">
-        <v>0</v>
-      </c>
       <c r="AL5" s="10">
-        <v>0.5</v>
+        <v>0.03</v>
       </c>
       <c r="AM5" s="10">
-        <v>0.03</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AN5" s="10">
-        <v>7.0000000000000007E-2</v>
+        <v>0.04</v>
       </c>
       <c r="AO5" s="10">
-        <v>0.04</v>
-      </c>
-      <c r="AP5" s="10">
         <v>0.11</v>
       </c>
       <c r="AQ5" s="10">
@@ -1509,13 +1446,13 @@
     </row>
     <row r="6" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="B6" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>137</v>
+        <v>110</v>
       </c>
       <c r="D6" s="10">
         <v>1</v>
@@ -1524,78 +1461,81 @@
         <v>50</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>113</v>
+        <v>86</v>
       </c>
       <c r="G6" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="R6" s="10">
-        <v>0.02</v>
+        <v>77</v>
+      </c>
+      <c r="N6" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="P6" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="Q6" s="10">
+        <v>0</v>
       </c>
       <c r="S6" s="10">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="T6" s="10">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="U6" s="10">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="V6" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="W6" s="10">
+        <v>0</v>
+      </c>
+      <c r="X6" s="10">
         <v>0.9</v>
       </c>
-      <c r="W6" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="X6" s="10">
-        <v>0</v>
-      </c>
       <c r="Y6" s="10">
-        <v>0.9</v>
+        <v>0.01</v>
       </c>
       <c r="Z6" s="10">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="AA6" s="10">
-        <v>1E-3</v>
+        <v>0.02</v>
       </c>
       <c r="AB6" s="10">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="AC6" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD6" s="10">
         <v>1</v>
       </c>
-      <c r="AE6" s="10">
-        <v>1</v>
+      <c r="AH6" s="10">
+        <v>0.05</v>
       </c>
       <c r="AI6" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AJ6" s="10">
         <v>0.05</v>
       </c>
-      <c r="AJ6" s="10">
+      <c r="AK6" s="10">
         <v>0.5</v>
       </c>
-      <c r="AK6" s="10">
-        <v>0</v>
-      </c>
       <c r="AL6" s="10">
-        <v>0.5</v>
+        <v>0.03</v>
       </c>
       <c r="AM6" s="10">
-        <v>0.03</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AN6" s="10">
-        <v>7.0000000000000007E-2</v>
+        <v>0.04</v>
       </c>
       <c r="AO6" s="10">
-        <v>0.04</v>
-      </c>
-      <c r="AP6" s="10">
         <v>0.11</v>
       </c>
       <c r="AQ6" s="10">
@@ -1664,13 +1604,13 @@
     </row>
     <row r="7" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>143</v>
+        <v>88</v>
       </c>
       <c r="B7" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>137</v>
+        <v>110</v>
       </c>
       <c r="D7" s="10">
         <v>1</v>
@@ -1679,79 +1619,88 @@
         <v>50</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="G7" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>104</v>
+        <v>77</v>
+      </c>
+      <c r="N7" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="P7" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="Q7" s="10">
+        <v>0</v>
       </c>
       <c r="R7" s="10">
-        <v>0.02</v>
+        <v>1</v>
       </c>
       <c r="S7" s="10">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="T7" s="10">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="U7" s="10">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="V7" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="W7" s="10">
+        <v>0</v>
+      </c>
+      <c r="X7" s="10">
         <v>0.9</v>
       </c>
-      <c r="W7" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="X7" s="10">
-        <v>0</v>
-      </c>
       <c r="Y7" s="10">
-        <v>0.9</v>
+        <v>0.01</v>
       </c>
       <c r="Z7" s="10">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="AA7" s="10">
-        <v>1E-3</v>
+        <v>0.02</v>
       </c>
       <c r="AB7" s="10">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="AC7" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD7" s="10">
         <v>1</v>
       </c>
-      <c r="AE7" s="10">
-        <v>1</v>
+      <c r="AH7" s="10">
+        <v>0.05</v>
       </c>
       <c r="AI7" s="10">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="AJ7" s="10">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="10">
         <v>0.5</v>
       </c>
-      <c r="AK7" s="10">
-        <v>0.05</v>
-      </c>
       <c r="AL7" s="10">
-        <v>0.5</v>
+        <v>0.03</v>
       </c>
       <c r="AM7" s="10">
-        <v>0.03</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AN7" s="10">
-        <v>7.0000000000000007E-2</v>
+        <v>0.04</v>
       </c>
       <c r="AO7" s="10">
-        <v>0.04</v>
+        <v>0.11</v>
       </c>
       <c r="AP7" s="10">
-        <v>0.11</v>
+        <v>1</v>
       </c>
       <c r="AQ7" s="10">
         <v>0.03</v>
@@ -1819,13 +1768,13 @@
     </row>
     <row r="8" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="B8" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>137</v>
+        <v>110</v>
       </c>
       <c r="D8" s="10">
         <v>1</v>
@@ -1834,79 +1783,88 @@
         <v>50</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="G8" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>104</v>
+        <v>77</v>
+      </c>
+      <c r="N8" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="P8" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="Q8" s="10">
+        <v>0</v>
       </c>
       <c r="R8" s="10">
-        <v>0.02</v>
+        <v>5</v>
       </c>
       <c r="S8" s="10">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="T8" s="10">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="U8" s="10">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="V8" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="W8" s="10">
+        <v>0</v>
+      </c>
+      <c r="X8" s="10">
         <v>0.9</v>
       </c>
-      <c r="W8" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="X8" s="10">
-        <v>0</v>
-      </c>
       <c r="Y8" s="10">
-        <v>0.9</v>
+        <v>0.01</v>
       </c>
       <c r="Z8" s="10">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="AA8" s="10">
-        <v>1E-3</v>
+        <v>0.02</v>
       </c>
       <c r="AB8" s="10">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="AC8" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD8" s="10">
         <v>1</v>
       </c>
-      <c r="AE8" s="10">
-        <v>1</v>
+      <c r="AH8" s="10">
+        <v>0.05</v>
       </c>
       <c r="AI8" s="10">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="AJ8" s="10">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="10">
         <v>0.5</v>
       </c>
-      <c r="AK8" s="10">
-        <v>0</v>
-      </c>
       <c r="AL8" s="10">
-        <v>0.5</v>
+        <v>0.03</v>
       </c>
       <c r="AM8" s="10">
-        <v>0.03</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AN8" s="10">
-        <v>7.0000000000000007E-2</v>
+        <v>0.04</v>
       </c>
       <c r="AO8" s="10">
-        <v>0.04</v>
+        <v>0.11</v>
       </c>
       <c r="AP8" s="10">
-        <v>0.11</v>
+        <v>5</v>
       </c>
       <c r="AQ8" s="10">
         <v>0.03</v>
@@ -1974,13 +1932,13 @@
     </row>
     <row r="9" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="B9" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>137</v>
+        <v>110</v>
       </c>
       <c r="D9" s="10">
         <v>1</v>
@@ -1989,78 +1947,81 @@
         <v>50</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="G9" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="R9" s="10">
-        <v>0.02</v>
+        <v>77</v>
+      </c>
+      <c r="N9" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="P9" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="Q9" s="10">
+        <v>0</v>
       </c>
       <c r="S9" s="10">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="T9" s="10">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="U9" s="10">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="V9" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="W9" s="10">
+        <v>0</v>
+      </c>
+      <c r="X9" s="10">
         <v>0.9</v>
       </c>
-      <c r="W9" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="X9" s="10">
-        <v>0</v>
-      </c>
       <c r="Y9" s="10">
-        <v>0.9</v>
+        <v>0.01</v>
       </c>
       <c r="Z9" s="10">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="AA9" s="10">
-        <v>1E-3</v>
+        <v>0.02</v>
       </c>
       <c r="AB9" s="10">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="AC9" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD9" s="10">
         <v>1</v>
       </c>
-      <c r="AE9" s="10">
-        <v>1</v>
+      <c r="AH9" s="10">
+        <v>0.05</v>
       </c>
       <c r="AI9" s="10">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="AJ9" s="10">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="10">
         <v>0.5</v>
       </c>
-      <c r="AK9" s="10">
-        <v>0</v>
-      </c>
       <c r="AL9" s="10">
-        <v>0.5</v>
+        <v>0.03</v>
       </c>
       <c r="AM9" s="10">
-        <v>0.03</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AN9" s="10">
-        <v>7.0000000000000007E-2</v>
+        <v>0.04</v>
       </c>
       <c r="AO9" s="10">
-        <v>0.04</v>
-      </c>
-      <c r="AP9" s="10">
         <v>0.11</v>
       </c>
       <c r="AQ9" s="10">
@@ -2129,94 +2090,103 @@
     </row>
     <row r="10" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B10" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>138</v>
+        <v>111</v>
       </c>
       <c r="D10" s="10">
         <v>1</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="G10" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>104</v>
+        <v>77</v>
+      </c>
+      <c r="N10" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="P10" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="Q10" s="10">
+        <v>0</v>
       </c>
       <c r="R10" s="10">
-        <v>0.02</v>
+        <v>1</v>
       </c>
       <c r="S10" s="10">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="T10" s="10">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="U10" s="10">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="V10" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="W10" s="10">
+        <v>0</v>
+      </c>
+      <c r="X10" s="10">
         <v>0.9</v>
       </c>
-      <c r="W10" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="X10" s="10">
-        <v>0</v>
-      </c>
       <c r="Y10" s="10">
-        <v>0.9</v>
+        <v>0.01</v>
       </c>
       <c r="Z10" s="10">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="AA10" s="10">
-        <v>1E-3</v>
+        <v>0.02</v>
       </c>
       <c r="AB10" s="10">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="AC10" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD10" s="10">
         <v>1</v>
       </c>
-      <c r="AE10" s="10">
-        <v>1</v>
+      <c r="AH10" s="10">
+        <v>0.05</v>
       </c>
       <c r="AI10" s="10">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="AJ10" s="10">
+        <v>0</v>
+      </c>
+      <c r="AK10" s="10">
         <v>0.5</v>
       </c>
-      <c r="AK10" s="10">
-        <v>0</v>
-      </c>
       <c r="AL10" s="10">
-        <v>0.5</v>
+        <v>0.03</v>
       </c>
       <c r="AM10" s="10">
-        <v>0.03</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AN10" s="10">
-        <v>7.0000000000000007E-2</v>
+        <v>0.04</v>
       </c>
       <c r="AO10" s="10">
-        <v>0.04</v>
+        <v>0.11</v>
       </c>
       <c r="AP10" s="10">
-        <v>0.11</v>
+        <v>1</v>
       </c>
       <c r="AQ10" s="10">
         <v>0.03</v>
@@ -2282,96 +2252,105 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:63" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>57</v>
+        <v>132</v>
       </c>
       <c r="B11" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>138</v>
+        <v>111</v>
       </c>
       <c r="D11" s="10">
         <v>1</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="G11" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>104</v>
+        <v>77</v>
+      </c>
+      <c r="N11" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="P11" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="Q11" s="10">
+        <v>0</v>
       </c>
       <c r="R11" s="10">
-        <v>0.02</v>
+        <v>5</v>
       </c>
       <c r="S11" s="10">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="T11" s="10">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="U11" s="10">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="V11" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="W11" s="10">
+        <v>0</v>
+      </c>
+      <c r="X11" s="10">
         <v>0.9</v>
       </c>
-      <c r="W11" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="X11" s="10">
-        <v>0</v>
-      </c>
       <c r="Y11" s="10">
-        <v>0.9</v>
+        <v>0.01</v>
       </c>
       <c r="Z11" s="10">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="AA11" s="10">
-        <v>1E-3</v>
+        <v>0.02</v>
       </c>
       <c r="AB11" s="10">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="AC11" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD11" s="10">
         <v>1</v>
       </c>
-      <c r="AE11" s="10">
-        <v>1</v>
+      <c r="AH11" s="10">
+        <v>0.05</v>
       </c>
       <c r="AI11" s="10">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="AJ11" s="10">
+        <v>0</v>
+      </c>
+      <c r="AK11" s="10">
         <v>0.5</v>
       </c>
-      <c r="AK11" s="10">
-        <v>0</v>
-      </c>
       <c r="AL11" s="10">
-        <v>0.5</v>
+        <v>0.03</v>
       </c>
       <c r="AM11" s="10">
-        <v>0.03</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AN11" s="10">
-        <v>7.0000000000000007E-2</v>
+        <v>0.04</v>
       </c>
       <c r="AO11" s="10">
-        <v>0.04</v>
+        <v>0.11</v>
       </c>
       <c r="AP11" s="10">
-        <v>0.11</v>
+        <v>5</v>
       </c>
       <c r="AQ11" s="10">
         <v>0.03</v>
@@ -2437,95 +2416,98 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:63" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>131</v>
+        <v>55</v>
       </c>
       <c r="B12" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>138</v>
+        <v>111</v>
       </c>
       <c r="D12" s="10">
         <v>1</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="G12" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="R12" s="10">
-        <v>0.02</v>
+        <v>77</v>
+      </c>
+      <c r="N12" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="P12" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="Q12" s="10">
+        <v>0</v>
       </c>
       <c r="S12" s="10">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="T12" s="10">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="U12" s="10">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="V12" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="W12" s="10">
+        <v>0</v>
+      </c>
+      <c r="X12" s="10">
         <v>0.9</v>
       </c>
-      <c r="W12" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="X12" s="10">
-        <v>0</v>
-      </c>
       <c r="Y12" s="10">
-        <v>0.9</v>
+        <v>0.01</v>
       </c>
       <c r="Z12" s="10">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="AA12" s="10">
-        <v>1E-3</v>
+        <v>0.02</v>
       </c>
       <c r="AB12" s="10">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="AC12" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD12" s="10">
         <v>1</v>
       </c>
-      <c r="AE12" s="10">
-        <v>1</v>
+      <c r="AH12" s="10">
+        <v>0.05</v>
       </c>
       <c r="AI12" s="10">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="AJ12" s="10">
+        <v>0</v>
+      </c>
+      <c r="AK12" s="10">
         <v>0.5</v>
       </c>
-      <c r="AK12" s="10">
-        <v>0</v>
-      </c>
       <c r="AL12" s="10">
-        <v>0.5</v>
+        <v>0.03</v>
       </c>
       <c r="AM12" s="10">
-        <v>0.03</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AN12" s="10">
-        <v>7.0000000000000007E-2</v>
+        <v>0.04</v>
       </c>
       <c r="AO12" s="10">
-        <v>0.04</v>
-      </c>
-      <c r="AP12" s="10">
         <v>0.11</v>
       </c>
       <c r="AQ12" s="10">
@@ -2594,99 +2576,96 @@
     </row>
     <row r="13" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="B13" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>138</v>
+        <v>111</v>
       </c>
       <c r="D13" s="10">
         <v>1</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="G13" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="R13" s="10">
-        <v>0.02</v>
+        <v>77</v>
+      </c>
+      <c r="N13" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="P13" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="Q13" s="10">
+        <v>0</v>
       </c>
       <c r="S13" s="10">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="T13" s="10">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="U13" s="10">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="V13" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="W13" s="10">
+        <v>0</v>
+      </c>
+      <c r="X13" s="10">
         <v>0.9</v>
       </c>
-      <c r="W13" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="X13" s="10">
-        <v>0</v>
-      </c>
       <c r="Y13" s="10">
-        <v>0.9</v>
+        <v>0.01</v>
       </c>
       <c r="Z13" s="10">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="AA13" s="10">
-        <v>1E-3</v>
+        <v>0.02</v>
       </c>
       <c r="AB13" s="10">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="AC13" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD13" s="10">
         <v>1</v>
       </c>
-      <c r="AE13" s="10">
-        <v>2</v>
-      </c>
-      <c r="AF13" s="10">
+      <c r="AH13" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="AI13" s="10">
         <v>0.5</v>
       </c>
-      <c r="AG13" s="10">
+      <c r="AJ13" s="10">
+        <v>0</v>
+      </c>
+      <c r="AK13" s="10">
         <v>0.5</v>
       </c>
-      <c r="AI13" s="10">
-        <v>0.05</v>
-      </c>
-      <c r="AJ13" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AK13" s="10">
-        <v>0</v>
-      </c>
       <c r="AL13" s="10">
-        <v>0.5</v>
+        <v>0.03</v>
       </c>
       <c r="AM13" s="10">
-        <v>0.03</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AN13" s="10">
-        <v>7.0000000000000007E-2</v>
+        <v>0.04</v>
       </c>
       <c r="AO13" s="10">
-        <v>0.04</v>
-      </c>
-      <c r="AP13" s="10">
         <v>0.11</v>
       </c>
       <c r="AQ13" s="10">
@@ -2755,90 +2734,102 @@
     </row>
     <row r="14" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="B14" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>139</v>
+        <v>111</v>
       </c>
       <c r="D14" s="10">
         <v>1</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="G14" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="R14" s="10">
-        <v>0.02</v>
+      <c r="H14" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="N14" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="P14" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="Q14" s="10">
+        <v>0</v>
       </c>
       <c r="S14" s="10">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="T14" s="10">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="U14" s="10">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="V14" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="W14" s="10">
+        <v>0</v>
+      </c>
+      <c r="X14" s="10">
         <v>0.9</v>
       </c>
-      <c r="W14" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="X14" s="10">
-        <v>0</v>
-      </c>
       <c r="Y14" s="10">
-        <v>0.9</v>
+        <v>0.01</v>
       </c>
       <c r="Z14" s="10">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="AA14" s="10">
-        <v>1E-3</v>
+        <v>0.02</v>
       </c>
       <c r="AB14" s="10">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="AC14" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD14" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE14" s="10">
-        <v>1</v>
+        <v>0.5</v>
+      </c>
+      <c r="AF14" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AH14" s="10">
+        <v>0.05</v>
       </c>
       <c r="AI14" s="10">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="AJ14" s="10">
+        <v>0</v>
+      </c>
+      <c r="AK14" s="10">
         <v>0.5</v>
       </c>
-      <c r="AK14" s="10">
-        <v>0</v>
-      </c>
       <c r="AL14" s="10">
-        <v>0.5</v>
+        <v>0.03</v>
       </c>
       <c r="AM14" s="10">
-        <v>0.03</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AN14" s="10">
-        <v>7.0000000000000007E-2</v>
+        <v>0.04</v>
       </c>
       <c r="AO14" s="10">
-        <v>0.04</v>
-      </c>
-      <c r="AP14" s="10">
         <v>0.11</v>
       </c>
       <c r="AQ14" s="10">
@@ -2905,171 +2896,171 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="B16" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="D16" s="10">
-        <v>1</v>
-      </c>
-      <c r="E16" s="10" t="s">
+    <row r="15" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="B15" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="D15" s="10">
+        <v>1</v>
+      </c>
+      <c r="E15" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="F16" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="G16" s="10">
+      <c r="F15" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G15" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="H16" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="R16" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="S16" s="10">
-        <v>0</v>
-      </c>
-      <c r="T16" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="U16" s="10">
-        <v>0</v>
-      </c>
-      <c r="V16" s="10">
+      <c r="N15" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="P15" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="Q15" s="10">
+        <v>0</v>
+      </c>
+      <c r="S15" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="T15" s="10">
+        <v>0</v>
+      </c>
+      <c r="U15" s="10">
         <v>0.9</v>
       </c>
-      <c r="W16" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="X16" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y16" s="10">
+      <c r="V15" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="W15" s="10">
+        <v>0</v>
+      </c>
+      <c r="X15" s="10">
         <v>0.9</v>
       </c>
-      <c r="Z16" s="10">
+      <c r="Y15" s="10">
         <v>0.01</v>
       </c>
-      <c r="AA16" s="10">
+      <c r="Z15" s="10">
         <v>1E-3</v>
       </c>
-      <c r="AB16" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AC16" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD16" s="10">
-        <v>1</v>
-      </c>
-      <c r="AE16" s="10">
-        <v>1</v>
-      </c>
-      <c r="AI16" s="10">
+      <c r="AA15" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AB15" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="10">
+        <v>1</v>
+      </c>
+      <c r="AD15" s="10">
+        <v>1</v>
+      </c>
+      <c r="AH15" s="10">
         <v>0.05</v>
       </c>
-      <c r="AJ16" s="10">
+      <c r="AI15" s="10">
         <v>0.5</v>
       </c>
-      <c r="AK16" s="10">
-        <v>0</v>
-      </c>
-      <c r="AL16" s="10">
+      <c r="AJ15" s="10">
+        <v>0</v>
+      </c>
+      <c r="AK15" s="10">
         <v>0.5</v>
       </c>
-      <c r="AM16" s="10">
+      <c r="AL15" s="10">
         <v>0.03</v>
       </c>
-      <c r="AN16" s="10">
+      <c r="AM15" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AO16" s="10">
+      <c r="AN15" s="10">
         <v>0.04</v>
       </c>
-      <c r="AP16" s="10">
+      <c r="AO15" s="10">
         <v>0.11</v>
       </c>
-      <c r="AQ16" s="10">
+      <c r="AQ15" s="10">
         <v>0.03</v>
       </c>
-      <c r="AR16" s="10">
+      <c r="AR15" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AS16" s="10">
+      <c r="AS15" s="10">
         <v>0.7</v>
       </c>
-      <c r="AT16" s="10">
-        <v>1</v>
-      </c>
-      <c r="AU16" s="10">
+      <c r="AT15" s="10">
+        <v>1</v>
+      </c>
+      <c r="AU15" s="10">
         <v>15</v>
       </c>
-      <c r="AV16" s="10" t="s">
+      <c r="AV15" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="AW16" s="10" t="s">
+      <c r="AW15" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="AX16" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AY16" s="10" t="s">
+      <c r="AX15" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AY15" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="AZ16" s="10">
+      <c r="AZ15" s="10">
         <v>5</v>
       </c>
-      <c r="BA16" s="10">
+      <c r="BA15" s="10">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="BB16" s="10">
+      <c r="BB15" s="10">
         <v>0.12</v>
       </c>
-      <c r="BC16" s="10">
+      <c r="BC15" s="10">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="BD16" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BE16" s="10" t="s">
+      <c r="BD15" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BE15" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="BF16" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BG16" s="10">
+      <c r="BF15" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BG15" s="10">
         <v>0.01</v>
       </c>
-      <c r="BH16" s="10" t="s">
+      <c r="BH15" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="BI16" s="10">
-        <v>1</v>
-      </c>
-      <c r="BJ16" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="BK16" s="10" t="b">
+      <c r="BI15" s="10">
+        <v>0.75</v>
+      </c>
+      <c r="BJ15" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="BK15" s="10" t="b">
         <v>1</v>
       </c>
     </row>
+    <row r="16" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="17" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
-        <v>147</v>
+        <v>119</v>
       </c>
       <c r="B17" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>137</v>
+        <v>113</v>
       </c>
       <c r="D17" s="10">
         <v>1</v>
@@ -3078,78 +3069,81 @@
         <v>50</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>113</v>
+        <v>63</v>
       </c>
       <c r="G17" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="R17" s="10">
-        <v>0.02</v>
+        <v>77</v>
+      </c>
+      <c r="N17" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="P17" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="Q17" s="10">
+        <v>0</v>
       </c>
       <c r="S17" s="10">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="T17" s="10">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="U17" s="10">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="V17" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="W17" s="10">
+        <v>0</v>
+      </c>
+      <c r="X17" s="10">
         <v>0.9</v>
       </c>
-      <c r="W17" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="X17" s="10">
-        <v>0</v>
-      </c>
       <c r="Y17" s="10">
-        <v>0.9</v>
+        <v>0.01</v>
       </c>
       <c r="Z17" s="10">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="AA17" s="10">
-        <v>1E-3</v>
+        <v>0.02</v>
       </c>
       <c r="AB17" s="10">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="AC17" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD17" s="10">
         <v>1</v>
       </c>
-      <c r="AE17" s="10">
-        <v>1</v>
+      <c r="AH17" s="10">
+        <v>0.05</v>
       </c>
       <c r="AI17" s="10">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="AJ17" s="10">
+        <v>0</v>
+      </c>
+      <c r="AK17" s="10">
         <v>0.5</v>
       </c>
-      <c r="AK17" s="10">
-        <v>0</v>
-      </c>
       <c r="AL17" s="10">
-        <v>0.5</v>
+        <v>0.03</v>
       </c>
       <c r="AM17" s="10">
-        <v>0.03</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AN17" s="10">
-        <v>7.0000000000000007E-2</v>
+        <v>0.04</v>
       </c>
       <c r="AO17" s="10">
-        <v>0.04</v>
-      </c>
-      <c r="AP17" s="10">
         <v>0.11</v>
       </c>
       <c r="AQ17" s="10">
@@ -3218,13 +3212,13 @@
     </row>
     <row r="18" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
-        <v>148</v>
+        <v>121</v>
       </c>
       <c r="B18" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>137</v>
+        <v>110</v>
       </c>
       <c r="D18" s="10">
         <v>1</v>
@@ -3233,78 +3227,81 @@
         <v>50</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>113</v>
+        <v>86</v>
       </c>
       <c r="G18" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="R18" s="10">
-        <v>0.02</v>
+        <v>77</v>
+      </c>
+      <c r="N18" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="P18" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="Q18" s="10">
+        <v>0</v>
       </c>
       <c r="S18" s="10">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="T18" s="10">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="U18" s="10">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="V18" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="W18" s="10">
+        <v>0</v>
+      </c>
+      <c r="X18" s="10">
         <v>0.9</v>
       </c>
-      <c r="W18" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="X18" s="10">
-        <v>0</v>
-      </c>
       <c r="Y18" s="10">
-        <v>0.9</v>
+        <v>0.01</v>
       </c>
       <c r="Z18" s="10">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="AA18" s="10">
-        <v>1E-3</v>
+        <v>0.02</v>
       </c>
       <c r="AB18" s="10">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="AC18" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD18" s="10">
         <v>1</v>
       </c>
-      <c r="AE18" s="10">
-        <v>1</v>
+      <c r="AH18" s="10">
+        <v>0.05</v>
       </c>
       <c r="AI18" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AJ18" s="10">
         <v>0.05</v>
       </c>
-      <c r="AJ18" s="10">
+      <c r="AK18" s="10">
         <v>0.5</v>
       </c>
-      <c r="AK18" s="10">
-        <v>0.05</v>
-      </c>
       <c r="AL18" s="10">
-        <v>0.5</v>
+        <v>0.03</v>
       </c>
       <c r="AM18" s="10">
-        <v>0.03</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AN18" s="10">
-        <v>7.0000000000000007E-2</v>
+        <v>0.04</v>
       </c>
       <c r="AO18" s="10">
-        <v>0.04</v>
-      </c>
-      <c r="AP18" s="10">
         <v>0.11</v>
       </c>
       <c r="AQ18" s="10">
@@ -3373,13 +3370,13 @@
     </row>
     <row r="19" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
-        <v>149</v>
+        <v>122</v>
       </c>
       <c r="B19" s="10" t="b">
         <v>1</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>137</v>
+        <v>110</v>
       </c>
       <c r="D19" s="10">
         <v>1</v>
@@ -3388,79 +3385,88 @@
         <v>50</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="G19" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>104</v>
+        <v>77</v>
+      </c>
+      <c r="N19" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="P19" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="Q19" s="10">
+        <v>0</v>
       </c>
       <c r="R19" s="10">
-        <v>0.02</v>
+        <v>1</v>
       </c>
       <c r="S19" s="10">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="T19" s="10">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="U19" s="10">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="V19" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="W19" s="10">
+        <v>0</v>
+      </c>
+      <c r="X19" s="10">
         <v>0.9</v>
       </c>
-      <c r="W19" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="X19" s="10">
-        <v>0</v>
-      </c>
       <c r="Y19" s="10">
-        <v>0.9</v>
+        <v>0.01</v>
       </c>
       <c r="Z19" s="10">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="AA19" s="10">
-        <v>1E-3</v>
+        <v>0.02</v>
       </c>
       <c r="AB19" s="10">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="AC19" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD19" s="10">
         <v>1</v>
       </c>
-      <c r="AE19" s="10">
-        <v>1</v>
+      <c r="AH19" s="10">
+        <v>0.05</v>
       </c>
       <c r="AI19" s="10">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="AJ19" s="10">
+        <v>0</v>
+      </c>
+      <c r="AK19" s="10">
         <v>0.5</v>
       </c>
-      <c r="AK19" s="10">
-        <v>0</v>
-      </c>
       <c r="AL19" s="10">
-        <v>0.5</v>
+        <v>0.03</v>
       </c>
       <c r="AM19" s="10">
-        <v>0.03</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AN19" s="10">
-        <v>7.0000000000000007E-2</v>
+        <v>0.04</v>
       </c>
       <c r="AO19" s="10">
-        <v>0.04</v>
+        <v>0.11</v>
       </c>
       <c r="AP19" s="10">
-        <v>0.11</v>
+        <v>1</v>
       </c>
       <c r="AQ19" s="10">
         <v>0.03</v>
@@ -3528,13 +3534,13 @@
     </row>
     <row r="20" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="B20" s="10" t="b">
         <v>1</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>137</v>
+        <v>110</v>
       </c>
       <c r="D20" s="10">
         <v>1</v>
@@ -3543,79 +3549,88 @@
         <v>50</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>116</v>
+        <v>88</v>
       </c>
       <c r="G20" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>104</v>
+        <v>77</v>
+      </c>
+      <c r="N20" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="P20" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="Q20" s="10">
+        <v>0</v>
       </c>
       <c r="R20" s="10">
-        <v>0.02</v>
+        <v>5</v>
       </c>
       <c r="S20" s="10">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="T20" s="10">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="U20" s="10">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="V20" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="W20" s="10">
+        <v>0</v>
+      </c>
+      <c r="X20" s="10">
         <v>0.9</v>
       </c>
-      <c r="W20" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="X20" s="10">
-        <v>0</v>
-      </c>
       <c r="Y20" s="10">
-        <v>0.9</v>
+        <v>0.01</v>
       </c>
       <c r="Z20" s="10">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="AA20" s="10">
-        <v>1E-3</v>
+        <v>0.02</v>
       </c>
       <c r="AB20" s="10">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="AC20" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD20" s="10">
         <v>1</v>
       </c>
-      <c r="AE20" s="10">
-        <v>1</v>
+      <c r="AH20" s="10">
+        <v>0.05</v>
       </c>
       <c r="AI20" s="10">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="AJ20" s="10">
+        <v>0</v>
+      </c>
+      <c r="AK20" s="10">
         <v>0.5</v>
       </c>
-      <c r="AK20" s="10">
-        <v>0</v>
-      </c>
       <c r="AL20" s="10">
-        <v>0.5</v>
+        <v>0.03</v>
       </c>
       <c r="AM20" s="10">
-        <v>0.03</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AN20" s="10">
-        <v>7.0000000000000007E-2</v>
+        <v>0.04</v>
       </c>
       <c r="AO20" s="10">
-        <v>0.04</v>
+        <v>0.11</v>
       </c>
       <c r="AP20" s="10">
-        <v>0.11</v>
+        <v>5</v>
       </c>
       <c r="AQ20" s="10">
         <v>0.03</v>
@@ -3683,93 +3698,96 @@
     </row>
     <row r="21" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
-        <v>151</v>
+        <v>123</v>
       </c>
       <c r="B21" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>138</v>
+        <v>110</v>
       </c>
       <c r="D21" s="10">
         <v>1</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="G21" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="R21" s="10">
-        <v>0.02</v>
+        <v>77</v>
+      </c>
+      <c r="N21" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="P21" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="Q21" s="10">
+        <v>0</v>
       </c>
       <c r="S21" s="10">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="T21" s="10">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="U21" s="10">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="V21" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="W21" s="10">
+        <v>0</v>
+      </c>
+      <c r="X21" s="10">
         <v>0.9</v>
       </c>
-      <c r="W21" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="X21" s="10">
-        <v>0</v>
-      </c>
       <c r="Y21" s="10">
-        <v>0.9</v>
+        <v>0.01</v>
       </c>
       <c r="Z21" s="10">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="AA21" s="10">
-        <v>1E-3</v>
+        <v>0.02</v>
       </c>
       <c r="AB21" s="10">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="AC21" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD21" s="10">
         <v>1</v>
       </c>
-      <c r="AE21" s="10">
-        <v>1</v>
+      <c r="AH21" s="10">
+        <v>0.05</v>
       </c>
       <c r="AI21" s="10">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="AJ21" s="10">
+        <v>0</v>
+      </c>
+      <c r="AK21" s="10">
         <v>0.5</v>
       </c>
-      <c r="AK21" s="10">
-        <v>0</v>
-      </c>
       <c r="AL21" s="10">
-        <v>0.5</v>
+        <v>0.03</v>
       </c>
       <c r="AM21" s="10">
-        <v>0.03</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AN21" s="10">
-        <v>7.0000000000000007E-2</v>
+        <v>0.04</v>
       </c>
       <c r="AO21" s="10">
-        <v>0.04</v>
-      </c>
-      <c r="AP21" s="10">
         <v>0.11</v>
       </c>
       <c r="AQ21" s="10">
@@ -3836,96 +3854,105 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:63" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
-        <v>152</v>
+        <v>124</v>
       </c>
       <c r="B22" s="10" t="b">
         <v>1</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>138</v>
+        <v>111</v>
       </c>
       <c r="D22" s="10">
         <v>1</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="G22" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>104</v>
+        <v>77</v>
+      </c>
+      <c r="N22" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="P22" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="Q22" s="10">
+        <v>0</v>
       </c>
       <c r="R22" s="10">
-        <v>0.02</v>
+        <v>1</v>
       </c>
       <c r="S22" s="10">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="T22" s="10">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="U22" s="10">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="V22" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="W22" s="10">
+        <v>0</v>
+      </c>
+      <c r="X22" s="10">
         <v>0.9</v>
       </c>
-      <c r="W22" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="X22" s="10">
-        <v>0</v>
-      </c>
       <c r="Y22" s="10">
-        <v>0.9</v>
+        <v>0.01</v>
       </c>
       <c r="Z22" s="10">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="AA22" s="10">
-        <v>1E-3</v>
+        <v>0.02</v>
       </c>
       <c r="AB22" s="10">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="AC22" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD22" s="10">
         <v>1</v>
       </c>
-      <c r="AE22" s="10">
-        <v>1</v>
+      <c r="AH22" s="10">
+        <v>0.05</v>
       </c>
       <c r="AI22" s="10">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="AJ22" s="10">
+        <v>0</v>
+      </c>
+      <c r="AK22" s="10">
         <v>0.5</v>
       </c>
-      <c r="AK22" s="10">
-        <v>0</v>
-      </c>
       <c r="AL22" s="10">
-        <v>0.5</v>
+        <v>0.03</v>
       </c>
       <c r="AM22" s="10">
-        <v>0.03</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AN22" s="10">
-        <v>7.0000000000000007E-2</v>
+        <v>0.04</v>
       </c>
       <c r="AO22" s="10">
-        <v>0.04</v>
+        <v>0.11</v>
       </c>
       <c r="AP22" s="10">
-        <v>0.11</v>
+        <v>1</v>
       </c>
       <c r="AQ22" s="10">
         <v>0.03</v>
@@ -3993,94 +4020,103 @@
     </row>
     <row r="23" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="B23" s="10" t="b">
         <v>1</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>138</v>
+        <v>111</v>
       </c>
       <c r="D23" s="10">
         <v>1</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="G23" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>104</v>
+        <v>77</v>
+      </c>
+      <c r="N23" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="P23" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="Q23" s="10">
+        <v>0</v>
       </c>
       <c r="R23" s="10">
-        <v>0.02</v>
+        <v>5</v>
       </c>
       <c r="S23" s="10">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="T23" s="10">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="U23" s="10">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="V23" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="W23" s="10">
+        <v>0</v>
+      </c>
+      <c r="X23" s="10">
         <v>0.9</v>
       </c>
-      <c r="W23" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="X23" s="10">
-        <v>0</v>
-      </c>
       <c r="Y23" s="10">
-        <v>0.9</v>
+        <v>0.01</v>
       </c>
       <c r="Z23" s="10">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="AA23" s="10">
-        <v>1E-3</v>
+        <v>0.02</v>
       </c>
       <c r="AB23" s="10">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="AC23" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD23" s="10">
         <v>1</v>
       </c>
-      <c r="AE23" s="10">
-        <v>1</v>
+      <c r="AH23" s="10">
+        <v>0.05</v>
       </c>
       <c r="AI23" s="10">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="AJ23" s="10">
+        <v>0</v>
+      </c>
+      <c r="AK23" s="10">
         <v>0.5</v>
       </c>
-      <c r="AK23" s="10">
-        <v>0</v>
-      </c>
       <c r="AL23" s="10">
-        <v>0.5</v>
+        <v>0.03</v>
       </c>
       <c r="AM23" s="10">
-        <v>0.03</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AN23" s="10">
-        <v>7.0000000000000007E-2</v>
+        <v>0.04</v>
       </c>
       <c r="AO23" s="10">
-        <v>0.04</v>
+        <v>0.11</v>
       </c>
       <c r="AP23" s="10">
-        <v>0.11</v>
+        <v>5</v>
       </c>
       <c r="AQ23" s="10">
         <v>0.03</v>
@@ -4146,101 +4182,98 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:63" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
-        <v>154</v>
+        <v>125</v>
       </c>
       <c r="B24" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>138</v>
+        <v>111</v>
       </c>
       <c r="D24" s="10">
         <v>1</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="G24" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="R24" s="10">
-        <v>0.02</v>
+        <v>77</v>
+      </c>
+      <c r="N24" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="P24" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="Q24" s="10">
+        <v>0</v>
       </c>
       <c r="S24" s="10">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="T24" s="10">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="U24" s="10">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="V24" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="W24" s="10">
+        <v>0</v>
+      </c>
+      <c r="X24" s="10">
         <v>0.9</v>
       </c>
-      <c r="W24" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="X24" s="10">
-        <v>0</v>
-      </c>
       <c r="Y24" s="10">
-        <v>0.9</v>
+        <v>0.01</v>
       </c>
       <c r="Z24" s="10">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="AA24" s="10">
-        <v>1E-3</v>
+        <v>0.02</v>
       </c>
       <c r="AB24" s="10">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="AC24" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD24" s="10">
         <v>1</v>
       </c>
-      <c r="AE24" s="10">
-        <v>2</v>
-      </c>
-      <c r="AF24" s="10">
+      <c r="AH24" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="AI24" s="10">
         <v>0.5</v>
       </c>
-      <c r="AG24" s="10">
+      <c r="AJ24" s="10">
+        <v>0</v>
+      </c>
+      <c r="AK24" s="10">
         <v>0.5</v>
       </c>
-      <c r="AI24" s="10">
-        <v>0.05</v>
-      </c>
-      <c r="AJ24" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AK24" s="10">
-        <v>0</v>
-      </c>
       <c r="AL24" s="10">
-        <v>0.5</v>
+        <v>0.03</v>
       </c>
       <c r="AM24" s="10">
-        <v>0.03</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AN24" s="10">
-        <v>7.0000000000000007E-2</v>
+        <v>0.04</v>
       </c>
       <c r="AO24" s="10">
-        <v>0.04</v>
-      </c>
-      <c r="AP24" s="10">
         <v>0.11</v>
       </c>
       <c r="AQ24" s="10">
@@ -4309,90 +4342,96 @@
     </row>
     <row r="25" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
-        <v>155</v>
+        <v>126</v>
       </c>
       <c r="B25" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>139</v>
+        <v>111</v>
       </c>
       <c r="D25" s="10">
         <v>1</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="G25" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="R25" s="10">
-        <v>0.02</v>
+      <c r="H25" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="N25" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="P25" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="Q25" s="10">
+        <v>0</v>
       </c>
       <c r="S25" s="10">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="T25" s="10">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="U25" s="10">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="V25" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="W25" s="10">
+        <v>0</v>
+      </c>
+      <c r="X25" s="10">
         <v>0.9</v>
       </c>
-      <c r="W25" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="X25" s="10">
-        <v>0</v>
-      </c>
       <c r="Y25" s="10">
-        <v>0.9</v>
+        <v>0.01</v>
       </c>
       <c r="Z25" s="10">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="AA25" s="10">
-        <v>1E-3</v>
+        <v>0.02</v>
       </c>
       <c r="AB25" s="10">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="AC25" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD25" s="10">
         <v>1</v>
       </c>
-      <c r="AE25" s="10">
-        <v>1</v>
+      <c r="AH25" s="10">
+        <v>0.05</v>
       </c>
       <c r="AI25" s="10">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="AJ25" s="10">
+        <v>0</v>
+      </c>
+      <c r="AK25" s="10">
         <v>0.5</v>
       </c>
-      <c r="AK25" s="10">
-        <v>0</v>
-      </c>
       <c r="AL25" s="10">
-        <v>0.5</v>
+        <v>0.03</v>
       </c>
       <c r="AM25" s="10">
-        <v>0.03</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AN25" s="10">
-        <v>7.0000000000000007E-2</v>
+        <v>0.04</v>
       </c>
       <c r="AO25" s="10">
-        <v>0.04</v>
-      </c>
-      <c r="AP25" s="10">
         <v>0.11</v>
       </c>
       <c r="AQ25" s="10">
@@ -4456,286 +4495,642 @@
         <v>1</v>
       </c>
       <c r="BK25" s="10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="B26" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="D26" s="10">
+        <v>1</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G26" s="10">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H26" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="N26" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="P26" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="Q26" s="10">
+        <v>0</v>
+      </c>
+      <c r="S26" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="T26" s="10">
+        <v>0</v>
+      </c>
+      <c r="U26" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="V26" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="W26" s="10">
+        <v>0</v>
+      </c>
+      <c r="X26" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="Y26" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="Z26" s="10">
+        <v>1E-3</v>
+      </c>
+      <c r="AA26" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AB26" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="10">
+        <v>1</v>
+      </c>
+      <c r="AD26" s="10">
+        <v>2</v>
+      </c>
+      <c r="AE26" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AF26" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AH26" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="AI26" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AJ26" s="10">
+        <v>0</v>
+      </c>
+      <c r="AK26" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AL26" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="AM26" s="10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AN26" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="AO26" s="10">
+        <v>0.11</v>
+      </c>
+      <c r="AQ26" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="AR26" s="10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AS26" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="AT26" s="10">
+        <v>1</v>
+      </c>
+      <c r="AU26" s="10">
+        <v>15</v>
+      </c>
+      <c r="AV26" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="AW26" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AX26" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AY26" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="AZ26" s="10">
+        <v>5</v>
+      </c>
+      <c r="BA26" s="10">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="BB26" s="10">
+        <v>0.12</v>
+      </c>
+      <c r="BC26" s="10">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="BD26" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BE26" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="BF26" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BG26" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="BH26" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="BI26" s="10">
+        <v>1</v>
+      </c>
+      <c r="BJ26" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="BK26" s="10" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="B27" s="10" t="b">
         <v>0</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="H27" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="I27" s="10">
-        <v>1</v>
-      </c>
-      <c r="J27" s="10">
-        <v>1</v>
-      </c>
-      <c r="K27" s="10">
-        <v>1</v>
-      </c>
-      <c r="L27" s="10">
+        <v>112</v>
+      </c>
+      <c r="D27" s="10">
+        <v>1</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G27" s="10">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="N27" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="P27" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="Q27" s="10">
+        <v>0</v>
+      </c>
+      <c r="S27" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="T27" s="10">
+        <v>0</v>
+      </c>
+      <c r="U27" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="V27" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="W27" s="10">
+        <v>0</v>
+      </c>
+      <c r="X27" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="Y27" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="Z27" s="10">
+        <v>1E-3</v>
+      </c>
+      <c r="AA27" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AB27" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="10">
+        <v>1</v>
+      </c>
+      <c r="AD27" s="10">
+        <v>1</v>
+      </c>
+      <c r="AH27" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="AI27" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AJ27" s="10">
+        <v>0</v>
+      </c>
+      <c r="AK27" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AL27" s="10">
         <v>0.03</v>
       </c>
-      <c r="M27" s="10">
+      <c r="AM27" s="10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AN27" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="AO27" s="10">
+        <v>0.11</v>
+      </c>
+      <c r="AQ27" s="10">
         <v>0.03</v>
       </c>
+      <c r="AR27" s="10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AS27" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="AT27" s="10">
+        <v>1</v>
+      </c>
+      <c r="AU27" s="10">
+        <v>15</v>
+      </c>
+      <c r="AV27" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="AW27" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AX27" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AY27" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="AZ27" s="10">
+        <v>5</v>
+      </c>
+      <c r="BA27" s="10">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="BB27" s="10">
+        <v>0.12</v>
+      </c>
+      <c r="BC27" s="10">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="BD27" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BE27" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="BF27" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BG27" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="BH27" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="BI27" s="10">
+        <v>1</v>
+      </c>
+      <c r="BJ27" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="BK27" s="10" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="28" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="H28" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="I28" s="10">
-        <v>1</v>
-      </c>
-      <c r="J28" s="10">
-        <v>1</v>
-      </c>
-      <c r="K28" s="10">
-        <v>1</v>
-      </c>
-      <c r="L28" s="10">
+    <row r="28" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="B30" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="H30" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="I30" s="10">
+        <v>1</v>
+      </c>
+      <c r="J30" s="10">
+        <v>1</v>
+      </c>
+      <c r="K30" s="10">
+        <v>1</v>
+      </c>
+      <c r="L30" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="M30" s="10">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="31" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="H31" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="I31" s="10">
+        <v>1</v>
+      </c>
+      <c r="J31" s="10">
+        <v>1</v>
+      </c>
+      <c r="K31" s="10">
+        <v>1</v>
+      </c>
+      <c r="L31" s="10">
         <v>0.06</v>
       </c>
-      <c r="M28" s="10">
+      <c r="M31" s="10">
         <v>0.06</v>
       </c>
     </row>
-    <row r="29" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="B29" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="D29" s="10">
-        <v>1</v>
-      </c>
-      <c r="E29" s="10" t="s">
+    <row r="32" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="B32" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="D32" s="10">
+        <v>1</v>
+      </c>
+      <c r="E32" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="F29" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="G29" s="10">
+      <c r="F32" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="G32" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="H29" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="R29" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="S29" s="10">
-        <v>0</v>
-      </c>
-      <c r="T29" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="U29" s="10">
-        <v>0</v>
-      </c>
-      <c r="V29" s="10">
+      <c r="H32" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="P32" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="Q32" s="10">
+        <v>0</v>
+      </c>
+      <c r="S32" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="T32" s="10">
+        <v>0</v>
+      </c>
+      <c r="U32" s="10">
         <v>0.9</v>
       </c>
-      <c r="W29" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="X29" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y29" s="10">
+      <c r="V32" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="W32" s="10">
+        <v>0</v>
+      </c>
+      <c r="X32" s="10">
         <v>0.9</v>
       </c>
-      <c r="Z29" s="10">
+      <c r="Y32" s="10">
         <v>0.01</v>
       </c>
-      <c r="AA29" s="10">
+      <c r="Z32" s="10">
         <v>1E-3</v>
       </c>
-      <c r="AB29" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AC29" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD29" s="10">
-        <v>1</v>
-      </c>
-      <c r="AE29" s="10">
-        <v>1</v>
-      </c>
-      <c r="AI29" s="10">
+      <c r="AA32" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AB32" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="10">
+        <v>1</v>
+      </c>
+      <c r="AD32" s="10">
+        <v>1</v>
+      </c>
+      <c r="AH32" s="10">
         <v>0.05</v>
       </c>
-      <c r="AJ29" s="10">
+      <c r="AI32" s="10">
         <v>0.5</v>
       </c>
-      <c r="AK29" s="10">
-        <v>0</v>
-      </c>
-      <c r="AL29" s="10">
+      <c r="AJ32" s="10">
+        <v>0</v>
+      </c>
+      <c r="AK32" s="10">
         <v>0.5</v>
       </c>
-      <c r="AM29" s="10">
+      <c r="AL32" s="10">
         <v>0.03</v>
       </c>
-      <c r="AN29" s="10">
+      <c r="AM32" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AO29" s="10">
+      <c r="AN32" s="10">
         <v>0.04</v>
       </c>
-      <c r="AP29" s="10">
+      <c r="AO32" s="10">
         <v>0.11</v>
       </c>
-      <c r="AQ29" s="10">
+      <c r="AQ32" s="10">
         <v>0.03</v>
       </c>
-      <c r="AR29" s="10">
+      <c r="AR32" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AS29" s="10">
+      <c r="AS32" s="10">
         <v>0.7</v>
       </c>
-      <c r="AT29" s="10">
-        <v>1</v>
-      </c>
-      <c r="AU29" s="10">
+      <c r="AT32" s="10">
+        <v>1</v>
+      </c>
+      <c r="AU32" s="10">
         <v>15</v>
       </c>
-      <c r="AV29" s="10" t="s">
+      <c r="AV32" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="AW29" s="10" t="s">
+      <c r="AW32" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="AX29" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AY29" s="10" t="s">
+      <c r="AX32" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AY32" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="AZ29" s="10">
+      <c r="AZ32" s="10">
         <v>5</v>
       </c>
-      <c r="BA29" s="10">
+      <c r="BA32" s="10">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="BB29" s="10">
+      <c r="BB32" s="10">
         <v>0.12</v>
       </c>
-      <c r="BC29" s="10">
+      <c r="BC32" s="10">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="BD29" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BE29" s="10" t="s">
+      <c r="BD32" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BE32" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="BF29" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BG29" s="10">
+      <c r="BF32" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BG32" s="10">
         <v>0.01</v>
       </c>
-      <c r="BH29" s="10" t="s">
+      <c r="BH32" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="BI29" s="10">
+      <c r="BI32" s="10">
         <v>0.75</v>
       </c>
-      <c r="BJ29" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="BK29" s="10" t="b">
+      <c r="BJ32" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="BK32" s="10" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="33" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="34" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
-        <v>56</v>
+        <v>100</v>
       </c>
       <c r="B34" s="10" t="b">
         <v>0</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>56</v>
+        <v>110</v>
       </c>
       <c r="D34" s="10">
         <v>1</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G34" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="R34" s="10">
-        <v>0.02</v>
+      <c r="H34" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="P34" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="Q34" s="10">
+        <v>0</v>
       </c>
       <c r="S34" s="10">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="T34" s="10">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="U34" s="10">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="V34" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="W34" s="10">
+        <v>0</v>
+      </c>
+      <c r="X34" s="10">
         <v>0.9</v>
       </c>
-      <c r="W34" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="X34" s="10">
-        <v>0</v>
-      </c>
       <c r="Y34" s="10">
-        <v>0.9</v>
+        <v>0.01</v>
       </c>
       <c r="Z34" s="10">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="AA34" s="10">
-        <v>1E-3</v>
+        <v>0.02</v>
       </c>
       <c r="AB34" s="10">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="AC34" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD34" s="10">
         <v>1</v>
       </c>
-      <c r="AE34" s="10">
-        <v>1</v>
+      <c r="AH34" s="10">
+        <v>0.05</v>
       </c>
       <c r="AI34" s="10">
-        <v>0.06</v>
+        <v>0.5</v>
+      </c>
+      <c r="AJ34" s="10">
+        <v>0</v>
+      </c>
+      <c r="AK34" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AL34" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="AM34" s="10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AN34" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="AO34" s="10">
+        <v>0.11</v>
+      </c>
+      <c r="AP34" s="10">
+        <v>5</v>
+      </c>
+      <c r="AQ34" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="AR34" s="10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AS34" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="AT34" s="10">
+        <v>1</v>
       </c>
       <c r="AU34" s="10">
         <v>15</v>
@@ -4780,7 +5175,7 @@
         <v>23</v>
       </c>
       <c r="BI34" s="10">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="BJ34" s="10" t="b">
         <v>1</v>
@@ -4791,70 +5186,109 @@
     </row>
     <row r="35" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
-        <v>57</v>
+        <v>120</v>
       </c>
       <c r="B35" s="10" t="b">
         <v>0</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>57</v>
+        <v>110</v>
       </c>
       <c r="D35" s="10">
         <v>1</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G35" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="R35" s="10">
-        <v>0.02</v>
+      <c r="H35" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="P35" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="Q35" s="10">
+        <v>0</v>
       </c>
       <c r="S35" s="10">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="T35" s="10">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="U35" s="10">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="V35" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="W35" s="10">
+        <v>0</v>
+      </c>
+      <c r="X35" s="10">
         <v>0.9</v>
       </c>
-      <c r="W35" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="X35" s="10">
-        <v>0</v>
-      </c>
       <c r="Y35" s="10">
-        <v>0.9</v>
+        <v>0.01</v>
       </c>
       <c r="Z35" s="10">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="AA35" s="10">
-        <v>1E-3</v>
+        <v>0.02</v>
       </c>
       <c r="AB35" s="10">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="AC35" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD35" s="10">
         <v>1</v>
       </c>
-      <c r="AE35" s="10">
-        <v>1</v>
+      <c r="AH35" s="10">
+        <v>0.05</v>
       </c>
       <c r="AI35" s="10">
-        <v>0.06</v>
+        <v>0.5</v>
+      </c>
+      <c r="AJ35" s="10">
+        <v>0</v>
+      </c>
+      <c r="AK35" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AL35" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="AM35" s="10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AN35" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="AO35" s="10">
+        <v>0.11</v>
+      </c>
+      <c r="AP35" s="10">
+        <v>5</v>
+      </c>
+      <c r="AQ35" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="AR35" s="10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AS35" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="AT35" s="10">
+        <v>1</v>
       </c>
       <c r="AU35" s="10">
         <v>15</v>
@@ -4908,1927 +5342,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="B36" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="D36" s="10">
-        <v>1</v>
-      </c>
-      <c r="E36" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="F36" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="G36" s="10">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="R36" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="S36" s="10">
-        <v>0</v>
-      </c>
-      <c r="T36" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="U36" s="10">
-        <v>0</v>
-      </c>
-      <c r="V36" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="W36" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="X36" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y36" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="Z36" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="AA36" s="10">
-        <v>1E-3</v>
-      </c>
-      <c r="AB36" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AC36" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD36" s="10">
-        <v>1</v>
-      </c>
-      <c r="AE36" s="10">
-        <v>1</v>
-      </c>
-      <c r="AI36" s="10">
-        <v>0.06</v>
-      </c>
-      <c r="AU36" s="10">
-        <v>15</v>
-      </c>
-      <c r="AV36" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="AW36" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="AX36" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AY36" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="AZ36" s="10">
-        <v>5</v>
-      </c>
-      <c r="BA36" s="10">
-        <v>8.2199999999999995E-2</v>
-      </c>
-      <c r="BB36" s="10">
-        <v>0.12</v>
-      </c>
-      <c r="BC36" s="10">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="BD36" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BE36" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="BF36" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BG36" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="BH36" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="BI36" s="10">
-        <v>1</v>
-      </c>
-      <c r="BJ36" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="BK36" s="10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B37" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="D37" s="10">
-        <v>1</v>
-      </c>
-      <c r="E37" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="F37" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="G37" s="10">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="R37" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="S37" s="10">
-        <v>0</v>
-      </c>
-      <c r="T37" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="U37" s="10">
-        <v>0</v>
-      </c>
-      <c r="V37" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="W37" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="X37" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y37" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="Z37" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="AA37" s="10">
-        <v>1E-3</v>
-      </c>
-      <c r="AB37" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AC37" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD37" s="10">
-        <v>1</v>
-      </c>
-      <c r="AE37" s="10">
-        <v>1</v>
-      </c>
-      <c r="AI37" s="10">
-        <v>0.06</v>
-      </c>
-      <c r="AU37" s="10">
-        <v>15</v>
-      </c>
-      <c r="AV37" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="AW37" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="AX37" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AY37" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="AZ37" s="10">
-        <v>5</v>
-      </c>
-      <c r="BA37" s="10">
-        <v>8.2199999999999995E-2</v>
-      </c>
-      <c r="BB37" s="10">
-        <v>0.12</v>
-      </c>
-      <c r="BC37" s="10">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="BD37" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BE37" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="BF37" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BG37" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="BH37" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="BI37" s="10">
-        <v>1</v>
-      </c>
-      <c r="BJ37" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="BK37" s="10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="B38" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="D38" s="10">
-        <v>1</v>
-      </c>
-      <c r="E38" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="F38" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="G38" s="10">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="R38" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="S38" s="10">
-        <v>0</v>
-      </c>
-      <c r="T38" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="U38" s="10">
-        <v>0</v>
-      </c>
-      <c r="V38" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="W38" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="X38" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y38" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="Z38" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="AA38" s="10">
-        <v>1E-3</v>
-      </c>
-      <c r="AB38" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AC38" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD38" s="10">
-        <v>1</v>
-      </c>
-      <c r="AE38" s="10">
-        <v>1</v>
-      </c>
-      <c r="AF38" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AG38" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AI38" s="10">
-        <v>0.06</v>
-      </c>
-      <c r="AU38" s="10">
-        <v>15</v>
-      </c>
-      <c r="AV38" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="AW38" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="AX38" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AY38" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="AZ38" s="10">
-        <v>5</v>
-      </c>
-      <c r="BA38" s="10">
-        <v>8.2199999999999995E-2</v>
-      </c>
-      <c r="BB38" s="10">
-        <v>0.12</v>
-      </c>
-      <c r="BC38" s="10">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="BD38" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BE38" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="BF38" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BG38" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="BH38" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="BI38" s="10">
-        <v>1</v>
-      </c>
-      <c r="BJ38" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="BK38" s="10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="B39" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="D39" s="10">
-        <v>1</v>
-      </c>
-      <c r="E39" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="F39" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="G39" s="10">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="R39" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="S39" s="10">
-        <v>0</v>
-      </c>
-      <c r="T39" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="U39" s="10">
-        <v>0</v>
-      </c>
-      <c r="V39" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="W39" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="X39" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y39" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="Z39" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="AA39" s="10">
-        <v>1E-3</v>
-      </c>
-      <c r="AB39" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AC39" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD39" s="10">
-        <v>1</v>
-      </c>
-      <c r="AE39" s="10">
-        <v>2</v>
-      </c>
-      <c r="AF39" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AG39" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AI39" s="10">
-        <v>0.06</v>
-      </c>
-      <c r="AU39" s="10">
-        <v>15</v>
-      </c>
-      <c r="AV39" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="AW39" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="AX39" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AY39" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="AZ39" s="10">
-        <v>5</v>
-      </c>
-      <c r="BA39" s="10">
-        <v>8.2199999999999995E-2</v>
-      </c>
-      <c r="BB39" s="10">
-        <v>0.12</v>
-      </c>
-      <c r="BC39" s="10">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="BD39" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BE39" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="BF39" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BG39" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="BH39" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="BI39" s="10">
-        <v>1</v>
-      </c>
-      <c r="BJ39" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="BK39" s="10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="B40" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="D40" s="10">
-        <v>1</v>
-      </c>
-      <c r="E40" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="F40" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="G40" s="10">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="R40" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="S40" s="10">
-        <v>0</v>
-      </c>
-      <c r="T40" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="U40" s="10">
-        <v>0</v>
-      </c>
-      <c r="V40" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="W40" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="X40" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y40" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="Z40" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="AA40" s="10">
-        <v>1E-3</v>
-      </c>
-      <c r="AB40" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AC40" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD40" s="10">
-        <v>1</v>
-      </c>
-      <c r="AE40" s="10">
-        <v>1</v>
-      </c>
-      <c r="AF40" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AG40" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AI40" s="10">
-        <v>0.06</v>
-      </c>
-      <c r="AU40" s="10">
-        <v>15</v>
-      </c>
-      <c r="AV40" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="AW40" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="AX40" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AY40" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="AZ40" s="10">
-        <v>5</v>
-      </c>
-      <c r="BA40" s="10">
-        <v>8.2199999999999995E-2</v>
-      </c>
-      <c r="BB40" s="10">
-        <v>0.12</v>
-      </c>
-      <c r="BC40" s="10">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="BD40" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BE40" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="BF40" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BG40" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="BH40" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="BI40" s="10">
-        <v>1</v>
-      </c>
-      <c r="BJ40" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="BK40" s="10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="B41" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="D41" s="10">
-        <v>1</v>
-      </c>
-      <c r="E41" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="F41" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="G41" s="10">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="R41" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="S41" s="10">
-        <v>0</v>
-      </c>
-      <c r="T41" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="U41" s="10">
-        <v>0</v>
-      </c>
-      <c r="V41" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="W41" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="X41" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y41" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="Z41" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="AA41" s="10">
-        <v>1E-3</v>
-      </c>
-      <c r="AB41" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AC41" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD41" s="10">
-        <v>1</v>
-      </c>
-      <c r="AE41" s="10">
-        <v>2</v>
-      </c>
-      <c r="AF41" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AG41" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AI41" s="10">
-        <v>0.06</v>
-      </c>
-      <c r="AU41" s="10">
-        <v>15</v>
-      </c>
-      <c r="AV41" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="AW41" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="AX41" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AY41" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="AZ41" s="10">
-        <v>5</v>
-      </c>
-      <c r="BA41" s="10">
-        <v>8.2199999999999995E-2</v>
-      </c>
-      <c r="BB41" s="10">
-        <v>0.12</v>
-      </c>
-      <c r="BC41" s="10">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="BD41" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BE41" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="BF41" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BG41" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="BH41" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="BI41" s="10">
-        <v>1</v>
-      </c>
-      <c r="BJ41" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="BK41" s="10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="BF42" s="10"/>
-      <c r="BG42" s="10"/>
-    </row>
-    <row r="43" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="B43" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D43" s="10">
-        <v>1</v>
-      </c>
-      <c r="E43" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="F43" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="G43" s="10">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="R43" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="S43" s="10">
-        <v>0</v>
-      </c>
-      <c r="T43" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="U43" s="10">
-        <v>0</v>
-      </c>
-      <c r="V43" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="W43" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="X43" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y43" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="Z43" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="AA43" s="10">
-        <v>1E-3</v>
-      </c>
-      <c r="AB43" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AC43" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD43" s="10">
-        <v>1</v>
-      </c>
-      <c r="AE43" s="10">
-        <v>1</v>
-      </c>
-      <c r="AH43" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AI43" s="10">
-        <v>0.06</v>
-      </c>
-      <c r="AU43" s="10">
-        <v>15</v>
-      </c>
-      <c r="AV43" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="AW43" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="AX43" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AY43" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="AZ43" s="10">
-        <v>5</v>
-      </c>
-      <c r="BA43" s="10">
-        <v>8.2199999999999995E-2</v>
-      </c>
-      <c r="BB43" s="10">
-        <v>0.12</v>
-      </c>
-      <c r="BC43" s="10">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="BD43" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BE43" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="BF43" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BG43" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="BH43" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="BI43" s="10">
-        <v>1</v>
-      </c>
-      <c r="BJ43" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="BK43" s="10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="B45" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="C45" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="D45" s="10">
-        <v>1</v>
-      </c>
-      <c r="E45" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="F45" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="G45" s="10">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="R45" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="S45" s="10">
-        <v>0</v>
-      </c>
-      <c r="T45" s="10">
-        <v>0.04</v>
-      </c>
-      <c r="U45" s="10">
-        <v>0</v>
-      </c>
-      <c r="V45" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="W45" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="X45" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y45" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="Z45" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="AA45" s="10">
-        <v>1E-3</v>
-      </c>
-      <c r="AB45" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AC45" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD45" s="10">
-        <v>1</v>
-      </c>
-      <c r="AE45" s="10">
-        <v>1</v>
-      </c>
-      <c r="AI45" s="10">
-        <v>0.06</v>
-      </c>
-      <c r="AU45" s="10">
-        <v>15</v>
-      </c>
-      <c r="AV45" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="AW45" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="AX45" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AY45" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="AZ45" s="10">
-        <v>5</v>
-      </c>
-      <c r="BA45" s="10">
-        <v>8.2199999999999995E-2</v>
-      </c>
-      <c r="BB45" s="10">
-        <v>0.12</v>
-      </c>
-      <c r="BC45" s="10">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="BD45" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BE45" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="BF45" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BG45" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="BH45" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="BI45" s="10">
-        <v>1</v>
-      </c>
-      <c r="BJ45" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="BK45" s="10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="B46" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="C46" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="D46" s="10">
-        <v>1</v>
-      </c>
-      <c r="E46" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="F46" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="G46" s="10">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="R46" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="S46" s="10">
-        <v>0</v>
-      </c>
-      <c r="T46" s="10">
-        <v>0.04</v>
-      </c>
-      <c r="U46" s="10">
-        <v>0</v>
-      </c>
-      <c r="V46" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="W46" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="X46" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y46" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="Z46" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="AA46" s="10">
-        <v>1E-3</v>
-      </c>
-      <c r="AB46" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AC46" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD46" s="10">
-        <v>1</v>
-      </c>
-      <c r="AE46" s="10">
-        <v>1</v>
-      </c>
-      <c r="AI46" s="10">
-        <v>0.06</v>
-      </c>
-      <c r="AU46" s="10">
-        <v>15</v>
-      </c>
-      <c r="AV46" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="AW46" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="AX46" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AY46" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="AZ46" s="10">
-        <v>5</v>
-      </c>
-      <c r="BA46" s="10">
-        <v>8.2199999999999995E-2</v>
-      </c>
-      <c r="BB46" s="10">
-        <v>0.12</v>
-      </c>
-      <c r="BC46" s="10">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="BD46" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BE46" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="BF46" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BG46" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="BH46" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="BI46" s="10">
-        <v>1</v>
-      </c>
-      <c r="BJ46" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="BK46" s="10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="B48" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D48" s="10">
-        <v>2</v>
-      </c>
-      <c r="E48" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="G48" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="R48" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="S48" s="10">
-        <v>0</v>
-      </c>
-      <c r="T48" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="U48" s="10">
-        <v>0</v>
-      </c>
-      <c r="V48" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="W48" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="X48" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y48" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="Z48" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="AA48" s="10">
-        <v>1E-3</v>
-      </c>
-      <c r="AB48" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AC48" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD48" s="10">
-        <v>1</v>
-      </c>
-      <c r="AE48" s="10">
-        <v>1</v>
-      </c>
-      <c r="AI48" s="10">
-        <v>0.06</v>
-      </c>
-      <c r="AU48" s="10">
-        <v>15</v>
-      </c>
-      <c r="AV48" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="AW48" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="AX48" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AY48" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="AZ48" s="10">
-        <v>5</v>
-      </c>
-      <c r="BA48" s="11">
-        <v>6.7199999999999996E-2</v>
-      </c>
-      <c r="BB48" s="10">
-        <v>0.12</v>
-      </c>
-      <c r="BC48" s="10">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="BD48" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BE48" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="BF48" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BG48" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="BH48" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="BI48" s="10">
-        <v>1</v>
-      </c>
-      <c r="BJ48" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="BK48" s="10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="B49" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="D49" s="10">
-        <v>2</v>
-      </c>
-      <c r="E49" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="G49" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="R49" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="S49" s="10">
-        <v>0</v>
-      </c>
-      <c r="T49" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="U49" s="10">
-        <v>0</v>
-      </c>
-      <c r="V49" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="W49" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="X49" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y49" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="Z49" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="AA49" s="10">
-        <v>1E-3</v>
-      </c>
-      <c r="AB49" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AC49" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD49" s="10">
-        <v>1</v>
-      </c>
-      <c r="AE49" s="10">
-        <v>1</v>
-      </c>
-      <c r="AI49" s="10">
-        <v>0.06</v>
-      </c>
-      <c r="AU49" s="10">
-        <v>15</v>
-      </c>
-      <c r="AV49" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="AW49" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="AX49" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AY49" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="AZ49" s="10">
-        <v>5</v>
-      </c>
-      <c r="BA49" s="11">
-        <v>6.7199999999999996E-2</v>
-      </c>
-      <c r="BB49" s="10">
-        <v>0.12</v>
-      </c>
-      <c r="BC49" s="10">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="BD49" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BE49" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="BF49" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BG49" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="BH49" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="BI49" s="10">
-        <v>1</v>
-      </c>
-      <c r="BJ49" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="BK49" s="10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="B50" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="C50" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="D50" s="10">
-        <v>2</v>
-      </c>
-      <c r="E50" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="G50" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="R50" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="S50" s="10">
-        <v>0</v>
-      </c>
-      <c r="T50" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="U50" s="10">
-        <v>0</v>
-      </c>
-      <c r="V50" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="W50" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="X50" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y50" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="Z50" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="AA50" s="10">
-        <v>1E-3</v>
-      </c>
-      <c r="AB50" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AC50" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD50" s="10">
-        <v>1</v>
-      </c>
-      <c r="AE50" s="10">
-        <v>1</v>
-      </c>
-      <c r="AI50" s="10">
-        <v>0.06</v>
-      </c>
-      <c r="AU50" s="10">
-        <v>15</v>
-      </c>
-      <c r="AV50" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="AW50" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="AX50" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AY50" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="AZ50" s="10">
-        <v>5</v>
-      </c>
-      <c r="BA50" s="11">
-        <v>6.7199999999999996E-2</v>
-      </c>
-      <c r="BB50" s="10">
-        <v>0.12</v>
-      </c>
-      <c r="BC50" s="10">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="BD50" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BE50" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="BF50" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BG50" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="BH50" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="BI50" s="10">
-        <v>1</v>
-      </c>
-      <c r="BJ50" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="BK50" s="10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="B51" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="C51" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="D51" s="10">
-        <v>2</v>
-      </c>
-      <c r="E51" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="G51" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="R51" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="S51" s="10">
-        <v>0</v>
-      </c>
-      <c r="T51" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="U51" s="10">
-        <v>0</v>
-      </c>
-      <c r="V51" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="W51" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="X51" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y51" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="Z51" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="AA51" s="10">
-        <v>1E-3</v>
-      </c>
-      <c r="AB51" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AC51" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD51" s="10">
-        <v>1</v>
-      </c>
-      <c r="AE51" s="10">
-        <v>1</v>
-      </c>
-      <c r="AI51" s="10">
-        <v>0.06</v>
-      </c>
-      <c r="AU51" s="10">
-        <v>15</v>
-      </c>
-      <c r="AV51" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="AW51" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="AX51" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AY51" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="AZ51" s="10">
-        <v>5</v>
-      </c>
-      <c r="BA51" s="11">
-        <v>6.7199999999999996E-2</v>
-      </c>
-      <c r="BB51" s="10">
-        <v>0.12</v>
-      </c>
-      <c r="BC51" s="10">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="BD51" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BE51" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="BF51" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BG51" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="BH51" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="BI51" s="10">
-        <v>1</v>
-      </c>
-      <c r="BJ51" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="BK51" s="10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="B52" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="C52" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="D52" s="10">
-        <v>2</v>
-      </c>
-      <c r="E52" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="G52" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="R52" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="S52" s="10">
-        <v>0</v>
-      </c>
-      <c r="T52" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="U52" s="10">
-        <v>0</v>
-      </c>
-      <c r="V52" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="W52" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="X52" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y52" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="Z52" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="AA52" s="10">
-        <v>1E-3</v>
-      </c>
-      <c r="AB52" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AC52" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD52" s="10">
-        <v>1</v>
-      </c>
-      <c r="AE52" s="10">
-        <v>1</v>
-      </c>
-      <c r="AI52" s="10">
-        <v>0.06</v>
-      </c>
-      <c r="AU52" s="10">
-        <v>15</v>
-      </c>
-      <c r="AV52" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="AW52" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="AX52" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AY52" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="AZ52" s="10">
-        <v>5</v>
-      </c>
-      <c r="BA52" s="11">
-        <v>6.7199999999999996E-2</v>
-      </c>
-      <c r="BB52" s="10">
-        <v>0.12</v>
-      </c>
-      <c r="BC52" s="10">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="BD52" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BE52" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="BF52" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BG52" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="BH52" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="BI52" s="10">
-        <v>1</v>
-      </c>
-      <c r="BJ52" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="BK52" s="10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="B53" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="C53" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="D53" s="10">
-        <v>2</v>
-      </c>
-      <c r="E53" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="G53" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="R53" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="S53" s="10">
-        <v>0</v>
-      </c>
-      <c r="T53" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="U53" s="10">
-        <v>0</v>
-      </c>
-      <c r="V53" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="W53" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="X53" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y53" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="Z53" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="AA53" s="10">
-        <v>1E-3</v>
-      </c>
-      <c r="AB53" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AC53" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD53" s="10">
-        <v>1</v>
-      </c>
-      <c r="AE53" s="10">
-        <v>1</v>
-      </c>
-      <c r="AI53" s="10">
-        <v>0.06</v>
-      </c>
-      <c r="AU53" s="10">
-        <v>15</v>
-      </c>
-      <c r="AV53" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="AW53" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="AX53" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AY53" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="AZ53" s="10">
-        <v>5</v>
-      </c>
-      <c r="BA53" s="11">
-        <v>6.7199999999999996E-2</v>
-      </c>
-      <c r="BB53" s="10">
-        <v>0.12</v>
-      </c>
-      <c r="BC53" s="10">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="BD53" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BE53" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="BF53" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BG53" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="BH53" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="BI53" s="10">
-        <v>1</v>
-      </c>
-      <c r="BJ53" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="BK53" s="10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="B54" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="C54" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="D54" s="10">
-        <v>2</v>
-      </c>
-      <c r="E54" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="G54" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="R54" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="S54" s="10">
-        <v>0</v>
-      </c>
-      <c r="T54" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="U54" s="10">
-        <v>0</v>
-      </c>
-      <c r="V54" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="W54" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="X54" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y54" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="Z54" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="AA54" s="10">
-        <v>1E-3</v>
-      </c>
-      <c r="AB54" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AC54" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD54" s="10">
-        <v>1</v>
-      </c>
-      <c r="AE54" s="10">
-        <v>2</v>
-      </c>
-      <c r="AI54" s="10">
-        <v>0.06</v>
-      </c>
-      <c r="AU54" s="10">
-        <v>15</v>
-      </c>
-      <c r="AV54" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="AW54" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="AX54" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AY54" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="AZ54" s="10">
-        <v>5</v>
-      </c>
-      <c r="BA54" s="11">
-        <v>6.7199999999999996E-2</v>
-      </c>
-      <c r="BB54" s="10">
-        <v>0.12</v>
-      </c>
-      <c r="BC54" s="10">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="BD54" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BE54" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="BF54" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BG54" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="BH54" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="BI54" s="10">
-        <v>1</v>
-      </c>
-      <c r="BJ54" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="BK54" s="10" t="b">
-        <v>1</v>
-      </c>
-    </row>
+    <row r="36" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B48:B54 B43:B46 B27:B41 B3:B25" xr:uid="{05E01AB2-72EC-4550-ACB8-4E83765DE296}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B30:B38 B3:B28" xr:uid="{05E01AB2-72EC-4550-ACB8-4E83765DE296}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H13 H27:H29 H16:H24" xr:uid="{8DBFC5CB-438A-4309-B948-24597CAE3D7F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H30:H32 H34:H35 H3:H14 H17:H26" xr:uid="{8DBFC5CB-438A-4309-B948-24597CAE3D7F}">
       <formula1>"preSet, ALpct,MApct"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6841,7 +5363,7 @@
           <x14:formula1>
             <xm:f>Policies!$B$3:$B$9</xm:f>
           </x14:formula1>
-          <xm:sqref>F29 F27 F3:F25</xm:sqref>
+          <xm:sqref>F32 F30 F34:F35 F3:F28</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -6854,8 +5376,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6931,66 +5453,66 @@
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
-        <v>112</v>
+      <c r="A3" s="13" t="s">
+        <v>85</v>
       </c>
       <c r="B3" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="B4" t="s">
-        <v>113</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="B5" t="s">
-        <v>144</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="B6" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="B7" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>109</v>
+        <v>82</v>
       </c>
       <c r="B8" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B9" t="s">
-        <v>117</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/RunControl.xlsx
+++ b/RunControl.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E041E56A-4F36-43C0-B33A-F3D2DE6BA7CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03CD114D-463D-4E7B-BCE1-4F0AA962A651}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="142">
   <si>
     <t>runname</t>
   </si>
@@ -444,6 +444,18 @@
   </si>
   <si>
     <t>cola_returnSmooth_FR100</t>
+  </si>
+  <si>
+    <t>cola_returnSmooth_calib</t>
+  </si>
+  <si>
+    <t>cola_FR_calib</t>
+  </si>
+  <si>
+    <t>cola_returnSmooth_calib_FR100</t>
+  </si>
+  <si>
+    <t>cola_FR_calib_FR100</t>
   </si>
 </sst>
 </file>
@@ -814,22 +826,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:BK38"/>
+  <dimension ref="A1:BK42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="2" topLeftCell="AN3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="2" topLeftCell="O3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AN44" sqref="AN44"/>
+      <selection pane="bottomRight" activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.7109375" customWidth="1"/>
+    <col min="1" max="1" width="30.85546875" customWidth="1"/>
     <col min="2" max="2" width="10.140625" customWidth="1"/>
     <col min="3" max="4" width="11.7109375" customWidth="1"/>
     <col min="5" max="5" width="11.140625" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" customWidth="1"/>
     <col min="7" max="7" width="16.5703125" customWidth="1"/>
     <col min="8" max="8" width="11.7109375" customWidth="1"/>
     <col min="9" max="13" width="12.85546875" customWidth="1"/>
@@ -1161,6 +1173,9 @@
       <c r="Q3" s="10">
         <v>0</v>
       </c>
+      <c r="R3" s="10">
+        <v>1</v>
+      </c>
       <c r="S3" s="10">
         <v>0.02</v>
       </c>
@@ -1220,6 +1235,9 @@
       </c>
       <c r="AO3" s="10">
         <v>0.11</v>
+      </c>
+      <c r="AP3" s="10">
+        <v>1</v>
       </c>
       <c r="AQ3" s="10">
         <v>0.03</v>
@@ -1320,6 +1338,9 @@
       <c r="Q5" s="10">
         <v>0</v>
       </c>
+      <c r="R5" s="10">
+        <v>1</v>
+      </c>
       <c r="S5" s="10">
         <v>0.02</v>
       </c>
@@ -1379,6 +1400,9 @@
       </c>
       <c r="AO5" s="10">
         <v>0.11</v>
+      </c>
+      <c r="AP5" s="10">
+        <v>1</v>
       </c>
       <c r="AQ5" s="10">
         <v>0.03</v>
@@ -1478,6 +1502,9 @@
       <c r="Q6" s="10">
         <v>0</v>
       </c>
+      <c r="R6" s="10">
+        <v>1</v>
+      </c>
       <c r="S6" s="10">
         <v>0.02</v>
       </c>
@@ -1537,6 +1564,9 @@
       </c>
       <c r="AO6" s="10">
         <v>0.11</v>
+      </c>
+      <c r="AP6" s="10">
+        <v>1</v>
       </c>
       <c r="AQ6" s="10">
         <v>0.03</v>
@@ -2024,6 +2054,9 @@
       <c r="AO9" s="10">
         <v>0.11</v>
       </c>
+      <c r="AP9" s="10">
+        <v>1</v>
+      </c>
       <c r="AQ9" s="10">
         <v>0.03</v>
       </c>
@@ -2286,7 +2319,7 @@
       <c r="Q11" s="10">
         <v>0</v>
       </c>
-      <c r="R11" s="10">
+      <c r="R11" s="14">
         <v>5</v>
       </c>
       <c r="S11" s="10">
@@ -2416,9 +2449,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:63" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>55</v>
+        <v>138</v>
       </c>
       <c r="B12" s="10" t="b">
         <v>0</v>
@@ -2430,7 +2463,7 @@
         <v>1</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F12" s="10" t="s">
         <v>63</v>
@@ -2445,10 +2478,13 @@
         <v>135</v>
       </c>
       <c r="P12" s="10">
-        <v>0.02</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="Q12" s="10">
-        <v>0</v>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="R12" s="14">
+        <v>5</v>
       </c>
       <c r="S12" s="10">
         <v>0.02</v>
@@ -2510,6 +2546,9 @@
       <c r="AO12" s="10">
         <v>0.11</v>
       </c>
+      <c r="AP12" s="10">
+        <v>5</v>
+      </c>
       <c r="AQ12" s="10">
         <v>0.03</v>
       </c>
@@ -2574,9 +2613,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:63" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>104</v>
+        <v>55</v>
       </c>
       <c r="B13" s="10" t="b">
         <v>0</v>
@@ -2588,7 +2627,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>63</v>
@@ -2608,6 +2647,9 @@
       <c r="Q13" s="10">
         <v>0</v>
       </c>
+      <c r="R13" s="10">
+        <v>1</v>
+      </c>
       <c r="S13" s="10">
         <v>0.02</v>
       </c>
@@ -2668,6 +2710,9 @@
       <c r="AO13" s="10">
         <v>0.11</v>
       </c>
+      <c r="AP13" s="10">
+        <v>1</v>
+      </c>
       <c r="AQ13" s="10">
         <v>0.03</v>
       </c>
@@ -2732,9 +2777,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:63" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>106</v>
+        <v>139</v>
       </c>
       <c r="B14" s="10" t="b">
         <v>0</v>
@@ -2746,7 +2791,7 @@
         <v>1</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>63</v>
@@ -2766,14 +2811,17 @@
       <c r="Q14" s="10">
         <v>0</v>
       </c>
+      <c r="R14" s="10">
+        <v>1</v>
+      </c>
       <c r="S14" s="10">
-        <v>0.02</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="T14" s="10">
-        <v>0</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="U14" s="10">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="V14" s="10">
         <v>0.02</v>
@@ -2800,13 +2848,7 @@
         <v>1</v>
       </c>
       <c r="AD14" s="10">
-        <v>2</v>
-      </c>
-      <c r="AE14" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AF14" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AH14" s="10">
         <v>0.05</v>
@@ -2831,6 +2873,9 @@
       </c>
       <c r="AO14" s="10">
         <v>0.11</v>
+      </c>
+      <c r="AP14" s="10">
+        <v>1</v>
       </c>
       <c r="AQ14" s="10">
         <v>0.03</v>
@@ -2898,19 +2943,19 @@
     </row>
     <row r="15" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B15" s="10" t="b">
         <v>0</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D15" s="10">
         <v>1</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F15" s="10" t="s">
         <v>63</v>
@@ -2918,6 +2963,9 @@
       <c r="G15" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
+      <c r="H15" s="10" t="s">
+        <v>77</v>
+      </c>
       <c r="N15" s="10" t="s">
         <v>135</v>
       </c>
@@ -2927,6 +2975,9 @@
       <c r="Q15" s="10">
         <v>0</v>
       </c>
+      <c r="R15" s="10">
+        <v>1</v>
+      </c>
       <c r="S15" s="10">
         <v>0.02</v>
       </c>
@@ -2987,6 +3038,9 @@
       <c r="AO15" s="10">
         <v>0.11</v>
       </c>
+      <c r="AP15" s="10">
+        <v>1</v>
+      </c>
       <c r="AQ15" s="10">
         <v>0.03</v>
       </c>
@@ -3051,16 +3105,185 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="B16" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="D16" s="10">
+        <v>1</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G16" s="10">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="N16" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="P16" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="Q16" s="10">
+        <v>0</v>
+      </c>
+      <c r="R16" s="10">
+        <v>1</v>
+      </c>
+      <c r="S16" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="T16" s="10">
+        <v>0</v>
+      </c>
+      <c r="U16" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="V16" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="W16" s="10">
+        <v>0</v>
+      </c>
+      <c r="X16" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="Y16" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="Z16" s="10">
+        <v>1E-3</v>
+      </c>
+      <c r="AA16" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AB16" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="10">
+        <v>1</v>
+      </c>
+      <c r="AD16" s="10">
+        <v>2</v>
+      </c>
+      <c r="AE16" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AF16" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AH16" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="AI16" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AJ16" s="10">
+        <v>0</v>
+      </c>
+      <c r="AK16" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AL16" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="AM16" s="10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AN16" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="AO16" s="10">
+        <v>0.11</v>
+      </c>
+      <c r="AP16" s="10">
+        <v>1</v>
+      </c>
+      <c r="AQ16" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="AR16" s="10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AS16" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="AT16" s="10">
+        <v>1</v>
+      </c>
+      <c r="AU16" s="10">
+        <v>15</v>
+      </c>
+      <c r="AV16" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="AW16" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AX16" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AY16" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="AZ16" s="10">
+        <v>5</v>
+      </c>
+      <c r="BA16" s="10">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="BB16" s="10">
+        <v>0.12</v>
+      </c>
+      <c r="BC16" s="10">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="BD16" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BE16" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="BF16" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BG16" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="BH16" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="BI16" s="10">
+        <v>0.75</v>
+      </c>
+      <c r="BJ16" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="BK16" s="10" t="b">
+        <v>1</v>
+      </c>
+    </row>
     <row r="17" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="B17" s="10" t="b">
         <v>0</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D17" s="10">
         <v>1</v>
@@ -3074,9 +3297,6 @@
       <c r="G17" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="H17" s="10" t="s">
-        <v>77</v>
-      </c>
       <c r="N17" s="10" t="s">
         <v>135</v>
       </c>
@@ -3086,6 +3306,9 @@
       <c r="Q17" s="10">
         <v>0</v>
       </c>
+      <c r="R17" s="10">
+        <v>1</v>
+      </c>
       <c r="S17" s="10">
         <v>0.02</v>
       </c>
@@ -3146,6 +3369,9 @@
       <c r="AO17" s="10">
         <v>0.11</v>
       </c>
+      <c r="AP17" s="10">
+        <v>1</v>
+      </c>
       <c r="AQ17" s="10">
         <v>0.03</v>
       </c>
@@ -3201,7 +3427,7 @@
         <v>23</v>
       </c>
       <c r="BI17" s="10">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="BJ17" s="10" t="b">
         <v>1</v>
@@ -3210,173 +3436,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="B18" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="D18" s="10">
-        <v>1</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="G18" s="10">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="H18" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="N18" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="P18" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="Q18" s="10">
-        <v>0</v>
-      </c>
-      <c r="S18" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="T18" s="10">
-        <v>0</v>
-      </c>
-      <c r="U18" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="V18" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="W18" s="10">
-        <v>0</v>
-      </c>
-      <c r="X18" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="Y18" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="Z18" s="10">
-        <v>1E-3</v>
-      </c>
-      <c r="AA18" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AB18" s="10">
-        <v>0</v>
-      </c>
-      <c r="AC18" s="10">
-        <v>1</v>
-      </c>
-      <c r="AD18" s="10">
-        <v>1</v>
-      </c>
-      <c r="AH18" s="10">
-        <v>0.05</v>
-      </c>
-      <c r="AI18" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AJ18" s="10">
-        <v>0.05</v>
-      </c>
-      <c r="AK18" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AL18" s="10">
-        <v>0.03</v>
-      </c>
-      <c r="AM18" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AN18" s="10">
-        <v>0.04</v>
-      </c>
-      <c r="AO18" s="10">
-        <v>0.11</v>
-      </c>
-      <c r="AQ18" s="10">
-        <v>0.03</v>
-      </c>
-      <c r="AR18" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AS18" s="10">
-        <v>0.7</v>
-      </c>
-      <c r="AT18" s="10">
-        <v>1</v>
-      </c>
-      <c r="AU18" s="10">
-        <v>15</v>
-      </c>
-      <c r="AV18" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="AW18" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="AX18" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AY18" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="AZ18" s="10">
-        <v>5</v>
-      </c>
-      <c r="BA18" s="10">
-        <v>8.2199999999999995E-2</v>
-      </c>
-      <c r="BB18" s="10">
-        <v>0.12</v>
-      </c>
-      <c r="BC18" s="10">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="BD18" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BE18" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="BF18" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BG18" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="BH18" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="BI18" s="10">
-        <v>1</v>
-      </c>
-      <c r="BJ18" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="BK18" s="10" t="b">
-        <v>1</v>
-      </c>
-    </row>
+    <row r="18" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B19" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D19" s="10">
         <v>1</v>
@@ -3385,7 +3454,7 @@
         <v>50</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="G19" s="10">
         <v>1.4999999999999999E-2</v>
@@ -3534,10 +3603,10 @@
     </row>
     <row r="20" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="B20" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>110</v>
@@ -3549,7 +3618,7 @@
         <v>50</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G20" s="10">
         <v>1.4999999999999999E-2</v>
@@ -3567,7 +3636,7 @@
         <v>0</v>
       </c>
       <c r="R20" s="10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S20" s="10">
         <v>0.02</v>
@@ -3612,7 +3681,7 @@
         <v>0.5</v>
       </c>
       <c r="AJ20" s="10">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="AK20" s="10">
         <v>0.5</v>
@@ -3630,7 +3699,7 @@
         <v>0.11</v>
       </c>
       <c r="AP20" s="10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AQ20" s="10">
         <v>0.03</v>
@@ -3698,7 +3767,7 @@
     </row>
     <row r="21" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B21" s="10" t="b">
         <v>0</v>
@@ -3713,7 +3782,7 @@
         <v>50</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G21" s="10">
         <v>1.4999999999999999E-2</v>
@@ -3730,6 +3799,9 @@
       <c r="Q21" s="10">
         <v>0</v>
       </c>
+      <c r="R21" s="10">
+        <v>1</v>
+      </c>
       <c r="S21" s="10">
         <v>0.02</v>
       </c>
@@ -3789,6 +3861,9 @@
       </c>
       <c r="AO21" s="10">
         <v>0.11</v>
+      </c>
+      <c r="AP21" s="10">
+        <v>1</v>
       </c>
       <c r="AQ21" s="10">
         <v>0.03</v>
@@ -3856,22 +3931,22 @@
     </row>
     <row r="22" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="B22" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D22" s="10">
         <v>1</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="G22" s="10">
         <v>1.4999999999999999E-2</v>
@@ -3888,8 +3963,8 @@
       <c r="Q22" s="10">
         <v>0</v>
       </c>
-      <c r="R22" s="10">
-        <v>1</v>
+      <c r="R22" s="14">
+        <v>5</v>
       </c>
       <c r="S22" s="10">
         <v>0.02</v>
@@ -3952,7 +4027,7 @@
         <v>0.11</v>
       </c>
       <c r="AP22" s="10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AQ22" s="10">
         <v>0.03</v>
@@ -4020,22 +4095,22 @@
     </row>
     <row r="23" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="B23" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D23" s="10">
         <v>1</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="G23" s="10">
         <v>1.4999999999999999E-2</v>
@@ -4053,7 +4128,7 @@
         <v>0</v>
       </c>
       <c r="R23" s="10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S23" s="10">
         <v>0.02</v>
@@ -4116,7 +4191,7 @@
         <v>0.11</v>
       </c>
       <c r="AP23" s="10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AQ23" s="10">
         <v>0.03</v>
@@ -4182,9 +4257,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:63" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B24" s="10" t="b">
         <v>0</v>
@@ -4196,7 +4271,7 @@
         <v>1</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F24" s="10" t="s">
         <v>63</v>
@@ -4216,6 +4291,9 @@
       <c r="Q24" s="10">
         <v>0</v>
       </c>
+      <c r="R24" s="10">
+        <v>1</v>
+      </c>
       <c r="S24" s="10">
         <v>0.02</v>
       </c>
@@ -4275,6 +4353,9 @@
       </c>
       <c r="AO24" s="10">
         <v>0.11</v>
+      </c>
+      <c r="AP24" s="10">
+        <v>1</v>
       </c>
       <c r="AQ24" s="10">
         <v>0.03</v>
@@ -4342,7 +4423,7 @@
     </row>
     <row r="25" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="B25" s="10" t="b">
         <v>0</v>
@@ -4354,7 +4435,7 @@
         <v>1</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F25" s="10" t="s">
         <v>63</v>
@@ -4374,6 +4455,9 @@
       <c r="Q25" s="10">
         <v>0</v>
       </c>
+      <c r="R25" s="14">
+        <v>5</v>
+      </c>
       <c r="S25" s="10">
         <v>0.02</v>
       </c>
@@ -4433,6 +4517,9 @@
       </c>
       <c r="AO25" s="10">
         <v>0.11</v>
+      </c>
+      <c r="AP25" s="10">
+        <v>5</v>
       </c>
       <c r="AQ25" s="10">
         <v>0.03</v>
@@ -4500,7 +4587,7 @@
     </row>
     <row r="26" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="B26" s="10" t="b">
         <v>0</v>
@@ -4512,7 +4599,7 @@
         <v>1</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F26" s="10" t="s">
         <v>63</v>
@@ -4527,10 +4614,13 @@
         <v>135</v>
       </c>
       <c r="P26" s="10">
-        <v>0.02</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="Q26" s="10">
-        <v>0</v>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="R26" s="14">
+        <v>5</v>
       </c>
       <c r="S26" s="10">
         <v>0.02</v>
@@ -4566,13 +4656,7 @@
         <v>1</v>
       </c>
       <c r="AD26" s="10">
-        <v>2</v>
-      </c>
-      <c r="AE26" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AF26" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AH26" s="10">
         <v>0.05</v>
@@ -4598,6 +4682,9 @@
       <c r="AO26" s="10">
         <v>0.11</v>
       </c>
+      <c r="AP26" s="10">
+        <v>5</v>
+      </c>
       <c r="AQ26" s="10">
         <v>0.03</v>
       </c>
@@ -4662,21 +4749,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:63" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B27" s="10" t="b">
         <v>0</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D27" s="10">
         <v>1</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F27" s="10" t="s">
         <v>63</v>
@@ -4684,6 +4771,9 @@
       <c r="G27" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
+      <c r="H27" s="10" t="s">
+        <v>77</v>
+      </c>
       <c r="N27" s="10" t="s">
         <v>135</v>
       </c>
@@ -4693,6 +4783,9 @@
       <c r="Q27" s="10">
         <v>0</v>
       </c>
+      <c r="R27" s="10">
+        <v>1</v>
+      </c>
       <c r="S27" s="10">
         <v>0.02</v>
       </c>
@@ -4753,6 +4846,9 @@
       <c r="AO27" s="10">
         <v>0.11</v>
       </c>
+      <c r="AP27" s="10">
+        <v>1</v>
+      </c>
       <c r="AQ27" s="10">
         <v>0.03</v>
       </c>
@@ -4817,540 +4913,1199 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:63" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="B28" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="D28" s="10">
+        <v>1</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G28" s="10">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H28" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="N28" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="P28" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="Q28" s="10">
+        <v>0</v>
+      </c>
+      <c r="R28" s="10">
+        <v>1</v>
+      </c>
+      <c r="S28" s="10">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="T28" s="10">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="U28" s="10">
+        <v>1</v>
+      </c>
+      <c r="V28" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="W28" s="10">
+        <v>0</v>
+      </c>
+      <c r="X28" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="Y28" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="Z28" s="10">
+        <v>1E-3</v>
+      </c>
+      <c r="AA28" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AB28" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="10">
+        <v>1</v>
+      </c>
+      <c r="AD28" s="10">
+        <v>1</v>
+      </c>
+      <c r="AH28" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="AI28" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AJ28" s="10">
+        <v>0</v>
+      </c>
+      <c r="AK28" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AL28" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="AM28" s="10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AN28" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="AO28" s="10">
+        <v>0.11</v>
+      </c>
+      <c r="AP28" s="10">
+        <v>1</v>
+      </c>
+      <c r="AQ28" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="AR28" s="10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AS28" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="AT28" s="10">
+        <v>1</v>
+      </c>
+      <c r="AU28" s="10">
+        <v>15</v>
+      </c>
+      <c r="AV28" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="AW28" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AX28" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AY28" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="AZ28" s="10">
+        <v>5</v>
+      </c>
+      <c r="BA28" s="10">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="BB28" s="10">
+        <v>0.12</v>
+      </c>
+      <c r="BC28" s="10">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="BD28" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BE28" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="BF28" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BG28" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="BH28" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="BI28" s="10">
+        <v>1</v>
+      </c>
+      <c r="BJ28" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="BK28" s="10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="B29" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="D29" s="10">
+        <v>1</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G29" s="10">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H29" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="N29" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="P29" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="Q29" s="10">
+        <v>0</v>
+      </c>
+      <c r="R29" s="10">
+        <v>1</v>
+      </c>
+      <c r="S29" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="T29" s="10">
+        <v>0</v>
+      </c>
+      <c r="U29" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="V29" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="W29" s="10">
+        <v>0</v>
+      </c>
+      <c r="X29" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="Y29" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="Z29" s="10">
+        <v>1E-3</v>
+      </c>
+      <c r="AA29" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AB29" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="10">
+        <v>1</v>
+      </c>
+      <c r="AD29" s="10">
+        <v>1</v>
+      </c>
+      <c r="AH29" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="AI29" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AJ29" s="10">
+        <v>0</v>
+      </c>
+      <c r="AK29" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AL29" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="AM29" s="10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AN29" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="AO29" s="10">
+        <v>0.11</v>
+      </c>
+      <c r="AP29" s="10">
+        <v>1</v>
+      </c>
+      <c r="AQ29" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="AR29" s="10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AS29" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="AT29" s="10">
+        <v>1</v>
+      </c>
+      <c r="AU29" s="10">
+        <v>15</v>
+      </c>
+      <c r="AV29" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="AW29" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AX29" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AY29" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="AZ29" s="10">
+        <v>5</v>
+      </c>
+      <c r="BA29" s="10">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="BB29" s="10">
+        <v>0.12</v>
+      </c>
+      <c r="BC29" s="10">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="BD29" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BE29" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="BF29" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BG29" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="BH29" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="BI29" s="10">
+        <v>1</v>
+      </c>
+      <c r="BJ29" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="BK29" s="10" t="b">
+        <v>1</v>
+      </c>
+    </row>
     <row r="30" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="B30" s="10" t="b">
         <v>0</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
+      </c>
+      <c r="D30" s="10">
+        <v>1</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G30" s="10">
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="H30" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="I30" s="10">
-        <v>1</v>
-      </c>
-      <c r="J30" s="10">
-        <v>1</v>
-      </c>
-      <c r="K30" s="10">
-        <v>1</v>
-      </c>
-      <c r="L30" s="10">
+      <c r="N30" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="P30" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="Q30" s="10">
+        <v>0</v>
+      </c>
+      <c r="R30" s="10">
+        <v>1</v>
+      </c>
+      <c r="S30" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="T30" s="10">
+        <v>0</v>
+      </c>
+      <c r="U30" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="V30" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="W30" s="10">
+        <v>0</v>
+      </c>
+      <c r="X30" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="Y30" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="Z30" s="10">
+        <v>1E-3</v>
+      </c>
+      <c r="AA30" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AB30" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="10">
+        <v>1</v>
+      </c>
+      <c r="AD30" s="10">
+        <v>2</v>
+      </c>
+      <c r="AE30" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AF30" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AH30" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="AI30" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AJ30" s="10">
+        <v>0</v>
+      </c>
+      <c r="AK30" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AL30" s="10">
         <v>0.03</v>
       </c>
-      <c r="M30" s="10">
+      <c r="AM30" s="10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AN30" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="AO30" s="10">
+        <v>0.11</v>
+      </c>
+      <c r="AP30" s="10">
+        <v>1</v>
+      </c>
+      <c r="AQ30" s="10">
         <v>0.03</v>
+      </c>
+      <c r="AR30" s="10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AS30" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="AT30" s="10">
+        <v>1</v>
+      </c>
+      <c r="AU30" s="10">
+        <v>15</v>
+      </c>
+      <c r="AV30" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="AW30" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AX30" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AY30" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="AZ30" s="10">
+        <v>5</v>
+      </c>
+      <c r="BA30" s="10">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="BB30" s="10">
+        <v>0.12</v>
+      </c>
+      <c r="BC30" s="10">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="BD30" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BE30" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="BF30" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BG30" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="BH30" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="BI30" s="10">
+        <v>1</v>
+      </c>
+      <c r="BJ30" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="BK30" s="10" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="H31" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="I31" s="10">
-        <v>1</v>
-      </c>
-      <c r="J31" s="10">
-        <v>1</v>
-      </c>
-      <c r="K31" s="10">
-        <v>1</v>
-      </c>
-      <c r="L31" s="10">
-        <v>0.06</v>
-      </c>
-      <c r="M31" s="10">
-        <v>0.06</v>
+        <v>128</v>
+      </c>
+      <c r="B31" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="D31" s="10">
+        <v>1</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G31" s="10">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="N31" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="P31" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="Q31" s="10">
+        <v>0</v>
+      </c>
+      <c r="R31" s="10">
+        <v>1</v>
+      </c>
+      <c r="S31" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="T31" s="10">
+        <v>0</v>
+      </c>
+      <c r="U31" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="V31" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="W31" s="10">
+        <v>0</v>
+      </c>
+      <c r="X31" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="Y31" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="Z31" s="10">
+        <v>1E-3</v>
+      </c>
+      <c r="AA31" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AB31" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="10">
+        <v>1</v>
+      </c>
+      <c r="AD31" s="10">
+        <v>1</v>
+      </c>
+      <c r="AH31" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="AI31" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AJ31" s="10">
+        <v>0</v>
+      </c>
+      <c r="AK31" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AL31" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="AM31" s="10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AN31" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="AO31" s="10">
+        <v>0.11</v>
+      </c>
+      <c r="AP31" s="10">
+        <v>1</v>
+      </c>
+      <c r="AQ31" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="AR31" s="10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AS31" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="AT31" s="10">
+        <v>1</v>
+      </c>
+      <c r="AU31" s="10">
+        <v>15</v>
+      </c>
+      <c r="AV31" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="AW31" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AX31" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AY31" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="AZ31" s="10">
+        <v>5</v>
+      </c>
+      <c r="BA31" s="10">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="BB31" s="10">
+        <v>0.12</v>
+      </c>
+      <c r="BC31" s="10">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="BD31" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BE31" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="BF31" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BG31" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="BH31" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="BI31" s="10">
+        <v>1</v>
+      </c>
+      <c r="BJ31" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="BK31" s="10" t="b">
+        <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="B32" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="D32" s="10">
-        <v>1</v>
-      </c>
-      <c r="E32" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="F32" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="G32" s="10">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="H32" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="P32" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="Q32" s="10">
-        <v>0</v>
-      </c>
-      <c r="S32" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="T32" s="10">
-        <v>0</v>
-      </c>
-      <c r="U32" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="V32" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="W32" s="10">
-        <v>0</v>
-      </c>
-      <c r="X32" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="Y32" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="Z32" s="10">
-        <v>1E-3</v>
-      </c>
-      <c r="AA32" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AB32" s="10">
-        <v>0</v>
-      </c>
-      <c r="AC32" s="10">
-        <v>1</v>
-      </c>
-      <c r="AD32" s="10">
-        <v>1</v>
-      </c>
-      <c r="AH32" s="10">
-        <v>0.05</v>
-      </c>
-      <c r="AI32" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AJ32" s="10">
-        <v>0</v>
-      </c>
-      <c r="AK32" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AL32" s="10">
-        <v>0.03</v>
-      </c>
-      <c r="AM32" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AN32" s="10">
-        <v>0.04</v>
-      </c>
-      <c r="AO32" s="10">
-        <v>0.11</v>
-      </c>
-      <c r="AQ32" s="10">
-        <v>0.03</v>
-      </c>
-      <c r="AR32" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AS32" s="10">
-        <v>0.7</v>
-      </c>
-      <c r="AT32" s="10">
-        <v>1</v>
-      </c>
-      <c r="AU32" s="10">
-        <v>15</v>
-      </c>
-      <c r="AV32" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="AW32" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="AX32" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AY32" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="AZ32" s="10">
-        <v>5</v>
-      </c>
-      <c r="BA32" s="10">
-        <v>8.2199999999999995E-2</v>
-      </c>
-      <c r="BB32" s="10">
-        <v>0.12</v>
-      </c>
-      <c r="BC32" s="10">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="BD32" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BE32" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="BF32" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BG32" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="BH32" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="BI32" s="10">
-        <v>0.75</v>
-      </c>
-      <c r="BJ32" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="BK32" s="10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="34" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="B34" s="10" t="b">
         <v>0</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="D34" s="10">
-        <v>1</v>
-      </c>
-      <c r="E34" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="F34" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="G34" s="10">
-        <v>1.4999999999999999E-2</v>
+        <v>112</v>
       </c>
       <c r="H34" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="P34" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="Q34" s="10">
-        <v>0</v>
-      </c>
-      <c r="S34" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="T34" s="10">
-        <v>0</v>
-      </c>
-      <c r="U34" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="V34" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="W34" s="10">
-        <v>0</v>
-      </c>
-      <c r="X34" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="Y34" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="Z34" s="10">
-        <v>1E-3</v>
-      </c>
-      <c r="AA34" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AB34" s="10">
-        <v>0</v>
-      </c>
-      <c r="AC34" s="10">
-        <v>1</v>
-      </c>
-      <c r="AD34" s="10">
-        <v>1</v>
-      </c>
-      <c r="AH34" s="10">
-        <v>0.05</v>
-      </c>
-      <c r="AI34" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AJ34" s="10">
-        <v>0</v>
-      </c>
-      <c r="AK34" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AL34" s="10">
+      <c r="I34" s="10">
+        <v>1</v>
+      </c>
+      <c r="J34" s="10">
+        <v>1</v>
+      </c>
+      <c r="K34" s="10">
+        <v>1</v>
+      </c>
+      <c r="L34" s="10">
         <v>0.03</v>
       </c>
-      <c r="AM34" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AN34" s="10">
-        <v>0.04</v>
-      </c>
-      <c r="AO34" s="10">
-        <v>0.11</v>
-      </c>
-      <c r="AP34" s="10">
-        <v>5</v>
-      </c>
-      <c r="AQ34" s="10">
+      <c r="M34" s="10">
         <v>0.03</v>
-      </c>
-      <c r="AR34" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AS34" s="10">
-        <v>0.7</v>
-      </c>
-      <c r="AT34" s="10">
-        <v>1</v>
-      </c>
-      <c r="AU34" s="10">
-        <v>15</v>
-      </c>
-      <c r="AV34" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="AW34" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="AX34" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AY34" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="AZ34" s="10">
-        <v>5</v>
-      </c>
-      <c r="BA34" s="10">
-        <v>8.2199999999999995E-2</v>
-      </c>
-      <c r="BB34" s="10">
-        <v>0.12</v>
-      </c>
-      <c r="BC34" s="10">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="BD34" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BE34" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="BF34" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BG34" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="BH34" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="BI34" s="10">
-        <v>0.75</v>
-      </c>
-      <c r="BJ34" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="BK34" s="10" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="B35" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="D35" s="10">
-        <v>1</v>
-      </c>
-      <c r="E35" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="F35" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="G35" s="10">
-        <v>1.4999999999999999E-2</v>
+        <v>107</v>
       </c>
       <c r="H35" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="P35" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="Q35" s="10">
-        <v>0</v>
-      </c>
-      <c r="S35" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="T35" s="10">
-        <v>0</v>
-      </c>
-      <c r="U35" s="10">
+      <c r="I35" s="10">
+        <v>1</v>
+      </c>
+      <c r="J35" s="10">
+        <v>1</v>
+      </c>
+      <c r="K35" s="10">
+        <v>1</v>
+      </c>
+      <c r="L35" s="10">
+        <v>0.06</v>
+      </c>
+      <c r="M35" s="10">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="36" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="B36" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="D36" s="10">
+        <v>1</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="G36" s="10">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H36" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="P36" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="Q36" s="10">
+        <v>0</v>
+      </c>
+      <c r="S36" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="T36" s="10">
+        <v>0</v>
+      </c>
+      <c r="U36" s="10">
         <v>0.9</v>
       </c>
-      <c r="V35" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="W35" s="10">
-        <v>0</v>
-      </c>
-      <c r="X35" s="10">
+      <c r="V36" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="W36" s="10">
+        <v>0</v>
+      </c>
+      <c r="X36" s="10">
         <v>0.9</v>
       </c>
-      <c r="Y35" s="10">
+      <c r="Y36" s="10">
         <v>0.01</v>
       </c>
-      <c r="Z35" s="10">
+      <c r="Z36" s="10">
         <v>1E-3</v>
       </c>
-      <c r="AA35" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AB35" s="10">
-        <v>0</v>
-      </c>
-      <c r="AC35" s="10">
-        <v>1</v>
-      </c>
-      <c r="AD35" s="10">
-        <v>1</v>
-      </c>
-      <c r="AH35" s="10">
+      <c r="AA36" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AB36" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC36" s="10">
+        <v>1</v>
+      </c>
+      <c r="AD36" s="10">
+        <v>1</v>
+      </c>
+      <c r="AH36" s="10">
         <v>0.05</v>
       </c>
-      <c r="AI35" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AJ35" s="10">
-        <v>0</v>
-      </c>
-      <c r="AK35" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AL35" s="10">
+      <c r="AI36" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AJ36" s="10">
+        <v>0</v>
+      </c>
+      <c r="AK36" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AL36" s="10">
         <v>0.03</v>
       </c>
-      <c r="AM35" s="10">
+      <c r="AM36" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AN35" s="10">
+      <c r="AN36" s="10">
         <v>0.04</v>
       </c>
-      <c r="AO35" s="10">
+      <c r="AO36" s="10">
         <v>0.11</v>
       </c>
-      <c r="AP35" s="10">
+      <c r="AQ36" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="AR36" s="10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AS36" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="AT36" s="10">
+        <v>1</v>
+      </c>
+      <c r="AU36" s="10">
+        <v>15</v>
+      </c>
+      <c r="AV36" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="AW36" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AX36" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AY36" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="AZ36" s="10">
         <v>5</v>
       </c>
-      <c r="AQ35" s="10">
+      <c r="BA36" s="10">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="BB36" s="10">
+        <v>0.12</v>
+      </c>
+      <c r="BC36" s="10">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="BD36" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BE36" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="BF36" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BG36" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="BH36" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="BI36" s="10">
+        <v>0.75</v>
+      </c>
+      <c r="BJ36" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="BK36" s="10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B38" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="D38" s="10">
+        <v>1</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F38" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="G38" s="10">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H38" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="P38" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="Q38" s="10">
+        <v>0</v>
+      </c>
+      <c r="S38" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="T38" s="10">
+        <v>0</v>
+      </c>
+      <c r="U38" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="V38" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="W38" s="10">
+        <v>0</v>
+      </c>
+      <c r="X38" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="Y38" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="Z38" s="10">
+        <v>1E-3</v>
+      </c>
+      <c r="AA38" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AB38" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC38" s="10">
+        <v>1</v>
+      </c>
+      <c r="AD38" s="10">
+        <v>1</v>
+      </c>
+      <c r="AH38" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="AI38" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AJ38" s="10">
+        <v>0</v>
+      </c>
+      <c r="AK38" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AL38" s="10">
         <v>0.03</v>
       </c>
-      <c r="AR35" s="10">
+      <c r="AM38" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AS35" s="10">
+      <c r="AN38" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="AO38" s="10">
+        <v>0.11</v>
+      </c>
+      <c r="AP38" s="10">
+        <v>5</v>
+      </c>
+      <c r="AQ38" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="AR38" s="10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AS38" s="10">
         <v>0.7</v>
       </c>
-      <c r="AT35" s="10">
-        <v>1</v>
-      </c>
-      <c r="AU35" s="10">
+      <c r="AT38" s="10">
+        <v>1</v>
+      </c>
+      <c r="AU38" s="10">
         <v>15</v>
       </c>
-      <c r="AV35" s="10" t="s">
+      <c r="AV38" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="AW35" s="10" t="s">
+      <c r="AW38" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="AX35" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AY35" s="10" t="s">
+      <c r="AX38" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AY38" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="AZ35" s="10">
+      <c r="AZ38" s="10">
         <v>5</v>
       </c>
-      <c r="BA35" s="10">
+      <c r="BA38" s="10">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="BB35" s="10">
+      <c r="BB38" s="10">
         <v>0.12</v>
       </c>
-      <c r="BC35" s="10">
+      <c r="BC38" s="10">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="BD35" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BE35" s="10" t="s">
+      <c r="BD38" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BE38" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="BF35" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BG35" s="10">
+      <c r="BF38" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BG38" s="10">
         <v>0.01</v>
       </c>
-      <c r="BH35" s="10" t="s">
+      <c r="BH38" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="BI35" s="10">
-        <v>1</v>
-      </c>
-      <c r="BJ35" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="BK35" s="10" t="b">
+      <c r="BI38" s="10">
+        <v>0.75</v>
+      </c>
+      <c r="BJ38" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="BK38" s="10" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="37" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="38" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="B39" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="D39" s="10">
+        <v>1</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F39" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="G39" s="10">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H39" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="P39" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="Q39" s="10">
+        <v>0</v>
+      </c>
+      <c r="S39" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="T39" s="10">
+        <v>0</v>
+      </c>
+      <c r="U39" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="V39" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="W39" s="10">
+        <v>0</v>
+      </c>
+      <c r="X39" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="Y39" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="Z39" s="10">
+        <v>1E-3</v>
+      </c>
+      <c r="AA39" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AB39" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC39" s="10">
+        <v>1</v>
+      </c>
+      <c r="AD39" s="10">
+        <v>1</v>
+      </c>
+      <c r="AH39" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="AI39" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AJ39" s="10">
+        <v>0</v>
+      </c>
+      <c r="AK39" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AL39" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="AM39" s="10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AN39" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="AO39" s="10">
+        <v>0.11</v>
+      </c>
+      <c r="AP39" s="10">
+        <v>5</v>
+      </c>
+      <c r="AQ39" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="AR39" s="10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AS39" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="AT39" s="10">
+        <v>1</v>
+      </c>
+      <c r="AU39" s="10">
+        <v>15</v>
+      </c>
+      <c r="AV39" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="AW39" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AX39" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AY39" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="AZ39" s="10">
+        <v>5</v>
+      </c>
+      <c r="BA39" s="10">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="BB39" s="10">
+        <v>0.12</v>
+      </c>
+      <c r="BC39" s="10">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="BD39" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BE39" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="BF39" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BG39" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="BH39" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="BI39" s="10">
+        <v>1</v>
+      </c>
+      <c r="BJ39" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="BK39" s="10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B30:B38 B3:B28" xr:uid="{05E01AB2-72EC-4550-ACB8-4E83765DE296}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B34:B42 B3:B32" xr:uid="{05E01AB2-72EC-4550-ACB8-4E83765DE296}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H30:H32 H34:H35 H3:H14 H17:H26" xr:uid="{8DBFC5CB-438A-4309-B948-24597CAE3D7F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H34:H36 H38:H39 H3:H16 H19:H30" xr:uid="{8DBFC5CB-438A-4309-B948-24597CAE3D7F}">
       <formula1>"preSet, ALpct,MApct"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5363,7 +6118,7 @@
           <x14:formula1>
             <xm:f>Policies!$B$3:$B$9</xm:f>
           </x14:formula1>
-          <xm:sqref>F32 F30 F34:F35 F3:F28</xm:sqref>
+          <xm:sqref>F36 F34 F38:F39 F3:F32</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -5377,7 +6132,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/RunControl.xlsx
+++ b/RunControl.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03CD114D-463D-4E7B-BCE1-4F0AA962A651}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B03F6BE-0B63-4DF3-834A-E6A76C0DB2F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-16320" yWindow="-7590" windowWidth="16440" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="paramlist" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="146">
   <si>
     <t>runname</t>
   </si>
@@ -242,9 +242,6 @@
     <t>infl_type</t>
   </si>
   <si>
-    <t>DC component</t>
-  </si>
-  <si>
     <t>DC_EECrate</t>
   </si>
   <si>
@@ -456,6 +453,21 @@
   </si>
   <si>
     <t>cola_FR_calib_FR100</t>
+  </si>
+  <si>
+    <t>Hybrid plan</t>
+  </si>
+  <si>
+    <t>init_UAAL_baseline</t>
+  </si>
+  <si>
+    <t>mixed_WRS</t>
+  </si>
+  <si>
+    <t>mixed</t>
+  </si>
+  <si>
+    <t>mixed_WRS_FR100</t>
   </si>
 </sst>
 </file>
@@ -560,6 +572,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -826,13 +842,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:BK42"/>
+  <dimension ref="A1:BL44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="2" topLeftCell="O3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B31" sqref="B31"/>
+      <selection pane="bottomRight" activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -843,80 +859,79 @@
     <col min="5" max="5" width="11.140625" customWidth="1"/>
     <col min="6" max="6" width="16.85546875" customWidth="1"/>
     <col min="7" max="7" width="16.5703125" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" customWidth="1"/>
-    <col min="9" max="13" width="12.85546875" customWidth="1"/>
-    <col min="14" max="14" width="17.140625" customWidth="1"/>
-    <col min="15" max="15" width="19.42578125" customWidth="1"/>
-    <col min="16" max="16" width="18" customWidth="1"/>
-    <col min="17" max="17" width="16.5703125" customWidth="1"/>
-    <col min="18" max="18" width="26.28515625" customWidth="1"/>
-    <col min="19" max="21" width="13" customWidth="1"/>
-    <col min="22" max="25" width="16.5703125" customWidth="1"/>
-    <col min="26" max="26" width="28.85546875" customWidth="1"/>
-    <col min="27" max="29" width="14.28515625" customWidth="1"/>
-    <col min="30" max="30" width="17.42578125" customWidth="1"/>
-    <col min="31" max="31" width="18" customWidth="1"/>
-    <col min="32" max="32" width="26.28515625" customWidth="1"/>
-    <col min="33" max="33" width="14.28515625" customWidth="1"/>
-    <col min="34" max="34" width="18.5703125" style="10" customWidth="1"/>
-    <col min="35" max="36" width="20.28515625" style="10" customWidth="1"/>
-    <col min="37" max="37" width="21.42578125" style="10" customWidth="1"/>
-    <col min="38" max="38" width="23.7109375" style="10" customWidth="1"/>
-    <col min="39" max="39" width="24" style="10" customWidth="1"/>
-    <col min="40" max="41" width="21.42578125" style="10" customWidth="1"/>
-    <col min="42" max="42" width="24.5703125" style="10" customWidth="1"/>
-    <col min="43" max="44" width="21.42578125" style="10" customWidth="1"/>
-    <col min="45" max="46" width="17.7109375" style="10" customWidth="1"/>
-    <col min="47" max="47" width="7.7109375" customWidth="1"/>
-    <col min="48" max="48" width="13.7109375" customWidth="1"/>
-    <col min="49" max="50" width="7.7109375" customWidth="1"/>
-    <col min="55" max="59" width="14.28515625" customWidth="1"/>
-    <col min="60" max="60" width="16" customWidth="1"/>
-    <col min="61" max="61" width="11.7109375" customWidth="1"/>
+    <col min="8" max="9" width="17.140625" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" customWidth="1"/>
+    <col min="11" max="11" width="12" customWidth="1"/>
+    <col min="12" max="16" width="10.5703125" customWidth="1"/>
+    <col min="17" max="17" width="18" customWidth="1"/>
+    <col min="18" max="18" width="16.5703125" customWidth="1"/>
+    <col min="19" max="19" width="26.28515625" customWidth="1"/>
+    <col min="20" max="22" width="13" customWidth="1"/>
+    <col min="23" max="26" width="16.5703125" customWidth="1"/>
+    <col min="27" max="27" width="28.85546875" customWidth="1"/>
+    <col min="28" max="30" width="14.28515625" customWidth="1"/>
+    <col min="31" max="31" width="17.42578125" customWidth="1"/>
+    <col min="32" max="32" width="18" customWidth="1"/>
+    <col min="33" max="33" width="26.28515625" customWidth="1"/>
+    <col min="34" max="34" width="14.28515625" customWidth="1"/>
+    <col min="35" max="35" width="18.5703125" style="10" customWidth="1"/>
+    <col min="36" max="37" width="20.28515625" style="10" customWidth="1"/>
+    <col min="38" max="38" width="21.42578125" style="10" customWidth="1"/>
+    <col min="39" max="39" width="23.7109375" style="10" customWidth="1"/>
+    <col min="40" max="40" width="24" style="10" customWidth="1"/>
+    <col min="41" max="42" width="21.42578125" style="10" customWidth="1"/>
+    <col min="43" max="43" width="24.5703125" style="10" customWidth="1"/>
+    <col min="44" max="45" width="21.42578125" style="10" customWidth="1"/>
+    <col min="46" max="47" width="17.7109375" style="10" customWidth="1"/>
+    <col min="48" max="48" width="7.7109375" customWidth="1"/>
+    <col min="49" max="49" width="13.7109375" customWidth="1"/>
+    <col min="50" max="51" width="7.7109375" customWidth="1"/>
+    <col min="56" max="60" width="14.28515625" customWidth="1"/>
+    <col min="61" max="61" width="16" customWidth="1"/>
+    <col min="62" max="62" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:64" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F1" s="14"/>
       <c r="G1" s="6"/>
       <c r="H1" s="11" t="s">
-        <v>70</v>
+        <v>141</v>
       </c>
       <c r="I1" s="11"/>
       <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
       <c r="L1" s="11"/>
       <c r="M1" s="11"/>
       <c r="N1" s="11"/>
       <c r="O1" s="11"/>
-      <c r="P1" s="7" t="s">
+      <c r="P1" s="11"/>
+      <c r="Q1" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="Q1" s="7"/>
       <c r="R1" s="7"/>
-      <c r="S1" s="8" t="s">
+      <c r="S1" s="7"/>
+      <c r="T1" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="T1" s="8"/>
       <c r="U1" s="8"/>
-      <c r="V1" s="9" t="s">
+      <c r="V1" s="8"/>
+      <c r="W1" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="W1" s="9"/>
       <c r="X1" s="9"/>
       <c r="Y1" s="9"/>
       <c r="Z1" s="9"/>
-      <c r="AA1" s="8" t="s">
+      <c r="AA1" s="9"/>
+      <c r="AB1" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="AB1" s="8"/>
       <c r="AC1" s="8"/>
       <c r="AD1" s="8"/>
       <c r="AE1" s="8"/>
       <c r="AF1" s="8"/>
-      <c r="AG1" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="AH1" s="6"/>
+      <c r="AG1" s="8"/>
+      <c r="AH1" s="6" t="s">
+        <v>104</v>
+      </c>
       <c r="AI1" s="6"/>
       <c r="AJ1" s="6"/>
       <c r="AK1" s="6"/>
@@ -929,26 +944,27 @@
       <c r="AR1" s="6"/>
       <c r="AS1" s="6"/>
       <c r="AT1" s="6"/>
-      <c r="AU1" s="5" t="s">
+      <c r="AU1" s="6"/>
+      <c r="AV1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="AY1" s="5" t="s">
+      <c r="AZ1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="BC1" s="5" t="s">
+      <c r="BD1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="BD1" s="5" t="s">
+      <c r="BE1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="BH1" s="5" t="s">
+      <c r="BI1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="BJ1" s="5" t="s">
+      <c r="BK1" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -971,183 +987,186 @@
         <v>33</v>
       </c>
       <c r="H2" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="L2" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="M2" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="N2" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="K2" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="L2" s="12" t="s">
+      <c r="O2" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="P2" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="M2" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="N2" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="O2" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="P2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="R2" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="S2" s="3" t="s">
+      <c r="S2" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="T2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="U2" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="V2" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="V2" s="4" t="s">
+      <c r="W2" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="W2" s="4" t="s">
+      <c r="X2" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="X2" s="4" t="s">
+      <c r="Y2" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="Y2" s="4" t="s">
+      <c r="Z2" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="Z2" s="4" t="s">
+      <c r="AA2" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="AA2" s="3" t="s">
+      <c r="AB2" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="AB2" s="3" t="s">
+      <c r="AC2" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="AC2" s="3" t="s">
+      <c r="AD2" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AD2" s="3" t="s">
+      <c r="AE2" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AE2" s="3" t="s">
+      <c r="AF2" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="AF2" s="3" t="s">
+      <c r="AG2" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="AG2" s="1" t="s">
+      <c r="AH2" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="AH2" s="1" t="s">
+      <c r="AI2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AI2" s="1" t="s">
+      <c r="AK2" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AL2" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AJ2" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="AK2" s="1" t="s">
+      <c r="AM2" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="AL2" s="1" t="s">
+      <c r="AN2" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="AM2" s="1" t="s">
+      <c r="AO2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AP2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AQ2" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AR2" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="AN2" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="AO2" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="AP2" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="AQ2" s="1" t="s">
+      <c r="AS2" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="AR2" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AS2" s="1" t="s">
+      <c r="AT2" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AU2" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="AT2" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="AU2" t="s">
+      <c r="AV2" t="s">
         <v>10</v>
       </c>
-      <c r="AV2" t="s">
+      <c r="AW2" t="s">
         <v>11</v>
       </c>
-      <c r="AW2" t="s">
+      <c r="AX2" t="s">
         <v>12</v>
       </c>
-      <c r="AX2" t="s">
+      <c r="AY2" t="s">
         <v>13</v>
       </c>
-      <c r="AY2" t="s">
+      <c r="AZ2" t="s">
         <v>17</v>
       </c>
-      <c r="AZ2" t="s">
+      <c r="BA2" t="s">
         <v>18</v>
       </c>
-      <c r="BA2" t="s">
+      <c r="BB2" t="s">
         <v>31</v>
       </c>
-      <c r="BB2" t="s">
+      <c r="BC2" t="s">
         <v>32</v>
       </c>
-      <c r="BC2" t="s">
+      <c r="BD2" t="s">
         <v>28</v>
       </c>
-      <c r="BD2" t="s">
+      <c r="BE2" t="s">
         <v>30</v>
       </c>
-      <c r="BE2" t="s">
+      <c r="BF2" t="s">
         <v>69</v>
       </c>
-      <c r="BF2" t="s">
+      <c r="BG2" t="s">
         <v>67</v>
       </c>
-      <c r="BG2" t="s">
+      <c r="BH2" t="s">
         <v>68</v>
       </c>
-      <c r="BH2" t="s">
+      <c r="BI2" t="s">
         <v>21</v>
       </c>
-      <c r="BI2" t="s">
+      <c r="BJ2" t="s">
         <v>22</v>
       </c>
-      <c r="BJ2" t="s">
+      <c r="BK2" t="s">
         <v>25</v>
       </c>
-      <c r="BK2" t="s">
+      <c r="BL2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:64" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B3" s="10" t="b">
         <v>0</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D3" s="10">
         <v>1</v>
@@ -1162,157 +1181,157 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="N3" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="P3" s="10">
-        <v>0.02</v>
+        <v>134</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>76</v>
       </c>
       <c r="Q3" s="10">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="R3" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S3" s="10">
-        <v>0.02</v>
+        <v>1</v>
       </c>
       <c r="T3" s="10">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="U3" s="10">
+        <v>0</v>
+      </c>
+      <c r="V3" s="10">
         <v>0.9</v>
       </c>
-      <c r="V3" s="10">
-        <v>0.02</v>
-      </c>
       <c r="W3" s="10">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="X3" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="10">
         <v>0.9</v>
       </c>
-      <c r="Y3" s="10">
+      <c r="Z3" s="10">
         <v>0.01</v>
       </c>
-      <c r="Z3" s="10">
+      <c r="AA3" s="10">
         <v>1E-3</v>
       </c>
-      <c r="AA3" s="10">
-        <v>0.02</v>
-      </c>
       <c r="AB3" s="10">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="AC3" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD3" s="10">
         <v>1</v>
       </c>
-      <c r="AH3" s="10">
+      <c r="AE3" s="10">
+        <v>1</v>
+      </c>
+      <c r="AI3" s="10">
         <v>0.05</v>
       </c>
-      <c r="AI3" s="10">
-        <v>0.5</v>
-      </c>
       <c r="AJ3" s="10">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AK3" s="10">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AL3" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AM3" s="10">
         <v>0.03</v>
       </c>
-      <c r="AM3" s="10">
+      <c r="AN3" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AN3" s="10">
+      <c r="AO3" s="10">
         <v>0.04</v>
       </c>
-      <c r="AO3" s="10">
+      <c r="AP3" s="10">
         <v>0.11</v>
       </c>
-      <c r="AP3" s="10">
-        <v>1</v>
-      </c>
       <c r="AQ3" s="10">
+        <v>1</v>
+      </c>
+      <c r="AR3" s="10">
         <v>0.03</v>
       </c>
-      <c r="AR3" s="10">
+      <c r="AS3" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AS3" s="10">
+      <c r="AT3" s="10">
         <v>0.7</v>
       </c>
-      <c r="AT3" s="10">
-        <v>1</v>
-      </c>
       <c r="AU3" s="10">
+        <v>1</v>
+      </c>
+      <c r="AV3" s="10">
         <v>15</v>
       </c>
-      <c r="AV3" s="10" t="s">
+      <c r="AW3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="AW3" s="10" t="s">
+      <c r="AX3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="AX3" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AY3" s="10" t="s">
+      <c r="AY3" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AZ3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="AZ3" s="10">
+      <c r="BA3" s="10">
         <v>5</v>
       </c>
-      <c r="BA3" s="10">
+      <c r="BB3" s="10">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="BB3" s="10">
+      <c r="BC3" s="10">
         <v>0.12</v>
       </c>
-      <c r="BC3" s="10">
+      <c r="BD3" s="10">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="BD3" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BE3" s="10" t="s">
+      <c r="BE3" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BF3" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="BF3" s="10">
-        <v>0.02</v>
-      </c>
       <c r="BG3" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BH3" s="10">
         <v>0.01</v>
       </c>
-      <c r="BH3" s="10" t="s">
+      <c r="BI3" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="BI3" s="10">
+      <c r="BJ3" s="10">
         <v>0.75</v>
       </c>
-      <c r="BJ3" s="10" t="b">
-        <v>1</v>
-      </c>
       <c r="BK3" s="10" t="b">
         <v>1</v>
       </c>
+      <c r="BL3" s="10" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:64" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:64" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B5" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D5" s="10">
         <v>1</v>
@@ -1327,156 +1346,156 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="N5" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="P5" s="10">
-        <v>0.02</v>
+        <v>134</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>76</v>
       </c>
       <c r="Q5" s="10">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="R5" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S5" s="10">
-        <v>0.02</v>
+        <v>1</v>
       </c>
       <c r="T5" s="10">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="U5" s="10">
+        <v>0</v>
+      </c>
+      <c r="V5" s="10">
         <v>0.9</v>
       </c>
-      <c r="V5" s="10">
-        <v>0.02</v>
-      </c>
       <c r="W5" s="10">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="X5" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="10">
         <v>0.9</v>
       </c>
-      <c r="Y5" s="10">
+      <c r="Z5" s="10">
         <v>0.01</v>
       </c>
-      <c r="Z5" s="10">
+      <c r="AA5" s="10">
         <v>1E-3</v>
       </c>
-      <c r="AA5" s="10">
-        <v>0.02</v>
-      </c>
       <c r="AB5" s="10">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="AC5" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD5" s="10">
         <v>1</v>
       </c>
-      <c r="AH5" s="10">
+      <c r="AE5" s="10">
+        <v>1</v>
+      </c>
+      <c r="AI5" s="10">
         <v>0.05</v>
       </c>
-      <c r="AI5" s="10">
-        <v>0.5</v>
-      </c>
       <c r="AJ5" s="10">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AK5" s="10">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AL5" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AM5" s="10">
         <v>0.03</v>
       </c>
-      <c r="AM5" s="10">
+      <c r="AN5" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AN5" s="10">
+      <c r="AO5" s="10">
         <v>0.04</v>
       </c>
-      <c r="AO5" s="10">
+      <c r="AP5" s="10">
         <v>0.11</v>
       </c>
-      <c r="AP5" s="10">
-        <v>1</v>
-      </c>
       <c r="AQ5" s="10">
+        <v>1</v>
+      </c>
+      <c r="AR5" s="10">
         <v>0.03</v>
       </c>
-      <c r="AR5" s="10">
+      <c r="AS5" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AS5" s="10">
+      <c r="AT5" s="10">
         <v>0.7</v>
       </c>
-      <c r="AT5" s="10">
-        <v>1</v>
-      </c>
       <c r="AU5" s="10">
+        <v>1</v>
+      </c>
+      <c r="AV5" s="10">
         <v>15</v>
       </c>
-      <c r="AV5" s="10" t="s">
+      <c r="AW5" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="AW5" s="10" t="s">
+      <c r="AX5" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="AX5" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AY5" s="10" t="s">
+      <c r="AY5" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AZ5" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="AZ5" s="10">
+      <c r="BA5" s="10">
         <v>5</v>
       </c>
-      <c r="BA5" s="10">
+      <c r="BB5" s="10">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="BB5" s="10">
+      <c r="BC5" s="10">
         <v>0.12</v>
       </c>
-      <c r="BC5" s="10">
+      <c r="BD5" s="10">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="BD5" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BE5" s="10" t="s">
+      <c r="BE5" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BF5" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="BF5" s="10">
-        <v>0.02</v>
-      </c>
       <c r="BG5" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BH5" s="10">
         <v>0.01</v>
       </c>
-      <c r="BH5" s="10" t="s">
+      <c r="BI5" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="BI5" s="10">
+      <c r="BJ5" s="10">
         <v>0.75</v>
       </c>
-      <c r="BJ5" s="10" t="b">
-        <v>1</v>
-      </c>
       <c r="BK5" s="10" t="b">
         <v>1</v>
       </c>
+      <c r="BL5" s="10" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:64" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B6" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D6" s="10">
         <v>1</v>
@@ -1485,162 +1504,162 @@
         <v>50</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G6" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="N6" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="P6" s="10">
-        <v>0.02</v>
+        <v>134</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>76</v>
       </c>
       <c r="Q6" s="10">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="R6" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S6" s="10">
-        <v>0.02</v>
+        <v>1</v>
       </c>
       <c r="T6" s="10">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="U6" s="10">
+        <v>0</v>
+      </c>
+      <c r="V6" s="10">
         <v>0.9</v>
       </c>
-      <c r="V6" s="10">
-        <v>0.02</v>
-      </c>
       <c r="W6" s="10">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="X6" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="10">
         <v>0.9</v>
       </c>
-      <c r="Y6" s="10">
+      <c r="Z6" s="10">
         <v>0.01</v>
       </c>
-      <c r="Z6" s="10">
+      <c r="AA6" s="10">
         <v>1E-3</v>
       </c>
-      <c r="AA6" s="10">
-        <v>0.02</v>
-      </c>
       <c r="AB6" s="10">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="AC6" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD6" s="10">
         <v>1</v>
       </c>
-      <c r="AH6" s="10">
+      <c r="AE6" s="10">
+        <v>1</v>
+      </c>
+      <c r="AI6" s="10">
         <v>0.05</v>
       </c>
-      <c r="AI6" s="10">
-        <v>0.5</v>
-      </c>
       <c r="AJ6" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AK6" s="10">
         <v>0.05</v>
       </c>
-      <c r="AK6" s="10">
-        <v>0.5</v>
-      </c>
       <c r="AL6" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AM6" s="10">
         <v>0.03</v>
       </c>
-      <c r="AM6" s="10">
+      <c r="AN6" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AN6" s="10">
+      <c r="AO6" s="10">
         <v>0.04</v>
       </c>
-      <c r="AO6" s="10">
+      <c r="AP6" s="10">
         <v>0.11</v>
       </c>
-      <c r="AP6" s="10">
-        <v>1</v>
-      </c>
       <c r="AQ6" s="10">
+        <v>1</v>
+      </c>
+      <c r="AR6" s="10">
         <v>0.03</v>
       </c>
-      <c r="AR6" s="10">
+      <c r="AS6" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AS6" s="10">
+      <c r="AT6" s="10">
         <v>0.7</v>
       </c>
-      <c r="AT6" s="10">
-        <v>1</v>
-      </c>
       <c r="AU6" s="10">
+        <v>1</v>
+      </c>
+      <c r="AV6" s="10">
         <v>15</v>
       </c>
-      <c r="AV6" s="10" t="s">
+      <c r="AW6" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="AW6" s="10" t="s">
+      <c r="AX6" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="AX6" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AY6" s="10" t="s">
+      <c r="AY6" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AZ6" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="AZ6" s="10">
+      <c r="BA6" s="10">
         <v>5</v>
       </c>
-      <c r="BA6" s="10">
+      <c r="BB6" s="10">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="BB6" s="10">
+      <c r="BC6" s="10">
         <v>0.12</v>
       </c>
-      <c r="BC6" s="10">
+      <c r="BD6" s="10">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="BD6" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BE6" s="10" t="s">
+      <c r="BE6" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BF6" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="BF6" s="10">
-        <v>0.02</v>
-      </c>
       <c r="BG6" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BH6" s="10">
         <v>0.01</v>
       </c>
-      <c r="BH6" s="10" t="s">
+      <c r="BI6" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="BI6" s="10">
+      <c r="BJ6" s="10">
         <v>0.75</v>
       </c>
-      <c r="BJ6" s="10" t="b">
-        <v>1</v>
-      </c>
       <c r="BK6" s="10" t="b">
         <v>1</v>
       </c>
+      <c r="BL6" s="10" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:64" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B7" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D7" s="10">
         <v>1</v>
@@ -1649,162 +1668,162 @@
         <v>50</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G7" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="N7" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="P7" s="10">
-        <v>0.02</v>
+        <v>134</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>76</v>
       </c>
       <c r="Q7" s="10">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="R7" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S7" s="10">
-        <v>0.02</v>
+        <v>1</v>
       </c>
       <c r="T7" s="10">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="U7" s="10">
+        <v>0</v>
+      </c>
+      <c r="V7" s="10">
         <v>0.9</v>
       </c>
-      <c r="V7" s="10">
-        <v>0.02</v>
-      </c>
       <c r="W7" s="10">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="X7" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="10">
         <v>0.9</v>
       </c>
-      <c r="Y7" s="10">
+      <c r="Z7" s="10">
         <v>0.01</v>
       </c>
-      <c r="Z7" s="10">
+      <c r="AA7" s="10">
         <v>1E-3</v>
       </c>
-      <c r="AA7" s="10">
-        <v>0.02</v>
-      </c>
       <c r="AB7" s="10">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="AC7" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD7" s="10">
         <v>1</v>
       </c>
-      <c r="AH7" s="10">
+      <c r="AE7" s="10">
+        <v>1</v>
+      </c>
+      <c r="AI7" s="10">
         <v>0.05</v>
       </c>
-      <c r="AI7" s="10">
-        <v>0.5</v>
-      </c>
       <c r="AJ7" s="10">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AK7" s="10">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AL7" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AM7" s="10">
         <v>0.03</v>
       </c>
-      <c r="AM7" s="10">
+      <c r="AN7" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AN7" s="10">
+      <c r="AO7" s="10">
         <v>0.04</v>
       </c>
-      <c r="AO7" s="10">
+      <c r="AP7" s="10">
         <v>0.11</v>
       </c>
-      <c r="AP7" s="10">
-        <v>1</v>
-      </c>
       <c r="AQ7" s="10">
+        <v>1</v>
+      </c>
+      <c r="AR7" s="10">
         <v>0.03</v>
       </c>
-      <c r="AR7" s="10">
+      <c r="AS7" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AS7" s="10">
+      <c r="AT7" s="10">
         <v>0.7</v>
       </c>
-      <c r="AT7" s="10">
-        <v>1</v>
-      </c>
       <c r="AU7" s="10">
+        <v>1</v>
+      </c>
+      <c r="AV7" s="10">
         <v>15</v>
       </c>
-      <c r="AV7" s="10" t="s">
+      <c r="AW7" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="AW7" s="10" t="s">
+      <c r="AX7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="AX7" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AY7" s="10" t="s">
+      <c r="AY7" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AZ7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="AZ7" s="10">
+      <c r="BA7" s="10">
         <v>5</v>
       </c>
-      <c r="BA7" s="10">
+      <c r="BB7" s="10">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="BB7" s="10">
+      <c r="BC7" s="10">
         <v>0.12</v>
       </c>
-      <c r="BC7" s="10">
+      <c r="BD7" s="10">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="BD7" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BE7" s="10" t="s">
+      <c r="BE7" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BF7" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="BF7" s="10">
-        <v>0.02</v>
-      </c>
       <c r="BG7" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BH7" s="10">
         <v>0.01</v>
       </c>
-      <c r="BH7" s="10" t="s">
+      <c r="BI7" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="BI7" s="10">
+      <c r="BJ7" s="10">
         <v>0.75</v>
       </c>
-      <c r="BJ7" s="10" t="b">
-        <v>1</v>
-      </c>
       <c r="BK7" s="10" t="b">
         <v>1</v>
       </c>
+      <c r="BL7" s="10" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="8" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:64" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B8" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D8" s="10">
         <v>1</v>
@@ -1813,162 +1832,162 @@
         <v>50</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G8" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="N8" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="P8" s="10">
-        <v>0.02</v>
+        <v>134</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>76</v>
       </c>
       <c r="Q8" s="10">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="R8" s="10">
+        <v>0</v>
+      </c>
+      <c r="S8" s="10">
         <v>5</v>
       </c>
-      <c r="S8" s="10">
-        <v>0.02</v>
-      </c>
       <c r="T8" s="10">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="U8" s="10">
+        <v>0</v>
+      </c>
+      <c r="V8" s="10">
         <v>0.9</v>
       </c>
-      <c r="V8" s="10">
-        <v>0.02</v>
-      </c>
       <c r="W8" s="10">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="X8" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="10">
         <v>0.9</v>
       </c>
-      <c r="Y8" s="10">
+      <c r="Z8" s="10">
         <v>0.01</v>
       </c>
-      <c r="Z8" s="10">
+      <c r="AA8" s="10">
         <v>1E-3</v>
       </c>
-      <c r="AA8" s="10">
-        <v>0.02</v>
-      </c>
       <c r="AB8" s="10">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="AC8" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD8" s="10">
         <v>1</v>
       </c>
-      <c r="AH8" s="10">
+      <c r="AE8" s="10">
+        <v>1</v>
+      </c>
+      <c r="AI8" s="10">
         <v>0.05</v>
       </c>
-      <c r="AI8" s="10">
-        <v>0.5</v>
-      </c>
       <c r="AJ8" s="10">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AK8" s="10">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AL8" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AM8" s="10">
         <v>0.03</v>
       </c>
-      <c r="AM8" s="10">
+      <c r="AN8" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AN8" s="10">
+      <c r="AO8" s="10">
         <v>0.04</v>
       </c>
-      <c r="AO8" s="10">
+      <c r="AP8" s="10">
         <v>0.11</v>
       </c>
-      <c r="AP8" s="10">
+      <c r="AQ8" s="10">
         <v>5</v>
       </c>
-      <c r="AQ8" s="10">
+      <c r="AR8" s="10">
         <v>0.03</v>
       </c>
-      <c r="AR8" s="10">
+      <c r="AS8" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AS8" s="10">
+      <c r="AT8" s="10">
         <v>0.7</v>
       </c>
-      <c r="AT8" s="10">
-        <v>1</v>
-      </c>
       <c r="AU8" s="10">
+        <v>1</v>
+      </c>
+      <c r="AV8" s="10">
         <v>15</v>
       </c>
-      <c r="AV8" s="10" t="s">
+      <c r="AW8" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="AW8" s="10" t="s">
+      <c r="AX8" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="AX8" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AY8" s="10" t="s">
+      <c r="AY8" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AZ8" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="AZ8" s="10">
+      <c r="BA8" s="10">
         <v>5</v>
       </c>
-      <c r="BA8" s="10">
+      <c r="BB8" s="10">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="BB8" s="10">
+      <c r="BC8" s="10">
         <v>0.12</v>
       </c>
-      <c r="BC8" s="10">
+      <c r="BD8" s="10">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="BD8" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BE8" s="10" t="s">
+      <c r="BE8" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BF8" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="BF8" s="10">
-        <v>0.02</v>
-      </c>
       <c r="BG8" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BH8" s="10">
         <v>0.01</v>
       </c>
-      <c r="BH8" s="10" t="s">
+      <c r="BI8" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="BI8" s="10">
+      <c r="BJ8" s="10">
         <v>0.75</v>
       </c>
-      <c r="BJ8" s="10" t="b">
-        <v>1</v>
-      </c>
       <c r="BK8" s="10" t="b">
         <v>1</v>
       </c>
+      <c r="BL8" s="10" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="9" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:64" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B9" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D9" s="10">
         <v>1</v>
@@ -1977,159 +1996,159 @@
         <v>50</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G9" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="N9" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="P9" s="10">
-        <v>0.02</v>
+        <v>134</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>76</v>
       </c>
       <c r="Q9" s="10">
-        <v>0</v>
-      </c>
-      <c r="S9" s="10">
-        <v>0.02</v>
+        <v>0.02</v>
+      </c>
+      <c r="R9" s="10">
+        <v>0</v>
       </c>
       <c r="T9" s="10">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="U9" s="10">
+        <v>0</v>
+      </c>
+      <c r="V9" s="10">
         <v>0.9</v>
       </c>
-      <c r="V9" s="10">
-        <v>0.02</v>
-      </c>
       <c r="W9" s="10">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="X9" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="10">
         <v>0.9</v>
       </c>
-      <c r="Y9" s="10">
+      <c r="Z9" s="10">
         <v>0.01</v>
       </c>
-      <c r="Z9" s="10">
+      <c r="AA9" s="10">
         <v>1E-3</v>
       </c>
-      <c r="AA9" s="10">
-        <v>0.02</v>
-      </c>
       <c r="AB9" s="10">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="AC9" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD9" s="10">
         <v>1</v>
       </c>
-      <c r="AH9" s="10">
+      <c r="AE9" s="10">
+        <v>1</v>
+      </c>
+      <c r="AI9" s="10">
         <v>0.05</v>
       </c>
-      <c r="AI9" s="10">
-        <v>0.5</v>
-      </c>
       <c r="AJ9" s="10">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AK9" s="10">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AL9" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AM9" s="10">
         <v>0.03</v>
       </c>
-      <c r="AM9" s="10">
+      <c r="AN9" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AN9" s="10">
+      <c r="AO9" s="10">
         <v>0.04</v>
       </c>
-      <c r="AO9" s="10">
+      <c r="AP9" s="10">
         <v>0.11</v>
       </c>
-      <c r="AP9" s="10">
-        <v>1</v>
-      </c>
       <c r="AQ9" s="10">
+        <v>1</v>
+      </c>
+      <c r="AR9" s="10">
         <v>0.03</v>
       </c>
-      <c r="AR9" s="10">
+      <c r="AS9" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AS9" s="10">
+      <c r="AT9" s="10">
         <v>0.7</v>
       </c>
-      <c r="AT9" s="10">
-        <v>1</v>
-      </c>
       <c r="AU9" s="10">
+        <v>1</v>
+      </c>
+      <c r="AV9" s="10">
         <v>15</v>
       </c>
-      <c r="AV9" s="10" t="s">
+      <c r="AW9" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="AW9" s="10" t="s">
+      <c r="AX9" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="AX9" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AY9" s="10" t="s">
+      <c r="AY9" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AZ9" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="AZ9" s="10">
+      <c r="BA9" s="10">
         <v>5</v>
       </c>
-      <c r="BA9" s="10">
+      <c r="BB9" s="10">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="BB9" s="10">
+      <c r="BC9" s="10">
         <v>0.12</v>
       </c>
-      <c r="BC9" s="10">
+      <c r="BD9" s="10">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="BD9" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BE9" s="10" t="s">
+      <c r="BE9" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BF9" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="BF9" s="10">
-        <v>0.02</v>
-      </c>
       <c r="BG9" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BH9" s="10">
         <v>0.01</v>
       </c>
-      <c r="BH9" s="10" t="s">
+      <c r="BI9" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="BI9" s="10">
+      <c r="BJ9" s="10">
         <v>0.75</v>
       </c>
-      <c r="BJ9" s="10" t="b">
-        <v>1</v>
-      </c>
       <c r="BK9" s="10" t="b">
         <v>1</v>
       </c>
+      <c r="BL9" s="10" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="10" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:64" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>54</v>
       </c>
       <c r="B10" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D10" s="10">
         <v>1</v>
@@ -2144,156 +2163,156 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="N10" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="P10" s="10">
-        <v>0.02</v>
+        <v>134</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>76</v>
       </c>
       <c r="Q10" s="10">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="R10" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S10" s="10">
-        <v>0.02</v>
+        <v>1</v>
       </c>
       <c r="T10" s="10">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="U10" s="10">
+        <v>0</v>
+      </c>
+      <c r="V10" s="10">
         <v>0.9</v>
       </c>
-      <c r="V10" s="10">
-        <v>0.02</v>
-      </c>
       <c r="W10" s="10">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="X10" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="10">
         <v>0.9</v>
       </c>
-      <c r="Y10" s="10">
+      <c r="Z10" s="10">
         <v>0.01</v>
       </c>
-      <c r="Z10" s="10">
+      <c r="AA10" s="10">
         <v>1E-3</v>
       </c>
-      <c r="AA10" s="10">
-        <v>0.02</v>
-      </c>
       <c r="AB10" s="10">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="AC10" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD10" s="10">
         <v>1</v>
       </c>
-      <c r="AH10" s="10">
+      <c r="AE10" s="10">
+        <v>1</v>
+      </c>
+      <c r="AI10" s="10">
         <v>0.05</v>
       </c>
-      <c r="AI10" s="10">
-        <v>0.5</v>
-      </c>
       <c r="AJ10" s="10">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AK10" s="10">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AL10" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AM10" s="10">
         <v>0.03</v>
       </c>
-      <c r="AM10" s="10">
+      <c r="AN10" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AN10" s="10">
+      <c r="AO10" s="10">
         <v>0.04</v>
       </c>
-      <c r="AO10" s="10">
+      <c r="AP10" s="10">
         <v>0.11</v>
       </c>
-      <c r="AP10" s="10">
-        <v>1</v>
-      </c>
       <c r="AQ10" s="10">
+        <v>1</v>
+      </c>
+      <c r="AR10" s="10">
         <v>0.03</v>
       </c>
-      <c r="AR10" s="10">
+      <c r="AS10" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AS10" s="10">
+      <c r="AT10" s="10">
         <v>0.7</v>
       </c>
-      <c r="AT10" s="10">
-        <v>1</v>
-      </c>
       <c r="AU10" s="10">
+        <v>1</v>
+      </c>
+      <c r="AV10" s="10">
         <v>15</v>
       </c>
-      <c r="AV10" s="10" t="s">
+      <c r="AW10" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="AW10" s="10" t="s">
+      <c r="AX10" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="AX10" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AY10" s="10" t="s">
+      <c r="AY10" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AZ10" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="AZ10" s="10">
+      <c r="BA10" s="10">
         <v>5</v>
       </c>
-      <c r="BA10" s="10">
+      <c r="BB10" s="10">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="BB10" s="10">
+      <c r="BC10" s="10">
         <v>0.12</v>
       </c>
-      <c r="BC10" s="10">
+      <c r="BD10" s="10">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="BD10" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BE10" s="10" t="s">
+      <c r="BE10" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BF10" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="BF10" s="10">
-        <v>0.02</v>
-      </c>
       <c r="BG10" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BH10" s="10">
         <v>0.01</v>
       </c>
-      <c r="BH10" s="10" t="s">
+      <c r="BI10" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="BI10" s="10">
+      <c r="BJ10" s="10">
         <v>0.75</v>
       </c>
-      <c r="BJ10" s="10" t="b">
-        <v>1</v>
-      </c>
       <c r="BK10" s="10" t="b">
         <v>1</v>
       </c>
+      <c r="BL10" s="10" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="11" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:64" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B11" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D11" s="10">
         <v>1</v>
@@ -2308,156 +2327,156 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="N11" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="P11" s="10">
-        <v>0.02</v>
+        <v>134</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>76</v>
       </c>
       <c r="Q11" s="10">
-        <v>0</v>
-      </c>
-      <c r="R11" s="14">
+        <v>0.02</v>
+      </c>
+      <c r="R11" s="10">
+        <v>0</v>
+      </c>
+      <c r="S11" s="14">
         <v>5</v>
       </c>
-      <c r="S11" s="10">
-        <v>0.02</v>
-      </c>
       <c r="T11" s="10">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="U11" s="10">
+        <v>0</v>
+      </c>
+      <c r="V11" s="10">
         <v>0.9</v>
       </c>
-      <c r="V11" s="10">
-        <v>0.02</v>
-      </c>
       <c r="W11" s="10">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="X11" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="10">
         <v>0.9</v>
       </c>
-      <c r="Y11" s="10">
+      <c r="Z11" s="10">
         <v>0.01</v>
       </c>
-      <c r="Z11" s="10">
+      <c r="AA11" s="10">
         <v>1E-3</v>
       </c>
-      <c r="AA11" s="10">
-        <v>0.02</v>
-      </c>
       <c r="AB11" s="10">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="AC11" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD11" s="10">
         <v>1</v>
       </c>
-      <c r="AH11" s="10">
+      <c r="AE11" s="10">
+        <v>1</v>
+      </c>
+      <c r="AI11" s="10">
         <v>0.05</v>
       </c>
-      <c r="AI11" s="10">
-        <v>0.5</v>
-      </c>
       <c r="AJ11" s="10">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AK11" s="10">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AL11" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AM11" s="10">
         <v>0.03</v>
       </c>
-      <c r="AM11" s="10">
+      <c r="AN11" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AN11" s="10">
+      <c r="AO11" s="10">
         <v>0.04</v>
       </c>
-      <c r="AO11" s="10">
+      <c r="AP11" s="10">
         <v>0.11</v>
       </c>
-      <c r="AP11" s="10">
+      <c r="AQ11" s="10">
         <v>5</v>
       </c>
-      <c r="AQ11" s="10">
+      <c r="AR11" s="10">
         <v>0.03</v>
       </c>
-      <c r="AR11" s="10">
+      <c r="AS11" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AS11" s="10">
+      <c r="AT11" s="10">
         <v>0.7</v>
       </c>
-      <c r="AT11" s="10">
-        <v>1</v>
-      </c>
       <c r="AU11" s="10">
+        <v>1</v>
+      </c>
+      <c r="AV11" s="10">
         <v>15</v>
       </c>
-      <c r="AV11" s="10" t="s">
+      <c r="AW11" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="AW11" s="10" t="s">
+      <c r="AX11" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="AX11" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AY11" s="10" t="s">
+      <c r="AY11" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AZ11" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="AZ11" s="10">
+      <c r="BA11" s="10">
         <v>5</v>
       </c>
-      <c r="BA11" s="10">
+      <c r="BB11" s="10">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="BB11" s="10">
+      <c r="BC11" s="10">
         <v>0.12</v>
       </c>
-      <c r="BC11" s="10">
+      <c r="BD11" s="10">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="BD11" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BE11" s="10" t="s">
+      <c r="BE11" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BF11" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="BF11" s="10">
-        <v>0.02</v>
-      </c>
       <c r="BG11" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BH11" s="10">
         <v>0.01</v>
       </c>
-      <c r="BH11" s="10" t="s">
+      <c r="BI11" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="BI11" s="10">
+      <c r="BJ11" s="10">
         <v>0.75</v>
       </c>
-      <c r="BJ11" s="10" t="b">
-        <v>1</v>
-      </c>
       <c r="BK11" s="10" t="b">
         <v>1</v>
       </c>
+      <c r="BL11" s="10" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="12" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:64" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B12" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D12" s="10">
         <v>1</v>
@@ -2472,156 +2491,156 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="N12" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="P12" s="10">
+        <v>134</v>
+      </c>
+      <c r="K12" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q12" s="10">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="Q12" s="10">
+      <c r="R12" s="10">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="R12" s="14">
+      <c r="S12" s="14">
         <v>5</v>
       </c>
-      <c r="S12" s="10">
-        <v>0.02</v>
-      </c>
       <c r="T12" s="10">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="U12" s="10">
+        <v>0</v>
+      </c>
+      <c r="V12" s="10">
         <v>0.9</v>
       </c>
-      <c r="V12" s="10">
-        <v>0.02</v>
-      </c>
       <c r="W12" s="10">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="X12" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="10">
         <v>0.9</v>
       </c>
-      <c r="Y12" s="10">
+      <c r="Z12" s="10">
         <v>0.01</v>
       </c>
-      <c r="Z12" s="10">
+      <c r="AA12" s="10">
         <v>1E-3</v>
       </c>
-      <c r="AA12" s="10">
-        <v>0.02</v>
-      </c>
       <c r="AB12" s="10">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="AC12" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD12" s="10">
         <v>1</v>
       </c>
-      <c r="AH12" s="10">
+      <c r="AE12" s="10">
+        <v>1</v>
+      </c>
+      <c r="AI12" s="10">
         <v>0.05</v>
       </c>
-      <c r="AI12" s="10">
-        <v>0.5</v>
-      </c>
       <c r="AJ12" s="10">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AK12" s="10">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AL12" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AM12" s="10">
         <v>0.03</v>
       </c>
-      <c r="AM12" s="10">
+      <c r="AN12" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AN12" s="10">
+      <c r="AO12" s="10">
         <v>0.04</v>
       </c>
-      <c r="AO12" s="10">
+      <c r="AP12" s="10">
         <v>0.11</v>
       </c>
-      <c r="AP12" s="10">
+      <c r="AQ12" s="10">
         <v>5</v>
       </c>
-      <c r="AQ12" s="10">
+      <c r="AR12" s="10">
         <v>0.03</v>
       </c>
-      <c r="AR12" s="10">
+      <c r="AS12" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AS12" s="10">
+      <c r="AT12" s="10">
         <v>0.7</v>
       </c>
-      <c r="AT12" s="10">
-        <v>1</v>
-      </c>
       <c r="AU12" s="10">
+        <v>1</v>
+      </c>
+      <c r="AV12" s="10">
         <v>15</v>
       </c>
-      <c r="AV12" s="10" t="s">
+      <c r="AW12" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="AW12" s="10" t="s">
+      <c r="AX12" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="AX12" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AY12" s="10" t="s">
+      <c r="AY12" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AZ12" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="AZ12" s="10">
+      <c r="BA12" s="10">
         <v>5</v>
       </c>
-      <c r="BA12" s="10">
+      <c r="BB12" s="10">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="BB12" s="10">
+      <c r="BC12" s="10">
         <v>0.12</v>
       </c>
-      <c r="BC12" s="10">
+      <c r="BD12" s="10">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="BD12" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BE12" s="10" t="s">
+      <c r="BE12" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BF12" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="BF12" s="10">
-        <v>0.02</v>
-      </c>
       <c r="BG12" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BH12" s="10">
         <v>0.01</v>
       </c>
-      <c r="BH12" s="10" t="s">
+      <c r="BI12" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="BI12" s="10">
+      <c r="BJ12" s="10">
         <v>0.75</v>
       </c>
-      <c r="BJ12" s="10" t="b">
-        <v>1</v>
-      </c>
       <c r="BK12" s="10" t="b">
         <v>1</v>
       </c>
+      <c r="BL12" s="10" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="13" spans="1:63" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:64" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>55</v>
       </c>
       <c r="B13" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D13" s="10">
         <v>1</v>
@@ -2636,156 +2655,156 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="N13" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="P13" s="10">
-        <v>0.02</v>
+        <v>134</v>
+      </c>
+      <c r="K13" s="10" t="s">
+        <v>76</v>
       </c>
       <c r="Q13" s="10">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="R13" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S13" s="10">
-        <v>0.02</v>
+        <v>1</v>
       </c>
       <c r="T13" s="10">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="U13" s="10">
+        <v>0</v>
+      </c>
+      <c r="V13" s="10">
         <v>0.9</v>
       </c>
-      <c r="V13" s="10">
-        <v>0.02</v>
-      </c>
       <c r="W13" s="10">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="X13" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="10">
         <v>0.9</v>
       </c>
-      <c r="Y13" s="10">
+      <c r="Z13" s="10">
         <v>0.01</v>
       </c>
-      <c r="Z13" s="10">
+      <c r="AA13" s="10">
         <v>1E-3</v>
       </c>
-      <c r="AA13" s="10">
-        <v>0.02</v>
-      </c>
       <c r="AB13" s="10">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="AC13" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD13" s="10">
         <v>1</v>
       </c>
-      <c r="AH13" s="10">
+      <c r="AE13" s="10">
+        <v>1</v>
+      </c>
+      <c r="AI13" s="10">
         <v>0.05</v>
       </c>
-      <c r="AI13" s="10">
-        <v>0.5</v>
-      </c>
       <c r="AJ13" s="10">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AK13" s="10">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AL13" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AM13" s="10">
         <v>0.03</v>
       </c>
-      <c r="AM13" s="10">
+      <c r="AN13" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AN13" s="10">
+      <c r="AO13" s="10">
         <v>0.04</v>
       </c>
-      <c r="AO13" s="10">
+      <c r="AP13" s="10">
         <v>0.11</v>
       </c>
-      <c r="AP13" s="10">
-        <v>1</v>
-      </c>
       <c r="AQ13" s="10">
+        <v>1</v>
+      </c>
+      <c r="AR13" s="10">
         <v>0.03</v>
       </c>
-      <c r="AR13" s="10">
+      <c r="AS13" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AS13" s="10">
+      <c r="AT13" s="10">
         <v>0.7</v>
       </c>
-      <c r="AT13" s="10">
-        <v>1</v>
-      </c>
       <c r="AU13" s="10">
+        <v>1</v>
+      </c>
+      <c r="AV13" s="10">
         <v>15</v>
       </c>
-      <c r="AV13" s="10" t="s">
+      <c r="AW13" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="AW13" s="10" t="s">
+      <c r="AX13" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="AX13" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AY13" s="10" t="s">
+      <c r="AY13" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AZ13" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="AZ13" s="10">
+      <c r="BA13" s="10">
         <v>5</v>
       </c>
-      <c r="BA13" s="10">
+      <c r="BB13" s="10">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="BB13" s="10">
+      <c r="BC13" s="10">
         <v>0.12</v>
       </c>
-      <c r="BC13" s="10">
+      <c r="BD13" s="10">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="BD13" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BE13" s="10" t="s">
+      <c r="BE13" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BF13" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="BF13" s="10">
-        <v>0.02</v>
-      </c>
       <c r="BG13" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BH13" s="10">
         <v>0.01</v>
       </c>
-      <c r="BH13" s="10" t="s">
+      <c r="BI13" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="BI13" s="10">
+      <c r="BJ13" s="10">
         <v>0.75</v>
       </c>
-      <c r="BJ13" s="10" t="b">
-        <v>1</v>
-      </c>
       <c r="BK13" s="10" t="b">
         <v>1</v>
       </c>
+      <c r="BL13" s="10" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="14" spans="1:63" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:64" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B14" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D14" s="10">
         <v>1</v>
@@ -2800,156 +2819,156 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="N14" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="P14" s="10">
-        <v>0.02</v>
+        <v>134</v>
+      </c>
+      <c r="K14" s="10" t="s">
+        <v>76</v>
       </c>
       <c r="Q14" s="10">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="R14" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S14" s="10">
+        <v>1</v>
+      </c>
+      <c r="T14" s="10">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="T14" s="10">
+      <c r="U14" s="10">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="U14" s="10">
-        <v>1</v>
-      </c>
       <c r="V14" s="10">
-        <v>0.02</v>
+        <v>1</v>
       </c>
       <c r="W14" s="10">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="X14" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="10">
         <v>0.9</v>
       </c>
-      <c r="Y14" s="10">
+      <c r="Z14" s="10">
         <v>0.01</v>
       </c>
-      <c r="Z14" s="10">
+      <c r="AA14" s="10">
         <v>1E-3</v>
       </c>
-      <c r="AA14" s="10">
-        <v>0.02</v>
-      </c>
       <c r="AB14" s="10">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="AC14" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD14" s="10">
         <v>1</v>
       </c>
-      <c r="AH14" s="10">
+      <c r="AE14" s="10">
+        <v>1</v>
+      </c>
+      <c r="AI14" s="10">
         <v>0.05</v>
       </c>
-      <c r="AI14" s="10">
-        <v>0.5</v>
-      </c>
       <c r="AJ14" s="10">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AK14" s="10">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AL14" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AM14" s="10">
         <v>0.03</v>
       </c>
-      <c r="AM14" s="10">
+      <c r="AN14" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AN14" s="10">
+      <c r="AO14" s="10">
         <v>0.04</v>
       </c>
-      <c r="AO14" s="10">
+      <c r="AP14" s="10">
         <v>0.11</v>
       </c>
-      <c r="AP14" s="10">
-        <v>1</v>
-      </c>
       <c r="AQ14" s="10">
+        <v>1</v>
+      </c>
+      <c r="AR14" s="10">
         <v>0.03</v>
       </c>
-      <c r="AR14" s="10">
+      <c r="AS14" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AS14" s="10">
+      <c r="AT14" s="10">
         <v>0.7</v>
       </c>
-      <c r="AT14" s="10">
-        <v>1</v>
-      </c>
       <c r="AU14" s="10">
+        <v>1</v>
+      </c>
+      <c r="AV14" s="10">
         <v>15</v>
       </c>
-      <c r="AV14" s="10" t="s">
+      <c r="AW14" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="AW14" s="10" t="s">
+      <c r="AX14" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="AX14" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AY14" s="10" t="s">
+      <c r="AY14" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AZ14" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="AZ14" s="10">
+      <c r="BA14" s="10">
         <v>5</v>
       </c>
-      <c r="BA14" s="10">
+      <c r="BB14" s="10">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="BB14" s="10">
+      <c r="BC14" s="10">
         <v>0.12</v>
       </c>
-      <c r="BC14" s="10">
+      <c r="BD14" s="10">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="BD14" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BE14" s="10" t="s">
+      <c r="BE14" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BF14" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="BF14" s="10">
-        <v>0.02</v>
-      </c>
       <c r="BG14" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BH14" s="10">
         <v>0.01</v>
       </c>
-      <c r="BH14" s="10" t="s">
+      <c r="BI14" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="BI14" s="10">
+      <c r="BJ14" s="10">
         <v>0.75</v>
       </c>
-      <c r="BJ14" s="10" t="b">
-        <v>1</v>
-      </c>
       <c r="BK14" s="10" t="b">
         <v>1</v>
       </c>
+      <c r="BL14" s="10" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="15" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:64" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B15" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D15" s="10">
         <v>1</v>
@@ -2964,156 +2983,156 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="N15" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="P15" s="10">
-        <v>0.02</v>
+        <v>134</v>
+      </c>
+      <c r="K15" s="10" t="s">
+        <v>76</v>
       </c>
       <c r="Q15" s="10">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="R15" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S15" s="10">
-        <v>0.02</v>
+        <v>1</v>
       </c>
       <c r="T15" s="10">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="U15" s="10">
+        <v>0</v>
+      </c>
+      <c r="V15" s="10">
         <v>0.9</v>
       </c>
-      <c r="V15" s="10">
-        <v>0.02</v>
-      </c>
       <c r="W15" s="10">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="X15" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="10">
         <v>0.9</v>
       </c>
-      <c r="Y15" s="10">
+      <c r="Z15" s="10">
         <v>0.01</v>
       </c>
-      <c r="Z15" s="10">
+      <c r="AA15" s="10">
         <v>1E-3</v>
       </c>
-      <c r="AA15" s="10">
-        <v>0.02</v>
-      </c>
       <c r="AB15" s="10">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="AC15" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD15" s="10">
         <v>1</v>
       </c>
-      <c r="AH15" s="10">
+      <c r="AE15" s="10">
+        <v>1</v>
+      </c>
+      <c r="AI15" s="10">
         <v>0.05</v>
       </c>
-      <c r="AI15" s="10">
-        <v>0.5</v>
-      </c>
       <c r="AJ15" s="10">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AK15" s="10">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AL15" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AM15" s="10">
         <v>0.03</v>
       </c>
-      <c r="AM15" s="10">
+      <c r="AN15" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AN15" s="10">
+      <c r="AO15" s="10">
         <v>0.04</v>
       </c>
-      <c r="AO15" s="10">
+      <c r="AP15" s="10">
         <v>0.11</v>
       </c>
-      <c r="AP15" s="10">
-        <v>1</v>
-      </c>
       <c r="AQ15" s="10">
+        <v>1</v>
+      </c>
+      <c r="AR15" s="10">
         <v>0.03</v>
       </c>
-      <c r="AR15" s="10">
+      <c r="AS15" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AS15" s="10">
+      <c r="AT15" s="10">
         <v>0.7</v>
       </c>
-      <c r="AT15" s="10">
-        <v>1</v>
-      </c>
       <c r="AU15" s="10">
+        <v>1</v>
+      </c>
+      <c r="AV15" s="10">
         <v>15</v>
       </c>
-      <c r="AV15" s="10" t="s">
+      <c r="AW15" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="AW15" s="10" t="s">
+      <c r="AX15" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="AX15" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AY15" s="10" t="s">
+      <c r="AY15" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AZ15" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="AZ15" s="10">
+      <c r="BA15" s="10">
         <v>5</v>
       </c>
-      <c r="BA15" s="10">
+      <c r="BB15" s="10">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="BB15" s="10">
+      <c r="BC15" s="10">
         <v>0.12</v>
       </c>
-      <c r="BC15" s="10">
+      <c r="BD15" s="10">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="BD15" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BE15" s="10" t="s">
+      <c r="BE15" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BF15" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="BF15" s="10">
-        <v>0.02</v>
-      </c>
       <c r="BG15" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BH15" s="10">
         <v>0.01</v>
       </c>
-      <c r="BH15" s="10" t="s">
+      <c r="BI15" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="BI15" s="10">
+      <c r="BJ15" s="10">
         <v>0.75</v>
       </c>
-      <c r="BJ15" s="10" t="b">
-        <v>1</v>
-      </c>
       <c r="BK15" s="10" t="b">
         <v>1</v>
       </c>
+      <c r="BL15" s="10" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="16" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:64" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B16" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D16" s="10">
         <v>1</v>
@@ -3128,162 +3147,162 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="N16" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="P16" s="10">
-        <v>0.02</v>
+        <v>134</v>
+      </c>
+      <c r="K16" s="10" t="s">
+        <v>76</v>
       </c>
       <c r="Q16" s="10">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="R16" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S16" s="10">
-        <v>0.02</v>
+        <v>1</v>
       </c>
       <c r="T16" s="10">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="U16" s="10">
+        <v>0</v>
+      </c>
+      <c r="V16" s="10">
         <v>0.9</v>
       </c>
-      <c r="V16" s="10">
-        <v>0.02</v>
-      </c>
       <c r="W16" s="10">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="X16" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="10">
         <v>0.9</v>
       </c>
-      <c r="Y16" s="10">
+      <c r="Z16" s="10">
         <v>0.01</v>
       </c>
-      <c r="Z16" s="10">
+      <c r="AA16" s="10">
         <v>1E-3</v>
       </c>
-      <c r="AA16" s="10">
-        <v>0.02</v>
-      </c>
       <c r="AB16" s="10">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="AC16" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD16" s="10">
+        <v>1</v>
+      </c>
+      <c r="AE16" s="10">
         <v>2</v>
       </c>
-      <c r="AE16" s="10">
-        <v>0.5</v>
-      </c>
       <c r="AF16" s="10">
         <v>0.5</v>
       </c>
-      <c r="AH16" s="10">
+      <c r="AG16" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AI16" s="10">
         <v>0.05</v>
       </c>
-      <c r="AI16" s="10">
-        <v>0.5</v>
-      </c>
       <c r="AJ16" s="10">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AK16" s="10">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AL16" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AM16" s="10">
         <v>0.03</v>
       </c>
-      <c r="AM16" s="10">
+      <c r="AN16" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AN16" s="10">
+      <c r="AO16" s="10">
         <v>0.04</v>
       </c>
-      <c r="AO16" s="10">
+      <c r="AP16" s="10">
         <v>0.11</v>
       </c>
-      <c r="AP16" s="10">
-        <v>1</v>
-      </c>
       <c r="AQ16" s="10">
+        <v>1</v>
+      </c>
+      <c r="AR16" s="10">
         <v>0.03</v>
       </c>
-      <c r="AR16" s="10">
+      <c r="AS16" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AS16" s="10">
+      <c r="AT16" s="10">
         <v>0.7</v>
       </c>
-      <c r="AT16" s="10">
-        <v>1</v>
-      </c>
       <c r="AU16" s="10">
+        <v>1</v>
+      </c>
+      <c r="AV16" s="10">
         <v>15</v>
       </c>
-      <c r="AV16" s="10" t="s">
+      <c r="AW16" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="AW16" s="10" t="s">
+      <c r="AX16" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="AX16" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AY16" s="10" t="s">
+      <c r="AY16" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AZ16" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="AZ16" s="10">
+      <c r="BA16" s="10">
         <v>5</v>
       </c>
-      <c r="BA16" s="10">
+      <c r="BB16" s="10">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="BB16" s="10">
+      <c r="BC16" s="10">
         <v>0.12</v>
       </c>
-      <c r="BC16" s="10">
+      <c r="BD16" s="10">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="BD16" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BE16" s="10" t="s">
+      <c r="BE16" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BF16" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="BF16" s="10">
-        <v>0.02</v>
-      </c>
       <c r="BG16" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BH16" s="10">
         <v>0.01</v>
       </c>
-      <c r="BH16" s="10" t="s">
+      <c r="BI16" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="BI16" s="10">
+      <c r="BJ16" s="10">
         <v>0.75</v>
       </c>
-      <c r="BJ16" s="10" t="b">
-        <v>1</v>
-      </c>
       <c r="BK16" s="10" t="b">
         <v>1</v>
       </c>
+      <c r="BL16" s="10" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="17" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:64" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B17" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D17" s="10">
         <v>1</v>
@@ -3297,483 +3316,323 @@
       <c r="G17" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="N17" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="P17" s="10">
-        <v>0.02</v>
+      <c r="H17" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>112</v>
       </c>
       <c r="Q17" s="10">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="R17" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S17" s="10">
-        <v>0.02</v>
+        <v>1</v>
       </c>
       <c r="T17" s="10">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="U17" s="10">
+        <v>0</v>
+      </c>
+      <c r="V17" s="10">
         <v>0.9</v>
       </c>
-      <c r="V17" s="10">
-        <v>0.02</v>
-      </c>
       <c r="W17" s="10">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="X17" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="10">
         <v>0.9</v>
       </c>
-      <c r="Y17" s="10">
+      <c r="Z17" s="10">
         <v>0.01</v>
       </c>
-      <c r="Z17" s="10">
+      <c r="AA17" s="10">
         <v>1E-3</v>
       </c>
-      <c r="AA17" s="10">
-        <v>0.02</v>
-      </c>
       <c r="AB17" s="10">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="AC17" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD17" s="10">
         <v>1</v>
       </c>
-      <c r="AH17" s="10">
+      <c r="AE17" s="10">
+        <v>1</v>
+      </c>
+      <c r="AI17" s="10">
         <v>0.05</v>
       </c>
-      <c r="AI17" s="10">
-        <v>0.5</v>
-      </c>
       <c r="AJ17" s="10">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AK17" s="10">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AL17" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AM17" s="10">
         <v>0.03</v>
       </c>
-      <c r="AM17" s="10">
+      <c r="AN17" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AN17" s="10">
+      <c r="AO17" s="10">
         <v>0.04</v>
       </c>
-      <c r="AO17" s="10">
+      <c r="AP17" s="10">
         <v>0.11</v>
       </c>
-      <c r="AP17" s="10">
-        <v>1</v>
-      </c>
       <c r="AQ17" s="10">
+        <v>1</v>
+      </c>
+      <c r="AR17" s="10">
         <v>0.03</v>
       </c>
-      <c r="AR17" s="10">
+      <c r="AS17" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AS17" s="10">
+      <c r="AT17" s="10">
         <v>0.7</v>
       </c>
-      <c r="AT17" s="10">
-        <v>1</v>
-      </c>
       <c r="AU17" s="10">
+        <v>1</v>
+      </c>
+      <c r="AV17" s="10">
         <v>15</v>
       </c>
-      <c r="AV17" s="10" t="s">
+      <c r="AW17" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="AW17" s="10" t="s">
+      <c r="AX17" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="AX17" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AY17" s="10" t="s">
+      <c r="AY17" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AZ17" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="AZ17" s="10">
+      <c r="BA17" s="10">
         <v>5</v>
       </c>
-      <c r="BA17" s="10">
+      <c r="BB17" s="10">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="BB17" s="10">
+      <c r="BC17" s="10">
         <v>0.12</v>
       </c>
-      <c r="BC17" s="10">
+      <c r="BD17" s="10">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="BD17" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BE17" s="10" t="s">
+      <c r="BE17" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BF17" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="BF17" s="10">
-        <v>0.02</v>
-      </c>
       <c r="BG17" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BH17" s="10">
         <v>0.01</v>
       </c>
-      <c r="BH17" s="10" t="s">
+      <c r="BI17" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="BI17" s="10">
+      <c r="BJ17" s="10">
         <v>0.75</v>
       </c>
-      <c r="BJ17" s="10" t="b">
-        <v>1</v>
-      </c>
       <c r="BK17" s="10" t="b">
         <v>1</v>
       </c>
+      <c r="BL17" s="10" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="18" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="B19" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="D19" s="10">
-        <v>1</v>
-      </c>
-      <c r="E19" s="10" t="s">
+    <row r="18" spans="1:64" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="B18" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="D18" s="10">
+        <v>1</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="G18" s="10">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="K18" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q18" s="10">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="R18" s="10">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="S18" s="14">
+        <v>5</v>
+      </c>
+      <c r="T18" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="U18" s="10">
+        <v>0</v>
+      </c>
+      <c r="V18" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="W18" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="X18" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="Z18" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="AA18" s="10">
+        <v>1E-3</v>
+      </c>
+      <c r="AB18" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AC18" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="10">
+        <v>1</v>
+      </c>
+      <c r="AE18" s="10">
+        <v>1</v>
+      </c>
+      <c r="AI18" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="AJ18" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AK18" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="AL18" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AM18" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="AN18" s="10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AO18" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="AP18" s="10">
+        <v>0.11</v>
+      </c>
+      <c r="AQ18" s="10">
+        <v>5</v>
+      </c>
+      <c r="AR18" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="AS18" s="10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AT18" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="AU18" s="10">
+        <v>1</v>
+      </c>
+      <c r="AV18" s="10">
+        <v>15</v>
+      </c>
+      <c r="AW18" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="AX18" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AY18" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AZ18" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="BA18" s="10">
+        <v>5</v>
+      </c>
+      <c r="BB18" s="10">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="BC18" s="10">
+        <v>0.12</v>
+      </c>
+      <c r="BD18" s="10">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="BE18" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BF18" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="F19" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="G19" s="10">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="H19" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="N19" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="P19" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="Q19" s="10">
-        <v>0</v>
-      </c>
-      <c r="R19" s="10">
-        <v>1</v>
-      </c>
-      <c r="S19" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="T19" s="10">
-        <v>0</v>
-      </c>
-      <c r="U19" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="V19" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="W19" s="10">
-        <v>0</v>
-      </c>
-      <c r="X19" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="Y19" s="10">
+      <c r="BG18" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BH18" s="10">
         <v>0.01</v>
       </c>
-      <c r="Z19" s="10">
-        <v>1E-3</v>
-      </c>
-      <c r="AA19" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AB19" s="10">
-        <v>0</v>
-      </c>
-      <c r="AC19" s="10">
-        <v>1</v>
-      </c>
-      <c r="AD19" s="10">
-        <v>1</v>
-      </c>
-      <c r="AH19" s="10">
-        <v>0.05</v>
-      </c>
-      <c r="AI19" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AJ19" s="10">
-        <v>0</v>
-      </c>
-      <c r="AK19" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AL19" s="10">
-        <v>0.03</v>
-      </c>
-      <c r="AM19" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AN19" s="10">
-        <v>0.04</v>
-      </c>
-      <c r="AO19" s="10">
-        <v>0.11</v>
-      </c>
-      <c r="AP19" s="10">
-        <v>1</v>
-      </c>
-      <c r="AQ19" s="10">
-        <v>0.03</v>
-      </c>
-      <c r="AR19" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AS19" s="10">
-        <v>0.7</v>
-      </c>
-      <c r="AT19" s="10">
-        <v>1</v>
-      </c>
-      <c r="AU19" s="10">
-        <v>15</v>
-      </c>
-      <c r="AV19" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="AW19" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="AX19" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AY19" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="AZ19" s="10">
-        <v>5</v>
-      </c>
-      <c r="BA19" s="10">
-        <v>8.2199999999999995E-2</v>
-      </c>
-      <c r="BB19" s="10">
-        <v>0.12</v>
-      </c>
-      <c r="BC19" s="10">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="BD19" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BE19" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="BF19" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BG19" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="BH19" s="10" t="s">
+      <c r="BI18" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="BI19" s="10">
-        <v>1</v>
-      </c>
-      <c r="BJ19" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="BK19" s="10" t="b">
+      <c r="BJ18" s="10">
+        <v>0.75</v>
+      </c>
+      <c r="BK18" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="BL18" s="10" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="B20" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="D20" s="10">
-        <v>1</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="G20" s="10">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="H20" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="N20" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="P20" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="Q20" s="10">
-        <v>0</v>
-      </c>
-      <c r="R20" s="10">
-        <v>1</v>
-      </c>
-      <c r="S20" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="T20" s="10">
-        <v>0</v>
-      </c>
-      <c r="U20" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="V20" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="W20" s="10">
-        <v>0</v>
-      </c>
-      <c r="X20" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="Y20" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="Z20" s="10">
-        <v>1E-3</v>
-      </c>
-      <c r="AA20" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AB20" s="10">
-        <v>0</v>
-      </c>
-      <c r="AC20" s="10">
-        <v>1</v>
-      </c>
-      <c r="AD20" s="10">
-        <v>1</v>
-      </c>
-      <c r="AH20" s="10">
-        <v>0.05</v>
-      </c>
-      <c r="AI20" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AJ20" s="10">
-        <v>0.05</v>
-      </c>
-      <c r="AK20" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AL20" s="10">
-        <v>0.03</v>
-      </c>
-      <c r="AM20" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AN20" s="10">
-        <v>0.04</v>
-      </c>
-      <c r="AO20" s="10">
-        <v>0.11</v>
-      </c>
-      <c r="AP20" s="10">
-        <v>1</v>
-      </c>
-      <c r="AQ20" s="10">
-        <v>0.03</v>
-      </c>
-      <c r="AR20" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AS20" s="10">
-        <v>0.7</v>
-      </c>
-      <c r="AT20" s="10">
-        <v>1</v>
-      </c>
-      <c r="AU20" s="10">
-        <v>15</v>
-      </c>
-      <c r="AV20" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="AW20" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="AX20" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AY20" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="AZ20" s="10">
-        <v>5</v>
-      </c>
-      <c r="BA20" s="10">
-        <v>8.2199999999999995E-2</v>
-      </c>
-      <c r="BB20" s="10">
-        <v>0.12</v>
-      </c>
-      <c r="BC20" s="10">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="BD20" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BE20" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="BF20" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BG20" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="BH20" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="BI20" s="10">
-        <v>1</v>
-      </c>
-      <c r="BJ20" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="BK20" s="10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:64" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:64" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:64" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B21" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D21" s="10">
         <v>1</v>
@@ -3782,162 +3641,162 @@
         <v>50</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="G21" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="N21" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="P21" s="10">
-        <v>0.02</v>
+        <v>134</v>
+      </c>
+      <c r="K21" s="10" t="s">
+        <v>76</v>
       </c>
       <c r="Q21" s="10">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="R21" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S21" s="10">
-        <v>0.02</v>
+        <v>1</v>
       </c>
       <c r="T21" s="10">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="U21" s="10">
+        <v>0</v>
+      </c>
+      <c r="V21" s="10">
         <v>0.9</v>
       </c>
-      <c r="V21" s="10">
-        <v>0.02</v>
-      </c>
       <c r="W21" s="10">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="X21" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="10">
         <v>0.9</v>
       </c>
-      <c r="Y21" s="10">
+      <c r="Z21" s="10">
         <v>0.01</v>
       </c>
-      <c r="Z21" s="10">
+      <c r="AA21" s="10">
         <v>1E-3</v>
       </c>
-      <c r="AA21" s="10">
-        <v>0.02</v>
-      </c>
       <c r="AB21" s="10">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="AC21" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD21" s="10">
         <v>1</v>
       </c>
-      <c r="AH21" s="10">
+      <c r="AE21" s="10">
+        <v>1</v>
+      </c>
+      <c r="AI21" s="10">
         <v>0.05</v>
       </c>
-      <c r="AI21" s="10">
-        <v>0.5</v>
-      </c>
       <c r="AJ21" s="10">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AK21" s="10">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AL21" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AM21" s="10">
         <v>0.03</v>
       </c>
-      <c r="AM21" s="10">
+      <c r="AN21" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AN21" s="10">
+      <c r="AO21" s="10">
         <v>0.04</v>
       </c>
-      <c r="AO21" s="10">
+      <c r="AP21" s="10">
         <v>0.11</v>
       </c>
-      <c r="AP21" s="10">
-        <v>1</v>
-      </c>
       <c r="AQ21" s="10">
+        <v>1</v>
+      </c>
+      <c r="AR21" s="10">
         <v>0.03</v>
       </c>
-      <c r="AR21" s="10">
+      <c r="AS21" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AS21" s="10">
+      <c r="AT21" s="10">
         <v>0.7</v>
       </c>
-      <c r="AT21" s="10">
-        <v>1</v>
-      </c>
       <c r="AU21" s="10">
+        <v>1</v>
+      </c>
+      <c r="AV21" s="10">
         <v>15</v>
       </c>
-      <c r="AV21" s="10" t="s">
+      <c r="AW21" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="AW21" s="10" t="s">
+      <c r="AX21" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="AX21" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AY21" s="10" t="s">
+      <c r="AY21" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AZ21" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="AZ21" s="10">
+      <c r="BA21" s="10">
         <v>5</v>
       </c>
-      <c r="BA21" s="10">
+      <c r="BB21" s="10">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="BB21" s="10">
+      <c r="BC21" s="10">
         <v>0.12</v>
       </c>
-      <c r="BC21" s="10">
+      <c r="BD21" s="10">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="BD21" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BE21" s="10" t="s">
+      <c r="BE21" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BF21" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="BF21" s="10">
-        <v>0.02</v>
-      </c>
       <c r="BG21" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BH21" s="10">
         <v>0.01</v>
       </c>
-      <c r="BH21" s="10" t="s">
+      <c r="BI21" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="BI21" s="10">
-        <v>1</v>
-      </c>
-      <c r="BJ21" s="10" t="b">
+      <c r="BJ21" s="10">
         <v>1</v>
       </c>
       <c r="BK21" s="10" t="b">
         <v>1</v>
       </c>
+      <c r="BL21" s="10" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="22" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:64" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="B22" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D22" s="10">
         <v>1</v>
@@ -3946,162 +3805,162 @@
         <v>50</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G22" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="N22" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="P22" s="10">
-        <v>0.02</v>
+        <v>134</v>
+      </c>
+      <c r="K22" s="10" t="s">
+        <v>76</v>
       </c>
       <c r="Q22" s="10">
-        <v>0</v>
-      </c>
-      <c r="R22" s="14">
+        <v>0.02</v>
+      </c>
+      <c r="R22" s="10">
+        <v>0</v>
+      </c>
+      <c r="S22" s="10">
+        <v>1</v>
+      </c>
+      <c r="T22" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="U22" s="10">
+        <v>0</v>
+      </c>
+      <c r="V22" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="W22" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="X22" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="Z22" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="AA22" s="10">
+        <v>1E-3</v>
+      </c>
+      <c r="AB22" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AC22" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="10">
+        <v>1</v>
+      </c>
+      <c r="AE22" s="10">
+        <v>1</v>
+      </c>
+      <c r="AI22" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="AJ22" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AK22" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="AL22" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AM22" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="AN22" s="10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AO22" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="AP22" s="10">
+        <v>0.11</v>
+      </c>
+      <c r="AQ22" s="10">
+        <v>1</v>
+      </c>
+      <c r="AR22" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="AS22" s="10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AT22" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="AU22" s="10">
+        <v>1</v>
+      </c>
+      <c r="AV22" s="10">
+        <v>15</v>
+      </c>
+      <c r="AW22" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="AX22" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AY22" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AZ22" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="BA22" s="10">
         <v>5</v>
       </c>
-      <c r="S22" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="T22" s="10">
-        <v>0</v>
-      </c>
-      <c r="U22" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="V22" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="W22" s="10">
-        <v>0</v>
-      </c>
-      <c r="X22" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="Y22" s="10">
+      <c r="BB22" s="10">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="BC22" s="10">
+        <v>0.12</v>
+      </c>
+      <c r="BD22" s="10">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="BE22" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BF22" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="BG22" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BH22" s="10">
         <v>0.01</v>
       </c>
-      <c r="Z22" s="10">
-        <v>1E-3</v>
-      </c>
-      <c r="AA22" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AB22" s="10">
-        <v>0</v>
-      </c>
-      <c r="AC22" s="10">
-        <v>1</v>
-      </c>
-      <c r="AD22" s="10">
-        <v>1</v>
-      </c>
-      <c r="AH22" s="10">
-        <v>0.05</v>
-      </c>
-      <c r="AI22" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AJ22" s="10">
-        <v>0</v>
-      </c>
-      <c r="AK22" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AL22" s="10">
-        <v>0.03</v>
-      </c>
-      <c r="AM22" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AN22" s="10">
-        <v>0.04</v>
-      </c>
-      <c r="AO22" s="10">
-        <v>0.11</v>
-      </c>
-      <c r="AP22" s="10">
-        <v>5</v>
-      </c>
-      <c r="AQ22" s="10">
-        <v>0.03</v>
-      </c>
-      <c r="AR22" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AS22" s="10">
-        <v>0.7</v>
-      </c>
-      <c r="AT22" s="10">
-        <v>1</v>
-      </c>
-      <c r="AU22" s="10">
-        <v>15</v>
-      </c>
-      <c r="AV22" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="AW22" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="AX22" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AY22" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="AZ22" s="10">
-        <v>5</v>
-      </c>
-      <c r="BA22" s="10">
-        <v>8.2199999999999995E-2</v>
-      </c>
-      <c r="BB22" s="10">
-        <v>0.12</v>
-      </c>
-      <c r="BC22" s="10">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="BD22" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BE22" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="BF22" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BG22" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="BH22" s="10" t="s">
+      <c r="BI22" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="BI22" s="10">
-        <v>1</v>
-      </c>
-      <c r="BJ22" s="10" t="b">
+      <c r="BJ22" s="10">
         <v>1</v>
       </c>
       <c r="BK22" s="10" t="b">
         <v>1</v>
       </c>
+      <c r="BL22" s="10" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="23" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:64" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B23" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D23" s="10">
         <v>1</v>
@@ -4110,490 +3969,490 @@
         <v>50</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G23" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="N23" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="K23" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q23" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="R23" s="10">
+        <v>0</v>
+      </c>
+      <c r="S23" s="10">
+        <v>1</v>
+      </c>
+      <c r="T23" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="U23" s="10">
+        <v>0</v>
+      </c>
+      <c r="V23" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="W23" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="X23" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="Z23" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="AA23" s="10">
+        <v>1E-3</v>
+      </c>
+      <c r="AB23" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AC23" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="10">
+        <v>1</v>
+      </c>
+      <c r="AE23" s="10">
+        <v>1</v>
+      </c>
+      <c r="AI23" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="AJ23" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AK23" s="10">
+        <v>0</v>
+      </c>
+      <c r="AL23" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AM23" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="AN23" s="10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AO23" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="AP23" s="10">
+        <v>0.11</v>
+      </c>
+      <c r="AQ23" s="10">
+        <v>1</v>
+      </c>
+      <c r="AR23" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="AS23" s="10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AT23" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="AU23" s="10">
+        <v>1</v>
+      </c>
+      <c r="AV23" s="10">
+        <v>15</v>
+      </c>
+      <c r="AW23" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="AX23" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AY23" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AZ23" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="BA23" s="10">
+        <v>5</v>
+      </c>
+      <c r="BB23" s="10">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="BC23" s="10">
+        <v>0.12</v>
+      </c>
+      <c r="BD23" s="10">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="BE23" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BF23" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="BG23" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BH23" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="BI23" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="BJ23" s="10">
+        <v>1</v>
+      </c>
+      <c r="BK23" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="BL23" s="10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:64" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="P23" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="Q23" s="10">
-        <v>0</v>
-      </c>
-      <c r="R23" s="10">
-        <v>1</v>
-      </c>
-      <c r="S23" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="T23" s="10">
-        <v>0</v>
-      </c>
-      <c r="U23" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="V23" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="W23" s="10">
-        <v>0</v>
-      </c>
-      <c r="X23" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="Y23" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="Z23" s="10">
-        <v>1E-3</v>
-      </c>
-      <c r="AA23" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AB23" s="10">
-        <v>0</v>
-      </c>
-      <c r="AC23" s="10">
-        <v>1</v>
-      </c>
-      <c r="AD23" s="10">
-        <v>1</v>
-      </c>
-      <c r="AH23" s="10">
-        <v>0.05</v>
-      </c>
-      <c r="AI23" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AJ23" s="10">
-        <v>0</v>
-      </c>
-      <c r="AK23" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AL23" s="10">
-        <v>0.03</v>
-      </c>
-      <c r="AM23" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AN23" s="10">
-        <v>0.04</v>
-      </c>
-      <c r="AO23" s="10">
-        <v>0.11</v>
-      </c>
-      <c r="AP23" s="10">
-        <v>1</v>
-      </c>
-      <c r="AQ23" s="10">
-        <v>0.03</v>
-      </c>
-      <c r="AR23" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AS23" s="10">
-        <v>0.7</v>
-      </c>
-      <c r="AT23" s="10">
-        <v>1</v>
-      </c>
-      <c r="AU23" s="10">
-        <v>15</v>
-      </c>
-      <c r="AV23" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="AW23" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="AX23" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AY23" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="AZ23" s="10">
-        <v>5</v>
-      </c>
-      <c r="BA23" s="10">
-        <v>8.2199999999999995E-2</v>
-      </c>
-      <c r="BB23" s="10">
-        <v>0.12</v>
-      </c>
-      <c r="BC23" s="10">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="BD23" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BE23" s="10" t="s">
+      <c r="B24" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="D24" s="10">
+        <v>1</v>
+      </c>
+      <c r="E24" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="BF23" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BG23" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="BH23" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="BI23" s="10">
-        <v>1</v>
-      </c>
-      <c r="BJ23" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="BK23" s="10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="B24" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="D24" s="10">
-        <v>1</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>51</v>
-      </c>
       <c r="F24" s="10" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="G24" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="N24" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="P24" s="10">
-        <v>0.02</v>
+        <v>134</v>
+      </c>
+      <c r="K24" s="10" t="s">
+        <v>76</v>
       </c>
       <c r="Q24" s="10">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="R24" s="10">
-        <v>1</v>
-      </c>
-      <c r="S24" s="10">
-        <v>0.02</v>
+        <v>0</v>
+      </c>
+      <c r="S24" s="14">
+        <v>5</v>
       </c>
       <c r="T24" s="10">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="U24" s="10">
+        <v>0</v>
+      </c>
+      <c r="V24" s="10">
         <v>0.9</v>
       </c>
-      <c r="V24" s="10">
-        <v>0.02</v>
-      </c>
       <c r="W24" s="10">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="X24" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="10">
         <v>0.9</v>
       </c>
-      <c r="Y24" s="10">
+      <c r="Z24" s="10">
         <v>0.01</v>
       </c>
-      <c r="Z24" s="10">
+      <c r="AA24" s="10">
         <v>1E-3</v>
       </c>
-      <c r="AA24" s="10">
-        <v>0.02</v>
-      </c>
       <c r="AB24" s="10">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="AC24" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD24" s="10">
         <v>1</v>
       </c>
-      <c r="AH24" s="10">
+      <c r="AE24" s="10">
+        <v>1</v>
+      </c>
+      <c r="AI24" s="10">
         <v>0.05</v>
       </c>
-      <c r="AI24" s="10">
-        <v>0.5</v>
-      </c>
       <c r="AJ24" s="10">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AK24" s="10">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AL24" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AM24" s="10">
         <v>0.03</v>
       </c>
-      <c r="AM24" s="10">
+      <c r="AN24" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AN24" s="10">
+      <c r="AO24" s="10">
         <v>0.04</v>
       </c>
-      <c r="AO24" s="10">
+      <c r="AP24" s="10">
         <v>0.11</v>
       </c>
-      <c r="AP24" s="10">
-        <v>1</v>
-      </c>
       <c r="AQ24" s="10">
+        <v>5</v>
+      </c>
+      <c r="AR24" s="10">
         <v>0.03</v>
       </c>
-      <c r="AR24" s="10">
+      <c r="AS24" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AS24" s="10">
+      <c r="AT24" s="10">
         <v>0.7</v>
       </c>
-      <c r="AT24" s="10">
-        <v>1</v>
-      </c>
       <c r="AU24" s="10">
+        <v>1</v>
+      </c>
+      <c r="AV24" s="10">
         <v>15</v>
       </c>
-      <c r="AV24" s="10" t="s">
+      <c r="AW24" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="AW24" s="10" t="s">
+      <c r="AX24" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="AX24" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AY24" s="10" t="s">
+      <c r="AY24" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AZ24" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="AZ24" s="10">
+      <c r="BA24" s="10">
         <v>5</v>
       </c>
-      <c r="BA24" s="10">
+      <c r="BB24" s="10">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="BB24" s="10">
+      <c r="BC24" s="10">
         <v>0.12</v>
       </c>
-      <c r="BC24" s="10">
+      <c r="BD24" s="10">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="BD24" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BE24" s="10" t="s">
+      <c r="BE24" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BF24" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="BF24" s="10">
-        <v>0.02</v>
-      </c>
       <c r="BG24" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BH24" s="10">
         <v>0.01</v>
       </c>
-      <c r="BH24" s="10" t="s">
+      <c r="BI24" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="BI24" s="10">
-        <v>1</v>
-      </c>
-      <c r="BJ24" s="10" t="b">
+      <c r="BJ24" s="10">
         <v>1</v>
       </c>
       <c r="BK24" s="10" t="b">
         <v>1</v>
       </c>
+      <c r="BL24" s="10" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="25" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:64" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="B25" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D25" s="10">
         <v>1</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="G25" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="N25" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="P25" s="10">
-        <v>0.02</v>
+        <v>134</v>
+      </c>
+      <c r="K25" s="10" t="s">
+        <v>76</v>
       </c>
       <c r="Q25" s="10">
-        <v>0</v>
-      </c>
-      <c r="R25" s="14">
+        <v>0.02</v>
+      </c>
+      <c r="R25" s="10">
+        <v>0</v>
+      </c>
+      <c r="S25" s="10">
+        <v>1</v>
+      </c>
+      <c r="T25" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="U25" s="10">
+        <v>0</v>
+      </c>
+      <c r="V25" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="W25" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="X25" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="Z25" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="AA25" s="10">
+        <v>1E-3</v>
+      </c>
+      <c r="AB25" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AC25" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="10">
+        <v>1</v>
+      </c>
+      <c r="AE25" s="10">
+        <v>1</v>
+      </c>
+      <c r="AI25" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="AJ25" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AK25" s="10">
+        <v>0</v>
+      </c>
+      <c r="AL25" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AM25" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="AN25" s="10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AO25" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="AP25" s="10">
+        <v>0.11</v>
+      </c>
+      <c r="AQ25" s="10">
+        <v>1</v>
+      </c>
+      <c r="AR25" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="AS25" s="10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AT25" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="AU25" s="10">
+        <v>1</v>
+      </c>
+      <c r="AV25" s="10">
+        <v>15</v>
+      </c>
+      <c r="AW25" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="AX25" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AY25" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AZ25" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="BA25" s="10">
         <v>5</v>
       </c>
-      <c r="S25" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="T25" s="10">
-        <v>0</v>
-      </c>
-      <c r="U25" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="V25" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="W25" s="10">
-        <v>0</v>
-      </c>
-      <c r="X25" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="Y25" s="10">
+      <c r="BB25" s="10">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="BC25" s="10">
+        <v>0.12</v>
+      </c>
+      <c r="BD25" s="10">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="BE25" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BF25" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="BG25" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BH25" s="10">
         <v>0.01</v>
       </c>
-      <c r="Z25" s="10">
-        <v>1E-3</v>
-      </c>
-      <c r="AA25" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AB25" s="10">
-        <v>0</v>
-      </c>
-      <c r="AC25" s="10">
-        <v>1</v>
-      </c>
-      <c r="AD25" s="10">
-        <v>1</v>
-      </c>
-      <c r="AH25" s="10">
-        <v>0.05</v>
-      </c>
-      <c r="AI25" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AJ25" s="10">
-        <v>0</v>
-      </c>
-      <c r="AK25" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AL25" s="10">
-        <v>0.03</v>
-      </c>
-      <c r="AM25" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AN25" s="10">
-        <v>0.04</v>
-      </c>
-      <c r="AO25" s="10">
-        <v>0.11</v>
-      </c>
-      <c r="AP25" s="10">
-        <v>5</v>
-      </c>
-      <c r="AQ25" s="10">
-        <v>0.03</v>
-      </c>
-      <c r="AR25" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AS25" s="10">
-        <v>0.7</v>
-      </c>
-      <c r="AT25" s="10">
-        <v>1</v>
-      </c>
-      <c r="AU25" s="10">
-        <v>15</v>
-      </c>
-      <c r="AV25" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="AW25" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="AX25" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AY25" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="AZ25" s="10">
-        <v>5</v>
-      </c>
-      <c r="BA25" s="10">
-        <v>8.2199999999999995E-2</v>
-      </c>
-      <c r="BB25" s="10">
-        <v>0.12</v>
-      </c>
-      <c r="BC25" s="10">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="BD25" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BE25" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="BF25" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BG25" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="BH25" s="10" t="s">
+      <c r="BI25" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="BI25" s="10">
-        <v>1</v>
-      </c>
-      <c r="BJ25" s="10" t="b">
+      <c r="BJ25" s="10">
         <v>1</v>
       </c>
       <c r="BK25" s="10" t="b">
         <v>1</v>
       </c>
+      <c r="BL25" s="10" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="26" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:64" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="B26" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D26" s="10">
         <v>1</v>
@@ -4608,162 +4467,162 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="H26" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="N26" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="P26" s="10">
-        <v>2.5000000000000001E-2</v>
+        <v>134</v>
+      </c>
+      <c r="K26" s="10" t="s">
+        <v>76</v>
       </c>
       <c r="Q26" s="10">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="R26" s="14">
+        <v>0.02</v>
+      </c>
+      <c r="R26" s="10">
+        <v>0</v>
+      </c>
+      <c r="S26" s="10">
+        <v>1</v>
+      </c>
+      <c r="T26" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="U26" s="10">
+        <v>0</v>
+      </c>
+      <c r="V26" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="W26" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="X26" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="Z26" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="AA26" s="10">
+        <v>1E-3</v>
+      </c>
+      <c r="AB26" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AC26" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD26" s="10">
+        <v>1</v>
+      </c>
+      <c r="AE26" s="10">
+        <v>1</v>
+      </c>
+      <c r="AI26" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="AJ26" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AK26" s="10">
+        <v>0</v>
+      </c>
+      <c r="AL26" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AM26" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="AN26" s="10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AO26" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="AP26" s="10">
+        <v>0.11</v>
+      </c>
+      <c r="AQ26" s="10">
+        <v>1</v>
+      </c>
+      <c r="AR26" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="AS26" s="10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AT26" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="AU26" s="10">
+        <v>1</v>
+      </c>
+      <c r="AV26" s="10">
+        <v>15</v>
+      </c>
+      <c r="AW26" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="AX26" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AY26" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AZ26" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="BA26" s="10">
         <v>5</v>
       </c>
-      <c r="S26" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="T26" s="10">
-        <v>0</v>
-      </c>
-      <c r="U26" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="V26" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="W26" s="10">
-        <v>0</v>
-      </c>
-      <c r="X26" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="Y26" s="10">
+      <c r="BB26" s="10">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="BC26" s="10">
+        <v>0.12</v>
+      </c>
+      <c r="BD26" s="10">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="BE26" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BF26" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="BG26" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BH26" s="10">
         <v>0.01</v>
       </c>
-      <c r="Z26" s="10">
-        <v>1E-3</v>
-      </c>
-      <c r="AA26" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AB26" s="10">
-        <v>0</v>
-      </c>
-      <c r="AC26" s="10">
-        <v>1</v>
-      </c>
-      <c r="AD26" s="10">
-        <v>1</v>
-      </c>
-      <c r="AH26" s="10">
-        <v>0.05</v>
-      </c>
-      <c r="AI26" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AJ26" s="10">
-        <v>0</v>
-      </c>
-      <c r="AK26" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AL26" s="10">
-        <v>0.03</v>
-      </c>
-      <c r="AM26" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AN26" s="10">
-        <v>0.04</v>
-      </c>
-      <c r="AO26" s="10">
-        <v>0.11</v>
-      </c>
-      <c r="AP26" s="10">
-        <v>5</v>
-      </c>
-      <c r="AQ26" s="10">
-        <v>0.03</v>
-      </c>
-      <c r="AR26" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AS26" s="10">
-        <v>0.7</v>
-      </c>
-      <c r="AT26" s="10">
-        <v>1</v>
-      </c>
-      <c r="AU26" s="10">
-        <v>15</v>
-      </c>
-      <c r="AV26" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="AW26" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="AX26" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AY26" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="AZ26" s="10">
-        <v>5</v>
-      </c>
-      <c r="BA26" s="10">
-        <v>8.2199999999999995E-2</v>
-      </c>
-      <c r="BB26" s="10">
-        <v>0.12</v>
-      </c>
-      <c r="BC26" s="10">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="BD26" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BE26" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="BF26" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BG26" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="BH26" s="10" t="s">
+      <c r="BI26" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="BI26" s="10">
-        <v>1</v>
-      </c>
-      <c r="BJ26" s="10" t="b">
+      <c r="BJ26" s="10">
         <v>1</v>
       </c>
       <c r="BK26" s="10" t="b">
         <v>1</v>
       </c>
+      <c r="BL26" s="10" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="27" spans="1:63" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:64" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="B27" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D27" s="10">
         <v>1</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F27" s="10" t="s">
         <v>63</v>
@@ -4772,162 +4631,162 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="H27" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="N27" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="P27" s="10">
-        <v>0.02</v>
+        <v>134</v>
+      </c>
+      <c r="K27" s="10" t="s">
+        <v>76</v>
       </c>
       <c r="Q27" s="10">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="R27" s="10">
-        <v>1</v>
-      </c>
-      <c r="S27" s="10">
-        <v>0.02</v>
+        <v>0</v>
+      </c>
+      <c r="S27" s="14">
+        <v>5</v>
       </c>
       <c r="T27" s="10">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="U27" s="10">
+        <v>0</v>
+      </c>
+      <c r="V27" s="10">
         <v>0.9</v>
       </c>
-      <c r="V27" s="10">
-        <v>0.02</v>
-      </c>
       <c r="W27" s="10">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="X27" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="10">
         <v>0.9</v>
       </c>
-      <c r="Y27" s="10">
+      <c r="Z27" s="10">
         <v>0.01</v>
       </c>
-      <c r="Z27" s="10">
+      <c r="AA27" s="10">
         <v>1E-3</v>
       </c>
-      <c r="AA27" s="10">
-        <v>0.02</v>
-      </c>
       <c r="AB27" s="10">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="AC27" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD27" s="10">
         <v>1</v>
       </c>
-      <c r="AH27" s="10">
+      <c r="AE27" s="10">
+        <v>1</v>
+      </c>
+      <c r="AI27" s="10">
         <v>0.05</v>
       </c>
-      <c r="AI27" s="10">
-        <v>0.5</v>
-      </c>
       <c r="AJ27" s="10">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AK27" s="10">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AL27" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AM27" s="10">
         <v>0.03</v>
       </c>
-      <c r="AM27" s="10">
+      <c r="AN27" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AN27" s="10">
+      <c r="AO27" s="10">
         <v>0.04</v>
       </c>
-      <c r="AO27" s="10">
+      <c r="AP27" s="10">
         <v>0.11</v>
       </c>
-      <c r="AP27" s="10">
-        <v>1</v>
-      </c>
       <c r="AQ27" s="10">
+        <v>5</v>
+      </c>
+      <c r="AR27" s="10">
         <v>0.03</v>
       </c>
-      <c r="AR27" s="10">
+      <c r="AS27" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AS27" s="10">
+      <c r="AT27" s="10">
         <v>0.7</v>
       </c>
-      <c r="AT27" s="10">
-        <v>1</v>
-      </c>
       <c r="AU27" s="10">
+        <v>1</v>
+      </c>
+      <c r="AV27" s="10">
         <v>15</v>
       </c>
-      <c r="AV27" s="10" t="s">
+      <c r="AW27" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="AW27" s="10" t="s">
+      <c r="AX27" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="AX27" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AY27" s="10" t="s">
+      <c r="AY27" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AZ27" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="AZ27" s="10">
+      <c r="BA27" s="10">
         <v>5</v>
       </c>
-      <c r="BA27" s="10">
+      <c r="BB27" s="10">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="BB27" s="10">
+      <c r="BC27" s="10">
         <v>0.12</v>
       </c>
-      <c r="BC27" s="10">
+      <c r="BD27" s="10">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="BD27" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BE27" s="10" t="s">
+      <c r="BE27" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BF27" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="BF27" s="10">
-        <v>0.02</v>
-      </c>
       <c r="BG27" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BH27" s="10">
         <v>0.01</v>
       </c>
-      <c r="BH27" s="10" t="s">
+      <c r="BI27" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="BI27" s="10">
-        <v>1</v>
-      </c>
-      <c r="BJ27" s="10" t="b">
+      <c r="BJ27" s="10">
         <v>1</v>
       </c>
       <c r="BK27" s="10" t="b">
         <v>1</v>
       </c>
+      <c r="BL27" s="10" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="28" spans="1:63" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:64" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B28" s="10" t="b">
         <v>1</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D28" s="10">
         <v>1</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F28" s="10" t="s">
         <v>63</v>
@@ -4936,162 +4795,162 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="H28" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="N28" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="P28" s="10">
-        <v>0.02</v>
+        <v>134</v>
+      </c>
+      <c r="K28" s="10" t="s">
+        <v>76</v>
       </c>
       <c r="Q28" s="10">
-        <v>0</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="R28" s="10">
-        <v>1</v>
-      </c>
-      <c r="S28" s="10">
-        <v>2.5000000000000001E-2</v>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="S28" s="14">
+        <v>5</v>
       </c>
       <c r="T28" s="10">
-        <v>5.0000000000000001E-3</v>
+        <v>0.02</v>
       </c>
       <c r="U28" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V28" s="10">
-        <v>0.02</v>
+        <v>0.9</v>
       </c>
       <c r="W28" s="10">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="X28" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="10">
         <v>0.9</v>
       </c>
-      <c r="Y28" s="10">
+      <c r="Z28" s="10">
         <v>0.01</v>
       </c>
-      <c r="Z28" s="10">
+      <c r="AA28" s="10">
         <v>1E-3</v>
       </c>
-      <c r="AA28" s="10">
-        <v>0.02</v>
-      </c>
       <c r="AB28" s="10">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="AC28" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD28" s="10">
         <v>1</v>
       </c>
-      <c r="AH28" s="10">
+      <c r="AE28" s="10">
+        <v>1</v>
+      </c>
+      <c r="AI28" s="10">
         <v>0.05</v>
       </c>
-      <c r="AI28" s="10">
-        <v>0.5</v>
-      </c>
       <c r="AJ28" s="10">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AK28" s="10">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AL28" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AM28" s="10">
         <v>0.03</v>
       </c>
-      <c r="AM28" s="10">
+      <c r="AN28" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AN28" s="10">
+      <c r="AO28" s="10">
         <v>0.04</v>
       </c>
-      <c r="AO28" s="10">
+      <c r="AP28" s="10">
         <v>0.11</v>
       </c>
-      <c r="AP28" s="10">
-        <v>1</v>
-      </c>
       <c r="AQ28" s="10">
+        <v>5</v>
+      </c>
+      <c r="AR28" s="10">
         <v>0.03</v>
       </c>
-      <c r="AR28" s="10">
+      <c r="AS28" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AS28" s="10">
+      <c r="AT28" s="10">
         <v>0.7</v>
       </c>
-      <c r="AT28" s="10">
-        <v>1</v>
-      </c>
       <c r="AU28" s="10">
+        <v>1</v>
+      </c>
+      <c r="AV28" s="10">
         <v>15</v>
       </c>
-      <c r="AV28" s="10" t="s">
+      <c r="AW28" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="AW28" s="10" t="s">
+      <c r="AX28" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="AX28" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AY28" s="10" t="s">
+      <c r="AY28" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AZ28" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="AZ28" s="10">
+      <c r="BA28" s="10">
         <v>5</v>
       </c>
-      <c r="BA28" s="10">
+      <c r="BB28" s="10">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="BB28" s="10">
+      <c r="BC28" s="10">
         <v>0.12</v>
       </c>
-      <c r="BC28" s="10">
+      <c r="BD28" s="10">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="BD28" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BE28" s="10" t="s">
+      <c r="BE28" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BF28" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="BF28" s="10">
-        <v>0.02</v>
-      </c>
       <c r="BG28" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BH28" s="10">
         <v>0.01</v>
       </c>
-      <c r="BH28" s="10" t="s">
+      <c r="BI28" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="BI28" s="10">
-        <v>1</v>
-      </c>
-      <c r="BJ28" s="10" t="b">
+      <c r="BJ28" s="10">
         <v>1</v>
       </c>
       <c r="BK28" s="10" t="b">
         <v>1</v>
       </c>
+      <c r="BL28" s="10" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="29" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:64" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B29" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D29" s="10">
         <v>1</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F29" s="10" t="s">
         <v>63</v>
@@ -5100,162 +4959,162 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="H29" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="N29" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="P29" s="10">
-        <v>0.02</v>
+        <v>134</v>
+      </c>
+      <c r="K29" s="10" t="s">
+        <v>76</v>
       </c>
       <c r="Q29" s="10">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="R29" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S29" s="10">
-        <v>0.02</v>
+        <v>1</v>
       </c>
       <c r="T29" s="10">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="U29" s="10">
+        <v>0</v>
+      </c>
+      <c r="V29" s="10">
         <v>0.9</v>
       </c>
-      <c r="V29" s="10">
-        <v>0.02</v>
-      </c>
       <c r="W29" s="10">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="X29" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="10">
         <v>0.9</v>
       </c>
-      <c r="Y29" s="10">
+      <c r="Z29" s="10">
         <v>0.01</v>
       </c>
-      <c r="Z29" s="10">
+      <c r="AA29" s="10">
         <v>1E-3</v>
       </c>
-      <c r="AA29" s="10">
-        <v>0.02</v>
-      </c>
       <c r="AB29" s="10">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="AC29" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD29" s="10">
         <v>1</v>
       </c>
-      <c r="AH29" s="10">
+      <c r="AE29" s="10">
+        <v>1</v>
+      </c>
+      <c r="AI29" s="10">
         <v>0.05</v>
       </c>
-      <c r="AI29" s="10">
-        <v>0.5</v>
-      </c>
       <c r="AJ29" s="10">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AK29" s="10">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AL29" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AM29" s="10">
         <v>0.03</v>
       </c>
-      <c r="AM29" s="10">
+      <c r="AN29" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AN29" s="10">
+      <c r="AO29" s="10">
         <v>0.04</v>
       </c>
-      <c r="AO29" s="10">
+      <c r="AP29" s="10">
         <v>0.11</v>
       </c>
-      <c r="AP29" s="10">
-        <v>1</v>
-      </c>
       <c r="AQ29" s="10">
+        <v>1</v>
+      </c>
+      <c r="AR29" s="10">
         <v>0.03</v>
       </c>
-      <c r="AR29" s="10">
+      <c r="AS29" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AS29" s="10">
+      <c r="AT29" s="10">
         <v>0.7</v>
       </c>
-      <c r="AT29" s="10">
-        <v>1</v>
-      </c>
       <c r="AU29" s="10">
+        <v>1</v>
+      </c>
+      <c r="AV29" s="10">
         <v>15</v>
       </c>
-      <c r="AV29" s="10" t="s">
+      <c r="AW29" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="AW29" s="10" t="s">
+      <c r="AX29" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="AX29" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AY29" s="10" t="s">
+      <c r="AY29" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AZ29" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="AZ29" s="10">
+      <c r="BA29" s="10">
         <v>5</v>
       </c>
-      <c r="BA29" s="10">
+      <c r="BB29" s="10">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="BB29" s="10">
+      <c r="BC29" s="10">
         <v>0.12</v>
       </c>
-      <c r="BC29" s="10">
+      <c r="BD29" s="10">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="BD29" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BE29" s="10" t="s">
+      <c r="BE29" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BF29" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="BF29" s="10">
-        <v>0.02</v>
-      </c>
       <c r="BG29" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BH29" s="10">
         <v>0.01</v>
       </c>
-      <c r="BH29" s="10" t="s">
+      <c r="BI29" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="BI29" s="10">
-        <v>1</v>
-      </c>
-      <c r="BJ29" s="10" t="b">
+      <c r="BJ29" s="10">
         <v>1</v>
       </c>
       <c r="BK29" s="10" t="b">
         <v>1</v>
       </c>
+      <c r="BL29" s="10" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="30" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:64" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="B30" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D30" s="10">
         <v>1</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F30" s="10" t="s">
         <v>63</v>
@@ -5264,168 +5123,162 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="H30" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="N30" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="P30" s="10">
-        <v>0.02</v>
+        <v>134</v>
+      </c>
+      <c r="K30" s="10" t="s">
+        <v>76</v>
       </c>
       <c r="Q30" s="10">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="R30" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S30" s="10">
-        <v>0.02</v>
+        <v>1</v>
       </c>
       <c r="T30" s="10">
-        <v>0</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="U30" s="10">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="V30" s="10">
+        <v>1</v>
+      </c>
+      <c r="W30" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="X30" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="10">
         <v>0.9</v>
       </c>
-      <c r="V30" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="W30" s="10">
-        <v>0</v>
-      </c>
-      <c r="X30" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="Y30" s="10">
+      <c r="Z30" s="10">
         <v>0.01</v>
       </c>
-      <c r="Z30" s="10">
+      <c r="AA30" s="10">
         <v>1E-3</v>
       </c>
-      <c r="AA30" s="10">
-        <v>0.02</v>
-      </c>
       <c r="AB30" s="10">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="AC30" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD30" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE30" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AF30" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AH30" s="10">
+        <v>1</v>
+      </c>
+      <c r="AI30" s="10">
         <v>0.05</v>
       </c>
-      <c r="AI30" s="10">
-        <v>0.5</v>
-      </c>
       <c r="AJ30" s="10">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AK30" s="10">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AL30" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AM30" s="10">
         <v>0.03</v>
       </c>
-      <c r="AM30" s="10">
+      <c r="AN30" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AN30" s="10">
+      <c r="AO30" s="10">
         <v>0.04</v>
       </c>
-      <c r="AO30" s="10">
+      <c r="AP30" s="10">
         <v>0.11</v>
       </c>
-      <c r="AP30" s="10">
-        <v>1</v>
-      </c>
       <c r="AQ30" s="10">
+        <v>1</v>
+      </c>
+      <c r="AR30" s="10">
         <v>0.03</v>
       </c>
-      <c r="AR30" s="10">
+      <c r="AS30" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AS30" s="10">
+      <c r="AT30" s="10">
         <v>0.7</v>
       </c>
-      <c r="AT30" s="10">
-        <v>1</v>
-      </c>
       <c r="AU30" s="10">
+        <v>1</v>
+      </c>
+      <c r="AV30" s="10">
         <v>15</v>
       </c>
-      <c r="AV30" s="10" t="s">
+      <c r="AW30" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="AW30" s="10" t="s">
+      <c r="AX30" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="AX30" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AY30" s="10" t="s">
+      <c r="AY30" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AZ30" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="AZ30" s="10">
+      <c r="BA30" s="10">
         <v>5</v>
       </c>
-      <c r="BA30" s="10">
+      <c r="BB30" s="10">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="BB30" s="10">
+      <c r="BC30" s="10">
         <v>0.12</v>
       </c>
-      <c r="BC30" s="10">
+      <c r="BD30" s="10">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="BD30" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BE30" s="10" t="s">
+      <c r="BE30" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BF30" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="BF30" s="10">
-        <v>0.02</v>
-      </c>
       <c r="BG30" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BH30" s="10">
         <v>0.01</v>
       </c>
-      <c r="BH30" s="10" t="s">
+      <c r="BI30" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="BI30" s="10">
-        <v>1</v>
-      </c>
-      <c r="BJ30" s="10" t="b">
+      <c r="BJ30" s="10">
         <v>1</v>
       </c>
       <c r="BK30" s="10" t="b">
         <v>1</v>
       </c>
+      <c r="BL30" s="10" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="31" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:64" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B31" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D31" s="10">
         <v>1</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F31" s="10" t="s">
         <v>63</v>
@@ -5433,363 +5286,707 @@
       <c r="G31" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="N31" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="P31" s="10">
-        <v>0.02</v>
+      <c r="H31" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="K31" s="10" t="s">
+        <v>76</v>
       </c>
       <c r="Q31" s="10">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="R31" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S31" s="10">
-        <v>0.02</v>
+        <v>1</v>
       </c>
       <c r="T31" s="10">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="U31" s="10">
+        <v>0</v>
+      </c>
+      <c r="V31" s="10">
         <v>0.9</v>
       </c>
-      <c r="V31" s="10">
-        <v>0.02</v>
-      </c>
       <c r="W31" s="10">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="X31" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="10">
         <v>0.9</v>
       </c>
-      <c r="Y31" s="10">
+      <c r="Z31" s="10">
         <v>0.01</v>
       </c>
-      <c r="Z31" s="10">
+      <c r="AA31" s="10">
         <v>1E-3</v>
       </c>
-      <c r="AA31" s="10">
-        <v>0.02</v>
-      </c>
       <c r="AB31" s="10">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="AC31" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD31" s="10">
         <v>1</v>
       </c>
-      <c r="AH31" s="10">
+      <c r="AE31" s="10">
+        <v>1</v>
+      </c>
+      <c r="AI31" s="10">
         <v>0.05</v>
       </c>
-      <c r="AI31" s="10">
-        <v>0.5</v>
-      </c>
       <c r="AJ31" s="10">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AK31" s="10">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AL31" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AM31" s="10">
         <v>0.03</v>
       </c>
-      <c r="AM31" s="10">
+      <c r="AN31" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AN31" s="10">
+      <c r="AO31" s="10">
         <v>0.04</v>
       </c>
-      <c r="AO31" s="10">
+      <c r="AP31" s="10">
         <v>0.11</v>
       </c>
-      <c r="AP31" s="10">
-        <v>1</v>
-      </c>
       <c r="AQ31" s="10">
+        <v>1</v>
+      </c>
+      <c r="AR31" s="10">
         <v>0.03</v>
       </c>
-      <c r="AR31" s="10">
+      <c r="AS31" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AS31" s="10">
+      <c r="AT31" s="10">
         <v>0.7</v>
       </c>
-      <c r="AT31" s="10">
-        <v>1</v>
-      </c>
       <c r="AU31" s="10">
+        <v>1</v>
+      </c>
+      <c r="AV31" s="10">
         <v>15</v>
       </c>
-      <c r="AV31" s="10" t="s">
+      <c r="AW31" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="AW31" s="10" t="s">
+      <c r="AX31" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="AX31" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AY31" s="10" t="s">
+      <c r="AY31" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AZ31" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="AZ31" s="10">
+      <c r="BA31" s="10">
         <v>5</v>
       </c>
-      <c r="BA31" s="10">
+      <c r="BB31" s="10">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="BB31" s="10">
+      <c r="BC31" s="10">
         <v>0.12</v>
       </c>
-      <c r="BC31" s="10">
+      <c r="BD31" s="10">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="BD31" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BE31" s="10" t="s">
+      <c r="BE31" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BF31" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="BF31" s="10">
-        <v>0.02</v>
-      </c>
       <c r="BG31" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BH31" s="10">
         <v>0.01</v>
       </c>
-      <c r="BH31" s="10" t="s">
+      <c r="BI31" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="BI31" s="10">
-        <v>1</v>
-      </c>
-      <c r="BJ31" s="10" t="b">
+      <c r="BJ31" s="10">
         <v>1</v>
       </c>
       <c r="BK31" s="10" t="b">
         <v>1</v>
       </c>
+      <c r="BL31" s="10" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="32" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="34" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:64" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="B32" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="D32" s="10">
+        <v>1</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G32" s="10">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H32" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="K32" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q32" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="R32" s="10">
+        <v>0</v>
+      </c>
+      <c r="S32" s="10">
+        <v>1</v>
+      </c>
+      <c r="T32" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="U32" s="10">
+        <v>0</v>
+      </c>
+      <c r="V32" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="W32" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="X32" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="Z32" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="AA32" s="10">
+        <v>1E-3</v>
+      </c>
+      <c r="AB32" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AC32" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="10">
+        <v>1</v>
+      </c>
+      <c r="AE32" s="10">
+        <v>2</v>
+      </c>
+      <c r="AF32" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AG32" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AI32" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="AJ32" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AK32" s="10">
+        <v>0</v>
+      </c>
+      <c r="AL32" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AM32" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="AN32" s="10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AO32" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="AP32" s="10">
+        <v>0.11</v>
+      </c>
+      <c r="AQ32" s="10">
+        <v>1</v>
+      </c>
+      <c r="AR32" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="AS32" s="10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AT32" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="AU32" s="10">
+        <v>1</v>
+      </c>
+      <c r="AV32" s="10">
+        <v>15</v>
+      </c>
+      <c r="AW32" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="AX32" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AY32" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AZ32" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="BA32" s="10">
+        <v>5</v>
+      </c>
+      <c r="BB32" s="10">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="BC32" s="10">
+        <v>0.12</v>
+      </c>
+      <c r="BD32" s="10">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="BE32" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BF32" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="BG32" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BH32" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="BI32" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="BJ32" s="10">
+        <v>1</v>
+      </c>
+      <c r="BK32" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="BL32" s="10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:64" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="B33" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="D33" s="10">
+        <v>1</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G33" s="10">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H33" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="I33" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q33" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="R33" s="10">
+        <v>0</v>
+      </c>
+      <c r="S33" s="10">
+        <v>1</v>
+      </c>
+      <c r="T33" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="U33" s="10">
+        <v>0</v>
+      </c>
+      <c r="V33" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="W33" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="X33" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="Z33" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="AA33" s="10">
+        <v>1E-3</v>
+      </c>
+      <c r="AB33" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AC33" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD33" s="10">
+        <v>1</v>
+      </c>
+      <c r="AE33" s="10">
+        <v>1</v>
+      </c>
+      <c r="AI33" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="AJ33" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AK33" s="10">
+        <v>0</v>
+      </c>
+      <c r="AL33" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AM33" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="AN33" s="10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AO33" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="AP33" s="10">
+        <v>0.11</v>
+      </c>
+      <c r="AQ33" s="10">
+        <v>1</v>
+      </c>
+      <c r="AR33" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="AS33" s="10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AT33" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="AU33" s="10">
+        <v>1</v>
+      </c>
+      <c r="AV33" s="10">
+        <v>15</v>
+      </c>
+      <c r="AW33" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="AX33" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AY33" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AZ33" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="BA33" s="10">
+        <v>5</v>
+      </c>
+      <c r="BB33" s="10">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="BC33" s="10">
+        <v>0.12</v>
+      </c>
+      <c r="BD33" s="10">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="BE33" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BF33" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="BG33" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BH33" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="BI33" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="BJ33" s="10">
+        <v>1</v>
+      </c>
+      <c r="BK33" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="BL33" s="10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:64" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="B34" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="D34" s="10">
+        <v>1</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="G34" s="10">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H34" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="K34" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q34" s="10">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="R34" s="10">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="S34" s="14">
+        <v>5</v>
+      </c>
+      <c r="T34" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="U34" s="10">
+        <v>0</v>
+      </c>
+      <c r="V34" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="W34" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="X34" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="Z34" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="AA34" s="10">
+        <v>1E-3</v>
+      </c>
+      <c r="AB34" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AC34" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="10">
+        <v>1</v>
+      </c>
+      <c r="AE34" s="10">
+        <v>1</v>
+      </c>
+      <c r="AI34" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="AJ34" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AK34" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="AL34" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AM34" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="AN34" s="10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AO34" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="AP34" s="10">
+        <v>0.11</v>
+      </c>
+      <c r="AQ34" s="10">
+        <v>5</v>
+      </c>
+      <c r="AR34" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="AS34" s="10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AT34" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="AU34" s="10">
+        <v>1</v>
+      </c>
+      <c r="AV34" s="10">
+        <v>15</v>
+      </c>
+      <c r="AW34" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="AX34" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AY34" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AZ34" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="BA34" s="10">
+        <v>5</v>
+      </c>
+      <c r="BB34" s="10">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="BC34" s="10">
+        <v>0.12</v>
+      </c>
+      <c r="BD34" s="10">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="BE34" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BF34" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="BG34" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BH34" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="BI34" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="BJ34" s="10">
+        <v>1</v>
+      </c>
+      <c r="BK34" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="BL34" s="10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:64" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="B36" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="K36" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="L36" s="10">
+        <v>1</v>
+      </c>
+      <c r="M36" s="10">
+        <v>1</v>
+      </c>
+      <c r="N36" s="10">
+        <v>1</v>
+      </c>
+      <c r="O36" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="P36" s="10">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="37" spans="1:64" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="K37" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="L37" s="10">
+        <v>1</v>
+      </c>
+      <c r="M37" s="10">
+        <v>1</v>
+      </c>
+      <c r="N37" s="10">
+        <v>1</v>
+      </c>
+      <c r="O37" s="10">
+        <v>0.06</v>
+      </c>
+      <c r="P37" s="10">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="38" spans="1:64" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B38" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="C38" s="10" t="s">
         <v>109</v>
-      </c>
-      <c r="B34" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="H34" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="I34" s="10">
-        <v>1</v>
-      </c>
-      <c r="J34" s="10">
-        <v>1</v>
-      </c>
-      <c r="K34" s="10">
-        <v>1</v>
-      </c>
-      <c r="L34" s="10">
-        <v>0.03</v>
-      </c>
-      <c r="M34" s="10">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="35" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="H35" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="I35" s="10">
-        <v>1</v>
-      </c>
-      <c r="J35" s="10">
-        <v>1</v>
-      </c>
-      <c r="K35" s="10">
-        <v>1</v>
-      </c>
-      <c r="L35" s="10">
-        <v>0.06</v>
-      </c>
-      <c r="M35" s="10">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="36" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="B36" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="D36" s="10">
-        <v>1</v>
-      </c>
-      <c r="E36" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="F36" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="G36" s="10">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="H36" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="P36" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="Q36" s="10">
-        <v>0</v>
-      </c>
-      <c r="S36" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="T36" s="10">
-        <v>0</v>
-      </c>
-      <c r="U36" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="V36" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="W36" s="10">
-        <v>0</v>
-      </c>
-      <c r="X36" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="Y36" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="Z36" s="10">
-        <v>1E-3</v>
-      </c>
-      <c r="AA36" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AB36" s="10">
-        <v>0</v>
-      </c>
-      <c r="AC36" s="10">
-        <v>1</v>
-      </c>
-      <c r="AD36" s="10">
-        <v>1</v>
-      </c>
-      <c r="AH36" s="10">
-        <v>0.05</v>
-      </c>
-      <c r="AI36" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AJ36" s="10">
-        <v>0</v>
-      </c>
-      <c r="AK36" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AL36" s="10">
-        <v>0.03</v>
-      </c>
-      <c r="AM36" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AN36" s="10">
-        <v>0.04</v>
-      </c>
-      <c r="AO36" s="10">
-        <v>0.11</v>
-      </c>
-      <c r="AQ36" s="10">
-        <v>0.03</v>
-      </c>
-      <c r="AR36" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AS36" s="10">
-        <v>0.7</v>
-      </c>
-      <c r="AT36" s="10">
-        <v>1</v>
-      </c>
-      <c r="AU36" s="10">
-        <v>15</v>
-      </c>
-      <c r="AV36" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="AW36" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="AX36" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AY36" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="AZ36" s="10">
-        <v>5</v>
-      </c>
-      <c r="BA36" s="10">
-        <v>8.2199999999999995E-2</v>
-      </c>
-      <c r="BB36" s="10">
-        <v>0.12</v>
-      </c>
-      <c r="BC36" s="10">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="BD36" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BE36" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="BF36" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BG36" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="BH36" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="BI36" s="10">
-        <v>0.75</v>
-      </c>
-      <c r="BJ36" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="BK36" s="10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="38" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="B38" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>110</v>
       </c>
       <c r="D38" s="10">
         <v>1</v>
@@ -5803,309 +6000,465 @@
       <c r="G38" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="H38" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="P38" s="10">
-        <v>0.02</v>
+      <c r="K38" s="10" t="s">
+        <v>76</v>
       </c>
       <c r="Q38" s="10">
-        <v>0</v>
-      </c>
-      <c r="S38" s="10">
-        <v>0.02</v>
+        <v>0.02</v>
+      </c>
+      <c r="R38" s="10">
+        <v>0</v>
       </c>
       <c r="T38" s="10">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="U38" s="10">
+        <v>0</v>
+      </c>
+      <c r="V38" s="10">
         <v>0.9</v>
       </c>
-      <c r="V38" s="10">
-        <v>0.02</v>
-      </c>
       <c r="W38" s="10">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="X38" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y38" s="10">
         <v>0.9</v>
       </c>
-      <c r="Y38" s="10">
+      <c r="Z38" s="10">
         <v>0.01</v>
       </c>
-      <c r="Z38" s="10">
+      <c r="AA38" s="10">
         <v>1E-3</v>
       </c>
-      <c r="AA38" s="10">
-        <v>0.02</v>
-      </c>
       <c r="AB38" s="10">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="AC38" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD38" s="10">
         <v>1</v>
       </c>
-      <c r="AH38" s="10">
+      <c r="AE38" s="10">
+        <v>1</v>
+      </c>
+      <c r="AI38" s="10">
         <v>0.05</v>
       </c>
-      <c r="AI38" s="10">
-        <v>0.5</v>
-      </c>
       <c r="AJ38" s="10">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AK38" s="10">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AL38" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AM38" s="10">
         <v>0.03</v>
       </c>
-      <c r="AM38" s="10">
+      <c r="AN38" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AN38" s="10">
+      <c r="AO38" s="10">
         <v>0.04</v>
       </c>
-      <c r="AO38" s="10">
+      <c r="AP38" s="10">
         <v>0.11</v>
       </c>
-      <c r="AP38" s="10">
+      <c r="AR38" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="AS38" s="10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AT38" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="AU38" s="10">
+        <v>1</v>
+      </c>
+      <c r="AV38" s="10">
+        <v>15</v>
+      </c>
+      <c r="AW38" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="AX38" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AY38" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AZ38" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="BA38" s="10">
         <v>5</v>
       </c>
-      <c r="AQ38" s="10">
+      <c r="BB38" s="10">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="BC38" s="10">
+        <v>0.12</v>
+      </c>
+      <c r="BD38" s="10">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="BE38" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BF38" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="BG38" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BH38" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="BI38" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="BJ38" s="10">
+        <v>0.75</v>
+      </c>
+      <c r="BK38" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="BL38" s="10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:64" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="1:64" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="B40" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="D40" s="10">
+        <v>1</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F40" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="G40" s="10">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="K40" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q40" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="R40" s="10">
+        <v>0</v>
+      </c>
+      <c r="T40" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="U40" s="10">
+        <v>0</v>
+      </c>
+      <c r="V40" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="W40" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="X40" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y40" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="Z40" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="AA40" s="10">
+        <v>1E-3</v>
+      </c>
+      <c r="AB40" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AC40" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD40" s="10">
+        <v>1</v>
+      </c>
+      <c r="AE40" s="10">
+        <v>1</v>
+      </c>
+      <c r="AI40" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="AJ40" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AK40" s="10">
+        <v>0</v>
+      </c>
+      <c r="AL40" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AM40" s="10">
         <v>0.03</v>
       </c>
-      <c r="AR38" s="10">
+      <c r="AN40" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AS38" s="10">
+      <c r="AO40" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="AP40" s="10">
+        <v>0.11</v>
+      </c>
+      <c r="AQ40" s="10">
+        <v>5</v>
+      </c>
+      <c r="AR40" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="AS40" s="10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AT40" s="10">
         <v>0.7</v>
       </c>
-      <c r="AT38" s="10">
-        <v>1</v>
-      </c>
-      <c r="AU38" s="10">
+      <c r="AU40" s="10">
+        <v>1</v>
+      </c>
+      <c r="AV40" s="10">
         <v>15</v>
       </c>
-      <c r="AV38" s="10" t="s">
+      <c r="AW40" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="AW38" s="10" t="s">
+      <c r="AX40" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="AX38" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AY38" s="10" t="s">
+      <c r="AY40" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AZ40" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="AZ38" s="10">
+      <c r="BA40" s="10">
         <v>5</v>
       </c>
-      <c r="BA38" s="10">
+      <c r="BB40" s="10">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="BB38" s="10">
+      <c r="BC40" s="10">
         <v>0.12</v>
       </c>
-      <c r="BC38" s="10">
+      <c r="BD40" s="10">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="BD38" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BE38" s="10" t="s">
+      <c r="BE40" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BF40" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="BF38" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BG38" s="10">
+      <c r="BG40" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BH40" s="10">
         <v>0.01</v>
       </c>
-      <c r="BH38" s="10" t="s">
+      <c r="BI40" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="BI38" s="10">
+      <c r="BJ40" s="10">
         <v>0.75</v>
       </c>
-      <c r="BJ38" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="BK38" s="10" t="b">
+      <c r="BK40" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="BL40" s="10" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="B39" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="D39" s="10">
-        <v>1</v>
-      </c>
-      <c r="E39" s="10" t="s">
+    <row r="41" spans="1:64" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="B41" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="D41" s="10">
+        <v>1</v>
+      </c>
+      <c r="E41" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="F39" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="G39" s="10">
+      <c r="F41" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="G41" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="H39" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="P39" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="Q39" s="10">
-        <v>0</v>
-      </c>
-      <c r="S39" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="T39" s="10">
-        <v>0</v>
-      </c>
-      <c r="U39" s="10">
+      <c r="K41" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q41" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="R41" s="10">
+        <v>0</v>
+      </c>
+      <c r="T41" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="U41" s="10">
+        <v>0</v>
+      </c>
+      <c r="V41" s="10">
         <v>0.9</v>
       </c>
-      <c r="V39" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="W39" s="10">
-        <v>0</v>
-      </c>
-      <c r="X39" s="10">
+      <c r="W41" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="X41" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="10">
         <v>0.9</v>
       </c>
-      <c r="Y39" s="10">
+      <c r="Z41" s="10">
         <v>0.01</v>
       </c>
-      <c r="Z39" s="10">
+      <c r="AA41" s="10">
         <v>1E-3</v>
       </c>
-      <c r="AA39" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AB39" s="10">
-        <v>0</v>
-      </c>
-      <c r="AC39" s="10">
-        <v>1</v>
-      </c>
-      <c r="AD39" s="10">
-        <v>1</v>
-      </c>
-      <c r="AH39" s="10">
+      <c r="AB41" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AC41" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD41" s="10">
+        <v>1</v>
+      </c>
+      <c r="AE41" s="10">
+        <v>1</v>
+      </c>
+      <c r="AI41" s="10">
         <v>0.05</v>
       </c>
-      <c r="AI39" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AJ39" s="10">
-        <v>0</v>
-      </c>
-      <c r="AK39" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AL39" s="10">
+      <c r="AJ41" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AK41" s="10">
+        <v>0</v>
+      </c>
+      <c r="AL41" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AM41" s="10">
         <v>0.03</v>
       </c>
-      <c r="AM39" s="10">
+      <c r="AN41" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AN39" s="10">
+      <c r="AO41" s="10">
         <v>0.04</v>
       </c>
-      <c r="AO39" s="10">
+      <c r="AP41" s="10">
         <v>0.11</v>
       </c>
-      <c r="AP39" s="10">
+      <c r="AQ41" s="10">
         <v>5</v>
       </c>
-      <c r="AQ39" s="10">
+      <c r="AR41" s="10">
         <v>0.03</v>
       </c>
-      <c r="AR39" s="10">
+      <c r="AS41" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AS39" s="10">
+      <c r="AT41" s="10">
         <v>0.7</v>
       </c>
-      <c r="AT39" s="10">
-        <v>1</v>
-      </c>
-      <c r="AU39" s="10">
+      <c r="AU41" s="10">
+        <v>1</v>
+      </c>
+      <c r="AV41" s="10">
         <v>15</v>
       </c>
-      <c r="AV39" s="10" t="s">
+      <c r="AW41" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="AW39" s="10" t="s">
+      <c r="AX41" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="AX39" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AY39" s="10" t="s">
+      <c r="AY41" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AZ41" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="AZ39" s="10">
+      <c r="BA41" s="10">
         <v>5</v>
       </c>
-      <c r="BA39" s="10">
+      <c r="BB41" s="10">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="BB39" s="10">
+      <c r="BC41" s="10">
         <v>0.12</v>
       </c>
-      <c r="BC39" s="10">
+      <c r="BD41" s="10">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="BD39" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BE39" s="10" t="s">
+      <c r="BE41" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BF41" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="BF39" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BG39" s="10">
+      <c r="BG41" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BH41" s="10">
         <v>0.01</v>
       </c>
-      <c r="BH39" s="10" t="s">
+      <c r="BI41" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="BI39" s="10">
-        <v>1</v>
-      </c>
-      <c r="BJ39" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="BK39" s="10" t="b">
+      <c r="BJ41" s="10">
+        <v>1</v>
+      </c>
+      <c r="BK41" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="BL41" s="10" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="1:63" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="1:64" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:64" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="1:64" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B34:B42 B3:B32" xr:uid="{05E01AB2-72EC-4550-ACB8-4E83765DE296}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B36:B44 B3:B34" xr:uid="{05E01AB2-72EC-4550-ACB8-4E83765DE296}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H34:H36 H38:H39 H3:H16 H19:H30" xr:uid="{8DBFC5CB-438A-4309-B948-24597CAE3D7F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K36:K38 K40:K41 K3:K16 K21:K32 K18 K34" xr:uid="{8DBFC5CB-438A-4309-B948-24597CAE3D7F}">
       <formula1>"preSet, ALpct,MApct"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6118,7 +6471,7 @@
           <x14:formula1>
             <xm:f>Policies!$B$3:$B$9</xm:f>
           </x14:formula1>
-          <xm:sqref>F36 F34 F38:F39 F3:F32</xm:sqref>
+          <xm:sqref>F38 F36 F40:F41 F3:F34</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -6132,7 +6485,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6168,7 +6521,7 @@
         <v>91</v>
       </c>
       <c r="B2">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="C2">
         <v>4</v>
@@ -6208,15 +6561,15 @@
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B3" t="s">
         <v>63</v>
@@ -6224,50 +6577,50 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/RunControl.xlsx
+++ b/RunControl.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B03F6BE-0B63-4DF3-834A-E6A76C0DB2F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98F958E7-B6CF-4B85-907C-46EBE87B7C01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="-7590" windowWidth="16440" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="paramlist" sheetId="1" r:id="rId1"/>
@@ -845,10 +845,10 @@
   <dimension ref="A1:BL44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B60" sqref="B60"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1328,7 +1328,7 @@
         <v>112</v>
       </c>
       <c r="B5" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>112</v>
@@ -1492,7 +1492,7 @@
         <v>115</v>
       </c>
       <c r="B6" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>109</v>
@@ -1656,7 +1656,7 @@
         <v>87</v>
       </c>
       <c r="B7" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>109</v>
@@ -1820,7 +1820,7 @@
         <v>130</v>
       </c>
       <c r="B8" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>109</v>
@@ -2012,6 +2012,9 @@
       </c>
       <c r="R9" s="10">
         <v>0</v>
+      </c>
+      <c r="S9" s="10">
+        <v>1</v>
       </c>
       <c r="T9" s="10">
         <v>0.02</v>

--- a/RunControl.xlsx
+++ b/RunControl.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98F958E7-B6CF-4B85-907C-46EBE87B7C01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8839AF1B-FE6B-4E77-B98A-B6758BDB134F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="152">
   <si>
     <t>runname</t>
   </si>
@@ -468,6 +468,24 @@
   </si>
   <si>
     <t>mixed_WRS_FR100</t>
+  </si>
+  <si>
+    <t>DA</t>
+  </si>
+  <si>
+    <t>DA plan</t>
+  </si>
+  <si>
+    <t>bfactor_DA</t>
+  </si>
+  <si>
+    <t>dr_DA</t>
+  </si>
+  <si>
+    <t>idxFull_act_DA</t>
+  </si>
+  <si>
+    <t>idxFull_ret_DA</t>
   </si>
 </sst>
 </file>
@@ -491,7 +509,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -528,6 +546,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -541,7 +565,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -557,6 +581,8 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -572,10 +598,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -842,13 +864,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:BL44"/>
+  <dimension ref="A1:BP44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B5" sqref="B5:B8"/>
+      <selection pane="bottomRight" activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -858,84 +880,87 @@
     <col min="3" max="4" width="11.7109375" customWidth="1"/>
     <col min="5" max="5" width="11.140625" customWidth="1"/>
     <col min="6" max="6" width="16.85546875" customWidth="1"/>
-    <col min="7" max="7" width="16.5703125" customWidth="1"/>
-    <col min="8" max="9" width="17.140625" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" customWidth="1"/>
-    <col min="11" max="11" width="12" customWidth="1"/>
-    <col min="12" max="16" width="10.5703125" customWidth="1"/>
-    <col min="17" max="17" width="18" customWidth="1"/>
-    <col min="18" max="18" width="16.5703125" customWidth="1"/>
-    <col min="19" max="19" width="26.28515625" customWidth="1"/>
-    <col min="20" max="22" width="13" customWidth="1"/>
-    <col min="23" max="26" width="16.5703125" customWidth="1"/>
-    <col min="27" max="27" width="28.85546875" customWidth="1"/>
-    <col min="28" max="30" width="14.28515625" customWidth="1"/>
-    <col min="31" max="31" width="17.42578125" customWidth="1"/>
-    <col min="32" max="32" width="18" customWidth="1"/>
-    <col min="33" max="33" width="26.28515625" customWidth="1"/>
-    <col min="34" max="34" width="14.28515625" customWidth="1"/>
-    <col min="35" max="35" width="18.5703125" style="10" customWidth="1"/>
-    <col min="36" max="37" width="20.28515625" style="10" customWidth="1"/>
-    <col min="38" max="38" width="21.42578125" style="10" customWidth="1"/>
-    <col min="39" max="39" width="23.7109375" style="10" customWidth="1"/>
-    <col min="40" max="40" width="24" style="10" customWidth="1"/>
-    <col min="41" max="42" width="21.42578125" style="10" customWidth="1"/>
-    <col min="43" max="43" width="24.5703125" style="10" customWidth="1"/>
-    <col min="44" max="45" width="21.42578125" style="10" customWidth="1"/>
-    <col min="46" max="47" width="17.7109375" style="10" customWidth="1"/>
-    <col min="48" max="48" width="7.7109375" customWidth="1"/>
-    <col min="49" max="49" width="13.7109375" customWidth="1"/>
-    <col min="50" max="51" width="7.7109375" customWidth="1"/>
-    <col min="56" max="60" width="14.28515625" customWidth="1"/>
-    <col min="61" max="61" width="16" customWidth="1"/>
-    <col min="62" max="62" width="11.7109375" customWidth="1"/>
+    <col min="7" max="11" width="16.5703125" customWidth="1"/>
+    <col min="12" max="13" width="17.140625" customWidth="1"/>
+    <col min="14" max="14" width="13.7109375" customWidth="1"/>
+    <col min="15" max="15" width="12" customWidth="1"/>
+    <col min="16" max="19" width="10.5703125" customWidth="1"/>
+    <col min="20" max="20" width="13.140625" customWidth="1"/>
+    <col min="21" max="21" width="18" customWidth="1"/>
+    <col min="22" max="22" width="16.5703125" customWidth="1"/>
+    <col min="23" max="23" width="26.28515625" customWidth="1"/>
+    <col min="24" max="26" width="13" customWidth="1"/>
+    <col min="27" max="30" width="16.5703125" customWidth="1"/>
+    <col min="31" max="31" width="28.85546875" customWidth="1"/>
+    <col min="32" max="34" width="14.28515625" customWidth="1"/>
+    <col min="35" max="35" width="17.42578125" customWidth="1"/>
+    <col min="36" max="36" width="18" customWidth="1"/>
+    <col min="37" max="37" width="26.28515625" customWidth="1"/>
+    <col min="38" max="38" width="14.28515625" customWidth="1"/>
+    <col min="39" max="39" width="18.5703125" style="10" customWidth="1"/>
+    <col min="40" max="41" width="20.28515625" style="10" customWidth="1"/>
+    <col min="42" max="42" width="21.42578125" style="10" customWidth="1"/>
+    <col min="43" max="43" width="23.7109375" style="10" customWidth="1"/>
+    <col min="44" max="44" width="24" style="10" customWidth="1"/>
+    <col min="45" max="46" width="21.42578125" style="10" customWidth="1"/>
+    <col min="47" max="47" width="24.5703125" style="10" customWidth="1"/>
+    <col min="48" max="49" width="21.42578125" style="10" customWidth="1"/>
+    <col min="50" max="51" width="17.7109375" style="10" customWidth="1"/>
+    <col min="52" max="52" width="7.7109375" customWidth="1"/>
+    <col min="53" max="53" width="13.7109375" customWidth="1"/>
+    <col min="54" max="55" width="7.7109375" customWidth="1"/>
+    <col min="60" max="64" width="14.28515625" customWidth="1"/>
+    <col min="65" max="65" width="16" customWidth="1"/>
+    <col min="66" max="66" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:68" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F1" s="14"/>
       <c r="G1" s="6"/>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="L1" s="11"/>
       <c r="M1" s="11"/>
       <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
       <c r="P1" s="11"/>
-      <c r="Q1" s="7" t="s">
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="8" t="s">
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
+      <c r="X1" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8"/>
-      <c r="W1" s="9" t="s">
+      <c r="Y1" s="8"/>
+      <c r="Z1" s="8"/>
+      <c r="AA1" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="X1" s="9"/>
-      <c r="Y1" s="9"/>
-      <c r="Z1" s="9"/>
-      <c r="AA1" s="9"/>
-      <c r="AB1" s="8" t="s">
+      <c r="AB1" s="9"/>
+      <c r="AC1" s="9"/>
+      <c r="AD1" s="9"/>
+      <c r="AE1" s="9"/>
+      <c r="AF1" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="AC1" s="8"/>
-      <c r="AD1" s="8"/>
-      <c r="AE1" s="8"/>
-      <c r="AF1" s="8"/>
       <c r="AG1" s="8"/>
-      <c r="AH1" s="6" t="s">
+      <c r="AH1" s="8"/>
+      <c r="AI1" s="8"/>
+      <c r="AJ1" s="8"/>
+      <c r="AK1" s="8"/>
+      <c r="AL1" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="AI1" s="6"/>
-      <c r="AJ1" s="6"/>
-      <c r="AK1" s="6"/>
-      <c r="AL1" s="6"/>
       <c r="AM1" s="6"/>
       <c r="AN1" s="6"/>
       <c r="AO1" s="6"/>
@@ -945,26 +970,30 @@
       <c r="AS1" s="6"/>
       <c r="AT1" s="6"/>
       <c r="AU1" s="6"/>
-      <c r="AV1" s="5" t="s">
+      <c r="AV1" s="6"/>
+      <c r="AW1" s="6"/>
+      <c r="AX1" s="6"/>
+      <c r="AY1" s="6"/>
+      <c r="AZ1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="AZ1" s="5" t="s">
+      <c r="BD1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="BD1" s="5" t="s">
+      <c r="BH1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="BE1" s="5" t="s">
+      <c r="BI1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="BI1" s="5" t="s">
+      <c r="BM1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="BK1" s="5" t="s">
+      <c r="BO1" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -986,179 +1015,191 @@
       <c r="G2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="J2" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="K2" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="L2" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="M2" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="N2" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="O2" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="P2" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="M2" s="12" t="s">
+      <c r="Q2" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="N2" s="12" t="s">
+      <c r="R2" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="O2" s="12" t="s">
+      <c r="S2" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="P2" s="12" t="s">
+      <c r="T2" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="U2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="V2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="W2" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="X2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="Y2" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="Z2" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="W2" s="4" t="s">
+      <c r="AA2" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="X2" s="4" t="s">
+      <c r="AB2" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="Y2" s="4" t="s">
+      <c r="AC2" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="Z2" s="4" t="s">
+      <c r="AD2" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AA2" s="4" t="s">
+      <c r="AE2" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="AB2" s="3" t="s">
+      <c r="AF2" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="AC2" s="3" t="s">
+      <c r="AG2" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="AD2" s="3" t="s">
+      <c r="AH2" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AE2" s="3" t="s">
+      <c r="AI2" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AF2" s="3" t="s">
+      <c r="AJ2" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="AG2" s="3" t="s">
+      <c r="AK2" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="AH2" s="1" t="s">
+      <c r="AL2" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="AI2" s="1" t="s">
+      <c r="AM2" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="AJ2" s="1" t="s">
+      <c r="AN2" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AK2" s="1" t="s">
+      <c r="AO2" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="AL2" s="1" t="s">
+      <c r="AP2" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AM2" s="1" t="s">
+      <c r="AQ2" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="AN2" s="1" t="s">
+      <c r="AR2" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="AO2" s="1" t="s">
+      <c r="AS2" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="AP2" s="1" t="s">
+      <c r="AT2" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="AQ2" s="1" t="s">
+      <c r="AU2" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="AR2" s="1" t="s">
+      <c r="AV2" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="AS2" s="1" t="s">
+      <c r="AW2" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="AT2" s="1" t="s">
+      <c r="AX2" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="AU2" s="1" t="s">
+      <c r="AY2" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="AV2" t="s">
+      <c r="AZ2" t="s">
         <v>10</v>
       </c>
-      <c r="AW2" t="s">
+      <c r="BA2" t="s">
         <v>11</v>
       </c>
-      <c r="AX2" t="s">
+      <c r="BB2" t="s">
         <v>12</v>
       </c>
-      <c r="AY2" t="s">
+      <c r="BC2" t="s">
         <v>13</v>
       </c>
-      <c r="AZ2" t="s">
+      <c r="BD2" t="s">
         <v>17</v>
       </c>
-      <c r="BA2" t="s">
+      <c r="BE2" t="s">
         <v>18</v>
       </c>
-      <c r="BB2" t="s">
+      <c r="BF2" t="s">
         <v>31</v>
       </c>
-      <c r="BC2" t="s">
+      <c r="BG2" t="s">
         <v>32</v>
       </c>
-      <c r="BD2" t="s">
+      <c r="BH2" t="s">
         <v>28</v>
       </c>
-      <c r="BE2" t="s">
+      <c r="BI2" t="s">
         <v>30</v>
       </c>
-      <c r="BF2" t="s">
+      <c r="BJ2" t="s">
         <v>69</v>
       </c>
-      <c r="BG2" t="s">
+      <c r="BK2" t="s">
         <v>67</v>
       </c>
-      <c r="BH2" t="s">
+      <c r="BL2" t="s">
         <v>68</v>
       </c>
-      <c r="BI2" t="s">
+      <c r="BM2" t="s">
         <v>21</v>
       </c>
-      <c r="BJ2" t="s">
+      <c r="BN2" t="s">
         <v>22</v>
       </c>
-      <c r="BK2" t="s">
+      <c r="BO2" t="s">
         <v>25</v>
       </c>
-      <c r="BL2" t="s">
+      <c r="BP2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:64" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:68" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>113</v>
       </c>
@@ -1180,150 +1221,150 @@
       <c r="G3" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="L3" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="O3" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="Q3" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="R3" s="10">
-        <v>0</v>
-      </c>
-      <c r="S3" s="10">
-        <v>1</v>
-      </c>
-      <c r="T3" s="10">
-        <v>0.02</v>
-      </c>
       <c r="U3" s="10">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="V3" s="10">
+        <v>0</v>
+      </c>
+      <c r="W3" s="10">
+        <v>1</v>
+      </c>
+      <c r="X3" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="Y3" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="10">
         <v>0.9</v>
       </c>
-      <c r="W3" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="X3" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="10">
+      <c r="AA3" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AB3" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="10">
         <v>0.9</v>
       </c>
-      <c r="Z3" s="10">
+      <c r="AD3" s="10">
         <v>0.01</v>
       </c>
-      <c r="AA3" s="10">
+      <c r="AE3" s="10">
         <v>1E-3</v>
       </c>
-      <c r="AB3" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AC3" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD3" s="10">
-        <v>1</v>
-      </c>
-      <c r="AE3" s="10">
+      <c r="AF3" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AG3" s="10">
+        <v>0</v>
+      </c>
+      <c r="AH3" s="10">
         <v>1</v>
       </c>
       <c r="AI3" s="10">
+        <v>1</v>
+      </c>
+      <c r="AM3" s="10">
         <v>0.05</v>
       </c>
-      <c r="AJ3" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AK3" s="10">
-        <v>0</v>
-      </c>
-      <c r="AL3" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AM3" s="10">
+      <c r="AN3" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AO3" s="10">
+        <v>0</v>
+      </c>
+      <c r="AP3" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AQ3" s="10">
         <v>0.03</v>
       </c>
-      <c r="AN3" s="10">
+      <c r="AR3" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AO3" s="10">
+      <c r="AS3" s="10">
         <v>0.04</v>
       </c>
-      <c r="AP3" s="10">
+      <c r="AT3" s="10">
         <v>0.11</v>
       </c>
-      <c r="AQ3" s="10">
-        <v>1</v>
-      </c>
-      <c r="AR3" s="10">
+      <c r="AU3" s="10">
+        <v>1</v>
+      </c>
+      <c r="AV3" s="10">
         <v>0.03</v>
       </c>
-      <c r="AS3" s="10">
+      <c r="AW3" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AT3" s="10">
+      <c r="AX3" s="10">
         <v>0.7</v>
       </c>
-      <c r="AU3" s="10">
-        <v>1</v>
-      </c>
-      <c r="AV3" s="10">
+      <c r="AY3" s="10">
+        <v>1</v>
+      </c>
+      <c r="AZ3" s="10">
         <v>15</v>
       </c>
-      <c r="AW3" s="10" t="s">
+      <c r="BA3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="AX3" s="10" t="s">
+      <c r="BB3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="AY3" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AZ3" s="10" t="s">
+      <c r="BC3" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BD3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="BA3" s="10">
+      <c r="BE3" s="10">
         <v>5</v>
       </c>
-      <c r="BB3" s="10">
+      <c r="BF3" s="10">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="BC3" s="10">
+      <c r="BG3" s="10">
         <v>0.12</v>
       </c>
-      <c r="BD3" s="10">
+      <c r="BH3" s="10">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="BE3" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BF3" s="10" t="s">
+      <c r="BI3" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BJ3" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="BG3" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BH3" s="10">
+      <c r="BK3" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BL3" s="10">
         <v>0.01</v>
       </c>
-      <c r="BI3" s="10" t="s">
+      <c r="BM3" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="BJ3" s="10">
+      <c r="BN3" s="10">
         <v>0.75</v>
       </c>
-      <c r="BK3" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="BL3" s="10" t="b">
+      <c r="BO3" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="BP3" s="10" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:64" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:64" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:68" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:68" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>112</v>
       </c>
@@ -1345,149 +1386,149 @@
       <c r="G5" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="L5" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="K5" s="10" t="s">
+      <c r="O5" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="Q5" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="R5" s="10">
-        <v>0</v>
-      </c>
-      <c r="S5" s="10">
-        <v>1</v>
-      </c>
-      <c r="T5" s="10">
-        <v>0.02</v>
-      </c>
       <c r="U5" s="10">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="V5" s="10">
+        <v>0</v>
+      </c>
+      <c r="W5" s="10">
+        <v>1</v>
+      </c>
+      <c r="X5" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="Y5" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="10">
         <v>0.9</v>
       </c>
-      <c r="W5" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="X5" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="10">
+      <c r="AA5" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AB5" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="10">
         <v>0.9</v>
       </c>
-      <c r="Z5" s="10">
+      <c r="AD5" s="10">
         <v>0.01</v>
       </c>
-      <c r="AA5" s="10">
+      <c r="AE5" s="10">
         <v>1E-3</v>
       </c>
-      <c r="AB5" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AC5" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="10">
-        <v>1</v>
-      </c>
-      <c r="AE5" s="10">
+      <c r="AF5" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AG5" s="10">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="10">
         <v>1</v>
       </c>
       <c r="AI5" s="10">
+        <v>1</v>
+      </c>
+      <c r="AM5" s="10">
         <v>0.05</v>
       </c>
-      <c r="AJ5" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AK5" s="10">
-        <v>0</v>
-      </c>
-      <c r="AL5" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AM5" s="10">
+      <c r="AN5" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AO5" s="10">
+        <v>0</v>
+      </c>
+      <c r="AP5" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AQ5" s="10">
         <v>0.03</v>
       </c>
-      <c r="AN5" s="10">
+      <c r="AR5" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AO5" s="10">
+      <c r="AS5" s="10">
         <v>0.04</v>
       </c>
-      <c r="AP5" s="10">
+      <c r="AT5" s="10">
         <v>0.11</v>
       </c>
-      <c r="AQ5" s="10">
-        <v>1</v>
-      </c>
-      <c r="AR5" s="10">
+      <c r="AU5" s="10">
+        <v>1</v>
+      </c>
+      <c r="AV5" s="10">
         <v>0.03</v>
       </c>
-      <c r="AS5" s="10">
+      <c r="AW5" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AT5" s="10">
+      <c r="AX5" s="10">
         <v>0.7</v>
       </c>
-      <c r="AU5" s="10">
-        <v>1</v>
-      </c>
-      <c r="AV5" s="10">
+      <c r="AY5" s="10">
+        <v>1</v>
+      </c>
+      <c r="AZ5" s="10">
         <v>15</v>
       </c>
-      <c r="AW5" s="10" t="s">
+      <c r="BA5" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="AX5" s="10" t="s">
+      <c r="BB5" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="AY5" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AZ5" s="10" t="s">
+      <c r="BC5" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BD5" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="BA5" s="10">
+      <c r="BE5" s="10">
         <v>5</v>
       </c>
-      <c r="BB5" s="10">
+      <c r="BF5" s="10">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="BC5" s="10">
+      <c r="BG5" s="10">
         <v>0.12</v>
       </c>
-      <c r="BD5" s="10">
+      <c r="BH5" s="10">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="BE5" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BF5" s="10" t="s">
+      <c r="BI5" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BJ5" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="BG5" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BH5" s="10">
+      <c r="BK5" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BL5" s="10">
         <v>0.01</v>
       </c>
-      <c r="BI5" s="10" t="s">
+      <c r="BM5" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="BJ5" s="10">
+      <c r="BN5" s="10">
         <v>0.75</v>
       </c>
-      <c r="BK5" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="BL5" s="10" t="b">
+      <c r="BO5" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="BP5" s="10" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:64" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:68" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>115</v>
       </c>
@@ -1509,149 +1550,149 @@
       <c r="G6" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="L6" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="K6" s="10" t="s">
+      <c r="O6" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="Q6" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="R6" s="10">
-        <v>0</v>
-      </c>
-      <c r="S6" s="10">
-        <v>1</v>
-      </c>
-      <c r="T6" s="10">
-        <v>0.02</v>
-      </c>
       <c r="U6" s="10">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="V6" s="10">
+        <v>0</v>
+      </c>
+      <c r="W6" s="10">
+        <v>1</v>
+      </c>
+      <c r="X6" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="Y6" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="10">
         <v>0.9</v>
       </c>
-      <c r="W6" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="X6" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="10">
+      <c r="AA6" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AB6" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="10">
         <v>0.9</v>
       </c>
-      <c r="Z6" s="10">
+      <c r="AD6" s="10">
         <v>0.01</v>
       </c>
-      <c r="AA6" s="10">
+      <c r="AE6" s="10">
         <v>1E-3</v>
       </c>
-      <c r="AB6" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AC6" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="10">
-        <v>1</v>
-      </c>
-      <c r="AE6" s="10">
+      <c r="AF6" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AG6" s="10">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="10">
         <v>1</v>
       </c>
       <c r="AI6" s="10">
+        <v>1</v>
+      </c>
+      <c r="AM6" s="10">
         <v>0.05</v>
       </c>
-      <c r="AJ6" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AK6" s="10">
+      <c r="AN6" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AO6" s="10">
         <v>0.05</v>
       </c>
-      <c r="AL6" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AM6" s="10">
+      <c r="AP6" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AQ6" s="10">
         <v>0.03</v>
       </c>
-      <c r="AN6" s="10">
+      <c r="AR6" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AO6" s="10">
+      <c r="AS6" s="10">
         <v>0.04</v>
       </c>
-      <c r="AP6" s="10">
+      <c r="AT6" s="10">
         <v>0.11</v>
       </c>
-      <c r="AQ6" s="10">
-        <v>1</v>
-      </c>
-      <c r="AR6" s="10">
+      <c r="AU6" s="10">
+        <v>1</v>
+      </c>
+      <c r="AV6" s="10">
         <v>0.03</v>
       </c>
-      <c r="AS6" s="10">
+      <c r="AW6" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AT6" s="10">
+      <c r="AX6" s="10">
         <v>0.7</v>
       </c>
-      <c r="AU6" s="10">
-        <v>1</v>
-      </c>
-      <c r="AV6" s="10">
+      <c r="AY6" s="10">
+        <v>1</v>
+      </c>
+      <c r="AZ6" s="10">
         <v>15</v>
       </c>
-      <c r="AW6" s="10" t="s">
+      <c r="BA6" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="AX6" s="10" t="s">
+      <c r="BB6" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="AY6" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AZ6" s="10" t="s">
+      <c r="BC6" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BD6" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="BA6" s="10">
+      <c r="BE6" s="10">
         <v>5</v>
       </c>
-      <c r="BB6" s="10">
+      <c r="BF6" s="10">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="BC6" s="10">
+      <c r="BG6" s="10">
         <v>0.12</v>
       </c>
-      <c r="BD6" s="10">
+      <c r="BH6" s="10">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="BE6" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BF6" s="10" t="s">
+      <c r="BI6" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BJ6" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="BG6" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BH6" s="10">
+      <c r="BK6" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BL6" s="10">
         <v>0.01</v>
       </c>
-      <c r="BI6" s="10" t="s">
+      <c r="BM6" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="BJ6" s="10">
+      <c r="BN6" s="10">
         <v>0.75</v>
       </c>
-      <c r="BK6" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="BL6" s="10" t="b">
+      <c r="BO6" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="BP6" s="10" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:64" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:68" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>87</v>
       </c>
@@ -1673,149 +1714,149 @@
       <c r="G7" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="L7" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="K7" s="10" t="s">
+      <c r="O7" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="Q7" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="R7" s="10">
-        <v>0</v>
-      </c>
-      <c r="S7" s="10">
-        <v>1</v>
-      </c>
-      <c r="T7" s="10">
-        <v>0.02</v>
-      </c>
       <c r="U7" s="10">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="V7" s="10">
+        <v>0</v>
+      </c>
+      <c r="W7" s="10">
+        <v>1</v>
+      </c>
+      <c r="X7" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="Y7" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="10">
         <v>0.9</v>
       </c>
-      <c r="W7" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="X7" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="10">
+      <c r="AA7" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AB7" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="10">
         <v>0.9</v>
       </c>
-      <c r="Z7" s="10">
+      <c r="AD7" s="10">
         <v>0.01</v>
       </c>
-      <c r="AA7" s="10">
+      <c r="AE7" s="10">
         <v>1E-3</v>
       </c>
-      <c r="AB7" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AC7" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="10">
-        <v>1</v>
-      </c>
-      <c r="AE7" s="10">
+      <c r="AF7" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AG7" s="10">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="10">
         <v>1</v>
       </c>
       <c r="AI7" s="10">
+        <v>1</v>
+      </c>
+      <c r="AM7" s="10">
         <v>0.05</v>
       </c>
-      <c r="AJ7" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AK7" s="10">
-        <v>0</v>
-      </c>
-      <c r="AL7" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AM7" s="10">
+      <c r="AN7" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AO7" s="10">
+        <v>0</v>
+      </c>
+      <c r="AP7" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AQ7" s="10">
         <v>0.03</v>
       </c>
-      <c r="AN7" s="10">
+      <c r="AR7" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AO7" s="10">
+      <c r="AS7" s="10">
         <v>0.04</v>
       </c>
-      <c r="AP7" s="10">
+      <c r="AT7" s="10">
         <v>0.11</v>
       </c>
-      <c r="AQ7" s="10">
-        <v>1</v>
-      </c>
-      <c r="AR7" s="10">
+      <c r="AU7" s="10">
+        <v>1</v>
+      </c>
+      <c r="AV7" s="10">
         <v>0.03</v>
       </c>
-      <c r="AS7" s="10">
+      <c r="AW7" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AT7" s="10">
+      <c r="AX7" s="10">
         <v>0.7</v>
       </c>
-      <c r="AU7" s="10">
-        <v>1</v>
-      </c>
-      <c r="AV7" s="10">
+      <c r="AY7" s="10">
+        <v>1</v>
+      </c>
+      <c r="AZ7" s="10">
         <v>15</v>
       </c>
-      <c r="AW7" s="10" t="s">
+      <c r="BA7" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="AX7" s="10" t="s">
+      <c r="BB7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="AY7" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AZ7" s="10" t="s">
+      <c r="BC7" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BD7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="BA7" s="10">
+      <c r="BE7" s="10">
         <v>5</v>
       </c>
-      <c r="BB7" s="10">
+      <c r="BF7" s="10">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="BC7" s="10">
+      <c r="BG7" s="10">
         <v>0.12</v>
       </c>
-      <c r="BD7" s="10">
+      <c r="BH7" s="10">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="BE7" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BF7" s="10" t="s">
+      <c r="BI7" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BJ7" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="BG7" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BH7" s="10">
+      <c r="BK7" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BL7" s="10">
         <v>0.01</v>
       </c>
-      <c r="BI7" s="10" t="s">
+      <c r="BM7" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="BJ7" s="10">
+      <c r="BN7" s="10">
         <v>0.75</v>
       </c>
-      <c r="BK7" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="BL7" s="10" t="b">
+      <c r="BO7" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="BP7" s="10" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:64" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:68" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>130</v>
       </c>
@@ -1837,154 +1878,154 @@
       <c r="G8" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="H8" s="10" t="s">
+      <c r="L8" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="K8" s="10" t="s">
+      <c r="O8" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="Q8" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="R8" s="10">
-        <v>0</v>
-      </c>
-      <c r="S8" s="10">
+      <c r="U8" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="V8" s="10">
+        <v>0</v>
+      </c>
+      <c r="W8" s="10">
         <v>5</v>
       </c>
-      <c r="T8" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="U8" s="10">
-        <v>0</v>
-      </c>
-      <c r="V8" s="10">
+      <c r="X8" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="Y8" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="10">
         <v>0.9</v>
       </c>
-      <c r="W8" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="X8" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="10">
+      <c r="AA8" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AB8" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="10">
         <v>0.9</v>
       </c>
-      <c r="Z8" s="10">
+      <c r="AD8" s="10">
         <v>0.01</v>
       </c>
-      <c r="AA8" s="10">
+      <c r="AE8" s="10">
         <v>1E-3</v>
       </c>
-      <c r="AB8" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AC8" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="10">
-        <v>1</v>
-      </c>
-      <c r="AE8" s="10">
+      <c r="AF8" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AG8" s="10">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="10">
         <v>1</v>
       </c>
       <c r="AI8" s="10">
+        <v>1</v>
+      </c>
+      <c r="AM8" s="10">
         <v>0.05</v>
       </c>
-      <c r="AJ8" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AK8" s="10">
-        <v>0</v>
-      </c>
-      <c r="AL8" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AM8" s="10">
+      <c r="AN8" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AO8" s="10">
+        <v>0</v>
+      </c>
+      <c r="AP8" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AQ8" s="10">
         <v>0.03</v>
       </c>
-      <c r="AN8" s="10">
+      <c r="AR8" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AO8" s="10">
+      <c r="AS8" s="10">
         <v>0.04</v>
       </c>
-      <c r="AP8" s="10">
+      <c r="AT8" s="10">
         <v>0.11</v>
       </c>
-      <c r="AQ8" s="10">
+      <c r="AU8" s="10">
         <v>5</v>
       </c>
-      <c r="AR8" s="10">
+      <c r="AV8" s="10">
         <v>0.03</v>
       </c>
-      <c r="AS8" s="10">
+      <c r="AW8" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AT8" s="10">
+      <c r="AX8" s="10">
         <v>0.7</v>
       </c>
-      <c r="AU8" s="10">
-        <v>1</v>
-      </c>
-      <c r="AV8" s="10">
+      <c r="AY8" s="10">
+        <v>1</v>
+      </c>
+      <c r="AZ8" s="10">
         <v>15</v>
       </c>
-      <c r="AW8" s="10" t="s">
+      <c r="BA8" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="AX8" s="10" t="s">
+      <c r="BB8" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="AY8" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AZ8" s="10" t="s">
+      <c r="BC8" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BD8" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="BA8" s="10">
+      <c r="BE8" s="10">
         <v>5</v>
       </c>
-      <c r="BB8" s="10">
+      <c r="BF8" s="10">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="BC8" s="10">
+      <c r="BG8" s="10">
         <v>0.12</v>
       </c>
-      <c r="BD8" s="10">
+      <c r="BH8" s="10">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="BE8" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BF8" s="10" t="s">
+      <c r="BI8" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BJ8" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="BG8" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BH8" s="10">
+      <c r="BK8" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BL8" s="10">
         <v>0.01</v>
       </c>
-      <c r="BI8" s="10" t="s">
+      <c r="BM8" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="BJ8" s="10">
+      <c r="BN8" s="10">
         <v>0.75</v>
       </c>
-      <c r="BK8" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="BL8" s="10" t="b">
+      <c r="BO8" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="BP8" s="10" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:64" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:68" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>88</v>
       </c>
       <c r="B9" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>109</v>
@@ -2001,154 +2042,154 @@
       <c r="G9" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="H9" s="10" t="s">
+      <c r="L9" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="K9" s="10" t="s">
+      <c r="O9" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="Q9" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="R9" s="10">
-        <v>0</v>
-      </c>
-      <c r="S9" s="10">
-        <v>1</v>
-      </c>
-      <c r="T9" s="10">
-        <v>0.02</v>
-      </c>
       <c r="U9" s="10">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="V9" s="10">
+        <v>0</v>
+      </c>
+      <c r="W9" s="10">
+        <v>1</v>
+      </c>
+      <c r="X9" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="Y9" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="10">
         <v>0.9</v>
       </c>
-      <c r="W9" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="X9" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="10">
+      <c r="AA9" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AB9" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="10">
         <v>0.9</v>
       </c>
-      <c r="Z9" s="10">
+      <c r="AD9" s="10">
         <v>0.01</v>
       </c>
-      <c r="AA9" s="10">
+      <c r="AE9" s="10">
         <v>1E-3</v>
       </c>
-      <c r="AB9" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AC9" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD9" s="10">
-        <v>1</v>
-      </c>
-      <c r="AE9" s="10">
+      <c r="AF9" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AG9" s="10">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="10">
         <v>1</v>
       </c>
       <c r="AI9" s="10">
+        <v>1</v>
+      </c>
+      <c r="AM9" s="10">
         <v>0.05</v>
       </c>
-      <c r="AJ9" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AK9" s="10">
-        <v>0</v>
-      </c>
-      <c r="AL9" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AM9" s="10">
+      <c r="AN9" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AO9" s="10">
+        <v>0</v>
+      </c>
+      <c r="AP9" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AQ9" s="10">
         <v>0.03</v>
       </c>
-      <c r="AN9" s="10">
+      <c r="AR9" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AO9" s="10">
+      <c r="AS9" s="10">
         <v>0.04</v>
       </c>
-      <c r="AP9" s="10">
+      <c r="AT9" s="10">
         <v>0.11</v>
       </c>
-      <c r="AQ9" s="10">
-        <v>1</v>
-      </c>
-      <c r="AR9" s="10">
+      <c r="AU9" s="10">
+        <v>1</v>
+      </c>
+      <c r="AV9" s="10">
         <v>0.03</v>
       </c>
-      <c r="AS9" s="10">
+      <c r="AW9" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AT9" s="10">
+      <c r="AX9" s="10">
         <v>0.7</v>
       </c>
-      <c r="AU9" s="10">
-        <v>1</v>
-      </c>
-      <c r="AV9" s="10">
+      <c r="AY9" s="10">
+        <v>1</v>
+      </c>
+      <c r="AZ9" s="10">
         <v>15</v>
       </c>
-      <c r="AW9" s="10" t="s">
+      <c r="BA9" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="AX9" s="10" t="s">
+      <c r="BB9" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="AY9" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AZ9" s="10" t="s">
+      <c r="BC9" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BD9" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="BA9" s="10">
+      <c r="BE9" s="10">
         <v>5</v>
       </c>
-      <c r="BB9" s="10">
+      <c r="BF9" s="10">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="BC9" s="10">
+      <c r="BG9" s="10">
         <v>0.12</v>
       </c>
-      <c r="BD9" s="10">
+      <c r="BH9" s="10">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="BE9" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BF9" s="10" t="s">
+      <c r="BI9" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BJ9" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="BG9" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BH9" s="10">
+      <c r="BK9" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BL9" s="10">
         <v>0.01</v>
       </c>
-      <c r="BI9" s="10" t="s">
+      <c r="BM9" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="BJ9" s="10">
+      <c r="BN9" s="10">
         <v>0.75</v>
       </c>
-      <c r="BK9" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="BL9" s="10" t="b">
+      <c r="BO9" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="BP9" s="10" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:64" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:68" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>54</v>
       </c>
       <c r="B10" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>110</v>
@@ -2165,154 +2206,154 @@
       <c r="G10" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="H10" s="10" t="s">
+      <c r="L10" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="K10" s="10" t="s">
+      <c r="O10" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="Q10" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="R10" s="10">
-        <v>0</v>
-      </c>
-      <c r="S10" s="10">
-        <v>1</v>
-      </c>
-      <c r="T10" s="10">
-        <v>0.02</v>
-      </c>
       <c r="U10" s="10">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="V10" s="10">
+        <v>0</v>
+      </c>
+      <c r="W10" s="10">
+        <v>1</v>
+      </c>
+      <c r="X10" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="Y10" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="10">
         <v>0.9</v>
       </c>
-      <c r="W10" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="X10" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="10">
+      <c r="AA10" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AB10" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="10">
         <v>0.9</v>
       </c>
-      <c r="Z10" s="10">
+      <c r="AD10" s="10">
         <v>0.01</v>
       </c>
-      <c r="AA10" s="10">
+      <c r="AE10" s="10">
         <v>1E-3</v>
       </c>
-      <c r="AB10" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AC10" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD10" s="10">
-        <v>1</v>
-      </c>
-      <c r="AE10" s="10">
+      <c r="AF10" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AG10" s="10">
+        <v>0</v>
+      </c>
+      <c r="AH10" s="10">
         <v>1</v>
       </c>
       <c r="AI10" s="10">
+        <v>1</v>
+      </c>
+      <c r="AM10" s="10">
         <v>0.05</v>
       </c>
-      <c r="AJ10" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AK10" s="10">
-        <v>0</v>
-      </c>
-      <c r="AL10" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AM10" s="10">
+      <c r="AN10" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AO10" s="10">
+        <v>0</v>
+      </c>
+      <c r="AP10" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AQ10" s="10">
         <v>0.03</v>
       </c>
-      <c r="AN10" s="10">
+      <c r="AR10" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AO10" s="10">
+      <c r="AS10" s="10">
         <v>0.04</v>
       </c>
-      <c r="AP10" s="10">
+      <c r="AT10" s="10">
         <v>0.11</v>
       </c>
-      <c r="AQ10" s="10">
-        <v>1</v>
-      </c>
-      <c r="AR10" s="10">
+      <c r="AU10" s="10">
+        <v>1</v>
+      </c>
+      <c r="AV10" s="10">
         <v>0.03</v>
       </c>
-      <c r="AS10" s="10">
+      <c r="AW10" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AT10" s="10">
+      <c r="AX10" s="10">
         <v>0.7</v>
       </c>
-      <c r="AU10" s="10">
-        <v>1</v>
-      </c>
-      <c r="AV10" s="10">
+      <c r="AY10" s="10">
+        <v>1</v>
+      </c>
+      <c r="AZ10" s="10">
         <v>15</v>
       </c>
-      <c r="AW10" s="10" t="s">
+      <c r="BA10" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="AX10" s="10" t="s">
+      <c r="BB10" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="AY10" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AZ10" s="10" t="s">
+      <c r="BC10" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BD10" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="BA10" s="10">
+      <c r="BE10" s="10">
         <v>5</v>
       </c>
-      <c r="BB10" s="10">
+      <c r="BF10" s="10">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="BC10" s="10">
+      <c r="BG10" s="10">
         <v>0.12</v>
       </c>
-      <c r="BD10" s="10">
+      <c r="BH10" s="10">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="BE10" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BF10" s="10" t="s">
+      <c r="BI10" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BJ10" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="BG10" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BH10" s="10">
+      <c r="BK10" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BL10" s="10">
         <v>0.01</v>
       </c>
-      <c r="BI10" s="10" t="s">
+      <c r="BM10" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="BJ10" s="10">
+      <c r="BN10" s="10">
         <v>0.75</v>
       </c>
-      <c r="BK10" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="BL10" s="10" t="b">
+      <c r="BO10" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="BP10" s="10" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:64" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:68" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>131</v>
       </c>
       <c r="B11" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>110</v>
@@ -2329,154 +2370,154 @@
       <c r="G11" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="H11" s="10" t="s">
+      <c r="L11" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="K11" s="10" t="s">
+      <c r="O11" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="Q11" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="R11" s="10">
-        <v>0</v>
-      </c>
-      <c r="S11" s="14">
+      <c r="U11" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="V11" s="10">
+        <v>0</v>
+      </c>
+      <c r="W11" s="14">
         <v>5</v>
       </c>
-      <c r="T11" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="U11" s="10">
-        <v>0</v>
-      </c>
-      <c r="V11" s="10">
+      <c r="X11" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="Y11" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="10">
         <v>0.9</v>
       </c>
-      <c r="W11" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="X11" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="10">
+      <c r="AA11" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AB11" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="10">
         <v>0.9</v>
       </c>
-      <c r="Z11" s="10">
+      <c r="AD11" s="10">
         <v>0.01</v>
       </c>
-      <c r="AA11" s="10">
+      <c r="AE11" s="10">
         <v>1E-3</v>
       </c>
-      <c r="AB11" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AC11" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD11" s="10">
-        <v>1</v>
-      </c>
-      <c r="AE11" s="10">
+      <c r="AF11" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AG11" s="10">
+        <v>0</v>
+      </c>
+      <c r="AH11" s="10">
         <v>1</v>
       </c>
       <c r="AI11" s="10">
+        <v>1</v>
+      </c>
+      <c r="AM11" s="10">
         <v>0.05</v>
       </c>
-      <c r="AJ11" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AK11" s="10">
-        <v>0</v>
-      </c>
-      <c r="AL11" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AM11" s="10">
+      <c r="AN11" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AO11" s="10">
+        <v>0</v>
+      </c>
+      <c r="AP11" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AQ11" s="10">
         <v>0.03</v>
       </c>
-      <c r="AN11" s="10">
+      <c r="AR11" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AO11" s="10">
+      <c r="AS11" s="10">
         <v>0.04</v>
       </c>
-      <c r="AP11" s="10">
+      <c r="AT11" s="10">
         <v>0.11</v>
       </c>
-      <c r="AQ11" s="10">
+      <c r="AU11" s="10">
         <v>5</v>
       </c>
-      <c r="AR11" s="10">
+      <c r="AV11" s="10">
         <v>0.03</v>
       </c>
-      <c r="AS11" s="10">
+      <c r="AW11" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AT11" s="10">
+      <c r="AX11" s="10">
         <v>0.7</v>
       </c>
-      <c r="AU11" s="10">
-        <v>1</v>
-      </c>
-      <c r="AV11" s="10">
+      <c r="AY11" s="10">
+        <v>1</v>
+      </c>
+      <c r="AZ11" s="10">
         <v>15</v>
       </c>
-      <c r="AW11" s="10" t="s">
+      <c r="BA11" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="AX11" s="10" t="s">
+      <c r="BB11" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="AY11" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AZ11" s="10" t="s">
+      <c r="BC11" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BD11" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="BA11" s="10">
+      <c r="BE11" s="10">
         <v>5</v>
       </c>
-      <c r="BB11" s="10">
+      <c r="BF11" s="10">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="BC11" s="10">
+      <c r="BG11" s="10">
         <v>0.12</v>
       </c>
-      <c r="BD11" s="10">
+      <c r="BH11" s="10">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="BE11" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BF11" s="10" t="s">
+      <c r="BI11" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BJ11" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="BG11" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BH11" s="10">
+      <c r="BK11" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BL11" s="10">
         <v>0.01</v>
       </c>
-      <c r="BI11" s="10" t="s">
+      <c r="BM11" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="BJ11" s="10">
+      <c r="BN11" s="10">
         <v>0.75</v>
       </c>
-      <c r="BK11" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="BL11" s="10" t="b">
+      <c r="BO11" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="BP11" s="10" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:64" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:68" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>137</v>
       </c>
       <c r="B12" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>110</v>
@@ -2493,154 +2534,154 @@
       <c r="G12" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="H12" s="10" t="s">
+      <c r="L12" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="K12" s="10" t="s">
+      <c r="O12" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="Q12" s="10">
+      <c r="U12" s="10">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="R12" s="10">
+      <c r="V12" s="10">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="S12" s="14">
+      <c r="W12" s="14">
         <v>5</v>
       </c>
-      <c r="T12" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="U12" s="10">
-        <v>0</v>
-      </c>
-      <c r="V12" s="10">
+      <c r="X12" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="Y12" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="10">
         <v>0.9</v>
       </c>
-      <c r="W12" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="X12" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="10">
+      <c r="AA12" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AB12" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="10">
         <v>0.9</v>
       </c>
-      <c r="Z12" s="10">
+      <c r="AD12" s="10">
         <v>0.01</v>
       </c>
-      <c r="AA12" s="10">
+      <c r="AE12" s="10">
         <v>1E-3</v>
       </c>
-      <c r="AB12" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AC12" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD12" s="10">
-        <v>1</v>
-      </c>
-      <c r="AE12" s="10">
+      <c r="AF12" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AG12" s="10">
+        <v>0</v>
+      </c>
+      <c r="AH12" s="10">
         <v>1</v>
       </c>
       <c r="AI12" s="10">
+        <v>1</v>
+      </c>
+      <c r="AM12" s="10">
         <v>0.05</v>
       </c>
-      <c r="AJ12" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AK12" s="10">
-        <v>0</v>
-      </c>
-      <c r="AL12" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AM12" s="10">
+      <c r="AN12" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AO12" s="10">
+        <v>0</v>
+      </c>
+      <c r="AP12" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AQ12" s="10">
         <v>0.03</v>
       </c>
-      <c r="AN12" s="10">
+      <c r="AR12" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AO12" s="10">
+      <c r="AS12" s="10">
         <v>0.04</v>
       </c>
-      <c r="AP12" s="10">
+      <c r="AT12" s="10">
         <v>0.11</v>
       </c>
-      <c r="AQ12" s="10">
+      <c r="AU12" s="10">
         <v>5</v>
       </c>
-      <c r="AR12" s="10">
+      <c r="AV12" s="10">
         <v>0.03</v>
       </c>
-      <c r="AS12" s="10">
+      <c r="AW12" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AT12" s="10">
+      <c r="AX12" s="10">
         <v>0.7</v>
       </c>
-      <c r="AU12" s="10">
-        <v>1</v>
-      </c>
-      <c r="AV12" s="10">
+      <c r="AY12" s="10">
+        <v>1</v>
+      </c>
+      <c r="AZ12" s="10">
         <v>15</v>
       </c>
-      <c r="AW12" s="10" t="s">
+      <c r="BA12" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="AX12" s="10" t="s">
+      <c r="BB12" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="AY12" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AZ12" s="10" t="s">
+      <c r="BC12" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BD12" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="BA12" s="10">
+      <c r="BE12" s="10">
         <v>5</v>
       </c>
-      <c r="BB12" s="10">
+      <c r="BF12" s="10">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="BC12" s="10">
+      <c r="BG12" s="10">
         <v>0.12</v>
       </c>
-      <c r="BD12" s="10">
+      <c r="BH12" s="10">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="BE12" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BF12" s="10" t="s">
+      <c r="BI12" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BJ12" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="BG12" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BH12" s="10">
+      <c r="BK12" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BL12" s="10">
         <v>0.01</v>
       </c>
-      <c r="BI12" s="10" t="s">
+      <c r="BM12" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="BJ12" s="10">
+      <c r="BN12" s="10">
         <v>0.75</v>
       </c>
-      <c r="BK12" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="BL12" s="10" t="b">
+      <c r="BO12" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="BP12" s="10" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:64" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:68" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>55</v>
       </c>
       <c r="B13" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>110</v>
@@ -2657,154 +2698,154 @@
       <c r="G13" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="H13" s="10" t="s">
+      <c r="L13" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="K13" s="10" t="s">
+      <c r="O13" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="Q13" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="R13" s="10">
-        <v>0</v>
-      </c>
-      <c r="S13" s="10">
-        <v>1</v>
-      </c>
-      <c r="T13" s="10">
-        <v>0.02</v>
-      </c>
       <c r="U13" s="10">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="V13" s="10">
+        <v>0</v>
+      </c>
+      <c r="W13" s="10">
+        <v>1</v>
+      </c>
+      <c r="X13" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="Y13" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="10">
         <v>0.9</v>
       </c>
-      <c r="W13" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="X13" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="10">
+      <c r="AA13" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AB13" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="10">
         <v>0.9</v>
       </c>
-      <c r="Z13" s="10">
+      <c r="AD13" s="10">
         <v>0.01</v>
       </c>
-      <c r="AA13" s="10">
+      <c r="AE13" s="10">
         <v>1E-3</v>
       </c>
-      <c r="AB13" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AC13" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD13" s="10">
-        <v>1</v>
-      </c>
-      <c r="AE13" s="10">
+      <c r="AF13" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AG13" s="10">
+        <v>0</v>
+      </c>
+      <c r="AH13" s="10">
         <v>1</v>
       </c>
       <c r="AI13" s="10">
+        <v>1</v>
+      </c>
+      <c r="AM13" s="10">
         <v>0.05</v>
       </c>
-      <c r="AJ13" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AK13" s="10">
-        <v>0</v>
-      </c>
-      <c r="AL13" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AM13" s="10">
+      <c r="AN13" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AO13" s="10">
+        <v>0</v>
+      </c>
+      <c r="AP13" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AQ13" s="10">
         <v>0.03</v>
       </c>
-      <c r="AN13" s="10">
+      <c r="AR13" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AO13" s="10">
+      <c r="AS13" s="10">
         <v>0.04</v>
       </c>
-      <c r="AP13" s="10">
+      <c r="AT13" s="10">
         <v>0.11</v>
       </c>
-      <c r="AQ13" s="10">
-        <v>1</v>
-      </c>
-      <c r="AR13" s="10">
+      <c r="AU13" s="10">
+        <v>1</v>
+      </c>
+      <c r="AV13" s="10">
         <v>0.03</v>
       </c>
-      <c r="AS13" s="10">
+      <c r="AW13" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AT13" s="10">
+      <c r="AX13" s="10">
         <v>0.7</v>
       </c>
-      <c r="AU13" s="10">
-        <v>1</v>
-      </c>
-      <c r="AV13" s="10">
+      <c r="AY13" s="10">
+        <v>1</v>
+      </c>
+      <c r="AZ13" s="10">
         <v>15</v>
       </c>
-      <c r="AW13" s="10" t="s">
+      <c r="BA13" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="AX13" s="10" t="s">
+      <c r="BB13" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="AY13" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AZ13" s="10" t="s">
+      <c r="BC13" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BD13" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="BA13" s="10">
+      <c r="BE13" s="10">
         <v>5</v>
       </c>
-      <c r="BB13" s="10">
+      <c r="BF13" s="10">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="BC13" s="10">
+      <c r="BG13" s="10">
         <v>0.12</v>
       </c>
-      <c r="BD13" s="10">
+      <c r="BH13" s="10">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="BE13" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BF13" s="10" t="s">
+      <c r="BI13" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BJ13" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="BG13" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BH13" s="10">
+      <c r="BK13" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BL13" s="10">
         <v>0.01</v>
       </c>
-      <c r="BI13" s="10" t="s">
+      <c r="BM13" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="BJ13" s="10">
+      <c r="BN13" s="10">
         <v>0.75</v>
       </c>
-      <c r="BK13" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="BL13" s="10" t="b">
+      <c r="BO13" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="BP13" s="10" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:64" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:68" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>138</v>
       </c>
       <c r="B14" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>110</v>
@@ -2821,154 +2862,154 @@
       <c r="G14" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="H14" s="10" t="s">
+      <c r="L14" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="K14" s="10" t="s">
+      <c r="O14" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="Q14" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="R14" s="10">
-        <v>0</v>
-      </c>
-      <c r="S14" s="10">
-        <v>1</v>
-      </c>
-      <c r="T14" s="10">
+      <c r="U14" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="V14" s="10">
+        <v>0</v>
+      </c>
+      <c r="W14" s="10">
+        <v>1</v>
+      </c>
+      <c r="X14" s="10">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="U14" s="10">
+      <c r="Y14" s="10">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="V14" s="10">
-        <v>1</v>
-      </c>
-      <c r="W14" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="X14" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="10">
+      <c r="Z14" s="10">
+        <v>1</v>
+      </c>
+      <c r="AA14" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AB14" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="10">
         <v>0.9</v>
       </c>
-      <c r="Z14" s="10">
+      <c r="AD14" s="10">
         <v>0.01</v>
       </c>
-      <c r="AA14" s="10">
+      <c r="AE14" s="10">
         <v>1E-3</v>
       </c>
-      <c r="AB14" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AC14" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD14" s="10">
-        <v>1</v>
-      </c>
-      <c r="AE14" s="10">
+      <c r="AF14" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AG14" s="10">
+        <v>0</v>
+      </c>
+      <c r="AH14" s="10">
         <v>1</v>
       </c>
       <c r="AI14" s="10">
+        <v>1</v>
+      </c>
+      <c r="AM14" s="10">
         <v>0.05</v>
       </c>
-      <c r="AJ14" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AK14" s="10">
-        <v>0</v>
-      </c>
-      <c r="AL14" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AM14" s="10">
+      <c r="AN14" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AO14" s="10">
+        <v>0</v>
+      </c>
+      <c r="AP14" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AQ14" s="10">
         <v>0.03</v>
       </c>
-      <c r="AN14" s="10">
+      <c r="AR14" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AO14" s="10">
+      <c r="AS14" s="10">
         <v>0.04</v>
       </c>
-      <c r="AP14" s="10">
+      <c r="AT14" s="10">
         <v>0.11</v>
       </c>
-      <c r="AQ14" s="10">
-        <v>1</v>
-      </c>
-      <c r="AR14" s="10">
+      <c r="AU14" s="10">
+        <v>1</v>
+      </c>
+      <c r="AV14" s="10">
         <v>0.03</v>
       </c>
-      <c r="AS14" s="10">
+      <c r="AW14" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AT14" s="10">
+      <c r="AX14" s="10">
         <v>0.7</v>
       </c>
-      <c r="AU14" s="10">
-        <v>1</v>
-      </c>
-      <c r="AV14" s="10">
+      <c r="AY14" s="10">
+        <v>1</v>
+      </c>
+      <c r="AZ14" s="10">
         <v>15</v>
       </c>
-      <c r="AW14" s="10" t="s">
+      <c r="BA14" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="AX14" s="10" t="s">
+      <c r="BB14" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="AY14" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AZ14" s="10" t="s">
+      <c r="BC14" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BD14" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="BA14" s="10">
+      <c r="BE14" s="10">
         <v>5</v>
       </c>
-      <c r="BB14" s="10">
+      <c r="BF14" s="10">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="BC14" s="10">
+      <c r="BG14" s="10">
         <v>0.12</v>
       </c>
-      <c r="BD14" s="10">
+      <c r="BH14" s="10">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="BE14" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BF14" s="10" t="s">
+      <c r="BI14" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BJ14" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="BG14" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BH14" s="10">
+      <c r="BK14" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BL14" s="10">
         <v>0.01</v>
       </c>
-      <c r="BI14" s="10" t="s">
+      <c r="BM14" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="BJ14" s="10">
+      <c r="BN14" s="10">
         <v>0.75</v>
       </c>
-      <c r="BK14" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="BL14" s="10" t="b">
+      <c r="BO14" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="BP14" s="10" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:64" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:68" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>103</v>
       </c>
       <c r="B15" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>110</v>
@@ -2985,154 +3026,154 @@
       <c r="G15" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="H15" s="10" t="s">
+      <c r="L15" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="K15" s="10" t="s">
+      <c r="O15" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="Q15" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="R15" s="10">
-        <v>0</v>
-      </c>
-      <c r="S15" s="10">
-        <v>1</v>
-      </c>
-      <c r="T15" s="10">
-        <v>0.02</v>
-      </c>
       <c r="U15" s="10">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="V15" s="10">
+        <v>0</v>
+      </c>
+      <c r="W15" s="10">
+        <v>1</v>
+      </c>
+      <c r="X15" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="Y15" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="10">
         <v>0.9</v>
       </c>
-      <c r="W15" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="X15" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="10">
+      <c r="AA15" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AB15" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="10">
         <v>0.9</v>
       </c>
-      <c r="Z15" s="10">
+      <c r="AD15" s="10">
         <v>0.01</v>
       </c>
-      <c r="AA15" s="10">
+      <c r="AE15" s="10">
         <v>1E-3</v>
       </c>
-      <c r="AB15" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AC15" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD15" s="10">
-        <v>1</v>
-      </c>
-      <c r="AE15" s="10">
+      <c r="AF15" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AG15" s="10">
+        <v>0</v>
+      </c>
+      <c r="AH15" s="10">
         <v>1</v>
       </c>
       <c r="AI15" s="10">
+        <v>1</v>
+      </c>
+      <c r="AM15" s="10">
         <v>0.05</v>
       </c>
-      <c r="AJ15" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AK15" s="10">
-        <v>0</v>
-      </c>
-      <c r="AL15" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AM15" s="10">
+      <c r="AN15" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AO15" s="10">
+        <v>0</v>
+      </c>
+      <c r="AP15" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AQ15" s="10">
         <v>0.03</v>
       </c>
-      <c r="AN15" s="10">
+      <c r="AR15" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AO15" s="10">
+      <c r="AS15" s="10">
         <v>0.04</v>
       </c>
-      <c r="AP15" s="10">
+      <c r="AT15" s="10">
         <v>0.11</v>
       </c>
-      <c r="AQ15" s="10">
-        <v>1</v>
-      </c>
-      <c r="AR15" s="10">
+      <c r="AU15" s="10">
+        <v>1</v>
+      </c>
+      <c r="AV15" s="10">
         <v>0.03</v>
       </c>
-      <c r="AS15" s="10">
+      <c r="AW15" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AT15" s="10">
+      <c r="AX15" s="10">
         <v>0.7</v>
       </c>
-      <c r="AU15" s="10">
-        <v>1</v>
-      </c>
-      <c r="AV15" s="10">
+      <c r="AY15" s="10">
+        <v>1</v>
+      </c>
+      <c r="AZ15" s="10">
         <v>15</v>
       </c>
-      <c r="AW15" s="10" t="s">
+      <c r="BA15" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="AX15" s="10" t="s">
+      <c r="BB15" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="AY15" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AZ15" s="10" t="s">
+      <c r="BC15" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BD15" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="BA15" s="10">
+      <c r="BE15" s="10">
         <v>5</v>
       </c>
-      <c r="BB15" s="10">
+      <c r="BF15" s="10">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="BC15" s="10">
+      <c r="BG15" s="10">
         <v>0.12</v>
       </c>
-      <c r="BD15" s="10">
+      <c r="BH15" s="10">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="BE15" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BF15" s="10" t="s">
+      <c r="BI15" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BJ15" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="BG15" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BH15" s="10">
+      <c r="BK15" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BL15" s="10">
         <v>0.01</v>
       </c>
-      <c r="BI15" s="10" t="s">
+      <c r="BM15" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="BJ15" s="10">
+      <c r="BN15" s="10">
         <v>0.75</v>
       </c>
-      <c r="BK15" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="BL15" s="10" t="b">
+      <c r="BO15" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="BP15" s="10" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:64" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:68" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>105</v>
       </c>
       <c r="B16" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>110</v>
@@ -3149,160 +3190,160 @@
       <c r="G16" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="H16" s="10" t="s">
+      <c r="L16" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="K16" s="10" t="s">
+      <c r="O16" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="Q16" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="R16" s="10">
-        <v>0</v>
-      </c>
-      <c r="S16" s="10">
-        <v>1</v>
-      </c>
-      <c r="T16" s="10">
-        <v>0.02</v>
-      </c>
       <c r="U16" s="10">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="V16" s="10">
+        <v>0</v>
+      </c>
+      <c r="W16" s="10">
+        <v>1</v>
+      </c>
+      <c r="X16" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="Y16" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="10">
         <v>0.9</v>
       </c>
-      <c r="W16" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="X16" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y16" s="10">
+      <c r="AA16" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AB16" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="10">
         <v>0.9</v>
       </c>
-      <c r="Z16" s="10">
+      <c r="AD16" s="10">
         <v>0.01</v>
       </c>
-      <c r="AA16" s="10">
+      <c r="AE16" s="10">
         <v>1E-3</v>
       </c>
-      <c r="AB16" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AC16" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD16" s="10">
-        <v>1</v>
-      </c>
-      <c r="AE16" s="10">
+      <c r="AF16" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AG16" s="10">
+        <v>0</v>
+      </c>
+      <c r="AH16" s="10">
+        <v>1</v>
+      </c>
+      <c r="AI16" s="10">
         <v>2</v>
       </c>
-      <c r="AF16" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AG16" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AI16" s="10">
+      <c r="AJ16" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AK16" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AM16" s="10">
         <v>0.05</v>
       </c>
-      <c r="AJ16" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AK16" s="10">
-        <v>0</v>
-      </c>
-      <c r="AL16" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AM16" s="10">
+      <c r="AN16" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AO16" s="10">
+        <v>0</v>
+      </c>
+      <c r="AP16" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AQ16" s="10">
         <v>0.03</v>
       </c>
-      <c r="AN16" s="10">
+      <c r="AR16" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AO16" s="10">
+      <c r="AS16" s="10">
         <v>0.04</v>
       </c>
-      <c r="AP16" s="10">
+      <c r="AT16" s="10">
         <v>0.11</v>
       </c>
-      <c r="AQ16" s="10">
-        <v>1</v>
-      </c>
-      <c r="AR16" s="10">
+      <c r="AU16" s="10">
+        <v>1</v>
+      </c>
+      <c r="AV16" s="10">
         <v>0.03</v>
       </c>
-      <c r="AS16" s="10">
+      <c r="AW16" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AT16" s="10">
+      <c r="AX16" s="10">
         <v>0.7</v>
       </c>
-      <c r="AU16" s="10">
-        <v>1</v>
-      </c>
-      <c r="AV16" s="10">
+      <c r="AY16" s="10">
+        <v>1</v>
+      </c>
+      <c r="AZ16" s="10">
         <v>15</v>
       </c>
-      <c r="AW16" s="10" t="s">
+      <c r="BA16" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="AX16" s="10" t="s">
+      <c r="BB16" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="AY16" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AZ16" s="10" t="s">
+      <c r="BC16" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BD16" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="BA16" s="10">
+      <c r="BE16" s="10">
         <v>5</v>
       </c>
-      <c r="BB16" s="10">
+      <c r="BF16" s="10">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="BC16" s="10">
+      <c r="BG16" s="10">
         <v>0.12</v>
       </c>
-      <c r="BD16" s="10">
+      <c r="BH16" s="10">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="BE16" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BF16" s="10" t="s">
+      <c r="BI16" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BJ16" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="BG16" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BH16" s="10">
+      <c r="BK16" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BL16" s="10">
         <v>0.01</v>
       </c>
-      <c r="BI16" s="10" t="s">
+      <c r="BM16" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="BJ16" s="10">
+      <c r="BN16" s="10">
         <v>0.75</v>
       </c>
-      <c r="BK16" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="BL16" s="10" t="b">
+      <c r="BO16" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="BP16" s="10" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:64" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:68" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>107</v>
       </c>
       <c r="B17" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>111</v>
@@ -3319,154 +3360,154 @@
       <c r="G17" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="H17" s="10" t="s">
+      <c r="L17" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="I17" s="10" t="s">
+      <c r="M17" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="Q17" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="R17" s="10">
-        <v>0</v>
-      </c>
-      <c r="S17" s="10">
-        <v>1</v>
-      </c>
-      <c r="T17" s="10">
-        <v>0.02</v>
-      </c>
       <c r="U17" s="10">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="V17" s="10">
+        <v>0</v>
+      </c>
+      <c r="W17" s="10">
+        <v>1</v>
+      </c>
+      <c r="X17" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="Y17" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="10">
         <v>0.9</v>
       </c>
-      <c r="W17" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="X17" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y17" s="10">
+      <c r="AA17" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AB17" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="10">
         <v>0.9</v>
       </c>
-      <c r="Z17" s="10">
+      <c r="AD17" s="10">
         <v>0.01</v>
       </c>
-      <c r="AA17" s="10">
+      <c r="AE17" s="10">
         <v>1E-3</v>
       </c>
-      <c r="AB17" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AC17" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD17" s="10">
-        <v>1</v>
-      </c>
-      <c r="AE17" s="10">
+      <c r="AF17" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AG17" s="10">
+        <v>0</v>
+      </c>
+      <c r="AH17" s="10">
         <v>1</v>
       </c>
       <c r="AI17" s="10">
+        <v>1</v>
+      </c>
+      <c r="AM17" s="10">
         <v>0.05</v>
       </c>
-      <c r="AJ17" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AK17" s="10">
-        <v>0</v>
-      </c>
-      <c r="AL17" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AM17" s="10">
+      <c r="AN17" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AO17" s="10">
+        <v>0</v>
+      </c>
+      <c r="AP17" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AQ17" s="10">
         <v>0.03</v>
       </c>
-      <c r="AN17" s="10">
+      <c r="AR17" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AO17" s="10">
+      <c r="AS17" s="10">
         <v>0.04</v>
       </c>
-      <c r="AP17" s="10">
+      <c r="AT17" s="10">
         <v>0.11</v>
       </c>
-      <c r="AQ17" s="10">
-        <v>1</v>
-      </c>
-      <c r="AR17" s="10">
+      <c r="AU17" s="10">
+        <v>1</v>
+      </c>
+      <c r="AV17" s="10">
         <v>0.03</v>
       </c>
-      <c r="AS17" s="10">
+      <c r="AW17" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AT17" s="10">
+      <c r="AX17" s="10">
         <v>0.7</v>
       </c>
-      <c r="AU17" s="10">
-        <v>1</v>
-      </c>
-      <c r="AV17" s="10">
+      <c r="AY17" s="10">
+        <v>1</v>
+      </c>
+      <c r="AZ17" s="10">
         <v>15</v>
       </c>
-      <c r="AW17" s="10" t="s">
+      <c r="BA17" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="AX17" s="10" t="s">
+      <c r="BB17" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="AY17" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AZ17" s="10" t="s">
+      <c r="BC17" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BD17" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="BA17" s="10">
+      <c r="BE17" s="10">
         <v>5</v>
       </c>
-      <c r="BB17" s="10">
+      <c r="BF17" s="10">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="BC17" s="10">
+      <c r="BG17" s="10">
         <v>0.12</v>
       </c>
-      <c r="BD17" s="10">
+      <c r="BH17" s="10">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="BE17" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BF17" s="10" t="s">
+      <c r="BI17" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BJ17" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="BG17" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BH17" s="10">
+      <c r="BK17" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BL17" s="10">
         <v>0.01</v>
       </c>
-      <c r="BI17" s="10" t="s">
+      <c r="BM17" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="BJ17" s="10">
+      <c r="BN17" s="10">
         <v>0.75</v>
       </c>
-      <c r="BK17" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="BL17" s="10" t="b">
+      <c r="BO17" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="BP17" s="10" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:64" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:68" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>143</v>
       </c>
       <c r="B18" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>144</v>
@@ -3483,156 +3524,331 @@
       <c r="G18" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="H18" s="10" t="s">
+      <c r="L18" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="K18" s="10" t="s">
+      <c r="O18" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="Q18" s="10">
+      <c r="U18" s="10">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="R18" s="10">
+      <c r="V18" s="10">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="S18" s="14">
+      <c r="W18" s="14">
         <v>5</v>
       </c>
-      <c r="T18" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="U18" s="10">
-        <v>0</v>
-      </c>
-      <c r="V18" s="10">
+      <c r="X18" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="Y18" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="10">
         <v>0.9</v>
       </c>
-      <c r="W18" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="X18" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="10">
+      <c r="AA18" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AB18" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="10">
         <v>0.9</v>
       </c>
-      <c r="Z18" s="10">
+      <c r="AD18" s="10">
         <v>0.01</v>
       </c>
-      <c r="AA18" s="10">
+      <c r="AE18" s="10">
         <v>1E-3</v>
       </c>
-      <c r="AB18" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AC18" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD18" s="10">
-        <v>1</v>
-      </c>
-      <c r="AE18" s="10">
+      <c r="AF18" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AG18" s="10">
+        <v>0</v>
+      </c>
+      <c r="AH18" s="10">
         <v>1</v>
       </c>
       <c r="AI18" s="10">
+        <v>1</v>
+      </c>
+      <c r="AM18" s="10">
         <v>0.05</v>
       </c>
-      <c r="AJ18" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AK18" s="10">
+      <c r="AN18" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AO18" s="10">
         <v>0.05</v>
       </c>
-      <c r="AL18" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AM18" s="10">
+      <c r="AP18" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AQ18" s="10">
         <v>0.03</v>
       </c>
-      <c r="AN18" s="10">
+      <c r="AR18" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AO18" s="10">
+      <c r="AS18" s="10">
         <v>0.04</v>
       </c>
-      <c r="AP18" s="10">
+      <c r="AT18" s="10">
         <v>0.11</v>
       </c>
-      <c r="AQ18" s="10">
+      <c r="AU18" s="10">
         <v>5</v>
       </c>
-      <c r="AR18" s="10">
+      <c r="AV18" s="10">
         <v>0.03</v>
       </c>
-      <c r="AS18" s="10">
+      <c r="AW18" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AT18" s="10">
+      <c r="AX18" s="10">
         <v>0.7</v>
       </c>
-      <c r="AU18" s="10">
-        <v>1</v>
-      </c>
-      <c r="AV18" s="10">
+      <c r="AY18" s="10">
+        <v>1</v>
+      </c>
+      <c r="AZ18" s="10">
         <v>15</v>
       </c>
-      <c r="AW18" s="10" t="s">
+      <c r="BA18" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="AX18" s="10" t="s">
+      <c r="BB18" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="AY18" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AZ18" s="10" t="s">
+      <c r="BC18" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BD18" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="BA18" s="10">
+      <c r="BE18" s="10">
         <v>5</v>
       </c>
-      <c r="BB18" s="10">
+      <c r="BF18" s="10">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="BC18" s="10">
+      <c r="BG18" s="10">
         <v>0.12</v>
       </c>
-      <c r="BD18" s="10">
+      <c r="BH18" s="10">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="BE18" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BF18" s="10" t="s">
+      <c r="BI18" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BJ18" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="BG18" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BH18" s="10">
+      <c r="BK18" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BL18" s="10">
         <v>0.01</v>
       </c>
-      <c r="BI18" s="10" t="s">
+      <c r="BM18" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="BJ18" s="10">
+      <c r="BN18" s="10">
         <v>0.75</v>
       </c>
-      <c r="BK18" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="BL18" s="10" t="b">
+      <c r="BO18" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="BP18" s="10" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:64" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="1:64" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:64" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:68" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="B19" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="D19" s="10">
+        <v>1</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G19" s="10">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H19" s="10">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="I19" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="J19" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="K19" s="10">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="L19" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="O19" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="U19" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="V19" s="10">
+        <v>0</v>
+      </c>
+      <c r="W19" s="10">
+        <v>1</v>
+      </c>
+      <c r="X19" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="Y19" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="AA19" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AB19" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="AD19" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="AE19" s="10">
+        <v>1E-3</v>
+      </c>
+      <c r="AF19" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AG19" s="10">
+        <v>0</v>
+      </c>
+      <c r="AH19" s="10">
+        <v>1</v>
+      </c>
+      <c r="AI19" s="10">
+        <v>1</v>
+      </c>
+      <c r="AM19" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="AN19" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AO19" s="10">
+        <v>0</v>
+      </c>
+      <c r="AP19" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AQ19" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="AR19" s="10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AS19" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="AT19" s="10">
+        <v>0.11</v>
+      </c>
+      <c r="AU19" s="10">
+        <v>1</v>
+      </c>
+      <c r="AV19" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="AW19" s="10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AX19" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="AY19" s="10">
+        <v>1</v>
+      </c>
+      <c r="AZ19" s="10">
+        <v>15</v>
+      </c>
+      <c r="BA19" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="BB19" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="BC19" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BD19" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="BE19" s="10">
+        <v>5</v>
+      </c>
+      <c r="BF19" s="10">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="BG19" s="10">
+        <v>0.12</v>
+      </c>
+      <c r="BH19" s="10">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="BI19" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BJ19" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="BK19" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BL19" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="BM19" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="BN19" s="10">
+        <v>0.75</v>
+      </c>
+      <c r="BO19" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="BP19" s="10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:68" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:68" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>118</v>
       </c>
       <c r="B21" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" s="10" t="s">
         <v>112</v>
@@ -3649,154 +3865,154 @@
       <c r="G21" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="H21" s="10" t="s">
+      <c r="L21" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="K21" s="10" t="s">
+      <c r="O21" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="Q21" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="R21" s="10">
-        <v>0</v>
-      </c>
-      <c r="S21" s="10">
-        <v>1</v>
-      </c>
-      <c r="T21" s="10">
-        <v>0.02</v>
-      </c>
       <c r="U21" s="10">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="V21" s="10">
+        <v>0</v>
+      </c>
+      <c r="W21" s="10">
+        <v>1</v>
+      </c>
+      <c r="X21" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="Y21" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="10">
         <v>0.9</v>
       </c>
-      <c r="W21" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="X21" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y21" s="10">
+      <c r="AA21" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AB21" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="10">
         <v>0.9</v>
       </c>
-      <c r="Z21" s="10">
+      <c r="AD21" s="10">
         <v>0.01</v>
       </c>
-      <c r="AA21" s="10">
+      <c r="AE21" s="10">
         <v>1E-3</v>
       </c>
-      <c r="AB21" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AC21" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD21" s="10">
-        <v>1</v>
-      </c>
-      <c r="AE21" s="10">
+      <c r="AF21" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AG21" s="10">
+        <v>0</v>
+      </c>
+      <c r="AH21" s="10">
         <v>1</v>
       </c>
       <c r="AI21" s="10">
+        <v>1</v>
+      </c>
+      <c r="AM21" s="10">
         <v>0.05</v>
       </c>
-      <c r="AJ21" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AK21" s="10">
-        <v>0</v>
-      </c>
-      <c r="AL21" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AM21" s="10">
+      <c r="AN21" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AO21" s="10">
+        <v>0</v>
+      </c>
+      <c r="AP21" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AQ21" s="10">
         <v>0.03</v>
       </c>
-      <c r="AN21" s="10">
+      <c r="AR21" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AO21" s="10">
+      <c r="AS21" s="10">
         <v>0.04</v>
       </c>
-      <c r="AP21" s="10">
+      <c r="AT21" s="10">
         <v>0.11</v>
       </c>
-      <c r="AQ21" s="10">
-        <v>1</v>
-      </c>
-      <c r="AR21" s="10">
+      <c r="AU21" s="10">
+        <v>1</v>
+      </c>
+      <c r="AV21" s="10">
         <v>0.03</v>
       </c>
-      <c r="AS21" s="10">
+      <c r="AW21" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AT21" s="10">
+      <c r="AX21" s="10">
         <v>0.7</v>
       </c>
-      <c r="AU21" s="10">
-        <v>1</v>
-      </c>
-      <c r="AV21" s="10">
+      <c r="AY21" s="10">
+        <v>1</v>
+      </c>
+      <c r="AZ21" s="10">
         <v>15</v>
       </c>
-      <c r="AW21" s="10" t="s">
+      <c r="BA21" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="AX21" s="10" t="s">
+      <c r="BB21" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="AY21" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AZ21" s="10" t="s">
+      <c r="BC21" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BD21" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="BA21" s="10">
+      <c r="BE21" s="10">
         <v>5</v>
       </c>
-      <c r="BB21" s="10">
+      <c r="BF21" s="10">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="BC21" s="10">
+      <c r="BG21" s="10">
         <v>0.12</v>
       </c>
-      <c r="BD21" s="10">
+      <c r="BH21" s="10">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="BE21" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BF21" s="10" t="s">
+      <c r="BI21" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BJ21" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="BG21" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BH21" s="10">
+      <c r="BK21" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BL21" s="10">
         <v>0.01</v>
       </c>
-      <c r="BI21" s="10" t="s">
+      <c r="BM21" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="BJ21" s="10">
-        <v>1</v>
-      </c>
-      <c r="BK21" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="BL21" s="10" t="b">
+      <c r="BN21" s="10">
+        <v>1</v>
+      </c>
+      <c r="BO21" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="BP21" s="10" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:64" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:68" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>120</v>
       </c>
       <c r="B22" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22" s="10" t="s">
         <v>109</v>
@@ -3813,154 +4029,154 @@
       <c r="G22" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="H22" s="10" t="s">
+      <c r="L22" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="K22" s="10" t="s">
+      <c r="O22" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="Q22" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="R22" s="10">
-        <v>0</v>
-      </c>
-      <c r="S22" s="10">
-        <v>1</v>
-      </c>
-      <c r="T22" s="10">
-        <v>0.02</v>
-      </c>
       <c r="U22" s="10">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="V22" s="10">
+        <v>0</v>
+      </c>
+      <c r="W22" s="10">
+        <v>1</v>
+      </c>
+      <c r="X22" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="Y22" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="10">
         <v>0.9</v>
       </c>
-      <c r="W22" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="X22" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y22" s="10">
+      <c r="AA22" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AB22" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="10">
         <v>0.9</v>
       </c>
-      <c r="Z22" s="10">
+      <c r="AD22" s="10">
         <v>0.01</v>
       </c>
-      <c r="AA22" s="10">
+      <c r="AE22" s="10">
         <v>1E-3</v>
       </c>
-      <c r="AB22" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AC22" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD22" s="10">
-        <v>1</v>
-      </c>
-      <c r="AE22" s="10">
+      <c r="AF22" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AG22" s="10">
+        <v>0</v>
+      </c>
+      <c r="AH22" s="10">
         <v>1</v>
       </c>
       <c r="AI22" s="10">
+        <v>1</v>
+      </c>
+      <c r="AM22" s="10">
         <v>0.05</v>
       </c>
-      <c r="AJ22" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AK22" s="10">
+      <c r="AN22" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AO22" s="10">
         <v>0.05</v>
       </c>
-      <c r="AL22" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AM22" s="10">
+      <c r="AP22" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AQ22" s="10">
         <v>0.03</v>
       </c>
-      <c r="AN22" s="10">
+      <c r="AR22" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AO22" s="10">
+      <c r="AS22" s="10">
         <v>0.04</v>
       </c>
-      <c r="AP22" s="10">
+      <c r="AT22" s="10">
         <v>0.11</v>
       </c>
-      <c r="AQ22" s="10">
-        <v>1</v>
-      </c>
-      <c r="AR22" s="10">
+      <c r="AU22" s="10">
+        <v>1</v>
+      </c>
+      <c r="AV22" s="10">
         <v>0.03</v>
       </c>
-      <c r="AS22" s="10">
+      <c r="AW22" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AT22" s="10">
+      <c r="AX22" s="10">
         <v>0.7</v>
       </c>
-      <c r="AU22" s="10">
-        <v>1</v>
-      </c>
-      <c r="AV22" s="10">
+      <c r="AY22" s="10">
+        <v>1</v>
+      </c>
+      <c r="AZ22" s="10">
         <v>15</v>
       </c>
-      <c r="AW22" s="10" t="s">
+      <c r="BA22" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="AX22" s="10" t="s">
+      <c r="BB22" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="AY22" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AZ22" s="10" t="s">
+      <c r="BC22" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BD22" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="BA22" s="10">
+      <c r="BE22" s="10">
         <v>5</v>
       </c>
-      <c r="BB22" s="10">
+      <c r="BF22" s="10">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="BC22" s="10">
+      <c r="BG22" s="10">
         <v>0.12</v>
       </c>
-      <c r="BD22" s="10">
+      <c r="BH22" s="10">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="BE22" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BF22" s="10" t="s">
+      <c r="BI22" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BJ22" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="BG22" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BH22" s="10">
+      <c r="BK22" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BL22" s="10">
         <v>0.01</v>
       </c>
-      <c r="BI22" s="10" t="s">
+      <c r="BM22" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="BJ22" s="10">
-        <v>1</v>
-      </c>
-      <c r="BK22" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="BL22" s="10" t="b">
+      <c r="BN22" s="10">
+        <v>1</v>
+      </c>
+      <c r="BO22" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="BP22" s="10" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:64" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:68" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>121</v>
       </c>
       <c r="B23" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" s="10" t="s">
         <v>109</v>
@@ -3977,154 +4193,154 @@
       <c r="G23" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="H23" s="10" t="s">
+      <c r="L23" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="K23" s="10" t="s">
+      <c r="O23" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="Q23" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="R23" s="10">
-        <v>0</v>
-      </c>
-      <c r="S23" s="10">
-        <v>1</v>
-      </c>
-      <c r="T23" s="10">
-        <v>0.02</v>
-      </c>
       <c r="U23" s="10">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="V23" s="10">
+        <v>0</v>
+      </c>
+      <c r="W23" s="10">
+        <v>1</v>
+      </c>
+      <c r="X23" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="Y23" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="10">
         <v>0.9</v>
       </c>
-      <c r="W23" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="X23" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y23" s="10">
+      <c r="AA23" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AB23" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="10">
         <v>0.9</v>
       </c>
-      <c r="Z23" s="10">
+      <c r="AD23" s="10">
         <v>0.01</v>
       </c>
-      <c r="AA23" s="10">
+      <c r="AE23" s="10">
         <v>1E-3</v>
       </c>
-      <c r="AB23" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AC23" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD23" s="10">
-        <v>1</v>
-      </c>
-      <c r="AE23" s="10">
+      <c r="AF23" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AG23" s="10">
+        <v>0</v>
+      </c>
+      <c r="AH23" s="10">
         <v>1</v>
       </c>
       <c r="AI23" s="10">
+        <v>1</v>
+      </c>
+      <c r="AM23" s="10">
         <v>0.05</v>
       </c>
-      <c r="AJ23" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AK23" s="10">
-        <v>0</v>
-      </c>
-      <c r="AL23" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AM23" s="10">
+      <c r="AN23" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AO23" s="10">
+        <v>0</v>
+      </c>
+      <c r="AP23" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AQ23" s="10">
         <v>0.03</v>
       </c>
-      <c r="AN23" s="10">
+      <c r="AR23" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AO23" s="10">
+      <c r="AS23" s="10">
         <v>0.04</v>
       </c>
-      <c r="AP23" s="10">
+      <c r="AT23" s="10">
         <v>0.11</v>
       </c>
-      <c r="AQ23" s="10">
-        <v>1</v>
-      </c>
-      <c r="AR23" s="10">
+      <c r="AU23" s="10">
+        <v>1</v>
+      </c>
+      <c r="AV23" s="10">
         <v>0.03</v>
       </c>
-      <c r="AS23" s="10">
+      <c r="AW23" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AT23" s="10">
+      <c r="AX23" s="10">
         <v>0.7</v>
       </c>
-      <c r="AU23" s="10">
-        <v>1</v>
-      </c>
-      <c r="AV23" s="10">
+      <c r="AY23" s="10">
+        <v>1</v>
+      </c>
+      <c r="AZ23" s="10">
         <v>15</v>
       </c>
-      <c r="AW23" s="10" t="s">
+      <c r="BA23" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="AX23" s="10" t="s">
+      <c r="BB23" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="AY23" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AZ23" s="10" t="s">
+      <c r="BC23" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BD23" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="BA23" s="10">
+      <c r="BE23" s="10">
         <v>5</v>
       </c>
-      <c r="BB23" s="10">
+      <c r="BF23" s="10">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="BC23" s="10">
+      <c r="BG23" s="10">
         <v>0.12</v>
       </c>
-      <c r="BD23" s="10">
+      <c r="BH23" s="10">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="BE23" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BF23" s="10" t="s">
+      <c r="BI23" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BJ23" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="BG23" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BH23" s="10">
+      <c r="BK23" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BL23" s="10">
         <v>0.01</v>
       </c>
-      <c r="BI23" s="10" t="s">
+      <c r="BM23" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="BJ23" s="10">
-        <v>1</v>
-      </c>
-      <c r="BK23" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="BL23" s="10" t="b">
+      <c r="BN23" s="10">
+        <v>1</v>
+      </c>
+      <c r="BO23" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="BP23" s="10" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:64" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:68" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
         <v>135</v>
       </c>
       <c r="B24" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24" s="10" t="s">
         <v>109</v>
@@ -4141,154 +4357,154 @@
       <c r="G24" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="H24" s="10" t="s">
+      <c r="L24" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="K24" s="10" t="s">
+      <c r="O24" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="Q24" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="R24" s="10">
-        <v>0</v>
-      </c>
-      <c r="S24" s="14">
+      <c r="U24" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="V24" s="10">
+        <v>0</v>
+      </c>
+      <c r="W24" s="14">
         <v>5</v>
       </c>
-      <c r="T24" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="U24" s="10">
-        <v>0</v>
-      </c>
-      <c r="V24" s="10">
+      <c r="X24" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="Y24" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="10">
         <v>0.9</v>
       </c>
-      <c r="W24" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="X24" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y24" s="10">
+      <c r="AA24" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AB24" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="10">
         <v>0.9</v>
       </c>
-      <c r="Z24" s="10">
+      <c r="AD24" s="10">
         <v>0.01</v>
       </c>
-      <c r="AA24" s="10">
+      <c r="AE24" s="10">
         <v>1E-3</v>
       </c>
-      <c r="AB24" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AC24" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD24" s="10">
-        <v>1</v>
-      </c>
-      <c r="AE24" s="10">
+      <c r="AF24" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AG24" s="10">
+        <v>0</v>
+      </c>
+      <c r="AH24" s="10">
         <v>1</v>
       </c>
       <c r="AI24" s="10">
+        <v>1</v>
+      </c>
+      <c r="AM24" s="10">
         <v>0.05</v>
       </c>
-      <c r="AJ24" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AK24" s="10">
-        <v>0</v>
-      </c>
-      <c r="AL24" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AM24" s="10">
+      <c r="AN24" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AO24" s="10">
+        <v>0</v>
+      </c>
+      <c r="AP24" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AQ24" s="10">
         <v>0.03</v>
       </c>
-      <c r="AN24" s="10">
+      <c r="AR24" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AO24" s="10">
+      <c r="AS24" s="10">
         <v>0.04</v>
       </c>
-      <c r="AP24" s="10">
+      <c r="AT24" s="10">
         <v>0.11</v>
       </c>
-      <c r="AQ24" s="10">
+      <c r="AU24" s="10">
         <v>5</v>
       </c>
-      <c r="AR24" s="10">
+      <c r="AV24" s="10">
         <v>0.03</v>
       </c>
-      <c r="AS24" s="10">
+      <c r="AW24" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AT24" s="10">
+      <c r="AX24" s="10">
         <v>0.7</v>
       </c>
-      <c r="AU24" s="10">
-        <v>1</v>
-      </c>
-      <c r="AV24" s="10">
+      <c r="AY24" s="10">
+        <v>1</v>
+      </c>
+      <c r="AZ24" s="10">
         <v>15</v>
       </c>
-      <c r="AW24" s="10" t="s">
+      <c r="BA24" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="AX24" s="10" t="s">
+      <c r="BB24" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="AY24" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AZ24" s="10" t="s">
+      <c r="BC24" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BD24" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="BA24" s="10">
+      <c r="BE24" s="10">
         <v>5</v>
       </c>
-      <c r="BB24" s="10">
+      <c r="BF24" s="10">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="BC24" s="10">
+      <c r="BG24" s="10">
         <v>0.12</v>
       </c>
-      <c r="BD24" s="10">
+      <c r="BH24" s="10">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="BE24" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BF24" s="10" t="s">
+      <c r="BI24" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BJ24" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="BG24" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BH24" s="10">
+      <c r="BK24" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BL24" s="10">
         <v>0.01</v>
       </c>
-      <c r="BI24" s="10" t="s">
+      <c r="BM24" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="BJ24" s="10">
-        <v>1</v>
-      </c>
-      <c r="BK24" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="BL24" s="10" t="b">
+      <c r="BN24" s="10">
+        <v>1</v>
+      </c>
+      <c r="BO24" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="BP24" s="10" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:64" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:68" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>122</v>
       </c>
       <c r="B25" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>109</v>
@@ -4305,154 +4521,154 @@
       <c r="G25" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="H25" s="10" t="s">
+      <c r="L25" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="K25" s="10" t="s">
+      <c r="O25" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="Q25" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="R25" s="10">
-        <v>0</v>
-      </c>
-      <c r="S25" s="10">
-        <v>1</v>
-      </c>
-      <c r="T25" s="10">
-        <v>0.02</v>
-      </c>
       <c r="U25" s="10">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="V25" s="10">
+        <v>0</v>
+      </c>
+      <c r="W25" s="10">
+        <v>1</v>
+      </c>
+      <c r="X25" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="Y25" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="10">
         <v>0.9</v>
       </c>
-      <c r="W25" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="X25" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y25" s="10">
+      <c r="AA25" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AB25" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="10">
         <v>0.9</v>
       </c>
-      <c r="Z25" s="10">
+      <c r="AD25" s="10">
         <v>0.01</v>
       </c>
-      <c r="AA25" s="10">
+      <c r="AE25" s="10">
         <v>1E-3</v>
       </c>
-      <c r="AB25" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AC25" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD25" s="10">
-        <v>1</v>
-      </c>
-      <c r="AE25" s="10">
+      <c r="AF25" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AG25" s="10">
+        <v>0</v>
+      </c>
+      <c r="AH25" s="10">
         <v>1</v>
       </c>
       <c r="AI25" s="10">
+        <v>1</v>
+      </c>
+      <c r="AM25" s="10">
         <v>0.05</v>
       </c>
-      <c r="AJ25" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AK25" s="10">
-        <v>0</v>
-      </c>
-      <c r="AL25" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AM25" s="10">
+      <c r="AN25" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AO25" s="10">
+        <v>0</v>
+      </c>
+      <c r="AP25" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AQ25" s="10">
         <v>0.03</v>
       </c>
-      <c r="AN25" s="10">
+      <c r="AR25" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AO25" s="10">
+      <c r="AS25" s="10">
         <v>0.04</v>
       </c>
-      <c r="AP25" s="10">
+      <c r="AT25" s="10">
         <v>0.11</v>
       </c>
-      <c r="AQ25" s="10">
-        <v>1</v>
-      </c>
-      <c r="AR25" s="10">
+      <c r="AU25" s="10">
+        <v>1</v>
+      </c>
+      <c r="AV25" s="10">
         <v>0.03</v>
       </c>
-      <c r="AS25" s="10">
+      <c r="AW25" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AT25" s="10">
+      <c r="AX25" s="10">
         <v>0.7</v>
       </c>
-      <c r="AU25" s="10">
-        <v>1</v>
-      </c>
-      <c r="AV25" s="10">
+      <c r="AY25" s="10">
+        <v>1</v>
+      </c>
+      <c r="AZ25" s="10">
         <v>15</v>
       </c>
-      <c r="AW25" s="10" t="s">
+      <c r="BA25" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="AX25" s="10" t="s">
+      <c r="BB25" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="AY25" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AZ25" s="10" t="s">
+      <c r="BC25" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BD25" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="BA25" s="10">
+      <c r="BE25" s="10">
         <v>5</v>
       </c>
-      <c r="BB25" s="10">
+      <c r="BF25" s="10">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="BC25" s="10">
+      <c r="BG25" s="10">
         <v>0.12</v>
       </c>
-      <c r="BD25" s="10">
+      <c r="BH25" s="10">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="BE25" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BF25" s="10" t="s">
+      <c r="BI25" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BJ25" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="BG25" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BH25" s="10">
+      <c r="BK25" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BL25" s="10">
         <v>0.01</v>
       </c>
-      <c r="BI25" s="10" t="s">
+      <c r="BM25" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="BJ25" s="10">
-        <v>1</v>
-      </c>
-      <c r="BK25" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="BL25" s="10" t="b">
+      <c r="BN25" s="10">
+        <v>1</v>
+      </c>
+      <c r="BO25" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="BP25" s="10" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:64" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:68" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
         <v>123</v>
       </c>
       <c r="B26" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26" s="10" t="s">
         <v>110</v>
@@ -4469,154 +4685,154 @@
       <c r="G26" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="H26" s="10" t="s">
+      <c r="L26" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="K26" s="10" t="s">
+      <c r="O26" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="Q26" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="R26" s="10">
-        <v>0</v>
-      </c>
-      <c r="S26" s="10">
-        <v>1</v>
-      </c>
-      <c r="T26" s="10">
-        <v>0.02</v>
-      </c>
       <c r="U26" s="10">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="V26" s="10">
+        <v>0</v>
+      </c>
+      <c r="W26" s="10">
+        <v>1</v>
+      </c>
+      <c r="X26" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="Y26" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="10">
         <v>0.9</v>
       </c>
-      <c r="W26" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="X26" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y26" s="10">
+      <c r="AA26" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AB26" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="10">
         <v>0.9</v>
       </c>
-      <c r="Z26" s="10">
+      <c r="AD26" s="10">
         <v>0.01</v>
       </c>
-      <c r="AA26" s="10">
+      <c r="AE26" s="10">
         <v>1E-3</v>
       </c>
-      <c r="AB26" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AC26" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD26" s="10">
-        <v>1</v>
-      </c>
-      <c r="AE26" s="10">
+      <c r="AF26" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AG26" s="10">
+        <v>0</v>
+      </c>
+      <c r="AH26" s="10">
         <v>1</v>
       </c>
       <c r="AI26" s="10">
+        <v>1</v>
+      </c>
+      <c r="AM26" s="10">
         <v>0.05</v>
       </c>
-      <c r="AJ26" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AK26" s="10">
-        <v>0</v>
-      </c>
-      <c r="AL26" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AM26" s="10">
+      <c r="AN26" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AO26" s="10">
+        <v>0</v>
+      </c>
+      <c r="AP26" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AQ26" s="10">
         <v>0.03</v>
       </c>
-      <c r="AN26" s="10">
+      <c r="AR26" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AO26" s="10">
+      <c r="AS26" s="10">
         <v>0.04</v>
       </c>
-      <c r="AP26" s="10">
+      <c r="AT26" s="10">
         <v>0.11</v>
       </c>
-      <c r="AQ26" s="10">
-        <v>1</v>
-      </c>
-      <c r="AR26" s="10">
+      <c r="AU26" s="10">
+        <v>1</v>
+      </c>
+      <c r="AV26" s="10">
         <v>0.03</v>
       </c>
-      <c r="AS26" s="10">
+      <c r="AW26" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AT26" s="10">
+      <c r="AX26" s="10">
         <v>0.7</v>
       </c>
-      <c r="AU26" s="10">
-        <v>1</v>
-      </c>
-      <c r="AV26" s="10">
+      <c r="AY26" s="10">
+        <v>1</v>
+      </c>
+      <c r="AZ26" s="10">
         <v>15</v>
       </c>
-      <c r="AW26" s="10" t="s">
+      <c r="BA26" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="AX26" s="10" t="s">
+      <c r="BB26" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="AY26" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AZ26" s="10" t="s">
+      <c r="BC26" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BD26" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="BA26" s="10">
+      <c r="BE26" s="10">
         <v>5</v>
       </c>
-      <c r="BB26" s="10">
+      <c r="BF26" s="10">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="BC26" s="10">
+      <c r="BG26" s="10">
         <v>0.12</v>
       </c>
-      <c r="BD26" s="10">
+      <c r="BH26" s="10">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="BE26" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BF26" s="10" t="s">
+      <c r="BI26" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BJ26" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="BG26" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BH26" s="10">
+      <c r="BK26" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BL26" s="10">
         <v>0.01</v>
       </c>
-      <c r="BI26" s="10" t="s">
+      <c r="BM26" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="BJ26" s="10">
-        <v>1</v>
-      </c>
-      <c r="BK26" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="BL26" s="10" t="b">
+      <c r="BN26" s="10">
+        <v>1</v>
+      </c>
+      <c r="BO26" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="BP26" s="10" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:64" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:68" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>136</v>
       </c>
       <c r="B27" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27" s="10" t="s">
         <v>110</v>
@@ -4633,154 +4849,154 @@
       <c r="G27" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="H27" s="10" t="s">
+      <c r="L27" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="K27" s="10" t="s">
+      <c r="O27" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="Q27" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="R27" s="10">
-        <v>0</v>
-      </c>
-      <c r="S27" s="14">
+      <c r="U27" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="V27" s="10">
+        <v>0</v>
+      </c>
+      <c r="W27" s="14">
         <v>5</v>
       </c>
-      <c r="T27" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="U27" s="10">
-        <v>0</v>
-      </c>
-      <c r="V27" s="10">
+      <c r="X27" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="Y27" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="10">
         <v>0.9</v>
       </c>
-      <c r="W27" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="X27" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y27" s="10">
+      <c r="AA27" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AB27" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="10">
         <v>0.9</v>
       </c>
-      <c r="Z27" s="10">
+      <c r="AD27" s="10">
         <v>0.01</v>
       </c>
-      <c r="AA27" s="10">
+      <c r="AE27" s="10">
         <v>1E-3</v>
       </c>
-      <c r="AB27" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AC27" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD27" s="10">
-        <v>1</v>
-      </c>
-      <c r="AE27" s="10">
+      <c r="AF27" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AG27" s="10">
+        <v>0</v>
+      </c>
+      <c r="AH27" s="10">
         <v>1</v>
       </c>
       <c r="AI27" s="10">
+        <v>1</v>
+      </c>
+      <c r="AM27" s="10">
         <v>0.05</v>
       </c>
-      <c r="AJ27" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AK27" s="10">
-        <v>0</v>
-      </c>
-      <c r="AL27" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AM27" s="10">
+      <c r="AN27" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AO27" s="10">
+        <v>0</v>
+      </c>
+      <c r="AP27" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AQ27" s="10">
         <v>0.03</v>
       </c>
-      <c r="AN27" s="10">
+      <c r="AR27" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AO27" s="10">
+      <c r="AS27" s="10">
         <v>0.04</v>
       </c>
-      <c r="AP27" s="10">
+      <c r="AT27" s="10">
         <v>0.11</v>
       </c>
-      <c r="AQ27" s="10">
+      <c r="AU27" s="10">
         <v>5</v>
       </c>
-      <c r="AR27" s="10">
+      <c r="AV27" s="10">
         <v>0.03</v>
       </c>
-      <c r="AS27" s="10">
+      <c r="AW27" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AT27" s="10">
+      <c r="AX27" s="10">
         <v>0.7</v>
       </c>
-      <c r="AU27" s="10">
-        <v>1</v>
-      </c>
-      <c r="AV27" s="10">
+      <c r="AY27" s="10">
+        <v>1</v>
+      </c>
+      <c r="AZ27" s="10">
         <v>15</v>
       </c>
-      <c r="AW27" s="10" t="s">
+      <c r="BA27" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="AX27" s="10" t="s">
+      <c r="BB27" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="AY27" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AZ27" s="10" t="s">
+      <c r="BC27" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BD27" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="BA27" s="10">
+      <c r="BE27" s="10">
         <v>5</v>
       </c>
-      <c r="BB27" s="10">
+      <c r="BF27" s="10">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="BC27" s="10">
+      <c r="BG27" s="10">
         <v>0.12</v>
       </c>
-      <c r="BD27" s="10">
+      <c r="BH27" s="10">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="BE27" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BF27" s="10" t="s">
+      <c r="BI27" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BJ27" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="BG27" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BH27" s="10">
+      <c r="BK27" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BL27" s="10">
         <v>0.01</v>
       </c>
-      <c r="BI27" s="10" t="s">
+      <c r="BM27" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="BJ27" s="10">
-        <v>1</v>
-      </c>
-      <c r="BK27" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="BL27" s="10" t="b">
+      <c r="BN27" s="10">
+        <v>1</v>
+      </c>
+      <c r="BO27" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="BP27" s="10" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:64" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:68" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
         <v>139</v>
       </c>
       <c r="B28" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28" s="10" t="s">
         <v>110</v>
@@ -4797,154 +5013,154 @@
       <c r="G28" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="H28" s="10" t="s">
+      <c r="L28" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="K28" s="10" t="s">
+      <c r="O28" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="Q28" s="10">
+      <c r="U28" s="10">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="R28" s="10">
+      <c r="V28" s="10">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="S28" s="14">
+      <c r="W28" s="14">
         <v>5</v>
       </c>
-      <c r="T28" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="U28" s="10">
-        <v>0</v>
-      </c>
-      <c r="V28" s="10">
+      <c r="X28" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="Y28" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="10">
         <v>0.9</v>
       </c>
-      <c r="W28" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="X28" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y28" s="10">
+      <c r="AA28" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AB28" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="10">
         <v>0.9</v>
       </c>
-      <c r="Z28" s="10">
+      <c r="AD28" s="10">
         <v>0.01</v>
       </c>
-      <c r="AA28" s="10">
+      <c r="AE28" s="10">
         <v>1E-3</v>
       </c>
-      <c r="AB28" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AC28" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD28" s="10">
-        <v>1</v>
-      </c>
-      <c r="AE28" s="10">
+      <c r="AF28" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AG28" s="10">
+        <v>0</v>
+      </c>
+      <c r="AH28" s="10">
         <v>1</v>
       </c>
       <c r="AI28" s="10">
+        <v>1</v>
+      </c>
+      <c r="AM28" s="10">
         <v>0.05</v>
       </c>
-      <c r="AJ28" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AK28" s="10">
-        <v>0</v>
-      </c>
-      <c r="AL28" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AM28" s="10">
+      <c r="AN28" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AO28" s="10">
+        <v>0</v>
+      </c>
+      <c r="AP28" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AQ28" s="10">
         <v>0.03</v>
       </c>
-      <c r="AN28" s="10">
+      <c r="AR28" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AO28" s="10">
+      <c r="AS28" s="10">
         <v>0.04</v>
       </c>
-      <c r="AP28" s="10">
+      <c r="AT28" s="10">
         <v>0.11</v>
       </c>
-      <c r="AQ28" s="10">
+      <c r="AU28" s="10">
         <v>5</v>
       </c>
-      <c r="AR28" s="10">
+      <c r="AV28" s="10">
         <v>0.03</v>
       </c>
-      <c r="AS28" s="10">
+      <c r="AW28" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AT28" s="10">
+      <c r="AX28" s="10">
         <v>0.7</v>
       </c>
-      <c r="AU28" s="10">
-        <v>1</v>
-      </c>
-      <c r="AV28" s="10">
+      <c r="AY28" s="10">
+        <v>1</v>
+      </c>
+      <c r="AZ28" s="10">
         <v>15</v>
       </c>
-      <c r="AW28" s="10" t="s">
+      <c r="BA28" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="AX28" s="10" t="s">
+      <c r="BB28" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="AY28" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AZ28" s="10" t="s">
+      <c r="BC28" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BD28" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="BA28" s="10">
+      <c r="BE28" s="10">
         <v>5</v>
       </c>
-      <c r="BB28" s="10">
+      <c r="BF28" s="10">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="BC28" s="10">
+      <c r="BG28" s="10">
         <v>0.12</v>
       </c>
-      <c r="BD28" s="10">
+      <c r="BH28" s="10">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="BE28" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BF28" s="10" t="s">
+      <c r="BI28" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BJ28" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="BG28" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BH28" s="10">
+      <c r="BK28" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BL28" s="10">
         <v>0.01</v>
       </c>
-      <c r="BI28" s="10" t="s">
+      <c r="BM28" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="BJ28" s="10">
-        <v>1</v>
-      </c>
-      <c r="BK28" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="BL28" s="10" t="b">
+      <c r="BN28" s="10">
+        <v>1</v>
+      </c>
+      <c r="BO28" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="BP28" s="10" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:64" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:68" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
         <v>124</v>
       </c>
       <c r="B29" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C29" s="10" t="s">
         <v>110</v>
@@ -4961,154 +5177,154 @@
       <c r="G29" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="H29" s="10" t="s">
+      <c r="L29" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="K29" s="10" t="s">
+      <c r="O29" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="Q29" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="R29" s="10">
-        <v>0</v>
-      </c>
-      <c r="S29" s="10">
-        <v>1</v>
-      </c>
-      <c r="T29" s="10">
-        <v>0.02</v>
-      </c>
       <c r="U29" s="10">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="V29" s="10">
+        <v>0</v>
+      </c>
+      <c r="W29" s="10">
+        <v>1</v>
+      </c>
+      <c r="X29" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="Y29" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="10">
         <v>0.9</v>
       </c>
-      <c r="W29" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="X29" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y29" s="10">
+      <c r="AA29" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AB29" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="10">
         <v>0.9</v>
       </c>
-      <c r="Z29" s="10">
+      <c r="AD29" s="10">
         <v>0.01</v>
       </c>
-      <c r="AA29" s="10">
+      <c r="AE29" s="10">
         <v>1E-3</v>
       </c>
-      <c r="AB29" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AC29" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD29" s="10">
-        <v>1</v>
-      </c>
-      <c r="AE29" s="10">
+      <c r="AF29" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AG29" s="10">
+        <v>0</v>
+      </c>
+      <c r="AH29" s="10">
         <v>1</v>
       </c>
       <c r="AI29" s="10">
+        <v>1</v>
+      </c>
+      <c r="AM29" s="10">
         <v>0.05</v>
       </c>
-      <c r="AJ29" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AK29" s="10">
-        <v>0</v>
-      </c>
-      <c r="AL29" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AM29" s="10">
+      <c r="AN29" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AO29" s="10">
+        <v>0</v>
+      </c>
+      <c r="AP29" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AQ29" s="10">
         <v>0.03</v>
       </c>
-      <c r="AN29" s="10">
+      <c r="AR29" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AO29" s="10">
+      <c r="AS29" s="10">
         <v>0.04</v>
       </c>
-      <c r="AP29" s="10">
+      <c r="AT29" s="10">
         <v>0.11</v>
       </c>
-      <c r="AQ29" s="10">
-        <v>1</v>
-      </c>
-      <c r="AR29" s="10">
+      <c r="AU29" s="10">
+        <v>1</v>
+      </c>
+      <c r="AV29" s="10">
         <v>0.03</v>
       </c>
-      <c r="AS29" s="10">
+      <c r="AW29" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AT29" s="10">
+      <c r="AX29" s="10">
         <v>0.7</v>
       </c>
-      <c r="AU29" s="10">
-        <v>1</v>
-      </c>
-      <c r="AV29" s="10">
+      <c r="AY29" s="10">
+        <v>1</v>
+      </c>
+      <c r="AZ29" s="10">
         <v>15</v>
       </c>
-      <c r="AW29" s="10" t="s">
+      <c r="BA29" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="AX29" s="10" t="s">
+      <c r="BB29" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="AY29" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AZ29" s="10" t="s">
+      <c r="BC29" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BD29" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="BA29" s="10">
+      <c r="BE29" s="10">
         <v>5</v>
       </c>
-      <c r="BB29" s="10">
+      <c r="BF29" s="10">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="BC29" s="10">
+      <c r="BG29" s="10">
         <v>0.12</v>
       </c>
-      <c r="BD29" s="10">
+      <c r="BH29" s="10">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="BE29" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BF29" s="10" t="s">
+      <c r="BI29" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BJ29" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="BG29" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BH29" s="10">
+      <c r="BK29" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BL29" s="10">
         <v>0.01</v>
       </c>
-      <c r="BI29" s="10" t="s">
+      <c r="BM29" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="BJ29" s="10">
-        <v>1</v>
-      </c>
-      <c r="BK29" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="BL29" s="10" t="b">
+      <c r="BN29" s="10">
+        <v>1</v>
+      </c>
+      <c r="BO29" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="BP29" s="10" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:64" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:68" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
         <v>140</v>
       </c>
       <c r="B30" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C30" s="10" t="s">
         <v>110</v>
@@ -5125,154 +5341,154 @@
       <c r="G30" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="H30" s="10" t="s">
+      <c r="L30" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="K30" s="10" t="s">
+      <c r="O30" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="Q30" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="R30" s="10">
-        <v>0</v>
-      </c>
-      <c r="S30" s="10">
-        <v>1</v>
-      </c>
-      <c r="T30" s="10">
+      <c r="U30" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="V30" s="10">
+        <v>0</v>
+      </c>
+      <c r="W30" s="10">
+        <v>1</v>
+      </c>
+      <c r="X30" s="10">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="U30" s="10">
+      <c r="Y30" s="10">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="V30" s="10">
-        <v>1</v>
-      </c>
-      <c r="W30" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="X30" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y30" s="10">
+      <c r="Z30" s="10">
+        <v>1</v>
+      </c>
+      <c r="AA30" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AB30" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="10">
         <v>0.9</v>
       </c>
-      <c r="Z30" s="10">
+      <c r="AD30" s="10">
         <v>0.01</v>
       </c>
-      <c r="AA30" s="10">
+      <c r="AE30" s="10">
         <v>1E-3</v>
       </c>
-      <c r="AB30" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AC30" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD30" s="10">
-        <v>1</v>
-      </c>
-      <c r="AE30" s="10">
+      <c r="AF30" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AG30" s="10">
+        <v>0</v>
+      </c>
+      <c r="AH30" s="10">
         <v>1</v>
       </c>
       <c r="AI30" s="10">
+        <v>1</v>
+      </c>
+      <c r="AM30" s="10">
         <v>0.05</v>
       </c>
-      <c r="AJ30" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AK30" s="10">
-        <v>0</v>
-      </c>
-      <c r="AL30" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AM30" s="10">
+      <c r="AN30" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AO30" s="10">
+        <v>0</v>
+      </c>
+      <c r="AP30" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AQ30" s="10">
         <v>0.03</v>
       </c>
-      <c r="AN30" s="10">
+      <c r="AR30" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AO30" s="10">
+      <c r="AS30" s="10">
         <v>0.04</v>
       </c>
-      <c r="AP30" s="10">
+      <c r="AT30" s="10">
         <v>0.11</v>
       </c>
-      <c r="AQ30" s="10">
-        <v>1</v>
-      </c>
-      <c r="AR30" s="10">
+      <c r="AU30" s="10">
+        <v>1</v>
+      </c>
+      <c r="AV30" s="10">
         <v>0.03</v>
       </c>
-      <c r="AS30" s="10">
+      <c r="AW30" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AT30" s="10">
+      <c r="AX30" s="10">
         <v>0.7</v>
       </c>
-      <c r="AU30" s="10">
-        <v>1</v>
-      </c>
-      <c r="AV30" s="10">
+      <c r="AY30" s="10">
+        <v>1</v>
+      </c>
+      <c r="AZ30" s="10">
         <v>15</v>
       </c>
-      <c r="AW30" s="10" t="s">
+      <c r="BA30" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="AX30" s="10" t="s">
+      <c r="BB30" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="AY30" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AZ30" s="10" t="s">
+      <c r="BC30" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BD30" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="BA30" s="10">
+      <c r="BE30" s="10">
         <v>5</v>
       </c>
-      <c r="BB30" s="10">
+      <c r="BF30" s="10">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="BC30" s="10">
+      <c r="BG30" s="10">
         <v>0.12</v>
       </c>
-      <c r="BD30" s="10">
+      <c r="BH30" s="10">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="BE30" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BF30" s="10" t="s">
+      <c r="BI30" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BJ30" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="BG30" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BH30" s="10">
+      <c r="BK30" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BL30" s="10">
         <v>0.01</v>
       </c>
-      <c r="BI30" s="10" t="s">
+      <c r="BM30" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="BJ30" s="10">
-        <v>1</v>
-      </c>
-      <c r="BK30" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="BL30" s="10" t="b">
+      <c r="BN30" s="10">
+        <v>1</v>
+      </c>
+      <c r="BO30" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="BP30" s="10" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:64" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:68" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
         <v>125</v>
       </c>
       <c r="B31" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C31" s="10" t="s">
         <v>110</v>
@@ -5289,154 +5505,154 @@
       <c r="G31" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="H31" s="10" t="s">
+      <c r="L31" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="K31" s="10" t="s">
+      <c r="O31" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="Q31" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="R31" s="10">
-        <v>0</v>
-      </c>
-      <c r="S31" s="10">
-        <v>1</v>
-      </c>
-      <c r="T31" s="10">
-        <v>0.02</v>
-      </c>
       <c r="U31" s="10">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="V31" s="10">
+        <v>0</v>
+      </c>
+      <c r="W31" s="10">
+        <v>1</v>
+      </c>
+      <c r="X31" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="Y31" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="10">
         <v>0.9</v>
       </c>
-      <c r="W31" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="X31" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y31" s="10">
+      <c r="AA31" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AB31" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="10">
         <v>0.9</v>
       </c>
-      <c r="Z31" s="10">
+      <c r="AD31" s="10">
         <v>0.01</v>
       </c>
-      <c r="AA31" s="10">
+      <c r="AE31" s="10">
         <v>1E-3</v>
       </c>
-      <c r="AB31" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AC31" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD31" s="10">
-        <v>1</v>
-      </c>
-      <c r="AE31" s="10">
+      <c r="AF31" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AG31" s="10">
+        <v>0</v>
+      </c>
+      <c r="AH31" s="10">
         <v>1</v>
       </c>
       <c r="AI31" s="10">
+        <v>1</v>
+      </c>
+      <c r="AM31" s="10">
         <v>0.05</v>
       </c>
-      <c r="AJ31" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AK31" s="10">
-        <v>0</v>
-      </c>
-      <c r="AL31" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AM31" s="10">
+      <c r="AN31" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AO31" s="10">
+        <v>0</v>
+      </c>
+      <c r="AP31" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AQ31" s="10">
         <v>0.03</v>
       </c>
-      <c r="AN31" s="10">
+      <c r="AR31" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AO31" s="10">
+      <c r="AS31" s="10">
         <v>0.04</v>
       </c>
-      <c r="AP31" s="10">
+      <c r="AT31" s="10">
         <v>0.11</v>
       </c>
-      <c r="AQ31" s="10">
-        <v>1</v>
-      </c>
-      <c r="AR31" s="10">
+      <c r="AU31" s="10">
+        <v>1</v>
+      </c>
+      <c r="AV31" s="10">
         <v>0.03</v>
       </c>
-      <c r="AS31" s="10">
+      <c r="AW31" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AT31" s="10">
+      <c r="AX31" s="10">
         <v>0.7</v>
       </c>
-      <c r="AU31" s="10">
-        <v>1</v>
-      </c>
-      <c r="AV31" s="10">
+      <c r="AY31" s="10">
+        <v>1</v>
+      </c>
+      <c r="AZ31" s="10">
         <v>15</v>
       </c>
-      <c r="AW31" s="10" t="s">
+      <c r="BA31" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="AX31" s="10" t="s">
+      <c r="BB31" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="AY31" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AZ31" s="10" t="s">
+      <c r="BC31" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BD31" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="BA31" s="10">
+      <c r="BE31" s="10">
         <v>5</v>
       </c>
-      <c r="BB31" s="10">
+      <c r="BF31" s="10">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="BC31" s="10">
+      <c r="BG31" s="10">
         <v>0.12</v>
       </c>
-      <c r="BD31" s="10">
+      <c r="BH31" s="10">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="BE31" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BF31" s="10" t="s">
+      <c r="BI31" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BJ31" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="BG31" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BH31" s="10">
+      <c r="BK31" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BL31" s="10">
         <v>0.01</v>
       </c>
-      <c r="BI31" s="10" t="s">
+      <c r="BM31" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="BJ31" s="10">
-        <v>1</v>
-      </c>
-      <c r="BK31" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="BL31" s="10" t="b">
+      <c r="BN31" s="10">
+        <v>1</v>
+      </c>
+      <c r="BO31" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="BP31" s="10" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:64" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:68" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
         <v>126</v>
       </c>
       <c r="B32" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C32" s="10" t="s">
         <v>110</v>
@@ -5453,160 +5669,160 @@
       <c r="G32" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="H32" s="10" t="s">
+      <c r="L32" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="K32" s="10" t="s">
+      <c r="O32" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="Q32" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="R32" s="10">
-        <v>0</v>
-      </c>
-      <c r="S32" s="10">
-        <v>1</v>
-      </c>
-      <c r="T32" s="10">
-        <v>0.02</v>
-      </c>
       <c r="U32" s="10">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="V32" s="10">
+        <v>0</v>
+      </c>
+      <c r="W32" s="10">
+        <v>1</v>
+      </c>
+      <c r="X32" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="Y32" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="10">
         <v>0.9</v>
       </c>
-      <c r="W32" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="X32" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y32" s="10">
+      <c r="AA32" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AB32" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="10">
         <v>0.9</v>
       </c>
-      <c r="Z32" s="10">
+      <c r="AD32" s="10">
         <v>0.01</v>
       </c>
-      <c r="AA32" s="10">
+      <c r="AE32" s="10">
         <v>1E-3</v>
       </c>
-      <c r="AB32" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AC32" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD32" s="10">
-        <v>1</v>
-      </c>
-      <c r="AE32" s="10">
+      <c r="AF32" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AG32" s="10">
+        <v>0</v>
+      </c>
+      <c r="AH32" s="10">
+        <v>1</v>
+      </c>
+      <c r="AI32" s="10">
         <v>2</v>
       </c>
-      <c r="AF32" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AG32" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AI32" s="10">
+      <c r="AJ32" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AK32" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AM32" s="10">
         <v>0.05</v>
       </c>
-      <c r="AJ32" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AK32" s="10">
-        <v>0</v>
-      </c>
-      <c r="AL32" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AM32" s="10">
+      <c r="AN32" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AO32" s="10">
+        <v>0</v>
+      </c>
+      <c r="AP32" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AQ32" s="10">
         <v>0.03</v>
       </c>
-      <c r="AN32" s="10">
+      <c r="AR32" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AO32" s="10">
+      <c r="AS32" s="10">
         <v>0.04</v>
       </c>
-      <c r="AP32" s="10">
+      <c r="AT32" s="10">
         <v>0.11</v>
       </c>
-      <c r="AQ32" s="10">
-        <v>1</v>
-      </c>
-      <c r="AR32" s="10">
+      <c r="AU32" s="10">
+        <v>1</v>
+      </c>
+      <c r="AV32" s="10">
         <v>0.03</v>
       </c>
-      <c r="AS32" s="10">
+      <c r="AW32" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AT32" s="10">
+      <c r="AX32" s="10">
         <v>0.7</v>
       </c>
-      <c r="AU32" s="10">
-        <v>1</v>
-      </c>
-      <c r="AV32" s="10">
+      <c r="AY32" s="10">
+        <v>1</v>
+      </c>
+      <c r="AZ32" s="10">
         <v>15</v>
       </c>
-      <c r="AW32" s="10" t="s">
+      <c r="BA32" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="AX32" s="10" t="s">
+      <c r="BB32" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="AY32" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AZ32" s="10" t="s">
+      <c r="BC32" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BD32" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="BA32" s="10">
+      <c r="BE32" s="10">
         <v>5</v>
       </c>
-      <c r="BB32" s="10">
+      <c r="BF32" s="10">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="BC32" s="10">
+      <c r="BG32" s="10">
         <v>0.12</v>
       </c>
-      <c r="BD32" s="10">
+      <c r="BH32" s="10">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="BE32" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BF32" s="10" t="s">
+      <c r="BI32" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BJ32" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="BG32" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BH32" s="10">
+      <c r="BK32" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BL32" s="10">
         <v>0.01</v>
       </c>
-      <c r="BI32" s="10" t="s">
+      <c r="BM32" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="BJ32" s="10">
-        <v>1</v>
-      </c>
-      <c r="BK32" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="BL32" s="10" t="b">
+      <c r="BN32" s="10">
+        <v>1</v>
+      </c>
+      <c r="BO32" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="BP32" s="10" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:64" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:68" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
         <v>127</v>
       </c>
       <c r="B33" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C33" s="10" t="s">
         <v>111</v>
@@ -5623,154 +5839,154 @@
       <c r="G33" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="H33" s="10" t="s">
+      <c r="L33" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="I33" s="10" t="s">
+      <c r="M33" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="Q33" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="R33" s="10">
-        <v>0</v>
-      </c>
-      <c r="S33" s="10">
-        <v>1</v>
-      </c>
-      <c r="T33" s="10">
-        <v>0.02</v>
-      </c>
       <c r="U33" s="10">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="V33" s="10">
+        <v>0</v>
+      </c>
+      <c r="W33" s="10">
+        <v>1</v>
+      </c>
+      <c r="X33" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="Y33" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="10">
         <v>0.9</v>
       </c>
-      <c r="W33" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="X33" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y33" s="10">
+      <c r="AA33" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AB33" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC33" s="10">
         <v>0.9</v>
       </c>
-      <c r="Z33" s="10">
+      <c r="AD33" s="10">
         <v>0.01</v>
       </c>
-      <c r="AA33" s="10">
+      <c r="AE33" s="10">
         <v>1E-3</v>
       </c>
-      <c r="AB33" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AC33" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD33" s="10">
-        <v>1</v>
-      </c>
-      <c r="AE33" s="10">
+      <c r="AF33" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AG33" s="10">
+        <v>0</v>
+      </c>
+      <c r="AH33" s="10">
         <v>1</v>
       </c>
       <c r="AI33" s="10">
-        <v>0.05</v>
-      </c>
-      <c r="AJ33" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AK33" s="10">
-        <v>0</v>
-      </c>
-      <c r="AL33" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AM33" s="10">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AN33" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AO33" s="10">
+        <v>0</v>
+      </c>
+      <c r="AP33" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AQ33" s="10">
         <v>0.03</v>
       </c>
-      <c r="AN33" s="10">
+      <c r="AR33" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AO33" s="10">
+      <c r="AS33" s="10">
         <v>0.04</v>
       </c>
-      <c r="AP33" s="10">
+      <c r="AT33" s="10">
         <v>0.11</v>
       </c>
-      <c r="AQ33" s="10">
-        <v>1</v>
-      </c>
-      <c r="AR33" s="10">
+      <c r="AU33" s="10">
+        <v>1</v>
+      </c>
+      <c r="AV33" s="10">
         <v>0.03</v>
       </c>
-      <c r="AS33" s="10">
+      <c r="AW33" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AT33" s="10">
+      <c r="AX33" s="10">
         <v>0.7</v>
       </c>
-      <c r="AU33" s="10">
-        <v>1</v>
-      </c>
-      <c r="AV33" s="10">
+      <c r="AY33" s="10">
+        <v>1</v>
+      </c>
+      <c r="AZ33" s="10">
         <v>15</v>
       </c>
-      <c r="AW33" s="10" t="s">
+      <c r="BA33" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="AX33" s="10" t="s">
+      <c r="BB33" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="AY33" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AZ33" s="10" t="s">
+      <c r="BC33" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BD33" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="BA33" s="10">
+      <c r="BE33" s="10">
         <v>5</v>
       </c>
-      <c r="BB33" s="10">
+      <c r="BF33" s="10">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="BC33" s="10">
+      <c r="BG33" s="10">
         <v>0.12</v>
       </c>
-      <c r="BD33" s="10">
+      <c r="BH33" s="10">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="BE33" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BF33" s="10" t="s">
+      <c r="BI33" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BJ33" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="BG33" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BH33" s="10">
+      <c r="BK33" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BL33" s="10">
         <v>0.01</v>
       </c>
-      <c r="BI33" s="10" t="s">
+      <c r="BM33" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="BJ33" s="10">
-        <v>1</v>
-      </c>
-      <c r="BK33" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="BL33" s="10" t="b">
+      <c r="BN33" s="10">
+        <v>1</v>
+      </c>
+      <c r="BO33" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="BP33" s="10" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:64" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:68" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
         <v>145</v>
       </c>
       <c r="B34" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C34" s="10" t="s">
         <v>144</v>
@@ -5787,149 +6003,149 @@
       <c r="G34" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="H34" s="10" t="s">
+      <c r="L34" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="K34" s="10" t="s">
+      <c r="O34" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="Q34" s="10">
+      <c r="U34" s="10">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="R34" s="10">
+      <c r="V34" s="10">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="S34" s="14">
+      <c r="W34" s="14">
         <v>5</v>
       </c>
-      <c r="T34" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="U34" s="10">
-        <v>0</v>
-      </c>
-      <c r="V34" s="10">
+      <c r="X34" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="Y34" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="10">
         <v>0.9</v>
       </c>
-      <c r="W34" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="X34" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y34" s="10">
+      <c r="AA34" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AB34" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="10">
         <v>0.9</v>
       </c>
-      <c r="Z34" s="10">
+      <c r="AD34" s="10">
         <v>0.01</v>
       </c>
-      <c r="AA34" s="10">
+      <c r="AE34" s="10">
         <v>1E-3</v>
       </c>
-      <c r="AB34" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AC34" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD34" s="10">
-        <v>1</v>
-      </c>
-      <c r="AE34" s="10">
+      <c r="AF34" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AG34" s="10">
+        <v>0</v>
+      </c>
+      <c r="AH34" s="10">
         <v>1</v>
       </c>
       <c r="AI34" s="10">
+        <v>1</v>
+      </c>
+      <c r="AM34" s="10">
         <v>0.05</v>
       </c>
-      <c r="AJ34" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AK34" s="10">
+      <c r="AN34" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AO34" s="10">
         <v>0.05</v>
       </c>
-      <c r="AL34" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AM34" s="10">
+      <c r="AP34" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AQ34" s="10">
         <v>0.03</v>
       </c>
-      <c r="AN34" s="10">
+      <c r="AR34" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AO34" s="10">
+      <c r="AS34" s="10">
         <v>0.04</v>
       </c>
-      <c r="AP34" s="10">
+      <c r="AT34" s="10">
         <v>0.11</v>
       </c>
-      <c r="AQ34" s="10">
+      <c r="AU34" s="10">
         <v>5</v>
       </c>
-      <c r="AR34" s="10">
+      <c r="AV34" s="10">
         <v>0.03</v>
       </c>
-      <c r="AS34" s="10">
+      <c r="AW34" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AT34" s="10">
+      <c r="AX34" s="10">
         <v>0.7</v>
       </c>
-      <c r="AU34" s="10">
-        <v>1</v>
-      </c>
-      <c r="AV34" s="10">
+      <c r="AY34" s="10">
+        <v>1</v>
+      </c>
+      <c r="AZ34" s="10">
         <v>15</v>
       </c>
-      <c r="AW34" s="10" t="s">
+      <c r="BA34" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="AX34" s="10" t="s">
+      <c r="BB34" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="AY34" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AZ34" s="10" t="s">
+      <c r="BC34" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BD34" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="BA34" s="10">
+      <c r="BE34" s="10">
         <v>5</v>
       </c>
-      <c r="BB34" s="10">
+      <c r="BF34" s="10">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="BC34" s="10">
+      <c r="BG34" s="10">
         <v>0.12</v>
       </c>
-      <c r="BD34" s="10">
+      <c r="BH34" s="10">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="BE34" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BF34" s="10" t="s">
+      <c r="BI34" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BJ34" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="BG34" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BH34" s="10">
+      <c r="BK34" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BL34" s="10">
         <v>0.01</v>
       </c>
-      <c r="BI34" s="10" t="s">
+      <c r="BM34" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="BJ34" s="10">
-        <v>1</v>
-      </c>
-      <c r="BK34" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="BL34" s="10" t="b">
+      <c r="BN34" s="10">
+        <v>1</v>
+      </c>
+      <c r="BO34" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="BP34" s="10" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:64" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:68" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
         <v>108</v>
       </c>
@@ -5939,49 +6155,49 @@
       <c r="C36" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="K36" s="10" t="s">
+      <c r="O36" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="L36" s="10">
-        <v>1</v>
-      </c>
-      <c r="M36" s="10">
-        <v>1</v>
-      </c>
-      <c r="N36" s="10">
-        <v>1</v>
-      </c>
-      <c r="O36" s="10">
+      <c r="P36" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q36" s="10">
+        <v>1</v>
+      </c>
+      <c r="R36" s="10">
+        <v>1</v>
+      </c>
+      <c r="S36" s="10">
         <v>0.03</v>
       </c>
-      <c r="P36" s="10">
+      <c r="T36" s="10">
         <v>0.03</v>
       </c>
     </row>
-    <row r="37" spans="1:64" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:68" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="K37" s="10" t="s">
+      <c r="O37" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="L37" s="10">
-        <v>1</v>
-      </c>
-      <c r="M37" s="10">
-        <v>1</v>
-      </c>
-      <c r="N37" s="10">
-        <v>1</v>
-      </c>
-      <c r="O37" s="10">
+      <c r="P37" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q37" s="10">
+        <v>1</v>
+      </c>
+      <c r="R37" s="10">
+        <v>1</v>
+      </c>
+      <c r="S37" s="10">
         <v>0.06</v>
       </c>
-      <c r="P37" s="10">
+      <c r="T37" s="10">
         <v>0.06</v>
       </c>
     </row>
-    <row r="38" spans="1:64" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:68" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
         <v>102</v>
       </c>
@@ -6003,141 +6219,141 @@
       <c r="G38" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="K38" s="10" t="s">
+      <c r="O38" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="Q38" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="R38" s="10">
-        <v>0</v>
-      </c>
-      <c r="T38" s="10">
-        <v>0.02</v>
-      </c>
       <c r="U38" s="10">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="V38" s="10">
+        <v>0</v>
+      </c>
+      <c r="X38" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="Y38" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z38" s="10">
         <v>0.9</v>
       </c>
-      <c r="W38" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="X38" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y38" s="10">
+      <c r="AA38" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AB38" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC38" s="10">
         <v>0.9</v>
       </c>
-      <c r="Z38" s="10">
+      <c r="AD38" s="10">
         <v>0.01</v>
       </c>
-      <c r="AA38" s="10">
+      <c r="AE38" s="10">
         <v>1E-3</v>
       </c>
-      <c r="AB38" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AC38" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD38" s="10">
-        <v>1</v>
-      </c>
-      <c r="AE38" s="10">
+      <c r="AF38" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AG38" s="10">
+        <v>0</v>
+      </c>
+      <c r="AH38" s="10">
         <v>1</v>
       </c>
       <c r="AI38" s="10">
+        <v>1</v>
+      </c>
+      <c r="AM38" s="10">
         <v>0.05</v>
       </c>
-      <c r="AJ38" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AK38" s="10">
-        <v>0</v>
-      </c>
-      <c r="AL38" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AM38" s="10">
+      <c r="AN38" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AO38" s="10">
+        <v>0</v>
+      </c>
+      <c r="AP38" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AQ38" s="10">
         <v>0.03</v>
       </c>
-      <c r="AN38" s="10">
+      <c r="AR38" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AO38" s="10">
+      <c r="AS38" s="10">
         <v>0.04</v>
       </c>
-      <c r="AP38" s="10">
+      <c r="AT38" s="10">
         <v>0.11</v>
       </c>
-      <c r="AR38" s="10">
+      <c r="AV38" s="10">
         <v>0.03</v>
       </c>
-      <c r="AS38" s="10">
+      <c r="AW38" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AT38" s="10">
+      <c r="AX38" s="10">
         <v>0.7</v>
       </c>
-      <c r="AU38" s="10">
-        <v>1</v>
-      </c>
-      <c r="AV38" s="10">
+      <c r="AY38" s="10">
+        <v>1</v>
+      </c>
+      <c r="AZ38" s="10">
         <v>15</v>
       </c>
-      <c r="AW38" s="10" t="s">
+      <c r="BA38" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="AX38" s="10" t="s">
+      <c r="BB38" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="AY38" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AZ38" s="10" t="s">
+      <c r="BC38" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BD38" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="BA38" s="10">
+      <c r="BE38" s="10">
         <v>5</v>
       </c>
-      <c r="BB38" s="10">
+      <c r="BF38" s="10">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="BC38" s="10">
+      <c r="BG38" s="10">
         <v>0.12</v>
       </c>
-      <c r="BD38" s="10">
+      <c r="BH38" s="10">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="BE38" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BF38" s="10" t="s">
+      <c r="BI38" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BJ38" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="BG38" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BH38" s="10">
+      <c r="BK38" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BL38" s="10">
         <v>0.01</v>
       </c>
-      <c r="BI38" s="10" t="s">
+      <c r="BM38" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="BJ38" s="10">
+      <c r="BN38" s="10">
         <v>0.75</v>
       </c>
-      <c r="BK38" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="BL38" s="10" t="b">
+      <c r="BO38" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="BP38" s="10" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:64" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="40" spans="1:64" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:68" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="1:68" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
         <v>99</v>
       </c>
@@ -6159,143 +6375,143 @@
       <c r="G40" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="K40" s="10" t="s">
+      <c r="O40" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="Q40" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="R40" s="10">
-        <v>0</v>
-      </c>
-      <c r="T40" s="10">
-        <v>0.02</v>
-      </c>
       <c r="U40" s="10">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="V40" s="10">
+        <v>0</v>
+      </c>
+      <c r="X40" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="Y40" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z40" s="10">
         <v>0.9</v>
       </c>
-      <c r="W40" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="X40" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y40" s="10">
+      <c r="AA40" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AB40" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC40" s="10">
         <v>0.9</v>
       </c>
-      <c r="Z40" s="10">
+      <c r="AD40" s="10">
         <v>0.01</v>
       </c>
-      <c r="AA40" s="10">
+      <c r="AE40" s="10">
         <v>1E-3</v>
       </c>
-      <c r="AB40" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AC40" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD40" s="10">
-        <v>1</v>
-      </c>
-      <c r="AE40" s="10">
+      <c r="AF40" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AG40" s="10">
+        <v>0</v>
+      </c>
+      <c r="AH40" s="10">
         <v>1</v>
       </c>
       <c r="AI40" s="10">
+        <v>1</v>
+      </c>
+      <c r="AM40" s="10">
         <v>0.05</v>
       </c>
-      <c r="AJ40" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AK40" s="10">
-        <v>0</v>
-      </c>
-      <c r="AL40" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AM40" s="10">
+      <c r="AN40" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AO40" s="10">
+        <v>0</v>
+      </c>
+      <c r="AP40" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AQ40" s="10">
         <v>0.03</v>
       </c>
-      <c r="AN40" s="10">
+      <c r="AR40" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AO40" s="10">
+      <c r="AS40" s="10">
         <v>0.04</v>
       </c>
-      <c r="AP40" s="10">
+      <c r="AT40" s="10">
         <v>0.11</v>
       </c>
-      <c r="AQ40" s="10">
+      <c r="AU40" s="10">
         <v>5</v>
       </c>
-      <c r="AR40" s="10">
+      <c r="AV40" s="10">
         <v>0.03</v>
       </c>
-      <c r="AS40" s="10">
+      <c r="AW40" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AT40" s="10">
+      <c r="AX40" s="10">
         <v>0.7</v>
       </c>
-      <c r="AU40" s="10">
-        <v>1</v>
-      </c>
-      <c r="AV40" s="10">
+      <c r="AY40" s="10">
+        <v>1</v>
+      </c>
+      <c r="AZ40" s="10">
         <v>15</v>
       </c>
-      <c r="AW40" s="10" t="s">
+      <c r="BA40" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="AX40" s="10" t="s">
+      <c r="BB40" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="AY40" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AZ40" s="10" t="s">
+      <c r="BC40" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BD40" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="BA40" s="10">
+      <c r="BE40" s="10">
         <v>5</v>
       </c>
-      <c r="BB40" s="10">
+      <c r="BF40" s="10">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="BC40" s="10">
+      <c r="BG40" s="10">
         <v>0.12</v>
       </c>
-      <c r="BD40" s="10">
+      <c r="BH40" s="10">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="BE40" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BF40" s="10" t="s">
+      <c r="BI40" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BJ40" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="BG40" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BH40" s="10">
+      <c r="BK40" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BL40" s="10">
         <v>0.01</v>
       </c>
-      <c r="BI40" s="10" t="s">
+      <c r="BM40" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="BJ40" s="10">
+      <c r="BN40" s="10">
         <v>0.75</v>
       </c>
-      <c r="BK40" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="BL40" s="10" t="b">
+      <c r="BO40" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="BP40" s="10" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:64" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:68" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
         <v>119</v>
       </c>
@@ -6317,151 +6533,151 @@
       <c r="G41" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="K41" s="10" t="s">
+      <c r="O41" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="Q41" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="R41" s="10">
-        <v>0</v>
-      </c>
-      <c r="T41" s="10">
-        <v>0.02</v>
-      </c>
       <c r="U41" s="10">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="V41" s="10">
+        <v>0</v>
+      </c>
+      <c r="X41" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="Y41" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="10">
         <v>0.9</v>
       </c>
-      <c r="W41" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="X41" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y41" s="10">
+      <c r="AA41" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AB41" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC41" s="10">
         <v>0.9</v>
       </c>
-      <c r="Z41" s="10">
+      <c r="AD41" s="10">
         <v>0.01</v>
       </c>
-      <c r="AA41" s="10">
+      <c r="AE41" s="10">
         <v>1E-3</v>
       </c>
-      <c r="AB41" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AC41" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD41" s="10">
-        <v>1</v>
-      </c>
-      <c r="AE41" s="10">
+      <c r="AF41" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AG41" s="10">
+        <v>0</v>
+      </c>
+      <c r="AH41" s="10">
         <v>1</v>
       </c>
       <c r="AI41" s="10">
+        <v>1</v>
+      </c>
+      <c r="AM41" s="10">
         <v>0.05</v>
       </c>
-      <c r="AJ41" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AK41" s="10">
-        <v>0</v>
-      </c>
-      <c r="AL41" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AM41" s="10">
+      <c r="AN41" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AO41" s="10">
+        <v>0</v>
+      </c>
+      <c r="AP41" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AQ41" s="10">
         <v>0.03</v>
       </c>
-      <c r="AN41" s="10">
+      <c r="AR41" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AO41" s="10">
+      <c r="AS41" s="10">
         <v>0.04</v>
       </c>
-      <c r="AP41" s="10">
+      <c r="AT41" s="10">
         <v>0.11</v>
       </c>
-      <c r="AQ41" s="10">
+      <c r="AU41" s="10">
         <v>5</v>
       </c>
-      <c r="AR41" s="10">
+      <c r="AV41" s="10">
         <v>0.03</v>
       </c>
-      <c r="AS41" s="10">
+      <c r="AW41" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AT41" s="10">
+      <c r="AX41" s="10">
         <v>0.7</v>
       </c>
-      <c r="AU41" s="10">
-        <v>1</v>
-      </c>
-      <c r="AV41" s="10">
+      <c r="AY41" s="10">
+        <v>1</v>
+      </c>
+      <c r="AZ41" s="10">
         <v>15</v>
       </c>
-      <c r="AW41" s="10" t="s">
+      <c r="BA41" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="AX41" s="10" t="s">
+      <c r="BB41" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="AY41" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AZ41" s="10" t="s">
+      <c r="BC41" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BD41" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="BA41" s="10">
+      <c r="BE41" s="10">
         <v>5</v>
       </c>
-      <c r="BB41" s="10">
+      <c r="BF41" s="10">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="BC41" s="10">
+      <c r="BG41" s="10">
         <v>0.12</v>
       </c>
-      <c r="BD41" s="10">
+      <c r="BH41" s="10">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="BE41" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BF41" s="10" t="s">
+      <c r="BI41" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BJ41" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="BG41" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BH41" s="10">
+      <c r="BK41" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BL41" s="10">
         <v>0.01</v>
       </c>
-      <c r="BI41" s="10" t="s">
+      <c r="BM41" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="BJ41" s="10">
-        <v>1</v>
-      </c>
-      <c r="BK41" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="BL41" s="10" t="b">
+      <c r="BN41" s="10">
+        <v>1</v>
+      </c>
+      <c r="BO41" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="BP41" s="10" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:64" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="1:64" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="1:64" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="1:68" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:68" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="1:68" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B36:B44 B3:B34" xr:uid="{05E01AB2-72EC-4550-ACB8-4E83765DE296}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K36:K38 K40:K41 K3:K16 K21:K32 K18 K34" xr:uid="{8DBFC5CB-438A-4309-B948-24597CAE3D7F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O36:O38 O40:O41 O3:O16 O21:O32 O18:O19 O34" xr:uid="{8DBFC5CB-438A-4309-B948-24597CAE3D7F}">
       <formula1>"preSet, ALpct,MApct"</formula1>
     </dataValidation>
   </dataValidations>

--- a/RunControl.xlsx
+++ b/RunControl.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8839AF1B-FE6B-4E77-B98A-B6758BDB134F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E599221-A94E-483A-A19C-8B99DAE4A645}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-75" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="paramlist" sheetId="1" r:id="rId1"/>
@@ -870,7 +870,7 @@
       <pane xSplit="6" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J11" sqref="J11"/>
+      <selection pane="bottomRight" activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/RunControl.xlsx
+++ b/RunControl.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E599221-A94E-483A-A19C-8B99DAE4A645}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24A7918D-A7A5-4C01-A88B-6CB87C0D30A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-75" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -482,10 +482,10 @@
     <t>dr_DA</t>
   </si>
   <si>
-    <t>idxFull_act_DA</t>
-  </si>
-  <si>
-    <t>idxFull_ret_DA</t>
+    <t>idxFull_DA</t>
+  </si>
+  <si>
+    <t>idxFloor_DA</t>
   </si>
 </sst>
 </file>
@@ -870,7 +870,7 @@
       <pane xSplit="6" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J27" sqref="J27"/>
+      <selection pane="bottomRight" activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3692,10 +3692,10 @@
         <v>2.1999999999999999E-2</v>
       </c>
       <c r="I19" s="10">
-        <v>0.02</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="J19" s="10">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="K19" s="10">
         <v>7.4999999999999997E-2</v>

--- a/RunControl.xlsx
+++ b/RunControl.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24A7918D-A7A5-4C01-A88B-6CB87C0D30A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DBFBAF1-701C-47B9-A6DE-F3C9EF77337F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-75" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="153">
   <si>
     <t>runname</t>
   </si>
@@ -486,6 +486,9 @@
   </si>
   <si>
     <t>idxFloor_DA</t>
+  </si>
+  <si>
+    <t>DA_FR100</t>
   </si>
 </sst>
 </file>
@@ -864,13 +867,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:BP44"/>
+  <dimension ref="A1:BP45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="6" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J24" sqref="J24"/>
+      <selection pane="bottomRight" activeCell="BN36" sqref="BN36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6145,38 +6148,192 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:68" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="B36" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="O36" s="10" t="s">
+    <row r="35" spans="1:68" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="B35" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="D35" s="10">
+        <v>1</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G35" s="10">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H35" s="10">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="I35" s="10">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="J35" s="10">
+        <v>0</v>
+      </c>
+      <c r="K35" s="10">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="L35" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="O35" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="P36" s="10">
-        <v>1</v>
-      </c>
-      <c r="Q36" s="10">
-        <v>1</v>
-      </c>
-      <c r="R36" s="10">
-        <v>1</v>
-      </c>
-      <c r="S36" s="10">
+      <c r="U35" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="V35" s="10">
+        <v>0</v>
+      </c>
+      <c r="W35" s="10">
+        <v>1</v>
+      </c>
+      <c r="X35" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="Y35" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="AA35" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AB35" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC35" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="AD35" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="AE35" s="10">
+        <v>1E-3</v>
+      </c>
+      <c r="AF35" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AG35" s="10">
+        <v>0</v>
+      </c>
+      <c r="AH35" s="10">
+        <v>1</v>
+      </c>
+      <c r="AI35" s="10">
+        <v>1</v>
+      </c>
+      <c r="AM35" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="AN35" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AO35" s="10">
+        <v>0</v>
+      </c>
+      <c r="AP35" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AQ35" s="10">
         <v>0.03</v>
       </c>
-      <c r="T36" s="10">
+      <c r="AR35" s="10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AS35" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="AT35" s="10">
+        <v>0.11</v>
+      </c>
+      <c r="AU35" s="10">
+        <v>1</v>
+      </c>
+      <c r="AV35" s="10">
         <v>0.03</v>
       </c>
+      <c r="AW35" s="10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AX35" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="AY35" s="10">
+        <v>1</v>
+      </c>
+      <c r="AZ35" s="10">
+        <v>15</v>
+      </c>
+      <c r="BA35" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="BB35" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="BC35" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BD35" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="BE35" s="10">
+        <v>5</v>
+      </c>
+      <c r="BF35" s="10">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="BG35" s="10">
+        <v>0.12</v>
+      </c>
+      <c r="BH35" s="10">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="BI35" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BJ35" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="BK35" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BL35" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="BM35" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="BN35" s="10">
+        <v>1</v>
+      </c>
+      <c r="BO35" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="BP35" s="10" t="b">
+        <v>1</v>
+      </c>
     </row>
+    <row r="36" spans="1:68" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="37" spans="1:68" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
-        <v>106</v>
+        <v>108</v>
+      </c>
+      <c r="B37" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>111</v>
       </c>
       <c r="O37" s="10" t="s">
         <v>76</v>
@@ -6191,329 +6348,194 @@
         <v>1</v>
       </c>
       <c r="S37" s="10">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="T37" s="10">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="38" spans="1:68" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="B38" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="D38" s="10">
-        <v>1</v>
-      </c>
-      <c r="E38" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="F38" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="G38" s="10">
-        <v>1.4999999999999999E-2</v>
+        <v>106</v>
       </c>
       <c r="O38" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="U38" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="V38" s="10">
-        <v>0</v>
-      </c>
-      <c r="X38" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="Y38" s="10">
-        <v>0</v>
-      </c>
-      <c r="Z38" s="10">
+      <c r="P38" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q38" s="10">
+        <v>1</v>
+      </c>
+      <c r="R38" s="10">
+        <v>1</v>
+      </c>
+      <c r="S38" s="10">
+        <v>0.06</v>
+      </c>
+      <c r="T38" s="10">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="39" spans="1:68" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B39" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="D39" s="10">
+        <v>1</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F39" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="G39" s="10">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="O39" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="U39" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="V39" s="10">
+        <v>0</v>
+      </c>
+      <c r="X39" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="Y39" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z39" s="10">
         <v>0.9</v>
       </c>
-      <c r="AA38" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AB38" s="10">
-        <v>0</v>
-      </c>
-      <c r="AC38" s="10">
+      <c r="AA39" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AB39" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC39" s="10">
         <v>0.9</v>
       </c>
-      <c r="AD38" s="10">
+      <c r="AD39" s="10">
         <v>0.01</v>
       </c>
-      <c r="AE38" s="10">
+      <c r="AE39" s="10">
         <v>1E-3</v>
       </c>
-      <c r="AF38" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AG38" s="10">
-        <v>0</v>
-      </c>
-      <c r="AH38" s="10">
-        <v>1</v>
-      </c>
-      <c r="AI38" s="10">
-        <v>1</v>
-      </c>
-      <c r="AM38" s="10">
+      <c r="AF39" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AG39" s="10">
+        <v>0</v>
+      </c>
+      <c r="AH39" s="10">
+        <v>1</v>
+      </c>
+      <c r="AI39" s="10">
+        <v>1</v>
+      </c>
+      <c r="AM39" s="10">
         <v>0.05</v>
       </c>
-      <c r="AN38" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AO38" s="10">
-        <v>0</v>
-      </c>
-      <c r="AP38" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AQ38" s="10">
+      <c r="AN39" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AO39" s="10">
+        <v>0</v>
+      </c>
+      <c r="AP39" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AQ39" s="10">
         <v>0.03</v>
       </c>
-      <c r="AR38" s="10">
+      <c r="AR39" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AS38" s="10">
+      <c r="AS39" s="10">
         <v>0.04</v>
       </c>
-      <c r="AT38" s="10">
+      <c r="AT39" s="10">
         <v>0.11</v>
       </c>
-      <c r="AV38" s="10">
+      <c r="AV39" s="10">
         <v>0.03</v>
       </c>
-      <c r="AW38" s="10">
+      <c r="AW39" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AX38" s="10">
+      <c r="AX39" s="10">
         <v>0.7</v>
       </c>
-      <c r="AY38" s="10">
-        <v>1</v>
-      </c>
-      <c r="AZ38" s="10">
+      <c r="AY39" s="10">
+        <v>1</v>
+      </c>
+      <c r="AZ39" s="10">
         <v>15</v>
       </c>
-      <c r="BA38" s="10" t="s">
+      <c r="BA39" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="BB38" s="10" t="s">
+      <c r="BB39" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="BC38" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BD38" s="10" t="s">
+      <c r="BC39" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BD39" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="BE38" s="10">
+      <c r="BE39" s="10">
         <v>5</v>
       </c>
-      <c r="BF38" s="10">
+      <c r="BF39" s="10">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="BG38" s="10">
+      <c r="BG39" s="10">
         <v>0.12</v>
       </c>
-      <c r="BH38" s="10">
+      <c r="BH39" s="10">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="BI38" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BJ38" s="10" t="s">
+      <c r="BI39" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BJ39" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="BK38" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BL38" s="10">
+      <c r="BK39" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BL39" s="10">
         <v>0.01</v>
       </c>
-      <c r="BM38" s="10" t="s">
+      <c r="BM39" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="BN38" s="10">
+      <c r="BN39" s="10">
         <v>0.75</v>
       </c>
-      <c r="BO38" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="BP38" s="10" t="b">
+      <c r="BO39" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="BP39" s="10" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:68" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="40" spans="1:68" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="B40" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="D40" s="10">
-        <v>1</v>
-      </c>
-      <c r="E40" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="F40" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="G40" s="10">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="O40" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="U40" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="V40" s="10">
-        <v>0</v>
-      </c>
-      <c r="X40" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="Y40" s="10">
-        <v>0</v>
-      </c>
-      <c r="Z40" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="AA40" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AB40" s="10">
-        <v>0</v>
-      </c>
-      <c r="AC40" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="AD40" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="AE40" s="10">
-        <v>1E-3</v>
-      </c>
-      <c r="AF40" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AG40" s="10">
-        <v>0</v>
-      </c>
-      <c r="AH40" s="10">
-        <v>1</v>
-      </c>
-      <c r="AI40" s="10">
-        <v>1</v>
-      </c>
-      <c r="AM40" s="10">
-        <v>0.05</v>
-      </c>
-      <c r="AN40" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AO40" s="10">
-        <v>0</v>
-      </c>
-      <c r="AP40" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AQ40" s="10">
-        <v>0.03</v>
-      </c>
-      <c r="AR40" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AS40" s="10">
-        <v>0.04</v>
-      </c>
-      <c r="AT40" s="10">
-        <v>0.11</v>
-      </c>
-      <c r="AU40" s="10">
-        <v>5</v>
-      </c>
-      <c r="AV40" s="10">
-        <v>0.03</v>
-      </c>
-      <c r="AW40" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AX40" s="10">
-        <v>0.7</v>
-      </c>
-      <c r="AY40" s="10">
-        <v>1</v>
-      </c>
-      <c r="AZ40" s="10">
-        <v>15</v>
-      </c>
-      <c r="BA40" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="BB40" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="BC40" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BD40" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="BE40" s="10">
-        <v>5</v>
-      </c>
-      <c r="BF40" s="10">
-        <v>8.2199999999999995E-2</v>
-      </c>
-      <c r="BG40" s="10">
-        <v>0.12</v>
-      </c>
-      <c r="BH40" s="10">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="BI40" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BJ40" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="BK40" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BL40" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="BM40" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="BN40" s="10">
-        <v>0.75</v>
-      </c>
-      <c r="BO40" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="BP40" s="10" t="b">
-        <v>1</v>
-      </c>
-    </row>
+    <row r="40" spans="1:68" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="41" spans="1:68" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="B41" s="10" t="b">
         <v>0</v>
@@ -6660,7 +6682,7 @@
         <v>23</v>
       </c>
       <c r="BN41" s="10">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="BO41" s="10" t="b">
         <v>1</v>
@@ -6669,15 +6691,173 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:68" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="1:68" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="B42" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="D42" s="10">
+        <v>1</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F42" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="G42" s="10">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="O42" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="U42" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="V42" s="10">
+        <v>0</v>
+      </c>
+      <c r="X42" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="Y42" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="AA42" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AB42" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC42" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="AD42" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="AE42" s="10">
+        <v>1E-3</v>
+      </c>
+      <c r="AF42" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AG42" s="10">
+        <v>0</v>
+      </c>
+      <c r="AH42" s="10">
+        <v>1</v>
+      </c>
+      <c r="AI42" s="10">
+        <v>1</v>
+      </c>
+      <c r="AM42" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="AN42" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AO42" s="10">
+        <v>0</v>
+      </c>
+      <c r="AP42" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AQ42" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="AR42" s="10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AS42" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="AT42" s="10">
+        <v>0.11</v>
+      </c>
+      <c r="AU42" s="10">
+        <v>5</v>
+      </c>
+      <c r="AV42" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="AW42" s="10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AX42" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="AY42" s="10">
+        <v>1</v>
+      </c>
+      <c r="AZ42" s="10">
+        <v>15</v>
+      </c>
+      <c r="BA42" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="BB42" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="BC42" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BD42" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="BE42" s="10">
+        <v>5</v>
+      </c>
+      <c r="BF42" s="10">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="BG42" s="10">
+        <v>0.12</v>
+      </c>
+      <c r="BH42" s="10">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="BI42" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BJ42" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="BK42" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BL42" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="BM42" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="BN42" s="10">
+        <v>1</v>
+      </c>
+      <c r="BO42" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="BP42" s="10" t="b">
+        <v>1</v>
+      </c>
+    </row>
     <row r="43" spans="1:68" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="44" spans="1:68" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="1:68" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B36:B44 B3:B34" xr:uid="{05E01AB2-72EC-4550-ACB8-4E83765DE296}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B45" xr:uid="{05E01AB2-72EC-4550-ACB8-4E83765DE296}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O36:O38 O40:O41 O3:O16 O21:O32 O18:O19 O34" xr:uid="{8DBFC5CB-438A-4309-B948-24597CAE3D7F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O41:O42 O3:O16 O21:O32 O18:O19 O34:O39" xr:uid="{8DBFC5CB-438A-4309-B948-24597CAE3D7F}">
       <formula1>"preSet, ALpct,MApct"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6690,7 +6870,7 @@
           <x14:formula1>
             <xm:f>Policies!$B$3:$B$9</xm:f>
           </x14:formula1>
-          <xm:sqref>F38 F36 F40:F41 F3:F34</xm:sqref>
+          <xm:sqref>F39 F41:F42 F3:F37</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -6704,7 +6884,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6740,10 +6920,10 @@
         <v>91</v>
       </c>
       <c r="B2">
-        <v>2000</v>
+        <v>500</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D2">
         <v>20</v>

--- a/RunControl.xlsx
+++ b/RunControl.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DBFBAF1-701C-47B9-A6DE-F3C9EF77337F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{836A63EE-63D6-4B89-9630-1EF42F3EB677}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-75" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="6855" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="paramlist" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="153">
   <si>
     <t>runname</t>
   </si>
@@ -870,10 +870,10 @@
   <dimension ref="A1:BP45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="2" topLeftCell="Q12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BN36" sqref="BN36"/>
+      <selection pane="bottomRight" activeCell="A26" sqref="A26:XFD28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2192,7 +2192,7 @@
         <v>54</v>
       </c>
       <c r="B10" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>110</v>
@@ -2356,7 +2356,7 @@
         <v>131</v>
       </c>
       <c r="B11" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>110</v>
@@ -2520,7 +2520,7 @@
         <v>137</v>
       </c>
       <c r="B12" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>110</v>
@@ -3510,7 +3510,7 @@
         <v>143</v>
       </c>
       <c r="B18" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>144</v>
@@ -3674,7 +3674,7 @@
         <v>146</v>
       </c>
       <c r="B19" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>146</v>
@@ -3692,19 +3692,22 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="H19" s="10">
-        <v>2.1999999999999999E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="I19" s="10">
-        <v>2.5000000000000001E-2</v>
+        <v>0.02</v>
       </c>
       <c r="J19" s="10">
-        <v>0</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="K19" s="10">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="L19" s="10" t="s">
-        <v>134</v>
+        <v>112</v>
+      </c>
+      <c r="M19" s="10" t="s">
+        <v>112</v>
       </c>
       <c r="O19" s="10" t="s">
         <v>76</v>
@@ -4671,7 +4674,7 @@
         <v>123</v>
       </c>
       <c r="B26" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26" s="10" t="s">
         <v>110</v>
@@ -4835,7 +4838,7 @@
         <v>136</v>
       </c>
       <c r="B27" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C27" s="10" t="s">
         <v>110</v>
@@ -4999,7 +5002,7 @@
         <v>139</v>
       </c>
       <c r="B28" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C28" s="10" t="s">
         <v>110</v>
@@ -5989,7 +5992,7 @@
         <v>145</v>
       </c>
       <c r="B34" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C34" s="10" t="s">
         <v>144</v>
@@ -6153,7 +6156,7 @@
         <v>152</v>
       </c>
       <c r="B35" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C35" s="10" t="s">
         <v>146</v>
@@ -6171,13 +6174,13 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="H35" s="10">
-        <v>2.1999999999999999E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="I35" s="10">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="J35" s="10">
-        <v>0</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="K35" s="10">
         <v>7.4999999999999997E-2</v>
@@ -6884,7 +6887,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6920,10 +6923,10 @@
         <v>91</v>
       </c>
       <c r="B2">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="C2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2">
         <v>20</v>

--- a/RunControl.xlsx
+++ b/RunControl.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{836A63EE-63D6-4B89-9630-1EF42F3EB677}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01F3FCFD-3507-406F-B444-7D83235B96B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="6855" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="5460" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="paramlist" sheetId="1" r:id="rId1"/>
@@ -568,7 +568,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -586,6 +586,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -869,11 +870,11 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BP45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="2" topLeftCell="Q12" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="6" ySplit="2" topLeftCell="AL3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A26" sqref="A26:XFD28"/>
+      <selection pane="bottomRight" activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2192,7 +2193,7 @@
         <v>54</v>
       </c>
       <c r="B10" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>110</v>
@@ -2356,7 +2357,7 @@
         <v>131</v>
       </c>
       <c r="B11" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>110</v>
@@ -2520,7 +2521,7 @@
         <v>137</v>
       </c>
       <c r="B12" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>110</v>
@@ -3172,11 +3173,11 @@
       </c>
     </row>
     <row r="16" spans="1:68" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="14" t="s">
         <v>105</v>
       </c>
       <c r="B16" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>110</v>
@@ -3233,7 +3234,7 @@
         <v>1E-3</v>
       </c>
       <c r="AF16" s="10">
-        <v>0.02</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="AG16" s="10">
         <v>0</v>
@@ -3415,7 +3416,7 @@
         <v>1</v>
       </c>
       <c r="AM17" s="10">
-        <v>0.05</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="AN17" s="10">
         <v>0.5</v>
@@ -3510,7 +3511,7 @@
         <v>143</v>
       </c>
       <c r="B18" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>144</v>
@@ -4014,7 +4015,7 @@
       </c>
     </row>
     <row r="22" spans="1:68" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="17" t="s">
         <v>120</v>
       </c>
       <c r="B22" s="10" t="b">
@@ -4674,7 +4675,7 @@
         <v>123</v>
       </c>
       <c r="B26" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26" s="10" t="s">
         <v>110</v>
@@ -4838,7 +4839,7 @@
         <v>136</v>
       </c>
       <c r="B27" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27" s="10" t="s">
         <v>110</v>
@@ -5002,7 +5003,7 @@
         <v>139</v>
       </c>
       <c r="B28" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28" s="10" t="s">
         <v>110</v>
@@ -5654,7 +5655,7 @@
       </c>
     </row>
     <row r="32" spans="1:68" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="14" t="s">
         <v>126</v>
       </c>
       <c r="B32" s="10" t="b">
@@ -5715,7 +5716,7 @@
         <v>1E-3</v>
       </c>
       <c r="AF32" s="10">
-        <v>0.02</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="AG32" s="10">
         <v>0</v>
@@ -5992,7 +5993,7 @@
         <v>145</v>
       </c>
       <c r="B34" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C34" s="10" t="s">
         <v>144</v>
@@ -6537,7 +6538,7 @@
     </row>
     <row r="40" spans="1:68" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="41" spans="1:68" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="10" t="s">
+      <c r="A41" s="14" t="s">
         <v>99</v>
       </c>
       <c r="B41" s="10" t="b">
@@ -6695,7 +6696,7 @@
       </c>
     </row>
     <row r="42" spans="1:68" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="10" t="s">
+      <c r="A42" s="14" t="s">
         <v>119</v>
       </c>
       <c r="B42" s="10" t="b">
@@ -6886,8 +6887,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/RunControl.xlsx
+++ b/RunControl.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01F3FCFD-3507-406F-B444-7D83235B96B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27934D7B-AEBE-4B5F-81AF-493B4E236DA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="5460" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="5460" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="paramlist" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="154">
   <si>
     <t>runname</t>
   </si>
@@ -489,6 +489,9 @@
   </si>
   <si>
     <t>DA_FR100</t>
+  </si>
+  <si>
+    <t>cola_SDRS_noCAeec</t>
   </si>
 </sst>
 </file>
@@ -868,13 +871,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:BP45"/>
+  <dimension ref="A1:BP46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="6" ySplit="2" topLeftCell="AL3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="6" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A34" sqref="A34"/>
+      <selection pane="bottomRight" activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1697,11 +1700,11 @@
       </c>
     </row>
     <row r="7" spans="1:68" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
-        <v>87</v>
+      <c r="A7" s="14" t="s">
+        <v>99</v>
       </c>
       <c r="B7" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>109</v>
@@ -1713,7 +1716,7 @@
         <v>50</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G7" s="10">
         <v>1.4999999999999999E-2</v>
@@ -1862,7 +1865,7 @@
     </row>
     <row r="8" spans="1:68" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>130</v>
+        <v>87</v>
       </c>
       <c r="B8" s="10" t="b">
         <v>0</v>
@@ -1895,7 +1898,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="X8" s="10">
         <v>0.02</v>
@@ -1958,7 +1961,7 @@
         <v>0.11</v>
       </c>
       <c r="AU8" s="10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AV8" s="10">
         <v>0.03</v>
@@ -2026,7 +2029,7 @@
     </row>
     <row r="9" spans="1:68" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>88</v>
+        <v>130</v>
       </c>
       <c r="B9" s="10" t="b">
         <v>0</v>
@@ -2041,7 +2044,7 @@
         <v>50</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G9" s="10">
         <v>1.4999999999999999E-2</v>
@@ -2059,7 +2062,7 @@
         <v>0</v>
       </c>
       <c r="W9" s="10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="X9" s="10">
         <v>0.02</v>
@@ -2122,7 +2125,7 @@
         <v>0.11</v>
       </c>
       <c r="AU9" s="10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AV9" s="10">
         <v>0.03</v>
@@ -2190,22 +2193,22 @@
     </row>
     <row r="10" spans="1:68" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>54</v>
+        <v>88</v>
       </c>
       <c r="B10" s="10" t="b">
         <v>0</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D10" s="10">
         <v>1</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="G10" s="10">
         <v>1.4999999999999999E-2</v>
@@ -2354,7 +2357,7 @@
     </row>
     <row r="11" spans="1:68" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>131</v>
+        <v>54</v>
       </c>
       <c r="B11" s="10" t="b">
         <v>0</v>
@@ -2386,8 +2389,8 @@
       <c r="V11" s="10">
         <v>0</v>
       </c>
-      <c r="W11" s="14">
-        <v>5</v>
+      <c r="W11" s="10">
+        <v>1</v>
       </c>
       <c r="X11" s="10">
         <v>0.02</v>
@@ -2450,7 +2453,7 @@
         <v>0.11</v>
       </c>
       <c r="AU11" s="10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AV11" s="10">
         <v>0.03</v>
@@ -2518,7 +2521,7 @@
     </row>
     <row r="12" spans="1:68" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B12" s="10" t="b">
         <v>0</v>
@@ -2545,10 +2548,10 @@
         <v>76</v>
       </c>
       <c r="U12" s="10">
-        <v>2.5000000000000001E-2</v>
+        <v>0.02</v>
       </c>
       <c r="V12" s="10">
-        <v>5.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="W12" s="14">
         <v>5</v>
@@ -2680,9 +2683,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:68" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:68" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>55</v>
+        <v>137</v>
       </c>
       <c r="B13" s="10" t="b">
         <v>0</v>
@@ -2694,7 +2697,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>63</v>
@@ -2709,13 +2712,13 @@
         <v>76</v>
       </c>
       <c r="U13" s="10">
-        <v>0.02</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="V13" s="10">
-        <v>0</v>
-      </c>
-      <c r="W13" s="10">
-        <v>1</v>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="W13" s="14">
+        <v>5</v>
       </c>
       <c r="X13" s="10">
         <v>0.02</v>
@@ -2778,7 +2781,7 @@
         <v>0.11</v>
       </c>
       <c r="AU13" s="10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AV13" s="10">
         <v>0.03</v>
@@ -2846,7 +2849,7 @@
     </row>
     <row r="14" spans="1:68" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>138</v>
+        <v>55</v>
       </c>
       <c r="B14" s="10" t="b">
         <v>0</v>
@@ -2882,13 +2885,13 @@
         <v>1</v>
       </c>
       <c r="X14" s="10">
-        <v>2.5000000000000001E-2</v>
+        <v>0.02</v>
       </c>
       <c r="Y14" s="10">
-        <v>5.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="10">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AA14" s="10">
         <v>0.02</v>
@@ -3008,9 +3011,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:68" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:68" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
-        <v>103</v>
+        <v>138</v>
       </c>
       <c r="B15" s="10" t="b">
         <v>0</v>
@@ -3022,7 +3025,7 @@
         <v>1</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F15" s="10" t="s">
         <v>63</v>
@@ -3046,13 +3049,13 @@
         <v>1</v>
       </c>
       <c r="X15" s="10">
-        <v>0.02</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="Y15" s="10">
-        <v>0</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="Z15" s="10">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AA15" s="10">
         <v>0.02</v>
@@ -3173,11 +3176,11 @@
       </c>
     </row>
     <row r="16" spans="1:68" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
-        <v>105</v>
+      <c r="A16" s="10" t="s">
+        <v>103</v>
       </c>
       <c r="B16" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>110</v>
@@ -3186,7 +3189,7 @@
         <v>1</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F16" s="10" t="s">
         <v>63</v>
@@ -3234,7 +3237,7 @@
         <v>1E-3</v>
       </c>
       <c r="AF16" s="10">
-        <v>2.5000000000000001E-2</v>
+        <v>0.02</v>
       </c>
       <c r="AG16" s="10">
         <v>0</v>
@@ -3243,13 +3246,7 @@
         <v>1</v>
       </c>
       <c r="AI16" s="10">
-        <v>2</v>
-      </c>
-      <c r="AJ16" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AK16" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AM16" s="10">
         <v>0.05</v>
@@ -3343,20 +3340,20 @@
       </c>
     </row>
     <row r="17" spans="1:68" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
-        <v>107</v>
+      <c r="A17" s="17" t="s">
+        <v>105</v>
       </c>
       <c r="B17" s="10" t="b">
         <v>0</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D17" s="10">
         <v>1</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="F17" s="10" t="s">
         <v>63</v>
@@ -3365,10 +3362,10 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="L17" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="M17" s="10" t="s">
-        <v>112</v>
+        <v>134</v>
+      </c>
+      <c r="O17" s="10" t="s">
+        <v>76</v>
       </c>
       <c r="U17" s="10">
         <v>0.02</v>
@@ -3404,7 +3401,7 @@
         <v>1E-3</v>
       </c>
       <c r="AF17" s="10">
-        <v>0.02</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="AG17" s="10">
         <v>0</v>
@@ -3413,10 +3410,16 @@
         <v>1</v>
       </c>
       <c r="AI17" s="10">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="AJ17" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AK17" s="10">
+        <v>0.5</v>
       </c>
       <c r="AM17" s="10">
-        <v>2.5000000000000001E-2</v>
+        <v>0.05</v>
       </c>
       <c r="AN17" s="10">
         <v>0.5</v>
@@ -3507,23 +3510,23 @@
       </c>
     </row>
     <row r="18" spans="1:68" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
-        <v>143</v>
+      <c r="A18" s="14" t="s">
+        <v>153</v>
       </c>
       <c r="B18" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>144</v>
+        <v>110</v>
       </c>
       <c r="D18" s="10">
         <v>1</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="G18" s="10">
         <v>1.4999999999999999E-2</v>
@@ -3535,13 +3538,13 @@
         <v>76</v>
       </c>
       <c r="U18" s="10">
-        <v>2.5000000000000001E-2</v>
+        <v>0.02</v>
       </c>
       <c r="V18" s="10">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="W18" s="14">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="W18" s="10">
+        <v>1</v>
       </c>
       <c r="X18" s="10">
         <v>0.02</v>
@@ -3568,7 +3571,7 @@
         <v>1E-3</v>
       </c>
       <c r="AF18" s="10">
-        <v>0.02</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="AG18" s="10">
         <v>0</v>
@@ -3577,7 +3580,13 @@
         <v>1</v>
       </c>
       <c r="AI18" s="10">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="AJ18" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AK18" s="10">
+        <v>0</v>
       </c>
       <c r="AM18" s="10">
         <v>0.05</v>
@@ -3586,7 +3595,7 @@
         <v>0.5</v>
       </c>
       <c r="AO18" s="10">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="AP18" s="10">
         <v>0.5</v>
@@ -3604,7 +3613,7 @@
         <v>0.11</v>
       </c>
       <c r="AU18" s="10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AV18" s="10">
         <v>0.03</v>
@@ -3672,19 +3681,19 @@
     </row>
     <row r="19" spans="1:68" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="B19" s="10" t="b">
         <v>0</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="D19" s="10">
         <v>1</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F19" s="10" t="s">
         <v>63</v>
@@ -3692,27 +3701,12 @@
       <c r="G19" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="H19" s="10">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="I19" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="J19" s="10">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="K19" s="10">
-        <v>7.4999999999999997E-2</v>
-      </c>
       <c r="L19" s="10" t="s">
         <v>112</v>
       </c>
       <c r="M19" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="O19" s="10" t="s">
-        <v>76</v>
-      </c>
       <c r="U19" s="10">
         <v>0.02</v>
       </c>
@@ -3759,7 +3753,7 @@
         <v>1</v>
       </c>
       <c r="AM19" s="10">
-        <v>0.05</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="AN19" s="10">
         <v>0.5</v>
@@ -3849,22 +3843,185 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:68" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:68" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="B20" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="D20" s="10">
+        <v>1</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="G20" s="10">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="L20" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="O20" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="U20" s="10">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="V20" s="10">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="W20" s="14">
+        <v>5</v>
+      </c>
+      <c r="X20" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="Y20" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="AA20" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AB20" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="AD20" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="AE20" s="10">
+        <v>1E-3</v>
+      </c>
+      <c r="AF20" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AG20" s="10">
+        <v>0</v>
+      </c>
+      <c r="AH20" s="10">
+        <v>1</v>
+      </c>
+      <c r="AI20" s="10">
+        <v>1</v>
+      </c>
+      <c r="AM20" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="AN20" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AO20" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="AP20" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AQ20" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="AR20" s="10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AS20" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="AT20" s="10">
+        <v>0.11</v>
+      </c>
+      <c r="AU20" s="10">
+        <v>5</v>
+      </c>
+      <c r="AV20" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="AW20" s="10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AX20" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="AY20" s="10">
+        <v>1</v>
+      </c>
+      <c r="AZ20" s="10">
+        <v>15</v>
+      </c>
+      <c r="BA20" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="BB20" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="BC20" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BD20" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="BE20" s="10">
+        <v>5</v>
+      </c>
+      <c r="BF20" s="10">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="BG20" s="10">
+        <v>0.12</v>
+      </c>
+      <c r="BH20" s="10">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="BI20" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BJ20" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="BK20" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BL20" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="BM20" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="BN20" s="10">
+        <v>0.75</v>
+      </c>
+      <c r="BO20" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="BP20" s="10" t="b">
+        <v>1</v>
+      </c>
+    </row>
     <row r="21" spans="1:68" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
-        <v>118</v>
+        <v>146</v>
       </c>
       <c r="B21" s="10" t="b">
         <v>0</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>112</v>
+        <v>146</v>
       </c>
       <c r="D21" s="10">
         <v>1</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F21" s="10" t="s">
         <v>63</v>
@@ -3872,8 +4029,23 @@
       <c r="G21" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
+      <c r="H21" s="10">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="I21" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="J21" s="10">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="K21" s="10">
+        <v>7.4999999999999997E-2</v>
+      </c>
       <c r="L21" s="10" t="s">
-        <v>134</v>
+        <v>112</v>
+      </c>
+      <c r="M21" s="10" t="s">
+        <v>112</v>
       </c>
       <c r="O21" s="10" t="s">
         <v>76</v>
@@ -4005,7 +4177,7 @@
         <v>23</v>
       </c>
       <c r="BN21" s="10">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="BO21" s="10" t="b">
         <v>1</v>
@@ -4014,179 +4186,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:68" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="B22" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="D22" s="10">
-        <v>1</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="G22" s="10">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="L22" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="O22" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="U22" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="V22" s="10">
-        <v>0</v>
-      </c>
-      <c r="W22" s="10">
-        <v>1</v>
-      </c>
-      <c r="X22" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="Y22" s="10">
-        <v>0</v>
-      </c>
-      <c r="Z22" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="AA22" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AB22" s="10">
-        <v>0</v>
-      </c>
-      <c r="AC22" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="AD22" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="AE22" s="10">
-        <v>1E-3</v>
-      </c>
-      <c r="AF22" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AG22" s="10">
-        <v>0</v>
-      </c>
-      <c r="AH22" s="10">
-        <v>1</v>
-      </c>
-      <c r="AI22" s="10">
-        <v>1</v>
-      </c>
-      <c r="AM22" s="10">
-        <v>0.05</v>
-      </c>
-      <c r="AN22" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AO22" s="10">
-        <v>0.05</v>
-      </c>
-      <c r="AP22" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AQ22" s="10">
-        <v>0.03</v>
-      </c>
-      <c r="AR22" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AS22" s="10">
-        <v>0.04</v>
-      </c>
-      <c r="AT22" s="10">
-        <v>0.11</v>
-      </c>
-      <c r="AU22" s="10">
-        <v>1</v>
-      </c>
-      <c r="AV22" s="10">
-        <v>0.03</v>
-      </c>
-      <c r="AW22" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AX22" s="10">
-        <v>0.7</v>
-      </c>
-      <c r="AY22" s="10">
-        <v>1</v>
-      </c>
-      <c r="AZ22" s="10">
-        <v>15</v>
-      </c>
-      <c r="BA22" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="BB22" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="BC22" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BD22" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="BE22" s="10">
-        <v>5</v>
-      </c>
-      <c r="BF22" s="10">
-        <v>8.2199999999999995E-2</v>
-      </c>
-      <c r="BG22" s="10">
-        <v>0.12</v>
-      </c>
-      <c r="BH22" s="10">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="BI22" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BJ22" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="BK22" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BL22" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="BM22" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="BN22" s="10">
-        <v>1</v>
-      </c>
-      <c r="BO22" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="BP22" s="10" t="b">
-        <v>1</v>
-      </c>
-    </row>
+    <row r="22" spans="1:68" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="1:68" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B23" s="10" t="b">
         <v>0</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D23" s="10">
         <v>1</v>
@@ -4195,7 +4204,7 @@
         <v>50</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="G23" s="10">
         <v>1.4999999999999999E-2</v>
@@ -4343,8 +4352,8 @@
       </c>
     </row>
     <row r="24" spans="1:68" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
-        <v>135</v>
+      <c r="A24" s="17" t="s">
+        <v>120</v>
       </c>
       <c r="B24" s="10" t="b">
         <v>0</v>
@@ -4359,7 +4368,7 @@
         <v>50</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G24" s="10">
         <v>1.4999999999999999E-2</v>
@@ -4376,8 +4385,8 @@
       <c r="V24" s="10">
         <v>0</v>
       </c>
-      <c r="W24" s="14">
-        <v>5</v>
+      <c r="W24" s="10">
+        <v>1</v>
       </c>
       <c r="X24" s="10">
         <v>0.02</v>
@@ -4422,7 +4431,7 @@
         <v>0.5</v>
       </c>
       <c r="AO24" s="10">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="AP24" s="10">
         <v>0.5</v>
@@ -4440,7 +4449,7 @@
         <v>0.11</v>
       </c>
       <c r="AU24" s="10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AV24" s="10">
         <v>0.03</v>
@@ -4508,7 +4517,7 @@
     </row>
     <row r="25" spans="1:68" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B25" s="10" t="b">
         <v>0</v>
@@ -4523,7 +4532,7 @@
         <v>50</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G25" s="10">
         <v>1.4999999999999999E-2</v>
@@ -4672,22 +4681,22 @@
     </row>
     <row r="26" spans="1:68" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="B26" s="10" t="b">
         <v>0</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D26" s="10">
         <v>1</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="G26" s="10">
         <v>1.4999999999999999E-2</v>
@@ -4704,8 +4713,8 @@
       <c r="V26" s="10">
         <v>0</v>
       </c>
-      <c r="W26" s="10">
-        <v>1</v>
+      <c r="W26" s="14">
+        <v>5</v>
       </c>
       <c r="X26" s="10">
         <v>0.02</v>
@@ -4768,7 +4777,7 @@
         <v>0.11</v>
       </c>
       <c r="AU26" s="10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AV26" s="10">
         <v>0.03</v>
@@ -4836,22 +4845,22 @@
     </row>
     <row r="27" spans="1:68" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="B27" s="10" t="b">
         <v>0</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D27" s="10">
         <v>1</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="G27" s="10">
         <v>1.4999999999999999E-2</v>
@@ -4868,8 +4877,8 @@
       <c r="V27" s="10">
         <v>0</v>
       </c>
-      <c r="W27" s="14">
-        <v>5</v>
+      <c r="W27" s="10">
+        <v>1</v>
       </c>
       <c r="X27" s="10">
         <v>0.02</v>
@@ -4932,7 +4941,7 @@
         <v>0.11</v>
       </c>
       <c r="AU27" s="10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AV27" s="10">
         <v>0.03</v>
@@ -5000,7 +5009,7 @@
     </row>
     <row r="28" spans="1:68" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="B28" s="10" t="b">
         <v>0</v>
@@ -5027,13 +5036,13 @@
         <v>76</v>
       </c>
       <c r="U28" s="10">
-        <v>2.5000000000000001E-2</v>
+        <v>0.02</v>
       </c>
       <c r="V28" s="10">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="W28" s="14">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="W28" s="10">
+        <v>1</v>
       </c>
       <c r="X28" s="10">
         <v>0.02</v>
@@ -5096,7 +5105,7 @@
         <v>0.11</v>
       </c>
       <c r="AU28" s="10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AV28" s="10">
         <v>0.03</v>
@@ -5162,9 +5171,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:68" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:68" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="B29" s="10" t="b">
         <v>0</v>
@@ -5176,7 +5185,7 @@
         <v>1</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F29" s="10" t="s">
         <v>63</v>
@@ -5196,8 +5205,8 @@
       <c r="V29" s="10">
         <v>0</v>
       </c>
-      <c r="W29" s="10">
-        <v>1</v>
+      <c r="W29" s="14">
+        <v>5</v>
       </c>
       <c r="X29" s="10">
         <v>0.02</v>
@@ -5260,7 +5269,7 @@
         <v>0.11</v>
       </c>
       <c r="AU29" s="10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AV29" s="10">
         <v>0.03</v>
@@ -5326,9 +5335,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:68" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:68" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B30" s="10" t="b">
         <v>0</v>
@@ -5340,7 +5349,7 @@
         <v>1</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F30" s="10" t="s">
         <v>63</v>
@@ -5355,22 +5364,22 @@
         <v>76</v>
       </c>
       <c r="U30" s="10">
-        <v>0.02</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="V30" s="10">
-        <v>0</v>
-      </c>
-      <c r="W30" s="10">
-        <v>1</v>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="W30" s="14">
+        <v>5</v>
       </c>
       <c r="X30" s="10">
-        <v>2.5000000000000001E-2</v>
+        <v>0.02</v>
       </c>
       <c r="Y30" s="10">
-        <v>5.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="Z30" s="10">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AA30" s="10">
         <v>0.02</v>
@@ -5424,7 +5433,7 @@
         <v>0.11</v>
       </c>
       <c r="AU30" s="10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AV30" s="10">
         <v>0.03</v>
@@ -5490,9 +5499,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:68" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:68" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B31" s="10" t="b">
         <v>0</v>
@@ -5504,7 +5513,7 @@
         <v>1</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F31" s="10" t="s">
         <v>63</v>
@@ -5654,9 +5663,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:68" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="14" t="s">
-        <v>126</v>
+    <row r="32" spans="1:68" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="10" t="s">
+        <v>140</v>
       </c>
       <c r="B32" s="10" t="b">
         <v>0</v>
@@ -5668,7 +5677,7 @@
         <v>1</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F32" s="10" t="s">
         <v>63</v>
@@ -5692,13 +5701,13 @@
         <v>1</v>
       </c>
       <c r="X32" s="10">
-        <v>0.02</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="Y32" s="10">
-        <v>0</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="Z32" s="10">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AA32" s="10">
         <v>0.02</v>
@@ -5716,7 +5725,7 @@
         <v>1E-3</v>
       </c>
       <c r="AF32" s="10">
-        <v>2.5000000000000001E-2</v>
+        <v>0.02</v>
       </c>
       <c r="AG32" s="10">
         <v>0</v>
@@ -5725,13 +5734,7 @@
         <v>1</v>
       </c>
       <c r="AI32" s="10">
-        <v>2</v>
-      </c>
-      <c r="AJ32" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AK32" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AM32" s="10">
         <v>0.05</v>
@@ -5826,19 +5829,19 @@
     </row>
     <row r="33" spans="1:68" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B33" s="10" t="b">
         <v>0</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D33" s="10">
         <v>1</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F33" s="10" t="s">
         <v>63</v>
@@ -5847,10 +5850,10 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="L33" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="M33" s="10" t="s">
-        <v>118</v>
+        <v>134</v>
+      </c>
+      <c r="O33" s="10" t="s">
+        <v>76</v>
       </c>
       <c r="U33" s="10">
         <v>0.02</v>
@@ -5898,7 +5901,7 @@
         <v>1</v>
       </c>
       <c r="AM33" s="10">
-        <v>2.5000000000000001E-2</v>
+        <v>0.05</v>
       </c>
       <c r="AN33" s="10">
         <v>0.5</v>
@@ -5989,23 +5992,23 @@
       </c>
     </row>
     <row r="34" spans="1:68" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="10" t="s">
-        <v>145</v>
+      <c r="A34" s="17" t="s">
+        <v>126</v>
       </c>
       <c r="B34" s="10" t="b">
         <v>0</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>144</v>
+        <v>110</v>
       </c>
       <c r="D34" s="10">
         <v>1</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="G34" s="10">
         <v>1.4999999999999999E-2</v>
@@ -6017,13 +6020,13 @@
         <v>76</v>
       </c>
       <c r="U34" s="10">
-        <v>2.5000000000000001E-2</v>
+        <v>0.02</v>
       </c>
       <c r="V34" s="10">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="W34" s="14">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="W34" s="10">
+        <v>1</v>
       </c>
       <c r="X34" s="10">
         <v>0.02</v>
@@ -6050,7 +6053,7 @@
         <v>1E-3</v>
       </c>
       <c r="AF34" s="10">
-        <v>0.02</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="AG34" s="10">
         <v>0</v>
@@ -6059,7 +6062,13 @@
         <v>1</v>
       </c>
       <c r="AI34" s="10">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="AJ34" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AK34" s="10">
+        <v>0.5</v>
       </c>
       <c r="AM34" s="10">
         <v>0.05</v>
@@ -6068,7 +6077,7 @@
         <v>0.5</v>
       </c>
       <c r="AO34" s="10">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="AP34" s="10">
         <v>0.5</v>
@@ -6086,7 +6095,7 @@
         <v>0.11</v>
       </c>
       <c r="AU34" s="10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AV34" s="10">
         <v>0.03</v>
@@ -6154,19 +6163,19 @@
     </row>
     <row r="35" spans="1:68" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
-        <v>152</v>
+        <v>127</v>
       </c>
       <c r="B35" s="10" t="b">
         <v>0</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="D35" s="10">
         <v>1</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F35" s="10" t="s">
         <v>63</v>
@@ -6174,23 +6183,11 @@
       <c r="G35" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="H35" s="10">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="I35" s="10">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="J35" s="10">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="K35" s="10">
-        <v>7.4999999999999997E-2</v>
-      </c>
       <c r="L35" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="O35" s="10" t="s">
-        <v>76</v>
+        <v>112</v>
+      </c>
+      <c r="M35" s="10" t="s">
+        <v>118</v>
       </c>
       <c r="U35" s="10">
         <v>0.02</v>
@@ -6238,7 +6235,7 @@
         <v>1</v>
       </c>
       <c r="AM35" s="10">
-        <v>0.05</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="AN35" s="10">
         <v>0.5</v>
@@ -6328,218 +6325,402 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:68" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="1:68" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="B36" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="D36" s="10">
+        <v>1</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="G36" s="10">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="L36" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="O36" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="U36" s="10">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="V36" s="10">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="W36" s="14">
+        <v>5</v>
+      </c>
+      <c r="X36" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="Y36" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z36" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="AA36" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AB36" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC36" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="AD36" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="AE36" s="10">
+        <v>1E-3</v>
+      </c>
+      <c r="AF36" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AG36" s="10">
+        <v>0</v>
+      </c>
+      <c r="AH36" s="10">
+        <v>1</v>
+      </c>
+      <c r="AI36" s="10">
+        <v>1</v>
+      </c>
+      <c r="AM36" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="AN36" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AO36" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="AP36" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AQ36" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="AR36" s="10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AS36" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="AT36" s="10">
+        <v>0.11</v>
+      </c>
+      <c r="AU36" s="10">
+        <v>5</v>
+      </c>
+      <c r="AV36" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="AW36" s="10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AX36" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="AY36" s="10">
+        <v>1</v>
+      </c>
+      <c r="AZ36" s="10">
+        <v>15</v>
+      </c>
+      <c r="BA36" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="BB36" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="BC36" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BD36" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="BE36" s="10">
+        <v>5</v>
+      </c>
+      <c r="BF36" s="10">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="BG36" s="10">
+        <v>0.12</v>
+      </c>
+      <c r="BH36" s="10">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="BI36" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BJ36" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="BK36" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BL36" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="BM36" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="BN36" s="10">
+        <v>1</v>
+      </c>
+      <c r="BO36" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="BP36" s="10" t="b">
+        <v>1</v>
+      </c>
+    </row>
     <row r="37" spans="1:68" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
-        <v>108</v>
+        <v>152</v>
       </c>
       <c r="B37" s="10" t="b">
         <v>0</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>111</v>
+        <v>146</v>
+      </c>
+      <c r="D37" s="10">
+        <v>1</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F37" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G37" s="10">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H37" s="10">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="I37" s="10">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="J37" s="10">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="K37" s="10">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="L37" s="10" t="s">
+        <v>134</v>
       </c>
       <c r="O37" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="P37" s="10">
-        <v>1</v>
-      </c>
-      <c r="Q37" s="10">
-        <v>1</v>
-      </c>
-      <c r="R37" s="10">
-        <v>1</v>
-      </c>
-      <c r="S37" s="10">
+      <c r="U37" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="V37" s="10">
+        <v>0</v>
+      </c>
+      <c r="W37" s="10">
+        <v>1</v>
+      </c>
+      <c r="X37" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="Y37" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z37" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="AA37" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AB37" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC37" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="AD37" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="AE37" s="10">
+        <v>1E-3</v>
+      </c>
+      <c r="AF37" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AG37" s="10">
+        <v>0</v>
+      </c>
+      <c r="AH37" s="10">
+        <v>1</v>
+      </c>
+      <c r="AI37" s="10">
+        <v>1</v>
+      </c>
+      <c r="AM37" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="AN37" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AO37" s="10">
+        <v>0</v>
+      </c>
+      <c r="AP37" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AQ37" s="10">
         <v>0.03</v>
       </c>
-      <c r="T37" s="10">
+      <c r="AR37" s="10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AS37" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="AT37" s="10">
+        <v>0.11</v>
+      </c>
+      <c r="AU37" s="10">
+        <v>1</v>
+      </c>
+      <c r="AV37" s="10">
         <v>0.03</v>
       </c>
+      <c r="AW37" s="10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AX37" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="AY37" s="10">
+        <v>1</v>
+      </c>
+      <c r="AZ37" s="10">
+        <v>15</v>
+      </c>
+      <c r="BA37" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="BB37" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="BC37" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BD37" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="BE37" s="10">
+        <v>5</v>
+      </c>
+      <c r="BF37" s="10">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="BG37" s="10">
+        <v>0.12</v>
+      </c>
+      <c r="BH37" s="10">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="BI37" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BJ37" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="BK37" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BL37" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="BM37" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="BN37" s="10">
+        <v>1</v>
+      </c>
+      <c r="BO37" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="BP37" s="10" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="38" spans="1:68" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="O38" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="P38" s="10">
-        <v>1</v>
-      </c>
-      <c r="Q38" s="10">
-        <v>1</v>
-      </c>
-      <c r="R38" s="10">
-        <v>1</v>
-      </c>
-      <c r="S38" s="10">
-        <v>0.06</v>
-      </c>
-      <c r="T38" s="10">
-        <v>0.06</v>
-      </c>
-    </row>
+    <row r="38" spans="1:68" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="39" spans="1:68" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="B39" s="10" t="b">
         <v>0</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="D39" s="10">
-        <v>1</v>
-      </c>
-      <c r="E39" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="F39" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="G39" s="10">
-        <v>1.4999999999999999E-2</v>
+        <v>111</v>
       </c>
       <c r="O39" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="U39" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="V39" s="10">
-        <v>0</v>
-      </c>
-      <c r="X39" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="Y39" s="10">
-        <v>0</v>
-      </c>
-      <c r="Z39" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="AA39" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AB39" s="10">
-        <v>0</v>
-      </c>
-      <c r="AC39" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="AD39" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="AE39" s="10">
-        <v>1E-3</v>
-      </c>
-      <c r="AF39" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AG39" s="10">
-        <v>0</v>
-      </c>
-      <c r="AH39" s="10">
-        <v>1</v>
-      </c>
-      <c r="AI39" s="10">
-        <v>1</v>
-      </c>
-      <c r="AM39" s="10">
-        <v>0.05</v>
-      </c>
-      <c r="AN39" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AO39" s="10">
-        <v>0</v>
-      </c>
-      <c r="AP39" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AQ39" s="10">
+      <c r="P39" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q39" s="10">
+        <v>1</v>
+      </c>
+      <c r="R39" s="10">
+        <v>1</v>
+      </c>
+      <c r="S39" s="10">
         <v>0.03</v>
       </c>
-      <c r="AR39" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AS39" s="10">
-        <v>0.04</v>
-      </c>
-      <c r="AT39" s="10">
-        <v>0.11</v>
-      </c>
-      <c r="AV39" s="10">
+      <c r="T39" s="10">
         <v>0.03</v>
       </c>
-      <c r="AW39" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AX39" s="10">
-        <v>0.7</v>
-      </c>
-      <c r="AY39" s="10">
-        <v>1</v>
-      </c>
-      <c r="AZ39" s="10">
-        <v>15</v>
-      </c>
-      <c r="BA39" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="BB39" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="BC39" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BD39" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="BE39" s="10">
-        <v>5</v>
-      </c>
-      <c r="BF39" s="10">
-        <v>8.2199999999999995E-2</v>
-      </c>
-      <c r="BG39" s="10">
-        <v>0.12</v>
-      </c>
-      <c r="BH39" s="10">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="BI39" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BJ39" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="BK39" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BL39" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="BM39" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="BN39" s="10">
-        <v>0.75</v>
-      </c>
-      <c r="BO39" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="BP39" s="10" t="b">
-        <v>1</v>
-      </c>
     </row>
-    <row r="40" spans="1:68" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="1:68" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="O40" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="P40" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q40" s="10">
+        <v>1</v>
+      </c>
+      <c r="R40" s="10">
+        <v>1</v>
+      </c>
+      <c r="S40" s="10">
+        <v>0.06</v>
+      </c>
+      <c r="T40" s="10">
+        <v>0.06</v>
+      </c>
+    </row>
     <row r="41" spans="1:68" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="14" t="s">
-        <v>99</v>
+      <c r="A41" s="10" t="s">
+        <v>102</v>
       </c>
       <c r="B41" s="10" t="b">
         <v>0</v>
@@ -6554,7 +6735,7 @@
         <v>50</v>
       </c>
       <c r="F41" s="10" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G41" s="10">
         <v>1.4999999999999999E-2</v>
@@ -6628,9 +6809,6 @@
       <c r="AT41" s="10">
         <v>0.11</v>
       </c>
-      <c r="AU41" s="10">
-        <v>5</v>
-      </c>
       <c r="AV41" s="10">
         <v>0.03</v>
       </c>
@@ -6695,174 +6873,175 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:68" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="14" t="s">
+    <row r="42" spans="1:68" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:68" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="B42" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="C42" s="10" t="s">
+      <c r="B43" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="C43" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="D42" s="10">
-        <v>1</v>
-      </c>
-      <c r="E42" s="10" t="s">
+      <c r="D43" s="10">
+        <v>1</v>
+      </c>
+      <c r="E43" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="F42" s="10" t="s">
+      <c r="F43" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="G42" s="10">
+      <c r="G43" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="O42" s="10" t="s">
+      <c r="O43" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="U42" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="V42" s="10">
-        <v>0</v>
-      </c>
-      <c r="X42" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="Y42" s="10">
-        <v>0</v>
-      </c>
-      <c r="Z42" s="10">
+      <c r="U43" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="V43" s="10">
+        <v>0</v>
+      </c>
+      <c r="X43" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="Y43" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="10">
         <v>0.9</v>
       </c>
-      <c r="AA42" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AB42" s="10">
-        <v>0</v>
-      </c>
-      <c r="AC42" s="10">
+      <c r="AA43" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AB43" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC43" s="10">
         <v>0.9</v>
       </c>
-      <c r="AD42" s="10">
+      <c r="AD43" s="10">
         <v>0.01</v>
       </c>
-      <c r="AE42" s="10">
+      <c r="AE43" s="10">
         <v>1E-3</v>
       </c>
-      <c r="AF42" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AG42" s="10">
-        <v>0</v>
-      </c>
-      <c r="AH42" s="10">
-        <v>1</v>
-      </c>
-      <c r="AI42" s="10">
-        <v>1</v>
-      </c>
-      <c r="AM42" s="10">
+      <c r="AF43" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AG43" s="10">
+        <v>0</v>
+      </c>
+      <c r="AH43" s="10">
+        <v>1</v>
+      </c>
+      <c r="AI43" s="10">
+        <v>1</v>
+      </c>
+      <c r="AM43" s="10">
         <v>0.05</v>
       </c>
-      <c r="AN42" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AO42" s="10">
-        <v>0</v>
-      </c>
-      <c r="AP42" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AQ42" s="10">
+      <c r="AN43" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AO43" s="10">
+        <v>0</v>
+      </c>
+      <c r="AP43" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AQ43" s="10">
         <v>0.03</v>
       </c>
-      <c r="AR42" s="10">
+      <c r="AR43" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AS42" s="10">
+      <c r="AS43" s="10">
         <v>0.04</v>
       </c>
-      <c r="AT42" s="10">
+      <c r="AT43" s="10">
         <v>0.11</v>
       </c>
-      <c r="AU42" s="10">
+      <c r="AU43" s="10">
         <v>5</v>
       </c>
-      <c r="AV42" s="10">
+      <c r="AV43" s="10">
         <v>0.03</v>
       </c>
-      <c r="AW42" s="10">
+      <c r="AW43" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AX42" s="10">
+      <c r="AX43" s="10">
         <v>0.7</v>
       </c>
-      <c r="AY42" s="10">
-        <v>1</v>
-      </c>
-      <c r="AZ42" s="10">
+      <c r="AY43" s="10">
+        <v>1</v>
+      </c>
+      <c r="AZ43" s="10">
         <v>15</v>
       </c>
-      <c r="BA42" s="10" t="s">
+      <c r="BA43" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="BB42" s="10" t="s">
+      <c r="BB43" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="BC42" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BD42" s="10" t="s">
+      <c r="BC43" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BD43" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="BE42" s="10">
+      <c r="BE43" s="10">
         <v>5</v>
       </c>
-      <c r="BF42" s="10">
+      <c r="BF43" s="10">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="BG42" s="10">
+      <c r="BG43" s="10">
         <v>0.12</v>
       </c>
-      <c r="BH42" s="10">
+      <c r="BH43" s="10">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="BI42" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BJ42" s="10" t="s">
+      <c r="BI43" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BJ43" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="BK42" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BL42" s="10">
+      <c r="BK43" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BL43" s="10">
         <v>0.01</v>
       </c>
-      <c r="BM42" s="10" t="s">
+      <c r="BM43" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="BN42" s="10">
-        <v>1</v>
-      </c>
-      <c r="BO42" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="BP42" s="10" t="b">
+      <c r="BN43" s="10">
+        <v>1</v>
+      </c>
+      <c r="BO43" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="BP43" s="10" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:68" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="44" spans="1:68" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="45" spans="1:68" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="1:68" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B45" xr:uid="{05E01AB2-72EC-4550-ACB8-4E83765DE296}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O36:O41 O23:O34 O20:O21 O3:O18 O43" xr:uid="{8DBFC5CB-438A-4309-B948-24597CAE3D7F}">
+      <formula1>"preSet, ALpct,MApct"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B46" xr:uid="{05E01AB2-72EC-4550-ACB8-4E83765DE296}">
       <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O41:O42 O3:O16 O21:O32 O18:O19 O34:O39" xr:uid="{8DBFC5CB-438A-4309-B948-24597CAE3D7F}">
-      <formula1>"preSet, ALpct,MApct"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6874,7 +7053,7 @@
           <x14:formula1>
             <xm:f>Policies!$B$3:$B$9</xm:f>
           </x14:formula1>
-          <xm:sqref>F39 F41:F42 F3:F37</xm:sqref>
+          <xm:sqref>F41 F3:F39 F43</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -6887,8 +7066,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6927,7 +7106,7 @@
         <v>2000</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2">
         <v>20</v>
@@ -6953,7 +7132,7 @@
   <dimension ref="A2:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/RunControl.xlsx
+++ b/RunControl.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27934D7B-AEBE-4B5F-81AF-493B4E236DA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C79D561C-E603-4387-AC2D-2453CAACEC0C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="5460" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="1845" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="paramlist" sheetId="1" r:id="rId1"/>
@@ -29,8 +29,26 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={871CA8AD-0B28-4354-853C-4863C8B35539}</author>
+  </authors>
+  <commentList>
+    <comment ref="BD2" authorId="0" shapeId="0" xr:uid="{871CA8AD-0B28-4354-853C-4863C8B35539}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    method2: no asset smoothing</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="156">
   <si>
     <t>runname</t>
   </si>
@@ -492,13 +510,19 @@
   </si>
   <si>
     <t>cola_SDRS_noCAeec</t>
+  </si>
+  <si>
+    <t>method2</t>
+  </si>
+  <si>
+    <t>DA_as</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -513,6 +537,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -605,6 +635,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -868,16 +902,24 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="BD2" dT="2020-09-01T14:59:11.33" personId="{00000000-0000-0000-0000-000000000000}" id="{871CA8AD-0B28-4354-853C-4863C8B35539}">
+    <text>method2: no asset smoothing</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:BP46"/>
+  <dimension ref="A1:BP47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="2" topLeftCell="BB3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A19" sqref="A19"/>
+      <selection pane="bottomRight" activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -916,6 +958,7 @@
     <col min="52" max="52" width="7.7109375" customWidth="1"/>
     <col min="53" max="53" width="13.7109375" customWidth="1"/>
     <col min="54" max="55" width="7.7109375" customWidth="1"/>
+    <col min="56" max="56" width="17.7109375" customWidth="1"/>
     <col min="60" max="64" width="14.28515625" customWidth="1"/>
     <col min="65" max="65" width="16" customWidth="1"/>
     <col min="66" max="66" width="11.7109375" customWidth="1"/>
@@ -1700,11 +1743,11 @@
       </c>
     </row>
     <row r="7" spans="1:68" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="17" t="s">
         <v>99</v>
       </c>
       <c r="B7" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>109</v>
@@ -3510,11 +3553,11 @@
       </c>
     </row>
     <row r="18" spans="1:68" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="17" t="s">
         <v>153</v>
       </c>
       <c r="B18" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>110</v>
@@ -4147,7 +4190,7 @@
         <v>0.02</v>
       </c>
       <c r="BD21" s="10" t="s">
-        <v>19</v>
+        <v>154</v>
       </c>
       <c r="BE21" s="10">
         <v>5</v>
@@ -4186,180 +4229,195 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:68" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:68" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="s">
+    <row r="22" spans="1:68" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="B22" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="D22" s="10">
+        <v>1</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G22" s="10">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H22" s="10">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="I22" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="J22" s="10">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="K22" s="10">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="L22" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="M22" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="O22" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="U22" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="V22" s="10">
+        <v>0</v>
+      </c>
+      <c r="W22" s="10">
+        <v>1</v>
+      </c>
+      <c r="X22" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="Y22" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="AA22" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AB22" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="AD22" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="AE22" s="10">
+        <v>1E-3</v>
+      </c>
+      <c r="AF22" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AG22" s="10">
+        <v>0</v>
+      </c>
+      <c r="AH22" s="10">
+        <v>1</v>
+      </c>
+      <c r="AI22" s="10">
+        <v>1</v>
+      </c>
+      <c r="AM22" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="AN22" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AO22" s="10">
+        <v>0</v>
+      </c>
+      <c r="AP22" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AQ22" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="AR22" s="10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AS22" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="AT22" s="10">
+        <v>0.11</v>
+      </c>
+      <c r="AU22" s="10">
+        <v>1</v>
+      </c>
+      <c r="AV22" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="AW22" s="10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AX22" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="AY22" s="10">
+        <v>1</v>
+      </c>
+      <c r="AZ22" s="10">
+        <v>15</v>
+      </c>
+      <c r="BA22" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="BB22" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="BC22" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BD22" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="BE22" s="10">
+        <v>5</v>
+      </c>
+      <c r="BF22" s="10">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="BG22" s="10">
+        <v>0.12</v>
+      </c>
+      <c r="BH22" s="10">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="BI22" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BJ22" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="BK22" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BL22" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="BM22" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="BN22" s="10">
+        <v>0.75</v>
+      </c>
+      <c r="BO22" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="BP22" s="10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:68" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:68" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="B23" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="C23" s="10" t="s">
+      <c r="B24" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="C24" s="10" t="s">
         <v>112</v>
-      </c>
-      <c r="D23" s="10">
-        <v>1</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="F23" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="G23" s="10">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="L23" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="O23" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="U23" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="V23" s="10">
-        <v>0</v>
-      </c>
-      <c r="W23" s="10">
-        <v>1</v>
-      </c>
-      <c r="X23" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="Y23" s="10">
-        <v>0</v>
-      </c>
-      <c r="Z23" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="AA23" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AB23" s="10">
-        <v>0</v>
-      </c>
-      <c r="AC23" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="AD23" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="AE23" s="10">
-        <v>1E-3</v>
-      </c>
-      <c r="AF23" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AG23" s="10">
-        <v>0</v>
-      </c>
-      <c r="AH23" s="10">
-        <v>1</v>
-      </c>
-      <c r="AI23" s="10">
-        <v>1</v>
-      </c>
-      <c r="AM23" s="10">
-        <v>0.05</v>
-      </c>
-      <c r="AN23" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AO23" s="10">
-        <v>0</v>
-      </c>
-      <c r="AP23" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AQ23" s="10">
-        <v>0.03</v>
-      </c>
-      <c r="AR23" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AS23" s="10">
-        <v>0.04</v>
-      </c>
-      <c r="AT23" s="10">
-        <v>0.11</v>
-      </c>
-      <c r="AU23" s="10">
-        <v>1</v>
-      </c>
-      <c r="AV23" s="10">
-        <v>0.03</v>
-      </c>
-      <c r="AW23" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AX23" s="10">
-        <v>0.7</v>
-      </c>
-      <c r="AY23" s="10">
-        <v>1</v>
-      </c>
-      <c r="AZ23" s="10">
-        <v>15</v>
-      </c>
-      <c r="BA23" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="BB23" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="BC23" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BD23" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="BE23" s="10">
-        <v>5</v>
-      </c>
-      <c r="BF23" s="10">
-        <v>8.2199999999999995E-2</v>
-      </c>
-      <c r="BG23" s="10">
-        <v>0.12</v>
-      </c>
-      <c r="BH23" s="10">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="BI23" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BJ23" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="BK23" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BL23" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="BM23" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="BN23" s="10">
-        <v>1</v>
-      </c>
-      <c r="BO23" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="BP23" s="10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:68" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="B24" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>109</v>
       </c>
       <c r="D24" s="10">
         <v>1</v>
@@ -4368,7 +4426,7 @@
         <v>50</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="G24" s="10">
         <v>1.4999999999999999E-2</v>
@@ -4431,7 +4489,7 @@
         <v>0.5</v>
       </c>
       <c r="AO24" s="10">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="AP24" s="10">
         <v>0.5</v>
@@ -4516,8 +4574,8 @@
       </c>
     </row>
     <row r="25" spans="1:68" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="10" t="s">
-        <v>121</v>
+      <c r="A25" s="17" t="s">
+        <v>120</v>
       </c>
       <c r="B25" s="10" t="b">
         <v>0</v>
@@ -4532,7 +4590,7 @@
         <v>50</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G25" s="10">
         <v>1.4999999999999999E-2</v>
@@ -4595,7 +4653,7 @@
         <v>0.5</v>
       </c>
       <c r="AO25" s="10">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="AP25" s="10">
         <v>0.5</v>
@@ -4681,7 +4739,7 @@
     </row>
     <row r="26" spans="1:68" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="B26" s="10" t="b">
         <v>0</v>
@@ -4713,8 +4771,8 @@
       <c r="V26" s="10">
         <v>0</v>
       </c>
-      <c r="W26" s="14">
-        <v>5</v>
+      <c r="W26" s="10">
+        <v>1</v>
       </c>
       <c r="X26" s="10">
         <v>0.02</v>
@@ -4777,7 +4835,7 @@
         <v>0.11</v>
       </c>
       <c r="AU26" s="10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AV26" s="10">
         <v>0.03</v>
@@ -4845,7 +4903,7 @@
     </row>
     <row r="27" spans="1:68" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="B27" s="10" t="b">
         <v>0</v>
@@ -4860,7 +4918,7 @@
         <v>50</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G27" s="10">
         <v>1.4999999999999999E-2</v>
@@ -4877,8 +4935,8 @@
       <c r="V27" s="10">
         <v>0</v>
       </c>
-      <c r="W27" s="10">
-        <v>1</v>
+      <c r="W27" s="14">
+        <v>5</v>
       </c>
       <c r="X27" s="10">
         <v>0.02</v>
@@ -4941,7 +4999,7 @@
         <v>0.11</v>
       </c>
       <c r="AU27" s="10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AV27" s="10">
         <v>0.03</v>
@@ -5009,22 +5067,22 @@
     </row>
     <row r="28" spans="1:68" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B28" s="10" t="b">
         <v>0</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D28" s="10">
         <v>1</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="G28" s="10">
         <v>1.4999999999999999E-2</v>
@@ -5173,7 +5231,7 @@
     </row>
     <row r="29" spans="1:68" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="B29" s="10" t="b">
         <v>0</v>
@@ -5205,8 +5263,8 @@
       <c r="V29" s="10">
         <v>0</v>
       </c>
-      <c r="W29" s="14">
-        <v>5</v>
+      <c r="W29" s="10">
+        <v>1</v>
       </c>
       <c r="X29" s="10">
         <v>0.02</v>
@@ -5269,7 +5327,7 @@
         <v>0.11</v>
       </c>
       <c r="AU29" s="10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AV29" s="10">
         <v>0.03</v>
@@ -5337,7 +5395,7 @@
     </row>
     <row r="30" spans="1:68" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B30" s="10" t="b">
         <v>0</v>
@@ -5364,10 +5422,10 @@
         <v>76</v>
       </c>
       <c r="U30" s="10">
-        <v>2.5000000000000001E-2</v>
+        <v>0.02</v>
       </c>
       <c r="V30" s="10">
-        <v>5.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="W30" s="14">
         <v>5</v>
@@ -5499,9 +5557,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:68" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:68" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="B31" s="10" t="b">
         <v>0</v>
@@ -5513,7 +5571,7 @@
         <v>1</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F31" s="10" t="s">
         <v>63</v>
@@ -5528,13 +5586,13 @@
         <v>76</v>
       </c>
       <c r="U31" s="10">
-        <v>0.02</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="V31" s="10">
-        <v>0</v>
-      </c>
-      <c r="W31" s="10">
-        <v>1</v>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="W31" s="14">
+        <v>5</v>
       </c>
       <c r="X31" s="10">
         <v>0.02</v>
@@ -5597,7 +5655,7 @@
         <v>0.11</v>
       </c>
       <c r="AU31" s="10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AV31" s="10">
         <v>0.03</v>
@@ -5665,7 +5723,7 @@
     </row>
     <row r="32" spans="1:68" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="B32" s="10" t="b">
         <v>0</v>
@@ -5701,13 +5759,13 @@
         <v>1</v>
       </c>
       <c r="X32" s="10">
-        <v>2.5000000000000001E-2</v>
+        <v>0.02</v>
       </c>
       <c r="Y32" s="10">
-        <v>5.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="Z32" s="10">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AA32" s="10">
         <v>0.02</v>
@@ -5827,9 +5885,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:68" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:68" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="B33" s="10" t="b">
         <v>0</v>
@@ -5841,7 +5899,7 @@
         <v>1</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F33" s="10" t="s">
         <v>63</v>
@@ -5865,13 +5923,13 @@
         <v>1</v>
       </c>
       <c r="X33" s="10">
-        <v>0.02</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="Y33" s="10">
-        <v>0</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="Z33" s="10">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AA33" s="10">
         <v>0.02</v>
@@ -5992,8 +6050,8 @@
       </c>
     </row>
     <row r="34" spans="1:68" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="17" t="s">
-        <v>126</v>
+      <c r="A34" s="10" t="s">
+        <v>125</v>
       </c>
       <c r="B34" s="10" t="b">
         <v>0</v>
@@ -6005,7 +6063,7 @@
         <v>1</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F34" s="10" t="s">
         <v>63</v>
@@ -6053,7 +6111,7 @@
         <v>1E-3</v>
       </c>
       <c r="AF34" s="10">
-        <v>2.5000000000000001E-2</v>
+        <v>0.02</v>
       </c>
       <c r="AG34" s="10">
         <v>0</v>
@@ -6062,13 +6120,7 @@
         <v>1</v>
       </c>
       <c r="AI34" s="10">
-        <v>2</v>
-      </c>
-      <c r="AJ34" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AK34" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AM34" s="10">
         <v>0.05</v>
@@ -6162,20 +6214,20 @@
       </c>
     </row>
     <row r="35" spans="1:68" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="10" t="s">
-        <v>127</v>
+      <c r="A35" s="17" t="s">
+        <v>126</v>
       </c>
       <c r="B35" s="10" t="b">
         <v>0</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D35" s="10">
         <v>1</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="F35" s="10" t="s">
         <v>63</v>
@@ -6184,10 +6236,10 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="L35" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="M35" s="10" t="s">
-        <v>118</v>
+        <v>134</v>
+      </c>
+      <c r="O35" s="10" t="s">
+        <v>76</v>
       </c>
       <c r="U35" s="10">
         <v>0.02</v>
@@ -6223,7 +6275,7 @@
         <v>1E-3</v>
       </c>
       <c r="AF35" s="10">
-        <v>0.02</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="AG35" s="10">
         <v>0</v>
@@ -6232,10 +6284,16 @@
         <v>1</v>
       </c>
       <c r="AI35" s="10">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="AJ35" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AK35" s="10">
+        <v>0.5</v>
       </c>
       <c r="AM35" s="10">
-        <v>2.5000000000000001E-2</v>
+        <v>0.05</v>
       </c>
       <c r="AN35" s="10">
         <v>0.5</v>
@@ -6327,40 +6385,40 @@
     </row>
     <row r="36" spans="1:68" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="B36" s="10" t="b">
         <v>0</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>144</v>
+        <v>111</v>
       </c>
       <c r="D36" s="10">
         <v>1</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="G36" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="L36" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="O36" s="10" t="s">
-        <v>76</v>
+        <v>112</v>
+      </c>
+      <c r="M36" s="10" t="s">
+        <v>118</v>
       </c>
       <c r="U36" s="10">
-        <v>2.5000000000000001E-2</v>
+        <v>0.02</v>
       </c>
       <c r="V36" s="10">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="W36" s="14">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="W36" s="10">
+        <v>1</v>
       </c>
       <c r="X36" s="10">
         <v>0.02</v>
@@ -6399,13 +6457,13 @@
         <v>1</v>
       </c>
       <c r="AM36" s="10">
-        <v>0.05</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="AN36" s="10">
         <v>0.5</v>
       </c>
       <c r="AO36" s="10">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="AP36" s="10">
         <v>0.5</v>
@@ -6423,7 +6481,7 @@
         <v>0.11</v>
       </c>
       <c r="AU36" s="10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AV36" s="10">
         <v>0.03</v>
@@ -6491,38 +6549,26 @@
     </row>
     <row r="37" spans="1:68" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="B37" s="10" t="b">
         <v>0</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D37" s="10">
         <v>1</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="G37" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="H37" s="10">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="I37" s="10">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="J37" s="10">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="K37" s="10">
-        <v>7.4999999999999997E-2</v>
-      </c>
       <c r="L37" s="10" t="s">
         <v>134</v>
       </c>
@@ -6530,13 +6576,13 @@
         <v>76</v>
       </c>
       <c r="U37" s="10">
-        <v>0.02</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="V37" s="10">
-        <v>0</v>
-      </c>
-      <c r="W37" s="10">
-        <v>1</v>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="W37" s="14">
+        <v>5</v>
       </c>
       <c r="X37" s="10">
         <v>0.02</v>
@@ -6581,7 +6627,7 @@
         <v>0.5</v>
       </c>
       <c r="AO37" s="10">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="AP37" s="10">
         <v>0.5</v>
@@ -6599,7 +6645,7 @@
         <v>0.11</v>
       </c>
       <c r="AU37" s="10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AV37" s="10">
         <v>0.03</v>
@@ -6665,39 +6711,192 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:68" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="1:68" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="B39" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="O39" s="10" t="s">
+    <row r="38" spans="1:68" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="B38" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="D38" s="10">
+        <v>1</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F38" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G38" s="10">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H38" s="10">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="I38" s="10">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="J38" s="10">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="K38" s="10">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="L38" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="O38" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="P39" s="10">
-        <v>1</v>
-      </c>
-      <c r="Q39" s="10">
-        <v>1</v>
-      </c>
-      <c r="R39" s="10">
-        <v>1</v>
-      </c>
-      <c r="S39" s="10">
+      <c r="U38" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="V38" s="10">
+        <v>0</v>
+      </c>
+      <c r="W38" s="10">
+        <v>1</v>
+      </c>
+      <c r="X38" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="Y38" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z38" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="AA38" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AB38" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC38" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="AD38" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="AE38" s="10">
+        <v>1E-3</v>
+      </c>
+      <c r="AF38" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AG38" s="10">
+        <v>0</v>
+      </c>
+      <c r="AH38" s="10">
+        <v>1</v>
+      </c>
+      <c r="AI38" s="10">
+        <v>1</v>
+      </c>
+      <c r="AM38" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="AN38" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AO38" s="10">
+        <v>0</v>
+      </c>
+      <c r="AP38" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AQ38" s="10">
         <v>0.03</v>
       </c>
-      <c r="T39" s="10">
+      <c r="AR38" s="10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AS38" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="AT38" s="10">
+        <v>0.11</v>
+      </c>
+      <c r="AU38" s="10">
+        <v>1</v>
+      </c>
+      <c r="AV38" s="10">
         <v>0.03</v>
       </c>
+      <c r="AW38" s="10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AX38" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="AY38" s="10">
+        <v>1</v>
+      </c>
+      <c r="AZ38" s="10">
+        <v>15</v>
+      </c>
+      <c r="BA38" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="BB38" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="BC38" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BD38" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="BE38" s="10">
+        <v>5</v>
+      </c>
+      <c r="BF38" s="10">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="BG38" s="10">
+        <v>0.12</v>
+      </c>
+      <c r="BH38" s="10">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="BI38" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BJ38" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="BK38" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BL38" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="BM38" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="BN38" s="10">
+        <v>1</v>
+      </c>
+      <c r="BO38" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="BP38" s="10" t="b">
+        <v>1</v>
+      </c>
     </row>
+    <row r="39" spans="1:68" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="40" spans="1:68" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
-        <v>106</v>
+        <v>108</v>
+      </c>
+      <c r="B40" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>111</v>
       </c>
       <c r="O40" s="10" t="s">
         <v>76</v>
@@ -6712,340 +6911,364 @@
         <v>1</v>
       </c>
       <c r="S40" s="10">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="T40" s="10">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="41" spans="1:68" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="B41" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="D41" s="10">
-        <v>1</v>
-      </c>
-      <c r="E41" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="F41" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="G41" s="10">
-        <v>1.4999999999999999E-2</v>
+        <v>106</v>
       </c>
       <c r="O41" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="U41" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="V41" s="10">
-        <v>0</v>
-      </c>
-      <c r="X41" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="Y41" s="10">
-        <v>0</v>
-      </c>
-      <c r="Z41" s="10">
+      <c r="P41" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q41" s="10">
+        <v>1</v>
+      </c>
+      <c r="R41" s="10">
+        <v>1</v>
+      </c>
+      <c r="S41" s="10">
+        <v>0.06</v>
+      </c>
+      <c r="T41" s="10">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="42" spans="1:68" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B42" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="D42" s="10">
+        <v>1</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F42" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="G42" s="10">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="O42" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="U42" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="V42" s="10">
+        <v>0</v>
+      </c>
+      <c r="X42" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="Y42" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="10">
         <v>0.9</v>
       </c>
-      <c r="AA41" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AB41" s="10">
-        <v>0</v>
-      </c>
-      <c r="AC41" s="10">
+      <c r="AA42" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AB42" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC42" s="10">
         <v>0.9</v>
       </c>
-      <c r="AD41" s="10">
+      <c r="AD42" s="10">
         <v>0.01</v>
       </c>
-      <c r="AE41" s="10">
+      <c r="AE42" s="10">
         <v>1E-3</v>
       </c>
-      <c r="AF41" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AG41" s="10">
-        <v>0</v>
-      </c>
-      <c r="AH41" s="10">
-        <v>1</v>
-      </c>
-      <c r="AI41" s="10">
-        <v>1</v>
-      </c>
-      <c r="AM41" s="10">
+      <c r="AF42" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AG42" s="10">
+        <v>0</v>
+      </c>
+      <c r="AH42" s="10">
+        <v>1</v>
+      </c>
+      <c r="AI42" s="10">
+        <v>1</v>
+      </c>
+      <c r="AM42" s="10">
         <v>0.05</v>
       </c>
-      <c r="AN41" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AO41" s="10">
-        <v>0</v>
-      </c>
-      <c r="AP41" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AQ41" s="10">
+      <c r="AN42" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AO42" s="10">
+        <v>0</v>
+      </c>
+      <c r="AP42" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AQ42" s="10">
         <v>0.03</v>
       </c>
-      <c r="AR41" s="10">
+      <c r="AR42" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AS41" s="10">
+      <c r="AS42" s="10">
         <v>0.04</v>
       </c>
-      <c r="AT41" s="10">
+      <c r="AT42" s="10">
         <v>0.11</v>
       </c>
-      <c r="AV41" s="10">
+      <c r="AV42" s="10">
         <v>0.03</v>
       </c>
-      <c r="AW41" s="10">
+      <c r="AW42" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AX41" s="10">
+      <c r="AX42" s="10">
         <v>0.7</v>
       </c>
-      <c r="AY41" s="10">
-        <v>1</v>
-      </c>
-      <c r="AZ41" s="10">
+      <c r="AY42" s="10">
+        <v>1</v>
+      </c>
+      <c r="AZ42" s="10">
         <v>15</v>
       </c>
-      <c r="BA41" s="10" t="s">
+      <c r="BA42" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="BB41" s="10" t="s">
+      <c r="BB42" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="BC41" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BD41" s="10" t="s">
+      <c r="BC42" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BD42" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="BE41" s="10">
+      <c r="BE42" s="10">
         <v>5</v>
       </c>
-      <c r="BF41" s="10">
+      <c r="BF42" s="10">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="BG41" s="10">
+      <c r="BG42" s="10">
         <v>0.12</v>
       </c>
-      <c r="BH41" s="10">
+      <c r="BH42" s="10">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="BI41" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BJ41" s="10" t="s">
+      <c r="BI42" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BJ42" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="BK41" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BL41" s="10">
+      <c r="BK42" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BL42" s="10">
         <v>0.01</v>
       </c>
-      <c r="BM41" s="10" t="s">
+      <c r="BM42" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="BN41" s="10">
+      <c r="BN42" s="10">
         <v>0.75</v>
       </c>
-      <c r="BO41" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="BP41" s="10" t="b">
+      <c r="BO42" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="BP42" s="10" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:68" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="1:68" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="14" t="s">
+    <row r="43" spans="1:68" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="1:68" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="B43" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="C43" s="10" t="s">
+      <c r="B44" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="C44" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="D43" s="10">
-        <v>1</v>
-      </c>
-      <c r="E43" s="10" t="s">
+      <c r="D44" s="10">
+        <v>1</v>
+      </c>
+      <c r="E44" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="F43" s="10" t="s">
+      <c r="F44" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="G43" s="10">
+      <c r="G44" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="O43" s="10" t="s">
+      <c r="O44" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="U43" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="V43" s="10">
-        <v>0</v>
-      </c>
-      <c r="X43" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="Y43" s="10">
-        <v>0</v>
-      </c>
-      <c r="Z43" s="10">
+      <c r="U44" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="V44" s="10">
+        <v>0</v>
+      </c>
+      <c r="X44" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="Y44" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="10">
         <v>0.9</v>
       </c>
-      <c r="AA43" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AB43" s="10">
-        <v>0</v>
-      </c>
-      <c r="AC43" s="10">
+      <c r="AA44" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AB44" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC44" s="10">
         <v>0.9</v>
       </c>
-      <c r="AD43" s="10">
+      <c r="AD44" s="10">
         <v>0.01</v>
       </c>
-      <c r="AE43" s="10">
+      <c r="AE44" s="10">
         <v>1E-3</v>
       </c>
-      <c r="AF43" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AG43" s="10">
-        <v>0</v>
-      </c>
-      <c r="AH43" s="10">
-        <v>1</v>
-      </c>
-      <c r="AI43" s="10">
-        <v>1</v>
-      </c>
-      <c r="AM43" s="10">
+      <c r="AF44" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AG44" s="10">
+        <v>0</v>
+      </c>
+      <c r="AH44" s="10">
+        <v>1</v>
+      </c>
+      <c r="AI44" s="10">
+        <v>1</v>
+      </c>
+      <c r="AM44" s="10">
         <v>0.05</v>
       </c>
-      <c r="AN43" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AO43" s="10">
-        <v>0</v>
-      </c>
-      <c r="AP43" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AQ43" s="10">
+      <c r="AN44" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AO44" s="10">
+        <v>0</v>
+      </c>
+      <c r="AP44" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AQ44" s="10">
         <v>0.03</v>
       </c>
-      <c r="AR43" s="10">
+      <c r="AR44" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AS43" s="10">
+      <c r="AS44" s="10">
         <v>0.04</v>
       </c>
-      <c r="AT43" s="10">
+      <c r="AT44" s="10">
         <v>0.11</v>
       </c>
-      <c r="AU43" s="10">
+      <c r="AU44" s="10">
         <v>5</v>
       </c>
-      <c r="AV43" s="10">
+      <c r="AV44" s="10">
         <v>0.03</v>
       </c>
-      <c r="AW43" s="10">
+      <c r="AW44" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AX43" s="10">
+      <c r="AX44" s="10">
         <v>0.7</v>
       </c>
-      <c r="AY43" s="10">
-        <v>1</v>
-      </c>
-      <c r="AZ43" s="10">
+      <c r="AY44" s="10">
+        <v>1</v>
+      </c>
+      <c r="AZ44" s="10">
         <v>15</v>
       </c>
-      <c r="BA43" s="10" t="s">
+      <c r="BA44" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="BB43" s="10" t="s">
+      <c r="BB44" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="BC43" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BD43" s="10" t="s">
+      <c r="BC44" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BD44" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="BE43" s="10">
+      <c r="BE44" s="10">
         <v>5</v>
       </c>
-      <c r="BF43" s="10">
+      <c r="BF44" s="10">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="BG43" s="10">
+      <c r="BG44" s="10">
         <v>0.12</v>
       </c>
-      <c r="BH43" s="10">
+      <c r="BH44" s="10">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="BI43" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BJ43" s="10" t="s">
+      <c r="BI44" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BJ44" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="BK43" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BL43" s="10">
+      <c r="BK44" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BL44" s="10">
         <v>0.01</v>
       </c>
-      <c r="BM43" s="10" t="s">
+      <c r="BM44" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="BN43" s="10">
-        <v>1</v>
-      </c>
-      <c r="BO43" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="BP43" s="10" t="b">
+      <c r="BN44" s="10">
+        <v>1</v>
+      </c>
+      <c r="BO44" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="BP44" s="10" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:68" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="45" spans="1:68" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="46" spans="1:68" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:68" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O36:O41 O23:O34 O20:O21 O3:O18 O43" xr:uid="{8DBFC5CB-438A-4309-B948-24597CAE3D7F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O37:O42 O20:O35 O3:O18 O44" xr:uid="{8DBFC5CB-438A-4309-B948-24597CAE3D7F}">
       <formula1>"preSet, ALpct,MApct"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B46" xr:uid="{05E01AB2-72EC-4550-ACB8-4E83765DE296}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B47" xr:uid="{05E01AB2-72EC-4550-ACB8-4E83765DE296}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
@@ -7053,7 +7276,7 @@
           <x14:formula1>
             <xm:f>Policies!$B$3:$B$9</xm:f>
           </x14:formula1>
-          <xm:sqref>F41 F3:F39 F43</xm:sqref>
+          <xm:sqref>F42 F44 F3:F40</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/RunControl.xlsx
+++ b/RunControl.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C79D561C-E603-4387-AC2D-2453CAACEC0C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EA671A2-8E43-4512-AD1F-98B3E2FB7203}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1845" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="18240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="paramlist" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="157">
   <si>
     <t>runname</t>
   </si>
@@ -516,6 +516,9 @@
   </si>
   <si>
     <t>DA_as</t>
+  </si>
+  <si>
+    <t>DA_as_FR100</t>
   </si>
 </sst>
 </file>
@@ -539,10 +542,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -601,7 +606,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -620,6 +625,7 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -635,10 +641,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -913,13 +915,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:BP47"/>
+  <dimension ref="A1:BP48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="2" topLeftCell="BB3" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="6" ySplit="2" topLeftCell="AX3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A21" sqref="A21"/>
+      <selection pane="bottomRight" activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4051,7 +4053,7 @@
       </c>
     </row>
     <row r="21" spans="1:68" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="18" t="s">
         <v>146</v>
       </c>
       <c r="B21" s="10" t="b">
@@ -6712,7 +6714,7 @@
       </c>
     </row>
     <row r="38" spans="1:68" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="10" t="s">
+      <c r="A38" s="18" t="s">
         <v>152</v>
       </c>
       <c r="B38" s="10" t="b">
@@ -6746,7 +6748,10 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="L38" s="10" t="s">
-        <v>134</v>
+        <v>112</v>
+      </c>
+      <c r="M38" s="10" t="s">
+        <v>118</v>
       </c>
       <c r="O38" s="10" t="s">
         <v>76</v>
@@ -6848,7 +6853,7 @@
         <v>0.02</v>
       </c>
       <c r="BD38" s="10" t="s">
-        <v>19</v>
+        <v>154</v>
       </c>
       <c r="BE38" s="10">
         <v>5</v>
@@ -6887,39 +6892,195 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:68" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="40" spans="1:68" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="B40" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="O40" s="10" t="s">
+    <row r="39" spans="1:68" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="B39" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="D39" s="10">
+        <v>1</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F39" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G39" s="10">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H39" s="10">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="I39" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="J39" s="10">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="K39" s="10">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="L39" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="M39" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="O39" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="P40" s="10">
-        <v>1</v>
-      </c>
-      <c r="Q40" s="10">
-        <v>1</v>
-      </c>
-      <c r="R40" s="10">
-        <v>1</v>
-      </c>
-      <c r="S40" s="10">
+      <c r="U39" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="V39" s="10">
+        <v>0</v>
+      </c>
+      <c r="W39" s="10">
+        <v>1</v>
+      </c>
+      <c r="X39" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="Y39" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z39" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="AA39" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AB39" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC39" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="AD39" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="AE39" s="10">
+        <v>1E-3</v>
+      </c>
+      <c r="AF39" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AG39" s="10">
+        <v>0</v>
+      </c>
+      <c r="AH39" s="10">
+        <v>1</v>
+      </c>
+      <c r="AI39" s="10">
+        <v>1</v>
+      </c>
+      <c r="AM39" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="AN39" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AO39" s="10">
+        <v>0</v>
+      </c>
+      <c r="AP39" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AQ39" s="10">
         <v>0.03</v>
       </c>
-      <c r="T40" s="10">
+      <c r="AR39" s="10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AS39" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="AT39" s="10">
+        <v>0.11</v>
+      </c>
+      <c r="AU39" s="10">
+        <v>1</v>
+      </c>
+      <c r="AV39" s="10">
         <v>0.03</v>
       </c>
+      <c r="AW39" s="10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AX39" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="AY39" s="10">
+        <v>1</v>
+      </c>
+      <c r="AZ39" s="10">
+        <v>15</v>
+      </c>
+      <c r="BA39" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="BB39" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="BC39" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BD39" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="BE39" s="10">
+        <v>5</v>
+      </c>
+      <c r="BF39" s="10">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="BG39" s="10">
+        <v>0.12</v>
+      </c>
+      <c r="BH39" s="10">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="BI39" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BJ39" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="BK39" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BL39" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="BM39" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="BN39" s="10">
+        <v>1</v>
+      </c>
+      <c r="BO39" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="BP39" s="10" t="b">
+        <v>1</v>
+      </c>
     </row>
+    <row r="40" spans="1:68" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="41" spans="1:68" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
-        <v>106</v>
+        <v>108</v>
+      </c>
+      <c r="B41" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>111</v>
       </c>
       <c r="O41" s="10" t="s">
         <v>76</v>
@@ -6934,335 +7095,358 @@
         <v>1</v>
       </c>
       <c r="S41" s="10">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="T41" s="10">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="42" spans="1:68" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="B42" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="D42" s="10">
-        <v>1</v>
-      </c>
-      <c r="E42" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="F42" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="G42" s="10">
-        <v>1.4999999999999999E-2</v>
+        <v>106</v>
       </c>
       <c r="O42" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="U42" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="V42" s="10">
-        <v>0</v>
-      </c>
-      <c r="X42" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="Y42" s="10">
-        <v>0</v>
-      </c>
-      <c r="Z42" s="10">
+      <c r="P42" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q42" s="10">
+        <v>1</v>
+      </c>
+      <c r="R42" s="10">
+        <v>1</v>
+      </c>
+      <c r="S42" s="10">
+        <v>0.06</v>
+      </c>
+      <c r="T42" s="10">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="43" spans="1:68" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B43" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="D43" s="10">
+        <v>1</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F43" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="G43" s="10">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="O43" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="U43" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="V43" s="10">
+        <v>0</v>
+      </c>
+      <c r="X43" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="Y43" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="10">
         <v>0.9</v>
       </c>
-      <c r="AA42" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AB42" s="10">
-        <v>0</v>
-      </c>
-      <c r="AC42" s="10">
+      <c r="AA43" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AB43" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC43" s="10">
         <v>0.9</v>
       </c>
-      <c r="AD42" s="10">
+      <c r="AD43" s="10">
         <v>0.01</v>
       </c>
-      <c r="AE42" s="10">
+      <c r="AE43" s="10">
         <v>1E-3</v>
       </c>
-      <c r="AF42" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AG42" s="10">
-        <v>0</v>
-      </c>
-      <c r="AH42" s="10">
-        <v>1</v>
-      </c>
-      <c r="AI42" s="10">
-        <v>1</v>
-      </c>
-      <c r="AM42" s="10">
+      <c r="AF43" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AG43" s="10">
+        <v>0</v>
+      </c>
+      <c r="AH43" s="10">
+        <v>1</v>
+      </c>
+      <c r="AI43" s="10">
+        <v>1</v>
+      </c>
+      <c r="AM43" s="10">
         <v>0.05</v>
       </c>
-      <c r="AN42" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AO42" s="10">
-        <v>0</v>
-      </c>
-      <c r="AP42" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AQ42" s="10">
+      <c r="AN43" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AO43" s="10">
+        <v>0</v>
+      </c>
+      <c r="AP43" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AQ43" s="10">
         <v>0.03</v>
       </c>
-      <c r="AR42" s="10">
+      <c r="AR43" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AS42" s="10">
+      <c r="AS43" s="10">
         <v>0.04</v>
       </c>
-      <c r="AT42" s="10">
+      <c r="AT43" s="10">
         <v>0.11</v>
       </c>
-      <c r="AV42" s="10">
+      <c r="AV43" s="10">
         <v>0.03</v>
       </c>
-      <c r="AW42" s="10">
+      <c r="AW43" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AX42" s="10">
+      <c r="AX43" s="10">
         <v>0.7</v>
       </c>
-      <c r="AY42" s="10">
-        <v>1</v>
-      </c>
-      <c r="AZ42" s="10">
+      <c r="AY43" s="10">
+        <v>1</v>
+      </c>
+      <c r="AZ43" s="10">
         <v>15</v>
       </c>
-      <c r="BA42" s="10" t="s">
+      <c r="BA43" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="BB42" s="10" t="s">
+      <c r="BB43" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="BC42" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BD42" s="10" t="s">
+      <c r="BC43" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BD43" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="BE42" s="10">
+      <c r="BE43" s="10">
         <v>5</v>
       </c>
-      <c r="BF42" s="10">
+      <c r="BF43" s="10">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="BG42" s="10">
+      <c r="BG43" s="10">
         <v>0.12</v>
       </c>
-      <c r="BH42" s="10">
+      <c r="BH43" s="10">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="BI42" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BJ42" s="10" t="s">
+      <c r="BI43" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BJ43" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="BK42" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BL42" s="10">
+      <c r="BK43" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BL43" s="10">
         <v>0.01</v>
       </c>
-      <c r="BM42" s="10" t="s">
+      <c r="BM43" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="BN42" s="10">
+      <c r="BN43" s="10">
         <v>0.75</v>
       </c>
-      <c r="BO42" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="BP42" s="10" t="b">
+      <c r="BO43" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="BP43" s="10" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:68" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="1:68" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="14" t="s">
+    <row r="44" spans="1:68" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="1:68" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="B44" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="C44" s="10" t="s">
+      <c r="B45" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="C45" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="D44" s="10">
-        <v>1</v>
-      </c>
-      <c r="E44" s="10" t="s">
+      <c r="D45" s="10">
+        <v>1</v>
+      </c>
+      <c r="E45" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="F44" s="10" t="s">
+      <c r="F45" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="G44" s="10">
+      <c r="G45" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="O44" s="10" t="s">
+      <c r="O45" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="U44" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="V44" s="10">
-        <v>0</v>
-      </c>
-      <c r="X44" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="Y44" s="10">
-        <v>0</v>
-      </c>
-      <c r="Z44" s="10">
+      <c r="U45" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="V45" s="10">
+        <v>0</v>
+      </c>
+      <c r="X45" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="Y45" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="10">
         <v>0.9</v>
       </c>
-      <c r="AA44" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AB44" s="10">
-        <v>0</v>
-      </c>
-      <c r="AC44" s="10">
+      <c r="AA45" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AB45" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC45" s="10">
         <v>0.9</v>
       </c>
-      <c r="AD44" s="10">
+      <c r="AD45" s="10">
         <v>0.01</v>
       </c>
-      <c r="AE44" s="10">
+      <c r="AE45" s="10">
         <v>1E-3</v>
       </c>
-      <c r="AF44" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AG44" s="10">
-        <v>0</v>
-      </c>
-      <c r="AH44" s="10">
-        <v>1</v>
-      </c>
-      <c r="AI44" s="10">
-        <v>1</v>
-      </c>
-      <c r="AM44" s="10">
+      <c r="AF45" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AG45" s="10">
+        <v>0</v>
+      </c>
+      <c r="AH45" s="10">
+        <v>1</v>
+      </c>
+      <c r="AI45" s="10">
+        <v>1</v>
+      </c>
+      <c r="AM45" s="10">
         <v>0.05</v>
       </c>
-      <c r="AN44" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AO44" s="10">
-        <v>0</v>
-      </c>
-      <c r="AP44" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AQ44" s="10">
+      <c r="AN45" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AO45" s="10">
+        <v>0</v>
+      </c>
+      <c r="AP45" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AQ45" s="10">
         <v>0.03</v>
       </c>
-      <c r="AR44" s="10">
+      <c r="AR45" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AS44" s="10">
+      <c r="AS45" s="10">
         <v>0.04</v>
       </c>
-      <c r="AT44" s="10">
+      <c r="AT45" s="10">
         <v>0.11</v>
       </c>
-      <c r="AU44" s="10">
+      <c r="AU45" s="10">
         <v>5</v>
       </c>
-      <c r="AV44" s="10">
+      <c r="AV45" s="10">
         <v>0.03</v>
       </c>
-      <c r="AW44" s="10">
+      <c r="AW45" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AX44" s="10">
+      <c r="AX45" s="10">
         <v>0.7</v>
       </c>
-      <c r="AY44" s="10">
-        <v>1</v>
-      </c>
-      <c r="AZ44" s="10">
+      <c r="AY45" s="10">
+        <v>1</v>
+      </c>
+      <c r="AZ45" s="10">
         <v>15</v>
       </c>
-      <c r="BA44" s="10" t="s">
+      <c r="BA45" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="BB44" s="10" t="s">
+      <c r="BB45" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="BC44" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BD44" s="10" t="s">
+      <c r="BC45" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BD45" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="BE44" s="10">
+      <c r="BE45" s="10">
         <v>5</v>
       </c>
-      <c r="BF44" s="10">
+      <c r="BF45" s="10">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="BG44" s="10">
+      <c r="BG45" s="10">
         <v>0.12</v>
       </c>
-      <c r="BH44" s="10">
+      <c r="BH45" s="10">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="BI44" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BJ44" s="10" t="s">
+      <c r="BI45" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BJ45" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="BK44" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BL44" s="10">
+      <c r="BK45" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BL45" s="10">
         <v>0.01</v>
       </c>
-      <c r="BM44" s="10" t="s">
+      <c r="BM45" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="BN44" s="10">
-        <v>1</v>
-      </c>
-      <c r="BO44" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="BP44" s="10" t="b">
+      <c r="BN45" s="10">
+        <v>1</v>
+      </c>
+      <c r="BO45" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="BP45" s="10" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:68" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="46" spans="1:68" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="47" spans="1:68" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="1:68" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O37:O42 O20:O35 O3:O18 O44" xr:uid="{8DBFC5CB-438A-4309-B948-24597CAE3D7F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O45 O20:O35 O3:O18 O37:O43" xr:uid="{8DBFC5CB-438A-4309-B948-24597CAE3D7F}">
       <formula1>"preSet, ALpct,MApct"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B47" xr:uid="{05E01AB2-72EC-4550-ACB8-4E83765DE296}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B48" xr:uid="{05E01AB2-72EC-4550-ACB8-4E83765DE296}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7276,7 +7460,7 @@
           <x14:formula1>
             <xm:f>Policies!$B$3:$B$9</xm:f>
           </x14:formula1>
-          <xm:sqref>F42 F44 F3:F40</xm:sqref>
+          <xm:sqref>F43 F45 F3:F41</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -7289,8 +7473,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7329,7 +7513,7 @@
         <v>2000</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D2">
         <v>20</v>

--- a/RunControl.xlsx
+++ b/RunControl.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EA671A2-8E43-4512-AD1F-98B3E2FB7203}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53A7A80D-E0FC-4588-9E54-AADEE9698C72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="18240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="paramlist" sheetId="1" r:id="rId1"/>
@@ -917,11 +917,11 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BP48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="6" ySplit="2" topLeftCell="AX3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C49" sqref="C49"/>
+      <selection pane="bottomRight" activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4057,7 +4057,7 @@
         <v>146</v>
       </c>
       <c r="B21" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" s="10" t="s">
         <v>146</v>
@@ -4236,7 +4236,7 @@
         <v>155</v>
       </c>
       <c r="B22" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22" s="10" t="s">
         <v>146</v>
@@ -6718,7 +6718,7 @@
         <v>152</v>
       </c>
       <c r="B38" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C38" s="10" t="s">
         <v>146</v>
@@ -6897,7 +6897,7 @@
         <v>156</v>
       </c>
       <c r="B39" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C39" s="10" t="s">
         <v>146</v>
@@ -7473,7 +7473,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>

--- a/RunControl.xlsx
+++ b/RunControl.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C191AD3B-9FA0-45A8-AAD3-E9FE5691CED1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53C4F0D8-A445-4605-B3EA-4005075D9318}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="175">
   <si>
     <t>runname</t>
   </si>
@@ -567,6 +567,12 @@
   </si>
   <si>
     <t>DA_as_ret_FR100</t>
+  </si>
+  <si>
+    <t>EEC_FR_t100</t>
+  </si>
+  <si>
+    <t>hybrid_DB_noLegacy</t>
   </si>
 </sst>
 </file>
@@ -978,13 +984,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:BT61"/>
+  <dimension ref="A1:BT63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="2" topLeftCell="G15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C37" sqref="C37"/>
+      <selection pane="bottomRight" activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1003,7 +1009,7 @@
     <col min="23" max="23" width="18" customWidth="1"/>
     <col min="24" max="24" width="16.5703125" customWidth="1"/>
     <col min="25" max="25" width="26.28515625" customWidth="1"/>
-    <col min="26" max="26" width="16.5703125" customWidth="1"/>
+    <col min="26" max="26" width="18.28515625" customWidth="1"/>
     <col min="27" max="29" width="13" customWidth="1"/>
     <col min="30" max="33" width="16.5703125" customWidth="1"/>
     <col min="34" max="34" width="28.85546875" customWidth="1"/>
@@ -2654,23 +2660,23 @@
       </c>
     </row>
     <row r="12" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
-        <v>54</v>
+      <c r="A12" s="17" t="s">
+        <v>173</v>
       </c>
       <c r="B12" s="10" t="b">
         <v>0</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D12" s="10">
         <v>1</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="G12" s="10">
         <v>1.4999999999999999E-2</v>
@@ -2690,9 +2696,6 @@
       <c r="Y12" s="10">
         <v>1</v>
       </c>
-      <c r="Z12" s="10" t="b">
-        <v>0</v>
-      </c>
       <c r="AA12" s="10">
         <v>0.02</v>
       </c>
@@ -2763,10 +2766,10 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="BB12" s="10">
-        <v>0.7</v>
+        <v>0.85</v>
       </c>
       <c r="BC12" s="10">
-        <v>1</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="BD12" s="10">
         <v>15</v>
@@ -2822,7 +2825,7 @@
     </row>
     <row r="13" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>131</v>
+        <v>54</v>
       </c>
       <c r="B13" s="10" t="b">
         <v>0</v>
@@ -2854,8 +2857,8 @@
       <c r="X13" s="10">
         <v>0</v>
       </c>
-      <c r="Y13" s="14">
-        <v>5</v>
+      <c r="Y13" s="10">
+        <v>1</v>
       </c>
       <c r="Z13" s="10" t="b">
         <v>0</v>
@@ -2921,7 +2924,7 @@
         <v>0.11</v>
       </c>
       <c r="AY13" s="10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AZ13" s="10">
         <v>0.03</v>
@@ -2989,7 +2992,7 @@
     </row>
     <row r="14" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B14" s="10" t="b">
         <v>0</v>
@@ -3016,10 +3019,10 @@
         <v>76</v>
       </c>
       <c r="W14" s="10">
-        <v>2.5000000000000001E-2</v>
+        <v>0.02</v>
       </c>
       <c r="X14" s="10">
-        <v>5.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="Y14" s="14">
         <v>5</v>
@@ -3156,7 +3159,7 @@
     </row>
     <row r="15" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
-        <v>159</v>
+        <v>137</v>
       </c>
       <c r="B15" s="10" t="b">
         <v>0</v>
@@ -3191,8 +3194,8 @@
       <c r="Y15" s="14">
         <v>5</v>
       </c>
-      <c r="Z15" s="14" t="b">
-        <v>1</v>
+      <c r="Z15" s="10" t="b">
+        <v>0</v>
       </c>
       <c r="AA15" s="10">
         <v>0.02</v>
@@ -3323,7 +3326,7 @@
     </row>
     <row r="16" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B16" s="10" t="b">
         <v>0</v>
@@ -3356,7 +3359,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="Y16" s="14">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="Z16" s="14" t="b">
         <v>1</v>
@@ -3488,9 +3491,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:72" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
-        <v>55</v>
+        <v>161</v>
       </c>
       <c r="B17" s="10" t="b">
         <v>0</v>
@@ -3502,7 +3505,7 @@
         <v>1</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F17" s="10" t="s">
         <v>63</v>
@@ -3517,16 +3520,16 @@
         <v>76</v>
       </c>
       <c r="W17" s="10">
-        <v>0.02</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="X17" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y17" s="10">
-        <v>1</v>
-      </c>
-      <c r="Z17" s="10" t="b">
-        <v>0</v>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="Y17" s="14">
+        <v>10</v>
+      </c>
+      <c r="Z17" s="14" t="b">
+        <v>1</v>
       </c>
       <c r="AA17" s="10">
         <v>0.02</v>
@@ -3589,7 +3592,7 @@
         <v>0.11</v>
       </c>
       <c r="AY17" s="10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AZ17" s="10">
         <v>0.03</v>
@@ -3657,7 +3660,7 @@
     </row>
     <row r="18" spans="1:72" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
-        <v>138</v>
+        <v>55</v>
       </c>
       <c r="B18" s="10" t="b">
         <v>0</v>
@@ -3696,13 +3699,13 @@
         <v>0</v>
       </c>
       <c r="AA18" s="10">
-        <v>2.5000000000000001E-2</v>
+        <v>0.02</v>
       </c>
       <c r="AB18" s="10">
-        <v>5.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="AC18" s="10">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AD18" s="10">
         <v>0.02</v>
@@ -3822,9 +3825,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:72" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
-        <v>103</v>
+        <v>138</v>
       </c>
       <c r="B19" s="10" t="b">
         <v>0</v>
@@ -3836,7 +3839,7 @@
         <v>1</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F19" s="10" t="s">
         <v>63</v>
@@ -3863,13 +3866,13 @@
         <v>0</v>
       </c>
       <c r="AA19" s="10">
-        <v>0.02</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="AB19" s="10">
-        <v>0</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AC19" s="10">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AD19" s="10">
         <v>0.02</v>
@@ -3990,8 +3993,8 @@
       </c>
     </row>
     <row r="20" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="17" t="s">
-        <v>105</v>
+      <c r="A20" s="10" t="s">
+        <v>103</v>
       </c>
       <c r="B20" s="10" t="b">
         <v>0</v>
@@ -4003,7 +4006,7 @@
         <v>1</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F20" s="10" t="s">
         <v>63</v>
@@ -4054,7 +4057,7 @@
         <v>1E-3</v>
       </c>
       <c r="AI20" s="10">
-        <v>2.5000000000000001E-2</v>
+        <v>0.02</v>
       </c>
       <c r="AJ20" s="10">
         <v>0</v>
@@ -4063,13 +4066,7 @@
         <v>1</v>
       </c>
       <c r="AL20" s="10">
-        <v>2</v>
-      </c>
-      <c r="AM20" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AN20" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AP20" s="10">
         <v>0.05</v>
@@ -4164,7 +4161,7 @@
     </row>
     <row r="21" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
-        <v>151</v>
+        <v>105</v>
       </c>
       <c r="B21" s="10" t="b">
         <v>0</v>
@@ -4242,7 +4239,7 @@
         <v>0.5</v>
       </c>
       <c r="AN21" s="10">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AP21" s="10">
         <v>0.05</v>
@@ -4336,20 +4333,20 @@
       </c>
     </row>
     <row r="22" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
-        <v>107</v>
+      <c r="A22" s="17" t="s">
+        <v>151</v>
       </c>
       <c r="B22" s="10" t="b">
         <v>0</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D22" s="10">
         <v>1</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="F22" s="10" t="s">
         <v>63</v>
@@ -4358,10 +4355,10 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="N22" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="O22" s="10" t="s">
-        <v>112</v>
+        <v>134</v>
+      </c>
+      <c r="Q22" s="10" t="s">
+        <v>76</v>
       </c>
       <c r="W22" s="10">
         <v>0.02</v>
@@ -4371,6 +4368,9 @@
       </c>
       <c r="Y22" s="10">
         <v>1</v>
+      </c>
+      <c r="Z22" s="10" t="b">
+        <v>0</v>
       </c>
       <c r="AA22" s="10">
         <v>0.02</v>
@@ -4397,7 +4397,7 @@
         <v>1E-3</v>
       </c>
       <c r="AI22" s="10">
-        <v>0.02</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="AJ22" s="10">
         <v>0</v>
@@ -4406,10 +4406,16 @@
         <v>1</v>
       </c>
       <c r="AL22" s="10">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="AM22" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AN22" s="10">
+        <v>0</v>
       </c>
       <c r="AP22" s="10">
-        <v>2.5000000000000001E-2</v>
+        <v>0.05</v>
       </c>
       <c r="AQ22" s="10">
         <v>0.5</v>
@@ -4501,42 +4507,41 @@
     </row>
     <row r="23" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
-        <v>143</v>
+        <v>107</v>
       </c>
       <c r="B23" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>144</v>
+        <v>111</v>
       </c>
       <c r="D23" s="10">
         <v>1</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="G23" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="N23" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q23" s="10" t="s">
-        <v>76</v>
+        <v>112</v>
+      </c>
+      <c r="O23" s="10" t="s">
+        <v>112</v>
       </c>
       <c r="W23" s="10">
-        <v>2.5000000000000001E-2</v>
+        <v>0.02</v>
       </c>
       <c r="X23" s="10">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="Y23" s="14">
-        <v>5</v>
-      </c>
-      <c r="Z23" s="14"/>
+        <v>0</v>
+      </c>
+      <c r="Y23" s="10">
+        <v>1</v>
+      </c>
       <c r="AA23" s="10">
         <v>0.02</v>
       </c>
@@ -4574,13 +4579,13 @@
         <v>1</v>
       </c>
       <c r="AP23" s="10">
-        <v>0.05</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="AQ23" s="10">
         <v>0.5</v>
       </c>
       <c r="AR23" s="10">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="10">
         <v>0.5</v>
@@ -4598,7 +4603,7 @@
         <v>0.11</v>
       </c>
       <c r="AY23" s="10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AZ23" s="10">
         <v>0.03</v>
@@ -4665,20 +4670,20 @@
       </c>
     </row>
     <row r="24" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="18" t="s">
-        <v>146</v>
+      <c r="A24" s="17" t="s">
+        <v>174</v>
       </c>
       <c r="B24" s="10" t="b">
         <v>0</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="D24" s="10">
         <v>1</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F24" s="10" t="s">
         <v>63</v>
@@ -4686,32 +4691,8 @@
       <c r="G24" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="H24" s="10">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="I24" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="J24" s="10">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="K24" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="L24" s="10">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="M24" s="10">
-        <v>7.4999999999999997E-2</v>
-      </c>
       <c r="N24" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="O24" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q24" s="10" t="s">
-        <v>76</v>
+        <v>134</v>
       </c>
       <c r="W24" s="10">
         <v>0.02</v>
@@ -4759,7 +4740,7 @@
         <v>1</v>
       </c>
       <c r="AP24" s="10">
-        <v>0.05</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="AQ24" s="10">
         <v>0.5</v>
@@ -4810,7 +4791,7 @@
         <v>0.02</v>
       </c>
       <c r="BH24" s="10" t="s">
-        <v>152</v>
+        <v>19</v>
       </c>
       <c r="BI24" s="10">
         <v>5</v>
@@ -4850,8 +4831,8 @@
       </c>
     </row>
     <row r="25" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="10" t="s">
-        <v>153</v>
+      <c r="A25" s="18" t="s">
+        <v>146</v>
       </c>
       <c r="B25" s="10" t="b">
         <v>0</v>
@@ -4890,7 +4871,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="N25" s="10" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="O25" s="10" t="s">
         <v>112</v>
@@ -4995,7 +4976,7 @@
         <v>0.02</v>
       </c>
       <c r="BH25" s="10" t="s">
-        <v>19</v>
+        <v>152</v>
       </c>
       <c r="BI25" s="10">
         <v>5</v>
@@ -5036,10 +5017,10 @@
     </row>
     <row r="26" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="B26" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26" s="10" t="s">
         <v>146</v>
@@ -5063,19 +5044,19 @@
         <v>0.02</v>
       </c>
       <c r="J26" s="10">
-        <v>0.02</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="K26" s="10">
         <v>0.02</v>
       </c>
       <c r="L26" s="10">
-        <v>0.02</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="M26" s="10">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="N26" s="10" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="O26" s="10" t="s">
         <v>112</v>
@@ -5220,11 +5201,11 @@
       </c>
     </row>
     <row r="27" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="10" t="s">
-        <v>168</v>
+      <c r="A27" s="14" t="s">
+        <v>167</v>
       </c>
       <c r="B27" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27" s="10" t="s">
         <v>146</v>
@@ -5248,7 +5229,7 @@
         <v>0.02</v>
       </c>
       <c r="J27" s="10">
-        <v>5.0000000000000001E-3</v>
+        <v>0.02</v>
       </c>
       <c r="K27" s="10">
         <v>0.02</v>
@@ -5260,7 +5241,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="N27" s="10" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="O27" s="10" t="s">
         <v>112</v>
@@ -5405,11 +5386,11 @@
       </c>
     </row>
     <row r="28" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="10" t="s">
-        <v>169</v>
+      <c r="A28" s="14" t="s">
+        <v>168</v>
       </c>
       <c r="B28" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28" s="10" t="s">
         <v>146</v>
@@ -5433,19 +5414,19 @@
         <v>0.02</v>
       </c>
       <c r="J28" s="10">
-        <v>0.02</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="K28" s="10">
         <v>0.02</v>
       </c>
       <c r="L28" s="10">
-        <v>5.0000000000000001E-3</v>
+        <v>0.02</v>
       </c>
       <c r="M28" s="10">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="N28" s="10" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="O28" s="10" t="s">
         <v>112</v>
@@ -5589,180 +5570,201 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="10" t="s">
+    <row r="29" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="B29" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="D29" s="10">
+        <v>1</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G29" s="10">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H29" s="10">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="I29" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="J29" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="K29" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="L29" s="10">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="M29" s="10">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="N29" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="O29" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q29" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="W29" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="X29" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="10">
+        <v>1</v>
+      </c>
+      <c r="AA29" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AB29" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="AD29" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AE29" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF29" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="AG29" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="AH29" s="10">
+        <v>1E-3</v>
+      </c>
+      <c r="AI29" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AJ29" s="10">
+        <v>0</v>
+      </c>
+      <c r="AK29" s="10">
+        <v>1</v>
+      </c>
+      <c r="AL29" s="10">
+        <v>1</v>
+      </c>
+      <c r="AP29" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="AQ29" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AR29" s="10">
+        <v>0</v>
+      </c>
+      <c r="AT29" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AU29" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="AV29" s="10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AW29" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="AX29" s="10">
+        <v>0.11</v>
+      </c>
+      <c r="AY29" s="10">
+        <v>1</v>
+      </c>
+      <c r="AZ29" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="BA29" s="10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="BB29" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="BC29" s="10">
+        <v>1</v>
+      </c>
+      <c r="BD29" s="10">
+        <v>15</v>
+      </c>
+      <c r="BE29" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="BF29" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="BG29" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BH29" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="BI29" s="10">
+        <v>5</v>
+      </c>
+      <c r="BJ29" s="10">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="BK29" s="10">
+        <v>0.12</v>
+      </c>
+      <c r="BL29" s="10">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="BM29" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BN29" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="BO29" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BP29" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="BQ29" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="BR29" s="10">
+        <v>0.75</v>
+      </c>
+      <c r="BS29" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="BT29" s="10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="B30" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="C30" s="10" t="s">
+      <c r="B31" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="C31" s="10" t="s">
         <v>112</v>
-      </c>
-      <c r="D30" s="10">
-        <v>1</v>
-      </c>
-      <c r="E30" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="F30" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="G30" s="10">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="N30" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q30" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="W30" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="X30" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y30" s="10">
-        <v>1</v>
-      </c>
-      <c r="AA30" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AB30" s="10">
-        <v>0</v>
-      </c>
-      <c r="AC30" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="AD30" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AE30" s="10">
-        <v>0</v>
-      </c>
-      <c r="AF30" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="AG30" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="AH30" s="10">
-        <v>1E-3</v>
-      </c>
-      <c r="AI30" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AJ30" s="10">
-        <v>0</v>
-      </c>
-      <c r="AK30" s="10">
-        <v>1</v>
-      </c>
-      <c r="AL30" s="10">
-        <v>1</v>
-      </c>
-      <c r="AP30" s="10">
-        <v>0.05</v>
-      </c>
-      <c r="AQ30" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AR30" s="10">
-        <v>0</v>
-      </c>
-      <c r="AT30" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AU30" s="10">
-        <v>0.03</v>
-      </c>
-      <c r="AV30" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AW30" s="10">
-        <v>0.04</v>
-      </c>
-      <c r="AX30" s="10">
-        <v>0.11</v>
-      </c>
-      <c r="AY30" s="10">
-        <v>1</v>
-      </c>
-      <c r="AZ30" s="10">
-        <v>0.03</v>
-      </c>
-      <c r="BA30" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="BB30" s="10">
-        <v>0.7</v>
-      </c>
-      <c r="BC30" s="10">
-        <v>1</v>
-      </c>
-      <c r="BD30" s="10">
-        <v>15</v>
-      </c>
-      <c r="BE30" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="BF30" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="BG30" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BH30" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="BI30" s="10">
-        <v>5</v>
-      </c>
-      <c r="BJ30" s="10">
-        <v>8.2199999999999995E-2</v>
-      </c>
-      <c r="BK30" s="10">
-        <v>0.12</v>
-      </c>
-      <c r="BL30" s="10">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="BM30" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BN30" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="BO30" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BP30" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="BQ30" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="BR30" s="10">
-        <v>1</v>
-      </c>
-      <c r="BS30" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="BT30" s="10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="B31" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>109</v>
       </c>
       <c r="D31" s="10">
         <v>1</v>
@@ -5771,7 +5773,7 @@
         <v>50</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="G31" s="10">
         <v>1.4999999999999999E-2</v>
@@ -5836,9 +5838,6 @@
       <c r="AR31" s="10">
         <v>0</v>
       </c>
-      <c r="AS31" s="10">
-        <v>0.105</v>
-      </c>
       <c r="AT31" s="10">
         <v>0.5</v>
       </c>
@@ -5922,8 +5921,8 @@
       </c>
     </row>
     <row r="32" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="17" t="s">
-        <v>120</v>
+      <c r="A32" s="14" t="s">
+        <v>157</v>
       </c>
       <c r="B32" s="10" t="b">
         <v>0</v>
@@ -6001,10 +6000,10 @@
         <v>0.5</v>
       </c>
       <c r="AR32" s="10">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="AS32" s="10">
-        <v>1</v>
+        <v>0.105</v>
       </c>
       <c r="AT32" s="10">
         <v>0.5</v>
@@ -6089,11 +6088,11 @@
       </c>
     </row>
     <row r="33" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="14" t="s">
-        <v>119</v>
+      <c r="A33" s="17" t="s">
+        <v>120</v>
       </c>
       <c r="B33" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C33" s="10" t="s">
         <v>109</v>
@@ -6168,7 +6167,7 @@
         <v>0.5</v>
       </c>
       <c r="AR33" s="10">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="AS33" s="10">
         <v>1</v>
@@ -6256,8 +6255,8 @@
       </c>
     </row>
     <row r="34" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="10" t="s">
-        <v>121</v>
+      <c r="A34" s="14" t="s">
+        <v>119</v>
       </c>
       <c r="B34" s="10" t="b">
         <v>0</v>
@@ -6272,7 +6271,7 @@
         <v>50</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G34" s="10">
         <v>1.4999999999999999E-2</v>
@@ -6336,6 +6335,9 @@
       </c>
       <c r="AR34" s="10">
         <v>0</v>
+      </c>
+      <c r="AS34" s="10">
+        <v>1</v>
       </c>
       <c r="AT34" s="10">
         <v>0.5</v>
@@ -6421,7 +6423,7 @@
     </row>
     <row r="35" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="B35" s="10" t="b">
         <v>0</v>
@@ -6453,10 +6455,9 @@
       <c r="X35" s="10">
         <v>0</v>
       </c>
-      <c r="Y35" s="14">
-        <v>5</v>
-      </c>
-      <c r="Z35" s="14"/>
+      <c r="Y35" s="10">
+        <v>1</v>
+      </c>
       <c r="AA35" s="10">
         <v>0.02</v>
       </c>
@@ -6518,7 +6519,7 @@
         <v>0.11</v>
       </c>
       <c r="AY35" s="10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AZ35" s="10">
         <v>0.03</v>
@@ -6586,7 +6587,7 @@
     </row>
     <row r="36" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="B36" s="10" t="b">
         <v>0</v>
@@ -6601,7 +6602,7 @@
         <v>50</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G36" s="10">
         <v>1.4999999999999999E-2</v>
@@ -6618,9 +6619,10 @@
       <c r="X36" s="10">
         <v>0</v>
       </c>
-      <c r="Y36" s="10">
-        <v>1</v>
-      </c>
+      <c r="Y36" s="14">
+        <v>5</v>
+      </c>
+      <c r="Z36" s="14"/>
       <c r="AA36" s="10">
         <v>0.02</v>
       </c>
@@ -6682,7 +6684,7 @@
         <v>0.11</v>
       </c>
       <c r="AY36" s="10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AZ36" s="10">
         <v>0.03</v>
@@ -6750,22 +6752,22 @@
     </row>
     <row r="37" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B37" s="10" t="b">
         <v>0</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D37" s="10">
         <v>1</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="G37" s="10">
         <v>1.4999999999999999E-2</v>
@@ -6784,9 +6786,6 @@
       </c>
       <c r="Y37" s="10">
         <v>1</v>
-      </c>
-      <c r="Z37" s="10" t="b">
-        <v>0</v>
       </c>
       <c r="AA37" s="10">
         <v>0.02</v>
@@ -6917,7 +6916,7 @@
     </row>
     <row r="38" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="B38" s="10" t="b">
         <v>0</v>
@@ -6949,8 +6948,8 @@
       <c r="X38" s="10">
         <v>0</v>
       </c>
-      <c r="Y38" s="14">
-        <v>5</v>
+      <c r="Y38" s="10">
+        <v>1</v>
       </c>
       <c r="Z38" s="10" t="b">
         <v>0</v>
@@ -7016,7 +7015,7 @@
         <v>0.11</v>
       </c>
       <c r="AY38" s="10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AZ38" s="10">
         <v>0.03</v>
@@ -7084,7 +7083,7 @@
     </row>
     <row r="39" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B39" s="10" t="b">
         <v>0</v>
@@ -7111,10 +7110,10 @@
         <v>76</v>
       </c>
       <c r="W39" s="10">
-        <v>2.5000000000000001E-2</v>
+        <v>0.02</v>
       </c>
       <c r="X39" s="10">
-        <v>5.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="Y39" s="14">
         <v>5</v>
@@ -7250,11 +7249,11 @@
       </c>
     </row>
     <row r="40" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="14" t="s">
-        <v>160</v>
+      <c r="A40" s="10" t="s">
+        <v>139</v>
       </c>
       <c r="B40" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C40" s="10" t="s">
         <v>110</v>
@@ -7286,8 +7285,8 @@
       <c r="Y40" s="14">
         <v>5</v>
       </c>
-      <c r="Z40" s="14" t="b">
-        <v>1</v>
+      <c r="Z40" s="10" t="b">
+        <v>0</v>
       </c>
       <c r="AA40" s="10">
         <v>0.02</v>
@@ -7416,9 +7415,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:72" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="10" t="s">
-        <v>124</v>
+    <row r="41" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="14" t="s">
+        <v>160</v>
       </c>
       <c r="B41" s="10" t="b">
         <v>0</v>
@@ -7430,7 +7429,7 @@
         <v>1</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F41" s="10" t="s">
         <v>63</v>
@@ -7445,16 +7444,16 @@
         <v>76</v>
       </c>
       <c r="W41" s="10">
-        <v>0.02</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="X41" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y41" s="10">
-        <v>1</v>
-      </c>
-      <c r="Z41" s="10" t="b">
-        <v>0</v>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="Y41" s="14">
+        <v>5</v>
+      </c>
+      <c r="Z41" s="14" t="b">
+        <v>1</v>
       </c>
       <c r="AA41" s="10">
         <v>0.02</v>
@@ -7517,7 +7516,7 @@
         <v>0.11</v>
       </c>
       <c r="AY41" s="10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AZ41" s="10">
         <v>0.03</v>
@@ -7585,7 +7584,7 @@
     </row>
     <row r="42" spans="1:72" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="B42" s="10" t="b">
         <v>0</v>
@@ -7624,13 +7623,13 @@
         <v>0</v>
       </c>
       <c r="AA42" s="10">
-        <v>2.5000000000000001E-2</v>
+        <v>0.02</v>
       </c>
       <c r="AB42" s="10">
-        <v>5.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="AC42" s="10">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AD42" s="10">
         <v>0.02</v>
@@ -7750,9 +7749,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:72" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="B43" s="10" t="b">
         <v>0</v>
@@ -7764,7 +7763,7 @@
         <v>1</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F43" s="10" t="s">
         <v>63</v>
@@ -7791,13 +7790,13 @@
         <v>0</v>
       </c>
       <c r="AA43" s="10">
-        <v>0.02</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="AB43" s="10">
-        <v>0</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AC43" s="10">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AD43" s="10">
         <v>0.02</v>
@@ -7918,8 +7917,8 @@
       </c>
     </row>
     <row r="44" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="17" t="s">
-        <v>126</v>
+      <c r="A44" s="10" t="s">
+        <v>125</v>
       </c>
       <c r="B44" s="10" t="b">
         <v>0</v>
@@ -7931,7 +7930,7 @@
         <v>1</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F44" s="10" t="s">
         <v>63</v>
@@ -7982,7 +7981,7 @@
         <v>1E-3</v>
       </c>
       <c r="AI44" s="10">
-        <v>2.5000000000000001E-2</v>
+        <v>0.02</v>
       </c>
       <c r="AJ44" s="10">
         <v>0</v>
@@ -7991,13 +7990,7 @@
         <v>1</v>
       </c>
       <c r="AL44" s="10">
-        <v>2</v>
-      </c>
-      <c r="AM44" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AN44" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AP44" s="10">
         <v>0.05</v>
@@ -8091,8 +8084,8 @@
       </c>
     </row>
     <row r="45" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="20" t="s">
-        <v>162</v>
+      <c r="A45" s="17" t="s">
+        <v>126</v>
       </c>
       <c r="B45" s="10" t="b">
         <v>0</v>
@@ -8170,7 +8163,7 @@
         <v>0.5</v>
       </c>
       <c r="AN45" s="10">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AP45" s="10">
         <v>0.05</v>
@@ -8264,20 +8257,20 @@
       </c>
     </row>
     <row r="46" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="10" t="s">
-        <v>127</v>
+      <c r="A46" s="20" t="s">
+        <v>162</v>
       </c>
       <c r="B46" s="10" t="b">
         <v>0</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D46" s="10">
         <v>1</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="F46" s="10" t="s">
         <v>63</v>
@@ -8286,10 +8279,10 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="N46" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="O46" s="10" t="s">
-        <v>118</v>
+        <v>134</v>
+      </c>
+      <c r="Q46" s="10" t="s">
+        <v>76</v>
       </c>
       <c r="W46" s="10">
         <v>0.02</v>
@@ -8299,6 +8292,9 @@
       </c>
       <c r="Y46" s="10">
         <v>1</v>
+      </c>
+      <c r="Z46" s="10" t="b">
+        <v>0</v>
       </c>
       <c r="AA46" s="10">
         <v>0.02</v>
@@ -8325,7 +8321,7 @@
         <v>1E-3</v>
       </c>
       <c r="AI46" s="10">
-        <v>0.02</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="AJ46" s="10">
         <v>0</v>
@@ -8334,10 +8330,16 @@
         <v>1</v>
       </c>
       <c r="AL46" s="10">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="AM46" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AN46" s="10">
+        <v>0</v>
       </c>
       <c r="AP46" s="10">
-        <v>2.5000000000000001E-2</v>
+        <v>0.05</v>
       </c>
       <c r="AQ46" s="10">
         <v>0.5</v>
@@ -8429,42 +8431,41 @@
     </row>
     <row r="47" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="B47" s="10" t="b">
         <v>0</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>144</v>
+        <v>111</v>
       </c>
       <c r="D47" s="10">
         <v>1</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F47" s="10" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="G47" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="N47" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q47" s="10" t="s">
-        <v>76</v>
+        <v>112</v>
+      </c>
+      <c r="O47" s="10" t="s">
+        <v>118</v>
       </c>
       <c r="W47" s="10">
-        <v>2.5000000000000001E-2</v>
+        <v>0.02</v>
       </c>
       <c r="X47" s="10">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="Y47" s="14">
-        <v>5</v>
-      </c>
-      <c r="Z47" s="14"/>
+        <v>0</v>
+      </c>
+      <c r="Y47" s="10">
+        <v>1</v>
+      </c>
       <c r="AA47" s="10">
         <v>0.02</v>
       </c>
@@ -8502,13 +8503,13 @@
         <v>1</v>
       </c>
       <c r="AP47" s="10">
-        <v>0.05</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="AQ47" s="10">
         <v>0.5</v>
       </c>
       <c r="AR47" s="10">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="AT47" s="10">
         <v>0.5</v>
@@ -8526,7 +8527,7 @@
         <v>0.11</v>
       </c>
       <c r="AY47" s="10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AZ47" s="10">
         <v>0.03</v>
@@ -8633,7 +8634,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="N48" s="10" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="O48" s="10" t="s">
         <v>118</v>
@@ -8818,7 +8819,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="N49" s="10" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="O49" s="10" t="s">
         <v>118</v>
@@ -8967,7 +8968,7 @@
         <v>170</v>
       </c>
       <c r="B50" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C50" s="10" t="s">
         <v>146</v>
@@ -9003,10 +9004,10 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="N50" s="10" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="O50" s="10" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="Q50" s="10" t="s">
         <v>76</v>
@@ -9152,7 +9153,7 @@
         <v>171</v>
       </c>
       <c r="B51" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C51" s="10" t="s">
         <v>146</v>
@@ -9188,10 +9189,10 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="N51" s="10" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="O51" s="10" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="Q51" s="10" t="s">
         <v>76</v>
@@ -9337,7 +9338,7 @@
         <v>172</v>
       </c>
       <c r="B52" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C52" s="10" t="s">
         <v>146</v>
@@ -9373,10 +9374,10 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="N52" s="10" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="O52" s="10" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="Q52" s="10" t="s">
         <v>76</v>
@@ -9884,15 +9885,345 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="60" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="B59" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="D59" s="10">
+        <v>1</v>
+      </c>
+      <c r="E59" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="F59" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="G59" s="10">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="N59" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q59" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="W59" s="10">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="X59" s="10">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="Y59" s="14">
+        <v>5</v>
+      </c>
+      <c r="Z59" s="14"/>
+      <c r="AA59" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AB59" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC59" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="AD59" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AE59" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF59" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="AG59" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="AH59" s="10">
+        <v>1E-3</v>
+      </c>
+      <c r="AI59" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AJ59" s="10">
+        <v>0</v>
+      </c>
+      <c r="AK59" s="10">
+        <v>1</v>
+      </c>
+      <c r="AL59" s="10">
+        <v>1</v>
+      </c>
+      <c r="AP59" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="AQ59" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AR59" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="AT59" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AU59" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="AV59" s="10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AW59" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="AX59" s="10">
+        <v>0.11</v>
+      </c>
+      <c r="AY59" s="10">
+        <v>5</v>
+      </c>
+      <c r="AZ59" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="BA59" s="10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="BB59" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="BC59" s="10">
+        <v>1</v>
+      </c>
+      <c r="BD59" s="10">
+        <v>15</v>
+      </c>
+      <c r="BE59" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="BF59" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="BG59" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BH59" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="BI59" s="10">
+        <v>5</v>
+      </c>
+      <c r="BJ59" s="10">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="BK59" s="10">
+        <v>0.12</v>
+      </c>
+      <c r="BL59" s="10">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="BM59" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BN59" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="BO59" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BP59" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="BQ59" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="BR59" s="10">
+        <v>0.75</v>
+      </c>
+      <c r="BS59" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="BT59" s="10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="B60" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="D60" s="10">
+        <v>1</v>
+      </c>
+      <c r="E60" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="F60" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="G60" s="10">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="N60" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q60" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="W60" s="10">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="X60" s="10">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="Y60" s="14">
+        <v>5</v>
+      </c>
+      <c r="Z60" s="14"/>
+      <c r="AA60" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AB60" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC60" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="AD60" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AE60" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF60" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="AG60" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="AH60" s="10">
+        <v>1E-3</v>
+      </c>
+      <c r="AI60" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AJ60" s="10">
+        <v>0</v>
+      </c>
+      <c r="AK60" s="10">
+        <v>1</v>
+      </c>
+      <c r="AL60" s="10">
+        <v>1</v>
+      </c>
+      <c r="AP60" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="AQ60" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AR60" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="AT60" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AU60" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="AV60" s="10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AW60" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="AX60" s="10">
+        <v>0.11</v>
+      </c>
+      <c r="AY60" s="10">
+        <v>5</v>
+      </c>
+      <c r="AZ60" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="BA60" s="10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="BB60" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="BC60" s="10">
+        <v>1</v>
+      </c>
+      <c r="BD60" s="10">
+        <v>15</v>
+      </c>
+      <c r="BE60" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="BF60" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="BG60" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BH60" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="BI60" s="10">
+        <v>5</v>
+      </c>
+      <c r="BJ60" s="10">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="BK60" s="10">
+        <v>0.12</v>
+      </c>
+      <c r="BL60" s="10">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="BM60" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BN60" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="BO60" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BP60" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="BQ60" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="BR60" s="10">
+        <v>1</v>
+      </c>
+      <c r="BS60" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="BT60" s="10" t="b">
+        <v>1</v>
+      </c>
+    </row>
     <row r="61" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q58 Q3:Q21 Q23:Q45 Q47:Q56" xr:uid="{8DBFC5CB-438A-4309-B948-24597CAE3D7F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q3:Q22 Q25:Q46 Q58:Q60 Q48:Q56" xr:uid="{8DBFC5CB-438A-4309-B948-24597CAE3D7F}">
       <formula1>"preSet, ALpct,MApct"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B61" xr:uid="{05E01AB2-72EC-4550-ACB8-4E83765DE296}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B63" xr:uid="{05E01AB2-72EC-4550-ACB8-4E83765DE296}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -9906,7 +10237,7 @@
           <x14:formula1>
             <xm:f>Policies!$B$3:$B$9</xm:f>
           </x14:formula1>
-          <xm:sqref>F56 F58 F3:F54</xm:sqref>
+          <xm:sqref>F56 F58:F60 F3:F54</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -9920,7 +10251,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9956,7 +10287,7 @@
         <v>91</v>
       </c>
       <c r="B2">
-        <v>2000</v>
+        <v>10</v>
       </c>
       <c r="C2">
         <v>4</v>

--- a/RunControl.xlsx
+++ b/RunControl.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53C4F0D8-A445-4605-B3EA-4005075D9318}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5504CC96-5F47-4073-8444-6F366FF858A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="1845" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="paramlist" sheetId="1" r:id="rId1"/>
@@ -579,7 +579,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -603,15 +603,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -673,7 +679,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -695,6 +701,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -987,10 +994,10 @@
   <dimension ref="A1:BT63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B23" sqref="B23"/>
+      <selection pane="bottomRight" activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1503,7 +1510,7 @@
     </row>
     <row r="4" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="20" t="s">
         <v>112</v>
       </c>
       <c r="B5" s="10" t="b">
@@ -1834,7 +1841,7 @@
       </c>
     </row>
     <row r="7" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="20" t="s">
         <v>156</v>
       </c>
       <c r="B7" s="10" t="b">
@@ -2001,7 +2008,7 @@
       </c>
     </row>
     <row r="8" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="20" t="s">
         <v>99</v>
       </c>
       <c r="B8" s="10" t="b">
@@ -2332,7 +2339,7 @@
       </c>
     </row>
     <row r="10" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="20" t="s">
         <v>130</v>
       </c>
       <c r="B10" s="10" t="b">
@@ -2496,7 +2503,7 @@
       </c>
     </row>
     <row r="11" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="20" t="s">
         <v>88</v>
       </c>
       <c r="B11" s="10" t="b">
@@ -2660,7 +2667,7 @@
       </c>
     </row>
     <row r="12" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="20" t="s">
         <v>173</v>
       </c>
       <c r="B12" s="10" t="b">
@@ -3325,7 +3332,7 @@
       </c>
     </row>
     <row r="16" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="20" t="s">
         <v>159</v>
       </c>
       <c r="B16" s="10" t="b">
@@ -3492,7 +3499,7 @@
       </c>
     </row>
     <row r="17" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="20" t="s">
         <v>161</v>
       </c>
       <c r="B17" s="10" t="b">
@@ -3826,7 +3833,7 @@
       </c>
     </row>
     <row r="19" spans="1:72" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="20" t="s">
         <v>138</v>
       </c>
       <c r="B19" s="10" t="b">
@@ -4160,7 +4167,7 @@
       </c>
     </row>
     <row r="21" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="17" t="s">
+      <c r="A21" s="20" t="s">
         <v>105</v>
       </c>
       <c r="B21" s="10" t="b">
@@ -4506,11 +4513,11 @@
       </c>
     </row>
     <row r="23" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="20" t="s">
         <v>107</v>
       </c>
       <c r="B23" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" s="10" t="s">
         <v>111</v>
@@ -4670,7 +4677,7 @@
       </c>
     </row>
     <row r="24" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="17" t="s">
+      <c r="A24" s="20" t="s">
         <v>174</v>
       </c>
       <c r="B24" s="10" t="b">
@@ -5016,11 +5023,11 @@
       </c>
     </row>
     <row r="26" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="21" t="s">
         <v>153</v>
       </c>
       <c r="B26" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26" s="10" t="s">
         <v>146</v>
@@ -5205,7 +5212,7 @@
         <v>167</v>
       </c>
       <c r="B27" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C27" s="10" t="s">
         <v>146</v>
@@ -5390,7 +5397,7 @@
         <v>168</v>
       </c>
       <c r="B28" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C28" s="10" t="s">
         <v>146</v>
@@ -5575,7 +5582,7 @@
         <v>169</v>
       </c>
       <c r="B29" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29" s="10" t="s">
         <v>146</v>
@@ -7750,7 +7757,7 @@
       </c>
     </row>
     <row r="43" spans="1:72" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="10" t="s">
+      <c r="A43" s="20" t="s">
         <v>140</v>
       </c>
       <c r="B43" s="10" t="b">
@@ -8257,7 +8264,7 @@
       </c>
     </row>
     <row r="46" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="20" t="s">
+      <c r="A46" s="19" t="s">
         <v>162</v>
       </c>
       <c r="B46" s="10" t="b">
@@ -8964,7 +8971,7 @@
       </c>
     </row>
     <row r="50" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="19" t="s">
+      <c r="A50" s="18" t="s">
         <v>170</v>
       </c>
       <c r="B50" s="10" t="b">
@@ -9149,7 +9156,7 @@
       </c>
     </row>
     <row r="51" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="19" t="s">
+      <c r="A51" s="18" t="s">
         <v>171</v>
       </c>
       <c r="B51" s="10" t="b">
@@ -9334,7 +9341,7 @@
       </c>
     </row>
     <row r="52" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="19" t="s">
+      <c r="A52" s="18" t="s">
         <v>172</v>
       </c>
       <c r="B52" s="10" t="b">
@@ -10251,7 +10258,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10287,10 +10294,10 @@
         <v>91</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>2000</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2">
         <v>20</v>
@@ -10316,7 +10323,7 @@
   <dimension ref="A2:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/RunControl.xlsx
+++ b/RunControl.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5504CC96-5F47-4073-8444-6F366FF858A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{074D63BB-F342-45D0-9A1B-33FFD8104FCA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="1845" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="173">
   <si>
     <t>runname</t>
   </si>
@@ -356,9 +356,6 @@
     <t>FRMax_EEC_FR</t>
   </si>
   <si>
-    <t>EEC_sharedNC</t>
-  </si>
-  <si>
     <t>cola_FRramp</t>
   </si>
   <si>
@@ -368,15 +365,9 @@
     <t>cola_SDRS</t>
   </si>
   <si>
-    <t>DC_pure</t>
-  </si>
-  <si>
     <t>hybrid_DB</t>
   </si>
   <si>
-    <t>hybrid_DC</t>
-  </si>
-  <si>
     <t>EEC</t>
   </si>
   <si>
@@ -573,6 +564,9 @@
   </si>
   <si>
     <t>hybrid_DB_noLegacy</t>
+  </si>
+  <si>
+    <t>Archived runs:</t>
   </si>
 </sst>
 </file>
@@ -616,8 +610,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFC00000"/>
+      <color theme="9"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -991,13 +986,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:BT63"/>
+  <dimension ref="A1:BT61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="6" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A26" sqref="A26"/>
+      <selection pane="bottomRight" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1047,7 +1042,7 @@
       <c r="F1" s="14"/>
       <c r="G1" s="6"/>
       <c r="H1" s="15" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I1" s="15"/>
       <c r="J1" s="15"/>
@@ -1055,7 +1050,7 @@
       <c r="L1" s="15"/>
       <c r="M1" s="15"/>
       <c r="N1" s="11" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="O1" s="11"/>
       <c r="P1" s="11"/>
@@ -1091,7 +1086,7 @@
       <c r="AM1" s="8"/>
       <c r="AN1" s="8"/>
       <c r="AO1" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AP1" s="6"/>
       <c r="AQ1" s="6"/>
@@ -1149,31 +1144,31 @@
         <v>33</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="I2" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="J2" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="K2" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="L2" s="16" t="s">
         <v>163</v>
       </c>
-      <c r="J2" s="16" t="s">
-        <v>164</v>
-      </c>
-      <c r="K2" s="16" t="s">
-        <v>165</v>
-      </c>
-      <c r="L2" s="16" t="s">
-        <v>166</v>
-      </c>
       <c r="M2" s="16" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="N2" s="12" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="O2" s="12" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="P2" s="12" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="Q2" s="12" t="s">
         <v>72</v>
@@ -1200,10 +1195,10 @@
         <v>35</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="AA2" s="3" t="s">
         <v>38</v>
@@ -1257,10 +1252,10 @@
         <v>91</v>
       </c>
       <c r="AR2" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="AS2" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="AT2" s="1" t="s">
         <v>92</v>
@@ -1278,7 +1273,7 @@
         <v>98</v>
       </c>
       <c r="AY2" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AZ2" s="1" t="s">
         <v>95</v>
@@ -1346,13 +1341,13 @@
     </row>
     <row r="3" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B3" s="10" t="b">
         <v>0</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D3" s="10">
         <v>1</v>
@@ -1367,7 +1362,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="N3" s="10" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="Q3" s="10" t="s">
         <v>76</v>
@@ -1511,13 +1506,13 @@
     <row r="4" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B5" s="10" t="b">
         <v>0</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D5" s="10">
         <v>1</v>
@@ -1532,7 +1527,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="N5" s="10" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="Q5" s="10" t="s">
         <v>76</v>
@@ -1674,14 +1669,14 @@
       </c>
     </row>
     <row r="6" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
-        <v>115</v>
+      <c r="A6" s="20" t="s">
+        <v>153</v>
       </c>
       <c r="B6" s="10" t="b">
         <v>0</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D6" s="10">
         <v>1</v>
@@ -1696,7 +1691,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="N6" s="10" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="Q6" s="10" t="s">
         <v>76</v>
@@ -1753,10 +1748,10 @@
         <v>0.5</v>
       </c>
       <c r="AR6" s="10">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="AS6" s="10">
-        <v>1</v>
+        <v>0.105</v>
       </c>
       <c r="AT6" s="10">
         <v>0.5</v>
@@ -1842,13 +1837,13 @@
     </row>
     <row r="7" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
-        <v>156</v>
+        <v>99</v>
       </c>
       <c r="B7" s="10" t="b">
         <v>0</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D7" s="10">
         <v>1</v>
@@ -1863,7 +1858,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="N7" s="10" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="Q7" s="10" t="s">
         <v>76</v>
@@ -1923,7 +1918,7 @@
         <v>0</v>
       </c>
       <c r="AS7" s="10">
-        <v>0.105</v>
+        <v>1</v>
       </c>
       <c r="AT7" s="10">
         <v>0.5</v>
@@ -2009,13 +2004,13 @@
     </row>
     <row r="8" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="B8" s="10" t="b">
         <v>0</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D8" s="10">
         <v>1</v>
@@ -2024,13 +2019,13 @@
         <v>50</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G8" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="N8" s="10" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="Q8" s="10" t="s">
         <v>76</v>
@@ -2042,7 +2037,7 @@
         <v>0</v>
       </c>
       <c r="Y8" s="10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AA8" s="10">
         <v>0.02</v>
@@ -2089,9 +2084,6 @@
       <c r="AR8" s="10">
         <v>0</v>
       </c>
-      <c r="AS8" s="10">
-        <v>1</v>
-      </c>
       <c r="AT8" s="10">
         <v>0.5</v>
       </c>
@@ -2108,7 +2100,7 @@
         <v>0.11</v>
       </c>
       <c r="AY8" s="10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AZ8" s="10">
         <v>0.03</v>
@@ -2175,14 +2167,14 @@
       </c>
     </row>
     <row r="9" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
-        <v>87</v>
+      <c r="A9" s="20" t="s">
+        <v>88</v>
       </c>
       <c r="B9" s="10" t="b">
         <v>0</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D9" s="10">
         <v>1</v>
@@ -2191,13 +2183,13 @@
         <v>50</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G9" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="N9" s="10" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="Q9" s="10" t="s">
         <v>76</v>
@@ -2340,13 +2332,13 @@
     </row>
     <row r="10" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
-        <v>130</v>
+        <v>170</v>
       </c>
       <c r="B10" s="10" t="b">
         <v>0</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D10" s="10">
         <v>1</v>
@@ -2355,13 +2347,13 @@
         <v>50</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G10" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="N10" s="10" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="Q10" s="10" t="s">
         <v>76</v>
@@ -2373,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="Y10" s="10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AA10" s="10">
         <v>0.02</v>
@@ -2436,7 +2428,7 @@
         <v>0.11</v>
       </c>
       <c r="AY10" s="10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AZ10" s="10">
         <v>0.03</v>
@@ -2445,10 +2437,10 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="BB10" s="10">
-        <v>0.7</v>
+        <v>0.85</v>
       </c>
       <c r="BC10" s="10">
-        <v>1</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="BD10" s="10">
         <v>15</v>
@@ -2504,39 +2496,42 @@
     </row>
     <row r="11" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
-        <v>88</v>
+        <v>156</v>
       </c>
       <c r="B11" s="10" t="b">
         <v>0</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D11" s="10">
         <v>1</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="G11" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="N11" s="10" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="Q11" s="10" t="s">
         <v>76</v>
       </c>
       <c r="W11" s="10">
-        <v>0.02</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="X11" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="10">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="Y11" s="14">
+        <v>5</v>
+      </c>
+      <c r="Z11" s="14" t="b">
         <v>1</v>
       </c>
       <c r="AA11" s="10">
@@ -2600,7 +2595,7 @@
         <v>0.11</v>
       </c>
       <c r="AY11" s="10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AZ11" s="10">
         <v>0.03</v>
@@ -2668,39 +2663,42 @@
     </row>
     <row r="12" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="B12" s="10" t="b">
         <v>0</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D12" s="10">
         <v>1</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="G12" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="N12" s="10" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="Q12" s="10" t="s">
         <v>76</v>
       </c>
       <c r="W12" s="10">
-        <v>0.02</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="X12" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="10">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="Y12" s="14">
+        <v>10</v>
+      </c>
+      <c r="Z12" s="14" t="b">
         <v>1</v>
       </c>
       <c r="AA12" s="10">
@@ -2764,7 +2762,7 @@
         <v>0.11</v>
       </c>
       <c r="AY12" s="10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AZ12" s="10">
         <v>0.03</v>
@@ -2773,10 +2771,10 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="BB12" s="10">
-        <v>0.85</v>
+        <v>0.7</v>
       </c>
       <c r="BC12" s="10">
-        <v>1.1499999999999999</v>
+        <v>1</v>
       </c>
       <c r="BD12" s="10">
         <v>15</v>
@@ -2830,21 +2828,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
-        <v>54</v>
+    <row r="13" spans="1:72" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="20" t="s">
+        <v>135</v>
       </c>
       <c r="B13" s="10" t="b">
         <v>0</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D13" s="10">
         <v>1</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>63</v>
@@ -2853,7 +2851,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="N13" s="10" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="Q13" s="10" t="s">
         <v>76</v>
@@ -2871,13 +2869,13 @@
         <v>0</v>
       </c>
       <c r="AA13" s="10">
-        <v>0.02</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="AB13" s="10">
-        <v>0</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AC13" s="10">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AD13" s="10">
         <v>0.02</v>
@@ -2999,19 +2997,19 @@
     </row>
     <row r="14" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>131</v>
+        <v>102</v>
       </c>
       <c r="B14" s="10" t="b">
         <v>0</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D14" s="10">
         <v>1</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>63</v>
@@ -3020,7 +3018,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="N14" s="10" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="Q14" s="10" t="s">
         <v>76</v>
@@ -3031,8 +3029,8 @@
       <c r="X14" s="10">
         <v>0</v>
       </c>
-      <c r="Y14" s="14">
-        <v>5</v>
+      <c r="Y14" s="10">
+        <v>1</v>
       </c>
       <c r="Z14" s="10" t="b">
         <v>0</v>
@@ -3098,7 +3096,7 @@
         <v>0.11</v>
       </c>
       <c r="AY14" s="10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AZ14" s="10">
         <v>0.03</v>
@@ -3165,20 +3163,20 @@
       </c>
     </row>
     <row r="15" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
-        <v>137</v>
+      <c r="A15" s="20" t="s">
+        <v>104</v>
       </c>
       <c r="B15" s="10" t="b">
         <v>0</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D15" s="10">
         <v>1</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F15" s="10" t="s">
         <v>63</v>
@@ -3187,19 +3185,19 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="N15" s="10" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="Q15" s="10" t="s">
         <v>76</v>
       </c>
       <c r="W15" s="10">
-        <v>2.5000000000000001E-2</v>
+        <v>0.02</v>
       </c>
       <c r="X15" s="10">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="Y15" s="14">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="Y15" s="10">
+        <v>1</v>
       </c>
       <c r="Z15" s="10" t="b">
         <v>0</v>
@@ -3229,7 +3227,7 @@
         <v>1E-3</v>
       </c>
       <c r="AI15" s="10">
-        <v>0.02</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="AJ15" s="10">
         <v>0</v>
@@ -3238,7 +3236,13 @@
         <v>1</v>
       </c>
       <c r="AL15" s="10">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="AM15" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AN15" s="10">
+        <v>0.5</v>
       </c>
       <c r="AP15" s="10">
         <v>0.05</v>
@@ -3265,7 +3269,7 @@
         <v>0.11</v>
       </c>
       <c r="AY15" s="10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AZ15" s="10">
         <v>0.03</v>
@@ -3332,20 +3336,20 @@
       </c>
     </row>
     <row r="16" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="20" t="s">
-        <v>159</v>
+      <c r="A16" s="17" t="s">
+        <v>148</v>
       </c>
       <c r="B16" s="10" t="b">
         <v>0</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D16" s="10">
         <v>1</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F16" s="10" t="s">
         <v>63</v>
@@ -3354,22 +3358,22 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="N16" s="10" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="Q16" s="10" t="s">
         <v>76</v>
       </c>
       <c r="W16" s="10">
-        <v>2.5000000000000001E-2</v>
+        <v>0.02</v>
       </c>
       <c r="X16" s="10">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="Y16" s="14">
-        <v>5</v>
-      </c>
-      <c r="Z16" s="14" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="Y16" s="10">
+        <v>1</v>
+      </c>
+      <c r="Z16" s="10" t="b">
+        <v>0</v>
       </c>
       <c r="AA16" s="10">
         <v>0.02</v>
@@ -3396,7 +3400,7 @@
         <v>1E-3</v>
       </c>
       <c r="AI16" s="10">
-        <v>0.02</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="AJ16" s="10">
         <v>0</v>
@@ -3405,7 +3409,13 @@
         <v>1</v>
       </c>
       <c r="AL16" s="10">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="AM16" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AN16" s="10">
+        <v>0</v>
       </c>
       <c r="AP16" s="10">
         <v>0.05</v>
@@ -3432,7 +3442,7 @@
         <v>0.11</v>
       </c>
       <c r="AY16" s="10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AZ16" s="10">
         <v>0.03</v>
@@ -3500,19 +3510,19 @@
     </row>
     <row r="17" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
-        <v>161</v>
+        <v>105</v>
       </c>
       <c r="B17" s="10" t="b">
         <v>0</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D17" s="10">
         <v>1</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F17" s="10" t="s">
         <v>63</v>
@@ -3521,21 +3531,18 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="N17" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q17" s="10" t="s">
-        <v>76</v>
+        <v>109</v>
+      </c>
+      <c r="O17" s="10" t="s">
+        <v>109</v>
       </c>
       <c r="W17" s="10">
-        <v>2.5000000000000001E-2</v>
+        <v>0.02</v>
       </c>
       <c r="X17" s="10">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="Y17" s="14">
-        <v>10</v>
-      </c>
-      <c r="Z17" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="10">
         <v>1</v>
       </c>
       <c r="AA17" s="10">
@@ -3575,7 +3582,7 @@
         <v>1</v>
       </c>
       <c r="AP17" s="10">
-        <v>0.05</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="AQ17" s="10">
         <v>0.5</v>
@@ -3599,7 +3606,7 @@
         <v>0.11</v>
       </c>
       <c r="AY17" s="10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AZ17" s="10">
         <v>0.03</v>
@@ -3665,21 +3672,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:72" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
-        <v>55</v>
+    <row r="18" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="20" t="s">
+        <v>171</v>
       </c>
       <c r="B18" s="10" t="b">
         <v>0</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D18" s="10">
         <v>1</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F18" s="10" t="s">
         <v>63</v>
@@ -3688,10 +3695,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="N18" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q18" s="10" t="s">
-        <v>76</v>
+        <v>131</v>
       </c>
       <c r="W18" s="10">
         <v>0.02</v>
@@ -3701,9 +3705,6 @@
       </c>
       <c r="Y18" s="10">
         <v>1</v>
-      </c>
-      <c r="Z18" s="10" t="b">
-        <v>0</v>
       </c>
       <c r="AA18" s="10">
         <v>0.02</v>
@@ -3742,7 +3743,7 @@
         <v>1</v>
       </c>
       <c r="AP18" s="10">
-        <v>0.05</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="AQ18" s="10">
         <v>0.5</v>
@@ -3832,15 +3833,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:72" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="B19" s="10" t="b">
         <v>0</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>110</v>
+        <v>143</v>
       </c>
       <c r="D19" s="10">
         <v>1</v>
@@ -3854,8 +3855,29 @@
       <c r="G19" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
+      <c r="H19" s="10">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="I19" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="J19" s="10">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="K19" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="L19" s="10">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="M19" s="10">
+        <v>7.4999999999999997E-2</v>
+      </c>
       <c r="N19" s="10" t="s">
-        <v>134</v>
+        <v>131</v>
+      </c>
+      <c r="O19" s="10" t="s">
+        <v>109</v>
       </c>
       <c r="Q19" s="10" t="s">
         <v>76</v>
@@ -3869,17 +3891,14 @@
       <c r="Y19" s="10">
         <v>1</v>
       </c>
-      <c r="Z19" s="10" t="b">
-        <v>0</v>
-      </c>
       <c r="AA19" s="10">
-        <v>2.5000000000000001E-2</v>
+        <v>0.02</v>
       </c>
       <c r="AB19" s="10">
-        <v>5.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="AC19" s="10">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AD19" s="10">
         <v>0.02</v>
@@ -4000,20 +4019,20 @@
       </c>
     </row>
     <row r="20" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
-        <v>103</v>
+      <c r="A20" s="21" t="s">
+        <v>164</v>
       </c>
       <c r="B20" s="10" t="b">
         <v>0</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>110</v>
+        <v>143</v>
       </c>
       <c r="D20" s="10">
         <v>1</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F20" s="10" t="s">
         <v>63</v>
@@ -4021,8 +4040,29 @@
       <c r="G20" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
+      <c r="H20" s="10">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="I20" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="J20" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="K20" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="L20" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="M20" s="10">
+        <v>7.4999999999999997E-2</v>
+      </c>
       <c r="N20" s="10" t="s">
-        <v>134</v>
+        <v>131</v>
+      </c>
+      <c r="O20" s="10" t="s">
+        <v>109</v>
       </c>
       <c r="Q20" s="10" t="s">
         <v>76</v>
@@ -4036,9 +4076,6 @@
       <c r="Y20" s="10">
         <v>1</v>
       </c>
-      <c r="Z20" s="10" t="b">
-        <v>0</v>
-      </c>
       <c r="AA20" s="10">
         <v>0.02</v>
       </c>
@@ -4167,20 +4204,20 @@
       </c>
     </row>
     <row r="21" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="20" t="s">
-        <v>105</v>
+      <c r="A21" s="21" t="s">
+        <v>165</v>
       </c>
       <c r="B21" s="10" t="b">
         <v>0</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>110</v>
+        <v>143</v>
       </c>
       <c r="D21" s="10">
         <v>1</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F21" s="10" t="s">
         <v>63</v>
@@ -4188,8 +4225,29 @@
       <c r="G21" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
+      <c r="H21" s="10">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="I21" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="J21" s="10">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="K21" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="L21" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="M21" s="10">
+        <v>7.4999999999999997E-2</v>
+      </c>
       <c r="N21" s="10" t="s">
-        <v>134</v>
+        <v>131</v>
+      </c>
+      <c r="O21" s="10" t="s">
+        <v>109</v>
       </c>
       <c r="Q21" s="10" t="s">
         <v>76</v>
@@ -4203,9 +4261,6 @@
       <c r="Y21" s="10">
         <v>1</v>
       </c>
-      <c r="Z21" s="10" t="b">
-        <v>0</v>
-      </c>
       <c r="AA21" s="10">
         <v>0.02</v>
       </c>
@@ -4231,7 +4286,7 @@
         <v>1E-3</v>
       </c>
       <c r="AI21" s="10">
-        <v>2.5000000000000001E-2</v>
+        <v>0.02</v>
       </c>
       <c r="AJ21" s="10">
         <v>0</v>
@@ -4240,13 +4295,7 @@
         <v>1</v>
       </c>
       <c r="AL21" s="10">
-        <v>2</v>
-      </c>
-      <c r="AM21" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AN21" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AP21" s="10">
         <v>0.05</v>
@@ -4340,20 +4389,20 @@
       </c>
     </row>
     <row r="22" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="17" t="s">
-        <v>151</v>
+      <c r="A22" s="21" t="s">
+        <v>166</v>
       </c>
       <c r="B22" s="10" t="b">
         <v>0</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>110</v>
+        <v>143</v>
       </c>
       <c r="D22" s="10">
         <v>1</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F22" s="10" t="s">
         <v>63</v>
@@ -4361,8 +4410,29 @@
       <c r="G22" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
+      <c r="H22" s="10">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="I22" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="J22" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="K22" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="L22" s="10">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="M22" s="10">
+        <v>7.4999999999999997E-2</v>
+      </c>
       <c r="N22" s="10" t="s">
-        <v>134</v>
+        <v>131</v>
+      </c>
+      <c r="O22" s="10" t="s">
+        <v>109</v>
       </c>
       <c r="Q22" s="10" t="s">
         <v>76</v>
@@ -4376,9 +4446,6 @@
       <c r="Y22" s="10">
         <v>1</v>
       </c>
-      <c r="Z22" s="10" t="b">
-        <v>0</v>
-      </c>
       <c r="AA22" s="10">
         <v>0.02</v>
       </c>
@@ -4404,7 +4471,7 @@
         <v>1E-3</v>
       </c>
       <c r="AI22" s="10">
-        <v>2.5000000000000001E-2</v>
+        <v>0.02</v>
       </c>
       <c r="AJ22" s="10">
         <v>0</v>
@@ -4413,13 +4480,7 @@
         <v>1</v>
       </c>
       <c r="AL22" s="10">
-        <v>2</v>
-      </c>
-      <c r="AM22" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AN22" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP22" s="10">
         <v>0.05</v>
@@ -4512,179 +4573,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="B23" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="D23" s="10">
-        <v>1</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="F23" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="G23" s="10">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="N23" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="O23" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="W23" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="X23" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y23" s="10">
-        <v>1</v>
-      </c>
-      <c r="AA23" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AB23" s="10">
-        <v>0</v>
-      </c>
-      <c r="AC23" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="AD23" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AE23" s="10">
-        <v>0</v>
-      </c>
-      <c r="AF23" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="AG23" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="AH23" s="10">
-        <v>1E-3</v>
-      </c>
-      <c r="AI23" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AJ23" s="10">
-        <v>0</v>
-      </c>
-      <c r="AK23" s="10">
-        <v>1</v>
-      </c>
-      <c r="AL23" s="10">
-        <v>1</v>
-      </c>
-      <c r="AP23" s="10">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AQ23" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AR23" s="10">
-        <v>0</v>
-      </c>
-      <c r="AT23" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AU23" s="10">
-        <v>0.03</v>
-      </c>
-      <c r="AV23" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AW23" s="10">
-        <v>0.04</v>
-      </c>
-      <c r="AX23" s="10">
-        <v>0.11</v>
-      </c>
-      <c r="AY23" s="10">
-        <v>1</v>
-      </c>
-      <c r="AZ23" s="10">
-        <v>0.03</v>
-      </c>
-      <c r="BA23" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="BB23" s="10">
-        <v>0.7</v>
-      </c>
-      <c r="BC23" s="10">
-        <v>1</v>
-      </c>
-      <c r="BD23" s="10">
-        <v>15</v>
-      </c>
-      <c r="BE23" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="BF23" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="BG23" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BH23" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="BI23" s="10">
-        <v>5</v>
-      </c>
-      <c r="BJ23" s="10">
-        <v>8.2199999999999995E-2</v>
-      </c>
-      <c r="BK23" s="10">
-        <v>0.12</v>
-      </c>
-      <c r="BL23" s="10">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="BM23" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BN23" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="BO23" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BP23" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="BQ23" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="BR23" s="10">
-        <v>0.75</v>
-      </c>
-      <c r="BS23" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="BT23" s="10" t="b">
-        <v>1</v>
-      </c>
-    </row>
+    <row r="23" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="24" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="20" t="s">
-        <v>174</v>
+      <c r="A24" s="10" t="s">
+        <v>115</v>
       </c>
       <c r="B24" s="10" t="b">
         <v>0</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D24" s="10">
         <v>1</v>
@@ -4699,7 +4597,10 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="N24" s="10" t="s">
-        <v>134</v>
+        <v>131</v>
+      </c>
+      <c r="Q24" s="10" t="s">
+        <v>76</v>
       </c>
       <c r="W24" s="10">
         <v>0.02</v>
@@ -4747,7 +4648,7 @@
         <v>1</v>
       </c>
       <c r="AP24" s="10">
-        <v>2.5000000000000001E-2</v>
+        <v>0.05</v>
       </c>
       <c r="AQ24" s="10">
         <v>0.5</v>
@@ -4828,7 +4729,7 @@
         <v>23</v>
       </c>
       <c r="BR24" s="10">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="BS24" s="10" t="b">
         <v>1</v>
@@ -4838,50 +4739,29 @@
       </c>
     </row>
     <row r="25" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="18" t="s">
-        <v>146</v>
+      <c r="A25" s="14" t="s">
+        <v>154</v>
       </c>
       <c r="B25" s="10" t="b">
         <v>0</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>146</v>
+        <v>106</v>
       </c>
       <c r="D25" s="10">
         <v>1</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="G25" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="H25" s="10">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="I25" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="J25" s="10">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="K25" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="L25" s="10">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="M25" s="10">
-        <v>7.4999999999999997E-2</v>
-      </c>
       <c r="N25" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="O25" s="10" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="Q25" s="10" t="s">
         <v>76</v>
@@ -4940,6 +4820,9 @@
       <c r="AR25" s="10">
         <v>0</v>
       </c>
+      <c r="AS25" s="10">
+        <v>0.105</v>
+      </c>
       <c r="AT25" s="10">
         <v>0.5</v>
       </c>
@@ -4983,7 +4866,7 @@
         <v>0.02</v>
       </c>
       <c r="BH25" s="10" t="s">
-        <v>152</v>
+        <v>19</v>
       </c>
       <c r="BI25" s="10">
         <v>5</v>
@@ -5013,7 +4896,7 @@
         <v>23</v>
       </c>
       <c r="BR25" s="10">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="BS25" s="10" t="b">
         <v>1</v>
@@ -5023,50 +4906,29 @@
       </c>
     </row>
     <row r="26" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="21" t="s">
-        <v>153</v>
+      <c r="A26" s="14" t="s">
+        <v>116</v>
       </c>
       <c r="B26" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>146</v>
+        <v>106</v>
       </c>
       <c r="D26" s="10">
         <v>1</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="G26" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="H26" s="10">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="I26" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="J26" s="10">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="K26" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="L26" s="10">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="M26" s="10">
-        <v>7.4999999999999997E-2</v>
-      </c>
       <c r="N26" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="O26" s="10" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="Q26" s="10" t="s">
         <v>76</v>
@@ -5125,6 +4987,9 @@
       <c r="AR26" s="10">
         <v>0</v>
       </c>
+      <c r="AS26" s="10">
+        <v>1</v>
+      </c>
       <c r="AT26" s="10">
         <v>0.5</v>
       </c>
@@ -5198,7 +5063,7 @@
         <v>23</v>
       </c>
       <c r="BR26" s="10">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="BS26" s="10" t="b">
         <v>1</v>
@@ -5208,50 +5073,29 @@
       </c>
     </row>
     <row r="27" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="14" t="s">
-        <v>167</v>
+      <c r="A27" s="10" t="s">
+        <v>132</v>
       </c>
       <c r="B27" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>146</v>
+        <v>106</v>
       </c>
       <c r="D27" s="10">
         <v>1</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="G27" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="H27" s="10">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="I27" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="J27" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="K27" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="L27" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="M27" s="10">
-        <v>7.4999999999999997E-2</v>
-      </c>
       <c r="N27" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="O27" s="10" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="Q27" s="10" t="s">
         <v>76</v>
@@ -5262,9 +5106,10 @@
       <c r="X27" s="10">
         <v>0</v>
       </c>
-      <c r="Y27" s="10">
-        <v>1</v>
-      </c>
+      <c r="Y27" s="14">
+        <v>5</v>
+      </c>
+      <c r="Z27" s="14"/>
       <c r="AA27" s="10">
         <v>0.02</v>
       </c>
@@ -5326,7 +5171,7 @@
         <v>0.11</v>
       </c>
       <c r="AY27" s="10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AZ27" s="10">
         <v>0.03</v>
@@ -5383,7 +5228,7 @@
         <v>23</v>
       </c>
       <c r="BR27" s="10">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="BS27" s="10" t="b">
         <v>1</v>
@@ -5393,50 +5238,29 @@
       </c>
     </row>
     <row r="28" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="14" t="s">
-        <v>168</v>
+      <c r="A28" s="10" t="s">
+        <v>119</v>
       </c>
       <c r="B28" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>146</v>
+        <v>106</v>
       </c>
       <c r="D28" s="10">
         <v>1</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="G28" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="H28" s="10">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="I28" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="J28" s="10">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="K28" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="L28" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="M28" s="10">
-        <v>7.4999999999999997E-2</v>
-      </c>
       <c r="N28" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="O28" s="10" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="Q28" s="10" t="s">
         <v>76</v>
@@ -5568,7 +5392,7 @@
         <v>23</v>
       </c>
       <c r="BR28" s="10">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="BS28" s="10" t="b">
         <v>1</v>
@@ -5579,19 +5403,19 @@
     </row>
     <row r="29" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="B29" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="D29" s="10">
         <v>1</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F29" s="10" t="s">
         <v>63</v>
@@ -5599,40 +5423,22 @@
       <c r="G29" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="H29" s="10">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="I29" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="J29" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="K29" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="L29" s="10">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="M29" s="10">
-        <v>7.4999999999999997E-2</v>
-      </c>
       <c r="N29" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="O29" s="10" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="Q29" s="10" t="s">
         <v>76</v>
       </c>
       <c r="W29" s="10">
-        <v>0.02</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="X29" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y29" s="10">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="Y29" s="14">
+        <v>5</v>
+      </c>
+      <c r="Z29" s="14" t="b">
         <v>1</v>
       </c>
       <c r="AA29" s="10">
@@ -5696,7 +5502,7 @@
         <v>0.11</v>
       </c>
       <c r="AY29" s="10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AZ29" s="10">
         <v>0.03</v>
@@ -5753,7 +5559,7 @@
         <v>23</v>
       </c>
       <c r="BR29" s="10">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="BS29" s="10" t="b">
         <v>1</v>
@@ -5762,22 +5568,188 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:72" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="B30" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="D30" s="10">
+        <v>1</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G30" s="10">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="N30" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q30" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="W30" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="X30" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="10">
+        <v>1</v>
+      </c>
+      <c r="Z30" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="10">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AB30" s="10">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AC30" s="10">
+        <v>1</v>
+      </c>
+      <c r="AD30" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AE30" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF30" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="AG30" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="AH30" s="10">
+        <v>1E-3</v>
+      </c>
+      <c r="AI30" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AJ30" s="10">
+        <v>0</v>
+      </c>
+      <c r="AK30" s="10">
+        <v>1</v>
+      </c>
+      <c r="AL30" s="10">
+        <v>1</v>
+      </c>
+      <c r="AP30" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="AQ30" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AR30" s="10">
+        <v>0</v>
+      </c>
+      <c r="AT30" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AU30" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="AV30" s="10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AW30" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="AX30" s="10">
+        <v>0.11</v>
+      </c>
+      <c r="AY30" s="10">
+        <v>1</v>
+      </c>
+      <c r="AZ30" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="BA30" s="10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="BB30" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="BC30" s="10">
+        <v>1</v>
+      </c>
+      <c r="BD30" s="10">
+        <v>15</v>
+      </c>
+      <c r="BE30" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="BF30" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="BG30" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BH30" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="BI30" s="10">
+        <v>5</v>
+      </c>
+      <c r="BJ30" s="10">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="BK30" s="10">
+        <v>0.12</v>
+      </c>
+      <c r="BL30" s="10">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="BM30" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BN30" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="BO30" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BP30" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="BQ30" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="BR30" s="10">
+        <v>1</v>
+      </c>
+      <c r="BS30" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="BT30" s="10" t="b">
+        <v>1</v>
+      </c>
+    </row>
     <row r="31" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B31" s="10" t="b">
         <v>0</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D31" s="10">
         <v>1</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F31" s="10" t="s">
         <v>63</v>
@@ -5786,7 +5758,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="N31" s="10" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="Q31" s="10" t="s">
         <v>76</v>
@@ -5800,6 +5772,9 @@
       <c r="Y31" s="10">
         <v>1</v>
       </c>
+      <c r="Z31" s="10" t="b">
+        <v>0</v>
+      </c>
       <c r="AA31" s="10">
         <v>0.02</v>
       </c>
@@ -5928,29 +5903,29 @@
       </c>
     </row>
     <row r="32" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="14" t="s">
-        <v>157</v>
+      <c r="A32" s="17" t="s">
+        <v>123</v>
       </c>
       <c r="B32" s="10" t="b">
         <v>0</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D32" s="10">
         <v>1</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="G32" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="N32" s="10" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="Q32" s="10" t="s">
         <v>76</v>
@@ -5964,6 +5939,9 @@
       <c r="Y32" s="10">
         <v>1</v>
       </c>
+      <c r="Z32" s="10" t="b">
+        <v>0</v>
+      </c>
       <c r="AA32" s="10">
         <v>0.02</v>
       </c>
@@ -5989,7 +5967,7 @@
         <v>1E-3</v>
       </c>
       <c r="AI32" s="10">
-        <v>0.02</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="AJ32" s="10">
         <v>0</v>
@@ -5998,7 +5976,13 @@
         <v>1</v>
       </c>
       <c r="AL32" s="10">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="AM32" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AN32" s="10">
+        <v>0.5</v>
       </c>
       <c r="AP32" s="10">
         <v>0.05</v>
@@ -6009,9 +5993,6 @@
       <c r="AR32" s="10">
         <v>0</v>
       </c>
-      <c r="AS32" s="10">
-        <v>0.105</v>
-      </c>
       <c r="AT32" s="10">
         <v>0.5</v>
       </c>
@@ -6095,29 +6076,29 @@
       </c>
     </row>
     <row r="33" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="17" t="s">
-        <v>120</v>
+      <c r="A33" s="19" t="s">
+        <v>159</v>
       </c>
       <c r="B33" s="10" t="b">
         <v>0</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D33" s="10">
         <v>1</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="G33" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="N33" s="10" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="Q33" s="10" t="s">
         <v>76</v>
@@ -6131,6 +6112,9 @@
       <c r="Y33" s="10">
         <v>1</v>
       </c>
+      <c r="Z33" s="10" t="b">
+        <v>0</v>
+      </c>
       <c r="AA33" s="10">
         <v>0.02</v>
       </c>
@@ -6156,7 +6140,7 @@
         <v>1E-3</v>
       </c>
       <c r="AI33" s="10">
-        <v>0.02</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="AJ33" s="10">
         <v>0</v>
@@ -6165,7 +6149,13 @@
         <v>1</v>
       </c>
       <c r="AL33" s="10">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="AM33" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AN33" s="10">
+        <v>0</v>
       </c>
       <c r="AP33" s="10">
         <v>0.05</v>
@@ -6174,10 +6164,7 @@
         <v>0.5</v>
       </c>
       <c r="AR33" s="10">
-        <v>0.05</v>
-      </c>
-      <c r="AS33" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT33" s="10">
         <v>0.5</v>
@@ -6262,14 +6249,14 @@
       </c>
     </row>
     <row r="34" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="14" t="s">
-        <v>119</v>
+      <c r="A34" s="10" t="s">
+        <v>124</v>
       </c>
       <c r="B34" s="10" t="b">
         <v>0</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D34" s="10">
         <v>1</v>
@@ -6278,16 +6265,16 @@
         <v>50</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="G34" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="N34" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q34" s="10" t="s">
-        <v>76</v>
+        <v>109</v>
+      </c>
+      <c r="O34" s="10" t="s">
+        <v>115</v>
       </c>
       <c r="W34" s="10">
         <v>0.02</v>
@@ -6335,16 +6322,13 @@
         <v>1</v>
       </c>
       <c r="AP34" s="10">
-        <v>0.05</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="AQ34" s="10">
         <v>0.5</v>
       </c>
       <c r="AR34" s="10">
         <v>0</v>
-      </c>
-      <c r="AS34" s="10">
-        <v>1</v>
       </c>
       <c r="AT34" s="10">
         <v>0.5</v>
@@ -6430,28 +6414,49 @@
     </row>
     <row r="35" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
-        <v>121</v>
+        <v>151</v>
       </c>
       <c r="B35" s="10" t="b">
         <v>0</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>109</v>
+        <v>143</v>
       </c>
       <c r="D35" s="10">
         <v>1</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="G35" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
+      <c r="H35" s="10">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="I35" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="J35" s="10">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="K35" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="L35" s="10">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="M35" s="10">
+        <v>7.4999999999999997E-2</v>
+      </c>
       <c r="N35" s="10" t="s">
-        <v>134</v>
+        <v>131</v>
+      </c>
+      <c r="O35" s="10" t="s">
+        <v>115</v>
       </c>
       <c r="Q35" s="10" t="s">
         <v>76</v>
@@ -6593,29 +6598,50 @@
       </c>
     </row>
     <row r="36" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="10" t="s">
-        <v>135</v>
+      <c r="A36" s="18" t="s">
+        <v>167</v>
       </c>
       <c r="B36" s="10" t="b">
         <v>0</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>109</v>
+        <v>143</v>
       </c>
       <c r="D36" s="10">
         <v>1</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="G36" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
+      <c r="H36" s="10">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="I36" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="J36" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="K36" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="L36" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="M36" s="10">
+        <v>7.4999999999999997E-2</v>
+      </c>
       <c r="N36" s="10" t="s">
-        <v>134</v>
+        <v>131</v>
+      </c>
+      <c r="O36" s="10" t="s">
+        <v>115</v>
       </c>
       <c r="Q36" s="10" t="s">
         <v>76</v>
@@ -6626,10 +6652,9 @@
       <c r="X36" s="10">
         <v>0</v>
       </c>
-      <c r="Y36" s="14">
-        <v>5</v>
-      </c>
-      <c r="Z36" s="14"/>
+      <c r="Y36" s="10">
+        <v>1</v>
+      </c>
       <c r="AA36" s="10">
         <v>0.02</v>
       </c>
@@ -6691,7 +6716,7 @@
         <v>0.11</v>
       </c>
       <c r="AY36" s="10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AZ36" s="10">
         <v>0.03</v>
@@ -6758,29 +6783,50 @@
       </c>
     </row>
     <row r="37" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="10" t="s">
-        <v>122</v>
+      <c r="A37" s="18" t="s">
+        <v>168</v>
       </c>
       <c r="B37" s="10" t="b">
         <v>0</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>109</v>
+        <v>143</v>
       </c>
       <c r="D37" s="10">
         <v>1</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="G37" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
+      <c r="H37" s="10">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="I37" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="J37" s="10">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="K37" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="L37" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="M37" s="10">
+        <v>7.4999999999999997E-2</v>
+      </c>
       <c r="N37" s="10" t="s">
-        <v>134</v>
+        <v>131</v>
+      </c>
+      <c r="O37" s="10" t="s">
+        <v>115</v>
       </c>
       <c r="Q37" s="10" t="s">
         <v>76</v>
@@ -6922,20 +6968,20 @@
       </c>
     </row>
     <row r="38" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="10" t="s">
-        <v>123</v>
+      <c r="A38" s="18" t="s">
+        <v>169</v>
       </c>
       <c r="B38" s="10" t="b">
         <v>0</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>110</v>
+        <v>143</v>
       </c>
       <c r="D38" s="10">
         <v>1</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F38" s="10" t="s">
         <v>63</v>
@@ -6943,8 +6989,29 @@
       <c r="G38" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
+      <c r="H38" s="10">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="I38" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="J38" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="K38" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="L38" s="10">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="M38" s="10">
+        <v>7.4999999999999997E-2</v>
+      </c>
       <c r="N38" s="10" t="s">
-        <v>134</v>
+        <v>131</v>
+      </c>
+      <c r="O38" s="10" t="s">
+        <v>115</v>
       </c>
       <c r="Q38" s="10" t="s">
         <v>76</v>
@@ -6958,9 +7025,6 @@
       <c r="Y38" s="10">
         <v>1</v>
       </c>
-      <c r="Z38" s="10" t="b">
-        <v>0</v>
-      </c>
       <c r="AA38" s="10">
         <v>0.02</v>
       </c>
@@ -7088,722 +7152,60 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="B39" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="D39" s="10">
-        <v>1</v>
-      </c>
-      <c r="E39" s="10" t="s">
+    <row r="39" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="14" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="43" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="B43" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="D43" s="10">
+        <v>1</v>
+      </c>
+      <c r="E43" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="F39" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="G39" s="10">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="N39" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q39" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="W39" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="X39" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y39" s="14">
-        <v>5</v>
-      </c>
-      <c r="Z39" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA39" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AB39" s="10">
-        <v>0</v>
-      </c>
-      <c r="AC39" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="AD39" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AE39" s="10">
-        <v>0</v>
-      </c>
-      <c r="AF39" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="AG39" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="AH39" s="10">
-        <v>1E-3</v>
-      </c>
-      <c r="AI39" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AJ39" s="10">
-        <v>0</v>
-      </c>
-      <c r="AK39" s="10">
-        <v>1</v>
-      </c>
-      <c r="AL39" s="10">
-        <v>1</v>
-      </c>
-      <c r="AP39" s="10">
-        <v>0.05</v>
-      </c>
-      <c r="AQ39" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AR39" s="10">
-        <v>0</v>
-      </c>
-      <c r="AT39" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AU39" s="10">
-        <v>0.03</v>
-      </c>
-      <c r="AV39" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AW39" s="10">
-        <v>0.04</v>
-      </c>
-      <c r="AX39" s="10">
-        <v>0.11</v>
-      </c>
-      <c r="AY39" s="10">
-        <v>5</v>
-      </c>
-      <c r="AZ39" s="10">
-        <v>0.03</v>
-      </c>
-      <c r="BA39" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="BB39" s="10">
-        <v>0.7</v>
-      </c>
-      <c r="BC39" s="10">
-        <v>1</v>
-      </c>
-      <c r="BD39" s="10">
-        <v>15</v>
-      </c>
-      <c r="BE39" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="BF39" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="BG39" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BH39" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="BI39" s="10">
-        <v>5</v>
-      </c>
-      <c r="BJ39" s="10">
-        <v>8.2199999999999995E-2</v>
-      </c>
-      <c r="BK39" s="10">
-        <v>0.12</v>
-      </c>
-      <c r="BL39" s="10">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="BM39" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BN39" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="BO39" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BP39" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="BQ39" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="BR39" s="10">
-        <v>1</v>
-      </c>
-      <c r="BS39" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="BT39" s="10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="B40" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="D40" s="10">
-        <v>1</v>
-      </c>
-      <c r="E40" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="F40" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="G40" s="10">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="N40" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q40" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="W40" s="10">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="X40" s="10">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="Y40" s="14">
-        <v>5</v>
-      </c>
-      <c r="Z40" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA40" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AB40" s="10">
-        <v>0</v>
-      </c>
-      <c r="AC40" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="AD40" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AE40" s="10">
-        <v>0</v>
-      </c>
-      <c r="AF40" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="AG40" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="AH40" s="10">
-        <v>1E-3</v>
-      </c>
-      <c r="AI40" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AJ40" s="10">
-        <v>0</v>
-      </c>
-      <c r="AK40" s="10">
-        <v>1</v>
-      </c>
-      <c r="AL40" s="10">
-        <v>1</v>
-      </c>
-      <c r="AP40" s="10">
-        <v>0.05</v>
-      </c>
-      <c r="AQ40" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AR40" s="10">
-        <v>0</v>
-      </c>
-      <c r="AT40" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AU40" s="10">
-        <v>0.03</v>
-      </c>
-      <c r="AV40" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AW40" s="10">
-        <v>0.04</v>
-      </c>
-      <c r="AX40" s="10">
-        <v>0.11</v>
-      </c>
-      <c r="AY40" s="10">
-        <v>5</v>
-      </c>
-      <c r="AZ40" s="10">
-        <v>0.03</v>
-      </c>
-      <c r="BA40" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="BB40" s="10">
-        <v>0.7</v>
-      </c>
-      <c r="BC40" s="10">
-        <v>1</v>
-      </c>
-      <c r="BD40" s="10">
-        <v>15</v>
-      </c>
-      <c r="BE40" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="BF40" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="BG40" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BH40" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="BI40" s="10">
-        <v>5</v>
-      </c>
-      <c r="BJ40" s="10">
-        <v>8.2199999999999995E-2</v>
-      </c>
-      <c r="BK40" s="10">
-        <v>0.12</v>
-      </c>
-      <c r="BL40" s="10">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="BM40" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BN40" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="BO40" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BP40" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="BQ40" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="BR40" s="10">
-        <v>1</v>
-      </c>
-      <c r="BS40" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="BT40" s="10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="B41" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="D41" s="10">
-        <v>1</v>
-      </c>
-      <c r="E41" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="F41" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="G41" s="10">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="N41" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q41" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="W41" s="10">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="X41" s="10">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="Y41" s="14">
-        <v>5</v>
-      </c>
-      <c r="Z41" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA41" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AB41" s="10">
-        <v>0</v>
-      </c>
-      <c r="AC41" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="AD41" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AE41" s="10">
-        <v>0</v>
-      </c>
-      <c r="AF41" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="AG41" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="AH41" s="10">
-        <v>1E-3</v>
-      </c>
-      <c r="AI41" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AJ41" s="10">
-        <v>0</v>
-      </c>
-      <c r="AK41" s="10">
-        <v>1</v>
-      </c>
-      <c r="AL41" s="10">
-        <v>1</v>
-      </c>
-      <c r="AP41" s="10">
-        <v>0.05</v>
-      </c>
-      <c r="AQ41" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AR41" s="10">
-        <v>0</v>
-      </c>
-      <c r="AT41" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AU41" s="10">
-        <v>0.03</v>
-      </c>
-      <c r="AV41" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AW41" s="10">
-        <v>0.04</v>
-      </c>
-      <c r="AX41" s="10">
-        <v>0.11</v>
-      </c>
-      <c r="AY41" s="10">
-        <v>5</v>
-      </c>
-      <c r="AZ41" s="10">
-        <v>0.03</v>
-      </c>
-      <c r="BA41" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="BB41" s="10">
-        <v>0.7</v>
-      </c>
-      <c r="BC41" s="10">
-        <v>1</v>
-      </c>
-      <c r="BD41" s="10">
-        <v>15</v>
-      </c>
-      <c r="BE41" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="BF41" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="BG41" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BH41" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="BI41" s="10">
-        <v>5</v>
-      </c>
-      <c r="BJ41" s="10">
-        <v>8.2199999999999995E-2</v>
-      </c>
-      <c r="BK41" s="10">
-        <v>0.12</v>
-      </c>
-      <c r="BL41" s="10">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="BM41" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BN41" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="BO41" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BP41" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="BQ41" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="BR41" s="10">
-        <v>1</v>
-      </c>
-      <c r="BS41" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="BT41" s="10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:72" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="B42" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="D42" s="10">
-        <v>1</v>
-      </c>
-      <c r="E42" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="F42" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="G42" s="10">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="N42" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q42" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="W42" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="X42" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y42" s="10">
-        <v>1</v>
-      </c>
-      <c r="Z42" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA42" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AB42" s="10">
-        <v>0</v>
-      </c>
-      <c r="AC42" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="AD42" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AE42" s="10">
-        <v>0</v>
-      </c>
-      <c r="AF42" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="AG42" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="AH42" s="10">
-        <v>1E-3</v>
-      </c>
-      <c r="AI42" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AJ42" s="10">
-        <v>0</v>
-      </c>
-      <c r="AK42" s="10">
-        <v>1</v>
-      </c>
-      <c r="AL42" s="10">
-        <v>1</v>
-      </c>
-      <c r="AP42" s="10">
-        <v>0.05</v>
-      </c>
-      <c r="AQ42" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AR42" s="10">
-        <v>0</v>
-      </c>
-      <c r="AT42" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AU42" s="10">
-        <v>0.03</v>
-      </c>
-      <c r="AV42" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AW42" s="10">
-        <v>0.04</v>
-      </c>
-      <c r="AX42" s="10">
-        <v>0.11</v>
-      </c>
-      <c r="AY42" s="10">
-        <v>1</v>
-      </c>
-      <c r="AZ42" s="10">
-        <v>0.03</v>
-      </c>
-      <c r="BA42" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="BB42" s="10">
-        <v>0.7</v>
-      </c>
-      <c r="BC42" s="10">
-        <v>1</v>
-      </c>
-      <c r="BD42" s="10">
-        <v>15</v>
-      </c>
-      <c r="BE42" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="BF42" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="BG42" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BH42" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="BI42" s="10">
-        <v>5</v>
-      </c>
-      <c r="BJ42" s="10">
-        <v>8.2199999999999995E-2</v>
-      </c>
-      <c r="BK42" s="10">
-        <v>0.12</v>
-      </c>
-      <c r="BL42" s="10">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="BM42" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BN42" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="BO42" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BP42" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="BQ42" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="BR42" s="10">
-        <v>1</v>
-      </c>
-      <c r="BS42" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="BT42" s="10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:72" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="B43" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="D43" s="10">
-        <v>1</v>
-      </c>
-      <c r="E43" s="10" t="s">
-        <v>52</v>
-      </c>
       <c r="F43" s="10" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="G43" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="N43" s="10" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="Q43" s="10" t="s">
         <v>76</v>
       </c>
       <c r="W43" s="10">
-        <v>0.02</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="X43" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y43" s="10">
-        <v>1</v>
-      </c>
-      <c r="Z43" s="10" t="b">
-        <v>0</v>
-      </c>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="Y43" s="14">
+        <v>5</v>
+      </c>
+      <c r="Z43" s="14"/>
       <c r="AA43" s="10">
-        <v>2.5000000000000001E-2</v>
+        <v>0.02</v>
       </c>
       <c r="AB43" s="10">
-        <v>5.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="AC43" s="10">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AD43" s="10">
         <v>0.02</v>
@@ -7839,7 +7241,7 @@
         <v>0.5</v>
       </c>
       <c r="AR43" s="10">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="AT43" s="10">
         <v>0.5</v>
@@ -7857,7 +7259,7 @@
         <v>0.11</v>
       </c>
       <c r="AY43" s="10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AZ43" s="10">
         <v>0.03</v>
@@ -7914,7 +7316,7 @@
         <v>23</v>
       </c>
       <c r="BR43" s="10">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="BS43" s="10" t="b">
         <v>1</v>
@@ -7925,44 +7327,42 @@
     </row>
     <row r="44" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="B44" s="10" t="b">
         <v>0</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>110</v>
+        <v>141</v>
       </c>
       <c r="D44" s="10">
         <v>1</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="G44" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="N44" s="10" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="Q44" s="10" t="s">
         <v>76</v>
       </c>
       <c r="W44" s="10">
-        <v>0.02</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="X44" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y44" s="10">
-        <v>1</v>
-      </c>
-      <c r="Z44" s="10" t="b">
-        <v>0</v>
-      </c>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="Y44" s="14">
+        <v>5</v>
+      </c>
+      <c r="Z44" s="14"/>
       <c r="AA44" s="10">
         <v>0.02</v>
       </c>
@@ -8006,7 +7406,7 @@
         <v>0.5</v>
       </c>
       <c r="AR44" s="10">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="AT44" s="10">
         <v>0.5</v>
@@ -8024,7 +7424,7 @@
         <v>0.11</v>
       </c>
       <c r="AY44" s="10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AZ44" s="10">
         <v>0.03</v>
@@ -8090,194 +7490,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="B45" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="C45" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="D45" s="10">
-        <v>1</v>
-      </c>
-      <c r="E45" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="F45" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="G45" s="10">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="N45" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q45" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="W45" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="X45" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y45" s="10">
-        <v>1</v>
-      </c>
-      <c r="Z45" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA45" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AB45" s="10">
-        <v>0</v>
-      </c>
-      <c r="AC45" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="AD45" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AE45" s="10">
-        <v>0</v>
-      </c>
-      <c r="AF45" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="AG45" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="AH45" s="10">
-        <v>1E-3</v>
-      </c>
-      <c r="AI45" s="10">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AJ45" s="10">
-        <v>0</v>
-      </c>
-      <c r="AK45" s="10">
-        <v>1</v>
-      </c>
-      <c r="AL45" s="10">
-        <v>2</v>
-      </c>
-      <c r="AM45" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AN45" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AP45" s="10">
-        <v>0.05</v>
-      </c>
-      <c r="AQ45" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AR45" s="10">
-        <v>0</v>
-      </c>
-      <c r="AT45" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AU45" s="10">
-        <v>0.03</v>
-      </c>
-      <c r="AV45" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AW45" s="10">
-        <v>0.04</v>
-      </c>
-      <c r="AX45" s="10">
-        <v>0.11</v>
-      </c>
-      <c r="AY45" s="10">
-        <v>1</v>
-      </c>
-      <c r="AZ45" s="10">
-        <v>0.03</v>
-      </c>
-      <c r="BA45" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="BB45" s="10">
-        <v>0.7</v>
-      </c>
-      <c r="BC45" s="10">
-        <v>1</v>
-      </c>
-      <c r="BD45" s="10">
-        <v>15</v>
-      </c>
-      <c r="BE45" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="BF45" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="BG45" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BH45" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="BI45" s="10">
-        <v>5</v>
-      </c>
-      <c r="BJ45" s="10">
-        <v>8.2199999999999995E-2</v>
-      </c>
-      <c r="BK45" s="10">
-        <v>0.12</v>
-      </c>
-      <c r="BL45" s="10">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="BM45" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BN45" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="BO45" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BP45" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="BQ45" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="BR45" s="10">
-        <v>1</v>
-      </c>
-      <c r="BS45" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="BT45" s="10" t="b">
-        <v>1</v>
-      </c>
-    </row>
+    <row r="45" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="46" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="19" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="B46" s="10" t="b">
         <v>0</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>110</v>
+        <v>143</v>
       </c>
       <c r="D46" s="10">
         <v>1</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F46" s="10" t="s">
         <v>63</v>
@@ -8285,8 +7513,29 @@
       <c r="G46" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
+      <c r="H46" s="10">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="I46" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="J46" s="10">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="K46" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="L46" s="10">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="M46" s="10">
+        <v>7.4999999999999997E-2</v>
+      </c>
       <c r="N46" s="10" t="s">
-        <v>134</v>
+        <v>131</v>
+      </c>
+      <c r="O46" s="10" t="s">
+        <v>109</v>
       </c>
       <c r="Q46" s="10" t="s">
         <v>76</v>
@@ -8300,9 +7549,6 @@
       <c r="Y46" s="10">
         <v>1</v>
       </c>
-      <c r="Z46" s="10" t="b">
-        <v>0</v>
-      </c>
       <c r="AA46" s="10">
         <v>0.02</v>
       </c>
@@ -8328,7 +7574,7 @@
         <v>1E-3</v>
       </c>
       <c r="AI46" s="10">
-        <v>2.5000000000000001E-2</v>
+        <v>0.02</v>
       </c>
       <c r="AJ46" s="10">
         <v>0</v>
@@ -8337,13 +7583,7 @@
         <v>1</v>
       </c>
       <c r="AL46" s="10">
-        <v>2</v>
-      </c>
-      <c r="AM46" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AN46" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP46" s="10">
         <v>0.05</v>
@@ -8397,7 +7637,7 @@
         <v>0.02</v>
       </c>
       <c r="BH46" s="10" t="s">
-        <v>19</v>
+        <v>149</v>
       </c>
       <c r="BI46" s="10">
         <v>5</v>
@@ -8427,7 +7667,7 @@
         <v>23</v>
       </c>
       <c r="BR46" s="10">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="BS46" s="10" t="b">
         <v>1</v>
@@ -8437,20 +7677,20 @@
       </c>
     </row>
     <row r="47" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="10" t="s">
-        <v>127</v>
+      <c r="A47" s="19" t="s">
+        <v>147</v>
       </c>
       <c r="B47" s="10" t="b">
         <v>0</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="D47" s="10">
         <v>1</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F47" s="10" t="s">
         <v>63</v>
@@ -8458,11 +7698,32 @@
       <c r="G47" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
+      <c r="H47" s="10">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="I47" s="10">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="J47" s="10">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="K47" s="10">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="L47" s="10">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="M47" s="10">
+        <v>7.4999999999999997E-2</v>
+      </c>
       <c r="N47" s="10" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="O47" s="10" t="s">
-        <v>118</v>
+        <v>115</v>
+      </c>
+      <c r="Q47" s="10" t="s">
+        <v>76</v>
       </c>
       <c r="W47" s="10">
         <v>0.02</v>
@@ -8510,7 +7771,7 @@
         <v>1</v>
       </c>
       <c r="AP47" s="10">
-        <v>2.5000000000000001E-2</v>
+        <v>0.05</v>
       </c>
       <c r="AQ47" s="10">
         <v>0.5</v>
@@ -8561,7 +7822,7 @@
         <v>0.02</v>
       </c>
       <c r="BH47" s="10" t="s">
-        <v>19</v>
+        <v>149</v>
       </c>
       <c r="BI47" s="10">
         <v>5</v>
@@ -8600,236 +7861,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="18" t="s">
-        <v>150</v>
-      </c>
-      <c r="B48" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="D48" s="10">
-        <v>1</v>
-      </c>
-      <c r="E48" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="F48" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="G48" s="10">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="H48" s="10">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="I48" s="10">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="J48" s="10">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="K48" s="10">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="L48" s="10">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="M48" s="10">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="N48" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="O48" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q48" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="W48" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="X48" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y48" s="10">
-        <v>1</v>
-      </c>
-      <c r="AA48" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AB48" s="10">
-        <v>0</v>
-      </c>
-      <c r="AC48" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="AD48" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AE48" s="10">
-        <v>0</v>
-      </c>
-      <c r="AF48" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="AG48" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="AH48" s="10">
-        <v>1E-3</v>
-      </c>
-      <c r="AI48" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AJ48" s="10">
-        <v>0</v>
-      </c>
-      <c r="AK48" s="10">
-        <v>1</v>
-      </c>
-      <c r="AL48" s="10">
-        <v>1</v>
-      </c>
-      <c r="AP48" s="10">
-        <v>0.05</v>
-      </c>
-      <c r="AQ48" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AR48" s="10">
-        <v>0</v>
-      </c>
-      <c r="AT48" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AU48" s="10">
-        <v>0.03</v>
-      </c>
-      <c r="AV48" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AW48" s="10">
-        <v>0.04</v>
-      </c>
-      <c r="AX48" s="10">
-        <v>0.11</v>
-      </c>
-      <c r="AY48" s="10">
-        <v>1</v>
-      </c>
-      <c r="AZ48" s="10">
-        <v>0.03</v>
-      </c>
-      <c r="BA48" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="BB48" s="10">
-        <v>0.7</v>
-      </c>
-      <c r="BC48" s="10">
-        <v>1</v>
-      </c>
-      <c r="BD48" s="10">
-        <v>15</v>
-      </c>
-      <c r="BE48" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="BF48" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="BG48" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BH48" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="BI48" s="10">
-        <v>5</v>
-      </c>
-      <c r="BJ48" s="10">
-        <v>8.2199999999999995E-2</v>
-      </c>
-      <c r="BK48" s="10">
-        <v>0.12</v>
-      </c>
-      <c r="BL48" s="10">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="BM48" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BN48" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="BO48" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BP48" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="BQ48" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="BR48" s="10">
-        <v>1</v>
-      </c>
-      <c r="BS48" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="BT48" s="10" t="b">
-        <v>1</v>
-      </c>
-    </row>
+    <row r="48" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="49" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
-        <v>154</v>
+        <v>87</v>
       </c>
       <c r="B49" s="10" t="b">
         <v>0</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>146</v>
+        <v>106</v>
       </c>
       <c r="D49" s="10">
         <v>1</v>
       </c>
       <c r="E49" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F49" s="10" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="G49" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="H49" s="10">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="I49" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="J49" s="10">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="K49" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="L49" s="10">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="M49" s="10">
-        <v>7.4999999999999997E-2</v>
-      </c>
       <c r="N49" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="O49" s="10" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="Q49" s="10" t="s">
         <v>76</v>
@@ -8961,7 +8017,7 @@
         <v>23</v>
       </c>
       <c r="BR49" s="10">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="BS49" s="10" t="b">
         <v>1</v>
@@ -8971,50 +8027,29 @@
       </c>
     </row>
     <row r="50" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="18" t="s">
-        <v>170</v>
+      <c r="A50" s="10" t="s">
+        <v>112</v>
       </c>
       <c r="B50" s="10" t="b">
         <v>0</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>146</v>
+        <v>106</v>
       </c>
       <c r="D50" s="10">
         <v>1</v>
       </c>
       <c r="E50" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F50" s="10" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="G50" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="H50" s="10">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="I50" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="J50" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="K50" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="L50" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="M50" s="10">
-        <v>7.4999999999999997E-2</v>
-      </c>
       <c r="N50" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="O50" s="10" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="Q50" s="10" t="s">
         <v>76</v>
@@ -9071,7 +8106,10 @@
         <v>0.5</v>
       </c>
       <c r="AR50" s="10">
-        <v>0</v>
+        <v>0.05</v>
+      </c>
+      <c r="AS50" s="10">
+        <v>1</v>
       </c>
       <c r="AT50" s="10">
         <v>0.5</v>
@@ -9146,7 +8184,7 @@
         <v>23</v>
       </c>
       <c r="BR50" s="10">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="BS50" s="10" t="b">
         <v>1</v>
@@ -9156,20 +8194,20 @@
       </c>
     </row>
     <row r="51" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="18" t="s">
-        <v>171</v>
+      <c r="A51" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="B51" s="10" t="b">
         <v>0</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="D51" s="10">
         <v>1</v>
       </c>
       <c r="E51" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F51" s="10" t="s">
         <v>63</v>
@@ -9177,29 +8215,8 @@
       <c r="G51" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="H51" s="10">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="I51" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="J51" s="10">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="K51" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="L51" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="M51" s="10">
-        <v>7.4999999999999997E-2</v>
-      </c>
       <c r="N51" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="O51" s="10" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="Q51" s="10" t="s">
         <v>76</v>
@@ -9213,6 +8230,9 @@
       <c r="Y51" s="10">
         <v>1</v>
       </c>
+      <c r="Z51" s="10" t="b">
+        <v>0</v>
+      </c>
       <c r="AA51" s="10">
         <v>0.02</v>
       </c>
@@ -9331,7 +8351,7 @@
         <v>23</v>
       </c>
       <c r="BR51" s="10">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="BS51" s="10" t="b">
         <v>1</v>
@@ -9341,20 +8361,20 @@
       </c>
     </row>
     <row r="52" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="18" t="s">
-        <v>172</v>
+      <c r="A52" s="10" t="s">
+        <v>128</v>
       </c>
       <c r="B52" s="10" t="b">
         <v>0</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="D52" s="10">
         <v>1</v>
       </c>
       <c r="E52" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F52" s="10" t="s">
         <v>63</v>
@@ -9362,29 +8382,8 @@
       <c r="G52" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="H52" s="10">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="I52" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="J52" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="K52" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="L52" s="10">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="M52" s="10">
-        <v>7.4999999999999997E-2</v>
-      </c>
       <c r="N52" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="O52" s="10" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="Q52" s="10" t="s">
         <v>76</v>
@@ -9395,8 +8394,11 @@
       <c r="X52" s="10">
         <v>0</v>
       </c>
-      <c r="Y52" s="10">
-        <v>1</v>
+      <c r="Y52" s="14">
+        <v>5</v>
+      </c>
+      <c r="Z52" s="10" t="b">
+        <v>0</v>
       </c>
       <c r="AA52" s="10">
         <v>0.02</v>
@@ -9459,7 +8461,7 @@
         <v>0.11</v>
       </c>
       <c r="AY52" s="10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AZ52" s="10">
         <v>0.03</v>
@@ -9516,7 +8518,7 @@
         <v>23</v>
       </c>
       <c r="BR52" s="10">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="BS52" s="10" t="b">
         <v>1</v>
@@ -9525,68 +8527,350 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="54" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="B53" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="D53" s="10">
+        <v>1</v>
+      </c>
+      <c r="E53" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="F53" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G53" s="10">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="N53" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q53" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="W53" s="10">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="X53" s="10">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="Y53" s="14">
+        <v>5</v>
+      </c>
+      <c r="Z53" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AB53" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="AD53" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AE53" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF53" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="AG53" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="AH53" s="10">
+        <v>1E-3</v>
+      </c>
+      <c r="AI53" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AJ53" s="10">
+        <v>0</v>
+      </c>
+      <c r="AK53" s="10">
+        <v>1</v>
+      </c>
+      <c r="AL53" s="10">
+        <v>1</v>
+      </c>
+      <c r="AP53" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="AQ53" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AR53" s="10">
+        <v>0</v>
+      </c>
+      <c r="AT53" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AU53" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="AV53" s="10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AW53" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="AX53" s="10">
+        <v>0.11</v>
+      </c>
+      <c r="AY53" s="10">
+        <v>5</v>
+      </c>
+      <c r="AZ53" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="BA53" s="10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="BB53" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="BC53" s="10">
+        <v>1</v>
+      </c>
+      <c r="BD53" s="10">
+        <v>15</v>
+      </c>
+      <c r="BE53" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="BF53" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="BG53" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BH53" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="BI53" s="10">
+        <v>5</v>
+      </c>
+      <c r="BJ53" s="10">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="BK53" s="10">
+        <v>0.12</v>
+      </c>
+      <c r="BL53" s="10">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="BM53" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BN53" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="BO53" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BP53" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="BQ53" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="BR53" s="10">
+        <v>0.75</v>
+      </c>
+      <c r="BS53" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="BT53" s="10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:72" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="10" t="s">
-        <v>108</v>
+        <v>55</v>
       </c>
       <c r="B54" s="10" t="b">
         <v>0</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>111</v>
+        <v>107</v>
+      </c>
+      <c r="D54" s="10">
+        <v>1</v>
+      </c>
+      <c r="E54" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F54" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G54" s="10">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="N54" s="10" t="s">
+        <v>131</v>
       </c>
       <c r="Q54" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="R54" s="10">
-        <v>1</v>
-      </c>
-      <c r="S54" s="10">
-        <v>1</v>
-      </c>
-      <c r="T54" s="10">
-        <v>1</v>
-      </c>
-      <c r="U54" s="10">
+      <c r="W54" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="X54" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y54" s="10">
+        <v>1</v>
+      </c>
+      <c r="Z54" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA54" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AB54" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC54" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="AD54" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AE54" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF54" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="AG54" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="AH54" s="10">
+        <v>1E-3</v>
+      </c>
+      <c r="AI54" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AJ54" s="10">
+        <v>0</v>
+      </c>
+      <c r="AK54" s="10">
+        <v>1</v>
+      </c>
+      <c r="AL54" s="10">
+        <v>1</v>
+      </c>
+      <c r="AP54" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="AQ54" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AR54" s="10">
+        <v>0</v>
+      </c>
+      <c r="AT54" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AU54" s="10">
         <v>0.03</v>
       </c>
-      <c r="V54" s="10">
+      <c r="AV54" s="10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AW54" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="AX54" s="10">
+        <v>0.11</v>
+      </c>
+      <c r="AY54" s="10">
+        <v>1</v>
+      </c>
+      <c r="AZ54" s="10">
         <v>0.03</v>
       </c>
+      <c r="BA54" s="10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="BB54" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="BC54" s="10">
+        <v>1</v>
+      </c>
+      <c r="BD54" s="10">
+        <v>15</v>
+      </c>
+      <c r="BE54" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="BF54" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="BG54" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BH54" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="BI54" s="10">
+        <v>5</v>
+      </c>
+      <c r="BJ54" s="10">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="BK54" s="10">
+        <v>0.12</v>
+      </c>
+      <c r="BL54" s="10">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="BM54" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BN54" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="BO54" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BP54" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="BQ54" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="BR54" s="10">
+        <v>0.75</v>
+      </c>
+      <c r="BS54" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="BT54" s="10" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="55" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="10" t="s">
+    <row r="55" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="56" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="B56" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="C56" s="10" t="s">
         <v>106</v>
-      </c>
-      <c r="Q55" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="R55" s="10">
-        <v>1</v>
-      </c>
-      <c r="S55" s="10">
-        <v>1</v>
-      </c>
-      <c r="T55" s="10">
-        <v>1</v>
-      </c>
-      <c r="U55" s="10">
-        <v>0.06</v>
-      </c>
-      <c r="V55" s="10">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="56" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="B56" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="C56" s="10" t="s">
-        <v>109</v>
       </c>
       <c r="D56" s="10">
         <v>1</v>
@@ -9595,11 +8879,14 @@
         <v>50</v>
       </c>
       <c r="F56" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G56" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
+      <c r="N56" s="10" t="s">
+        <v>131</v>
+      </c>
       <c r="Q56" s="10" t="s">
         <v>76</v>
       </c>
@@ -9609,6 +8896,9 @@
       <c r="X56" s="10">
         <v>0</v>
       </c>
+      <c r="Y56" s="10">
+        <v>1</v>
+      </c>
       <c r="AA56" s="10">
         <v>0.02</v>
       </c>
@@ -9652,7 +8942,10 @@
         <v>0.5</v>
       </c>
       <c r="AR56" s="10">
-        <v>0</v>
+        <v>0.05</v>
+      </c>
+      <c r="AS56" s="10">
+        <v>1</v>
       </c>
       <c r="AT56" s="10">
         <v>0.5</v>
@@ -9669,6 +8962,9 @@
       <c r="AX56" s="10">
         <v>0.11</v>
       </c>
+      <c r="AY56" s="10">
+        <v>1</v>
+      </c>
       <c r="AZ56" s="10">
         <v>0.03</v>
       </c>
@@ -9724,7 +9020,7 @@
         <v>23</v>
       </c>
       <c r="BR56" s="10">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="BS56" s="10" t="b">
         <v>1</v>
@@ -9733,29 +9029,195 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="57" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B57" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="D57" s="10">
+        <v>1</v>
+      </c>
+      <c r="E57" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F57" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="G57" s="10">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="N57" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q57" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="W57" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="X57" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y57" s="10">
+        <v>1</v>
+      </c>
+      <c r="AA57" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AB57" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC57" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="AD57" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AE57" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF57" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="AG57" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="AH57" s="10">
+        <v>1E-3</v>
+      </c>
+      <c r="AI57" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AJ57" s="10">
+        <v>0</v>
+      </c>
+      <c r="AK57" s="10">
+        <v>1</v>
+      </c>
+      <c r="AL57" s="10">
+        <v>1</v>
+      </c>
+      <c r="AP57" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="AQ57" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AR57" s="10">
+        <v>0</v>
+      </c>
+      <c r="AT57" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AU57" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="AV57" s="10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AW57" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="AX57" s="10">
+        <v>0.11</v>
+      </c>
+      <c r="AY57" s="10">
+        <v>1</v>
+      </c>
+      <c r="AZ57" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="BA57" s="10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="BB57" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="BC57" s="10">
+        <v>1</v>
+      </c>
+      <c r="BD57" s="10">
+        <v>15</v>
+      </c>
+      <c r="BE57" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="BF57" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="BG57" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BH57" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="BI57" s="10">
+        <v>5</v>
+      </c>
+      <c r="BJ57" s="10">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="BK57" s="10">
+        <v>0.12</v>
+      </c>
+      <c r="BL57" s="10">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="BM57" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BN57" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="BO57" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BP57" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="BQ57" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="BR57" s="10">
+        <v>1</v>
+      </c>
+      <c r="BS57" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="BT57" s="10" t="b">
+        <v>1</v>
+      </c>
+    </row>
     <row r="58" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="14" t="s">
-        <v>119</v>
+      <c r="A58" s="10" t="s">
+        <v>120</v>
       </c>
       <c r="B58" s="10" t="b">
         <v>0</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D58" s="10">
         <v>1</v>
       </c>
       <c r="E58" s="10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F58" s="10" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="G58" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
+      <c r="N58" s="10" t="s">
+        <v>131</v>
+      </c>
       <c r="Q58" s="10" t="s">
         <v>76</v>
       </c>
@@ -9765,6 +9227,12 @@
       <c r="X58" s="10">
         <v>0</v>
       </c>
+      <c r="Y58" s="10">
+        <v>1</v>
+      </c>
+      <c r="Z58" s="10" t="b">
+        <v>0</v>
+      </c>
       <c r="AA58" s="10">
         <v>0.02</v>
       </c>
@@ -9826,7 +9294,7 @@
         <v>0.11</v>
       </c>
       <c r="AY58" s="10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AZ58" s="10">
         <v>0.03</v>
@@ -9894,13 +9362,13 @@
     </row>
     <row r="59" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="10" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="B59" s="10" t="b">
         <v>0</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>144</v>
+        <v>107</v>
       </c>
       <c r="D59" s="10">
         <v>1</v>
@@ -9909,27 +9377,29 @@
         <v>51</v>
       </c>
       <c r="F59" s="10" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="G59" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="N59" s="10" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="Q59" s="10" t="s">
         <v>76</v>
       </c>
       <c r="W59" s="10">
-        <v>2.5000000000000001E-2</v>
+        <v>0.02</v>
       </c>
       <c r="X59" s="10">
-        <v>5.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="Y59" s="14">
         <v>5</v>
       </c>
-      <c r="Z59" s="14"/>
+      <c r="Z59" s="10" t="b">
+        <v>0</v>
+      </c>
       <c r="AA59" s="10">
         <v>0.02</v>
       </c>
@@ -9973,7 +9443,7 @@
         <v>0.5</v>
       </c>
       <c r="AR59" s="10">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="AT59" s="10">
         <v>0.5</v>
@@ -10048,7 +9518,7 @@
         <v>23</v>
       </c>
       <c r="BR59" s="10">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="BS59" s="10" t="b">
         <v>1</v>
@@ -10059,13 +9529,13 @@
     </row>
     <row r="60" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="10" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="B60" s="10" t="b">
         <v>0</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>144</v>
+        <v>107</v>
       </c>
       <c r="D60" s="10">
         <v>1</v>
@@ -10074,13 +9544,13 @@
         <v>51</v>
       </c>
       <c r="F60" s="10" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="G60" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="N60" s="10" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="Q60" s="10" t="s">
         <v>76</v>
@@ -10094,7 +9564,9 @@
       <c r="Y60" s="14">
         <v>5</v>
       </c>
-      <c r="Z60" s="14"/>
+      <c r="Z60" s="10" t="b">
+        <v>0</v>
+      </c>
       <c r="AA60" s="10">
         <v>0.02</v>
       </c>
@@ -10138,7 +9610,7 @@
         <v>0.5</v>
       </c>
       <c r="AR60" s="10">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="AT60" s="10">
         <v>0.5</v>
@@ -10222,15 +9694,179 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="62" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="63" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="61" spans="1:72" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="B61" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="D61" s="10">
+        <v>1</v>
+      </c>
+      <c r="E61" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F61" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G61" s="10">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="N61" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q61" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="W61" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="X61" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="10">
+        <v>1</v>
+      </c>
+      <c r="Z61" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AB61" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC61" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="AD61" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AE61" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF61" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="AG61" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="AH61" s="10">
+        <v>1E-3</v>
+      </c>
+      <c r="AI61" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AJ61" s="10">
+        <v>0</v>
+      </c>
+      <c r="AK61" s="10">
+        <v>1</v>
+      </c>
+      <c r="AL61" s="10">
+        <v>1</v>
+      </c>
+      <c r="AP61" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="AQ61" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AR61" s="10">
+        <v>0</v>
+      </c>
+      <c r="AT61" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AU61" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="AV61" s="10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AW61" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="AX61" s="10">
+        <v>0.11</v>
+      </c>
+      <c r="AY61" s="10">
+        <v>1</v>
+      </c>
+      <c r="AZ61" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="BA61" s="10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="BB61" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="BC61" s="10">
+        <v>1</v>
+      </c>
+      <c r="BD61" s="10">
+        <v>15</v>
+      </c>
+      <c r="BE61" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="BF61" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="BG61" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BH61" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="BI61" s="10">
+        <v>5</v>
+      </c>
+      <c r="BJ61" s="10">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="BK61" s="10">
+        <v>0.12</v>
+      </c>
+      <c r="BL61" s="10">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="BM61" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BN61" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="BO61" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BP61" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="BQ61" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="BR61" s="10">
+        <v>1</v>
+      </c>
+      <c r="BS61" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="BT61" s="10" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q3:Q22 Q25:Q46 Q58:Q60 Q48:Q56" xr:uid="{8DBFC5CB-438A-4309-B948-24597CAE3D7F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q46:Q47 Q3:Q16 Q49:Q54 Q43:Q44 Q56:Q61 Q19:Q33 Q35:Q41" xr:uid="{8DBFC5CB-438A-4309-B948-24597CAE3D7F}">
       <formula1>"preSet, ALpct,MApct"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B63" xr:uid="{05E01AB2-72EC-4550-ACB8-4E83765DE296}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B61" xr:uid="{05E01AB2-72EC-4550-ACB8-4E83765DE296}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -10244,7 +9880,7 @@
           <x14:formula1>
             <xm:f>Policies!$B$3:$B$9</xm:f>
           </x14:formula1>
-          <xm:sqref>F56 F58:F60 F3:F54</xm:sqref>
+          <xm:sqref>F46:F47 F49:F54 F43:F44 F56:F61 F3:F41</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -10358,10 +9994,10 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B5" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">

--- a/RunControl.xlsx
+++ b/RunControl.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{074D63BB-F342-45D0-9A1B-33FFD8104FCA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A6C6A54-A786-4B5D-A3FD-51AF6475364C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1845" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="paramlist" sheetId="1" r:id="rId1"/>
@@ -989,10 +989,10 @@
   <dimension ref="A1:BT61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="2" topLeftCell="AO3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A12" sqref="A12"/>
+      <selection pane="bottomRight" activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1673,7 +1673,7 @@
         <v>153</v>
       </c>
       <c r="B6" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>106</v>
@@ -1751,7 +1751,7 @@
         <v>0</v>
       </c>
       <c r="AS6" s="10">
-        <v>0.105</v>
+        <v>0.1</v>
       </c>
       <c r="AT6" s="10">
         <v>0.5</v>
@@ -4743,7 +4743,7 @@
         <v>154</v>
       </c>
       <c r="B25" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>106</v>
@@ -4821,7 +4821,7 @@
         <v>0</v>
       </c>
       <c r="AS25" s="10">
-        <v>0.105</v>
+        <v>0.1</v>
       </c>
       <c r="AT25" s="10">
         <v>0.5</v>

--- a/RunControl.xlsx
+++ b/RunControl.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A6C6A54-A786-4B5D-A3FD-51AF6475364C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABA979B4-8EBE-4A76-B983-0678B2DD401E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28050" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="paramlist" sheetId="1" r:id="rId1"/>
@@ -560,13 +560,13 @@
     <t>DA_as_ret_FR100</t>
   </si>
   <si>
-    <t>EEC_FR_t100</t>
-  </si>
-  <si>
-    <t>hybrid_DB_noLegacy</t>
-  </si>
-  <si>
     <t>Archived runs:</t>
+  </si>
+  <si>
+    <t>hybrid_DB_noLegacy_FR100</t>
+  </si>
+  <si>
+    <t>EEC_FR_t100_FR100</t>
   </si>
 </sst>
 </file>
@@ -989,10 +989,10 @@
   <dimension ref="A1:BT61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="2" topLeftCell="AO3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F37" sqref="F37"/>
+      <selection pane="bottomRight" activeCell="AL25" sqref="AL25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1673,7 +1673,7 @@
         <v>153</v>
       </c>
       <c r="B6" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>106</v>
@@ -2332,22 +2332,22 @@
     </row>
     <row r="10" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="B10" s="10" t="b">
         <v>0</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D10" s="10">
         <v>1</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="G10" s="10">
         <v>1.4999999999999999E-2</v>
@@ -2359,12 +2359,15 @@
         <v>76</v>
       </c>
       <c r="W10" s="10">
-        <v>0.02</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="X10" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="10">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="Y10" s="14">
+        <v>5</v>
+      </c>
+      <c r="Z10" s="14" t="b">
         <v>1</v>
       </c>
       <c r="AA10" s="10">
@@ -2428,7 +2431,7 @@
         <v>0.11</v>
       </c>
       <c r="AY10" s="10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AZ10" s="10">
         <v>0.03</v>
@@ -2437,10 +2440,10 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="BB10" s="10">
-        <v>0.85</v>
+        <v>0.7</v>
       </c>
       <c r="BC10" s="10">
-        <v>1.1499999999999999</v>
+        <v>1</v>
       </c>
       <c r="BD10" s="10">
         <v>15</v>
@@ -2496,7 +2499,7 @@
     </row>
     <row r="11" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B11" s="10" t="b">
         <v>0</v>
@@ -2529,7 +2532,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="Y11" s="14">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="Z11" s="14" t="b">
         <v>1</v>
@@ -2661,9 +2664,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:72" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="B12" s="10" t="b">
         <v>0</v>
@@ -2675,7 +2678,7 @@
         <v>1</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F12" s="10" t="s">
         <v>63</v>
@@ -2690,25 +2693,25 @@
         <v>76</v>
       </c>
       <c r="W12" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="X12" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="10">
+        <v>1</v>
+      </c>
+      <c r="Z12" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="10">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="X12" s="10">
+      <c r="AB12" s="10">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="Y12" s="14">
-        <v>10</v>
-      </c>
-      <c r="Z12" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA12" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AB12" s="10">
-        <v>0</v>
-      </c>
       <c r="AC12" s="10">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AD12" s="10">
         <v>0.02</v>
@@ -2762,7 +2765,7 @@
         <v>0.11</v>
       </c>
       <c r="AY12" s="10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AZ12" s="10">
         <v>0.03</v>
@@ -2828,9 +2831,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:72" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="20" t="s">
-        <v>135</v>
+    <row r="13" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>102</v>
       </c>
       <c r="B13" s="10" t="b">
         <v>0</v>
@@ -2842,7 +2845,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>63</v>
@@ -2869,13 +2872,13 @@
         <v>0</v>
       </c>
       <c r="AA13" s="10">
-        <v>2.5000000000000001E-2</v>
+        <v>0.02</v>
       </c>
       <c r="AB13" s="10">
-        <v>5.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="AC13" s="10">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AD13" s="10">
         <v>0.02</v>
@@ -2996,8 +2999,8 @@
       </c>
     </row>
     <row r="14" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
-        <v>102</v>
+      <c r="A14" s="20" t="s">
+        <v>104</v>
       </c>
       <c r="B14" s="10" t="b">
         <v>0</v>
@@ -3009,7 +3012,7 @@
         <v>1</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>63</v>
@@ -3060,7 +3063,7 @@
         <v>1E-3</v>
       </c>
       <c r="AI14" s="10">
-        <v>0.02</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="AJ14" s="10">
         <v>0</v>
@@ -3069,7 +3072,13 @@
         <v>1</v>
       </c>
       <c r="AL14" s="10">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="AM14" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AN14" s="10">
+        <v>0.5</v>
       </c>
       <c r="AP14" s="10">
         <v>0.05</v>
@@ -3163,8 +3172,8 @@
       </c>
     </row>
     <row r="15" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="20" t="s">
-        <v>104</v>
+      <c r="A15" s="17" t="s">
+        <v>148</v>
       </c>
       <c r="B15" s="10" t="b">
         <v>0</v>
@@ -3242,7 +3251,7 @@
         <v>0.5</v>
       </c>
       <c r="AN15" s="10">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AP15" s="10">
         <v>0.05</v>
@@ -3336,20 +3345,20 @@
       </c>
     </row>
     <row r="16" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="17" t="s">
-        <v>148</v>
+      <c r="A16" s="20" t="s">
+        <v>105</v>
       </c>
       <c r="B16" s="10" t="b">
         <v>0</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D16" s="10">
         <v>1</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F16" s="10" t="s">
         <v>63</v>
@@ -3358,10 +3367,10 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="N16" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q16" s="10" t="s">
-        <v>76</v>
+        <v>109</v>
+      </c>
+      <c r="O16" s="10" t="s">
+        <v>109</v>
       </c>
       <c r="W16" s="10">
         <v>0.02</v>
@@ -3371,9 +3380,6 @@
       </c>
       <c r="Y16" s="10">
         <v>1</v>
-      </c>
-      <c r="Z16" s="10" t="b">
-        <v>0</v>
       </c>
       <c r="AA16" s="10">
         <v>0.02</v>
@@ -3400,25 +3406,19 @@
         <v>1E-3</v>
       </c>
       <c r="AI16" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AJ16" s="10">
+        <v>0</v>
+      </c>
+      <c r="AK16" s="10">
+        <v>1</v>
+      </c>
+      <c r="AL16" s="10">
+        <v>1</v>
+      </c>
+      <c r="AP16" s="10">
         <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AJ16" s="10">
-        <v>0</v>
-      </c>
-      <c r="AK16" s="10">
-        <v>1</v>
-      </c>
-      <c r="AL16" s="10">
-        <v>2</v>
-      </c>
-      <c r="AM16" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AN16" s="10">
-        <v>0</v>
-      </c>
-      <c r="AP16" s="10">
-        <v>0.05</v>
       </c>
       <c r="AQ16" s="10">
         <v>0.5</v>
@@ -3510,19 +3510,19 @@
     </row>
     <row r="17" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
-        <v>105</v>
+        <v>150</v>
       </c>
       <c r="B17" s="10" t="b">
         <v>0</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>108</v>
+        <v>143</v>
       </c>
       <c r="D17" s="10">
         <v>1</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F17" s="10" t="s">
         <v>63</v>
@@ -3530,12 +3530,33 @@
       <c r="G17" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
+      <c r="H17" s="10">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="I17" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="J17" s="10">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="K17" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="L17" s="10">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="M17" s="10">
+        <v>7.4999999999999997E-2</v>
+      </c>
       <c r="N17" s="10" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="O17" s="10" t="s">
         <v>109</v>
       </c>
+      <c r="Q17" s="10" t="s">
+        <v>76</v>
+      </c>
       <c r="W17" s="10">
         <v>0.02</v>
       </c>
@@ -3582,7 +3603,7 @@
         <v>1</v>
       </c>
       <c r="AP17" s="10">
-        <v>2.5000000000000001E-2</v>
+        <v>0.05</v>
       </c>
       <c r="AQ17" s="10">
         <v>0.5</v>
@@ -3673,20 +3694,20 @@
       </c>
     </row>
     <row r="18" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="20" t="s">
-        <v>171</v>
+      <c r="A18" s="21" t="s">
+        <v>164</v>
       </c>
       <c r="B18" s="10" t="b">
         <v>0</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>108</v>
+        <v>143</v>
       </c>
       <c r="D18" s="10">
         <v>1</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F18" s="10" t="s">
         <v>63</v>
@@ -3694,9 +3715,33 @@
       <c r="G18" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
+      <c r="H18" s="10">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="I18" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="J18" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="K18" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="L18" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="M18" s="10">
+        <v>7.4999999999999997E-2</v>
+      </c>
       <c r="N18" s="10" t="s">
         <v>131</v>
       </c>
+      <c r="O18" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q18" s="10" t="s">
+        <v>76</v>
+      </c>
       <c r="W18" s="10">
         <v>0.02</v>
       </c>
@@ -3743,7 +3788,7 @@
         <v>1</v>
       </c>
       <c r="AP18" s="10">
-        <v>2.5000000000000001E-2</v>
+        <v>0.05</v>
       </c>
       <c r="AQ18" s="10">
         <v>0.5</v>
@@ -3834,8 +3879,8 @@
       </c>
     </row>
     <row r="19" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="20" t="s">
-        <v>150</v>
+      <c r="A19" s="21" t="s">
+        <v>165</v>
       </c>
       <c r="B19" s="10" t="b">
         <v>0</v>
@@ -3868,7 +3913,7 @@
         <v>0.02</v>
       </c>
       <c r="L19" s="10">
-        <v>5.0000000000000001E-3</v>
+        <v>0.02</v>
       </c>
       <c r="M19" s="10">
         <v>7.4999999999999997E-2</v>
@@ -4020,7 +4065,7 @@
     </row>
     <row r="20" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B20" s="10" t="b">
         <v>0</v>
@@ -4053,7 +4098,7 @@
         <v>0.02</v>
       </c>
       <c r="L20" s="10">
-        <v>0.02</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="M20" s="10">
         <v>7.4999999999999997E-2</v>
@@ -4203,206 +4248,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="B21" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="D21" s="10">
-        <v>1</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="F21" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="G21" s="10">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="H21" s="10">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="I21" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="J21" s="10">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="K21" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="L21" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="M21" s="10">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="N21" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="O21" s="10" t="s">
+    <row r="21" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="B22" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="C22" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="Q21" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="W21" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="X21" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y21" s="10">
-        <v>1</v>
-      </c>
-      <c r="AA21" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AB21" s="10">
-        <v>0</v>
-      </c>
-      <c r="AC21" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="AD21" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AE21" s="10">
-        <v>0</v>
-      </c>
-      <c r="AF21" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="AG21" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="AH21" s="10">
-        <v>1E-3</v>
-      </c>
-      <c r="AI21" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AJ21" s="10">
-        <v>0</v>
-      </c>
-      <c r="AK21" s="10">
-        <v>1</v>
-      </c>
-      <c r="AL21" s="10">
-        <v>1</v>
-      </c>
-      <c r="AP21" s="10">
-        <v>0.05</v>
-      </c>
-      <c r="AQ21" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AR21" s="10">
-        <v>0</v>
-      </c>
-      <c r="AT21" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AU21" s="10">
-        <v>0.03</v>
-      </c>
-      <c r="AV21" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AW21" s="10">
-        <v>0.04</v>
-      </c>
-      <c r="AX21" s="10">
-        <v>0.11</v>
-      </c>
-      <c r="AY21" s="10">
-        <v>1</v>
-      </c>
-      <c r="AZ21" s="10">
-        <v>0.03</v>
-      </c>
-      <c r="BA21" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="BB21" s="10">
-        <v>0.7</v>
-      </c>
-      <c r="BC21" s="10">
-        <v>1</v>
-      </c>
-      <c r="BD21" s="10">
-        <v>15</v>
-      </c>
-      <c r="BE21" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="BF21" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="BG21" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BH21" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="BI21" s="10">
-        <v>5</v>
-      </c>
-      <c r="BJ21" s="10">
-        <v>8.2199999999999995E-2</v>
-      </c>
-      <c r="BK21" s="10">
-        <v>0.12</v>
-      </c>
-      <c r="BL21" s="10">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="BM21" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BN21" s="10" t="s">
+      <c r="D22" s="10">
+        <v>1</v>
+      </c>
+      <c r="E22" s="10" t="s">
         <v>50</v>
-      </c>
-      <c r="BO21" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BP21" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="BQ21" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="BR21" s="10">
-        <v>0.75</v>
-      </c>
-      <c r="BS21" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="BT21" s="10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="21" t="s">
-        <v>166</v>
-      </c>
-      <c r="B22" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="D22" s="10">
-        <v>1</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>52</v>
       </c>
       <c r="F22" s="10" t="s">
         <v>63</v>
@@ -4410,30 +4271,9 @@
       <c r="G22" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="H22" s="10">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="I22" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="J22" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="K22" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="L22" s="10">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="M22" s="10">
-        <v>7.4999999999999997E-2</v>
-      </c>
       <c r="N22" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="O22" s="10" t="s">
-        <v>109</v>
-      </c>
       <c r="Q22" s="10" t="s">
         <v>76</v>
       </c>
@@ -4564,7 +4404,7 @@
         <v>23</v>
       </c>
       <c r="BR22" s="10">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="BS22" s="10" t="b">
         <v>1</v>
@@ -4573,16 +4413,182 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="B23" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="D23" s="10">
+        <v>1</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="G23" s="10">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="N23" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q23" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="W23" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="X23" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="10">
+        <v>1</v>
+      </c>
+      <c r="AA23" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AB23" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="AD23" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AE23" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF23" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="AG23" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="AH23" s="10">
+        <v>1E-3</v>
+      </c>
+      <c r="AI23" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AJ23" s="10">
+        <v>0</v>
+      </c>
+      <c r="AK23" s="10">
+        <v>1</v>
+      </c>
+      <c r="AL23" s="10">
+        <v>1</v>
+      </c>
+      <c r="AP23" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="AQ23" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AR23" s="10">
+        <v>0</v>
+      </c>
+      <c r="AS23" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="AT23" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AU23" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="AV23" s="10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AW23" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="AX23" s="10">
+        <v>0.11</v>
+      </c>
+      <c r="AY23" s="10">
+        <v>1</v>
+      </c>
+      <c r="AZ23" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="BA23" s="10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="BB23" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="BC23" s="10">
+        <v>1</v>
+      </c>
+      <c r="BD23" s="10">
+        <v>15</v>
+      </c>
+      <c r="BE23" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="BF23" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="BG23" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BH23" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="BI23" s="10">
+        <v>5</v>
+      </c>
+      <c r="BJ23" s="10">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="BK23" s="10">
+        <v>0.12</v>
+      </c>
+      <c r="BL23" s="10">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="BM23" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BN23" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="BO23" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BP23" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="BQ23" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="BR23" s="10">
+        <v>1</v>
+      </c>
+      <c r="BS23" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="BT23" s="10" t="b">
+        <v>1</v>
+      </c>
+    </row>
     <row r="24" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
-        <v>115</v>
+      <c r="A24" s="18" t="s">
+        <v>116</v>
       </c>
       <c r="B24" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D24" s="10">
         <v>1</v>
@@ -4591,7 +4597,7 @@
         <v>50</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="G24" s="10">
         <v>1.4999999999999999E-2</v>
@@ -4656,6 +4662,9 @@
       <c r="AR24" s="10">
         <v>0</v>
       </c>
+      <c r="AS24" s="10">
+        <v>1</v>
+      </c>
       <c r="AT24" s="10">
         <v>0.5</v>
       </c>
@@ -4739,8 +4748,8 @@
       </c>
     </row>
     <row r="25" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="14" t="s">
-        <v>154</v>
+      <c r="A25" s="18" t="s">
+        <v>172</v>
       </c>
       <c r="B25" s="10" t="b">
         <v>1</v>
@@ -4755,7 +4764,7 @@
         <v>50</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G25" s="10">
         <v>1.4999999999999999E-2</v>
@@ -4820,9 +4829,6 @@
       <c r="AR25" s="10">
         <v>0</v>
       </c>
-      <c r="AS25" s="10">
-        <v>0.1</v>
-      </c>
       <c r="AT25" s="10">
         <v>0.5</v>
       </c>
@@ -4848,10 +4854,10 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="BB25" s="10">
-        <v>0.7</v>
+        <v>0.85</v>
       </c>
       <c r="BC25" s="10">
-        <v>1</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="BD25" s="10">
         <v>15</v>
@@ -4906,11 +4912,11 @@
       </c>
     </row>
     <row r="26" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="14" t="s">
-        <v>116</v>
+      <c r="A26" s="18" t="s">
+        <v>132</v>
       </c>
       <c r="B26" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26" s="10" t="s">
         <v>106</v>
@@ -4922,7 +4928,7 @@
         <v>50</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G26" s="10">
         <v>1.4999999999999999E-2</v>
@@ -4939,9 +4945,10 @@
       <c r="X26" s="10">
         <v>0</v>
       </c>
-      <c r="Y26" s="10">
-        <v>1</v>
-      </c>
+      <c r="Y26" s="14">
+        <v>5</v>
+      </c>
+      <c r="Z26" s="14"/>
       <c r="AA26" s="10">
         <v>0.02</v>
       </c>
@@ -4987,9 +4994,6 @@
       <c r="AR26" s="10">
         <v>0</v>
       </c>
-      <c r="AS26" s="10">
-        <v>1</v>
-      </c>
       <c r="AT26" s="10">
         <v>0.5</v>
       </c>
@@ -5006,7 +5010,7 @@
         <v>0.11</v>
       </c>
       <c r="AY26" s="10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AZ26" s="10">
         <v>0.03</v>
@@ -5073,23 +5077,23 @@
       </c>
     </row>
     <row r="27" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="10" t="s">
-        <v>132</v>
+      <c r="A27" s="18" t="s">
+        <v>157</v>
       </c>
       <c r="B27" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D27" s="10">
         <v>1</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="G27" s="10">
         <v>1.4999999999999999E-2</v>
@@ -5101,15 +5105,17 @@
         <v>76</v>
       </c>
       <c r="W27" s="10">
-        <v>0.02</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="X27" s="10">
-        <v>0</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="Y27" s="14">
         <v>5</v>
       </c>
-      <c r="Z27" s="14"/>
+      <c r="Z27" s="14" t="b">
+        <v>1</v>
+      </c>
       <c r="AA27" s="10">
         <v>0.02</v>
       </c>
@@ -5238,11 +5244,11 @@
       </c>
     </row>
     <row r="28" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="10" t="s">
-        <v>119</v>
+      <c r="A28" s="18" t="s">
+        <v>137</v>
       </c>
       <c r="B28" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C28" s="10" t="s">
         <v>106</v>
@@ -5402,20 +5408,20 @@
       </c>
     </row>
     <row r="29" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="14" t="s">
-        <v>157</v>
+      <c r="A29" s="18" t="s">
+        <v>171</v>
       </c>
       <c r="B29" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D29" s="10">
         <v>1</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F29" s="10" t="s">
         <v>63</v>
@@ -5426,19 +5432,13 @@
       <c r="N29" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="Q29" s="10" t="s">
-        <v>76</v>
-      </c>
       <c r="W29" s="10">
-        <v>2.5000000000000001E-2</v>
+        <v>0.02</v>
       </c>
       <c r="X29" s="10">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="Y29" s="14">
-        <v>5</v>
-      </c>
-      <c r="Z29" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="10">
         <v>1</v>
       </c>
       <c r="AA29" s="10">
@@ -5478,7 +5478,7 @@
         <v>1</v>
       </c>
       <c r="AP29" s="10">
-        <v>0.05</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="AQ29" s="10">
         <v>0.5</v>
@@ -5502,7 +5502,7 @@
         <v>0.11</v>
       </c>
       <c r="AY29" s="10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AZ29" s="10">
         <v>0.03</v>
@@ -5569,8 +5569,8 @@
       </c>
     </row>
     <row r="30" spans="1:72" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="20" t="s">
-        <v>137</v>
+      <c r="A30" s="10" t="s">
+        <v>119</v>
       </c>
       <c r="B30" s="10" t="b">
         <v>0</v>
@@ -7157,7 +7157,7 @@
     <row r="41" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="42" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="43" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -9863,10 +9863,10 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q46:Q47 Q3:Q16 Q49:Q54 Q43:Q44 Q56:Q61 Q19:Q33 Q35:Q41" xr:uid="{8DBFC5CB-438A-4309-B948-24597CAE3D7F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q46:Q47 Q49:Q54 Q43:Q44 Q56:Q61 Q35:Q41 Q3:Q15 Q30:Q33 Q17:Q29" xr:uid="{8DBFC5CB-438A-4309-B948-24597CAE3D7F}">
       <formula1>"preSet, ALpct,MApct"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B61" xr:uid="{05E01AB2-72EC-4550-ACB8-4E83765DE296}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B30:B61 B3:B29" xr:uid="{05E01AB2-72EC-4550-ACB8-4E83765DE296}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -9880,7 +9880,7 @@
           <x14:formula1>
             <xm:f>Policies!$B$3:$B$9</xm:f>
           </x14:formula1>
-          <xm:sqref>F46:F47 F49:F54 F43:F44 F56:F61 F3:F41</xm:sqref>
+          <xm:sqref>F46:F47 F49:F54 F43:F44 F56:F61 F30:F41 F3:F29</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/RunControl.xlsx
+++ b/RunControl.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABA979B4-8EBE-4A76-B983-0678B2DD401E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9FAE6DE-77C2-44A4-B1FE-2DD91D219104}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="28050" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="174">
   <si>
     <t>runname</t>
   </si>
@@ -558,6 +558,9 @@
   </si>
   <si>
     <t>DA_as_ret_FR100</t>
+  </si>
+  <si>
+    <t>EEC_FR_t100</t>
   </si>
   <si>
     <t>Archived runs:</t>
@@ -986,13 +989,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:BT61"/>
+  <dimension ref="A1:BT62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="2" topLeftCell="BH3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AL25" sqref="AL25"/>
+      <selection pane="bottomRight" activeCell="BR35" sqref="BR35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2331,23 +2334,23 @@
       </c>
     </row>
     <row r="10" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="20" t="s">
-        <v>156</v>
+      <c r="A10" s="18" t="s">
+        <v>170</v>
       </c>
       <c r="B10" s="10" t="b">
         <v>0</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D10" s="10">
         <v>1</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="G10" s="10">
         <v>1.4999999999999999E-2</v>
@@ -2359,15 +2362,12 @@
         <v>76</v>
       </c>
       <c r="W10" s="10">
-        <v>2.5000000000000001E-2</v>
+        <v>0.02</v>
       </c>
       <c r="X10" s="10">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="Y10" s="14">
-        <v>5</v>
-      </c>
-      <c r="Z10" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="10">
         <v>1</v>
       </c>
       <c r="AA10" s="10">
@@ -2431,7 +2431,7 @@
         <v>0.11</v>
       </c>
       <c r="AY10" s="10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AZ10" s="10">
         <v>0.03</v>
@@ -2440,10 +2440,10 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="BB10" s="10">
-        <v>0.7</v>
+        <v>0.85</v>
       </c>
       <c r="BC10" s="10">
-        <v>1</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="BD10" s="10">
         <v>15</v>
@@ -2499,7 +2499,7 @@
     </row>
     <row r="11" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B11" s="10" t="b">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="Y11" s="14">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="Z11" s="14" t="b">
         <v>1</v>
@@ -2664,9 +2664,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:72" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
-        <v>135</v>
+        <v>158</v>
       </c>
       <c r="B12" s="10" t="b">
         <v>0</v>
@@ -2678,7 +2678,7 @@
         <v>1</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F12" s="10" t="s">
         <v>63</v>
@@ -2693,25 +2693,25 @@
         <v>76</v>
       </c>
       <c r="W12" s="10">
-        <v>0.02</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="X12" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="10">
-        <v>1</v>
-      </c>
-      <c r="Z12" s="10" t="b">
-        <v>0</v>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="Y12" s="14">
+        <v>10</v>
+      </c>
+      <c r="Z12" s="14" t="b">
+        <v>1</v>
       </c>
       <c r="AA12" s="10">
-        <v>2.5000000000000001E-2</v>
+        <v>0.02</v>
       </c>
       <c r="AB12" s="10">
-        <v>5.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="AC12" s="10">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AD12" s="10">
         <v>0.02</v>
@@ -2765,7 +2765,7 @@
         <v>0.11</v>
       </c>
       <c r="AY12" s="10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AZ12" s="10">
         <v>0.03</v>
@@ -2831,9 +2831,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
-        <v>102</v>
+    <row r="13" spans="1:72" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="20" t="s">
+        <v>135</v>
       </c>
       <c r="B13" s="10" t="b">
         <v>0</v>
@@ -2845,7 +2845,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>63</v>
@@ -2872,13 +2872,13 @@
         <v>0</v>
       </c>
       <c r="AA13" s="10">
-        <v>0.02</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="AB13" s="10">
-        <v>0</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AC13" s="10">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AD13" s="10">
         <v>0.02</v>
@@ -2999,8 +2999,8 @@
       </c>
     </row>
     <row r="14" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="20" t="s">
-        <v>104</v>
+      <c r="A14" s="10" t="s">
+        <v>102</v>
       </c>
       <c r="B14" s="10" t="b">
         <v>0</v>
@@ -3012,7 +3012,7 @@
         <v>1</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>63</v>
@@ -3063,7 +3063,7 @@
         <v>1E-3</v>
       </c>
       <c r="AI14" s="10">
-        <v>2.5000000000000001E-2</v>
+        <v>0.02</v>
       </c>
       <c r="AJ14" s="10">
         <v>0</v>
@@ -3072,13 +3072,7 @@
         <v>1</v>
       </c>
       <c r="AL14" s="10">
-        <v>2</v>
-      </c>
-      <c r="AM14" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AN14" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AP14" s="10">
         <v>0.05</v>
@@ -3172,8 +3166,8 @@
       </c>
     </row>
     <row r="15" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="17" t="s">
-        <v>148</v>
+      <c r="A15" s="20" t="s">
+        <v>104</v>
       </c>
       <c r="B15" s="10" t="b">
         <v>0</v>
@@ -3251,7 +3245,7 @@
         <v>0.5</v>
       </c>
       <c r="AN15" s="10">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AP15" s="10">
         <v>0.05</v>
@@ -3345,20 +3339,20 @@
       </c>
     </row>
     <row r="16" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="20" t="s">
-        <v>105</v>
+      <c r="A16" s="17" t="s">
+        <v>148</v>
       </c>
       <c r="B16" s="10" t="b">
         <v>0</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D16" s="10">
         <v>1</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="F16" s="10" t="s">
         <v>63</v>
@@ -3367,10 +3361,10 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="N16" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="O16" s="10" t="s">
-        <v>109</v>
+        <v>131</v>
+      </c>
+      <c r="Q16" s="10" t="s">
+        <v>76</v>
       </c>
       <c r="W16" s="10">
         <v>0.02</v>
@@ -3380,6 +3374,9 @@
       </c>
       <c r="Y16" s="10">
         <v>1</v>
+      </c>
+      <c r="Z16" s="10" t="b">
+        <v>0</v>
       </c>
       <c r="AA16" s="10">
         <v>0.02</v>
@@ -3406,7 +3403,7 @@
         <v>1E-3</v>
       </c>
       <c r="AI16" s="10">
-        <v>0.02</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="AJ16" s="10">
         <v>0</v>
@@ -3415,10 +3412,16 @@
         <v>1</v>
       </c>
       <c r="AL16" s="10">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="AM16" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AN16" s="10">
+        <v>0</v>
       </c>
       <c r="AP16" s="10">
-        <v>2.5000000000000001E-2</v>
+        <v>0.05</v>
       </c>
       <c r="AQ16" s="10">
         <v>0.5</v>
@@ -3510,19 +3513,19 @@
     </row>
     <row r="17" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
-        <v>150</v>
+        <v>105</v>
       </c>
       <c r="B17" s="10" t="b">
         <v>0</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>143</v>
+        <v>108</v>
       </c>
       <c r="D17" s="10">
         <v>1</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F17" s="10" t="s">
         <v>63</v>
@@ -3530,33 +3533,12 @@
       <c r="G17" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="H17" s="10">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="I17" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="J17" s="10">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="K17" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="L17" s="10">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="M17" s="10">
-        <v>7.4999999999999997E-2</v>
-      </c>
       <c r="N17" s="10" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="O17" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="Q17" s="10" t="s">
-        <v>76</v>
-      </c>
       <c r="W17" s="10">
         <v>0.02</v>
       </c>
@@ -3603,7 +3585,7 @@
         <v>1</v>
       </c>
       <c r="AP17" s="10">
-        <v>0.05</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="AQ17" s="10">
         <v>0.5</v>
@@ -3694,8 +3676,8 @@
       </c>
     </row>
     <row r="18" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="21" t="s">
-        <v>164</v>
+      <c r="A18" s="20" t="s">
+        <v>150</v>
       </c>
       <c r="B18" s="10" t="b">
         <v>0</v>
@@ -3722,13 +3704,13 @@
         <v>0.02</v>
       </c>
       <c r="J18" s="10">
-        <v>0.02</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="K18" s="10">
         <v>0.02</v>
       </c>
       <c r="L18" s="10">
-        <v>0.02</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="M18" s="10">
         <v>7.4999999999999997E-2</v>
@@ -3880,7 +3862,7 @@
     </row>
     <row r="19" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="21" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B19" s="10" t="b">
         <v>0</v>
@@ -3907,7 +3889,7 @@
         <v>0.02</v>
       </c>
       <c r="J19" s="10">
-        <v>5.0000000000000001E-3</v>
+        <v>0.02</v>
       </c>
       <c r="K19" s="10">
         <v>0.02</v>
@@ -4065,7 +4047,7 @@
     </row>
     <row r="20" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B20" s="10" t="b">
         <v>0</v>
@@ -4092,13 +4074,13 @@
         <v>0.02</v>
       </c>
       <c r="J20" s="10">
-        <v>0.02</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="K20" s="10">
         <v>0.02</v>
       </c>
       <c r="L20" s="10">
-        <v>5.0000000000000001E-3</v>
+        <v>0.02</v>
       </c>
       <c r="M20" s="10">
         <v>7.4999999999999997E-2</v>
@@ -4248,180 +4230,201 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
+    <row r="21" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="B21" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="D21" s="10">
+        <v>1</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G21" s="10">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H21" s="10">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="I21" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="J21" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="K21" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="L21" s="10">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="M21" s="10">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="N21" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="O21" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q21" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="W21" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="X21" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="10">
+        <v>1</v>
+      </c>
+      <c r="AA21" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AB21" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="AD21" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AE21" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF21" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="AG21" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="AH21" s="10">
+        <v>1E-3</v>
+      </c>
+      <c r="AI21" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AJ21" s="10">
+        <v>0</v>
+      </c>
+      <c r="AK21" s="10">
+        <v>1</v>
+      </c>
+      <c r="AL21" s="10">
+        <v>1</v>
+      </c>
+      <c r="AP21" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="AQ21" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AR21" s="10">
+        <v>0</v>
+      </c>
+      <c r="AT21" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AU21" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="AV21" s="10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AW21" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="AX21" s="10">
+        <v>0.11</v>
+      </c>
+      <c r="AY21" s="10">
+        <v>1</v>
+      </c>
+      <c r="AZ21" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="BA21" s="10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="BB21" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="BC21" s="10">
+        <v>1</v>
+      </c>
+      <c r="BD21" s="10">
+        <v>15</v>
+      </c>
+      <c r="BE21" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="BF21" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="BG21" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BH21" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="BI21" s="10">
+        <v>5</v>
+      </c>
+      <c r="BJ21" s="10">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="BK21" s="10">
+        <v>0.12</v>
+      </c>
+      <c r="BL21" s="10">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="BM21" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BN21" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="BO21" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BP21" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="BQ21" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="BR21" s="10">
+        <v>0.75</v>
+      </c>
+      <c r="BS21" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="BT21" s="10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="B22" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="C22" s="10" t="s">
+      <c r="B23" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="C23" s="10" t="s">
         <v>109</v>
-      </c>
-      <c r="D22" s="10">
-        <v>1</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="G22" s="10">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="N22" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q22" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="W22" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="X22" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y22" s="10">
-        <v>1</v>
-      </c>
-      <c r="AA22" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AB22" s="10">
-        <v>0</v>
-      </c>
-      <c r="AC22" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="AD22" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AE22" s="10">
-        <v>0</v>
-      </c>
-      <c r="AF22" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="AG22" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="AH22" s="10">
-        <v>1E-3</v>
-      </c>
-      <c r="AI22" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AJ22" s="10">
-        <v>0</v>
-      </c>
-      <c r="AK22" s="10">
-        <v>1</v>
-      </c>
-      <c r="AL22" s="10">
-        <v>1</v>
-      </c>
-      <c r="AP22" s="10">
-        <v>0.05</v>
-      </c>
-      <c r="AQ22" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AR22" s="10">
-        <v>0</v>
-      </c>
-      <c r="AT22" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AU22" s="10">
-        <v>0.03</v>
-      </c>
-      <c r="AV22" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AW22" s="10">
-        <v>0.04</v>
-      </c>
-      <c r="AX22" s="10">
-        <v>0.11</v>
-      </c>
-      <c r="AY22" s="10">
-        <v>1</v>
-      </c>
-      <c r="AZ22" s="10">
-        <v>0.03</v>
-      </c>
-      <c r="BA22" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="BB22" s="10">
-        <v>0.7</v>
-      </c>
-      <c r="BC22" s="10">
-        <v>1</v>
-      </c>
-      <c r="BD22" s="10">
-        <v>15</v>
-      </c>
-      <c r="BE22" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="BF22" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="BG22" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BH22" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="BI22" s="10">
-        <v>5</v>
-      </c>
-      <c r="BJ22" s="10">
-        <v>8.2199999999999995E-2</v>
-      </c>
-      <c r="BK22" s="10">
-        <v>0.12</v>
-      </c>
-      <c r="BL22" s="10">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="BM22" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BN22" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="BO22" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BP22" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="BQ22" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="BR22" s="10">
-        <v>1</v>
-      </c>
-      <c r="BS22" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="BT22" s="10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="B23" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>106</v>
       </c>
       <c r="D23" s="10">
         <v>1</v>
@@ -4430,7 +4433,7 @@
         <v>50</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="G23" s="10">
         <v>1.4999999999999999E-2</v>
@@ -4494,9 +4497,6 @@
       </c>
       <c r="AR23" s="10">
         <v>0</v>
-      </c>
-      <c r="AS23" s="10">
-        <v>0.1</v>
       </c>
       <c r="AT23" s="10">
         <v>0.5</v>
@@ -4582,10 +4582,10 @@
     </row>
     <row r="24" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
-        <v>116</v>
+        <v>154</v>
       </c>
       <c r="B24" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24" s="10" t="s">
         <v>106</v>
@@ -4663,7 +4663,7 @@
         <v>0</v>
       </c>
       <c r="AS24" s="10">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="AT24" s="10">
         <v>0.5</v>
@@ -4749,10 +4749,10 @@
     </row>
     <row r="25" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="18" t="s">
-        <v>172</v>
+        <v>116</v>
       </c>
       <c r="B25" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>106</v>
@@ -4764,7 +4764,7 @@
         <v>50</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G25" s="10">
         <v>1.4999999999999999E-2</v>
@@ -4829,6 +4829,9 @@
       <c r="AR25" s="10">
         <v>0</v>
       </c>
+      <c r="AS25" s="10">
+        <v>1</v>
+      </c>
       <c r="AT25" s="10">
         <v>0.5</v>
       </c>
@@ -4854,10 +4857,10 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="BB25" s="10">
-        <v>0.85</v>
+        <v>0.7</v>
       </c>
       <c r="BC25" s="10">
-        <v>1.1499999999999999</v>
+        <v>1</v>
       </c>
       <c r="BD25" s="10">
         <v>15</v>
@@ -4913,10 +4916,10 @@
     </row>
     <row r="26" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="18" t="s">
-        <v>132</v>
+        <v>173</v>
       </c>
       <c r="B26" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26" s="10" t="s">
         <v>106</v>
@@ -4928,7 +4931,7 @@
         <v>50</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G26" s="10">
         <v>1.4999999999999999E-2</v>
@@ -4945,10 +4948,9 @@
       <c r="X26" s="10">
         <v>0</v>
       </c>
-      <c r="Y26" s="14">
-        <v>5</v>
-      </c>
-      <c r="Z26" s="14"/>
+      <c r="Y26" s="10">
+        <v>1</v>
+      </c>
       <c r="AA26" s="10">
         <v>0.02</v>
       </c>
@@ -5010,7 +5012,7 @@
         <v>0.11</v>
       </c>
       <c r="AY26" s="10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AZ26" s="10">
         <v>0.03</v>
@@ -5019,10 +5021,10 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="BB26" s="10">
-        <v>0.7</v>
+        <v>0.85</v>
       </c>
       <c r="BC26" s="10">
-        <v>1</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="BD26" s="10">
         <v>15</v>
@@ -5078,22 +5080,22 @@
     </row>
     <row r="27" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="18" t="s">
-        <v>157</v>
+        <v>132</v>
       </c>
       <c r="B27" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D27" s="10">
         <v>1</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="G27" s="10">
         <v>1.4999999999999999E-2</v>
@@ -5105,17 +5107,15 @@
         <v>76</v>
       </c>
       <c r="W27" s="10">
-        <v>2.5000000000000001E-2</v>
+        <v>0.02</v>
       </c>
       <c r="X27" s="10">
-        <v>5.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="Y27" s="14">
         <v>5</v>
       </c>
-      <c r="Z27" s="14" t="b">
-        <v>1</v>
-      </c>
+      <c r="Z27" s="14"/>
       <c r="AA27" s="10">
         <v>0.02</v>
       </c>
@@ -5245,22 +5245,22 @@
     </row>
     <row r="28" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="B28" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D28" s="10">
         <v>1</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="G28" s="10">
         <v>1.4999999999999999E-2</v>
@@ -5272,12 +5272,15 @@
         <v>76</v>
       </c>
       <c r="W28" s="10">
-        <v>0.02</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="X28" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y28" s="10">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="Y28" s="14">
+        <v>5</v>
+      </c>
+      <c r="Z28" s="14" t="b">
         <v>1</v>
       </c>
       <c r="AA28" s="10">
@@ -5341,7 +5344,7 @@
         <v>0.11</v>
       </c>
       <c r="AY28" s="10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AZ28" s="10">
         <v>0.03</v>
@@ -5407,21 +5410,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="18" t="s">
-        <v>171</v>
+    <row r="29" spans="1:72" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="20" t="s">
+        <v>137</v>
       </c>
       <c r="B29" s="10" t="b">
         <v>1</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D29" s="10">
         <v>1</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F29" s="10" t="s">
         <v>63</v>
@@ -5432,6 +5435,9 @@
       <c r="N29" s="10" t="s">
         <v>131</v>
       </c>
+      <c r="Q29" s="10" t="s">
+        <v>76</v>
+      </c>
       <c r="W29" s="10">
         <v>0.02</v>
       </c>
@@ -5441,14 +5447,17 @@
       <c r="Y29" s="10">
         <v>1</v>
       </c>
+      <c r="Z29" s="10" t="b">
+        <v>0</v>
+      </c>
       <c r="AA29" s="10">
-        <v>0.02</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="AB29" s="10">
-        <v>0</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AC29" s="10">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AD29" s="10">
         <v>0.02</v>
@@ -5478,7 +5487,7 @@
         <v>1</v>
       </c>
       <c r="AP29" s="10">
-        <v>2.5000000000000001E-2</v>
+        <v>0.05</v>
       </c>
       <c r="AQ29" s="10">
         <v>0.5</v>
@@ -5568,21 +5577,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:72" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="10" t="s">
-        <v>119</v>
+    <row r="30" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="18" t="s">
+        <v>172</v>
       </c>
       <c r="B30" s="10" t="b">
         <v>0</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D30" s="10">
         <v>1</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F30" s="10" t="s">
         <v>63</v>
@@ -5593,9 +5602,6 @@
       <c r="N30" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="Q30" s="10" t="s">
-        <v>76</v>
-      </c>
       <c r="W30" s="10">
         <v>0.02</v>
       </c>
@@ -5605,17 +5611,14 @@
       <c r="Y30" s="10">
         <v>1</v>
       </c>
-      <c r="Z30" s="10" t="b">
-        <v>0</v>
-      </c>
       <c r="AA30" s="10">
-        <v>2.5000000000000001E-2</v>
+        <v>0.02</v>
       </c>
       <c r="AB30" s="10">
-        <v>5.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="AC30" s="10">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AD30" s="10">
         <v>0.02</v>
@@ -5645,7 +5648,7 @@
         <v>1</v>
       </c>
       <c r="AP30" s="10">
-        <v>0.05</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="AQ30" s="10">
         <v>0.5</v>
@@ -5735,9 +5738,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:72" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B31" s="10" t="b">
         <v>0</v>
@@ -5749,7 +5752,7 @@
         <v>1</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F31" s="10" t="s">
         <v>63</v>
@@ -5776,13 +5779,13 @@
         <v>0</v>
       </c>
       <c r="AA31" s="10">
-        <v>0.02</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="AB31" s="10">
-        <v>0</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AC31" s="10">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AD31" s="10">
         <v>0.02</v>
@@ -5903,8 +5906,8 @@
       </c>
     </row>
     <row r="32" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="17" t="s">
-        <v>123</v>
+      <c r="A32" s="10" t="s">
+        <v>122</v>
       </c>
       <c r="B32" s="10" t="b">
         <v>0</v>
@@ -5916,7 +5919,7 @@
         <v>1</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F32" s="10" t="s">
         <v>63</v>
@@ -5967,7 +5970,7 @@
         <v>1E-3</v>
       </c>
       <c r="AI32" s="10">
-        <v>2.5000000000000001E-2</v>
+        <v>0.02</v>
       </c>
       <c r="AJ32" s="10">
         <v>0</v>
@@ -5976,13 +5979,7 @@
         <v>1</v>
       </c>
       <c r="AL32" s="10">
-        <v>2</v>
-      </c>
-      <c r="AM32" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AN32" s="10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AP32" s="10">
         <v>0.05</v>
@@ -6076,8 +6073,8 @@
       </c>
     </row>
     <row r="33" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="19" t="s">
-        <v>159</v>
+      <c r="A33" s="17" t="s">
+        <v>123</v>
       </c>
       <c r="B33" s="10" t="b">
         <v>0</v>
@@ -6155,7 +6152,7 @@
         <v>0.5</v>
       </c>
       <c r="AN33" s="10">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AP33" s="10">
         <v>0.05</v>
@@ -6249,20 +6246,20 @@
       </c>
     </row>
     <row r="34" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="10" t="s">
-        <v>124</v>
+      <c r="A34" s="19" t="s">
+        <v>159</v>
       </c>
       <c r="B34" s="10" t="b">
         <v>0</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D34" s="10">
         <v>1</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="F34" s="10" t="s">
         <v>63</v>
@@ -6271,10 +6268,10 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="N34" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="O34" s="10" t="s">
-        <v>115</v>
+        <v>131</v>
+      </c>
+      <c r="Q34" s="10" t="s">
+        <v>76</v>
       </c>
       <c r="W34" s="10">
         <v>0.02</v>
@@ -6284,6 +6281,9 @@
       </c>
       <c r="Y34" s="10">
         <v>1</v>
+      </c>
+      <c r="Z34" s="10" t="b">
+        <v>0</v>
       </c>
       <c r="AA34" s="10">
         <v>0.02</v>
@@ -6310,7 +6310,7 @@
         <v>1E-3</v>
       </c>
       <c r="AI34" s="10">
-        <v>0.02</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="AJ34" s="10">
         <v>0</v>
@@ -6319,10 +6319,16 @@
         <v>1</v>
       </c>
       <c r="AL34" s="10">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="AM34" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AN34" s="10">
+        <v>0</v>
       </c>
       <c r="AP34" s="10">
-        <v>2.5000000000000001E-2</v>
+        <v>0.05</v>
       </c>
       <c r="AQ34" s="10">
         <v>0.5</v>
@@ -6414,19 +6420,19 @@
     </row>
     <row r="35" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
-        <v>151</v>
+        <v>124</v>
       </c>
       <c r="B35" s="10" t="b">
         <v>0</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>143</v>
+        <v>108</v>
       </c>
       <c r="D35" s="10">
         <v>1</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F35" s="10" t="s">
         <v>63</v>
@@ -6434,33 +6440,12 @@
       <c r="G35" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="H35" s="10">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="I35" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="J35" s="10">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="K35" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="L35" s="10">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="M35" s="10">
-        <v>7.4999999999999997E-2</v>
-      </c>
       <c r="N35" s="10" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="O35" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="Q35" s="10" t="s">
-        <v>76</v>
-      </c>
       <c r="W35" s="10">
         <v>0.02</v>
       </c>
@@ -6507,7 +6492,7 @@
         <v>1</v>
       </c>
       <c r="AP35" s="10">
-        <v>0.05</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="AQ35" s="10">
         <v>0.5</v>
@@ -6598,8 +6583,8 @@
       </c>
     </row>
     <row r="36" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="18" t="s">
-        <v>167</v>
+      <c r="A36" s="10" t="s">
+        <v>151</v>
       </c>
       <c r="B36" s="10" t="b">
         <v>0</v>
@@ -6626,13 +6611,13 @@
         <v>0.02</v>
       </c>
       <c r="J36" s="10">
-        <v>0.02</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="K36" s="10">
         <v>0.02</v>
       </c>
       <c r="L36" s="10">
-        <v>0.02</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="M36" s="10">
         <v>7.4999999999999997E-2</v>
@@ -6784,7 +6769,7 @@
     </row>
     <row r="37" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="18" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B37" s="10" t="b">
         <v>0</v>
@@ -6811,7 +6796,7 @@
         <v>0.02</v>
       </c>
       <c r="J37" s="10">
-        <v>5.0000000000000001E-3</v>
+        <v>0.02</v>
       </c>
       <c r="K37" s="10">
         <v>0.02</v>
@@ -6969,7 +6954,7 @@
     </row>
     <row r="38" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B38" s="10" t="b">
         <v>0</v>
@@ -6996,13 +6981,13 @@
         <v>0.02</v>
       </c>
       <c r="J38" s="10">
-        <v>0.02</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="K38" s="10">
         <v>0.02</v>
       </c>
       <c r="L38" s="10">
-        <v>5.0000000000000001E-3</v>
+        <v>0.02</v>
       </c>
       <c r="M38" s="10">
         <v>7.4999999999999997E-2</v>
@@ -7152,182 +7137,202 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="B39" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="D39" s="10">
+        <v>1</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F39" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G39" s="10">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H39" s="10">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="I39" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="J39" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="K39" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="L39" s="10">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="M39" s="10">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="N39" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="O39" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q39" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="W39" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="X39" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y39" s="10">
+        <v>1</v>
+      </c>
+      <c r="AA39" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AB39" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC39" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="AD39" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AE39" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF39" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="AG39" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="AH39" s="10">
+        <v>1E-3</v>
+      </c>
+      <c r="AI39" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AJ39" s="10">
+        <v>0</v>
+      </c>
+      <c r="AK39" s="10">
+        <v>1</v>
+      </c>
+      <c r="AL39" s="10">
+        <v>1</v>
+      </c>
+      <c r="AP39" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="AQ39" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AR39" s="10">
+        <v>0</v>
+      </c>
+      <c r="AT39" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AU39" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="AV39" s="10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AW39" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="AX39" s="10">
+        <v>0.11</v>
+      </c>
+      <c r="AY39" s="10">
+        <v>1</v>
+      </c>
+      <c r="AZ39" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="BA39" s="10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="BB39" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="BC39" s="10">
+        <v>1</v>
+      </c>
+      <c r="BD39" s="10">
+        <v>15</v>
+      </c>
+      <c r="BE39" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="BF39" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="BG39" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BH39" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="BI39" s="10">
+        <v>5</v>
+      </c>
+      <c r="BJ39" s="10">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="BK39" s="10">
+        <v>0.12</v>
+      </c>
+      <c r="BL39" s="10">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="BM39" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BN39" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="BO39" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BP39" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="BQ39" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="BR39" s="10">
+        <v>1</v>
+      </c>
+      <c r="BS39" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="BT39" s="10" t="b">
+        <v>1</v>
+      </c>
+    </row>
     <row r="40" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="41" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="14" t="s">
-        <v>170</v>
-      </c>
-    </row>
+    <row r="42" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="43" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="B43" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="D43" s="10">
-        <v>1</v>
-      </c>
-      <c r="E43" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="F43" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="G43" s="10">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="N43" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q43" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="W43" s="10">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="X43" s="10">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="Y43" s="14">
-        <v>5</v>
-      </c>
-      <c r="Z43" s="14"/>
-      <c r="AA43" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AB43" s="10">
-        <v>0</v>
-      </c>
-      <c r="AC43" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="AD43" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AE43" s="10">
-        <v>0</v>
-      </c>
-      <c r="AF43" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="AG43" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="AH43" s="10">
-        <v>1E-3</v>
-      </c>
-      <c r="AI43" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AJ43" s="10">
-        <v>0</v>
-      </c>
-      <c r="AK43" s="10">
-        <v>1</v>
-      </c>
-      <c r="AL43" s="10">
-        <v>1</v>
-      </c>
-      <c r="AP43" s="10">
-        <v>0.05</v>
-      </c>
-      <c r="AQ43" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AR43" s="10">
-        <v>0.05</v>
-      </c>
-      <c r="AT43" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AU43" s="10">
-        <v>0.03</v>
-      </c>
-      <c r="AV43" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AW43" s="10">
-        <v>0.04</v>
-      </c>
-      <c r="AX43" s="10">
-        <v>0.11</v>
-      </c>
-      <c r="AY43" s="10">
-        <v>5</v>
-      </c>
-      <c r="AZ43" s="10">
-        <v>0.03</v>
-      </c>
-      <c r="BA43" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="BB43" s="10">
-        <v>0.7</v>
-      </c>
-      <c r="BC43" s="10">
-        <v>1</v>
-      </c>
-      <c r="BD43" s="10">
-        <v>15</v>
-      </c>
-      <c r="BE43" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="BF43" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="BG43" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BH43" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="BI43" s="10">
-        <v>5</v>
-      </c>
-      <c r="BJ43" s="10">
-        <v>8.2199999999999995E-2</v>
-      </c>
-      <c r="BK43" s="10">
-        <v>0.12</v>
-      </c>
-      <c r="BL43" s="10">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="BM43" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BN43" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="BO43" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BP43" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="BQ43" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="BR43" s="10">
-        <v>0.75</v>
-      </c>
-      <c r="BS43" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="BT43" s="10" t="b">
-        <v>1</v>
+      <c r="A43" s="14" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="44" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B44" s="10" t="b">
         <v>0</v>
@@ -7481,7 +7486,7 @@
         <v>23</v>
       </c>
       <c r="BR44" s="10">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="BS44" s="10" t="b">
         <v>1</v>
@@ -7490,195 +7495,175 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="B46" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="C46" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="D46" s="10">
-        <v>1</v>
-      </c>
-      <c r="E46" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="F46" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="G46" s="10">
+    <row r="45" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="B45" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="D45" s="10">
+        <v>1</v>
+      </c>
+      <c r="E45" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="F45" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="G45" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="H46" s="10">
+      <c r="N45" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q45" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="W45" s="10">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="I46" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="J46" s="10">
+      <c r="X45" s="10">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="K46" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="L46" s="10">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="M46" s="10">
+      <c r="Y45" s="14">
+        <v>5</v>
+      </c>
+      <c r="Z45" s="14"/>
+      <c r="AA45" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AB45" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC45" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="AD45" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AE45" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF45" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="AG45" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="AH45" s="10">
+        <v>1E-3</v>
+      </c>
+      <c r="AI45" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AJ45" s="10">
+        <v>0</v>
+      </c>
+      <c r="AK45" s="10">
+        <v>1</v>
+      </c>
+      <c r="AL45" s="10">
+        <v>1</v>
+      </c>
+      <c r="AP45" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="AQ45" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AR45" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="AT45" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AU45" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="AV45" s="10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AW45" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="AX45" s="10">
+        <v>0.11</v>
+      </c>
+      <c r="AY45" s="10">
+        <v>5</v>
+      </c>
+      <c r="AZ45" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="BA45" s="10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="BB45" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="BC45" s="10">
+        <v>1</v>
+      </c>
+      <c r="BD45" s="10">
+        <v>15</v>
+      </c>
+      <c r="BE45" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="BF45" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="BG45" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BH45" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="BI45" s="10">
+        <v>5</v>
+      </c>
+      <c r="BJ45" s="10">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="BK45" s="10">
+        <v>0.12</v>
+      </c>
+      <c r="BL45" s="10">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="N46" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="O46" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q46" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="W46" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="X46" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y46" s="10">
-        <v>1</v>
-      </c>
-      <c r="AA46" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AB46" s="10">
-        <v>0</v>
-      </c>
-      <c r="AC46" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="AD46" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AE46" s="10">
-        <v>0</v>
-      </c>
-      <c r="AF46" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="AG46" s="10">
+      <c r="BM45" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BN45" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="BO45" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BP45" s="10">
         <v>0.01</v>
       </c>
-      <c r="AH46" s="10">
-        <v>1E-3</v>
-      </c>
-      <c r="AI46" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AJ46" s="10">
-        <v>0</v>
-      </c>
-      <c r="AK46" s="10">
-        <v>1</v>
-      </c>
-      <c r="AL46" s="10">
-        <v>1</v>
-      </c>
-      <c r="AP46" s="10">
-        <v>0.05</v>
-      </c>
-      <c r="AQ46" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AR46" s="10">
-        <v>0</v>
-      </c>
-      <c r="AT46" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AU46" s="10">
-        <v>0.03</v>
-      </c>
-      <c r="AV46" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AW46" s="10">
-        <v>0.04</v>
-      </c>
-      <c r="AX46" s="10">
-        <v>0.11</v>
-      </c>
-      <c r="AY46" s="10">
-        <v>1</v>
-      </c>
-      <c r="AZ46" s="10">
-        <v>0.03</v>
-      </c>
-      <c r="BA46" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="BB46" s="10">
-        <v>0.7</v>
-      </c>
-      <c r="BC46" s="10">
-        <v>1</v>
-      </c>
-      <c r="BD46" s="10">
-        <v>15</v>
-      </c>
-      <c r="BE46" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="BF46" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="BG46" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BH46" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="BI46" s="10">
-        <v>5</v>
-      </c>
-      <c r="BJ46" s="10">
-        <v>8.2199999999999995E-2</v>
-      </c>
-      <c r="BK46" s="10">
-        <v>0.12</v>
-      </c>
-      <c r="BL46" s="10">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="BM46" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BN46" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="BO46" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BP46" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="BQ46" s="10" t="s">
+      <c r="BQ45" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="BR46" s="10">
-        <v>0.75</v>
-      </c>
-      <c r="BS46" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="BT46" s="10" t="b">
+      <c r="BR45" s="10">
+        <v>1</v>
+      </c>
+      <c r="BS45" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="BT45" s="10" t="b">
         <v>1</v>
       </c>
     </row>
+    <row r="46" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="47" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="19" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B47" s="10" t="b">
         <v>0</v>
@@ -7702,13 +7687,13 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="I47" s="10">
-        <v>2.5000000000000001E-2</v>
+        <v>0.02</v>
       </c>
       <c r="J47" s="10">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="K47" s="10">
-        <v>2.5000000000000001E-2</v>
+        <v>0.02</v>
       </c>
       <c r="L47" s="10">
         <v>5.0000000000000001E-3</v>
@@ -7720,7 +7705,7 @@
         <v>131</v>
       </c>
       <c r="O47" s="10" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="Q47" s="10" t="s">
         <v>76</v>
@@ -7852,7 +7837,7 @@
         <v>23</v>
       </c>
       <c r="BR47" s="10">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="BS47" s="10" t="b">
         <v>1</v>
@@ -7861,174 +7846,195 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="49" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="B49" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="D49" s="10">
-        <v>1</v>
-      </c>
-      <c r="E49" s="10" t="s">
+    <row r="48" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="B48" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="D48" s="10">
+        <v>1</v>
+      </c>
+      <c r="E48" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F48" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G48" s="10">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H48" s="10">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="I48" s="10">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="J48" s="10">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="K48" s="10">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="L48" s="10">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="M48" s="10">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="N48" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="O48" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q48" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="W48" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="X48" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y48" s="10">
+        <v>1</v>
+      </c>
+      <c r="AA48" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AB48" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC48" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="AD48" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AE48" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF48" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="AG48" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="AH48" s="10">
+        <v>1E-3</v>
+      </c>
+      <c r="AI48" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AJ48" s="10">
+        <v>0</v>
+      </c>
+      <c r="AK48" s="10">
+        <v>1</v>
+      </c>
+      <c r="AL48" s="10">
+        <v>1</v>
+      </c>
+      <c r="AP48" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="AQ48" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AR48" s="10">
+        <v>0</v>
+      </c>
+      <c r="AT48" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AU48" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="AV48" s="10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AW48" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="AX48" s="10">
+        <v>0.11</v>
+      </c>
+      <c r="AY48" s="10">
+        <v>1</v>
+      </c>
+      <c r="AZ48" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="BA48" s="10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="BB48" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="BC48" s="10">
+        <v>1</v>
+      </c>
+      <c r="BD48" s="10">
+        <v>15</v>
+      </c>
+      <c r="BE48" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="BF48" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="BG48" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BH48" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="BI48" s="10">
+        <v>5</v>
+      </c>
+      <c r="BJ48" s="10">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="BK48" s="10">
+        <v>0.12</v>
+      </c>
+      <c r="BL48" s="10">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="BM48" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BN48" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="F49" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="G49" s="10">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="N49" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q49" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="W49" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="X49" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y49" s="10">
-        <v>1</v>
-      </c>
-      <c r="AA49" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AB49" s="10">
-        <v>0</v>
-      </c>
-      <c r="AC49" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="AD49" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AE49" s="10">
-        <v>0</v>
-      </c>
-      <c r="AF49" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="AG49" s="10">
+      <c r="BO48" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BP48" s="10">
         <v>0.01</v>
       </c>
-      <c r="AH49" s="10">
-        <v>1E-3</v>
-      </c>
-      <c r="AI49" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AJ49" s="10">
-        <v>0</v>
-      </c>
-      <c r="AK49" s="10">
-        <v>1</v>
-      </c>
-      <c r="AL49" s="10">
-        <v>1</v>
-      </c>
-      <c r="AP49" s="10">
-        <v>0.05</v>
-      </c>
-      <c r="AQ49" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AR49" s="10">
-        <v>0</v>
-      </c>
-      <c r="AT49" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AU49" s="10">
-        <v>0.03</v>
-      </c>
-      <c r="AV49" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AW49" s="10">
-        <v>0.04</v>
-      </c>
-      <c r="AX49" s="10">
-        <v>0.11</v>
-      </c>
-      <c r="AY49" s="10">
-        <v>1</v>
-      </c>
-      <c r="AZ49" s="10">
-        <v>0.03</v>
-      </c>
-      <c r="BA49" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="BB49" s="10">
-        <v>0.7</v>
-      </c>
-      <c r="BC49" s="10">
-        <v>1</v>
-      </c>
-      <c r="BD49" s="10">
-        <v>15</v>
-      </c>
-      <c r="BE49" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="BF49" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="BG49" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BH49" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="BI49" s="10">
-        <v>5</v>
-      </c>
-      <c r="BJ49" s="10">
-        <v>8.2199999999999995E-2</v>
-      </c>
-      <c r="BK49" s="10">
-        <v>0.12</v>
-      </c>
-      <c r="BL49" s="10">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="BM49" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BN49" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="BO49" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BP49" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="BQ49" s="10" t="s">
+      <c r="BQ48" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="BR49" s="10">
-        <v>0.75</v>
-      </c>
-      <c r="BS49" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="BT49" s="10" t="b">
+      <c r="BR48" s="10">
+        <v>1</v>
+      </c>
+      <c r="BS48" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="BT48" s="10" t="b">
         <v>1</v>
       </c>
     </row>
+    <row r="49" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="50" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="10" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="B50" s="10" t="b">
         <v>0</v>
@@ -8043,7 +8049,7 @@
         <v>50</v>
       </c>
       <c r="F50" s="10" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G50" s="10">
         <v>1.4999999999999999E-2</v>
@@ -8106,10 +8112,7 @@
         <v>0.5</v>
       </c>
       <c r="AR50" s="10">
-        <v>0.05</v>
-      </c>
-      <c r="AS50" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT50" s="10">
         <v>0.5</v>
@@ -8195,22 +8198,22 @@
     </row>
     <row r="51" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="10" t="s">
-        <v>54</v>
+        <v>112</v>
       </c>
       <c r="B51" s="10" t="b">
         <v>0</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D51" s="10">
         <v>1</v>
       </c>
       <c r="E51" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F51" s="10" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="G51" s="10">
         <v>1.4999999999999999E-2</v>
@@ -8230,9 +8233,6 @@
       <c r="Y51" s="10">
         <v>1</v>
       </c>
-      <c r="Z51" s="10" t="b">
-        <v>0</v>
-      </c>
       <c r="AA51" s="10">
         <v>0.02</v>
       </c>
@@ -8276,7 +8276,10 @@
         <v>0.5</v>
       </c>
       <c r="AR51" s="10">
-        <v>0</v>
+        <v>0.05</v>
+      </c>
+      <c r="AS51" s="10">
+        <v>1</v>
       </c>
       <c r="AT51" s="10">
         <v>0.5</v>
@@ -8362,7 +8365,7 @@
     </row>
     <row r="52" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="10" t="s">
-        <v>128</v>
+        <v>54</v>
       </c>
       <c r="B52" s="10" t="b">
         <v>0</v>
@@ -8394,8 +8397,8 @@
       <c r="X52" s="10">
         <v>0</v>
       </c>
-      <c r="Y52" s="14">
-        <v>5</v>
+      <c r="Y52" s="10">
+        <v>1</v>
       </c>
       <c r="Z52" s="10" t="b">
         <v>0</v>
@@ -8461,7 +8464,7 @@
         <v>0.11</v>
       </c>
       <c r="AY52" s="10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AZ52" s="10">
         <v>0.03</v>
@@ -8529,7 +8532,7 @@
     </row>
     <row r="53" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="10" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B53" s="10" t="b">
         <v>0</v>
@@ -8556,10 +8559,10 @@
         <v>76</v>
       </c>
       <c r="W53" s="10">
-        <v>2.5000000000000001E-2</v>
+        <v>0.02</v>
       </c>
       <c r="X53" s="10">
-        <v>5.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="Y53" s="14">
         <v>5</v>
@@ -8694,9 +8697,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:72" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="10" t="s">
-        <v>55</v>
+        <v>134</v>
       </c>
       <c r="B54" s="10" t="b">
         <v>0</v>
@@ -8708,7 +8711,7 @@
         <v>1</v>
       </c>
       <c r="E54" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F54" s="10" t="s">
         <v>63</v>
@@ -8723,13 +8726,13 @@
         <v>76</v>
       </c>
       <c r="W54" s="10">
-        <v>0.02</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="X54" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y54" s="10">
-        <v>1</v>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="Y54" s="14">
+        <v>5</v>
       </c>
       <c r="Z54" s="10" t="b">
         <v>0</v>
@@ -8795,7 +8798,7 @@
         <v>0.11</v>
       </c>
       <c r="AY54" s="10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AZ54" s="10">
         <v>0.03</v>
@@ -8861,177 +8864,177 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="56" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="17" t="s">
+    <row r="55" spans="1:72" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B55" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="D55" s="10">
+        <v>1</v>
+      </c>
+      <c r="E55" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F55" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G55" s="10">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="N55" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q55" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="W55" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="X55" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y55" s="10">
+        <v>1</v>
+      </c>
+      <c r="Z55" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA55" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AB55" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC55" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="AD55" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AE55" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF55" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="AG55" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="AH55" s="10">
+        <v>1E-3</v>
+      </c>
+      <c r="AI55" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AJ55" s="10">
+        <v>0</v>
+      </c>
+      <c r="AK55" s="10">
+        <v>1</v>
+      </c>
+      <c r="AL55" s="10">
+        <v>1</v>
+      </c>
+      <c r="AP55" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="AQ55" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AR55" s="10">
+        <v>0</v>
+      </c>
+      <c r="AT55" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AU55" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="AV55" s="10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AW55" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="AX55" s="10">
+        <v>0.11</v>
+      </c>
+      <c r="AY55" s="10">
+        <v>1</v>
+      </c>
+      <c r="AZ55" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="BA55" s="10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="BB55" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="BC55" s="10">
+        <v>1</v>
+      </c>
+      <c r="BD55" s="10">
+        <v>15</v>
+      </c>
+      <c r="BE55" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="BF55" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="BG55" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BH55" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="BI55" s="10">
+        <v>5</v>
+      </c>
+      <c r="BJ55" s="10">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="BK55" s="10">
+        <v>0.12</v>
+      </c>
+      <c r="BL55" s="10">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="BM55" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BN55" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="BO55" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BP55" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="BQ55" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="BR55" s="10">
+        <v>0.75</v>
+      </c>
+      <c r="BS55" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="BT55" s="10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="57" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="17" t="s">
         <v>117</v>
-      </c>
-      <c r="B56" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="C56" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="D56" s="10">
-        <v>1</v>
-      </c>
-      <c r="E56" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="F56" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="G56" s="10">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="N56" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q56" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="W56" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="X56" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y56" s="10">
-        <v>1</v>
-      </c>
-      <c r="AA56" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AB56" s="10">
-        <v>0</v>
-      </c>
-      <c r="AC56" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="AD56" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AE56" s="10">
-        <v>0</v>
-      </c>
-      <c r="AF56" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="AG56" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="AH56" s="10">
-        <v>1E-3</v>
-      </c>
-      <c r="AI56" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="AJ56" s="10">
-        <v>0</v>
-      </c>
-      <c r="AK56" s="10">
-        <v>1</v>
-      </c>
-      <c r="AL56" s="10">
-        <v>1</v>
-      </c>
-      <c r="AP56" s="10">
-        <v>0.05</v>
-      </c>
-      <c r="AQ56" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AR56" s="10">
-        <v>0.05</v>
-      </c>
-      <c r="AS56" s="10">
-        <v>1</v>
-      </c>
-      <c r="AT56" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="AU56" s="10">
-        <v>0.03</v>
-      </c>
-      <c r="AV56" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AW56" s="10">
-        <v>0.04</v>
-      </c>
-      <c r="AX56" s="10">
-        <v>0.11</v>
-      </c>
-      <c r="AY56" s="10">
-        <v>1</v>
-      </c>
-      <c r="AZ56" s="10">
-        <v>0.03</v>
-      </c>
-      <c r="BA56" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="BB56" s="10">
-        <v>0.7</v>
-      </c>
-      <c r="BC56" s="10">
-        <v>1</v>
-      </c>
-      <c r="BD56" s="10">
-        <v>15</v>
-      </c>
-      <c r="BE56" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="BF56" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="BG56" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BH56" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="BI56" s="10">
-        <v>5</v>
-      </c>
-      <c r="BJ56" s="10">
-        <v>8.2199999999999995E-2</v>
-      </c>
-      <c r="BK56" s="10">
-        <v>0.12</v>
-      </c>
-      <c r="BL56" s="10">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="BM56" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BN56" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="BO56" s="10">
-        <v>0.02</v>
-      </c>
-      <c r="BP56" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="BQ56" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="BR56" s="10">
-        <v>1</v>
-      </c>
-      <c r="BS56" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="BT56" s="10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="10" t="s">
-        <v>118</v>
       </c>
       <c r="B57" s="10" t="b">
         <v>0</v>
@@ -9046,7 +9049,7 @@
         <v>50</v>
       </c>
       <c r="F57" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G57" s="10">
         <v>1.4999999999999999E-2</v>
@@ -9109,7 +9112,10 @@
         <v>0.5</v>
       </c>
       <c r="AR57" s="10">
-        <v>0</v>
+        <v>0.05</v>
+      </c>
+      <c r="AS57" s="10">
+        <v>1</v>
       </c>
       <c r="AT57" s="10">
         <v>0.5</v>
@@ -9195,22 +9201,22 @@
     </row>
     <row r="58" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="10" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B58" s="10" t="b">
         <v>0</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D58" s="10">
         <v>1</v>
       </c>
       <c r="E58" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F58" s="10" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="G58" s="10">
         <v>1.4999999999999999E-2</v>
@@ -9229,9 +9235,6 @@
       </c>
       <c r="Y58" s="10">
         <v>1</v>
-      </c>
-      <c r="Z58" s="10" t="b">
-        <v>0</v>
       </c>
       <c r="AA58" s="10">
         <v>0.02</v>
@@ -9362,7 +9365,7 @@
     </row>
     <row r="59" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="10" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="B59" s="10" t="b">
         <v>0</v>
@@ -9394,8 +9397,8 @@
       <c r="X59" s="10">
         <v>0</v>
       </c>
-      <c r="Y59" s="14">
-        <v>5</v>
+      <c r="Y59" s="10">
+        <v>1</v>
       </c>
       <c r="Z59" s="10" t="b">
         <v>0</v>
@@ -9461,7 +9464,7 @@
         <v>0.11</v>
       </c>
       <c r="AY59" s="10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AZ59" s="10">
         <v>0.03</v>
@@ -9529,7 +9532,7 @@
     </row>
     <row r="60" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="10" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B60" s="10" t="b">
         <v>0</v>
@@ -9556,10 +9559,10 @@
         <v>76</v>
       </c>
       <c r="W60" s="10">
-        <v>2.5000000000000001E-2</v>
+        <v>0.02</v>
       </c>
       <c r="X60" s="10">
-        <v>5.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="Y60" s="14">
         <v>5</v>
@@ -9694,9 +9697,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:72" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:72" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="10" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="B61" s="10" t="b">
         <v>0</v>
@@ -9708,7 +9711,7 @@
         <v>1</v>
       </c>
       <c r="E61" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F61" s="10" t="s">
         <v>63</v>
@@ -9723,13 +9726,13 @@
         <v>76</v>
       </c>
       <c r="W61" s="10">
-        <v>0.02</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="X61" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y61" s="10">
-        <v>1</v>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="Y61" s="14">
+        <v>5</v>
       </c>
       <c r="Z61" s="10" t="b">
         <v>0</v>
@@ -9795,7 +9798,7 @@
         <v>0.11</v>
       </c>
       <c r="AY61" s="10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AZ61" s="10">
         <v>0.03</v>
@@ -9858,15 +9861,182 @@
         <v>1</v>
       </c>
       <c r="BT61" s="10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:72" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="B62" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="C62" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="D62" s="10">
+        <v>1</v>
+      </c>
+      <c r="E62" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F62" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G62" s="10">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="N62" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q62" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="W62" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="X62" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y62" s="10">
+        <v>1</v>
+      </c>
+      <c r="Z62" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA62" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AB62" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC62" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="AD62" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AE62" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF62" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="AG62" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="AH62" s="10">
+        <v>1E-3</v>
+      </c>
+      <c r="AI62" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AJ62" s="10">
+        <v>0</v>
+      </c>
+      <c r="AK62" s="10">
+        <v>1</v>
+      </c>
+      <c r="AL62" s="10">
+        <v>1</v>
+      </c>
+      <c r="AP62" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="AQ62" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AR62" s="10">
+        <v>0</v>
+      </c>
+      <c r="AT62" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AU62" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="AV62" s="10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AW62" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="AX62" s="10">
+        <v>0.11</v>
+      </c>
+      <c r="AY62" s="10">
+        <v>1</v>
+      </c>
+      <c r="AZ62" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="BA62" s="10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="BB62" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="BC62" s="10">
+        <v>1</v>
+      </c>
+      <c r="BD62" s="10">
+        <v>15</v>
+      </c>
+      <c r="BE62" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="BF62" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="BG62" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BH62" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="BI62" s="10">
+        <v>5</v>
+      </c>
+      <c r="BJ62" s="10">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="BK62" s="10">
+        <v>0.12</v>
+      </c>
+      <c r="BL62" s="10">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="BM62" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BN62" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="BO62" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BP62" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="BQ62" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="BR62" s="10">
+        <v>1</v>
+      </c>
+      <c r="BS62" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="BT62" s="10" t="b">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q46:Q47 Q49:Q54 Q43:Q44 Q56:Q61 Q35:Q41 Q3:Q15 Q30:Q33 Q17:Q29" xr:uid="{8DBFC5CB-438A-4309-B948-24597CAE3D7F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q47:Q48 Q50:Q55 Q44:Q45 Q57:Q62 Q36:Q42 Q3:Q16 Q18:Q34" xr:uid="{8DBFC5CB-438A-4309-B948-24597CAE3D7F}">
       <formula1>"preSet, ALpct,MApct"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B30:B61 B3:B29" xr:uid="{05E01AB2-72EC-4550-ACB8-4E83765DE296}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B62" xr:uid="{05E01AB2-72EC-4550-ACB8-4E83765DE296}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -9880,7 +10050,7 @@
           <x14:formula1>
             <xm:f>Policies!$B$3:$B$9</xm:f>
           </x14:formula1>
-          <xm:sqref>F46:F47 F49:F54 F43:F44 F56:F61 F30:F41 F3:F29</xm:sqref>
+          <xm:sqref>F47:F48 F50:F55 F44:F45 F57:F62 F3:F42</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -9894,7 +10064,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
